--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B953064-9D5F-4F64-B404-0997F8150DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2522E6-1932-4531-9E05-15CFD186AF44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28470" windowHeight="11790" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>£HLMA</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Net Margin</t>
   </si>
   <si>
-    <t>Taxes %</t>
-  </si>
-  <si>
     <t>Balance Sheet</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>FY17</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,6 +673,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="175" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1161,7 +1186,7 @@
   <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1765,8 +1790,11 @@
       <c r="B33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="57">
+        <f>C6/'Financial Model'!M62</f>
+        <v>5.24180086047941</v>
+      </c>
+      <c r="D33" s="58"/>
       <c r="G33" s="26"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -1919,10 +1947,10 @@
   <dimension ref="A1:AJ77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AB36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1940,7 +1968,7 @@
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="36"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="36"/>
+    <col min="14" max="14" width="9.140625" style="65"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="9.140625" style="36"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
@@ -1948,10 +1976,10 @@
   <sheetData>
     <row r="1" spans="2:36" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>34</v>
@@ -1980,7 +2008,7 @@
       <c r="M1" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="59" t="s">
         <v>43</v>
       </c>
       <c r="O1" s="29" t="s">
@@ -1990,7 +2018,7 @@
         <v>45</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S1" s="29" t="s">
         <v>46</v>
@@ -2072,7 +2100,7 @@
       <c r="M2" s="41">
         <v>44834</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="60"/>
       <c r="P2" s="34"/>
     </row>
     <row r="3" spans="2:36" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -2091,7 +2119,7 @@
       <c r="M3" s="40">
         <v>44882</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="60"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -2121,7 +2149,7 @@
       <c r="M4" s="42">
         <v>875.5</v>
       </c>
-      <c r="N4" s="43"/>
+      <c r="N4" s="61"/>
       <c r="P4" s="43"/>
     </row>
     <row r="5" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -2151,7 +2179,7 @@
       <c r="M5" s="42">
         <v>151.69999999999999</v>
       </c>
-      <c r="N5" s="43"/>
+      <c r="N5" s="61"/>
       <c r="P5" s="43"/>
     </row>
     <row r="6" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2181,7 +2209,7 @@
       <c r="M6" s="44">
         <v>0</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="62"/>
       <c r="P6" s="45"/>
     </row>
     <row r="7" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2211,7 +2239,7 @@
       <c r="M7" s="44">
         <v>0</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="62"/>
       <c r="P7" s="45"/>
     </row>
     <row r="8" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2241,7 +2269,7 @@
       <c r="M8" s="44">
         <v>0.8</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="62"/>
       <c r="P8" s="45"/>
     </row>
     <row r="9" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2271,7 +2299,7 @@
       <c r="M9" s="44">
         <v>7</v>
       </c>
-      <c r="N9" s="45"/>
+      <c r="N9" s="62"/>
       <c r="P9" s="45"/>
     </row>
     <row r="10" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2307,7 +2335,7 @@
         <f>M5+M6+M7+M8-M9</f>
         <v>145.5</v>
       </c>
-      <c r="N10" s="45"/>
+      <c r="N10" s="62"/>
       <c r="P10" s="45"/>
     </row>
     <row r="11" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2337,7 +2365,7 @@
       <c r="M11" s="44">
         <v>30.7</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="62"/>
       <c r="P11" s="45"/>
     </row>
     <row r="12" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -2373,7 +2401,7 @@
         <f>M10-M11</f>
         <v>114.8</v>
       </c>
-      <c r="N12" s="43"/>
+      <c r="N12" s="61"/>
       <c r="P12" s="43"/>
     </row>
     <row r="13" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
@@ -2409,7 +2437,7 @@
         <f>M12+M14</f>
         <v>115</v>
       </c>
-      <c r="N13" s="43"/>
+      <c r="N13" s="61"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2439,7 +2467,7 @@
       <c r="M14" s="44">
         <v>0.2</v>
       </c>
-      <c r="N14" s="45"/>
+      <c r="N14" s="62"/>
       <c r="P14" s="45"/>
     </row>
     <row r="15" spans="2:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
@@ -2475,7 +2503,7 @@
         <f>M12/M16</f>
         <v>0.30354309888947645</v>
       </c>
-      <c r="N15" s="47"/>
+      <c r="N15" s="63"/>
       <c r="P15" s="47"/>
     </row>
     <row r="16" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
@@ -2505,7 +2533,7 @@
       <c r="M16" s="44">
         <v>378.2</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="62"/>
       <c r="P16" s="45"/>
     </row>
     <row r="18" spans="2:16" s="50" customFormat="1" x14ac:dyDescent="0.2">
@@ -2537,12 +2565,16 @@
         <f>M4/K4-1</f>
         <v>0.18760173629951149</v>
       </c>
-      <c r="N18" s="51"/>
+      <c r="N18" s="64"/>
       <c r="P18" s="51"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="N19" s="66">
+        <f>N4/M4-1</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
@@ -2578,7 +2610,7 @@
         <f>M5/M4</f>
         <v>0.17327241576242147</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="66"/>
       <c r="P21" s="49"/>
     </row>
     <row r="22" spans="2:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
@@ -2614,12 +2646,12 @@
         <f>M12/M4</f>
         <v>0.1311250713877784</v>
       </c>
-      <c r="N22" s="49"/>
+      <c r="N22" s="66"/>
       <c r="P22" s="49"/>
     </row>
     <row r="23" spans="2:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C23" s="48">
         <f>C11/C10</f>
@@ -2650,17 +2682,17 @@
         <f>M11/M10</f>
         <v>0.21099656357388316</v>
       </c>
-      <c r="N23" s="49"/>
+      <c r="N23" s="66"/>
       <c r="P23" s="49"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1">
         <f>216.4+586.8</f>
@@ -2690,7 +2722,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1">
         <v>102.6</v>
@@ -2714,7 +2746,7 @@
     </row>
     <row r="30" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2">
         <v>3.4</v>
@@ -2739,12 +2771,12 @@
       <c r="M30" s="42">
         <v>19.8</v>
       </c>
-      <c r="N30" s="35"/>
+      <c r="N30" s="67"/>
       <c r="P30" s="35"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -2768,7 +2800,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -2792,7 +2824,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1">
         <v>55.3</v>
@@ -2816,7 +2848,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="44">
         <f>SUM(C28:C33)</f>
@@ -2846,7 +2878,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1">
         <v>124.2</v>
@@ -2870,7 +2902,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1">
         <v>203.4</v>
@@ -2894,7 +2926,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1">
         <v>0.4</v>
@@ -2918,7 +2950,7 @@
     </row>
     <row r="38" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2">
         <v>71.7</v>
@@ -2943,12 +2975,12 @@
       <c r="M38" s="42">
         <v>213.4</v>
       </c>
-      <c r="N38" s="35"/>
+      <c r="N38" s="67"/>
       <c r="P38" s="35"/>
     </row>
     <row r="39" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2">
         <v>0.6</v>
@@ -2973,12 +3005,12 @@
       <c r="M39" s="42">
         <v>1.2</v>
       </c>
-      <c r="N39" s="35"/>
+      <c r="N39" s="67"/>
       <c r="P39" s="35"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="44">
         <f>SUM(C35:C39)+C34</f>
@@ -3014,7 +3046,7 @@
     </row>
     <row r="42" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="42">
         <v>0.2</v>
@@ -3039,12 +3071,12 @@
       <c r="M42" s="42">
         <v>256.39999999999998</v>
       </c>
-      <c r="N42" s="35"/>
+      <c r="N42" s="67"/>
       <c r="P42" s="35"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="44">
         <v>0</v>
@@ -3072,7 +3104,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="44">
         <v>0</v>
@@ -3100,7 +3132,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="44">
         <v>125.7</v>
@@ -3128,7 +3160,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="44">
         <v>4.7</v>
@@ -3156,7 +3188,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="44">
         <v>14.9</v>
@@ -3184,7 +3216,7 @@
     </row>
     <row r="48" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="42">
         <v>0.4</v>
@@ -3209,12 +3241,12 @@
       <c r="M48" s="42">
         <v>0</v>
       </c>
-      <c r="N48" s="35"/>
+      <c r="N48" s="67"/>
       <c r="P48" s="35"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="44">
         <f>SUM(C42:C48)</f>
@@ -3248,7 +3280,7 @@
     </row>
     <row r="50" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="42">
         <v>252.5</v>
@@ -3273,12 +3305,12 @@
       <c r="M50" s="42">
         <v>545.6</v>
       </c>
-      <c r="N50" s="35"/>
+      <c r="N50" s="67"/>
       <c r="P50" s="35"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="44">
         <v>0</v>
@@ -3306,7 +3338,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="44">
         <v>66.8</v>
@@ -3334,7 +3366,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="44">
         <v>11.4</v>
@@ -3362,7 +3394,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="44">
         <v>16.899999999999999</v>
@@ -3390,7 +3422,7 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="44">
         <v>96</v>
@@ -3418,7 +3450,7 @@
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="44">
         <f>C49+SUM(C50:C55)</f>
@@ -3455,7 +3487,7 @@
     </row>
     <row r="58" spans="2:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="44">
         <v>775.3</v>
@@ -3480,12 +3512,12 @@
       <c r="M58" s="44">
         <v>1627</v>
       </c>
-      <c r="N58" s="45"/>
+      <c r="N58" s="62"/>
       <c r="P58" s="45"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C59" s="44">
         <f>C58+C56</f>
@@ -3514,7 +3546,7 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="44">
         <f>C40-C56</f>
@@ -3543,7 +3575,7 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1">
         <f>C61/C16</f>
@@ -3659,7 +3691,7 @@
     </row>
     <row r="68" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="46">
         <v>10.8497</v>
@@ -3684,7 +3716,7 @@
       <c r="M68" s="46">
         <v>20.45</v>
       </c>
-      <c r="N68" s="47"/>
+      <c r="N68" s="63"/>
       <c r="P68" s="47"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2522E6-1932-4531-9E05-15CFD186AF44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCEC658-60C6-4427-8114-C84A3E5A4D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28470" windowHeight="11790" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>£HLMA</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -358,9 +361,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +425,29 @@
       <i/>
       <sz val="10"/>
       <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -563,21 +589,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,18 +621,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,12 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,33 +664,69 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -793,8 +828,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -809,8 +844,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="19050"/>
-          <a:ext cx="0" cy="11544300"/>
+          <a:off x="9096375" y="19050"/>
+          <a:ext cx="0" cy="17259300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -843,8 +878,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -859,8 +894,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13115925" y="0"/>
-          <a:ext cx="0" cy="11544300"/>
+          <a:off x="14573250" y="0"/>
+          <a:ext cx="0" cy="17878425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1186,7 +1221,7 @@
   <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1215,699 +1250,699 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="G5" s="5" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="G5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>22.55</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="16"/>
+      <c r="D6" s="7"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <f>'Financial Model'!M16</f>
         <v>378.2</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="7" t="str">
         <f>$C$28</f>
         <v>H122</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="16"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="13"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <f>C6*C7</f>
         <v>8528.41</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="16"/>
+      <c r="D8" s="7"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="13"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <f>'Financial Model'!M64</f>
         <v>234.4</v>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="7" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>H122</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
     </row>
     <row r="10" spans="2:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <f>'Financial Model'!M65</f>
         <v>802</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>H122</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <f>C9-C10</f>
         <v>-567.6</v>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>H122</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="16"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="13"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <f>C8-C11</f>
         <v>9096.01</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
+      <c r="D12" s="8"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G13" s="26"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="16"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="13"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G14" s="26"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="13"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="16"/>
+      <c r="D16" s="58"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="16"/>
+      <c r="D17" s="58"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="13"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="16"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="13"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="13"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G20" s="26"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="13"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G21" s="26"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="13"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="16"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="16"/>
+      <c r="D23" s="58"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="13"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="57">
         <v>1894</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="16"/>
+      <c r="D24" s="58"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="13"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="13"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="45">
         <v>44882</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="16"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="13"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="16"/>
+      <c r="D29" s="65"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="13"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G30" s="26"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="16"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="13"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="G31" s="26"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="16"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="13"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="16"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="13"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="66">
         <f>C6/'Financial Model'!M62</f>
         <v>5.24180086047941</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="16"/>
+      <c r="D33" s="67"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="13"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="23"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="16"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="13"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="16"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="13"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="16"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="13"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="16"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="13"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="19"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1950,7 +1985,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="L19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1958,739 +1993,939 @@
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="36"/>
+    <col min="4" max="4" width="9.140625" style="29"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="36"/>
+    <col min="6" max="6" width="9.140625" style="29"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="36"/>
+    <col min="8" max="8" width="9.140625" style="29"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="36"/>
+    <col min="10" max="10" width="9.140625" style="29"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="36"/>
+    <col min="12" max="12" width="9.140625" style="29"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="65"/>
+    <col min="14" max="14" width="9.140625" style="55"/>
     <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="36"/>
+    <col min="16" max="16" width="9.140625" style="29"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:36" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30"/>
-      <c r="C2" s="41">
+    <row r="2" spans="2:36" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="23"/>
+      <c r="C2" s="32">
         <v>43008</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="41">
+      <c r="D2" s="27"/>
+      <c r="E2" s="32">
         <v>43373</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="41">
+      <c r="F2" s="27"/>
+      <c r="G2" s="32">
         <v>43738</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="41">
+      <c r="H2" s="27"/>
+      <c r="I2" s="32">
         <v>44104</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="41">
+      <c r="J2" s="27"/>
+      <c r="K2" s="32">
         <v>44469</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="41">
+      <c r="L2" s="69">
+        <f>V2</f>
+        <v>44651</v>
+      </c>
+      <c r="M2" s="32">
         <v>44834</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="2:36" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="40">
+      <c r="N2" s="49"/>
+      <c r="P2" s="27"/>
+      <c r="U2" s="32">
+        <v>44286</v>
+      </c>
+      <c r="V2" s="32">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="31">
         <v>44885</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="40">
+      <c r="F3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="31">
         <v>44884</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="40">
+      <c r="J3" s="27"/>
+      <c r="L3" s="70">
+        <f>V3</f>
+        <v>44728</v>
+      </c>
+      <c r="M3" s="31">
         <v>44882</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
+      <c r="N3" s="49"/>
+      <c r="P3" s="27"/>
+      <c r="V3" s="31">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="33">
         <v>506.3</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42">
+      <c r="D4" s="34"/>
+      <c r="E4" s="33">
         <v>585.5</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42">
+      <c r="F4" s="34"/>
+      <c r="G4" s="33">
         <v>653.70000000000005</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="42">
+      <c r="H4" s="34"/>
+      <c r="I4" s="33">
         <v>618.4</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42">
+      <c r="J4" s="34"/>
+      <c r="K4" s="33">
         <v>737.2</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="42">
+      <c r="L4" s="34">
+        <f>V4-K4</f>
+        <v>788.09999999999991</v>
+      </c>
+      <c r="M4" s="33">
         <v>875.5</v>
       </c>
-      <c r="N4" s="61"/>
-      <c r="P4" s="43"/>
-    </row>
-    <row r="5" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+      <c r="N4" s="50"/>
+      <c r="P4" s="34"/>
+      <c r="U4" s="33">
+        <v>1318.2</v>
+      </c>
+      <c r="V4" s="33">
+        <v>1525.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="33">
         <v>81.8</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33">
         <v>100.4</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33">
         <v>111.6</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42">
+      <c r="H5" s="34"/>
+      <c r="I5" s="33">
         <v>102.1</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42">
+      <c r="J5" s="34"/>
+      <c r="K5" s="33">
         <v>137.6</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="42">
+      <c r="L5" s="34">
+        <f>V5-K5</f>
+        <v>141.29999999999998</v>
+      </c>
+      <c r="M5" s="33">
         <v>151.69999999999999</v>
       </c>
-      <c r="N5" s="61"/>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44" t="s">
+      <c r="N5" s="50"/>
+      <c r="P5" s="34"/>
+      <c r="U5" s="33">
+        <v>240.8</v>
+      </c>
+      <c r="V5" s="33">
+        <v>278.89999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="35">
         <v>-0.1</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="44">
+      <c r="D6" s="36"/>
+      <c r="E6" s="35">
         <v>-0.1</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44">
+      <c r="F6" s="36"/>
+      <c r="G6" s="35">
         <v>-0.1</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44">
+      <c r="H6" s="36"/>
+      <c r="I6" s="35">
         <v>0</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44">
+      <c r="J6" s="36"/>
+      <c r="K6" s="35">
         <v>-0.1</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="44">
+      <c r="L6" s="36">
+        <f>V6-K6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="P6" s="45"/>
-    </row>
-    <row r="7" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+      <c r="M6" s="35">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="P6" s="36"/>
+      <c r="U6" s="35">
+        <v>0</v>
+      </c>
+      <c r="V6" s="35">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="35">
         <v>0</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44">
+      <c r="D7" s="36"/>
+      <c r="E7" s="35">
         <v>-0.9</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44">
+      <c r="F7" s="36"/>
+      <c r="G7" s="35">
         <v>0</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="44">
+      <c r="H7" s="36"/>
+      <c r="I7" s="35">
         <v>0</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44">
+      <c r="J7" s="36"/>
+      <c r="K7" s="35">
         <v>34</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="44">
+      <c r="L7" s="36">
+        <f>V7-K7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="P7" s="45"/>
-    </row>
-    <row r="8" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="M7" s="35">
+        <v>0</v>
+      </c>
+      <c r="N7" s="51"/>
+      <c r="P7" s="36"/>
+      <c r="U7" s="35">
+        <v>22.1</v>
+      </c>
+      <c r="V7" s="35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="35">
         <v>0.1</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44">
+      <c r="D8" s="36"/>
+      <c r="E8" s="35">
         <v>0.1</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44">
+      <c r="F8" s="36"/>
+      <c r="G8" s="35">
         <v>0.4</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="44">
+      <c r="H8" s="36"/>
+      <c r="I8" s="35">
         <v>1</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44">
+      <c r="J8" s="36"/>
+      <c r="K8" s="35">
         <v>0.6</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44">
+      <c r="L8" s="36">
+        <f>V8-K8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="35">
         <v>0.8</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="P8" s="45"/>
-    </row>
-    <row r="9" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44" t="s">
+      <c r="N8" s="51"/>
+      <c r="P8" s="36"/>
+      <c r="U8" s="35">
+        <v>1</v>
+      </c>
+      <c r="V8" s="35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="35">
         <v>5</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="44">
+      <c r="D9" s="36"/>
+      <c r="E9" s="35">
         <v>5</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="44">
+      <c r="F9" s="36"/>
+      <c r="G9" s="35">
         <v>6.1</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="44">
+      <c r="H9" s="36"/>
+      <c r="I9" s="35">
         <v>6.8</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="44">
+      <c r="J9" s="36"/>
+      <c r="K9" s="35">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="44">
+      <c r="L9" s="36">
+        <f>V9-K9</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M9" s="35">
         <v>7</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="P9" s="45"/>
-    </row>
-    <row r="10" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="N9" s="51"/>
+      <c r="P9" s="36"/>
+      <c r="U9" s="35">
+        <v>11</v>
+      </c>
+      <c r="V9" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="35">
         <f>C5+C6+C7+C8-C9</f>
         <v>76.8</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="44">
+      <c r="D10" s="36"/>
+      <c r="E10" s="35">
         <f>E5+E6+E7+E8-E9</f>
         <v>94.5</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="44">
+      <c r="F10" s="36"/>
+      <c r="G10" s="35">
         <f>G5+G6+G7+G8-G9</f>
         <v>105.80000000000001</v>
       </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="44">
+      <c r="H10" s="36"/>
+      <c r="I10" s="35">
         <f>I5+I6+I7+I8-I9</f>
         <v>96.3</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="44">
+      <c r="J10" s="36"/>
+      <c r="K10" s="35">
         <f>K5+K6+K7+K8-K9</f>
         <v>167.5</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="44">
+      <c r="L10" s="36">
+        <f>L5+L6+L7+L8-L9</f>
+        <v>136.89999999999998</v>
+      </c>
+      <c r="M10" s="35">
         <f>M5+M6+M7+M8-M9</f>
         <v>145.5</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="P10" s="45"/>
-    </row>
-    <row r="11" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="44" t="s">
+      <c r="N10" s="51"/>
+      <c r="P10" s="36"/>
+      <c r="U10" s="35">
+        <f>U5+U6+U7+U8-U9</f>
+        <v>252.90000000000003</v>
+      </c>
+      <c r="V10" s="35">
+        <f>V5+V6+V7+V8-V9</f>
+        <v>304.39999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="35">
         <v>15.1</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="44">
+      <c r="D11" s="36"/>
+      <c r="E11" s="35">
         <v>19.899999999999999</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="44">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35">
         <v>20.8</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="44">
+      <c r="H11" s="36"/>
+      <c r="I11" s="35">
         <v>19</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="44">
+      <c r="J11" s="36"/>
+      <c r="K11" s="35">
         <v>31.8</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="44">
+      <c r="L11" s="36">
+        <f>V11-K11</f>
+        <v>28.400000000000002</v>
+      </c>
+      <c r="M11" s="35">
         <v>30.7</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="P11" s="45"/>
-    </row>
-    <row r="12" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
+      <c r="N11" s="51"/>
+      <c r="P11" s="36"/>
+      <c r="U11" s="35">
+        <v>49.6</v>
+      </c>
+      <c r="V11" s="35">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="33">
         <f>C10-C11</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42">
+      <c r="D12" s="34"/>
+      <c r="E12" s="33">
         <f>E10-E11</f>
         <v>74.599999999999994</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="42">
+      <c r="F12" s="34"/>
+      <c r="G12" s="33">
         <f>G10-G11</f>
         <v>85.000000000000014</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="42">
+      <c r="H12" s="34"/>
+      <c r="I12" s="33">
         <f>I10-I11</f>
         <v>77.3</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="42">
+      <c r="J12" s="34"/>
+      <c r="K12" s="33">
         <f>K10-K11</f>
         <v>135.69999999999999</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="42">
+      <c r="L12" s="34">
+        <f>L10-L11</f>
+        <v>108.49999999999997</v>
+      </c>
+      <c r="M12" s="33">
         <f>M10-M11</f>
         <v>114.8</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="2:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="N12" s="50"/>
+      <c r="P12" s="34"/>
+      <c r="U12" s="33">
+        <f>U10-U11</f>
+        <v>203.30000000000004</v>
+      </c>
+      <c r="V12" s="33">
+        <f>V10-V11</f>
+        <v>244.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="33">
         <f>C12+C14</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42">
+      <c r="D13" s="34"/>
+      <c r="E13" s="33">
         <f>E12+E14</f>
         <v>74.599999999999994</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42">
+      <c r="F13" s="34"/>
+      <c r="G13" s="33">
         <f>G12+G14</f>
         <v>85.000000000000014</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="42">
+      <c r="H13" s="34"/>
+      <c r="I13" s="33">
         <f>I12+I14</f>
         <v>77.3</v>
       </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42">
+      <c r="J13" s="34"/>
+      <c r="K13" s="33">
         <f>K12+K14</f>
         <v>135.79999999999998</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="42">
+      <c r="L13" s="34">
+        <f>L12+L14</f>
+        <v>108.19999999999997</v>
+      </c>
+      <c r="M13" s="33">
         <f>M12+M14</f>
         <v>115</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44" t="s">
+      <c r="N13" s="50"/>
+      <c r="P13" s="34"/>
+      <c r="U13" s="33">
+        <f>U12+U14</f>
+        <v>203.20000000000005</v>
+      </c>
+      <c r="V13" s="33">
+        <f>V12+V14</f>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="46">
         <v>0</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="55">
+      <c r="D14" s="36"/>
+      <c r="E14" s="46">
         <v>0</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="55">
+      <c r="F14" s="36"/>
+      <c r="G14" s="46">
         <v>0</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="55">
+      <c r="H14" s="36"/>
+      <c r="I14" s="46">
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="44">
+      <c r="J14" s="36"/>
+      <c r="K14" s="35">
         <v>0.1</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="44">
+      <c r="L14" s="36">
+        <f>V14-K14</f>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="M14" s="35">
         <v>0.2</v>
       </c>
-      <c r="N14" s="62"/>
-      <c r="P14" s="45"/>
-    </row>
-    <row r="15" spans="2:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="46" t="s">
+      <c r="N14" s="51"/>
+      <c r="P14" s="36"/>
+      <c r="U14" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="V14" s="35">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="37">
         <f>C12/C16</f>
         <v>0.16270266756508422</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="46">
+      <c r="D15" s="38"/>
+      <c r="E15" s="37">
         <f>E12/E16</f>
         <v>0.19681108372907286</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="46">
+      <c r="F15" s="38"/>
+      <c r="G15" s="37">
         <f>G12/G16</f>
         <v>0.22419479233636896</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="46">
+      <c r="H15" s="38"/>
+      <c r="I15" s="37">
         <f>I12/I16</f>
         <v>0.20390802308932054</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="46">
+      <c r="J15" s="38"/>
+      <c r="K15" s="37">
         <f>K12/K16</f>
         <v>0.35795304668952777</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="46">
+      <c r="L15" s="38">
+        <f>L12/L16</f>
+        <v>0.28650646950092412</v>
+      </c>
+      <c r="M15" s="37">
         <f>M12/M16</f>
         <v>0.30354309888947645</v>
       </c>
-      <c r="N15" s="63"/>
-      <c r="P15" s="47"/>
-    </row>
-    <row r="16" spans="2:36" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="44" t="s">
+      <c r="N15" s="52"/>
+      <c r="P15" s="38"/>
+      <c r="U15" s="37">
+        <f>U12/U16</f>
+        <v>0.53612869198312252</v>
+      </c>
+      <c r="V15" s="37">
+        <f>V12/V16</f>
+        <v>0.6448376023237391</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="35">
         <v>379.21935100000002</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="44">
+      <c r="D16" s="36"/>
+      <c r="E16" s="35">
         <v>379.04369300000002</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="44">
+      <c r="F16" s="36"/>
+      <c r="G16" s="35">
         <v>379.13458700000001</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44">
+      <c r="H16" s="36"/>
+      <c r="I16" s="35">
         <v>379.092489</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44">
+      <c r="J16" s="36"/>
+      <c r="K16" s="35">
         <v>379.1</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44">
+      <c r="L16" s="36">
+        <f>V16</f>
+        <v>378.7</v>
+      </c>
+      <c r="M16" s="35">
         <v>378.2</v>
       </c>
-      <c r="N16" s="62"/>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="18" spans="2:16" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
+      <c r="N16" s="51"/>
+      <c r="P16" s="36"/>
+      <c r="U16" s="35">
+        <v>379.2</v>
+      </c>
+      <c r="V16" s="35">
+        <v>378.7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50">
+      <c r="D18" s="42"/>
+      <c r="E18" s="41">
         <f>E4/C4-1</f>
         <v>0.15642899466719329</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="50">
+      <c r="F18" s="42"/>
+      <c r="G18" s="41">
         <f>G4/E4-1</f>
         <v>0.11648163962425295</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="50">
+      <c r="H18" s="42"/>
+      <c r="I18" s="41">
         <f>I4/G4-1</f>
         <v>-5.4000305950742011E-2</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="50">
+      <c r="J18" s="42"/>
+      <c r="K18" s="41">
         <f>K4/I4-1</f>
         <v>0.19210866752910749</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="50">
+      <c r="L18" s="42"/>
+      <c r="M18" s="41">
         <f>M4/K4-1</f>
         <v>0.18760173629951149</v>
       </c>
-      <c r="N18" s="64"/>
-      <c r="P18" s="51"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N18" s="53"/>
+      <c r="P18" s="42"/>
+      <c r="V18" s="41">
+        <f>V4/U4-1</f>
+        <v>0.15710817781823683</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N19" s="66">
+      <c r="L19" s="40">
+        <f>L4/K4-1</f>
+        <v>6.9045035268583632E-2</v>
+      </c>
+      <c r="M19" s="39">
+        <f>M4/L4-1</f>
+        <v>0.11089963202639264</v>
+      </c>
+      <c r="N19" s="54">
         <f>N4/M4-1</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="48" t="s">
+      <c r="R19" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="S19" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="T19" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="U19" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19" s="68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="39">
         <f>C5/C4</f>
         <v>0.16156428994667194</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48">
+      <c r="D21" s="40"/>
+      <c r="E21" s="39">
         <f>E5/E4</f>
         <v>0.17147736976942785</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="48">
+      <c r="F21" s="40"/>
+      <c r="G21" s="39">
         <f>G5/G4</f>
         <v>0.17072051399724641</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="48">
+      <c r="H21" s="40"/>
+      <c r="I21" s="39">
         <f>I5/I4</f>
         <v>0.16510349288486417</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="48">
+      <c r="J21" s="40"/>
+      <c r="K21" s="39">
         <f>K5/K4</f>
         <v>0.18665219750406944</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="48">
+      <c r="L21" s="40">
+        <f>L5/L4</f>
+        <v>0.1792919680243624</v>
+      </c>
+      <c r="M21" s="39">
         <f>M5/M4</f>
         <v>0.17327241576242147</v>
       </c>
-      <c r="N21" s="66"/>
-      <c r="P21" s="49"/>
-    </row>
-    <row r="22" spans="2:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="48" t="s">
+      <c r="N21" s="54"/>
+      <c r="P21" s="40"/>
+      <c r="U21" s="39">
+        <f t="shared" ref="U21:V21" si="0">U5/U4</f>
+        <v>0.18267334243665606</v>
+      </c>
+      <c r="V21" s="39">
+        <f t="shared" si="0"/>
+        <v>0.18284927555235034</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="39">
         <f>C12/C4</f>
         <v>0.12186450720916452</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48">
+      <c r="D22" s="40"/>
+      <c r="E22" s="39">
         <f>E12/E4</f>
         <v>0.12741246797608879</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="48">
+      <c r="F22" s="40"/>
+      <c r="G22" s="39">
         <f>G12/G4</f>
         <v>0.13002906532048342</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="48">
+      <c r="H22" s="40"/>
+      <c r="I22" s="39">
         <f>I12/I4</f>
         <v>0.125</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="48">
+      <c r="J22" s="40"/>
+      <c r="K22" s="39">
         <f>K12/K4</f>
         <v>0.18407487791644056</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="48">
+      <c r="L22" s="40">
+        <f>L12/L4</f>
+        <v>0.13767288415175738</v>
+      </c>
+      <c r="M22" s="39">
         <f>M12/M4</f>
         <v>0.1311250713877784</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="2:16" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="48" t="s">
+      <c r="N22" s="54"/>
+      <c r="P22" s="40"/>
+      <c r="U22" s="39">
+        <f t="shared" ref="U22:V22" si="1">U12/U4</f>
+        <v>0.1542254589591868</v>
+      </c>
+      <c r="V22" s="39">
+        <f t="shared" si="1"/>
+        <v>0.16009965252737166</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="39">
         <f>C11/C10</f>
         <v>0.19661458333333334</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48">
+      <c r="D23" s="40"/>
+      <c r="E23" s="39">
         <f>E11/E10</f>
         <v>0.21058201058201056</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="48">
+      <c r="F23" s="40"/>
+      <c r="G23" s="39">
         <f>G11/G10</f>
         <v>0.19659735349716445</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="48">
+      <c r="H23" s="40"/>
+      <c r="I23" s="39">
         <f>I11/I10</f>
         <v>0.19730010384215993</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="48">
+      <c r="J23" s="40"/>
+      <c r="K23" s="39">
         <f>K11/K10</f>
         <v>0.18985074626865672</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="48">
+      <c r="L23" s="40">
+        <f>L11/L10</f>
+        <v>0.20745069393718046</v>
+      </c>
+      <c r="M23" s="39">
         <f>M11/M10</f>
         <v>0.21099656357388316</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="52" t="s">
+      <c r="N23" s="54"/>
+      <c r="P23" s="40"/>
+      <c r="U23" s="39">
+        <f t="shared" ref="U23:V23" si="2">U11/U10</f>
+        <v>0.19612495057334914</v>
+      </c>
+      <c r="V23" s="39">
+        <f t="shared" si="2"/>
+        <v>0.19776609724047309</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2702,25 +2937,25 @@
         <f>655.6+229.9</f>
         <v>885.5</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="35">
         <f>765.5+272.4</f>
         <v>1037.9000000000001</v>
       </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="44">
+      <c r="H28" s="36"/>
+      <c r="I28" s="35">
         <f>829.8+303.8</f>
         <v>1133.5999999999999</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="35">
         <f>867.4+319.3</f>
         <v>1186.7</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="35">
         <f>1101.8+418.6</f>
         <v>1520.4</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
@@ -2730,51 +2965,51 @@
       <c r="E29" s="1">
         <v>109.6</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="35">
         <v>171.7</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="44">
+      <c r="H29" s="36"/>
+      <c r="I29" s="35">
         <v>184.7</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="35">
         <v>186.7</v>
       </c>
-      <c r="M29" s="44">
+      <c r="M29" s="35">
         <v>224.5</v>
       </c>
     </row>
-    <row r="30" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C30" s="2">
         <v>3.4</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="2">
         <v>3.9</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="42">
+      <c r="F30" s="28"/>
+      <c r="G30" s="33">
         <v>5.5</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42">
+      <c r="H30" s="34"/>
+      <c r="I30" s="33">
         <v>4.8</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="42">
+      <c r="J30" s="28"/>
+      <c r="K30" s="33">
         <v>9.9</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="42">
+      <c r="L30" s="28"/>
+      <c r="M30" s="33">
         <v>19.8</v>
       </c>
-      <c r="N30" s="67"/>
-      <c r="P30" s="35"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N30" s="56"/>
+      <c r="P30" s="28"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
@@ -2784,21 +3019,21 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="35">
         <v>0</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="44">
+      <c r="H31" s="36"/>
+      <c r="I31" s="35">
         <v>0</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="35">
         <v>4.8</v>
       </c>
-      <c r="M31" s="44">
+      <c r="M31" s="35">
         <v>43.9</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2808,17 +3043,17 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="35">
         <v>0</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="44">
+      <c r="H32" s="36"/>
+      <c r="I32" s="35">
         <v>0</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="35">
         <v>14.7</v>
       </c>
-      <c r="M32" s="44">
+      <c r="M32" s="35">
         <v>14.7</v>
       </c>
     </row>
@@ -2832,17 +3067,17 @@
       <c r="E33" s="1">
         <v>30.9</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="35">
         <v>1.4</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44">
+      <c r="H33" s="36"/>
+      <c r="I33" s="35">
         <v>5.6</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="35">
         <v>1.9</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="35">
         <v>2.8</v>
       </c>
     </row>
@@ -2850,28 +3085,28 @@
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="35">
         <f>SUM(C28:C33)</f>
         <v>964.49999999999989</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="35">
         <f>SUM(E28:E33)</f>
         <v>1029.9000000000001</v>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="35">
         <f>SUM(G28:G33)</f>
         <v>1216.5000000000002</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="44">
+      <c r="H34" s="36"/>
+      <c r="I34" s="35">
         <f>SUM(I28:I33)</f>
         <v>1328.6999999999998</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="35">
         <f>SUM(K28:K33)</f>
         <v>1404.7000000000003</v>
       </c>
-      <c r="M34" s="44">
+      <c r="M34" s="35">
         <f>SUM(M28:M33)</f>
         <v>1826.1000000000001</v>
       </c>
@@ -2886,17 +3121,17 @@
       <c r="E35" s="1">
         <v>141.19999999999999</v>
       </c>
-      <c r="G35" s="44">
+      <c r="G35" s="35">
         <v>162.9</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="44">
+      <c r="H35" s="36"/>
+      <c r="I35" s="35">
         <v>175.8</v>
       </c>
-      <c r="K35" s="44">
+      <c r="K35" s="35">
         <v>193.2</v>
       </c>
-      <c r="M35" s="44">
+      <c r="M35" s="35">
         <v>308.8</v>
       </c>
     </row>
@@ -2910,17 +3145,17 @@
       <c r="E36" s="1">
         <v>241.8</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="35">
         <v>275.2</v>
       </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="44">
+      <c r="H36" s="36"/>
+      <c r="I36" s="35">
         <v>245.3</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="35">
         <v>279.2</v>
       </c>
-      <c r="M36" s="44">
+      <c r="M36" s="35">
         <v>389.9</v>
       </c>
     </row>
@@ -2934,17 +3169,17 @@
       <c r="E37" s="1">
         <v>0.7</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="35">
         <v>4.8</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="44">
+      <c r="H37" s="36"/>
+      <c r="I37" s="35">
         <v>6.5</v>
       </c>
-      <c r="K37" s="44">
+      <c r="K37" s="35">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M37" s="44">
+      <c r="M37" s="35">
         <v>1.9</v>
       </c>
     </row>
@@ -2955,28 +3190,28 @@
       <c r="C38" s="2">
         <v>71.7</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="44">
+      <c r="F38" s="28"/>
+      <c r="G38" s="35">
         <v>83.2</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="42">
+      <c r="H38" s="34"/>
+      <c r="I38" s="33">
         <v>125.5</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="42">
+      <c r="J38" s="28"/>
+      <c r="K38" s="33">
         <v>131.1</v>
       </c>
-      <c r="L38" s="35"/>
-      <c r="M38" s="42">
+      <c r="L38" s="28"/>
+      <c r="M38" s="33">
         <v>213.4</v>
       </c>
-      <c r="N38" s="67"/>
-      <c r="P38" s="35"/>
+      <c r="N38" s="56"/>
+      <c r="P38" s="28"/>
     </row>
     <row r="39" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
@@ -2985,120 +3220,120 @@
       <c r="C39" s="2">
         <v>0.6</v>
       </c>
-      <c r="D39" s="35"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="2">
         <v>0.3</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="42">
+      <c r="F39" s="28"/>
+      <c r="G39" s="33">
         <v>0.9</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="42">
+      <c r="H39" s="34"/>
+      <c r="I39" s="33">
         <v>0.4</v>
       </c>
-      <c r="J39" s="35"/>
-      <c r="K39" s="42">
+      <c r="J39" s="28"/>
+      <c r="K39" s="33">
         <v>0.6</v>
       </c>
-      <c r="L39" s="35"/>
-      <c r="M39" s="42">
+      <c r="L39" s="28"/>
+      <c r="M39" s="33">
         <v>1.2</v>
       </c>
-      <c r="N39" s="67"/>
-      <c r="P39" s="35"/>
+      <c r="N39" s="56"/>
+      <c r="P39" s="28"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="35">
         <f>SUM(C35:C39)+C34</f>
         <v>1364.8</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="35">
         <f>SUM(E35:E39)+E34</f>
         <v>1480.3000000000002</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="35">
         <f>SUM(G35:G39)+G34</f>
         <v>1743.5000000000002</v>
       </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="44">
+      <c r="H40" s="36"/>
+      <c r="I40" s="35">
         <f>SUM(I35:I39)+I34</f>
         <v>1882.1999999999998</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="35">
         <f>SUM(K35:K39)+K34</f>
         <v>2013.2000000000003</v>
       </c>
-      <c r="M40" s="44">
+      <c r="M40" s="35">
         <f>SUM(M35:M39)+M34</f>
         <v>2741.3</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="44"/>
-      <c r="M41" s="44"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="35"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="33">
         <v>0.2</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="42">
+      <c r="D42" s="34"/>
+      <c r="E42" s="33">
         <v>3</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="42">
+      <c r="F42" s="34"/>
+      <c r="G42" s="33">
         <v>1.7</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="42">
+      <c r="H42" s="34"/>
+      <c r="I42" s="33">
         <v>76.099999999999994</v>
       </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="42">
+      <c r="J42" s="34"/>
+      <c r="K42" s="33">
         <v>206.1</v>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="42">
+      <c r="L42" s="34"/>
+      <c r="M42" s="33">
         <v>256.39999999999998</v>
       </c>
-      <c r="N42" s="67"/>
-      <c r="P42" s="35"/>
+      <c r="N42" s="56"/>
+      <c r="P42" s="28"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="35">
         <v>0</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="44">
+      <c r="D43" s="36"/>
+      <c r="E43" s="35">
         <v>0</v>
       </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="44">
+      <c r="F43" s="36"/>
+      <c r="G43" s="35">
         <v>12.3</v>
       </c>
-      <c r="H43" s="45"/>
-      <c r="I43" s="44">
+      <c r="H43" s="36"/>
+      <c r="I43" s="35">
         <v>13</v>
       </c>
-      <c r="J43" s="45"/>
-      <c r="K43" s="44">
+      <c r="J43" s="36"/>
+      <c r="K43" s="35">
         <v>3</v>
       </c>
-      <c r="L43" s="45"/>
-      <c r="M43" s="44">
+      <c r="L43" s="36"/>
+      <c r="M43" s="35">
         <v>78.8</v>
       </c>
     </row>
@@ -3106,27 +3341,27 @@
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="35">
         <v>0</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="44">
+      <c r="D44" s="36"/>
+      <c r="E44" s="35">
         <v>0</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="44">
+      <c r="F44" s="36"/>
+      <c r="G44" s="35">
         <v>0</v>
       </c>
-      <c r="H44" s="45"/>
-      <c r="I44" s="44">
+      <c r="H44" s="36"/>
+      <c r="I44" s="35">
         <v>0</v>
       </c>
-      <c r="J44" s="45"/>
-      <c r="K44" s="44">
+      <c r="J44" s="36"/>
+      <c r="K44" s="35">
         <v>14.2</v>
       </c>
-      <c r="L44" s="45"/>
-      <c r="M44" s="44">
+      <c r="L44" s="36"/>
+      <c r="M44" s="35">
         <v>19.399999999999999</v>
       </c>
     </row>
@@ -3134,27 +3369,27 @@
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="35">
         <v>125.7</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="44">
+      <c r="D45" s="36"/>
+      <c r="E45" s="35">
         <v>154.5</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="44">
+      <c r="F45" s="36"/>
+      <c r="G45" s="35">
         <v>157.9</v>
       </c>
-      <c r="H45" s="45"/>
-      <c r="I45" s="44">
+      <c r="H45" s="36"/>
+      <c r="I45" s="35">
         <v>158.69999999999999</v>
       </c>
-      <c r="J45" s="45"/>
-      <c r="K45" s="44">
+      <c r="J45" s="36"/>
+      <c r="K45" s="35">
         <v>22</v>
       </c>
-      <c r="L45" s="45"/>
-      <c r="M45" s="44">
+      <c r="L45" s="36"/>
+      <c r="M45" s="35">
         <v>26.5</v>
       </c>
     </row>
@@ -3162,27 +3397,27 @@
       <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="35">
         <v>4.7</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="44">
+      <c r="D46" s="36"/>
+      <c r="E46" s="35">
         <v>18.2</v>
       </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="44">
+      <c r="F46" s="36"/>
+      <c r="G46" s="35">
         <v>20.5</v>
       </c>
-      <c r="H46" s="45"/>
-      <c r="I46" s="44">
+      <c r="H46" s="36"/>
+      <c r="I46" s="35">
         <v>30.5</v>
       </c>
-      <c r="J46" s="45"/>
-      <c r="K46" s="44">
+      <c r="J46" s="36"/>
+      <c r="K46" s="35">
         <v>13.8</v>
       </c>
-      <c r="L46" s="45"/>
-      <c r="M46" s="44">
+      <c r="L46" s="36"/>
+      <c r="M46" s="35">
         <v>15.8</v>
       </c>
     </row>
@@ -3190,27 +3425,27 @@
       <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="35">
         <v>14.9</v>
       </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="44">
+      <c r="D47" s="36"/>
+      <c r="E47" s="35">
         <v>13.3</v>
       </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="44">
+      <c r="F47" s="36"/>
+      <c r="G47" s="35">
         <v>13.4</v>
       </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="44">
+      <c r="H47" s="36"/>
+      <c r="I47" s="35">
         <v>11.3</v>
       </c>
-      <c r="J47" s="45"/>
-      <c r="K47" s="44">
+      <c r="J47" s="36"/>
+      <c r="K47" s="35">
         <v>0.2</v>
       </c>
-      <c r="L47" s="45"/>
-      <c r="M47" s="44">
+      <c r="L47" s="36"/>
+      <c r="M47" s="35">
         <v>3.4</v>
       </c>
     </row>
@@ -3218,62 +3453,62 @@
       <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="33">
         <v>0.4</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="42">
+      <c r="D48" s="34"/>
+      <c r="E48" s="33">
         <v>0.5</v>
       </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="42">
+      <c r="F48" s="34"/>
+      <c r="G48" s="33">
         <v>0.7</v>
       </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="42">
+      <c r="H48" s="34"/>
+      <c r="I48" s="33">
         <v>0.9</v>
       </c>
-      <c r="J48" s="43"/>
-      <c r="K48" s="42">
+      <c r="J48" s="34"/>
+      <c r="K48" s="33">
         <v>0</v>
       </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="42">
+      <c r="L48" s="34"/>
+      <c r="M48" s="33">
         <v>0</v>
       </c>
-      <c r="N48" s="67"/>
-      <c r="P48" s="35"/>
+      <c r="N48" s="56"/>
+      <c r="P48" s="28"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="35">
         <f>SUM(C42:C48)</f>
         <v>145.9</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="44">
+      <c r="D49" s="36"/>
+      <c r="E49" s="35">
         <f>SUM(E42:E48)</f>
         <v>189.5</v>
       </c>
-      <c r="F49" s="45"/>
-      <c r="G49" s="44">
+      <c r="F49" s="36"/>
+      <c r="G49" s="35">
         <f>SUM(G42:G48)</f>
         <v>206.5</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="44">
+      <c r="H49" s="36"/>
+      <c r="I49" s="35">
         <f>SUM(I42:I48)</f>
         <v>290.49999999999994</v>
       </c>
-      <c r="J49" s="45"/>
-      <c r="K49" s="44">
+      <c r="J49" s="36"/>
+      <c r="K49" s="35">
         <f>SUM(K42:K48)</f>
         <v>259.29999999999995</v>
       </c>
-      <c r="L49" s="45"/>
-      <c r="M49" s="44">
+      <c r="L49" s="36"/>
+      <c r="M49" s="35">
         <f>SUM(M42:M48)</f>
         <v>400.29999999999995</v>
       </c>
@@ -3282,57 +3517,57 @@
       <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="33">
         <v>252.5</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42">
+      <c r="D50" s="34"/>
+      <c r="E50" s="33">
         <v>258</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="42">
+      <c r="F50" s="34"/>
+      <c r="G50" s="33">
         <v>334.9</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="42">
+      <c r="H50" s="34"/>
+      <c r="I50" s="33">
         <v>300</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="42">
+      <c r="J50" s="34"/>
+      <c r="K50" s="33">
         <v>340.7</v>
       </c>
-      <c r="L50" s="43"/>
-      <c r="M50" s="42">
+      <c r="L50" s="34"/>
+      <c r="M50" s="33">
         <v>545.6</v>
       </c>
-      <c r="N50" s="67"/>
-      <c r="P50" s="35"/>
+      <c r="N50" s="56"/>
+      <c r="P50" s="28"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="44">
+      <c r="C51" s="35">
         <v>0</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="44">
+      <c r="D51" s="36"/>
+      <c r="E51" s="35">
         <v>0</v>
       </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="44">
+      <c r="F51" s="36"/>
+      <c r="G51" s="35">
         <v>44.7</v>
       </c>
-      <c r="H51" s="45"/>
-      <c r="I51" s="44">
+      <c r="H51" s="36"/>
+      <c r="I51" s="35">
         <v>51.4</v>
       </c>
-      <c r="J51" s="45"/>
-      <c r="K51" s="44">
+      <c r="J51" s="36"/>
+      <c r="K51" s="35">
         <v>53.4</v>
       </c>
-      <c r="L51" s="45"/>
-      <c r="M51" s="44">
+      <c r="L51" s="36"/>
+      <c r="M51" s="35">
         <v>69.2</v>
       </c>
     </row>
@@ -3340,27 +3575,27 @@
       <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="35">
         <v>66.8</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="44">
+      <c r="D52" s="36"/>
+      <c r="E52" s="35">
         <v>20.7</v>
       </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="44">
+      <c r="F52" s="36"/>
+      <c r="G52" s="35">
         <v>27.6</v>
       </c>
-      <c r="H52" s="45"/>
-      <c r="I52" s="44">
+      <c r="H52" s="36"/>
+      <c r="I52" s="35">
         <v>45</v>
       </c>
-      <c r="J52" s="45"/>
-      <c r="K52" s="44">
+      <c r="J52" s="36"/>
+      <c r="K52" s="35">
         <v>10.1</v>
       </c>
-      <c r="L52" s="45"/>
-      <c r="M52" s="44">
+      <c r="L52" s="36"/>
+      <c r="M52" s="35">
         <v>0.7</v>
       </c>
     </row>
@@ -3368,27 +3603,27 @@
       <c r="B53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C53" s="35">
         <v>11.4</v>
       </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="44">
+      <c r="D53" s="36"/>
+      <c r="E53" s="35">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F53" s="45"/>
-      <c r="G53" s="44">
+      <c r="F53" s="36"/>
+      <c r="G53" s="35">
         <v>13.3</v>
       </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="44">
+      <c r="H53" s="36"/>
+      <c r="I53" s="35">
         <v>16.3</v>
       </c>
-      <c r="J53" s="45"/>
-      <c r="K53" s="44">
+      <c r="J53" s="36"/>
+      <c r="K53" s="35">
         <v>15.2</v>
       </c>
-      <c r="L53" s="45"/>
-      <c r="M53" s="44">
+      <c r="L53" s="36"/>
+      <c r="M53" s="35">
         <v>21.4</v>
       </c>
     </row>
@@ -3396,27 +3631,27 @@
       <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="35">
         <v>16.899999999999999</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44">
+      <c r="D54" s="36"/>
+      <c r="E54" s="35">
         <v>4.7</v>
       </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="44">
+      <c r="F54" s="36"/>
+      <c r="G54" s="35">
         <v>7.9</v>
       </c>
-      <c r="H54" s="45"/>
-      <c r="I54" s="44">
+      <c r="H54" s="36"/>
+      <c r="I54" s="35">
         <v>14.3</v>
       </c>
-      <c r="J54" s="45"/>
-      <c r="K54" s="44">
+      <c r="J54" s="36"/>
+      <c r="K54" s="35">
         <v>6.3</v>
       </c>
-      <c r="L54" s="45"/>
-      <c r="M54" s="44">
+      <c r="L54" s="36"/>
+      <c r="M54" s="35">
         <v>7.9</v>
       </c>
     </row>
@@ -3424,27 +3659,27 @@
       <c r="B55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="44">
+      <c r="C55" s="35">
         <v>96</v>
       </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="44">
+      <c r="D55" s="36"/>
+      <c r="E55" s="35">
         <v>70.400000000000006</v>
       </c>
-      <c r="F55" s="45"/>
-      <c r="G55" s="44">
+      <c r="F55" s="36"/>
+      <c r="G55" s="35">
         <v>41.1</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="44">
+      <c r="H55" s="36"/>
+      <c r="I55" s="35">
         <v>41.7</v>
       </c>
-      <c r="J55" s="45"/>
-      <c r="K55" s="44">
+      <c r="J55" s="36"/>
+      <c r="K55" s="35">
         <v>51.1</v>
       </c>
-      <c r="L55" s="45"/>
-      <c r="M55" s="44">
+      <c r="L55" s="36"/>
+      <c r="M55" s="35">
         <v>69.2</v>
       </c>
     </row>
@@ -3452,94 +3687,94 @@
       <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="35">
         <f>C49+SUM(C50:C55)</f>
         <v>589.5</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="44">
+      <c r="D56" s="36"/>
+      <c r="E56" s="35">
         <f>E49+SUM(E50:E55)</f>
         <v>553</v>
       </c>
-      <c r="F56" s="45"/>
-      <c r="G56" s="44">
+      <c r="F56" s="36"/>
+      <c r="G56" s="35">
         <f>G49+SUM(G50:G55)</f>
         <v>676</v>
       </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="44">
+      <c r="H56" s="36"/>
+      <c r="I56" s="35">
         <f>I49+SUM(I50:I55)</f>
         <v>759.19999999999993</v>
       </c>
-      <c r="J56" s="45"/>
-      <c r="K56" s="44">
+      <c r="J56" s="36"/>
+      <c r="K56" s="35">
         <f>K49+SUM(K50:K55)</f>
         <v>736.09999999999991</v>
       </c>
-      <c r="L56" s="45"/>
-      <c r="M56" s="44">
+      <c r="L56" s="36"/>
+      <c r="M56" s="35">
         <f>M49+SUM(M50:M55)</f>
         <v>1114.3000000000002</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M57" s="44"/>
-    </row>
-    <row r="58" spans="2:16" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="44" t="s">
+      <c r="M57" s="35"/>
+    </row>
+    <row r="58" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="35">
         <v>775.3</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="44">
+      <c r="D58" s="36"/>
+      <c r="E58" s="35">
         <v>927.3</v>
       </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="44">
+      <c r="F58" s="36"/>
+      <c r="G58" s="35">
         <v>1067.5</v>
       </c>
-      <c r="H58" s="45"/>
-      <c r="I58" s="44">
+      <c r="H58" s="36"/>
+      <c r="I58" s="35">
         <v>1123</v>
       </c>
-      <c r="J58" s="45"/>
-      <c r="K58" s="44">
+      <c r="J58" s="36"/>
+      <c r="K58" s="35">
         <v>1277.0999999999999</v>
       </c>
-      <c r="L58" s="45"/>
-      <c r="M58" s="44">
+      <c r="L58" s="36"/>
+      <c r="M58" s="35">
         <v>1627</v>
       </c>
-      <c r="N58" s="62"/>
-      <c r="P58" s="45"/>
+      <c r="N58" s="51"/>
+      <c r="P58" s="36"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="44">
+      <c r="C59" s="35">
         <f>C58+C56</f>
         <v>1364.8</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="35">
         <f>E58+E56</f>
         <v>1480.3</v>
       </c>
-      <c r="G59" s="44">
+      <c r="G59" s="35">
         <f>G58+G56</f>
         <v>1743.5</v>
       </c>
-      <c r="I59" s="44">
+      <c r="I59" s="35">
         <f>I58+I56</f>
         <v>1882.1999999999998</v>
       </c>
-      <c r="K59" s="44">
+      <c r="K59" s="35">
         <f>K58+K56</f>
         <v>2013.1999999999998</v>
       </c>
-      <c r="M59" s="44">
+      <c r="M59" s="35">
         <f>M58+M56</f>
         <v>2741.3</v>
       </c>
@@ -3548,27 +3783,27 @@
       <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="35">
         <f>C40-C56</f>
         <v>775.3</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E61" s="35">
         <f>E40-E56</f>
         <v>927.30000000000018</v>
       </c>
-      <c r="G61" s="44">
+      <c r="G61" s="35">
         <f>G40-G56</f>
         <v>1067.5000000000002</v>
       </c>
-      <c r="I61" s="44">
+      <c r="I61" s="35">
         <f>I40-I56</f>
         <v>1123</v>
       </c>
-      <c r="K61" s="44">
+      <c r="K61" s="35">
         <f>K40-K56</f>
         <v>1277.1000000000004</v>
       </c>
-      <c r="M61" s="44">
+      <c r="M61" s="35">
         <f>M40-M56</f>
         <v>1627</v>
       </c>
@@ -3606,27 +3841,27 @@
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="35">
         <f>C38+C39+C30</f>
         <v>75.7</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="35">
         <f>E38+E39+E30</f>
         <v>70.600000000000009</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G64" s="35">
         <f>G38+G39+G30</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="I64" s="44">
+      <c r="I64" s="35">
         <f>I38+I39+I30</f>
         <v>130.70000000000002</v>
       </c>
-      <c r="K64" s="44">
+      <c r="K64" s="35">
         <f>K38+K39+K30</f>
         <v>141.6</v>
       </c>
-      <c r="M64" s="44">
+      <c r="M64" s="35">
         <f>M38+M39+M30</f>
         <v>234.4</v>
       </c>
@@ -3635,27 +3870,27 @@
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="35">
         <f>C50+C42+C48</f>
         <v>253.1</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="35">
         <f>E50+E42+E48</f>
         <v>261.5</v>
       </c>
-      <c r="G65" s="44">
+      <c r="G65" s="35">
         <f>G50+G42+G48</f>
         <v>337.29999999999995</v>
       </c>
-      <c r="I65" s="44">
+      <c r="I65" s="35">
         <f>I50+I42+I48</f>
         <v>377</v>
       </c>
-      <c r="K65" s="44">
+      <c r="K65" s="35">
         <f>K50+K42+K48</f>
         <v>546.79999999999995</v>
       </c>
-      <c r="M65" s="44">
+      <c r="M65" s="35">
         <f>M50+M42+M48</f>
         <v>802</v>
       </c>
@@ -3664,86 +3899,86 @@
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C66" s="35">
         <f>C64-C65</f>
         <v>-177.39999999999998</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E66" s="35">
         <f>E64-E65</f>
         <v>-190.89999999999998</v>
       </c>
-      <c r="G66" s="44">
+      <c r="G66" s="35">
         <f>G64-G65</f>
         <v>-247.69999999999993</v>
       </c>
-      <c r="I66" s="44">
+      <c r="I66" s="35">
         <f>I64-I65</f>
         <v>-246.29999999999998</v>
       </c>
-      <c r="K66" s="44">
+      <c r="K66" s="35">
         <f>K64-K65</f>
         <v>-405.19999999999993</v>
       </c>
-      <c r="M66" s="44">
+      <c r="M66" s="35">
         <f>M64-M65</f>
         <v>-567.6</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="46" t="s">
+    <row r="68" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="37">
         <v>10.8497</v>
       </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="46">
+      <c r="D68" s="38"/>
+      <c r="E68" s="37">
         <v>14.0044</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="46">
+      <c r="F68" s="38"/>
+      <c r="G68" s="37">
         <v>19.282</v>
       </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="46">
+      <c r="H68" s="38"/>
+      <c r="I68" s="37">
         <v>23.1129</v>
       </c>
-      <c r="J68" s="47"/>
-      <c r="K68" s="46">
+      <c r="J68" s="38"/>
+      <c r="K68" s="37">
         <v>28.1996</v>
       </c>
-      <c r="L68" s="47"/>
-      <c r="M68" s="46">
+      <c r="L68" s="38"/>
+      <c r="M68" s="37">
         <v>20.45</v>
       </c>
-      <c r="N68" s="63"/>
-      <c r="P68" s="47"/>
+      <c r="N68" s="52"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="44">
+      <c r="C69" s="35">
         <f>C68*C16</f>
         <v>4114.4161925447006</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="35">
         <f>E68*E16</f>
         <v>5308.2794942492001</v>
       </c>
-      <c r="G69" s="44">
+      <c r="G69" s="35">
         <f>G68*G16</f>
         <v>7310.4731065340002</v>
       </c>
-      <c r="I69" s="44">
+      <c r="I69" s="35">
         <f>I68*I16</f>
         <v>8761.9267890080991</v>
       </c>
-      <c r="K69" s="44">
+      <c r="K69" s="35">
         <f>K68*K16</f>
         <v>10690.468360000001</v>
       </c>
-      <c r="M69" s="44">
+      <c r="M69" s="35">
         <f>M68*M16</f>
         <v>7734.19</v>
       </c>
@@ -3752,60 +3987,60 @@
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="44">
+      <c r="C70" s="35">
         <f>C69-C66</f>
         <v>4291.8161925447002</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="35">
         <f>E69-E66</f>
         <v>5499.1794942491997</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="35">
         <f>G69-G66</f>
         <v>7558.173106534</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="35">
         <f>I69-I66</f>
         <v>9008.2267890080984</v>
       </c>
-      <c r="K70" s="44">
+      <c r="K70" s="35">
         <f>K69-K66</f>
         <v>11095.668360000001</v>
       </c>
-      <c r="M70" s="44">
+      <c r="M70" s="35">
         <f>M69-M66</f>
         <v>8301.7899999999991</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="56">
+      <c r="A72" s="47">
         <f>AVERAGE(C72:AZ72)</f>
         <v>6.467721604504824</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="53">
+      <c r="C72" s="44">
         <f>C68/C62</f>
         <v>5.306869847213596</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="44">
         <f>E68/E62</f>
         <v>5.7244467747753687</v>
       </c>
-      <c r="G72" s="53">
+      <c r="G72" s="44">
         <f>G68/G62</f>
         <v>6.8482183667765799</v>
       </c>
-      <c r="I72" s="53">
+      <c r="I72" s="44">
         <f>I68/I62</f>
         <v>7.8022500347356187</v>
       </c>
-      <c r="K72" s="53">
+      <c r="K72" s="44">
         <f>K68/K62</f>
         <v>8.3708937123169669</v>
       </c>
-      <c r="M72" s="53">
+      <c r="M72" s="44">
         <f>M68/M62</f>
         <v>4.7536508912108166</v>
       </c>
@@ -3829,7 +4064,7 @@
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M76" s="48"/>
+      <c r="M76" s="39"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
@@ -3841,9 +4076,13 @@
     <hyperlink ref="M1" r:id="rId1" xr:uid="{64230965-EEC2-4818-9500-5E49F2C6FBF5}"/>
     <hyperlink ref="I1" r:id="rId2" xr:uid="{879E0608-9977-4013-9DB7-7908B60FAFB2}"/>
     <hyperlink ref="E1" r:id="rId3" xr:uid="{D2F2E719-2F49-4057-B46A-7E29B8F345FA}"/>
+    <hyperlink ref="V1" r:id="rId4" xr:uid="{312EC780-3433-42F0-97FF-0788993E5A29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <ignoredErrors>
+    <ignoredError sqref="L10" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCEC658-60C6-4427-8114-C84A3E5A4D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43140AF5-4A44-E94B-A72A-B74F09545752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28470" windowHeight="11790" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
   <si>
     <t>£HLMA</t>
   </si>
@@ -353,6 +363,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>FY16</t>
   </si>
 </sst>
 </file>
@@ -363,7 +376,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +461,13 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -589,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,12 +705,16 @@
     <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,6 +730,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,13 +748,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -870,13 +894,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1224,12 +1248,12 @@
       <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1244,34 +1268,34 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="G5" s="61" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="G5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +1317,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1319,7 +1343,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1366,7 @@
       <c r="R8" s="12"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1368,7 +1392,7 @@
       <c r="R9" s="12"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1418,7 @@
       <c r="R10" s="12"/>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1444,7 @@
       <c r="R11" s="12"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1467,7 @@
       <c r="R12" s="12"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G13" s="19"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1458,7 +1482,7 @@
       <c r="R13" s="12"/>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G14" s="19"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1473,12 +1497,12 @@
       <c r="R14" s="12"/>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B15" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
       <c r="G15" s="19"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1493,14 +1517,14 @@
       <c r="R15" s="12"/>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="67"/>
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1515,14 +1539,14 @@
       <c r="R16" s="12"/>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="67"/>
       <c r="G17" s="19"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1537,12 +1561,12 @@
       <c r="R17" s="12"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="G18" s="19"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1557,12 +1581,12 @@
       <c r="R18" s="12"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
       <c r="G19" s="19"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1577,7 +1601,7 @@
       <c r="R19" s="12"/>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G20" s="19"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1592,7 +1616,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="13"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G21" s="19"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -1607,12 +1631,12 @@
       <c r="R21" s="12"/>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="61" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B22" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
       <c r="G22" s="19"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1627,14 +1651,14 @@
       <c r="R22" s="12"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="67"/>
       <c r="G23" s="19"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1649,14 +1673,14 @@
       <c r="R23" s="12"/>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="66">
         <v>1894</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="67"/>
       <c r="G24" s="19"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1671,10 +1695,10 @@
       <c r="R24" s="12"/>
       <c r="S24" s="13"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="17"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
       <c r="G25" s="19"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1689,10 +1713,10 @@
       <c r="R25" s="12"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
       <c r="G26" s="19"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1707,10 +1731,10 @@
       <c r="R26" s="12"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" s="17"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
       <c r="G27" s="19"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1725,7 +1749,7 @@
       <c r="R27" s="12"/>
       <c r="S27" s="13"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28" s="17" t="s">
         <v>19</v>
       </c>
@@ -1749,14 +1773,14 @@
       <c r="R28" s="12"/>
       <c r="S28" s="13"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="65"/>
+      <c r="D29" s="69"/>
       <c r="G29" s="19"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1771,7 +1795,7 @@
       <c r="R29" s="12"/>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G30" s="19"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1786,7 +1810,7 @@
       <c r="R30" s="12"/>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G31" s="19"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -1801,12 +1825,12 @@
       <c r="R31" s="12"/>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="61" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B32" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
       <c r="G32" s="19"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -1821,15 +1845,15 @@
       <c r="R32" s="12"/>
       <c r="S32" s="13"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="66">
+      <c r="C33" s="70">
         <f>C6/'Financial Model'!M62</f>
         <v>5.24180086047941</v>
       </c>
-      <c r="D33" s="67"/>
+      <c r="D33" s="71"/>
       <c r="G33" s="19"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1844,12 +1868,15 @@
       <c r="R33" s="12"/>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="70">
+        <f>C8/SUM('Financial Model'!L4:M4)</f>
+        <v>5.1264787208463574</v>
+      </c>
+      <c r="D34" s="71"/>
       <c r="G34" s="19"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1864,12 +1891,12 @@
       <c r="R34" s="12"/>
       <c r="S34" s="13"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
       <c r="G35" s="19"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1884,12 +1911,15 @@
       <c r="R35" s="12"/>
       <c r="S35" s="13"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="70">
+        <f>C6/SUM('Financial Model'!L15:M15)</f>
+        <v>38.217128200795514</v>
+      </c>
+      <c r="D36" s="71"/>
       <c r="G36" s="19"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1904,12 +1934,12 @@
       <c r="R36" s="12"/>
       <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
       <c r="G37" s="19"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1924,12 +1954,12 @@
       <c r="R37" s="12"/>
       <c r="S37" s="13"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
       <c r="G38" s="21"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -1946,6 +1976,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
     <mergeCell ref="C16:D16"/>
@@ -1962,11 +1997,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -1979,37 +2009,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5332D-7B2B-4D46-8BAA-4FBC91F2AA00}">
-  <dimension ref="A1:AJ77"/>
+  <dimension ref="A1:AK77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="L19:M19"/>
+      <selection pane="bottomRight" activeCell="W77" sqref="V77:W77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="29"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="29"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="29"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="29"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="55"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="29"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="29"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="29"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="29"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="29"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="9.1640625" style="29"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="9.1640625" style="55"/>
+    <col min="15" max="15" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="9.1640625" style="29"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:37" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="C1" s="22" t="s">
         <v>105</v>
       </c>
@@ -2053,86 +2083,101 @@
         <v>45</v>
       </c>
       <c r="R1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="T1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="U1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="V1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="W1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="X1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="Y1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AC1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AD1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AE1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AF1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AG1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AI1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:36" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:37" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23"/>
       <c r="C2" s="32">
         <v>43008</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="27">
+        <f>S2</f>
+        <v>0</v>
+      </c>
       <c r="E2" s="32">
         <v>43373</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="58">
+        <f>T2</f>
+        <v>43555</v>
+      </c>
       <c r="G2" s="32">
         <v>43738</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="58">
+        <f>U2</f>
+        <v>43921</v>
+      </c>
       <c r="I2" s="32">
         <v>44104</v>
       </c>
-      <c r="J2" s="27"/>
+      <c r="J2" s="58">
+        <f>V2</f>
+        <v>44286</v>
+      </c>
       <c r="K2" s="32">
         <v>44469</v>
       </c>
-      <c r="L2" s="69">
-        <f>V2</f>
+      <c r="L2" s="58">
+        <f>W2</f>
         <v>44651</v>
       </c>
       <c r="M2" s="32">
@@ -2140,27 +2185,36 @@
       </c>
       <c r="N2" s="49"/>
       <c r="P2" s="27"/>
+      <c r="T2" s="32">
+        <v>43555</v>
+      </c>
       <c r="U2" s="32">
+        <v>43921</v>
+      </c>
+      <c r="V2" s="32">
         <v>44286</v>
       </c>
-      <c r="V2" s="32">
+      <c r="W2" s="32">
         <v>44651</v>
       </c>
     </row>
-    <row r="3" spans="2:36" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:37" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="23"/>
       <c r="D3" s="27"/>
       <c r="E3" s="31">
         <v>44885</v>
       </c>
       <c r="F3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="59">
+        <f>U3</f>
+        <v>44756</v>
+      </c>
       <c r="I3" s="31">
         <v>44884</v>
       </c>
       <c r="J3" s="27"/>
-      <c r="L3" s="70">
-        <f>V3</f>
+      <c r="L3" s="59">
+        <f>W3</f>
         <v>44728</v>
       </c>
       <c r="M3" s="31">
@@ -2168,35 +2222,50 @@
       </c>
       <c r="N3" s="49"/>
       <c r="P3" s="27"/>
-      <c r="V3" s="31">
+      <c r="U3" s="31">
+        <v>44756</v>
+      </c>
+      <c r="W3" s="31">
         <v>44728</v>
       </c>
     </row>
-    <row r="4" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="33">
         <v>506.3</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="34">
+        <f>S4-C4</f>
+        <v>-506.3</v>
+      </c>
       <c r="E4" s="33">
         <v>585.5</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="34">
+        <f>T4-E4</f>
+        <v>625.40000000000009</v>
+      </c>
       <c r="G4" s="33">
         <v>653.70000000000005</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="34">
+        <f>U4-G4</f>
+        <v>684.7</v>
+      </c>
       <c r="I4" s="33">
         <v>618.4</v>
       </c>
-      <c r="J4" s="34"/>
+      <c r="J4" s="34">
+        <f>V4-I4</f>
+        <v>699.80000000000007</v>
+      </c>
       <c r="K4" s="33">
         <v>737.2</v>
       </c>
       <c r="L4" s="34">
-        <f>V4-K4</f>
+        <f t="shared" ref="L4:L9" si="0">W4-K4</f>
         <v>788.09999999999991</v>
       </c>
       <c r="M4" s="33">
@@ -2204,38 +2273,56 @@
       </c>
       <c r="N4" s="50"/>
       <c r="P4" s="34"/>
+      <c r="T4" s="33">
+        <v>1210.9000000000001</v>
+      </c>
       <c r="U4" s="33">
+        <v>1338.4</v>
+      </c>
+      <c r="V4" s="33">
         <v>1318.2</v>
       </c>
-      <c r="V4" s="33">
+      <c r="W4" s="33">
         <v>1525.3</v>
       </c>
     </row>
-    <row r="5" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="33">
         <v>81.8</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="34">
+        <f>S5-C5</f>
+        <v>-81.8</v>
+      </c>
       <c r="E5" s="33">
         <v>100.4</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="34">
+        <f>T5-E5</f>
+        <v>117.4</v>
+      </c>
       <c r="G5" s="33">
         <v>111.6</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="34">
+        <f>U5-G5</f>
+        <v>121.80000000000001</v>
+      </c>
       <c r="I5" s="33">
         <v>102.1</v>
       </c>
-      <c r="J5" s="34"/>
+      <c r="J5" s="34">
+        <f>V5-I5</f>
+        <v>138.70000000000002</v>
+      </c>
       <c r="K5" s="33">
         <v>137.6</v>
       </c>
       <c r="L5" s="34">
-        <f>V5-K5</f>
+        <f t="shared" si="0"/>
         <v>141.29999999999998</v>
       </c>
       <c r="M5" s="33">
@@ -2243,38 +2330,56 @@
       </c>
       <c r="N5" s="50"/>
       <c r="P5" s="34"/>
+      <c r="T5" s="33">
+        <v>217.8</v>
+      </c>
       <c r="U5" s="33">
+        <v>233.4</v>
+      </c>
+      <c r="V5" s="33">
         <v>240.8</v>
       </c>
-      <c r="V5" s="33">
+      <c r="W5" s="33">
         <v>278.89999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="35" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="35">
         <v>-0.1</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="36">
+        <f>S6-C6</f>
+        <v>0.1</v>
+      </c>
       <c r="E6" s="35">
         <v>-0.1</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="36">
+        <f>T6-E6</f>
+        <v>0</v>
+      </c>
       <c r="G6" s="35">
         <v>-0.1</v>
       </c>
-      <c r="H6" s="36"/>
+      <c r="H6" s="36">
+        <f>U6-G6</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="35">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="36">
+        <f>V6-I6</f>
+        <v>0</v>
+      </c>
       <c r="K6" s="35">
         <v>-0.1</v>
       </c>
       <c r="L6" s="36">
-        <f>V6-K6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="35">
@@ -2282,38 +2387,56 @@
       </c>
       <c r="N6" s="51"/>
       <c r="P6" s="36"/>
+      <c r="T6" s="35">
+        <v>-0.1</v>
+      </c>
       <c r="U6" s="35">
+        <v>-0.1</v>
+      </c>
+      <c r="V6" s="35">
         <v>0</v>
       </c>
-      <c r="V6" s="35">
+      <c r="W6" s="35">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="35">
         <v>0</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7:D11" si="1">S7-C7</f>
+        <v>0</v>
+      </c>
       <c r="E7" s="35">
         <v>-0.9</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7:F11" si="2">T7-E7</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
       <c r="G7" s="35">
         <v>0</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7:H11" si="3">U7-G7</f>
+        <v>2.9</v>
+      </c>
       <c r="I7" s="35">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7:J11" si="4">V7-I7</f>
+        <v>22.1</v>
+      </c>
       <c r="K7" s="35">
         <v>34</v>
       </c>
       <c r="L7" s="36">
-        <f>V7-K7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="35">
@@ -2321,38 +2444,56 @@
       </c>
       <c r="N7" s="51"/>
       <c r="P7" s="36"/>
+      <c r="T7" s="35">
+        <v>-1</v>
+      </c>
       <c r="U7" s="35">
+        <v>2.9</v>
+      </c>
+      <c r="V7" s="35">
         <v>22.1</v>
       </c>
-      <c r="V7" s="35">
+      <c r="W7" s="35">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="35" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="35">
         <v>0.1</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="36">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
       <c r="E8" s="35">
         <v>0.1</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
       <c r="G8" s="35">
         <v>0.4</v>
       </c>
-      <c r="H8" s="36"/>
+      <c r="H8" s="36">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="I8" s="35">
         <v>1</v>
       </c>
-      <c r="J8" s="36"/>
+      <c r="J8" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K8" s="35">
         <v>0.6</v>
       </c>
       <c r="L8" s="36">
-        <f>V8-K8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="35">
@@ -2360,38 +2501,56 @@
       </c>
       <c r="N8" s="51"/>
       <c r="P8" s="36"/>
+      <c r="T8" s="35">
+        <v>0.5</v>
+      </c>
       <c r="U8" s="35">
+        <v>0.6</v>
+      </c>
+      <c r="V8" s="35">
         <v>1</v>
       </c>
-      <c r="V8" s="35">
+      <c r="W8" s="35">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="35" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="35">
         <v>5</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="36">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
       <c r="G9" s="35">
         <v>6.1</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="36">
+        <f t="shared" si="3"/>
+        <v>6.6</v>
+      </c>
       <c r="I9" s="35">
         <v>6.8</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="36">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
       <c r="K9" s="35">
         <v>4.5999999999999996</v>
       </c>
       <c r="L9" s="36">
-        <f>V9-K9</f>
+        <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="M9" s="35">
@@ -2399,85 +2558,123 @@
       </c>
       <c r="N9" s="51"/>
       <c r="P9" s="36"/>
+      <c r="T9" s="35">
+        <v>10.5</v>
+      </c>
       <c r="U9" s="35">
+        <v>12.7</v>
+      </c>
+      <c r="V9" s="35">
         <v>11</v>
       </c>
-      <c r="V9" s="35">
+      <c r="W9" s="35">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="35">
-        <f>C5+C6+C7+C8-C9</f>
+        <f t="shared" ref="C10:M10" si="5">C5+C6+C7+C8-C9</f>
         <v>76.8</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="36">
+        <f t="shared" si="5"/>
+        <v>-76.8</v>
+      </c>
       <c r="E10" s="35">
-        <f>E5+E6+E7+E8-E9</f>
+        <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <f t="shared" si="5"/>
+        <v>112.20000000000002</v>
+      </c>
       <c r="G10" s="35">
-        <f>G5+G6+G7+G8-G9</f>
+        <f t="shared" si="5"/>
         <v>105.80000000000001</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="36">
+        <f t="shared" si="5"/>
+        <v>118.30000000000003</v>
+      </c>
       <c r="I10" s="35">
-        <f>I5+I6+I7+I8-I9</f>
+        <f t="shared" si="5"/>
         <v>96.3</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="36">
+        <f t="shared" si="5"/>
+        <v>156.60000000000002</v>
+      </c>
       <c r="K10" s="35">
-        <f>K5+K6+K7+K8-K9</f>
+        <f t="shared" si="5"/>
         <v>167.5</v>
       </c>
       <c r="L10" s="36">
-        <f>L5+L6+L7+L8-L9</f>
+        <f t="shared" si="5"/>
         <v>136.89999999999998</v>
       </c>
       <c r="M10" s="35">
-        <f>M5+M6+M7+M8-M9</f>
+        <f t="shared" si="5"/>
         <v>145.5</v>
       </c>
       <c r="N10" s="51"/>
       <c r="P10" s="36"/>
+      <c r="T10" s="35">
+        <f>T5+T6+T7+T8-T9</f>
+        <v>206.70000000000002</v>
+      </c>
       <c r="U10" s="35">
         <f>U5+U6+U7+U8-U9</f>
-        <v>252.90000000000003</v>
+        <v>224.10000000000002</v>
       </c>
       <c r="V10" s="35">
         <f>V5+V6+V7+V8-V9</f>
+        <v>252.90000000000003</v>
+      </c>
+      <c r="W10" s="35">
+        <f>W5+W6+W7+W8-W9</f>
         <v>304.39999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="35">
         <v>15.1</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="36">
+        <f t="shared" si="1"/>
+        <v>-15.1</v>
+      </c>
       <c r="E11" s="35">
         <v>19.899999999999999</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="G11" s="35">
         <v>20.8</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="36">
+        <f t="shared" si="3"/>
+        <v>18.900000000000002</v>
+      </c>
       <c r="I11" s="35">
         <v>19</v>
       </c>
-      <c r="J11" s="36"/>
+      <c r="J11" s="36">
+        <f t="shared" si="4"/>
+        <v>30.6</v>
+      </c>
       <c r="K11" s="35">
         <v>31.8</v>
       </c>
       <c r="L11" s="36">
-        <f>V11-K11</f>
+        <f>W11-K11</f>
         <v>28.400000000000002</v>
       </c>
       <c r="M11" s="35">
@@ -2485,132 +2682,190 @@
       </c>
       <c r="N11" s="51"/>
       <c r="P11" s="36"/>
+      <c r="T11" s="35">
+        <v>36.9</v>
+      </c>
       <c r="U11" s="35">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="V11" s="35">
         <v>49.6</v>
       </c>
-      <c r="V11" s="35">
+      <c r="W11" s="35">
         <v>60.2</v>
       </c>
     </row>
-    <row r="12" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="33">
-        <f>C10-C11</f>
+        <f t="shared" ref="C12:M12" si="6">C10-C11</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="34">
+        <f t="shared" si="6"/>
+        <v>-61.699999999999996</v>
+      </c>
       <c r="E12" s="33">
-        <f>E10-E11</f>
+        <f t="shared" si="6"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="34">
+        <f t="shared" si="6"/>
+        <v>95.200000000000017</v>
+      </c>
       <c r="G12" s="33">
-        <f>G10-G11</f>
+        <f t="shared" si="6"/>
         <v>85.000000000000014</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="34">
+        <f t="shared" si="6"/>
+        <v>99.40000000000002</v>
+      </c>
       <c r="I12" s="33">
-        <f>I10-I11</f>
+        <f t="shared" si="6"/>
         <v>77.3</v>
       </c>
-      <c r="J12" s="34"/>
+      <c r="J12" s="34">
+        <f t="shared" si="6"/>
+        <v>126.00000000000003</v>
+      </c>
       <c r="K12" s="33">
-        <f>K10-K11</f>
+        <f t="shared" si="6"/>
         <v>135.69999999999999</v>
       </c>
       <c r="L12" s="34">
-        <f>L10-L11</f>
+        <f t="shared" si="6"/>
         <v>108.49999999999997</v>
       </c>
       <c r="M12" s="33">
-        <f>M10-M11</f>
+        <f t="shared" si="6"/>
         <v>114.8</v>
       </c>
       <c r="N12" s="50"/>
       <c r="P12" s="34"/>
+      <c r="T12" s="33">
+        <f>T10-T11</f>
+        <v>169.8</v>
+      </c>
       <c r="U12" s="33">
         <f>U10-U11</f>
-        <v>203.30000000000004</v>
+        <v>184.40000000000003</v>
       </c>
       <c r="V12" s="33">
         <f>V10-V11</f>
+        <v>203.30000000000004</v>
+      </c>
+      <c r="W12" s="33">
+        <f>W10-W11</f>
         <v>244.2</v>
       </c>
     </row>
-    <row r="13" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="35" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="33">
-        <f>C12+C14</f>
+        <f t="shared" ref="C13:M13" si="7">C12+C14</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="34">
+        <f t="shared" si="7"/>
+        <v>-61.699999999999996</v>
+      </c>
       <c r="E13" s="33">
-        <f>E12+E14</f>
+        <f t="shared" si="7"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="34">
+        <f t="shared" si="7"/>
+        <v>95.200000000000017</v>
+      </c>
       <c r="G13" s="33">
-        <f>G12+G14</f>
+        <f t="shared" si="7"/>
         <v>85.000000000000014</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="34">
+        <f t="shared" si="7"/>
+        <v>99.40000000000002</v>
+      </c>
       <c r="I13" s="33">
-        <f>I12+I14</f>
+        <f t="shared" si="7"/>
         <v>77.3</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="34">
+        <f t="shared" si="7"/>
+        <v>125.90000000000003</v>
+      </c>
       <c r="K13" s="33">
-        <f>K12+K14</f>
+        <f t="shared" si="7"/>
         <v>135.79999999999998</v>
       </c>
       <c r="L13" s="34">
-        <f>L12+L14</f>
+        <f t="shared" si="7"/>
         <v>108.19999999999997</v>
       </c>
       <c r="M13" s="33">
-        <f>M12+M14</f>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="N13" s="50"/>
       <c r="P13" s="34"/>
+      <c r="T13" s="33">
+        <f>T12+T14</f>
+        <v>169.8</v>
+      </c>
       <c r="U13" s="33">
         <f>U12+U14</f>
-        <v>203.20000000000005</v>
+        <v>184.40000000000003</v>
       </c>
       <c r="V13" s="33">
         <f>V12+V14</f>
+        <v>203.20000000000005</v>
+      </c>
+      <c r="W13" s="33">
+        <f>W12+W14</f>
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="46">
         <v>0</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="36">
+        <f>S14-C14</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="46">
         <v>0</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <f>T14-E14</f>
+        <v>0</v>
+      </c>
       <c r="G14" s="46">
         <v>0</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="36">
+        <f t="shared" ref="H14" si="8">U14-G14</f>
+        <v>0</v>
+      </c>
       <c r="I14" s="46">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
+      <c r="J14" s="36">
+        <f>V14-I14</f>
+        <v>-0.1</v>
+      </c>
       <c r="K14" s="35">
         <v>0.1</v>
       </c>
       <c r="L14" s="36">
-        <f>V14-K14</f>
+        <f>W14-K14</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="M14" s="35">
@@ -2618,85 +2873,126 @@
       </c>
       <c r="N14" s="51"/>
       <c r="P14" s="36"/>
+      <c r="S14" s="35">
+        <v>0</v>
+      </c>
+      <c r="T14" s="35">
+        <v>0</v>
+      </c>
       <c r="U14" s="35">
+        <v>0</v>
+      </c>
+      <c r="V14" s="35">
         <v>-0.1</v>
       </c>
-      <c r="V14" s="35">
+      <c r="W14" s="35">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:36" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="37">
-        <f>C12/C16</f>
+        <f t="shared" ref="C15:M15" si="9">C12/C16</f>
         <v>0.16270266756508422</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="38" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E15" s="37">
-        <f>E12/E16</f>
+        <f t="shared" si="9"/>
         <v>0.19681108372907286</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.25108149993397905</v>
+      </c>
       <c r="G15" s="37">
-        <f>G12/G16</f>
+        <f t="shared" si="9"/>
         <v>0.22419479233636896</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.26220905435668357</v>
+      </c>
       <c r="I15" s="37">
-        <f>I12/I16</f>
+        <f t="shared" si="9"/>
         <v>0.20390802308932054</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="38">
+        <f t="shared" si="9"/>
+        <v>0.33271719038817016</v>
+      </c>
       <c r="K15" s="37">
-        <f>K12/K16</f>
+        <f t="shared" si="9"/>
         <v>0.35795304668952777</v>
       </c>
       <c r="L15" s="38">
-        <f>L12/L16</f>
+        <f t="shared" si="9"/>
         <v>0.28650646950092412</v>
       </c>
       <c r="M15" s="37">
-        <f>M12/M16</f>
+        <f t="shared" si="9"/>
         <v>0.30354309888947645</v>
       </c>
       <c r="N15" s="52"/>
       <c r="P15" s="38"/>
+      <c r="T15" s="37">
+        <f t="shared" ref="T15:U15" si="10">T12/T16</f>
+        <v>0.44783233916795839</v>
+      </c>
       <c r="U15" s="37">
-        <f>U12/U16</f>
-        <v>0.53612869198312252</v>
+        <f t="shared" si="10"/>
+        <v>0.48643208876632238</v>
       </c>
       <c r="V15" s="37">
         <f>V12/V16</f>
+        <v>0.53612869198312252</v>
+      </c>
+      <c r="W15" s="37">
+        <f>W12/W16</f>
         <v>0.6448376023237391</v>
       </c>
     </row>
-    <row r="16" spans="2:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="35">
         <v>379.21935100000002</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="36">
+        <f>S16</f>
+        <v>0</v>
+      </c>
       <c r="E16" s="35">
         <v>379.04369300000002</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <f>T16</f>
+        <v>379.15975500000002</v>
+      </c>
       <c r="G16" s="35">
         <v>379.13458700000001</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="36">
+        <f>U16</f>
+        <v>379.08683300000001</v>
+      </c>
       <c r="I16" s="35">
         <v>379.092489</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="36">
+        <f>W16</f>
+        <v>378.7</v>
+      </c>
       <c r="K16" s="35">
         <v>379.1</v>
       </c>
       <c r="L16" s="36">
-        <f>V16</f>
+        <f>W16</f>
         <v>378.7</v>
       </c>
       <c r="M16" s="35">
@@ -2704,14 +3000,20 @@
       </c>
       <c r="N16" s="51"/>
       <c r="P16" s="36"/>
+      <c r="T16" s="35">
+        <v>379.15975500000002</v>
+      </c>
       <c r="U16" s="35">
+        <v>379.08683300000001</v>
+      </c>
+      <c r="V16" s="35">
         <v>379.2</v>
       </c>
-      <c r="V16" s="35">
+      <c r="W16" s="35">
         <v>378.7</v>
       </c>
     </row>
-    <row r="18" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="41" t="s">
         <v>75</v>
       </c>
@@ -2735,21 +3037,40 @@
         <f>K4/I4-1</f>
         <v>0.19210866752910749</v>
       </c>
-      <c r="L18" s="42"/>
+      <c r="L18" s="42">
+        <f>L4/J4-1</f>
+        <v>0.1261789082595024</v>
+      </c>
       <c r="M18" s="41">
         <f>M4/K4-1</f>
         <v>0.18760173629951149</v>
       </c>
       <c r="N18" s="53"/>
       <c r="P18" s="42"/>
+      <c r="U18" s="41">
+        <f t="shared" ref="U18:V18" si="11">U4/T4-1</f>
+        <v>0.10529358328515981</v>
+      </c>
       <c r="V18" s="41">
-        <f>V4/U4-1</f>
+        <f t="shared" si="11"/>
+        <v>-1.5092647937836268E-2</v>
+      </c>
+      <c r="W18" s="41">
+        <f>W4/V4-1</f>
         <v>0.15710817781823683</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="J19" s="40">
+        <f>J4/I4-1</f>
+        <v>0.13163001293661081</v>
+      </c>
+      <c r="K19" s="39">
+        <f>K4/J4-1</f>
+        <v>5.3443841097456479E-2</v>
       </c>
       <c r="L19" s="40">
         <f>L4/K4-1</f>
@@ -2763,23 +3084,23 @@
         <f>N4/M4-1</f>
         <v>-1</v>
       </c>
-      <c r="R19" s="68" t="s">
+      <c r="S19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="S19" s="68" t="s">
+      <c r="T19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="T19" s="68" t="s">
+      <c r="U19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="U19" s="68" t="s">
+      <c r="V19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="V19" s="68" t="s">
+      <c r="W19" s="57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="39" t="s">
         <v>77</v>
       </c>
@@ -2802,7 +3123,10 @@
         <f>I5/I4</f>
         <v>0.16510349288486417</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="40">
+        <f>J5/J4</f>
+        <v>0.19819948556730496</v>
+      </c>
       <c r="K21" s="39">
         <f>K5/K4</f>
         <v>0.18665219750406944</v>
@@ -2817,16 +3141,24 @@
       </c>
       <c r="N21" s="54"/>
       <c r="P21" s="40"/>
+      <c r="T21" s="39">
+        <f t="shared" ref="T21" si="12">T5/T4</f>
+        <v>0.17986621521182591</v>
+      </c>
       <c r="U21" s="39">
-        <f t="shared" ref="U21:V21" si="0">U5/U4</f>
+        <f t="shared" ref="U21:V21" si="13">U5/U4</f>
+        <v>0.17438732815301852</v>
+      </c>
+      <c r="V21" s="39">
+        <f t="shared" ref="V21:W21" si="14">V5/V4</f>
         <v>0.18267334243665606</v>
       </c>
-      <c r="V21" s="39">
-        <f t="shared" si="0"/>
+      <c r="W21" s="39">
+        <f t="shared" si="14"/>
         <v>0.18284927555235034</v>
       </c>
     </row>
-    <row r="22" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="39" t="s">
         <v>78</v>
       </c>
@@ -2849,7 +3181,10 @@
         <f>I12/I4</f>
         <v>0.125</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="40">
+        <f>J12/J4</f>
+        <v>0.18005144326950559</v>
+      </c>
       <c r="K22" s="39">
         <f>K12/K4</f>
         <v>0.18407487791644056</v>
@@ -2864,16 +3199,24 @@
       </c>
       <c r="N22" s="54"/>
       <c r="P22" s="40"/>
+      <c r="T22" s="39">
+        <f t="shared" ref="T22" si="15">T12/T4</f>
+        <v>0.14022627797505988</v>
+      </c>
       <c r="U22" s="39">
-        <f t="shared" ref="U22:V22" si="1">U12/U4</f>
+        <f t="shared" ref="U22:V22" si="16">U12/U4</f>
+        <v>0.13777644949193069</v>
+      </c>
+      <c r="V22" s="39">
+        <f t="shared" ref="V22:W22" si="17">V12/V4</f>
         <v>0.1542254589591868</v>
       </c>
-      <c r="V22" s="39">
-        <f t="shared" si="1"/>
+      <c r="W22" s="39">
+        <f t="shared" si="17"/>
         <v>0.16009965252737166</v>
       </c>
     </row>
-    <row r="23" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="39" t="s">
         <v>107</v>
       </c>
@@ -2896,7 +3239,10 @@
         <f>I11/I10</f>
         <v>0.19730010384215993</v>
       </c>
-      <c r="J23" s="40"/>
+      <c r="J23" s="40">
+        <f>J11/J10</f>
+        <v>0.1954022988505747</v>
+      </c>
       <c r="K23" s="39">
         <f>K11/K10</f>
         <v>0.18985074626865672</v>
@@ -2911,21 +3257,29 @@
       </c>
       <c r="N23" s="54"/>
       <c r="P23" s="40"/>
+      <c r="T23" s="39">
+        <f t="shared" ref="T23" si="18">T11/T10</f>
+        <v>0.17851959361393321</v>
+      </c>
       <c r="U23" s="39">
-        <f t="shared" ref="U23:V23" si="2">U11/U10</f>
+        <f t="shared" ref="U23:V23" si="19">U11/U10</f>
+        <v>0.17715305667112896</v>
+      </c>
+      <c r="V23" s="39">
+        <f t="shared" ref="V23:W23" si="20">V11/V10</f>
         <v>0.19612495057334914</v>
       </c>
-      <c r="V23" s="39">
-        <f t="shared" si="2"/>
+      <c r="W23" s="39">
+        <f t="shared" si="20"/>
         <v>0.19776609724047309</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" s="43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
@@ -2946,16 +3300,32 @@
         <f>829.8+303.8</f>
         <v>1133.5999999999999</v>
       </c>
+      <c r="J28" s="36">
+        <f>V28</f>
+        <v>1098.5</v>
+      </c>
       <c r="K28" s="35">
         <f>867.4+319.3</f>
         <v>1186.7</v>
       </c>
+      <c r="L28" s="36">
+        <f>W28</f>
+        <v>1233.9000000000001</v>
+      </c>
       <c r="M28" s="35">
         <f>1101.8+418.6</f>
         <v>1520.4</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V28" s="35">
+        <f>808.5+290</f>
+        <v>1098.5</v>
+      </c>
+      <c r="W28" s="35">
+        <f>908.7+325.2</f>
+        <v>1233.9000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
@@ -2972,14 +3342,28 @@
       <c r="I29" s="35">
         <v>184.7</v>
       </c>
+      <c r="J29" s="36">
+        <f>V29</f>
+        <v>180.8</v>
+      </c>
       <c r="K29" s="35">
         <v>186.7</v>
       </c>
+      <c r="L29" s="36">
+        <f>W29</f>
+        <v>194</v>
+      </c>
       <c r="M29" s="35">
         <v>224.5</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="35">
+        <v>180.8</v>
+      </c>
+      <c r="W29" s="35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>82</v>
       </c>
@@ -2998,18 +3382,30 @@
       <c r="I30" s="33">
         <v>4.8</v>
       </c>
-      <c r="J30" s="28"/>
+      <c r="J30" s="34">
+        <f>V30</f>
+        <v>9.3000000000000007</v>
+      </c>
       <c r="K30" s="33">
         <v>9.9</v>
       </c>
-      <c r="L30" s="28"/>
+      <c r="L30" s="36">
+        <f t="shared" ref="L30:L37" si="21">W30</f>
+        <v>8.1999999999999993</v>
+      </c>
       <c r="M30" s="33">
         <v>19.8</v>
       </c>
       <c r="N30" s="56"/>
       <c r="P30" s="28"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V30" s="33">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W30" s="33">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
@@ -3026,14 +3422,28 @@
       <c r="I31" s="35">
         <v>0</v>
       </c>
+      <c r="J31" s="36">
+        <f t="shared" ref="J31:J33" si="22">V31</f>
+        <v>0</v>
+      </c>
       <c r="K31" s="35">
         <v>4.8</v>
       </c>
+      <c r="L31" s="36">
+        <f t="shared" si="21"/>
+        <v>31.1</v>
+      </c>
       <c r="M31" s="35">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V31" s="35">
+        <v>0</v>
+      </c>
+      <c r="W31" s="35">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
@@ -3050,14 +3460,28 @@
       <c r="I32" s="35">
         <v>0</v>
       </c>
+      <c r="J32" s="36">
+        <f t="shared" si="22"/>
+        <v>13.9</v>
+      </c>
       <c r="K32" s="35">
         <v>14.7</v>
       </c>
+      <c r="L32" s="36">
+        <f t="shared" si="21"/>
+        <v>14.7</v>
+      </c>
       <c r="M32" s="35">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V32" s="35">
+        <v>13.9</v>
+      </c>
+      <c r="W32" s="35">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3074,14 +3498,28 @@
       <c r="I33" s="35">
         <v>5.6</v>
       </c>
+      <c r="J33" s="36">
+        <f t="shared" si="22"/>
+        <v>1.3</v>
+      </c>
       <c r="K33" s="35">
         <v>1.9</v>
       </c>
+      <c r="L33" s="36">
+        <f t="shared" si="21"/>
+        <v>2.4</v>
+      </c>
       <c r="M33" s="35">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V33" s="35">
+        <v>1.3</v>
+      </c>
+      <c r="W33" s="35">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
@@ -3102,16 +3540,32 @@
         <f>SUM(I28:I33)</f>
         <v>1328.6999999999998</v>
       </c>
+      <c r="J34" s="36">
+        <f>SUM(J28:J33)</f>
+        <v>1303.8</v>
+      </c>
       <c r="K34" s="35">
         <f>SUM(K28:K33)</f>
         <v>1404.7000000000003</v>
       </c>
+      <c r="L34" s="36">
+        <f>SUM(L28:L33)</f>
+        <v>1484.3000000000002</v>
+      </c>
       <c r="M34" s="35">
         <f>SUM(M28:M33)</f>
         <v>1826.1000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V34" s="35">
+        <f>SUM(V28:V33)</f>
+        <v>1303.8</v>
+      </c>
+      <c r="W34" s="35">
+        <f>SUM(W28:W33)</f>
+        <v>1484.3000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
@@ -3128,14 +3582,28 @@
       <c r="I35" s="35">
         <v>175.8</v>
       </c>
+      <c r="J35" s="36">
+        <f t="shared" ref="J35:J37" si="23">V35</f>
+        <v>167.8</v>
+      </c>
       <c r="K35" s="35">
         <v>193.2</v>
       </c>
+      <c r="L35" s="36">
+        <f t="shared" si="21"/>
+        <v>228.8</v>
+      </c>
       <c r="M35" s="35">
         <v>308.8</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V35" s="35">
+        <v>167.8</v>
+      </c>
+      <c r="W35" s="35">
+        <v>228.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
@@ -3152,14 +3620,28 @@
       <c r="I36" s="35">
         <v>245.3</v>
       </c>
+      <c r="J36" s="36">
+        <f t="shared" si="23"/>
+        <v>268</v>
+      </c>
       <c r="K36" s="35">
         <v>279.2</v>
       </c>
+      <c r="L36" s="36">
+        <f t="shared" si="21"/>
+        <v>325.10000000000002</v>
+      </c>
       <c r="M36" s="35">
         <v>389.9</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V36" s="35">
+        <v>268</v>
+      </c>
+      <c r="W36" s="35">
+        <v>325.10000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>84</v>
       </c>
@@ -3176,14 +3658,28 @@
       <c r="I37" s="35">
         <v>6.5</v>
       </c>
+      <c r="J37" s="36">
+        <f t="shared" si="23"/>
+        <v>2.5</v>
+      </c>
       <c r="K37" s="35">
         <v>4.4000000000000004</v>
       </c>
+      <c r="L37" s="36">
+        <f t="shared" si="21"/>
+        <v>0.7</v>
+      </c>
       <c r="M37" s="35">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="38" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V37" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="W37" s="35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
@@ -3202,18 +3698,30 @@
       <c r="I38" s="33">
         <v>125.5</v>
       </c>
-      <c r="J38" s="28"/>
+      <c r="J38" s="34">
+        <f t="shared" ref="J38:J39" si="24">V38</f>
+        <v>134.1</v>
+      </c>
       <c r="K38" s="33">
         <v>131.1</v>
       </c>
-      <c r="L38" s="28"/>
+      <c r="L38" s="34">
+        <f>W38</f>
+        <v>157.4</v>
+      </c>
       <c r="M38" s="33">
         <v>213.4</v>
       </c>
       <c r="N38" s="56"/>
       <c r="P38" s="28"/>
-    </row>
-    <row r="39" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V38" s="33">
+        <v>134.1</v>
+      </c>
+      <c r="W38" s="33">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
@@ -3232,18 +3740,30 @@
       <c r="I39" s="33">
         <v>0.4</v>
       </c>
-      <c r="J39" s="28"/>
+      <c r="J39" s="34">
+        <f t="shared" si="24"/>
+        <v>1.7</v>
+      </c>
       <c r="K39" s="33">
         <v>0.6</v>
       </c>
-      <c r="L39" s="28"/>
+      <c r="L39" s="34">
+        <f>W39</f>
+        <v>0.7</v>
+      </c>
       <c r="M39" s="33">
         <v>1.2</v>
       </c>
       <c r="N39" s="56"/>
       <c r="P39" s="28"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V39" s="33">
+        <v>1.7</v>
+      </c>
+      <c r="W39" s="33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
@@ -3264,22 +3784,41 @@
         <f>SUM(I35:I39)+I34</f>
         <v>1882.1999999999998</v>
       </c>
+      <c r="J40" s="36">
+        <f>SUM(J35:J39)+J34</f>
+        <v>1877.9</v>
+      </c>
       <c r="K40" s="35">
         <f>SUM(K35:K39)+K34</f>
         <v>2013.2000000000003</v>
       </c>
+      <c r="L40" s="36">
+        <f>SUM(L35:L39)+L34</f>
+        <v>2197.0000000000005</v>
+      </c>
       <c r="M40" s="35">
         <f>SUM(M35:M39)+M34</f>
         <v>2741.3</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V40" s="35">
+        <f>SUM(V35:V39)+V34</f>
+        <v>1877.9</v>
+      </c>
+      <c r="W40" s="35">
+        <f>SUM(W35:W39)+W34</f>
+        <v>2197.0000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G41" s="35"/>
       <c r="H41" s="36"/>
       <c r="I41" s="35"/>
+      <c r="L41" s="36"/>
       <c r="M41" s="35"/>
-    </row>
-    <row r="42" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+    </row>
+    <row r="42" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
@@ -3298,18 +3837,30 @@
       <c r="I42" s="33">
         <v>76.099999999999994</v>
       </c>
-      <c r="J42" s="34"/>
+      <c r="J42" s="34">
+        <f>V42</f>
+        <v>3</v>
+      </c>
       <c r="K42" s="33">
         <v>206.1</v>
       </c>
-      <c r="L42" s="34"/>
+      <c r="L42" s="34">
+        <f>W42</f>
+        <v>72.5</v>
+      </c>
       <c r="M42" s="33">
         <v>256.39999999999998</v>
       </c>
       <c r="N42" s="56"/>
       <c r="P42" s="28"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V42" s="33">
+        <v>3</v>
+      </c>
+      <c r="W42" s="33">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
@@ -3328,16 +3879,28 @@
       <c r="I43" s="35">
         <v>13</v>
       </c>
-      <c r="J43" s="36"/>
+      <c r="J43" s="36">
+        <f>V43</f>
+        <v>13.3</v>
+      </c>
       <c r="K43" s="35">
         <v>3</v>
       </c>
-      <c r="L43" s="36"/>
+      <c r="L43" s="36">
+        <f t="shared" ref="L43:L47" si="25">W43</f>
+        <v>15.5</v>
+      </c>
       <c r="M43" s="35">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V43" s="35">
+        <v>13.3</v>
+      </c>
+      <c r="W43" s="35">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
@@ -3356,16 +3919,28 @@
       <c r="I44" s="35">
         <v>0</v>
       </c>
-      <c r="J44" s="36"/>
+      <c r="J44" s="36">
+        <f t="shared" ref="J44:J47" si="26">V44</f>
+        <v>0</v>
+      </c>
       <c r="K44" s="35">
         <v>14.2</v>
       </c>
-      <c r="L44" s="36"/>
+      <c r="L44" s="36">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="M44" s="35">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V44" s="35">
+        <v>0</v>
+      </c>
+      <c r="W44" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
@@ -3384,16 +3959,28 @@
       <c r="I45" s="35">
         <v>158.69999999999999</v>
       </c>
-      <c r="J45" s="36"/>
+      <c r="J45" s="36">
+        <f t="shared" si="26"/>
+        <v>186.7</v>
+      </c>
       <c r="K45" s="35">
         <v>22</v>
       </c>
-      <c r="L45" s="36"/>
+      <c r="L45" s="36">
+        <f t="shared" si="25"/>
+        <v>242.7</v>
+      </c>
       <c r="M45" s="35">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V45" s="35">
+        <v>186.7</v>
+      </c>
+      <c r="W45" s="35">
+        <v>242.7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
@@ -3412,16 +3999,28 @@
       <c r="I46" s="35">
         <v>30.5</v>
       </c>
-      <c r="J46" s="36"/>
+      <c r="J46" s="36">
+        <f t="shared" si="26"/>
+        <v>35.4</v>
+      </c>
       <c r="K46" s="35">
         <v>13.8</v>
       </c>
-      <c r="L46" s="36"/>
+      <c r="L46" s="36">
+        <f t="shared" si="25"/>
+        <v>20.7</v>
+      </c>
       <c r="M46" s="35">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V46" s="35">
+        <v>35.4</v>
+      </c>
+      <c r="W46" s="35">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>85</v>
       </c>
@@ -3440,16 +4039,28 @@
       <c r="I47" s="35">
         <v>11.3</v>
       </c>
-      <c r="J47" s="36"/>
+      <c r="J47" s="36">
+        <f t="shared" si="26"/>
+        <v>8.9</v>
+      </c>
       <c r="K47" s="35">
         <v>0.2</v>
       </c>
-      <c r="L47" s="36"/>
+      <c r="L47" s="36">
+        <f t="shared" si="25"/>
+        <v>11.6</v>
+      </c>
       <c r="M47" s="35">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V47" s="35">
+        <v>8.9</v>
+      </c>
+      <c r="W47" s="35">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>97</v>
       </c>
@@ -3468,18 +4079,30 @@
       <c r="I48" s="33">
         <v>0.9</v>
       </c>
-      <c r="J48" s="34"/>
+      <c r="J48" s="34">
+        <f>V48</f>
+        <v>0.7</v>
+      </c>
       <c r="K48" s="33">
         <v>0</v>
       </c>
-      <c r="L48" s="34"/>
+      <c r="L48" s="34">
+        <f>W48</f>
+        <v>0.9</v>
+      </c>
       <c r="M48" s="33">
         <v>0</v>
       </c>
       <c r="N48" s="56"/>
       <c r="P48" s="28"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V48" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="W48" s="33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>103</v>
       </c>
@@ -3502,18 +4125,32 @@
         <f>SUM(I42:I48)</f>
         <v>290.49999999999994</v>
       </c>
-      <c r="J49" s="36"/>
+      <c r="J49" s="36">
+        <f>SUM(J42:J48)</f>
+        <v>248</v>
+      </c>
       <c r="K49" s="35">
         <f>SUM(K42:K48)</f>
         <v>259.29999999999995</v>
       </c>
-      <c r="L49" s="36"/>
+      <c r="L49" s="36">
+        <f>SUM(L42:L48)</f>
+        <v>363.9</v>
+      </c>
       <c r="M49" s="35">
         <f>SUM(M42:M48)</f>
         <v>400.29999999999995</v>
       </c>
-    </row>
-    <row r="50" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V49" s="35">
+        <f t="shared" ref="V49:W49" si="27">SUM(V42:V48)</f>
+        <v>248</v>
+      </c>
+      <c r="W49" s="35">
+        <f t="shared" si="27"/>
+        <v>363.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
@@ -3532,18 +4169,30 @@
       <c r="I50" s="33">
         <v>300</v>
       </c>
-      <c r="J50" s="34"/>
+      <c r="J50" s="34">
+        <f>V50</f>
+        <v>322.3</v>
+      </c>
       <c r="K50" s="33">
         <v>340.7</v>
       </c>
-      <c r="L50" s="34"/>
+      <c r="L50" s="34">
+        <f>W50</f>
+        <v>287.60000000000002</v>
+      </c>
       <c r="M50" s="33">
         <v>545.6</v>
       </c>
       <c r="N50" s="56"/>
       <c r="P50" s="28"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V50" s="33">
+        <v>322.3</v>
+      </c>
+      <c r="W50" s="33">
+        <v>287.60000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>92</v>
       </c>
@@ -3562,16 +4211,28 @@
       <c r="I51" s="35">
         <v>51.4</v>
       </c>
-      <c r="J51" s="36"/>
+      <c r="J51" s="36">
+        <f t="shared" ref="J51:J55" si="28">V51</f>
+        <v>51.7</v>
+      </c>
       <c r="K51" s="35">
         <v>53.4</v>
       </c>
-      <c r="L51" s="36"/>
+      <c r="L51" s="36">
+        <f t="shared" ref="L51:L55" si="29">W51</f>
+        <v>56.6</v>
+      </c>
       <c r="M51" s="35">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V51" s="35">
+        <v>51.7</v>
+      </c>
+      <c r="W51" s="35">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
@@ -3590,16 +4251,28 @@
       <c r="I52" s="35">
         <v>45</v>
       </c>
-      <c r="J52" s="36"/>
+      <c r="J52" s="36">
+        <f t="shared" si="28"/>
+        <v>22.5</v>
+      </c>
       <c r="K52" s="35">
         <v>10.1</v>
       </c>
-      <c r="L52" s="36"/>
+      <c r="L52" s="36">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
       <c r="M52" s="35">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V52" s="35">
+        <v>22.5</v>
+      </c>
+      <c r="W52" s="35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>94</v>
       </c>
@@ -3618,16 +4291,28 @@
       <c r="I53" s="35">
         <v>16.3</v>
       </c>
-      <c r="J53" s="36"/>
+      <c r="J53" s="36">
+        <f t="shared" si="28"/>
+        <v>16.8</v>
+      </c>
       <c r="K53" s="35">
         <v>15.2</v>
       </c>
-      <c r="L53" s="36"/>
+      <c r="L53" s="36">
+        <f t="shared" si="29"/>
+        <v>19</v>
+      </c>
       <c r="M53" s="35">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V53" s="35">
+        <v>16.8</v>
+      </c>
+      <c r="W53" s="35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
@@ -3646,16 +4331,28 @@
       <c r="I54" s="35">
         <v>14.3</v>
       </c>
-      <c r="J54" s="36"/>
+      <c r="J54" s="36">
+        <f t="shared" si="28"/>
+        <v>8.4</v>
+      </c>
       <c r="K54" s="35">
         <v>6.3</v>
       </c>
-      <c r="L54" s="36"/>
+      <c r="L54" s="36">
+        <f t="shared" si="29"/>
+        <v>7.7</v>
+      </c>
       <c r="M54" s="35">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V54" s="35">
+        <v>8.4</v>
+      </c>
+      <c r="W54" s="35">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>85</v>
       </c>
@@ -3674,16 +4371,28 @@
       <c r="I55" s="35">
         <v>41.7</v>
       </c>
-      <c r="J55" s="36"/>
+      <c r="J55" s="36">
+        <f t="shared" si="28"/>
+        <v>40.6</v>
+      </c>
       <c r="K55" s="35">
         <v>51.1</v>
       </c>
-      <c r="L55" s="36"/>
+      <c r="L55" s="36">
+        <f t="shared" si="29"/>
+        <v>58.5</v>
+      </c>
       <c r="M55" s="35">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V55" s="35">
+        <v>40.6</v>
+      </c>
+      <c r="W55" s="35">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
@@ -3706,21 +4415,35 @@
         <f>I49+SUM(I50:I55)</f>
         <v>759.19999999999993</v>
       </c>
-      <c r="J56" s="36"/>
+      <c r="J56" s="36">
+        <f>J49+SUM(J50:J55)</f>
+        <v>710.3</v>
+      </c>
       <c r="K56" s="35">
         <f>K49+SUM(K50:K55)</f>
         <v>736.09999999999991</v>
       </c>
-      <c r="L56" s="36"/>
+      <c r="L56" s="36">
+        <f>L49+SUM(L50:L55)</f>
+        <v>793.90000000000009</v>
+      </c>
       <c r="M56" s="35">
         <f>M49+SUM(M50:M55)</f>
         <v>1114.3000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V56" s="35">
+        <f>V49+SUM(V50:V55)</f>
+        <v>710.3</v>
+      </c>
+      <c r="W56" s="35">
+        <f>W49+SUM(W50:W55)</f>
+        <v>793.90000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:16" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="35" t="s">
         <v>98</v>
       </c>
@@ -3739,18 +4462,30 @@
       <c r="I58" s="35">
         <v>1123</v>
       </c>
-      <c r="J58" s="36"/>
+      <c r="J58" s="36">
+        <f>V58</f>
+        <v>1167.5999999999999</v>
+      </c>
       <c r="K58" s="35">
         <v>1277.0999999999999</v>
       </c>
-      <c r="L58" s="36"/>
+      <c r="L58" s="36">
+        <f>W58</f>
+        <v>1403.1</v>
+      </c>
       <c r="M58" s="35">
         <v>1627</v>
       </c>
       <c r="N58" s="51"/>
       <c r="P58" s="36"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V58" s="35">
+        <v>1167.5999999999999</v>
+      </c>
+      <c r="W58" s="35">
+        <v>1403.1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>99</v>
       </c>
@@ -3770,16 +4505,32 @@
         <f>I58+I56</f>
         <v>1882.1999999999998</v>
       </c>
+      <c r="J59" s="36">
+        <f>J58+J56</f>
+        <v>1877.8999999999999</v>
+      </c>
       <c r="K59" s="35">
         <f>K58+K56</f>
         <v>2013.1999999999998</v>
       </c>
+      <c r="L59" s="36">
+        <f>L58+L56</f>
+        <v>2197</v>
+      </c>
       <c r="M59" s="35">
         <f>M58+M56</f>
         <v>2741.3</v>
       </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V59" s="35">
+        <f>V58+V56</f>
+        <v>1877.8999999999999</v>
+      </c>
+      <c r="W59" s="35">
+        <f>W58+W56</f>
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
@@ -3799,16 +4550,32 @@
         <f>I40-I56</f>
         <v>1123</v>
       </c>
+      <c r="J61" s="36">
+        <f>J40-J56</f>
+        <v>1167.6000000000001</v>
+      </c>
       <c r="K61" s="35">
         <f>K40-K56</f>
         <v>1277.1000000000004</v>
       </c>
+      <c r="L61" s="36">
+        <f>L40-L56</f>
+        <v>1403.1000000000004</v>
+      </c>
       <c r="M61" s="35">
         <f>M40-M56</f>
         <v>1627</v>
       </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V61" s="35">
+        <f t="shared" ref="V61:W61" si="30">V40-V56</f>
+        <v>1167.6000000000001</v>
+      </c>
+      <c r="W61" s="35">
+        <f t="shared" si="30"/>
+        <v>1403.1000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
@@ -3828,16 +4595,32 @@
         <f>I61/I16</f>
         <v>2.9623377739884473</v>
       </c>
+      <c r="J62" s="36">
+        <f>J61/J16</f>
+        <v>3.0831792975970429</v>
+      </c>
       <c r="K62" s="1">
         <f>K61/K16</f>
         <v>3.368768135056714</v>
       </c>
+      <c r="L62" s="36">
+        <f>L61/L16</f>
+        <v>3.7050435701082662</v>
+      </c>
       <c r="M62" s="1">
         <f>M61/M16</f>
         <v>4.3019566367001589</v>
       </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="V62" s="1">
+        <f t="shared" ref="V62:W62" si="31">V61/V16</f>
+        <v>3.0791139240506333</v>
+      </c>
+      <c r="W62" s="1">
+        <f t="shared" si="31"/>
+        <v>3.7050435701082662</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
@@ -3857,16 +4640,32 @@
         <f>I38+I39+I30</f>
         <v>130.70000000000002</v>
       </c>
+      <c r="J64" s="36">
+        <f>J38+J39+J30</f>
+        <v>145.1</v>
+      </c>
       <c r="K64" s="35">
         <f>K38+K39+K30</f>
         <v>141.6</v>
       </c>
+      <c r="L64" s="36">
+        <f>L38+L39+L30</f>
+        <v>166.29999999999998</v>
+      </c>
       <c r="M64" s="35">
         <f>M38+M39+M30</f>
         <v>234.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="V64" s="35">
+        <f>V38+V39+V30</f>
+        <v>145.1</v>
+      </c>
+      <c r="W64" s="35">
+        <f>W38+W39+W30</f>
+        <v>166.29999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
@@ -3886,16 +4685,32 @@
         <f>I50+I42+I48</f>
         <v>377</v>
       </c>
+      <c r="J65" s="36">
+        <f>J50+J42+J48</f>
+        <v>326</v>
+      </c>
       <c r="K65" s="35">
         <f>K50+K42+K48</f>
         <v>546.79999999999995</v>
       </c>
+      <c r="L65" s="36">
+        <f>L50+L42+L48</f>
+        <v>361</v>
+      </c>
       <c r="M65" s="35">
         <f>M50+M42+M48</f>
         <v>802</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="V65" s="35">
+        <f>V50+V42+V48</f>
+        <v>326</v>
+      </c>
+      <c r="W65" s="35">
+        <f>W50+W42+W48</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
@@ -3915,16 +4730,32 @@
         <f>I64-I65</f>
         <v>-246.29999999999998</v>
       </c>
+      <c r="J66" s="36">
+        <f>J64-J65</f>
+        <v>-180.9</v>
+      </c>
       <c r="K66" s="35">
         <f>K64-K65</f>
         <v>-405.19999999999993</v>
       </c>
+      <c r="L66" s="36">
+        <f>L64-L65</f>
+        <v>-194.70000000000002</v>
+      </c>
       <c r="M66" s="35">
         <f>M64-M65</f>
         <v>-567.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V66" s="35">
+        <f>V64-V65</f>
+        <v>-180.9</v>
+      </c>
+      <c r="W66" s="35">
+        <f>W64-W65</f>
+        <v>-194.70000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="37" t="s">
         <v>102</v>
       </c>
@@ -3943,18 +4774,36 @@
       <c r="I68" s="37">
         <v>23.1129</v>
       </c>
-      <c r="J68" s="38"/>
+      <c r="J68" s="38">
+        <f>V68</f>
+        <v>23.4651</v>
+      </c>
       <c r="K68" s="37">
         <v>28.1996</v>
       </c>
-      <c r="L68" s="38"/>
+      <c r="L68" s="38">
+        <f>W68</f>
+        <v>24.9636</v>
+      </c>
       <c r="M68" s="37">
         <v>20.45</v>
       </c>
       <c r="N68" s="52"/>
       <c r="P68" s="38"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T68" s="37">
+        <v>16.279199999999999</v>
+      </c>
+      <c r="U68" s="37">
+        <v>18.8504</v>
+      </c>
+      <c r="V68" s="37">
+        <v>23.4651</v>
+      </c>
+      <c r="W68" s="37">
+        <v>24.9636</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
@@ -3974,16 +4823,40 @@
         <f>I68*I16</f>
         <v>8761.9267890080991</v>
       </c>
+      <c r="J69" s="36">
+        <f t="shared" ref="J69:L69" si="32">J68*J16</f>
+        <v>8886.2333699999999</v>
+      </c>
       <c r="K69" s="35">
         <f>K68*K16</f>
         <v>10690.468360000001</v>
       </c>
+      <c r="L69" s="36">
+        <f t="shared" si="32"/>
+        <v>9453.7153199999993</v>
+      </c>
       <c r="M69" s="35">
         <f>M68*M16</f>
         <v>7734.19</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T69" s="35">
+        <f t="shared" ref="T69:W69" si="33">T68*T16</f>
+        <v>6172.4174835960002</v>
+      </c>
+      <c r="U69" s="35">
+        <f t="shared" si="33"/>
+        <v>7145.9384367832008</v>
+      </c>
+      <c r="V69" s="35">
+        <f t="shared" si="33"/>
+        <v>8897.9659199999987</v>
+      </c>
+      <c r="W69" s="35">
+        <f t="shared" si="33"/>
+        <v>9453.7153199999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -4003,19 +4876,43 @@
         <f>I69-I66</f>
         <v>9008.2267890080984</v>
       </c>
+      <c r="J70" s="36">
+        <f t="shared" ref="J70:L70" si="34">J69-J66</f>
+        <v>9067.1333699999996</v>
+      </c>
       <c r="K70" s="35">
         <f>K69-K66</f>
         <v>11095.668360000001</v>
       </c>
+      <c r="L70" s="36">
+        <f t="shared" si="34"/>
+        <v>9648.4153200000001</v>
+      </c>
       <c r="M70" s="35">
         <f>M69-M66</f>
         <v>8301.7899999999991</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="T70" s="35">
+        <f t="shared" ref="T70:W70" si="35">T69-T66</f>
+        <v>6172.4174835960002</v>
+      </c>
+      <c r="U70" s="35">
+        <f t="shared" si="35"/>
+        <v>7145.9384367832008</v>
+      </c>
+      <c r="V70" s="35">
+        <f t="shared" si="35"/>
+        <v>9078.8659199999984</v>
+      </c>
+      <c r="W70" s="35">
+        <f t="shared" si="35"/>
+        <v>9648.4153200000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A72" s="47">
-        <f>AVERAGE(C72:AZ72)</f>
-        <v>6.467721604504824</v>
+        <f>AVERAGE(C72:BA72)</f>
+        <v>6.6455994380078121</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
@@ -4044,31 +4941,148 @@
         <f>M68/M62</f>
         <v>4.7536508912108166</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="V72" s="44">
+        <f t="shared" ref="V72:W72" si="36">V68/V62</f>
+        <v>7.620731346351489</v>
+      </c>
+      <c r="W72" s="44">
+        <f>W68/W62</f>
+        <v>6.7377345306820589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I73" s="44">
+        <f>I69/SUM(H4:I4)</f>
+        <v>6.7239097452291459</v>
+      </c>
+      <c r="J73" s="60">
+        <f>J69/SUM(I4:J4)</f>
+        <v>6.7411875056895765</v>
+      </c>
+      <c r="K73" s="44">
+        <f>K69/SUM(J4:K4)</f>
+        <v>7.4394351844119697</v>
+      </c>
+      <c r="L73" s="60">
+        <f>L69/SUM(K4:L4)</f>
+        <v>6.1979383203304268</v>
+      </c>
+      <c r="M73" s="44">
+        <f>M69/SUM(L4:M4)</f>
+        <v>4.6490682856455878</v>
+      </c>
+      <c r="T73" s="44">
+        <f t="shared" ref="T73:W73" si="37">T69/T4</f>
+        <v>5.0973800343513087</v>
+      </c>
+      <c r="U73" s="44">
+        <f t="shared" si="37"/>
+        <v>5.3391650005851767</v>
+      </c>
+      <c r="V73" s="44">
+        <f t="shared" si="37"/>
+        <v>6.7500879380974039</v>
+      </c>
+      <c r="W73" s="44">
+        <f>W69/W4</f>
+        <v>6.1979383203304268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="G75" s="44">
+        <f>G68/(G15+F15)</f>
+        <v>40.570085892338092</v>
+      </c>
+      <c r="I75" s="44">
+        <f>I68/(I15+H15)</f>
+        <v>49.58603989933718</v>
+      </c>
+      <c r="J75" s="60">
+        <f>J68/(J15+I15)</f>
+        <v>43.727166392237116</v>
+      </c>
+      <c r="K75" s="44">
+        <f>K68/(K15+J15)</f>
+        <v>40.829325611764631</v>
+      </c>
+      <c r="L75" s="60">
+        <f>L68/(L15+K15)</f>
+        <v>38.73571477005347</v>
+      </c>
+      <c r="M75" s="44">
+        <f>M68/(M15+L15)</f>
+        <v>34.65810517544427</v>
+      </c>
+      <c r="T75" s="44">
+        <f t="shared" ref="T75:W75" si="38">T68/T15</f>
+        <v>36.35110414367491</v>
+      </c>
+      <c r="U75" s="44">
+        <f t="shared" si="38"/>
+        <v>38.752377639822122</v>
+      </c>
+      <c r="V75" s="44">
+        <f t="shared" si="38"/>
+        <v>43.767663157894724</v>
+      </c>
+      <c r="W75" s="44">
+        <f>W68/W15</f>
+        <v>38.713002948402945</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="39"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="C77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="I77" s="39">
+        <f>(I5+H5)/(I40-I49)</f>
+        <v>0.14066721115788153</v>
+      </c>
+      <c r="J77" s="40">
+        <f>(J5+I5)/(J40-J49)</f>
+        <v>0.14773912509969936</v>
+      </c>
+      <c r="K77" s="39">
+        <f>(K5+J5)/(K40-K49)</f>
+        <v>0.15753463709447516</v>
+      </c>
+      <c r="L77" s="40">
+        <f>(L5+K5)/(L40-L49)</f>
+        <v>0.15214663684468929</v>
+      </c>
+      <c r="M77" s="39">
+        <f>(M5+L5)/(M40-M49)</f>
+        <v>0.12516018795386588</v>
+      </c>
+      <c r="V77" s="39">
+        <f t="shared" ref="V77:W77" si="39">V5/(V40-V49)</f>
+        <v>0.14773912509969936</v>
+      </c>
+      <c r="W77" s="39">
+        <f>W5/(W40-W49)</f>
+        <v>0.15214663684468929</v>
       </c>
     </row>
   </sheetData>
@@ -4076,13 +5090,16 @@
     <hyperlink ref="M1" r:id="rId1" xr:uid="{64230965-EEC2-4818-9500-5E49F2C6FBF5}"/>
     <hyperlink ref="I1" r:id="rId2" xr:uid="{879E0608-9977-4013-9DB7-7908B60FAFB2}"/>
     <hyperlink ref="E1" r:id="rId3" xr:uid="{D2F2E719-2F49-4057-B46A-7E29B8F345FA}"/>
-    <hyperlink ref="V1" r:id="rId4" xr:uid="{312EC780-3433-42F0-97FF-0788993E5A29}"/>
+    <hyperlink ref="W1" r:id="rId4" xr:uid="{312EC780-3433-42F0-97FF-0788993E5A29}"/>
+    <hyperlink ref="U1" r:id="rId5" xr:uid="{313C0DA0-3F4A-45BC-BA9D-854CC763EEA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="L10" formula="1"/>
+    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49" formula="1"/>
+    <ignoredError sqref="D11:F15 E10" evalError="1"/>
+    <ignoredError sqref="F10 D10" evalError="1" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43140AF5-4A44-E94B-A72A-B74F09545752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C808652-3B53-1A46-B2FC-688441716B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>£HLMA</t>
   </si>
@@ -221,15 +221,6 @@
     <t>FY32</t>
   </si>
   <si>
-    <t>FY33</t>
-  </si>
-  <si>
-    <t>FY34</t>
-  </si>
-  <si>
-    <t>FY35</t>
-  </si>
-  <si>
     <t>Operating Profit</t>
   </si>
   <si>
@@ -366,15 +357,40 @@
   </si>
   <si>
     <t>FY16</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>S/P</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -609,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -715,6 +731,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,9 +767,17 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1245,7 +1272,7 @@
   <dimension ref="B2:S38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1274,26 +1301,26 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="G5" s="63" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="G5" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
@@ -1498,11 +1525,11 @@
       <c r="S14" s="13"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="G15" s="19"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1521,10 +1548,10 @@
       <c r="B16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="68"/>
       <c r="G16" s="19"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1543,10 +1570,10 @@
       <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="68"/>
       <c r="G17" s="19"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1565,8 +1592,8 @@
       <c r="B18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
       <c r="G18" s="19"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1585,8 +1612,8 @@
       <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
       <c r="G19" s="19"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1632,11 +1659,11 @@
       <c r="S21" s="13"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="G22" s="19"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -1655,10 +1682,10 @@
       <c r="B23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="68"/>
       <c r="G23" s="19"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
@@ -1677,10 +1704,10 @@
       <c r="B24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="67">
         <v>1894</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="68"/>
       <c r="G24" s="19"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -1697,8 +1724,8 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="17"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="G25" s="19"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1715,8 +1742,8 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
       <c r="G26" s="19"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
@@ -1733,8 +1760,8 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" s="17"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="G27" s="19"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -1777,10 +1804,10 @@
       <c r="B29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="69"/>
+      <c r="D29" s="70"/>
       <c r="G29" s="19"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
@@ -1826,11 +1853,11 @@
       <c r="S31" s="13"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
       <c r="G32" s="19"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -1849,11 +1876,11 @@
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="71">
         <f>C6/'Financial Model'!M62</f>
         <v>5.24180086047941</v>
       </c>
-      <c r="D33" s="71"/>
+      <c r="D33" s="72"/>
       <c r="G33" s="19"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -1872,11 +1899,11 @@
       <c r="B34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="70">
+      <c r="C34" s="71">
         <f>C8/SUM('Financial Model'!L4:M4)</f>
         <v>5.1264787208463574</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="72"/>
       <c r="G34" s="19"/>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1895,8 +1922,8 @@
       <c r="B35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
       <c r="G35" s="19"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1915,11 +1942,11 @@
       <c r="B36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="71">
         <f>C6/SUM('Financial Model'!L15:M15)</f>
         <v>38.217128200795514</v>
       </c>
-      <c r="D36" s="71"/>
+      <c r="D36" s="72"/>
       <c r="G36" s="19"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1938,8 +1965,8 @@
       <c r="B37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
       <c r="G37" s="19"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1958,8 +1985,8 @@
       <c r="B38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
       <c r="G38" s="21"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
@@ -2009,18 +2036,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5332D-7B2B-4D46-8BAA-4FBC91F2AA00}">
-  <dimension ref="A1:AK77"/>
+  <dimension ref="A1:BU77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W77" sqref="V77:W77"/>
+      <selection pane="bottomRight" activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="1"/>
     <col min="4" max="4" width="9.1640625" style="29"/>
@@ -2036,15 +2063,20 @@
     <col min="14" max="14" width="9.1640625" style="55"/>
     <col min="15" max="15" width="9.1640625" style="1"/>
     <col min="16" max="16" width="9.1640625" style="29"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="17" max="23" width="9.1640625" style="1"/>
+    <col min="24" max="24" width="9.1640625" style="55"/>
+    <col min="25" max="35" width="9.1640625" style="1"/>
+    <col min="36" max="36" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:73" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="C1" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>34</v>
@@ -2083,15 +2115,15 @@
         <v>45</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="61" t="s">
         <v>47</v>
       </c>
       <c r="V1" s="22" t="s">
@@ -2100,7 +2132,7 @@
       <c r="W1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="48" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="22" t="s">
@@ -2133,17 +2165,8 @@
       <c r="AH1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="2:37" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="2:73" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23"/>
       <c r="C2" s="32">
         <v>43008</v>
@@ -2197,8 +2220,11 @@
       <c r="W2" s="32">
         <v>44651</v>
       </c>
-    </row>
-    <row r="3" spans="2:37" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X2" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:73" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="23"/>
       <c r="D3" s="27"/>
       <c r="E3" s="31">
@@ -2228,8 +2254,9 @@
       <c r="W3" s="31">
         <v>44728</v>
       </c>
-    </row>
-    <row r="4" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X3" s="49"/>
+    </row>
+    <row r="4" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
@@ -2271,7 +2298,10 @@
       <c r="M4" s="33">
         <v>875.5</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="50">
+        <f>M4*(1+N19)</f>
+        <v>989.31499999999994</v>
+      </c>
       <c r="P4" s="34"/>
       <c r="T4" s="33">
         <v>1210.9000000000001</v>
@@ -2285,10 +2315,54 @@
       <c r="W4" s="33">
         <v>1525.3</v>
       </c>
-    </row>
-    <row r="5" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X4" s="50">
+        <f>N4+M4</f>
+        <v>1864.8150000000001</v>
+      </c>
+      <c r="Y4" s="33">
+        <f>X4*(1+Y18)</f>
+        <v>2200.4816999999998</v>
+      </c>
+      <c r="Z4" s="33">
+        <f t="shared" ref="Z4:AH4" si="1">Y4*(1+Z18)</f>
+        <v>2596.5684059999999</v>
+      </c>
+      <c r="AA4" s="33">
+        <f t="shared" si="1"/>
+        <v>3063.9507190799995</v>
+      </c>
+      <c r="AB4" s="33">
+        <f t="shared" si="1"/>
+        <v>3615.4618485143992</v>
+      </c>
+      <c r="AC4" s="33">
+        <f t="shared" si="1"/>
+        <v>4266.2449812469904</v>
+      </c>
+      <c r="AD4" s="33">
+        <f t="shared" si="1"/>
+        <v>5034.1690778714483</v>
+      </c>
+      <c r="AE4" s="33">
+        <f t="shared" si="1"/>
+        <v>5940.3195118883086</v>
+      </c>
+      <c r="AF4" s="33">
+        <f t="shared" si="1"/>
+        <v>7009.5770240282036</v>
+      </c>
+      <c r="AG4" s="33">
+        <f t="shared" si="1"/>
+        <v>8271.3008883532802</v>
+      </c>
+      <c r="AH4" s="33">
+        <f t="shared" si="1"/>
+        <v>9760.1350482568705</v>
+      </c>
+    </row>
+    <row r="5" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="33">
         <v>81.8</v>
@@ -2328,7 +2402,10 @@
       <c r="M5" s="33">
         <v>151.69999999999999</v>
       </c>
-      <c r="N5" s="50"/>
+      <c r="N5" s="50">
+        <f>N4*0.18</f>
+        <v>178.07669999999999</v>
+      </c>
       <c r="P5" s="34"/>
       <c r="T5" s="33">
         <v>217.8</v>
@@ -2342,10 +2419,54 @@
       <c r="W5" s="33">
         <v>278.89999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X5" s="50">
+        <f>N5+M5</f>
+        <v>329.77670000000001</v>
+      </c>
+      <c r="Y5" s="33">
+        <f>Y4*0.18</f>
+        <v>396.08670599999994</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" ref="Z5:AH5" si="2">Z4*0.18</f>
+        <v>467.38231307999996</v>
+      </c>
+      <c r="AA5" s="33">
+        <f t="shared" si="2"/>
+        <v>551.51112943439989</v>
+      </c>
+      <c r="AB5" s="33">
+        <f t="shared" si="2"/>
+        <v>650.78313273259187</v>
+      </c>
+      <c r="AC5" s="33">
+        <f t="shared" si="2"/>
+        <v>767.92409662445823</v>
+      </c>
+      <c r="AD5" s="33">
+        <f t="shared" si="2"/>
+        <v>906.15043401686069</v>
+      </c>
+      <c r="AE5" s="33">
+        <f t="shared" si="2"/>
+        <v>1069.2575121398954</v>
+      </c>
+      <c r="AF5" s="33">
+        <f t="shared" si="2"/>
+        <v>1261.7238643250766</v>
+      </c>
+      <c r="AG5" s="33">
+        <f t="shared" si="2"/>
+        <v>1488.8341599035905</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" si="2"/>
+        <v>1756.8243086862367</v>
+      </c>
+    </row>
+    <row r="6" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="35">
         <v>-0.1</v>
@@ -2385,7 +2506,9 @@
       <c r="M6" s="35">
         <v>0</v>
       </c>
-      <c r="N6" s="51"/>
+      <c r="N6" s="51">
+        <v>0</v>
+      </c>
       <c r="P6" s="36"/>
       <c r="T6" s="35">
         <v>-0.1</v>
@@ -2399,37 +2522,71 @@
       <c r="W6" s="35">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="7" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X6" s="51">
+        <f>N6+M6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="35">
         <v>0</v>
       </c>
       <c r="D7" s="36">
-        <f t="shared" ref="D7:D11" si="1">S7-C7</f>
+        <f t="shared" ref="D7:D11" si="3">S7-C7</f>
         <v>0</v>
       </c>
       <c r="E7" s="35">
         <v>-0.9</v>
       </c>
       <c r="F7" s="36">
-        <f t="shared" ref="F7:F11" si="2">T7-E7</f>
+        <f t="shared" ref="F7:F11" si="4">T7-E7</f>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="G7" s="35">
         <v>0</v>
       </c>
       <c r="H7" s="36">
-        <f t="shared" ref="H7:H11" si="3">U7-G7</f>
+        <f t="shared" ref="H7:H11" si="5">U7-G7</f>
         <v>2.9</v>
       </c>
       <c r="I7" s="35">
         <v>0</v>
       </c>
       <c r="J7" s="36">
-        <f t="shared" ref="J7:J11" si="4">V7-I7</f>
+        <f t="shared" ref="J7:J11" si="6">V7-I7</f>
         <v>22.1</v>
       </c>
       <c r="K7" s="35">
@@ -2442,7 +2599,9 @@
       <c r="M7" s="35">
         <v>0</v>
       </c>
-      <c r="N7" s="51"/>
+      <c r="N7" s="51">
+        <v>0</v>
+      </c>
       <c r="P7" s="36"/>
       <c r="T7" s="35">
         <v>-1</v>
@@ -2456,37 +2615,71 @@
       <c r="W7" s="35">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X7" s="51">
+        <f t="shared" ref="X7:X9" si="7">N7+M7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="35">
         <v>0.1</v>
       </c>
       <c r="D8" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.1</v>
       </c>
       <c r="E8" s="35">
         <v>0.1</v>
       </c>
       <c r="F8" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="G8" s="35">
         <v>0.4</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I8" s="35">
         <v>1</v>
       </c>
       <c r="J8" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K8" s="35">
@@ -2499,7 +2692,10 @@
       <c r="M8" s="35">
         <v>0.8</v>
       </c>
-      <c r="N8" s="51"/>
+      <c r="N8" s="51">
+        <f>AVERAGE(K8:M8)</f>
+        <v>0.46666666666666662</v>
+      </c>
       <c r="P8" s="36"/>
       <c r="T8" s="35">
         <v>0.5</v>
@@ -2513,37 +2709,81 @@
       <c r="W8" s="35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X8" s="51">
+        <f t="shared" si="7"/>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="Y8" s="35">
+        <f t="shared" ref="Y8" si="8">AVERAGE(V8:X8)</f>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="Z8" s="35">
+        <f t="shared" ref="Z8" si="9">AVERAGE(W8:Y8)</f>
+        <v>0.94074074074074077</v>
+      </c>
+      <c r="AA8" s="35">
+        <f t="shared" ref="AA8" si="10">AVERAGE(X8:Z8)</f>
+        <v>1.0543209876543209</v>
+      </c>
+      <c r="AB8" s="35">
+        <f t="shared" ref="AB8" si="11">AVERAGE(Y8:AA8)</f>
+        <v>0.98353909465020573</v>
+      </c>
+      <c r="AC8" s="35">
+        <f t="shared" ref="AC8" si="12">AVERAGE(Z8:AB8)</f>
+        <v>0.99286694101508921</v>
+      </c>
+      <c r="AD8" s="35">
+        <f t="shared" ref="AD8" si="13">AVERAGE(AA8:AC8)</f>
+        <v>1.0102423411065387</v>
+      </c>
+      <c r="AE8" s="35">
+        <f t="shared" ref="AE8" si="14">AVERAGE(AB8:AD8)</f>
+        <v>0.99554945892394464</v>
+      </c>
+      <c r="AF8" s="35">
+        <f t="shared" ref="AF8" si="15">AVERAGE(AC8:AE8)</f>
+        <v>0.99955291368185739</v>
+      </c>
+      <c r="AG8" s="35">
+        <f t="shared" ref="AG8" si="16">AVERAGE(AD8:AF8)</f>
+        <v>1.0017815712374467</v>
+      </c>
+      <c r="AH8" s="35">
+        <f t="shared" ref="AH8" si="17">AVERAGE(AE8:AG8)</f>
+        <v>0.99896131461441617</v>
+      </c>
+    </row>
+    <row r="9" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="35">
         <v>5</v>
       </c>
       <c r="D9" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="G9" s="35">
         <v>6.1</v>
       </c>
       <c r="H9" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.6</v>
       </c>
       <c r="I9" s="35">
         <v>6.8</v>
       </c>
       <c r="J9" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
       <c r="K9" s="35">
@@ -2556,7 +2796,10 @@
       <c r="M9" s="35">
         <v>7</v>
       </c>
-      <c r="N9" s="51"/>
+      <c r="N9" s="51">
+        <f>AVERAGE(K9:M9)</f>
+        <v>5.333333333333333</v>
+      </c>
       <c r="P9" s="36"/>
       <c r="T9" s="35">
         <v>10.5</v>
@@ -2570,56 +2813,103 @@
       <c r="W9" s="35">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X9" s="51">
+        <f t="shared" si="7"/>
+        <v>12.333333333333332</v>
+      </c>
+      <c r="Y9" s="35">
+        <f>AVERAGE(V9:X9)</f>
+        <v>10.777777777777777</v>
+      </c>
+      <c r="Z9" s="35">
+        <f t="shared" ref="Z9:AH9" si="18">AVERAGE(W9:Y9)</f>
+        <v>10.703703703703702</v>
+      </c>
+      <c r="AA9" s="35">
+        <f t="shared" si="18"/>
+        <v>11.271604938271603</v>
+      </c>
+      <c r="AB9" s="35">
+        <f t="shared" si="18"/>
+        <v>10.917695473251028</v>
+      </c>
+      <c r="AC9" s="35">
+        <f t="shared" si="18"/>
+        <v>10.964334705075444</v>
+      </c>
+      <c r="AD9" s="35">
+        <f t="shared" si="18"/>
+        <v>11.051211705532692</v>
+      </c>
+      <c r="AE9" s="35">
+        <f t="shared" si="18"/>
+        <v>10.977747294619723</v>
+      </c>
+      <c r="AF9" s="35">
+        <f t="shared" si="18"/>
+        <v>10.997764568409288</v>
+      </c>
+      <c r="AG9" s="35">
+        <f t="shared" si="18"/>
+        <v>11.008907856187236</v>
+      </c>
+      <c r="AH9" s="35">
+        <f t="shared" si="18"/>
+        <v>10.994806573072083</v>
+      </c>
+    </row>
+    <row r="10" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="35">
-        <f t="shared" ref="C10:M10" si="5">C5+C6+C7+C8-C9</f>
+        <f t="shared" ref="C10:N10" si="19">C5+C6+C7+C8-C9</f>
         <v>76.8</v>
       </c>
       <c r="D10" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-76.8</v>
       </c>
       <c r="E10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>94.5</v>
       </c>
       <c r="F10" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>112.20000000000002</v>
       </c>
       <c r="G10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>105.80000000000001</v>
       </c>
       <c r="H10" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>118.30000000000003</v>
       </c>
       <c r="I10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>96.3</v>
       </c>
       <c r="J10" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>156.60000000000002</v>
       </c>
       <c r="K10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>167.5</v>
       </c>
       <c r="L10" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>136.89999999999998</v>
       </c>
       <c r="M10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>145.5</v>
       </c>
-      <c r="N10" s="51"/>
+      <c r="N10" s="51">
+        <f t="shared" si="19"/>
+        <v>173.21003333333331</v>
+      </c>
       <c r="P10" s="36"/>
       <c r="T10" s="35">
         <f>T5+T6+T7+T8-T9</f>
@@ -2637,37 +2927,81 @@
         <f>W5+W6+W7+W8-W9</f>
         <v>304.39999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X10" s="51">
+        <f>X5+X6+X7+X8-X9</f>
+        <v>318.71003333333334</v>
+      </c>
+      <c r="Y10" s="35">
+        <f t="shared" ref="Y10:AH10" si="20">Y5+Y6+Y7+Y8-Y9</f>
+        <v>386.26448377777774</v>
+      </c>
+      <c r="Z10" s="35">
+        <f t="shared" si="20"/>
+        <v>457.61935011703702</v>
+      </c>
+      <c r="AA10" s="35">
+        <f t="shared" si="20"/>
+        <v>541.29384548378266</v>
+      </c>
+      <c r="AB10" s="35">
+        <f t="shared" si="20"/>
+        <v>640.84897635399102</v>
+      </c>
+      <c r="AC10" s="35">
+        <f t="shared" si="20"/>
+        <v>757.95262886039791</v>
+      </c>
+      <c r="AD10" s="35">
+        <f t="shared" si="20"/>
+        <v>896.10946465243455</v>
+      </c>
+      <c r="AE10" s="35">
+        <f t="shared" si="20"/>
+        <v>1059.2753143041996</v>
+      </c>
+      <c r="AF10" s="35">
+        <f t="shared" si="20"/>
+        <v>1251.7256526703491</v>
+      </c>
+      <c r="AG10" s="35">
+        <f t="shared" si="20"/>
+        <v>1478.8270336186406</v>
+      </c>
+      <c r="AH10" s="35">
+        <f t="shared" si="20"/>
+        <v>1746.8284634277791</v>
+      </c>
+    </row>
+    <row r="11" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="35">
         <v>15.1</v>
       </c>
       <c r="D11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-15.1</v>
       </c>
       <c r="E11" s="35">
         <v>19.899999999999999</v>
       </c>
       <c r="F11" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G11" s="35">
         <v>20.8</v>
       </c>
       <c r="H11" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.900000000000002</v>
       </c>
       <c r="I11" s="35">
         <v>19</v>
       </c>
       <c r="J11" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30.6</v>
       </c>
       <c r="K11" s="35">
@@ -2680,7 +3014,10 @@
       <c r="M11" s="35">
         <v>30.7</v>
       </c>
-      <c r="N11" s="51"/>
+      <c r="N11" s="51">
+        <f>N10*N23</f>
+        <v>36.374106999999995</v>
+      </c>
       <c r="P11" s="36"/>
       <c r="T11" s="35">
         <v>36.9</v>
@@ -2694,56 +3031,103 @@
       <c r="W11" s="35">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="12" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X11" s="51">
+        <f>N11+M11</f>
+        <v>67.074106999999998</v>
+      </c>
+      <c r="Y11" s="35">
+        <f>Y10*Y23</f>
+        <v>81.115541593333319</v>
+      </c>
+      <c r="Z11" s="35">
+        <f t="shared" ref="Z11:AH11" si="21">Z10*Z23</f>
+        <v>96.100063524577763</v>
+      </c>
+      <c r="AA11" s="35">
+        <f t="shared" si="21"/>
+        <v>113.67170755159435</v>
+      </c>
+      <c r="AB11" s="35">
+        <f t="shared" si="21"/>
+        <v>134.57828503433811</v>
+      </c>
+      <c r="AC11" s="35">
+        <f t="shared" si="21"/>
+        <v>159.17005206068356</v>
+      </c>
+      <c r="AD11" s="35">
+        <f t="shared" si="21"/>
+        <v>188.18298757701126</v>
+      </c>
+      <c r="AE11" s="35">
+        <f t="shared" si="21"/>
+        <v>222.44781600388191</v>
+      </c>
+      <c r="AF11" s="35">
+        <f t="shared" si="21"/>
+        <v>262.8623870607733</v>
+      </c>
+      <c r="AG11" s="35">
+        <f t="shared" si="21"/>
+        <v>310.55367705991449</v>
+      </c>
+      <c r="AH11" s="35">
+        <f t="shared" si="21"/>
+        <v>366.83397731983359</v>
+      </c>
+    </row>
+    <row r="12" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="33">
-        <f t="shared" ref="C12:M12" si="6">C10-C11</f>
+        <f t="shared" ref="C12:M12" si="22">C10-C11</f>
         <v>61.699999999999996</v>
       </c>
       <c r="D12" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>-61.699999999999996</v>
       </c>
       <c r="E12" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>74.599999999999994</v>
       </c>
       <c r="F12" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>95.200000000000017</v>
       </c>
       <c r="G12" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>85.000000000000014</v>
       </c>
       <c r="H12" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>99.40000000000002</v>
       </c>
       <c r="I12" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>77.3</v>
       </c>
       <c r="J12" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>126.00000000000003</v>
       </c>
       <c r="K12" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>135.69999999999999</v>
       </c>
       <c r="L12" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>108.49999999999997</v>
       </c>
       <c r="M12" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>114.8</v>
       </c>
-      <c r="N12" s="50"/>
+      <c r="N12" s="50">
+        <f>N10-N11</f>
+        <v>136.8359263333333</v>
+      </c>
       <c r="P12" s="34"/>
       <c r="T12" s="33">
         <f>T10-T11</f>
@@ -2761,56 +3145,259 @@
         <f>W10-W11</f>
         <v>244.2</v>
       </c>
-    </row>
-    <row r="13" spans="2:37" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X12" s="50">
+        <f t="shared" ref="X12:AH12" si="23">X10-X11</f>
+        <v>251.63592633333334</v>
+      </c>
+      <c r="Y12" s="33">
+        <f t="shared" si="23"/>
+        <v>305.14894218444442</v>
+      </c>
+      <c r="Z12" s="33">
+        <f t="shared" si="23"/>
+        <v>361.51928659245925</v>
+      </c>
+      <c r="AA12" s="33">
+        <f t="shared" si="23"/>
+        <v>427.62213793218831</v>
+      </c>
+      <c r="AB12" s="33">
+        <f t="shared" si="23"/>
+        <v>506.27069131965288</v>
+      </c>
+      <c r="AC12" s="33">
+        <f t="shared" si="23"/>
+        <v>598.78257679971432</v>
+      </c>
+      <c r="AD12" s="33">
+        <f t="shared" si="23"/>
+        <v>707.92647707542324</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" si="23"/>
+        <v>836.82749830031764</v>
+      </c>
+      <c r="AF12" s="33">
+        <f t="shared" si="23"/>
+        <v>988.86326560957582</v>
+      </c>
+      <c r="AG12" s="33">
+        <f t="shared" si="23"/>
+        <v>1168.2733565587262</v>
+      </c>
+      <c r="AH12" s="33">
+        <f t="shared" si="23"/>
+        <v>1379.9944861079455</v>
+      </c>
+      <c r="AI12" s="33">
+        <f>AH12*(1+$AK$21)</f>
+        <v>1366.194541246866</v>
+      </c>
+      <c r="AJ12" s="33">
+        <f t="shared" ref="AJ12:BU12" si="24">AI12*(1+$AK$21)</f>
+        <v>1352.5325958343974</v>
+      </c>
+      <c r="AK12" s="33">
+        <f t="shared" si="24"/>
+        <v>1339.0072698760534</v>
+      </c>
+      <c r="AL12" s="33">
+        <f t="shared" si="24"/>
+        <v>1325.6171971772928</v>
+      </c>
+      <c r="AM12" s="33">
+        <f t="shared" si="24"/>
+        <v>1312.3610252055198</v>
+      </c>
+      <c r="AN12" s="33">
+        <f t="shared" si="24"/>
+        <v>1299.2374149534646</v>
+      </c>
+      <c r="AO12" s="33">
+        <f t="shared" si="24"/>
+        <v>1286.2450408039299</v>
+      </c>
+      <c r="AP12" s="33">
+        <f t="shared" si="24"/>
+        <v>1273.3825903958905</v>
+      </c>
+      <c r="AQ12" s="33">
+        <f t="shared" si="24"/>
+        <v>1260.6487644919316</v>
+      </c>
+      <c r="AR12" s="33">
+        <f t="shared" si="24"/>
+        <v>1248.0422768470123</v>
+      </c>
+      <c r="AS12" s="33">
+        <f t="shared" si="24"/>
+        <v>1235.5618540785422</v>
+      </c>
+      <c r="AT12" s="33">
+        <f t="shared" si="24"/>
+        <v>1223.2062355377568</v>
+      </c>
+      <c r="AU12" s="33">
+        <f t="shared" si="24"/>
+        <v>1210.9741731823792</v>
+      </c>
+      <c r="AV12" s="33">
+        <f t="shared" si="24"/>
+        <v>1198.8644314505555</v>
+      </c>
+      <c r="AW12" s="33">
+        <f t="shared" si="24"/>
+        <v>1186.8757871360499</v>
+      </c>
+      <c r="AX12" s="33">
+        <f t="shared" si="24"/>
+        <v>1175.0070292646894</v>
+      </c>
+      <c r="AY12" s="33">
+        <f t="shared" si="24"/>
+        <v>1163.2569589720426</v>
+      </c>
+      <c r="AZ12" s="33">
+        <f t="shared" si="24"/>
+        <v>1151.6243893823223</v>
+      </c>
+      <c r="BA12" s="33">
+        <f t="shared" si="24"/>
+        <v>1140.1081454884991</v>
+      </c>
+      <c r="BB12" s="33">
+        <f t="shared" si="24"/>
+        <v>1128.7070640336142</v>
+      </c>
+      <c r="BC12" s="33">
+        <f t="shared" si="24"/>
+        <v>1117.419993393278</v>
+      </c>
+      <c r="BD12" s="33">
+        <f t="shared" si="24"/>
+        <v>1106.2457934593451</v>
+      </c>
+      <c r="BE12" s="33">
+        <f t="shared" si="24"/>
+        <v>1095.1833355247516</v>
+      </c>
+      <c r="BF12" s="33">
+        <f t="shared" si="24"/>
+        <v>1084.231502169504</v>
+      </c>
+      <c r="BG12" s="33">
+        <f t="shared" si="24"/>
+        <v>1073.389187147809</v>
+      </c>
+      <c r="BH12" s="33">
+        <f t="shared" si="24"/>
+        <v>1062.6552952763309</v>
+      </c>
+      <c r="BI12" s="33">
+        <f t="shared" si="24"/>
+        <v>1052.0287423235675</v>
+      </c>
+      <c r="BJ12" s="33">
+        <f t="shared" si="24"/>
+        <v>1041.5084549003318</v>
+      </c>
+      <c r="BK12" s="33">
+        <f t="shared" si="24"/>
+        <v>1031.0933703513285</v>
+      </c>
+      <c r="BL12" s="33">
+        <f t="shared" si="24"/>
+        <v>1020.7824366478152</v>
+      </c>
+      <c r="BM12" s="33">
+        <f t="shared" si="24"/>
+        <v>1010.5746122813371</v>
+      </c>
+      <c r="BN12" s="33">
+        <f t="shared" si="24"/>
+        <v>1000.4688661585237</v>
+      </c>
+      <c r="BO12" s="33">
+        <f t="shared" si="24"/>
+        <v>990.46417749693853</v>
+      </c>
+      <c r="BP12" s="33">
+        <f t="shared" si="24"/>
+        <v>980.55953572196916</v>
+      </c>
+      <c r="BQ12" s="33">
+        <f t="shared" si="24"/>
+        <v>970.7539403647495</v>
+      </c>
+      <c r="BR12" s="33">
+        <f t="shared" si="24"/>
+        <v>961.04640096110199</v>
+      </c>
+      <c r="BS12" s="33">
+        <f t="shared" si="24"/>
+        <v>951.43593695149093</v>
+      </c>
+      <c r="BT12" s="33">
+        <f t="shared" si="24"/>
+        <v>941.92157758197607</v>
+      </c>
+      <c r="BU12" s="33">
+        <f t="shared" si="24"/>
+        <v>932.50236180615627</v>
+      </c>
+    </row>
+    <row r="13" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="33">
-        <f t="shared" ref="C13:M13" si="7">C12+C14</f>
+        <f t="shared" ref="C13:N13" si="25">C12+C14</f>
         <v>61.699999999999996</v>
       </c>
       <c r="D13" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>-61.699999999999996</v>
       </c>
       <c r="E13" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>74.599999999999994</v>
       </c>
       <c r="F13" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>95.200000000000017</v>
       </c>
       <c r="G13" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>85.000000000000014</v>
       </c>
       <c r="H13" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>99.40000000000002</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>77.3</v>
       </c>
       <c r="J13" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>125.90000000000003</v>
       </c>
       <c r="K13" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>135.79999999999998</v>
       </c>
       <c r="L13" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>108.19999999999997</v>
       </c>
       <c r="M13" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>115</v>
       </c>
-      <c r="N13" s="50"/>
+      <c r="N13" s="50">
+        <f t="shared" si="25"/>
+        <v>136.97276225966664</v>
+      </c>
       <c r="P13" s="34"/>
       <c r="T13" s="33">
         <f>T12+T14</f>
@@ -2828,10 +3415,54 @@
         <f>W12+W14</f>
         <v>244</v>
       </c>
-    </row>
-    <row r="14" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X13" s="50">
+        <f t="shared" ref="X13" si="26">X12+X14</f>
+        <v>251.97276225966667</v>
+      </c>
+      <c r="Y13" s="33">
+        <f>Y12+Y14</f>
+        <v>305.18861154692843</v>
+      </c>
+      <c r="Z13" s="33">
+        <f t="shared" ref="Z13:AH13" si="27">Z12+Z14</f>
+        <v>361.56628409971626</v>
+      </c>
+      <c r="AA13" s="33">
+        <f t="shared" si="27"/>
+        <v>427.6777288101195</v>
+      </c>
+      <c r="AB13" s="33">
+        <f t="shared" si="27"/>
+        <v>506.33650650952444</v>
+      </c>
+      <c r="AC13" s="33">
+        <f t="shared" si="27"/>
+        <v>598.86041853469828</v>
+      </c>
+      <c r="AD13" s="33">
+        <f t="shared" si="27"/>
+        <v>708.01850751744303</v>
+      </c>
+      <c r="AE13" s="33">
+        <f t="shared" si="27"/>
+        <v>836.9362858750967</v>
+      </c>
+      <c r="AF13" s="33">
+        <f t="shared" si="27"/>
+        <v>988.99181783410506</v>
+      </c>
+      <c r="AG13" s="33">
+        <f t="shared" si="27"/>
+        <v>1168.4252320950789</v>
+      </c>
+      <c r="AH13" s="33">
+        <f t="shared" si="27"/>
+        <v>1380.1738853911395</v>
+      </c>
+    </row>
+    <row r="14" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="46">
         <v>0</v>
@@ -2851,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="36">
-        <f t="shared" ref="H14" si="8">U14-G14</f>
+        <f t="shared" ref="H14" si="28">U14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="46">
@@ -2871,7 +3502,10 @@
       <c r="M14" s="35">
         <v>0.2</v>
       </c>
-      <c r="N14" s="51"/>
+      <c r="N14" s="51">
+        <f>N12*0.001</f>
+        <v>0.1368359263333333</v>
+      </c>
       <c r="P14" s="36"/>
       <c r="S14" s="35">
         <v>0</v>
@@ -2888,63 +3522,110 @@
       <c r="W14" s="35">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="15" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X14" s="51">
+        <f>N14+M14</f>
+        <v>0.33683592633333331</v>
+      </c>
+      <c r="Y14" s="35">
+        <f>Y12*0.00013</f>
+        <v>3.9669362483977774E-2</v>
+      </c>
+      <c r="Z14" s="35">
+        <f t="shared" ref="Z14:AH14" si="29">Z12*0.00013</f>
+        <v>4.6997507257019698E-2</v>
+      </c>
+      <c r="AA14" s="35">
+        <f t="shared" si="29"/>
+        <v>5.5590877931184474E-2</v>
+      </c>
+      <c r="AB14" s="35">
+        <f t="shared" si="29"/>
+        <v>6.5815189871554866E-2</v>
+      </c>
+      <c r="AC14" s="35">
+        <f t="shared" si="29"/>
+        <v>7.7841734983962851E-2</v>
+      </c>
+      <c r="AD14" s="35">
+        <f t="shared" si="29"/>
+        <v>9.2030442019805009E-2</v>
+      </c>
+      <c r="AE14" s="35">
+        <f t="shared" si="29"/>
+        <v>0.10878757477904129</v>
+      </c>
+      <c r="AF14" s="35">
+        <f t="shared" si="29"/>
+        <v>0.12855222452924484</v>
+      </c>
+      <c r="AG14" s="35">
+        <f t="shared" si="29"/>
+        <v>0.1518755363526344</v>
+      </c>
+      <c r="AH14" s="35">
+        <f t="shared" si="29"/>
+        <v>0.17939928319403289</v>
+      </c>
+    </row>
+    <row r="15" spans="2:73" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="37">
-        <f t="shared" ref="C15:M15" si="9">C12/C16</f>
+        <f t="shared" ref="C15:N15" si="30">C12/C16</f>
         <v>0.16270266756508422</v>
       </c>
       <c r="D15" s="38" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E15" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.19681108372907286</v>
       </c>
       <c r="F15" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.25108149993397905</v>
       </c>
       <c r="G15" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.22419479233636896</v>
       </c>
       <c r="H15" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.26220905435668357</v>
       </c>
       <c r="I15" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.20390802308932054</v>
       </c>
       <c r="J15" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.33271719038817016</v>
       </c>
       <c r="K15" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.35795304668952777</v>
       </c>
       <c r="L15" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.28650646950092412</v>
       </c>
       <c r="M15" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.30354309888947645</v>
       </c>
-      <c r="N15" s="52"/>
+      <c r="N15" s="52">
+        <f t="shared" si="30"/>
+        <v>0.36180837211352013</v>
+      </c>
       <c r="P15" s="38"/>
       <c r="T15" s="37">
-        <f t="shared" ref="T15:U15" si="10">T12/T16</f>
+        <f t="shared" ref="T15:U15" si="31">T12/T16</f>
         <v>0.44783233916795839</v>
       </c>
       <c r="U15" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>0.48643208876632238</v>
       </c>
       <c r="V15" s="37">
@@ -2955,8 +3636,52 @@
         <f>W12/W16</f>
         <v>0.6448376023237391</v>
       </c>
-    </row>
-    <row r="16" spans="2:37" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X15" s="52">
+        <f>X13/X16</f>
+        <v>0.66624210010488283</v>
+      </c>
+      <c r="Y15" s="37">
+        <f>Y13/Y16</f>
+        <v>0.80695032138267697</v>
+      </c>
+      <c r="Z15" s="37">
+        <f t="shared" ref="Z15:AH15" si="32">Z13/Z16</f>
+        <v>0.95601873109390867</v>
+      </c>
+      <c r="AA15" s="37">
+        <f t="shared" si="32"/>
+        <v>1.1308242432842928</v>
+      </c>
+      <c r="AB15" s="37">
+        <f t="shared" si="32"/>
+        <v>1.3388062044143958</v>
+      </c>
+      <c r="AC15" s="37">
+        <f t="shared" si="32"/>
+        <v>1.5834490178072405</v>
+      </c>
+      <c r="AD15" s="37">
+        <f t="shared" si="32"/>
+        <v>1.8720743191894316</v>
+      </c>
+      <c r="AE15" s="37">
+        <f t="shared" si="32"/>
+        <v>2.21294628734822</v>
+      </c>
+      <c r="AF15" s="37">
+        <f t="shared" si="32"/>
+        <v>2.6149968742308438</v>
+      </c>
+      <c r="AG15" s="37">
+        <f t="shared" si="32"/>
+        <v>3.0894374196062371</v>
+      </c>
+      <c r="AH15" s="37">
+        <f t="shared" si="32"/>
+        <v>3.6493228064281849</v>
+      </c>
+    </row>
+    <row r="16" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="35" t="s">
         <v>5</v>
       </c>
@@ -2998,7 +3723,10 @@
       <c r="M16" s="35">
         <v>378.2</v>
       </c>
-      <c r="N16" s="51"/>
+      <c r="N16" s="51">
+        <f>M16</f>
+        <v>378.2</v>
+      </c>
       <c r="P16" s="36"/>
       <c r="T16" s="35">
         <v>379.15975500000002</v>
@@ -3012,10 +3740,54 @@
       <c r="W16" s="35">
         <v>378.7</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X16" s="51">
+        <f>N16</f>
+        <v>378.2</v>
+      </c>
+      <c r="Y16" s="35">
+        <f>X16</f>
+        <v>378.2</v>
+      </c>
+      <c r="Z16" s="35">
+        <f t="shared" ref="Z16:AH16" si="33">Y16</f>
+        <v>378.2</v>
+      </c>
+      <c r="AA16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+      <c r="AB16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+      <c r="AC16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+      <c r="AD16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+      <c r="AE16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+      <c r="AF16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+      <c r="AG16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+      <c r="AH16" s="35">
+        <f t="shared" si="33"/>
+        <v>378.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="42"/>
       <c r="E18" s="41">
@@ -3048,21 +3820,55 @@
       <c r="N18" s="53"/>
       <c r="P18" s="42"/>
       <c r="U18" s="41">
-        <f t="shared" ref="U18:V18" si="11">U4/T4-1</f>
+        <f t="shared" ref="U18:V18" si="34">U4/T4-1</f>
         <v>0.10529358328515981</v>
       </c>
       <c r="V18" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="34"/>
         <v>-1.5092647937836268E-2</v>
       </c>
       <c r="W18" s="41">
         <f>W4/V4-1</f>
         <v>0.15710817781823683</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X18" s="53">
+        <f>X4/W4-1</f>
+        <v>0.22258899888546524</v>
+      </c>
+      <c r="Y18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="Z18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AA18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AB18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AC18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AD18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AE18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AF18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AG18" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AH18" s="41">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J19" s="40">
         <f>J4/I4-1</f>
@@ -3081,28 +3887,27 @@
         <v>0.11089963202639264</v>
       </c>
       <c r="N19" s="54">
-        <f>N4/M4-1</f>
-        <v>-1</v>
+        <v>0.13</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T19" s="57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U19" s="57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V19" s="57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W19" s="57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="39">
         <f>C5/C4</f>
@@ -3142,25 +3947,75 @@
       <c r="N21" s="54"/>
       <c r="P21" s="40"/>
       <c r="T21" s="39">
-        <f t="shared" ref="T21" si="12">T5/T4</f>
+        <f t="shared" ref="T21" si="35">T5/T4</f>
         <v>0.17986621521182591</v>
       </c>
       <c r="U21" s="39">
-        <f t="shared" ref="U21:V21" si="13">U5/U4</f>
+        <f t="shared" ref="U21" si="36">U5/U4</f>
         <v>0.17438732815301852</v>
       </c>
       <c r="V21" s="39">
-        <f t="shared" ref="V21:W21" si="14">V5/V4</f>
+        <f t="shared" ref="V21:W21" si="37">V5/V4</f>
         <v>0.18267334243665606</v>
       </c>
       <c r="W21" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="37"/>
         <v>0.18284927555235034</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X21" s="54">
+        <f t="shared" ref="X21:AH21" si="38">X5/X4</f>
+        <v>0.1768415097476157</v>
+      </c>
+      <c r="Y21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="Z21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AA21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AB21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AC21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AD21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AE21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="AF21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AG21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AH21" s="39">
+        <f t="shared" si="38"/>
+        <v>0.18</v>
+      </c>
+      <c r="AJ21" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK21" s="78">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="39">
         <f>C12/C4</f>
@@ -3200,25 +4055,75 @@
       <c r="N22" s="54"/>
       <c r="P22" s="40"/>
       <c r="T22" s="39">
-        <f t="shared" ref="T22" si="15">T12/T4</f>
+        <f t="shared" ref="T22" si="39">T12/T4</f>
         <v>0.14022627797505988</v>
       </c>
       <c r="U22" s="39">
-        <f t="shared" ref="U22:V22" si="16">U12/U4</f>
+        <f t="shared" ref="U22" si="40">U12/U4</f>
         <v>0.13777644949193069</v>
       </c>
       <c r="V22" s="39">
-        <f t="shared" ref="V22:W22" si="17">V12/V4</f>
+        <f t="shared" ref="V22:W22" si="41">V12/V4</f>
         <v>0.1542254589591868</v>
       </c>
       <c r="W22" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.16009965252737166</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X22" s="54">
+        <f t="shared" ref="X22:AH22" si="42">X12/X4</f>
+        <v>0.13493881502097169</v>
+      </c>
+      <c r="Y22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.13867370139203813</v>
+      </c>
+      <c r="Z22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.13922964084330744</v>
+      </c>
+      <c r="AA22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.13956560569635687</v>
+      </c>
+      <c r="AB22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.14002932751943725</v>
+      </c>
+      <c r="AC22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.14035353793131092</v>
+      </c>
+      <c r="AD22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.14062429491834813</v>
+      </c>
+      <c r="AE22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.14087247270548028</v>
+      </c>
+      <c r="AF22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.14107317206442571</v>
+      </c>
+      <c r="AG22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.14124420962653625</v>
+      </c>
+      <c r="AH22" s="39">
+        <f t="shared" si="42"/>
+        <v>0.14139092126132088</v>
+      </c>
+      <c r="AJ22" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK22" s="79">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C23" s="39">
         <f>C11/C10</f>
@@ -3255,33 +4160,110 @@
         <f>M11/M10</f>
         <v>0.21099656357388316</v>
       </c>
-      <c r="N23" s="54"/>
+      <c r="N23" s="54">
+        <v>0.21</v>
+      </c>
       <c r="P23" s="40"/>
       <c r="T23" s="39">
-        <f t="shared" ref="T23" si="18">T11/T10</f>
+        <f t="shared" ref="T23" si="43">T11/T10</f>
         <v>0.17851959361393321</v>
       </c>
       <c r="U23" s="39">
-        <f t="shared" ref="U23:V23" si="19">U11/U10</f>
+        <f t="shared" ref="U23" si="44">U11/U10</f>
         <v>0.17715305667112896</v>
       </c>
       <c r="V23" s="39">
-        <f t="shared" ref="V23:W23" si="20">V11/V10</f>
+        <f t="shared" ref="V23:W23" si="45">V11/V10</f>
         <v>0.19612495057334914</v>
       </c>
       <c r="W23" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="45"/>
         <v>0.19776609724047309</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X23" s="54">
+        <f t="shared" ref="X23" si="46">X11/X10</f>
+        <v>0.21045495900610178</v>
+      </c>
+      <c r="Y23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="Z23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AA23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AB23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AC23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AD23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AE23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AF23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AG23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AH23" s="39">
+        <v>0.21</v>
+      </c>
+      <c r="AJ23" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK23" s="80">
+        <f>NPV(AK22,X12:BU12)</f>
+        <v>10602.370197716416</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="AJ24" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK24" s="13">
+        <f>Main!C11</f>
+        <v>-567.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="AJ25" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK25" s="81">
+        <f>AK23+AK24</f>
+        <v>10034.770197716416</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.15">
+      <c r="AJ26" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK26" s="82">
+        <f>AK25/Main!C7</f>
+        <v>26.532972495284021</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B27" s="43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+      <c r="AJ27" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK27" s="13">
+        <f>Main!C6</f>
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1">
         <f>216.4+586.8</f>
@@ -3324,10 +4306,17 @@
         <f>908.7+325.2</f>
         <v>1233.9000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="AJ28" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK28" s="83">
+        <f>AK26/AK27-1</f>
+        <v>0.17662849203033359</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1">
         <v>102.6</v>
@@ -3363,9 +4352,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2">
         <v>3.4</v>
@@ -3390,7 +4379,7 @@
         <v>9.9</v>
       </c>
       <c r="L30" s="36">
-        <f t="shared" ref="L30:L37" si="21">W30</f>
+        <f t="shared" ref="L30:L37" si="47">W30</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="M30" s="33">
@@ -3404,10 +4393,11 @@
       <c r="W30" s="33">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X30" s="56"/>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -3423,14 +4413,14 @@
         <v>0</v>
       </c>
       <c r="J31" s="36">
-        <f t="shared" ref="J31:J33" si="22">V31</f>
+        <f t="shared" ref="J31:J33" si="48">V31</f>
         <v>0</v>
       </c>
       <c r="K31" s="35">
         <v>4.8</v>
       </c>
       <c r="L31" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>31.1</v>
       </c>
       <c r="M31" s="35">
@@ -3443,9 +4433,9 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -3461,14 +4451,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>13.9</v>
       </c>
       <c r="K32" s="35">
         <v>14.7</v>
       </c>
       <c r="L32" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>14.7</v>
       </c>
       <c r="M32" s="35">
@@ -3481,9 +4471,9 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1">
         <v>55.3</v>
@@ -3499,14 +4489,14 @@
         <v>5.6</v>
       </c>
       <c r="J33" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>1.3</v>
       </c>
       <c r="K33" s="35">
         <v>1.9</v>
       </c>
       <c r="L33" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>2.4</v>
       </c>
       <c r="M33" s="35">
@@ -3519,9 +4509,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C34" s="35">
         <f>SUM(C28:C33)</f>
@@ -3565,9 +4555,9 @@
         <v>1484.3000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1">
         <v>124.2</v>
@@ -3583,14 +4573,14 @@
         <v>175.8</v>
       </c>
       <c r="J35" s="36">
-        <f t="shared" ref="J35:J37" si="23">V35</f>
+        <f t="shared" ref="J35:J37" si="49">V35</f>
         <v>167.8</v>
       </c>
       <c r="K35" s="35">
         <v>193.2</v>
       </c>
       <c r="L35" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>228.8</v>
       </c>
       <c r="M35" s="35">
@@ -3603,9 +4593,9 @@
         <v>228.8</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C36" s="1">
         <v>203.4</v>
@@ -3621,14 +4611,14 @@
         <v>245.3</v>
       </c>
       <c r="J36" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="49"/>
         <v>268</v>
       </c>
       <c r="K36" s="35">
         <v>279.2</v>
       </c>
       <c r="L36" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>325.10000000000002</v>
       </c>
       <c r="M36" s="35">
@@ -3641,9 +4631,9 @@
         <v>325.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1">
         <v>0.4</v>
@@ -3659,14 +4649,14 @@
         <v>6.5</v>
       </c>
       <c r="J37" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="49"/>
         <v>2.5</v>
       </c>
       <c r="K37" s="35">
         <v>4.4000000000000004</v>
       </c>
       <c r="L37" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="47"/>
         <v>0.7</v>
       </c>
       <c r="M37" s="35">
@@ -3679,9 +4669,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2">
         <v>71.7</v>
@@ -3699,7 +4689,7 @@
         <v>125.5</v>
       </c>
       <c r="J38" s="34">
-        <f t="shared" ref="J38:J39" si="24">V38</f>
+        <f t="shared" ref="J38:J39" si="50">V38</f>
         <v>134.1</v>
       </c>
       <c r="K38" s="33">
@@ -3720,10 +4710,11 @@
       <c r="W38" s="33">
         <v>157.4</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="X38" s="56"/>
+    </row>
+    <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2">
         <v>0.6</v>
@@ -3741,7 +4732,7 @@
         <v>0.4</v>
       </c>
       <c r="J39" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="50"/>
         <v>1.7</v>
       </c>
       <c r="K39" s="33">
@@ -3762,10 +4753,11 @@
       <c r="W39" s="33">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X39" s="56"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C40" s="35">
         <f>SUM(C35:C39)+C34</f>
@@ -3809,7 +4801,7 @@
         <v>2197.0000000000005</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
       <c r="G41" s="35"/>
       <c r="H41" s="36"/>
       <c r="I41" s="35"/>
@@ -3818,9 +4810,9 @@
       <c r="V41" s="35"/>
       <c r="W41" s="35"/>
     </row>
-    <row r="42" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C42" s="33">
         <v>0.2</v>
@@ -3859,10 +4851,11 @@
       <c r="W42" s="33">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X42" s="56"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C43" s="35">
         <v>0</v>
@@ -3887,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="L43" s="36">
-        <f t="shared" ref="L43:L47" si="25">W43</f>
+        <f t="shared" ref="L43:L47" si="51">W43</f>
         <v>15.5</v>
       </c>
       <c r="M43" s="35">
@@ -3900,9 +4893,9 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" s="35">
         <v>0</v>
@@ -3920,14 +4913,14 @@
         <v>0</v>
       </c>
       <c r="J44" s="36">
-        <f t="shared" ref="J44:J47" si="26">V44</f>
+        <f t="shared" ref="J44:J47" si="52">V44</f>
         <v>0</v>
       </c>
       <c r="K44" s="35">
         <v>14.2</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M44" s="35">
@@ -3940,9 +4933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="35">
         <v>125.7</v>
@@ -3960,14 +4953,14 @@
         <v>158.69999999999999</v>
       </c>
       <c r="J45" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>186.7</v>
       </c>
       <c r="K45" s="35">
         <v>22</v>
       </c>
       <c r="L45" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="51"/>
         <v>242.7</v>
       </c>
       <c r="M45" s="35">
@@ -3980,9 +4973,9 @@
         <v>242.7</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" s="35">
         <v>4.7</v>
@@ -4000,14 +4993,14 @@
         <v>30.5</v>
       </c>
       <c r="J46" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>35.4</v>
       </c>
       <c r="K46" s="35">
         <v>13.8</v>
       </c>
       <c r="L46" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="51"/>
         <v>20.7</v>
       </c>
       <c r="M46" s="35">
@@ -4020,9 +5013,9 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="35">
         <v>14.9</v>
@@ -4040,14 +5033,14 @@
         <v>11.3</v>
       </c>
       <c r="J47" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="52"/>
         <v>8.9</v>
       </c>
       <c r="K47" s="35">
         <v>0.2</v>
       </c>
       <c r="L47" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="51"/>
         <v>11.6</v>
       </c>
       <c r="M47" s="35">
@@ -4060,9 +5053,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" s="33">
         <v>0.4</v>
@@ -4101,10 +5094,11 @@
       <c r="W48" s="33">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X48" s="56"/>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" s="35">
         <f>SUM(C42:C48)</f>
@@ -4142,17 +5136,17 @@
         <v>400.29999999999995</v>
       </c>
       <c r="V49" s="35">
-        <f t="shared" ref="V49:W49" si="27">SUM(V42:V48)</f>
+        <f t="shared" ref="V49:W49" si="53">SUM(V42:V48)</f>
         <v>248</v>
       </c>
       <c r="W49" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="53"/>
         <v>363.9</v>
       </c>
     </row>
-    <row r="50" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C50" s="33">
         <v>252.5</v>
@@ -4191,10 +5185,11 @@
       <c r="W50" s="33">
         <v>287.60000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X50" s="56"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" s="35">
         <v>0</v>
@@ -4212,14 +5207,14 @@
         <v>51.4</v>
       </c>
       <c r="J51" s="36">
-        <f t="shared" ref="J51:J55" si="28">V51</f>
+        <f t="shared" ref="J51:J55" si="54">V51</f>
         <v>51.7</v>
       </c>
       <c r="K51" s="35">
         <v>53.4</v>
       </c>
       <c r="L51" s="36">
-        <f t="shared" ref="L51:L55" si="29">W51</f>
+        <f t="shared" ref="L51:L55" si="55">W51</f>
         <v>56.6</v>
       </c>
       <c r="M51" s="35">
@@ -4232,9 +5227,9 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="35">
         <v>66.8</v>
@@ -4252,14 +5247,14 @@
         <v>45</v>
       </c>
       <c r="J52" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>22.5</v>
       </c>
       <c r="K52" s="35">
         <v>10.1</v>
       </c>
       <c r="L52" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v>0.6</v>
       </c>
       <c r="M52" s="35">
@@ -4272,9 +5267,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53" s="35">
         <v>11.4</v>
@@ -4292,14 +5287,14 @@
         <v>16.3</v>
       </c>
       <c r="J53" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>16.8</v>
       </c>
       <c r="K53" s="35">
         <v>15.2</v>
       </c>
       <c r="L53" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v>19</v>
       </c>
       <c r="M53" s="35">
@@ -4312,9 +5307,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C54" s="35">
         <v>16.899999999999999</v>
@@ -4332,14 +5327,14 @@
         <v>14.3</v>
       </c>
       <c r="J54" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>8.4</v>
       </c>
       <c r="K54" s="35">
         <v>6.3</v>
       </c>
       <c r="L54" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v>7.7</v>
       </c>
       <c r="M54" s="35">
@@ -4352,9 +5347,9 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C55" s="35">
         <v>96</v>
@@ -4372,14 +5367,14 @@
         <v>41.7</v>
       </c>
       <c r="J55" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="54"/>
         <v>40.6</v>
       </c>
       <c r="K55" s="35">
         <v>51.1</v>
       </c>
       <c r="L55" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="55"/>
         <v>58.5</v>
       </c>
       <c r="M55" s="35">
@@ -4392,9 +5387,9 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C56" s="35">
         <f>C49+SUM(C50:C55)</f>
@@ -4440,12 +5435,12 @@
         <v>793.90000000000009</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.15">
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:23" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C58" s="35">
         <v>775.3</v>
@@ -4484,10 +5479,11 @@
       <c r="W58" s="35">
         <v>1403.1</v>
       </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X58" s="51"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C59" s="35">
         <f>C58+C56</f>
@@ -4530,9 +5526,9 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C61" s="35">
         <f>C40-C56</f>
@@ -4567,17 +5563,17 @@
         <v>1627</v>
       </c>
       <c r="V61" s="35">
-        <f t="shared" ref="V61:W61" si="30">V40-V56</f>
+        <f t="shared" ref="V61:W61" si="56">V40-V56</f>
         <v>1167.6000000000001</v>
       </c>
       <c r="W61" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v>1403.1000000000004</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1">
         <f>C61/C16</f>
@@ -4612,15 +5608,15 @@
         <v>4.3019566367001589</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:W62" si="31">V61/V16</f>
+        <f t="shared" ref="V62:W62" si="57">V61/V16</f>
         <v>3.0791139240506333</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>3.7050435701082662</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
@@ -4665,7 +5661,7 @@
         <v>166.29999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
@@ -4710,7 +5706,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
@@ -4755,9 +5751,9 @@
         <v>-194.70000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C68" s="37">
         <v>10.8497</v>
@@ -4802,8 +5798,9 @@
       <c r="W68" s="37">
         <v>24.9636</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X68" s="52"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
@@ -4824,7 +5821,7 @@
         <v>8761.9267890080991</v>
       </c>
       <c r="J69" s="36">
-        <f t="shared" ref="J69:L69" si="32">J68*J16</f>
+        <f t="shared" ref="J69:L69" si="58">J68*J16</f>
         <v>8886.2333699999999</v>
       </c>
       <c r="K69" s="35">
@@ -4832,7 +5829,7 @@
         <v>10690.468360000001</v>
       </c>
       <c r="L69" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="58"/>
         <v>9453.7153199999993</v>
       </c>
       <c r="M69" s="35">
@@ -4840,23 +5837,23 @@
         <v>7734.19</v>
       </c>
       <c r="T69" s="35">
-        <f t="shared" ref="T69:W69" si="33">T68*T16</f>
+        <f t="shared" ref="T69:W69" si="59">T68*T16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="U69" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="59"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="V69" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="59"/>
         <v>8897.9659199999987</v>
       </c>
       <c r="W69" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="59"/>
         <v>9453.7153199999993</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -4877,7 +5874,7 @@
         <v>9008.2267890080984</v>
       </c>
       <c r="J70" s="36">
-        <f t="shared" ref="J70:L70" si="34">J69-J66</f>
+        <f t="shared" ref="J70:L70" si="60">J69-J66</f>
         <v>9067.1333699999996</v>
       </c>
       <c r="K70" s="35">
@@ -4885,7 +5882,7 @@
         <v>11095.668360000001</v>
       </c>
       <c r="L70" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>9648.4153200000001</v>
       </c>
       <c r="M70" s="35">
@@ -4893,25 +5890,25 @@
         <v>8301.7899999999991</v>
       </c>
       <c r="T70" s="35">
-        <f t="shared" ref="T70:W70" si="35">T69-T66</f>
+        <f t="shared" ref="T70:W70" si="61">T69-T66</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="U70" s="35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="V70" s="35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>9078.8659199999984</v>
       </c>
       <c r="W70" s="35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="61"/>
         <v>9648.4153200000001</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" s="47">
-        <f>AVERAGE(C72:BA72)</f>
+        <f>AVERAGE(C72:AX72)</f>
         <v>6.6455994380078121</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4942,7 +5939,7 @@
         <v>4.7536508912108166</v>
       </c>
       <c r="V72" s="44">
-        <f t="shared" ref="V72:W72" si="36">V68/V62</f>
+        <f t="shared" ref="V72" si="62">V68/V62</f>
         <v>7.620731346351489</v>
       </c>
       <c r="W72" s="44">
@@ -4950,7 +5947,11 @@
         <v>6.7377345306820589</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A73" s="47">
+        <f>AVERAGE(C73:AX73)</f>
+        <v>6.1262344816301137</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
@@ -4975,15 +5976,15 @@
         <v>4.6490682856455878</v>
       </c>
       <c r="T73" s="44">
-        <f t="shared" ref="T73:W73" si="37">T69/T4</f>
+        <f t="shared" ref="T73:V73" si="63">T69/T4</f>
         <v>5.0973800343513087</v>
       </c>
       <c r="U73" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>5.3391650005851767</v>
       </c>
       <c r="V73" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>6.7500879380974039</v>
       </c>
       <c r="W73" s="44">
@@ -4991,12 +5992,16 @@
         <v>6.1979383203304268</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A75" s="47">
+        <f>AVERAGE(C75:AX75)</f>
+        <v>40.569058563096945</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
@@ -5027,15 +6032,15 @@
         <v>34.65810517544427</v>
       </c>
       <c r="T75" s="44">
-        <f t="shared" ref="T75:W75" si="38">T68/T15</f>
+        <f t="shared" ref="T75:V75" si="64">T68/T15</f>
         <v>36.35110414367491</v>
       </c>
       <c r="U75" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>38.752377639822122</v>
       </c>
       <c r="V75" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>43.767663157894724</v>
       </c>
       <c r="W75" s="44">
@@ -5043,13 +6048,13 @@
         <v>38.713002948402945</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="39"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>27</v>
       </c>
@@ -5077,7 +6082,7 @@
         <v>0.12516018795386588</v>
       </c>
       <c r="V77" s="39">
-        <f t="shared" ref="V77:W77" si="39">V5/(V40-V49)</f>
+        <f t="shared" ref="V77" si="65">V5/(V40-V49)</f>
         <v>0.14773912509969936</v>
       </c>
       <c r="W77" s="39">
@@ -5096,7 +6101,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49" formula="1"/>
+    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 X10" formula="1"/>
     <ignoredError sqref="D11:F15 E10" evalError="1"/>
     <ignoredError sqref="F10 D10" evalError="1" formula="1"/>
   </ignoredErrors>

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C808652-3B53-1A46-B2FC-688441716B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63521639-F323-C44E-8602-0893A97F5EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
   <si>
     <t>£HLMA</t>
   </si>
@@ -381,6 +381,24 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Safety Sector</t>
+  </si>
+  <si>
+    <t>Health Care Sector</t>
+  </si>
+  <si>
+    <t>Environmental &amp; Analysis Sector</t>
+  </si>
+  <si>
+    <t>Company Info</t>
+  </si>
+  <si>
+    <t>FTSE 100 Component</t>
   </si>
 </sst>
 </file>
@@ -390,7 +408,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -625,12 +643,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,12 +656,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,7 +686,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -691,7 +708,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -734,12 +750,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,10 +776,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,23 +794,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,7 +999,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1261,7 +1287,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1269,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B37DFEF-2721-42A7-BBC6-F0639EC003A0}">
-  <dimension ref="B2:S38"/>
+  <dimension ref="B2:Z38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1280,7 +1306,7 @@
     <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,719 +1321,805 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B5" s="64" t="s">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="G5" s="64" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="G5" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="77"/>
+      <c r="V5" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="77"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>22.55</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f>'Financial Model'!M16</f>
         <v>378.2</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="6" t="str">
         <f>$C$28</f>
         <v>H122</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f>C6*C7</f>
         <v>8528.41</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="6"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="V8" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>'Financial Model'!M64</f>
         <v>234.4</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="6" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>H122</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" spans="2:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
+      <c r="V9" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f>'Financial Model'!M65</f>
         <v>802</v>
       </c>
-      <c r="D10" s="7" t="str">
+      <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>H122</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="12"/>
+      <c r="V10" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f>C9-C10</f>
         <v>-567.6</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>H122</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B12" s="6" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="V11" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <f>C8-C11</f>
         <v>9096.01</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="G13" s="19"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="G14" s="19"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B15" s="64" t="s">
+      <c r="D12" s="7"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G13" s="18"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G14" s="18"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="V14" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B15" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B17" s="11" t="s">
+      <c r="D16" s="79"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="13"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B18" s="11" t="s">
+      <c r="D17" s="79"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B19" s="14" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="13"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="G20" s="19"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="13"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="G21" s="19"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B22" s="64" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G20" s="18"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G21" s="18"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B22" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B23" s="17" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="13"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B24" s="17" t="s">
+      <c r="D23" s="79"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="78">
         <v>1894</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="13"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="13"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="13"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="13"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B28" s="17" t="s">
+      <c r="D24" s="79"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B26" s="16"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="43">
         <v>44882</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="13"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="13"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="G30" s="19"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="13"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="G31" s="19"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="13"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B32" s="64" t="s">
+      <c r="D29" s="83"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G30" s="18"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G31" s="18"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B32" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="13"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="71">
+      <c r="C33" s="84">
         <f>C6/'Financial Model'!M62</f>
         <v>5.24180086047941</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="13"/>
+      <c r="D33" s="85"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="84">
         <f>C8/SUM('Financial Model'!L4:M4)</f>
         <v>5.1264787208463574</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="13"/>
+      <c r="D34" s="85"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="12"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="13"/>
+      <c r="C35" s="84">
+        <f>C12/SUM('Financial Model'!L4:M4)</f>
+        <v>5.4676665063717245</v>
+      </c>
+      <c r="D35" s="85"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="71">
+      <c r="C36" s="84">
         <f>C6/SUM('Financial Model'!L15:M15)</f>
         <v>38.217128200795514</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="13"/>
+      <c r="D36" s="85"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="13"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="12"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="16"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
+  <mergeCells count="22">
+    <mergeCell ref="V5:Z5"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
     <mergeCell ref="C16:D16"/>
@@ -2024,6 +2136,11 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -2039,10 +2156,10 @@
   <dimension ref="A1:BU77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ22" sqref="AJ22"/>
+      <selection pane="bottomRight" activeCell="X75" sqref="X75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2050,1819 +2167,1819 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="29"/>
+    <col min="4" max="4" width="9.1640625" style="28"/>
     <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="29"/>
+    <col min="6" max="6" width="9.1640625" style="28"/>
     <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="29"/>
+    <col min="8" max="8" width="9.1640625" style="28"/>
     <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="29"/>
+    <col min="10" max="10" width="9.1640625" style="28"/>
     <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="29"/>
+    <col min="12" max="12" width="9.1640625" style="28"/>
     <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="55"/>
+    <col min="14" max="14" width="9.1640625" style="53"/>
     <col min="15" max="15" width="9.1640625" style="1"/>
-    <col min="16" max="16" width="9.1640625" style="29"/>
+    <col min="16" max="16" width="9.1640625" style="28"/>
     <col min="17" max="23" width="9.1640625" style="1"/>
-    <col min="24" max="24" width="9.1640625" style="55"/>
+    <col min="24" max="24" width="9.1640625" style="53"/>
     <col min="25" max="35" width="9.1640625" style="1"/>
     <col min="36" max="36" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:73" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="2:73" s="21" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="C1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AC1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:73" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="23"/>
-      <c r="C2" s="32">
+    <row r="2" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="22"/>
+      <c r="C2" s="31">
         <v>43008</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <f>S2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <v>43373</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="56">
         <f>T2</f>
         <v>43555</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="31">
         <v>43738</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H2" s="56">
         <f>U2</f>
         <v>43921</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <v>44104</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="56">
         <f>V2</f>
         <v>44286</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="31">
         <v>44469</v>
       </c>
-      <c r="L2" s="58">
+      <c r="L2" s="56">
         <f>W2</f>
         <v>44651</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="31">
         <v>44834</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="P2" s="27"/>
-      <c r="T2" s="32">
+      <c r="N2" s="47"/>
+      <c r="P2" s="26"/>
+      <c r="T2" s="31">
         <v>43555</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="31">
         <v>43921</v>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="31">
         <v>44286</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="31">
         <v>44651</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:73" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="31">
+    <row r="3" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="30">
         <v>44885</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="H3" s="59">
+      <c r="F3" s="26"/>
+      <c r="H3" s="57">
         <f>U3</f>
         <v>44756</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>44884</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="L3" s="59">
+      <c r="J3" s="26"/>
+      <c r="L3" s="57">
         <f>W3</f>
         <v>44728</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="30">
         <v>44882</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="P3" s="27"/>
-      <c r="U3" s="31">
+      <c r="N3" s="47"/>
+      <c r="P3" s="26"/>
+      <c r="U3" s="30">
         <v>44756</v>
       </c>
-      <c r="W3" s="31">
+      <c r="W3" s="30">
         <v>44728</v>
       </c>
-      <c r="X3" s="49"/>
-    </row>
-    <row r="4" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="33" t="s">
+      <c r="X3" s="47"/>
+    </row>
+    <row r="4" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>506.3</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f>S4-C4</f>
         <v>-506.3</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>585.5</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <f>T4-E4</f>
         <v>625.40000000000009</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>653.70000000000005</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <f>U4-G4</f>
         <v>684.7</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <v>618.4</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <f>V4-I4</f>
         <v>699.80000000000007</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <v>737.2</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="33">
         <f t="shared" ref="L4:L9" si="0">W4-K4</f>
         <v>788.09999999999991</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <v>875.5</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="48">
         <f>M4*(1+N19)</f>
         <v>989.31499999999994</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="T4" s="33">
+      <c r="P4" s="33"/>
+      <c r="T4" s="32">
         <v>1210.9000000000001</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="32">
         <v>1338.4</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="32">
         <v>1318.2</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="32">
         <v>1525.3</v>
       </c>
-      <c r="X4" s="50">
+      <c r="X4" s="48">
         <f>N4+M4</f>
         <v>1864.8150000000001</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="Y4" s="32">
         <f>X4*(1+Y18)</f>
         <v>2200.4816999999998</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="32">
         <f t="shared" ref="Z4:AH4" si="1">Y4*(1+Z18)</f>
         <v>2596.5684059999999</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA4" s="32">
         <f t="shared" si="1"/>
         <v>3063.9507190799995</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB4" s="32">
         <f t="shared" si="1"/>
         <v>3615.4618485143992</v>
       </c>
-      <c r="AC4" s="33">
+      <c r="AC4" s="32">
         <f t="shared" si="1"/>
         <v>4266.2449812469904</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AD4" s="32">
         <f t="shared" si="1"/>
         <v>5034.1690778714483</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AE4" s="32">
         <f t="shared" si="1"/>
         <v>5940.3195118883086</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF4" s="32">
         <f t="shared" si="1"/>
         <v>7009.5770240282036</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AG4" s="32">
         <f t="shared" si="1"/>
         <v>8271.3008883532802</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="32">
         <f t="shared" si="1"/>
         <v>9760.1350482568705</v>
       </c>
     </row>
-    <row r="5" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
+    <row r="5" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>81.8</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f>S5-C5</f>
         <v>-81.8</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>100.4</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <f>T5-E5</f>
         <v>117.4</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>111.6</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <f>U5-G5</f>
         <v>121.80000000000001</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <v>102.1</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="33">
         <f>V5-I5</f>
         <v>138.70000000000002</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <v>137.6</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="33">
         <f t="shared" si="0"/>
         <v>141.29999999999998</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <v>151.69999999999999</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="48">
         <f>N4*0.18</f>
         <v>178.07669999999999</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="T5" s="33">
+      <c r="P5" s="33"/>
+      <c r="T5" s="32">
         <v>217.8</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="32">
         <v>233.4</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="32">
         <v>240.8</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="32">
         <v>278.89999999999998</v>
       </c>
-      <c r="X5" s="50">
+      <c r="X5" s="48">
         <f>N5+M5</f>
         <v>329.77670000000001</v>
       </c>
-      <c r="Y5" s="33">
+      <c r="Y5" s="32">
         <f>Y4*0.18</f>
         <v>396.08670599999994</v>
       </c>
-      <c r="Z5" s="33">
+      <c r="Z5" s="32">
         <f t="shared" ref="Z5:AH5" si="2">Z4*0.18</f>
         <v>467.38231307999996</v>
       </c>
-      <c r="AA5" s="33">
+      <c r="AA5" s="32">
         <f t="shared" si="2"/>
         <v>551.51112943439989</v>
       </c>
-      <c r="AB5" s="33">
+      <c r="AB5" s="32">
         <f t="shared" si="2"/>
         <v>650.78313273259187</v>
       </c>
-      <c r="AC5" s="33">
+      <c r="AC5" s="32">
         <f t="shared" si="2"/>
         <v>767.92409662445823</v>
       </c>
-      <c r="AD5" s="33">
+      <c r="AD5" s="32">
         <f t="shared" si="2"/>
         <v>906.15043401686069</v>
       </c>
-      <c r="AE5" s="33">
+      <c r="AE5" s="32">
         <f t="shared" si="2"/>
         <v>1069.2575121398954</v>
       </c>
-      <c r="AF5" s="33">
+      <c r="AF5" s="32">
         <f t="shared" si="2"/>
         <v>1261.7238643250766</v>
       </c>
-      <c r="AG5" s="33">
+      <c r="AG5" s="32">
         <f t="shared" si="2"/>
         <v>1488.8341599035905</v>
       </c>
-      <c r="AH5" s="33">
+      <c r="AH5" s="32">
         <f t="shared" si="2"/>
         <v>1756.8243086862367</v>
       </c>
     </row>
-    <row r="6" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="35" t="s">
+    <row r="6" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <f>S6-C6</f>
         <v>0.1</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <f>T6-E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <f>U6-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="35">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="34">
         <f>V6-I6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="35">
-        <v>0</v>
-      </c>
-      <c r="N6" s="51">
-        <v>0</v>
-      </c>
-      <c r="P6" s="36"/>
-      <c r="T6" s="35">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="49">
+        <v>0</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="T6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="V6" s="35">
-        <v>0</v>
-      </c>
-      <c r="W6" s="35">
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="X6" s="51">
+      <c r="X6" s="49">
         <f>N6+M6</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="35" t="s">
+      <c r="Y6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="35">
-        <v>0</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
         <f t="shared" ref="D7:D11" si="3">S7-C7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="8">
         <v>-0.9</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <f t="shared" ref="F7:F11" si="4">T7-E7</f>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="G7" s="35">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
         <f t="shared" ref="H7:H11" si="5">U7-G7</f>
         <v>2.9</v>
       </c>
-      <c r="I7" s="35">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34">
         <f t="shared" ref="J7:J11" si="6">V7-I7</f>
         <v>22.1</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="8">
         <v>34</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="35">
-        <v>0</v>
-      </c>
-      <c r="N7" s="51">
-        <v>0</v>
-      </c>
-      <c r="P7" s="36"/>
-      <c r="T7" s="35">
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="49">
+        <v>0</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="T7" s="8">
         <v>-1</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="8">
         <v>2.9</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="8">
         <v>22.1</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="8">
         <v>34</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="49">
         <f t="shared" ref="X7:X9" si="7">N7+M7</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="35" t="s">
+      <c r="Y7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="8">
         <v>0.1</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <f t="shared" si="3"/>
         <v>-0.1</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="8">
         <v>0.1</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="8">
         <v>0.4</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="34">
         <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="8">
         <v>1</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="8">
         <v>0.6</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="8">
         <v>0.8</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="49">
         <f>AVERAGE(K8:M8)</f>
         <v>0.46666666666666662</v>
       </c>
-      <c r="P8" s="36"/>
-      <c r="T8" s="35">
+      <c r="P8" s="34"/>
+      <c r="T8" s="8">
         <v>0.5</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="8">
         <v>0.6</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="8">
         <v>1</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="8">
         <v>0.6</v>
       </c>
-      <c r="X8" s="51">
+      <c r="X8" s="49">
         <f t="shared" si="7"/>
         <v>1.2666666666666666</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="8">
         <f t="shared" ref="Y8" si="8">AVERAGE(V8:X8)</f>
         <v>0.9555555555555556</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="8">
         <f t="shared" ref="Z8" si="9">AVERAGE(W8:Y8)</f>
         <v>0.94074074074074077</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8" s="8">
         <f t="shared" ref="AA8" si="10">AVERAGE(X8:Z8)</f>
         <v>1.0543209876543209</v>
       </c>
-      <c r="AB8" s="35">
+      <c r="AB8" s="8">
         <f t="shared" ref="AB8" si="11">AVERAGE(Y8:AA8)</f>
         <v>0.98353909465020573</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="8">
         <f t="shared" ref="AC8" si="12">AVERAGE(Z8:AB8)</f>
         <v>0.99286694101508921</v>
       </c>
-      <c r="AD8" s="35">
+      <c r="AD8" s="8">
         <f t="shared" ref="AD8" si="13">AVERAGE(AA8:AC8)</f>
         <v>1.0102423411065387</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AE8" s="8">
         <f t="shared" ref="AE8" si="14">AVERAGE(AB8:AD8)</f>
         <v>0.99554945892394464</v>
       </c>
-      <c r="AF8" s="35">
+      <c r="AF8" s="8">
         <f t="shared" ref="AF8" si="15">AVERAGE(AC8:AE8)</f>
         <v>0.99955291368185739</v>
       </c>
-      <c r="AG8" s="35">
+      <c r="AG8" s="8">
         <f t="shared" ref="AG8" si="16">AVERAGE(AD8:AF8)</f>
         <v>1.0017815712374467</v>
       </c>
-      <c r="AH8" s="35">
+      <c r="AH8" s="8">
         <f t="shared" ref="AH8" si="17">AVERAGE(AE8:AG8)</f>
         <v>0.99896131461441617</v>
       </c>
     </row>
-    <row r="9" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="34">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="8">
         <v>6.1</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="34">
         <f t="shared" si="5"/>
         <v>6.6</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="8">
         <v>6.8</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="34">
         <f t="shared" si="6"/>
         <v>4.2</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="34">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="8">
         <v>7</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="49">
         <f>AVERAGE(K9:M9)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="T9" s="35">
+      <c r="P9" s="34"/>
+      <c r="T9" s="8">
         <v>10.5</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="8">
         <v>12.7</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="8">
         <v>11</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="8">
         <v>9</v>
       </c>
-      <c r="X9" s="51">
+      <c r="X9" s="49">
         <f t="shared" si="7"/>
         <v>12.333333333333332</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="8">
         <f>AVERAGE(V9:X9)</f>
         <v>10.777777777777777</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="Z9" s="8">
         <f t="shared" ref="Z9:AH9" si="18">AVERAGE(W9:Y9)</f>
         <v>10.703703703703702</v>
       </c>
-      <c r="AA9" s="35">
+      <c r="AA9" s="8">
         <f t="shared" si="18"/>
         <v>11.271604938271603</v>
       </c>
-      <c r="AB9" s="35">
+      <c r="AB9" s="8">
         <f t="shared" si="18"/>
         <v>10.917695473251028</v>
       </c>
-      <c r="AC9" s="35">
+      <c r="AC9" s="8">
         <f t="shared" si="18"/>
         <v>10.964334705075444</v>
       </c>
-      <c r="AD9" s="35">
+      <c r="AD9" s="8">
         <f t="shared" si="18"/>
         <v>11.051211705532692</v>
       </c>
-      <c r="AE9" s="35">
+      <c r="AE9" s="8">
         <f t="shared" si="18"/>
         <v>10.977747294619723</v>
       </c>
-      <c r="AF9" s="35">
+      <c r="AF9" s="8">
         <f t="shared" si="18"/>
         <v>10.997764568409288</v>
       </c>
-      <c r="AG9" s="35">
+      <c r="AG9" s="8">
         <f t="shared" si="18"/>
         <v>11.008907856187236</v>
       </c>
-      <c r="AH9" s="35">
+      <c r="AH9" s="8">
         <f t="shared" si="18"/>
         <v>10.994806573072083</v>
       </c>
     </row>
-    <row r="10" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="8">
         <f t="shared" ref="C10:N10" si="19">C5+C6+C7+C8-C9</f>
         <v>76.8</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <f t="shared" si="19"/>
         <v>-76.8</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="8">
         <f t="shared" si="19"/>
         <v>94.5</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="34">
         <f t="shared" si="19"/>
         <v>112.20000000000002</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="8">
         <f t="shared" si="19"/>
         <v>105.80000000000001</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <f t="shared" si="19"/>
         <v>118.30000000000003</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="8">
         <f t="shared" si="19"/>
         <v>96.3</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="34">
         <f t="shared" si="19"/>
         <v>156.60000000000002</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="8">
         <f t="shared" si="19"/>
         <v>167.5</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="34">
         <f t="shared" si="19"/>
         <v>136.89999999999998</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="8">
         <f t="shared" si="19"/>
         <v>145.5</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="49">
         <f t="shared" si="19"/>
         <v>173.21003333333331</v>
       </c>
-      <c r="P10" s="36"/>
-      <c r="T10" s="35">
+      <c r="P10" s="34"/>
+      <c r="T10" s="8">
         <f>T5+T6+T7+T8-T9</f>
         <v>206.70000000000002</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="8">
         <f>U5+U6+U7+U8-U9</f>
         <v>224.10000000000002</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="8">
         <f>V5+V6+V7+V8-V9</f>
         <v>252.90000000000003</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="8">
         <f>W5+W6+W7+W8-W9</f>
         <v>304.39999999999998</v>
       </c>
-      <c r="X10" s="51">
+      <c r="X10" s="49">
         <f>X5+X6+X7+X8-X9</f>
         <v>318.71003333333334</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10" s="8">
         <f t="shared" ref="Y10:AH10" si="20">Y5+Y6+Y7+Y8-Y9</f>
         <v>386.26448377777774</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="Z10" s="8">
         <f t="shared" si="20"/>
         <v>457.61935011703702</v>
       </c>
-      <c r="AA10" s="35">
+      <c r="AA10" s="8">
         <f t="shared" si="20"/>
         <v>541.29384548378266</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AB10" s="8">
         <f t="shared" si="20"/>
         <v>640.84897635399102</v>
       </c>
-      <c r="AC10" s="35">
+      <c r="AC10" s="8">
         <f t="shared" si="20"/>
         <v>757.95262886039791</v>
       </c>
-      <c r="AD10" s="35">
+      <c r="AD10" s="8">
         <f t="shared" si="20"/>
         <v>896.10946465243455</v>
       </c>
-      <c r="AE10" s="35">
+      <c r="AE10" s="8">
         <f t="shared" si="20"/>
         <v>1059.2753143041996</v>
       </c>
-      <c r="AF10" s="35">
+      <c r="AF10" s="8">
         <f t="shared" si="20"/>
         <v>1251.7256526703491</v>
       </c>
-      <c r="AG10" s="35">
+      <c r="AG10" s="8">
         <f t="shared" si="20"/>
         <v>1478.8270336186406</v>
       </c>
-      <c r="AH10" s="35">
+      <c r="AH10" s="8">
         <f t="shared" si="20"/>
         <v>1746.8284634277791</v>
       </c>
     </row>
-    <row r="11" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="8">
         <v>15.1</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <f t="shared" si="3"/>
         <v>-15.1</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="8">
         <v>19.899999999999999</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="8">
         <v>20.8</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="34">
         <f t="shared" si="5"/>
         <v>18.900000000000002</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="8">
         <v>19</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="34">
         <f t="shared" si="6"/>
         <v>30.6</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="8">
         <v>31.8</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="34">
         <f>W11-K11</f>
         <v>28.400000000000002</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="8">
         <v>30.7</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="49">
         <f>N10*N23</f>
         <v>36.374106999999995</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="T11" s="35">
+      <c r="P11" s="34"/>
+      <c r="T11" s="8">
         <v>36.9</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="8">
         <v>39.700000000000003</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11" s="8">
         <v>49.6</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="8">
         <v>60.2</v>
       </c>
-      <c r="X11" s="51">
+      <c r="X11" s="49">
         <f>N11+M11</f>
         <v>67.074106999999998</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Y11" s="8">
         <f>Y10*Y23</f>
         <v>81.115541593333319</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="Z11" s="8">
         <f t="shared" ref="Z11:AH11" si="21">Z10*Z23</f>
         <v>96.100063524577763</v>
       </c>
-      <c r="AA11" s="35">
+      <c r="AA11" s="8">
         <f t="shared" si="21"/>
         <v>113.67170755159435</v>
       </c>
-      <c r="AB11" s="35">
+      <c r="AB11" s="8">
         <f t="shared" si="21"/>
         <v>134.57828503433811</v>
       </c>
-      <c r="AC11" s="35">
+      <c r="AC11" s="8">
         <f t="shared" si="21"/>
         <v>159.17005206068356</v>
       </c>
-      <c r="AD11" s="35">
+      <c r="AD11" s="8">
         <f t="shared" si="21"/>
         <v>188.18298757701126</v>
       </c>
-      <c r="AE11" s="35">
+      <c r="AE11" s="8">
         <f t="shared" si="21"/>
         <v>222.44781600388191</v>
       </c>
-      <c r="AF11" s="35">
+      <c r="AF11" s="8">
         <f t="shared" si="21"/>
         <v>262.8623870607733</v>
       </c>
-      <c r="AG11" s="35">
+      <c r="AG11" s="8">
         <f t="shared" si="21"/>
         <v>310.55367705991449</v>
       </c>
-      <c r="AH11" s="35">
+      <c r="AH11" s="8">
         <f t="shared" si="21"/>
         <v>366.83397731983359</v>
       </c>
     </row>
-    <row r="12" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <f t="shared" ref="C12:M12" si="22">C10-C11</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <f t="shared" si="22"/>
         <v>-61.699999999999996</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" si="22"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <f t="shared" si="22"/>
         <v>95.200000000000017</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <f t="shared" si="22"/>
         <v>85.000000000000014</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <f t="shared" si="22"/>
         <v>99.40000000000002</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <f t="shared" si="22"/>
         <v>77.3</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <f t="shared" si="22"/>
         <v>126.00000000000003</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <f t="shared" si="22"/>
         <v>135.69999999999999</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="33">
         <f t="shared" si="22"/>
         <v>108.49999999999997</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <f t="shared" si="22"/>
         <v>114.8</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="48">
         <f>N10-N11</f>
         <v>136.8359263333333</v>
       </c>
-      <c r="P12" s="34"/>
-      <c r="T12" s="33">
+      <c r="P12" s="33"/>
+      <c r="T12" s="32">
         <f>T10-T11</f>
         <v>169.8</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="32">
         <f>U10-U11</f>
         <v>184.40000000000003</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="32">
         <f>V10-V11</f>
         <v>203.30000000000004</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="32">
         <f>W10-W11</f>
         <v>244.2</v>
       </c>
-      <c r="X12" s="50">
+      <c r="X12" s="48">
         <f t="shared" ref="X12:AH12" si="23">X10-X11</f>
         <v>251.63592633333334</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="32">
         <f t="shared" si="23"/>
         <v>305.14894218444442</v>
       </c>
-      <c r="Z12" s="33">
+      <c r="Z12" s="32">
         <f t="shared" si="23"/>
         <v>361.51928659245925</v>
       </c>
-      <c r="AA12" s="33">
+      <c r="AA12" s="32">
         <f t="shared" si="23"/>
         <v>427.62213793218831</v>
       </c>
-      <c r="AB12" s="33">
+      <c r="AB12" s="32">
         <f t="shared" si="23"/>
         <v>506.27069131965288</v>
       </c>
-      <c r="AC12" s="33">
+      <c r="AC12" s="32">
         <f t="shared" si="23"/>
         <v>598.78257679971432</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AD12" s="32">
         <f t="shared" si="23"/>
         <v>707.92647707542324</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="32">
         <f t="shared" si="23"/>
         <v>836.82749830031764</v>
       </c>
-      <c r="AF12" s="33">
+      <c r="AF12" s="32">
         <f t="shared" si="23"/>
         <v>988.86326560957582</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AG12" s="32">
         <f t="shared" si="23"/>
         <v>1168.2733565587262</v>
       </c>
-      <c r="AH12" s="33">
+      <c r="AH12" s="32">
         <f t="shared" si="23"/>
         <v>1379.9944861079455</v>
       </c>
-      <c r="AI12" s="33">
+      <c r="AI12" s="32">
         <f>AH12*(1+$AK$21)</f>
         <v>1366.194541246866</v>
       </c>
-      <c r="AJ12" s="33">
+      <c r="AJ12" s="32">
         <f t="shared" ref="AJ12:BU12" si="24">AI12*(1+$AK$21)</f>
         <v>1352.5325958343974</v>
       </c>
-      <c r="AK12" s="33">
+      <c r="AK12" s="32">
         <f t="shared" si="24"/>
         <v>1339.0072698760534</v>
       </c>
-      <c r="AL12" s="33">
+      <c r="AL12" s="32">
         <f t="shared" si="24"/>
         <v>1325.6171971772928</v>
       </c>
-      <c r="AM12" s="33">
+      <c r="AM12" s="32">
         <f t="shared" si="24"/>
         <v>1312.3610252055198</v>
       </c>
-      <c r="AN12" s="33">
+      <c r="AN12" s="32">
         <f t="shared" si="24"/>
         <v>1299.2374149534646</v>
       </c>
-      <c r="AO12" s="33">
+      <c r="AO12" s="32">
         <f t="shared" si="24"/>
         <v>1286.2450408039299</v>
       </c>
-      <c r="AP12" s="33">
+      <c r="AP12" s="32">
         <f t="shared" si="24"/>
         <v>1273.3825903958905</v>
       </c>
-      <c r="AQ12" s="33">
+      <c r="AQ12" s="32">
         <f t="shared" si="24"/>
         <v>1260.6487644919316</v>
       </c>
-      <c r="AR12" s="33">
+      <c r="AR12" s="32">
         <f t="shared" si="24"/>
         <v>1248.0422768470123</v>
       </c>
-      <c r="AS12" s="33">
+      <c r="AS12" s="32">
         <f t="shared" si="24"/>
         <v>1235.5618540785422</v>
       </c>
-      <c r="AT12" s="33">
+      <c r="AT12" s="32">
         <f t="shared" si="24"/>
         <v>1223.2062355377568</v>
       </c>
-      <c r="AU12" s="33">
+      <c r="AU12" s="32">
         <f t="shared" si="24"/>
         <v>1210.9741731823792</v>
       </c>
-      <c r="AV12" s="33">
+      <c r="AV12" s="32">
         <f t="shared" si="24"/>
         <v>1198.8644314505555</v>
       </c>
-      <c r="AW12" s="33">
+      <c r="AW12" s="32">
         <f t="shared" si="24"/>
         <v>1186.8757871360499</v>
       </c>
-      <c r="AX12" s="33">
+      <c r="AX12" s="32">
         <f t="shared" si="24"/>
         <v>1175.0070292646894</v>
       </c>
-      <c r="AY12" s="33">
+      <c r="AY12" s="32">
         <f t="shared" si="24"/>
         <v>1163.2569589720426</v>
       </c>
-      <c r="AZ12" s="33">
+      <c r="AZ12" s="32">
         <f t="shared" si="24"/>
         <v>1151.6243893823223</v>
       </c>
-      <c r="BA12" s="33">
+      <c r="BA12" s="32">
         <f t="shared" si="24"/>
         <v>1140.1081454884991</v>
       </c>
-      <c r="BB12" s="33">
+      <c r="BB12" s="32">
         <f t="shared" si="24"/>
         <v>1128.7070640336142</v>
       </c>
-      <c r="BC12" s="33">
+      <c r="BC12" s="32">
         <f t="shared" si="24"/>
         <v>1117.419993393278</v>
       </c>
-      <c r="BD12" s="33">
+      <c r="BD12" s="32">
         <f t="shared" si="24"/>
         <v>1106.2457934593451</v>
       </c>
-      <c r="BE12" s="33">
+      <c r="BE12" s="32">
         <f t="shared" si="24"/>
         <v>1095.1833355247516</v>
       </c>
-      <c r="BF12" s="33">
+      <c r="BF12" s="32">
         <f t="shared" si="24"/>
         <v>1084.231502169504</v>
       </c>
-      <c r="BG12" s="33">
+      <c r="BG12" s="32">
         <f t="shared" si="24"/>
         <v>1073.389187147809</v>
       </c>
-      <c r="BH12" s="33">
+      <c r="BH12" s="32">
         <f t="shared" si="24"/>
         <v>1062.6552952763309</v>
       </c>
-      <c r="BI12" s="33">
+      <c r="BI12" s="32">
         <f t="shared" si="24"/>
         <v>1052.0287423235675</v>
       </c>
-      <c r="BJ12" s="33">
+      <c r="BJ12" s="32">
         <f t="shared" si="24"/>
         <v>1041.5084549003318</v>
       </c>
-      <c r="BK12" s="33">
+      <c r="BK12" s="32">
         <f t="shared" si="24"/>
         <v>1031.0933703513285</v>
       </c>
-      <c r="BL12" s="33">
+      <c r="BL12" s="32">
         <f t="shared" si="24"/>
         <v>1020.7824366478152</v>
       </c>
-      <c r="BM12" s="33">
+      <c r="BM12" s="32">
         <f t="shared" si="24"/>
         <v>1010.5746122813371</v>
       </c>
-      <c r="BN12" s="33">
+      <c r="BN12" s="32">
         <f t="shared" si="24"/>
         <v>1000.4688661585237</v>
       </c>
-      <c r="BO12" s="33">
+      <c r="BO12" s="32">
         <f t="shared" si="24"/>
         <v>990.46417749693853</v>
       </c>
-      <c r="BP12" s="33">
+      <c r="BP12" s="32">
         <f t="shared" si="24"/>
         <v>980.55953572196916</v>
       </c>
-      <c r="BQ12" s="33">
+      <c r="BQ12" s="32">
         <f t="shared" si="24"/>
         <v>970.7539403647495</v>
       </c>
-      <c r="BR12" s="33">
+      <c r="BR12" s="32">
         <f t="shared" si="24"/>
         <v>961.04640096110199</v>
       </c>
-      <c r="BS12" s="33">
+      <c r="BS12" s="32">
         <f t="shared" si="24"/>
         <v>951.43593695149093</v>
       </c>
-      <c r="BT12" s="33">
+      <c r="BT12" s="32">
         <f t="shared" si="24"/>
         <v>941.92157758197607</v>
       </c>
-      <c r="BU12" s="33">
+      <c r="BU12" s="32">
         <f t="shared" si="24"/>
         <v>932.50236180615627</v>
       </c>
     </row>
-    <row r="13" spans="2:73" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="35" t="s">
+    <row r="13" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <f t="shared" ref="C13:N13" si="25">C12+C14</f>
         <v>61.699999999999996</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <f t="shared" si="25"/>
         <v>-61.699999999999996</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f t="shared" si="25"/>
         <v>74.599999999999994</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <f t="shared" si="25"/>
         <v>95.200000000000017</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <f t="shared" si="25"/>
         <v>85.000000000000014</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="33">
         <f t="shared" si="25"/>
         <v>99.40000000000002</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <f t="shared" si="25"/>
         <v>77.3</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <f t="shared" si="25"/>
         <v>125.90000000000003</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <f t="shared" si="25"/>
         <v>135.79999999999998</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="33">
         <f t="shared" si="25"/>
         <v>108.19999999999997</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <f t="shared" si="25"/>
         <v>115</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="48">
         <f t="shared" si="25"/>
         <v>136.97276225966664</v>
       </c>
-      <c r="P13" s="34"/>
-      <c r="T13" s="33">
+      <c r="P13" s="33"/>
+      <c r="T13" s="32">
         <f>T12+T14</f>
         <v>169.8</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="32">
         <f>U12+U14</f>
         <v>184.40000000000003</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="32">
         <f>V12+V14</f>
         <v>203.20000000000005</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="32">
         <f>W12+W14</f>
         <v>244</v>
       </c>
-      <c r="X13" s="50">
+      <c r="X13" s="48">
         <f t="shared" ref="X13" si="26">X12+X14</f>
         <v>251.97276225966667</v>
       </c>
-      <c r="Y13" s="33">
+      <c r="Y13" s="32">
         <f>Y12+Y14</f>
         <v>305.18861154692843</v>
       </c>
-      <c r="Z13" s="33">
+      <c r="Z13" s="32">
         <f t="shared" ref="Z13:AH13" si="27">Z12+Z14</f>
         <v>361.56628409971626</v>
       </c>
-      <c r="AA13" s="33">
+      <c r="AA13" s="32">
         <f t="shared" si="27"/>
         <v>427.6777288101195</v>
       </c>
-      <c r="AB13" s="33">
+      <c r="AB13" s="32">
         <f t="shared" si="27"/>
         <v>506.33650650952444</v>
       </c>
-      <c r="AC13" s="33">
+      <c r="AC13" s="32">
         <f t="shared" si="27"/>
         <v>598.86041853469828</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AD13" s="32">
         <f t="shared" si="27"/>
         <v>708.01850751744303</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="32">
         <f t="shared" si="27"/>
         <v>836.9362858750967</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AF13" s="32">
         <f t="shared" si="27"/>
         <v>988.99181783410506</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AG13" s="32">
         <f t="shared" si="27"/>
         <v>1168.4252320950789</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AH13" s="32">
         <f t="shared" si="27"/>
         <v>1380.1738853911395</v>
       </c>
     </row>
-    <row r="14" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="35" t="s">
+    <row r="14" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="46">
-        <v>0</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="C14" s="44">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
         <f>S14-C14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="46">
-        <v>0</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="E14" s="44">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
         <f>T14-E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="46">
-        <v>0</v>
-      </c>
-      <c r="H14" s="36">
+      <c r="G14" s="44">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
         <f t="shared" ref="H14" si="28">U14-G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="46">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36">
+      <c r="I14" s="44">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
         <f>V14-I14</f>
         <v>-0.1</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="8">
         <v>0.1</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="34">
         <f>W14-K14</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="8">
         <v>0.2</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="49">
         <f>N12*0.001</f>
         <v>0.1368359263333333</v>
       </c>
-      <c r="P14" s="36"/>
-      <c r="S14" s="35">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35">
-        <v>0</v>
-      </c>
-      <c r="U14" s="35">
-        <v>0</v>
-      </c>
-      <c r="V14" s="35">
+      <c r="P14" s="34"/>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
         <v>-0.1</v>
       </c>
-      <c r="W14" s="35">
+      <c r="W14" s="8">
         <v>-0.2</v>
       </c>
-      <c r="X14" s="51">
+      <c r="X14" s="49">
         <f>N14+M14</f>
         <v>0.33683592633333331</v>
       </c>
-      <c r="Y14" s="35">
+      <c r="Y14" s="8">
         <f>Y12*0.00013</f>
         <v>3.9669362483977774E-2</v>
       </c>
-      <c r="Z14" s="35">
+      <c r="Z14" s="8">
         <f t="shared" ref="Z14:AH14" si="29">Z12*0.00013</f>
         <v>4.6997507257019698E-2</v>
       </c>
-      <c r="AA14" s="35">
+      <c r="AA14" s="8">
         <f t="shared" si="29"/>
         <v>5.5590877931184474E-2</v>
       </c>
-      <c r="AB14" s="35">
+      <c r="AB14" s="8">
         <f t="shared" si="29"/>
         <v>6.5815189871554866E-2</v>
       </c>
-      <c r="AC14" s="35">
+      <c r="AC14" s="8">
         <f t="shared" si="29"/>
         <v>7.7841734983962851E-2</v>
       </c>
-      <c r="AD14" s="35">
+      <c r="AD14" s="8">
         <f t="shared" si="29"/>
         <v>9.2030442019805009E-2</v>
       </c>
-      <c r="AE14" s="35">
+      <c r="AE14" s="8">
         <f t="shared" si="29"/>
         <v>0.10878757477904129</v>
       </c>
-      <c r="AF14" s="35">
+      <c r="AF14" s="8">
         <f t="shared" si="29"/>
         <v>0.12855222452924484</v>
       </c>
-      <c r="AG14" s="35">
+      <c r="AG14" s="8">
         <f t="shared" si="29"/>
         <v>0.1518755363526344</v>
       </c>
-      <c r="AH14" s="35">
+      <c r="AH14" s="8">
         <f t="shared" si="29"/>
         <v>0.17939928319403289</v>
       </c>
     </row>
-    <row r="15" spans="2:73" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="37" t="s">
+    <row r="15" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="35">
         <f t="shared" ref="C15:N15" si="30">C12/C16</f>
         <v>0.16270266756508422</v>
       </c>
-      <c r="D15" s="38" t="e">
+      <c r="D15" s="36" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="35">
         <f t="shared" si="30"/>
         <v>0.19681108372907286</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <f t="shared" si="30"/>
         <v>0.25108149993397905</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="35">
         <f t="shared" si="30"/>
         <v>0.22419479233636896</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <f t="shared" si="30"/>
         <v>0.26220905435668357</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="35">
         <f t="shared" si="30"/>
         <v>0.20390802308932054</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="36">
         <f t="shared" si="30"/>
         <v>0.33271719038817016</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="35">
         <f t="shared" si="30"/>
         <v>0.35795304668952777</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <f t="shared" si="30"/>
         <v>0.28650646950092412</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="35">
         <f t="shared" si="30"/>
         <v>0.30354309888947645</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="50">
         <f t="shared" si="30"/>
         <v>0.36180837211352013</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="T15" s="37">
+      <c r="P15" s="36"/>
+      <c r="T15" s="35">
         <f t="shared" ref="T15:U15" si="31">T12/T16</f>
         <v>0.44783233916795839</v>
       </c>
-      <c r="U15" s="37">
+      <c r="U15" s="35">
         <f t="shared" si="31"/>
         <v>0.48643208876632238</v>
       </c>
-      <c r="V15" s="37">
+      <c r="V15" s="35">
         <f>V12/V16</f>
         <v>0.53612869198312252</v>
       </c>
-      <c r="W15" s="37">
+      <c r="W15" s="35">
         <f>W12/W16</f>
         <v>0.6448376023237391</v>
       </c>
-      <c r="X15" s="52">
+      <c r="X15" s="50">
         <f>X13/X16</f>
         <v>0.66624210010488283</v>
       </c>
-      <c r="Y15" s="37">
+      <c r="Y15" s="35">
         <f>Y13/Y16</f>
         <v>0.80695032138267697</v>
       </c>
-      <c r="Z15" s="37">
+      <c r="Z15" s="35">
         <f t="shared" ref="Z15:AH15" si="32">Z13/Z16</f>
         <v>0.95601873109390867</v>
       </c>
-      <c r="AA15" s="37">
+      <c r="AA15" s="35">
         <f t="shared" si="32"/>
         <v>1.1308242432842928</v>
       </c>
-      <c r="AB15" s="37">
+      <c r="AB15" s="35">
         <f t="shared" si="32"/>
         <v>1.3388062044143958</v>
       </c>
-      <c r="AC15" s="37">
+      <c r="AC15" s="35">
         <f t="shared" si="32"/>
         <v>1.5834490178072405</v>
       </c>
-      <c r="AD15" s="37">
+      <c r="AD15" s="35">
         <f t="shared" si="32"/>
         <v>1.8720743191894316</v>
       </c>
-      <c r="AE15" s="37">
+      <c r="AE15" s="35">
         <f t="shared" si="32"/>
         <v>2.21294628734822</v>
       </c>
-      <c r="AF15" s="37">
+      <c r="AF15" s="35">
         <f t="shared" si="32"/>
         <v>2.6149968742308438</v>
       </c>
-      <c r="AG15" s="37">
+      <c r="AG15" s="35">
         <f t="shared" si="32"/>
         <v>3.0894374196062371</v>
       </c>
-      <c r="AH15" s="37">
+      <c r="AH15" s="35">
         <f t="shared" si="32"/>
         <v>3.6493228064281849</v>
       </c>
     </row>
-    <row r="16" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="8">
         <v>379.21935100000002</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <f>S16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="8">
         <v>379.04369300000002</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="34">
         <f>T16</f>
         <v>379.15975500000002</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="8">
         <v>379.13458700000001</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="34">
         <f>U16</f>
         <v>379.08683300000001</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="8">
         <v>379.092489</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="34">
         <f>W16</f>
         <v>378.7</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="8">
         <v>379.1</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="34">
         <f>W16</f>
         <v>378.7</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="8">
         <v>378.2</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="49">
         <f>M16</f>
         <v>378.2</v>
       </c>
-      <c r="P16" s="36"/>
-      <c r="T16" s="35">
+      <c r="P16" s="34"/>
+      <c r="T16" s="8">
         <v>379.15975500000002</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="8">
         <v>379.08683300000001</v>
       </c>
-      <c r="V16" s="35">
+      <c r="V16" s="8">
         <v>379.2</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16" s="8">
         <v>378.7</v>
       </c>
-      <c r="X16" s="51">
+      <c r="X16" s="49">
         <f>N16</f>
         <v>378.2</v>
       </c>
-      <c r="Y16" s="35">
+      <c r="Y16" s="8">
         <f>X16</f>
         <v>378.2</v>
       </c>
-      <c r="Z16" s="35">
+      <c r="Z16" s="8">
         <f t="shared" ref="Z16:AH16" si="33">Y16</f>
         <v>378.2</v>
       </c>
-      <c r="AA16" s="35">
+      <c r="AA16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
-      <c r="AB16" s="35">
+      <c r="AB16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
-      <c r="AC16" s="35">
+      <c r="AC16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
-      <c r="AD16" s="35">
+      <c r="AD16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
-      <c r="AE16" s="35">
+      <c r="AE16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
-      <c r="AF16" s="35">
+      <c r="AF16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
-      <c r="AG16" s="35">
+      <c r="AG16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
-      <c r="AH16" s="35">
+      <c r="AH16" s="8">
         <f t="shared" si="33"/>
         <v>378.2</v>
       </c>
     </row>
-    <row r="18" spans="2:37" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="41">
+      <c r="D18" s="40"/>
+      <c r="E18" s="39">
         <f>E4/C4-1</f>
         <v>0.15642899466719329</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="41">
+      <c r="F18" s="40"/>
+      <c r="G18" s="39">
         <f>G4/E4-1</f>
         <v>0.11648163962425295</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41">
+      <c r="H18" s="40"/>
+      <c r="I18" s="39">
         <f>I4/G4-1</f>
         <v>-5.4000305950742011E-2</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="41">
+      <c r="J18" s="40"/>
+      <c r="K18" s="39">
         <f>K4/I4-1</f>
         <v>0.19210866752910749</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="40">
         <f>L4/J4-1</f>
         <v>0.1261789082595024</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="39">
         <f>M4/K4-1</f>
         <v>0.18760173629951149</v>
       </c>
-      <c r="N18" s="53"/>
-      <c r="P18" s="42"/>
-      <c r="U18" s="41">
+      <c r="N18" s="51"/>
+      <c r="P18" s="40"/>
+      <c r="U18" s="39">
         <f t="shared" ref="U18:V18" si="34">U4/T4-1</f>
         <v>0.10529358328515981</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="39">
         <f t="shared" si="34"/>
         <v>-1.5092647937836268E-2</v>
       </c>
-      <c r="W18" s="41">
+      <c r="W18" s="39">
         <f>W4/V4-1</f>
         <v>0.15710817781823683</v>
       </c>
-      <c r="X18" s="53">
+      <c r="X18" s="51">
         <f>X4/W4-1</f>
         <v>0.22258899888546524</v>
       </c>
-      <c r="Y18" s="41">
+      <c r="Y18" s="39">
         <v>0.18</v>
       </c>
-      <c r="Z18" s="41">
+      <c r="Z18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AA18" s="41">
+      <c r="AA18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AB18" s="41">
+      <c r="AB18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AC18" s="41">
+      <c r="AC18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AD18" s="41">
+      <c r="AD18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AE18" s="41">
+      <c r="AE18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AF18" s="41">
+      <c r="AF18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AG18" s="41">
+      <c r="AG18" s="39">
         <v>0.18</v>
       </c>
-      <c r="AH18" s="41">
+      <c r="AH18" s="39">
         <v>0.18</v>
       </c>
     </row>
@@ -3870,393 +3987,393 @@
       <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="38">
         <f>J4/I4-1</f>
         <v>0.13163001293661081</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="37">
         <f>K4/J4-1</f>
         <v>5.3443841097456479E-2</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="38">
         <f>L4/K4-1</f>
         <v>6.9045035268583632E-2</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="37">
         <f>M4/L4-1</f>
         <v>0.11089963202639264</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="52">
         <v>0.13</v>
       </c>
-      <c r="S19" s="57" t="s">
+      <c r="S19" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="T19" s="57" t="s">
+      <c r="T19" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="U19" s="57" t="s">
+      <c r="U19" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="W19" s="57" t="s">
+      <c r="W19" s="55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="37">
         <f>C5/C4</f>
         <v>0.16156428994667194</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="39">
+      <c r="D21" s="38"/>
+      <c r="E21" s="37">
         <f>E5/E4</f>
         <v>0.17147736976942785</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="39">
+      <c r="F21" s="38"/>
+      <c r="G21" s="37">
         <f>G5/G4</f>
         <v>0.17072051399724641</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="39">
+      <c r="H21" s="38"/>
+      <c r="I21" s="37">
         <f>I5/I4</f>
         <v>0.16510349288486417</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="38">
         <f>J5/J4</f>
         <v>0.19819948556730496</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="37">
         <f>K5/K4</f>
         <v>0.18665219750406944</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="38">
         <f>L5/L4</f>
         <v>0.1792919680243624</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="37">
         <f>M5/M4</f>
         <v>0.17327241576242147</v>
       </c>
-      <c r="N21" s="54"/>
-      <c r="P21" s="40"/>
-      <c r="T21" s="39">
+      <c r="N21" s="52"/>
+      <c r="P21" s="38"/>
+      <c r="T21" s="37">
         <f t="shared" ref="T21" si="35">T5/T4</f>
         <v>0.17986621521182591</v>
       </c>
-      <c r="U21" s="39">
+      <c r="U21" s="37">
         <f t="shared" ref="U21" si="36">U5/U4</f>
         <v>0.17438732815301852</v>
       </c>
-      <c r="V21" s="39">
+      <c r="V21" s="37">
         <f t="shared" ref="V21:W21" si="37">V5/V4</f>
         <v>0.18267334243665606</v>
       </c>
-      <c r="W21" s="39">
+      <c r="W21" s="37">
         <f t="shared" si="37"/>
         <v>0.18284927555235034</v>
       </c>
-      <c r="X21" s="54">
+      <c r="X21" s="52">
         <f t="shared" ref="X21:AH21" si="38">X5/X4</f>
         <v>0.1768415097476157</v>
       </c>
-      <c r="Y21" s="39">
+      <c r="Y21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="Z21" s="39">
+      <c r="Z21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AA21" s="39">
+      <c r="AA21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AB21" s="39">
+      <c r="AB21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AC21" s="39">
+      <c r="AC21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AD21" s="39">
+      <c r="AD21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AE21" s="39">
+      <c r="AE21" s="37">
         <f t="shared" si="38"/>
         <v>0.17999999999999997</v>
       </c>
-      <c r="AF21" s="39">
+      <c r="AF21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AG21" s="39">
+      <c r="AG21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AH21" s="39">
+      <c r="AH21" s="37">
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AJ21" s="73" t="s">
+      <c r="AJ21" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="AK21" s="78">
+      <c r="AK21" s="65">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="39" t="s">
+    <row r="22" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <f>C12/C4</f>
         <v>0.12186450720916452</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39">
+      <c r="D22" s="38"/>
+      <c r="E22" s="37">
         <f>E12/E4</f>
         <v>0.12741246797608879</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="39">
+      <c r="F22" s="38"/>
+      <c r="G22" s="37">
         <f>G12/G4</f>
         <v>0.13002906532048342</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="39">
+      <c r="H22" s="38"/>
+      <c r="I22" s="37">
         <f>I12/I4</f>
         <v>0.125</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="38">
         <f>J12/J4</f>
         <v>0.18005144326950559</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="37">
         <f>K12/K4</f>
         <v>0.18407487791644056</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="38">
         <f>L12/L4</f>
         <v>0.13767288415175738</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="37">
         <f>M12/M4</f>
         <v>0.1311250713877784</v>
       </c>
-      <c r="N22" s="54"/>
-      <c r="P22" s="40"/>
-      <c r="T22" s="39">
+      <c r="N22" s="52"/>
+      <c r="P22" s="38"/>
+      <c r="T22" s="37">
         <f t="shared" ref="T22" si="39">T12/T4</f>
         <v>0.14022627797505988</v>
       </c>
-      <c r="U22" s="39">
+      <c r="U22" s="37">
         <f t="shared" ref="U22" si="40">U12/U4</f>
         <v>0.13777644949193069</v>
       </c>
-      <c r="V22" s="39">
+      <c r="V22" s="37">
         <f t="shared" ref="V22:W22" si="41">V12/V4</f>
         <v>0.1542254589591868</v>
       </c>
-      <c r="W22" s="39">
+      <c r="W22" s="37">
         <f t="shared" si="41"/>
         <v>0.16009965252737166</v>
       </c>
-      <c r="X22" s="54">
+      <c r="X22" s="52">
         <f t="shared" ref="X22:AH22" si="42">X12/X4</f>
         <v>0.13493881502097169</v>
       </c>
-      <c r="Y22" s="39">
+      <c r="Y22" s="37">
         <f t="shared" si="42"/>
         <v>0.13867370139203813</v>
       </c>
-      <c r="Z22" s="39">
+      <c r="Z22" s="37">
         <f t="shared" si="42"/>
         <v>0.13922964084330744</v>
       </c>
-      <c r="AA22" s="39">
+      <c r="AA22" s="37">
         <f t="shared" si="42"/>
         <v>0.13956560569635687</v>
       </c>
-      <c r="AB22" s="39">
+      <c r="AB22" s="37">
         <f t="shared" si="42"/>
         <v>0.14002932751943725</v>
       </c>
-      <c r="AC22" s="39">
+      <c r="AC22" s="37">
         <f t="shared" si="42"/>
         <v>0.14035353793131092</v>
       </c>
-      <c r="AD22" s="39">
+      <c r="AD22" s="37">
         <f t="shared" si="42"/>
         <v>0.14062429491834813</v>
       </c>
-      <c r="AE22" s="39">
+      <c r="AE22" s="37">
         <f t="shared" si="42"/>
         <v>0.14087247270548028</v>
       </c>
-      <c r="AF22" s="39">
+      <c r="AF22" s="37">
         <f t="shared" si="42"/>
         <v>0.14107317206442571</v>
       </c>
-      <c r="AG22" s="39">
+      <c r="AG22" s="37">
         <f t="shared" si="42"/>
         <v>0.14124420962653625</v>
       </c>
-      <c r="AH22" s="39">
+      <c r="AH22" s="37">
         <f t="shared" si="42"/>
         <v>0.14139092126132088</v>
       </c>
-      <c r="AJ22" s="74" t="s">
+      <c r="AJ22" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="AK22" s="79">
+      <c r="AK22" s="66">
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="39" t="s">
+    <row r="23" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="37">
         <f>C11/C10</f>
         <v>0.19661458333333334</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="39">
+      <c r="D23" s="38"/>
+      <c r="E23" s="37">
         <f>E11/E10</f>
         <v>0.21058201058201056</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="39">
+      <c r="F23" s="38"/>
+      <c r="G23" s="37">
         <f>G11/G10</f>
         <v>0.19659735349716445</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="39">
+      <c r="H23" s="38"/>
+      <c r="I23" s="37">
         <f>I11/I10</f>
         <v>0.19730010384215993</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="38">
         <f>J11/J10</f>
         <v>0.1954022988505747</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="37">
         <f>K11/K10</f>
         <v>0.18985074626865672</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="38">
         <f>L11/L10</f>
         <v>0.20745069393718046</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="37">
         <f>M11/M10</f>
         <v>0.21099656357388316</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="52">
         <v>0.21</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="T23" s="39">
+      <c r="P23" s="38"/>
+      <c r="T23" s="37">
         <f t="shared" ref="T23" si="43">T11/T10</f>
         <v>0.17851959361393321</v>
       </c>
-      <c r="U23" s="39">
+      <c r="U23" s="37">
         <f t="shared" ref="U23" si="44">U11/U10</f>
         <v>0.17715305667112896</v>
       </c>
-      <c r="V23" s="39">
+      <c r="V23" s="37">
         <f t="shared" ref="V23:W23" si="45">V11/V10</f>
         <v>0.19612495057334914</v>
       </c>
-      <c r="W23" s="39">
+      <c r="W23" s="37">
         <f t="shared" si="45"/>
         <v>0.19776609724047309</v>
       </c>
-      <c r="X23" s="54">
+      <c r="X23" s="52">
         <f t="shared" ref="X23" si="46">X11/X10</f>
         <v>0.21045495900610178</v>
       </c>
-      <c r="Y23" s="39">
+      <c r="Y23" s="37">
         <v>0.21</v>
       </c>
-      <c r="Z23" s="39">
+      <c r="Z23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AA23" s="39">
+      <c r="AA23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AB23" s="39">
+      <c r="AB23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AC23" s="39">
+      <c r="AC23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AD23" s="39">
+      <c r="AD23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AE23" s="39">
+      <c r="AE23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AF23" s="39">
+      <c r="AF23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AG23" s="39">
+      <c r="AG23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AH23" s="39">
+      <c r="AH23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AJ23" s="74" t="s">
+      <c r="AJ23" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AK23" s="80">
+      <c r="AK23" s="67">
         <f>NPV(AK22,X12:BU12)</f>
         <v>10602.370197716416</v>
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="AJ24" s="75" t="s">
+      <c r="AJ24" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="13">
+      <c r="AK24" s="12">
         <f>Main!C11</f>
         <v>-567.6</v>
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="AJ25" s="75" t="s">
+      <c r="AJ25" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AK25" s="81">
+      <c r="AK25" s="68">
         <f>AK23+AK24</f>
         <v>10034.770197716416</v>
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="AJ26" s="76" t="s">
+      <c r="AJ26" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AK26" s="82">
+      <c r="AK26" s="69">
         <f>AK25/Main!C7</f>
         <v>26.532972495284021</v>
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.15">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AJ27" s="75" t="s">
+      <c r="AJ27" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="AK27" s="13">
+      <c r="AK27" s="12">
         <f>Main!C6</f>
         <v>22.55</v>
       </c>
@@ -4273,43 +4390,43 @@
         <f>655.6+229.9</f>
         <v>885.5</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="8">
         <f>765.5+272.4</f>
         <v>1037.9000000000001</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="35">
+      <c r="H28" s="34"/>
+      <c r="I28" s="8">
         <f>829.8+303.8</f>
         <v>1133.5999999999999</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="34">
         <f>V28</f>
         <v>1098.5</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="8">
         <f>867.4+319.3</f>
         <v>1186.7</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="34">
         <f>W28</f>
         <v>1233.9000000000001</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="8">
         <f>1101.8+418.6</f>
         <v>1520.4</v>
       </c>
-      <c r="V28" s="35">
+      <c r="V28" s="8">
         <f>808.5+290</f>
         <v>1098.5</v>
       </c>
-      <c r="W28" s="35">
+      <c r="W28" s="8">
         <f>908.7+325.2</f>
         <v>1233.9000000000001</v>
       </c>
-      <c r="AJ28" s="77" t="s">
+      <c r="AJ28" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="AK28" s="83">
+      <c r="AK28" s="70">
         <f>AK26/AK27-1</f>
         <v>0.17662849203033359</v>
       </c>
@@ -4324,33 +4441,43 @@
       <c r="E29" s="1">
         <v>109.6</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="8">
         <v>171.7</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="35">
+      <c r="H29" s="34"/>
+      <c r="I29" s="8">
         <v>184.7</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="34">
         <f>V29</f>
         <v>180.8</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="8">
         <v>186.7</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="34">
         <f>W29</f>
         <v>194</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M29" s="8">
         <v>224.5</v>
       </c>
-      <c r="V29" s="35">
+      <c r="V29" s="8">
         <v>180.8</v>
       </c>
-      <c r="W29" s="35">
+      <c r="W29" s="8">
         <v>194</v>
       </c>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
     </row>
     <row r="30" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
@@ -4359,41 +4486,41 @@
       <c r="C30" s="2">
         <v>3.4</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="2">
         <v>3.9</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="33">
+      <c r="F30" s="27"/>
+      <c r="G30" s="32">
         <v>5.5</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33">
+      <c r="H30" s="33"/>
+      <c r="I30" s="32">
         <v>4.8</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="33">
         <f>V30</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="32">
         <v>9.9</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="34">
         <f t="shared" ref="L30:L37" si="47">W30</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="32">
         <v>19.8</v>
       </c>
-      <c r="N30" s="56"/>
-      <c r="P30" s="28"/>
-      <c r="V30" s="33">
+      <c r="N30" s="54"/>
+      <c r="P30" s="27"/>
+      <c r="V30" s="32">
         <v>9.3000000000000007</v>
       </c>
-      <c r="W30" s="33">
+      <c r="W30" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X30" s="56"/>
+      <c r="X30" s="54"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
@@ -4405,31 +4532,31 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="35">
-        <v>0</v>
-      </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="35">
-        <v>0</v>
-      </c>
-      <c r="J31" s="36">
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="34">
         <f t="shared" ref="J31:J33" si="48">V31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="8">
         <v>4.8</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="34">
         <f t="shared" si="47"/>
         <v>31.1</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="8">
         <v>43.9</v>
       </c>
-      <c r="V31" s="35">
-        <v>0</v>
-      </c>
-      <c r="W31" s="35">
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
         <v>31.1</v>
       </c>
     </row>
@@ -4443,31 +4570,31 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="35">
-        <v>0</v>
-      </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="35">
-        <v>0</v>
-      </c>
-      <c r="J32" s="36">
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="34">
         <f t="shared" si="48"/>
         <v>13.9</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="8">
         <v>14.7</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="34">
         <f t="shared" si="47"/>
         <v>14.7</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="8">
         <v>14.7</v>
       </c>
-      <c r="V32" s="35">
+      <c r="V32" s="8">
         <v>13.9</v>
       </c>
-      <c r="W32" s="35">
+      <c r="W32" s="8">
         <v>14.7</v>
       </c>
     </row>
@@ -4481,31 +4608,31 @@
       <c r="E33" s="1">
         <v>30.9</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="8">
         <v>1.4</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="35">
+      <c r="H33" s="34"/>
+      <c r="I33" s="8">
         <v>5.6</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="34">
         <f t="shared" si="48"/>
         <v>1.3</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="8">
         <v>1.9</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="34">
         <f t="shared" si="47"/>
         <v>2.4</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="8">
         <v>2.8</v>
       </c>
-      <c r="V33" s="35">
+      <c r="V33" s="8">
         <v>1.3</v>
       </c>
-      <c r="W33" s="35">
+      <c r="W33" s="8">
         <v>2.4</v>
       </c>
     </row>
@@ -4513,44 +4640,44 @@
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="8">
         <f>SUM(C28:C33)</f>
         <v>964.49999999999989</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="8">
         <f>SUM(E28:E33)</f>
         <v>1029.9000000000001</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="8">
         <f>SUM(G28:G33)</f>
         <v>1216.5000000000002</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="35">
+      <c r="H34" s="34"/>
+      <c r="I34" s="8">
         <f>SUM(I28:I33)</f>
         <v>1328.6999999999998</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="34">
         <f>SUM(J28:J33)</f>
         <v>1303.8</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="8">
         <f>SUM(K28:K33)</f>
         <v>1404.7000000000003</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="34">
         <f>SUM(L28:L33)</f>
         <v>1484.3000000000002</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="8">
         <f>SUM(M28:M33)</f>
         <v>1826.1000000000001</v>
       </c>
-      <c r="V34" s="35">
+      <c r="V34" s="8">
         <f>SUM(V28:V33)</f>
         <v>1303.8</v>
       </c>
-      <c r="W34" s="35">
+      <c r="W34" s="8">
         <f>SUM(W28:W33)</f>
         <v>1484.3000000000002</v>
       </c>
@@ -4565,31 +4692,31 @@
       <c r="E35" s="1">
         <v>141.19999999999999</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="8">
         <v>162.9</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="35">
+      <c r="H35" s="34"/>
+      <c r="I35" s="8">
         <v>175.8</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="34">
         <f t="shared" ref="J35:J37" si="49">V35</f>
         <v>167.8</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="8">
         <v>193.2</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="34">
         <f t="shared" si="47"/>
         <v>228.8</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="8">
         <v>308.8</v>
       </c>
-      <c r="V35" s="35">
+      <c r="V35" s="8">
         <v>167.8</v>
       </c>
-      <c r="W35" s="35">
+      <c r="W35" s="8">
         <v>228.8</v>
       </c>
     </row>
@@ -4603,31 +4730,31 @@
       <c r="E36" s="1">
         <v>241.8</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="8">
         <v>275.2</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="35">
+      <c r="H36" s="34"/>
+      <c r="I36" s="8">
         <v>245.3</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="34">
         <f t="shared" si="49"/>
         <v>268</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="8">
         <v>279.2</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="34">
         <f t="shared" si="47"/>
         <v>325.10000000000002</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M36" s="8">
         <v>389.9</v>
       </c>
-      <c r="V36" s="35">
+      <c r="V36" s="8">
         <v>268</v>
       </c>
-      <c r="W36" s="35">
+      <c r="W36" s="8">
         <v>325.10000000000002</v>
       </c>
     </row>
@@ -4641,31 +4768,31 @@
       <c r="E37" s="1">
         <v>0.7</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="8">
         <v>4.8</v>
       </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="35">
+      <c r="H37" s="34"/>
+      <c r="I37" s="8">
         <v>6.5</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="34">
         <f t="shared" si="49"/>
         <v>2.5</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="34">
         <f t="shared" si="47"/>
         <v>0.7</v>
       </c>
-      <c r="M37" s="35">
+      <c r="M37" s="8">
         <v>1.9</v>
       </c>
-      <c r="V37" s="35">
+      <c r="V37" s="8">
         <v>2.5</v>
       </c>
-      <c r="W37" s="35">
+      <c r="W37" s="8">
         <v>0.7</v>
       </c>
     </row>
@@ -4676,41 +4803,41 @@
       <c r="C38" s="2">
         <v>71.7</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="35">
+      <c r="F38" s="27"/>
+      <c r="G38" s="8">
         <v>83.2</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="33">
+      <c r="H38" s="33"/>
+      <c r="I38" s="32">
         <v>125.5</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="33">
         <f t="shared" ref="J38:J39" si="50">V38</f>
         <v>134.1</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="32">
         <v>131.1</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="33">
         <f>W38</f>
         <v>157.4</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="32">
         <v>213.4</v>
       </c>
-      <c r="N38" s="56"/>
-      <c r="P38" s="28"/>
-      <c r="V38" s="33">
+      <c r="N38" s="54"/>
+      <c r="P38" s="27"/>
+      <c r="V38" s="32">
         <v>134.1</v>
       </c>
-      <c r="W38" s="33">
+      <c r="W38" s="32">
         <v>157.4</v>
       </c>
-      <c r="X38" s="56"/>
+      <c r="X38" s="54"/>
     </row>
     <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
@@ -4719,177 +4846,177 @@
       <c r="C39" s="2">
         <v>0.6</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="2">
         <v>0.3</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="33">
+      <c r="F39" s="27"/>
+      <c r="G39" s="32">
         <v>0.9</v>
       </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="33">
+      <c r="H39" s="33"/>
+      <c r="I39" s="32">
         <v>0.4</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="33">
         <f t="shared" si="50"/>
         <v>1.7</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="32">
         <v>0.6</v>
       </c>
-      <c r="L39" s="34">
+      <c r="L39" s="33">
         <f>W39</f>
         <v>0.7</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="32">
         <v>1.2</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="P39" s="28"/>
-      <c r="V39" s="33">
+      <c r="N39" s="54"/>
+      <c r="P39" s="27"/>
+      <c r="V39" s="32">
         <v>1.7</v>
       </c>
-      <c r="W39" s="33">
+      <c r="W39" s="32">
         <v>0.7</v>
       </c>
-      <c r="X39" s="56"/>
+      <c r="X39" s="54"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="8">
         <f>SUM(C35:C39)+C34</f>
         <v>1364.8</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="8">
         <f>SUM(E35:E39)+E34</f>
         <v>1480.3000000000002</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="8">
         <f>SUM(G35:G39)+G34</f>
         <v>1743.5000000000002</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="35">
+      <c r="H40" s="34"/>
+      <c r="I40" s="8">
         <f>SUM(I35:I39)+I34</f>
         <v>1882.1999999999998</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="34">
         <f>SUM(J35:J39)+J34</f>
         <v>1877.9</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="8">
         <f>SUM(K35:K39)+K34</f>
         <v>2013.2000000000003</v>
       </c>
-      <c r="L40" s="36">
+      <c r="L40" s="34">
         <f>SUM(L35:L39)+L34</f>
         <v>2197.0000000000005</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="8">
         <f>SUM(M35:M39)+M34</f>
         <v>2741.3</v>
       </c>
-      <c r="V40" s="35">
+      <c r="V40" s="8">
         <f>SUM(V35:V39)+V34</f>
         <v>1877.9</v>
       </c>
-      <c r="W40" s="35">
+      <c r="W40" s="8">
         <f>SUM(W35:W39)+W34</f>
         <v>2197.0000000000005</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="35"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="8"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
     </row>
     <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="32">
         <v>0.2</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="33">
+      <c r="D42" s="33"/>
+      <c r="E42" s="32">
         <v>3</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="33">
+      <c r="F42" s="33"/>
+      <c r="G42" s="32">
         <v>1.7</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="33">
+      <c r="H42" s="33"/>
+      <c r="I42" s="32">
         <v>76.099999999999994</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="33">
         <f>V42</f>
         <v>3</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="32">
         <v>206.1</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="33">
         <f>W42</f>
         <v>72.5</v>
       </c>
-      <c r="M42" s="33">
+      <c r="M42" s="32">
         <v>256.39999999999998</v>
       </c>
-      <c r="N42" s="56"/>
-      <c r="P42" s="28"/>
-      <c r="V42" s="33">
+      <c r="N42" s="54"/>
+      <c r="P42" s="27"/>
+      <c r="V42" s="32">
         <v>3</v>
       </c>
-      <c r="W42" s="33">
+      <c r="W42" s="32">
         <v>72.5</v>
       </c>
-      <c r="X42" s="56"/>
+      <c r="X42" s="54"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="35">
-        <v>0</v>
-      </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="35">
-        <v>0</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="35">
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="8">
         <v>12.3</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="35">
+      <c r="H43" s="34"/>
+      <c r="I43" s="8">
         <v>13</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="34">
         <f>V43</f>
         <v>13.3</v>
       </c>
-      <c r="K43" s="35">
+      <c r="K43" s="8">
         <v>3</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="34">
         <f t="shared" ref="L43:L47" si="51">W43</f>
         <v>15.5</v>
       </c>
-      <c r="M43" s="35">
+      <c r="M43" s="8">
         <v>78.8</v>
       </c>
-      <c r="V43" s="35">
+      <c r="V43" s="8">
         <v>13.3</v>
       </c>
-      <c r="W43" s="35">
+      <c r="W43" s="8">
         <v>15.5</v>
       </c>
     </row>
@@ -4897,39 +5024,39 @@
       <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="35">
-        <v>0</v>
-      </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="35">
-        <v>0</v>
-      </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="35">
-        <v>0</v>
-      </c>
-      <c r="J44" s="36">
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="8">
+        <v>0</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="34">
         <f t="shared" ref="J44:J47" si="52">V44</f>
         <v>0</v>
       </c>
-      <c r="K44" s="35">
+      <c r="K44" s="8">
         <v>14.2</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="34">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="M44" s="35">
+      <c r="M44" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="V44" s="35">
-        <v>0</v>
-      </c>
-      <c r="W44" s="35">
+      <c r="V44" s="8">
+        <v>0</v>
+      </c>
+      <c r="W44" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4937,39 +5064,39 @@
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="8">
         <v>125.7</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="35">
+      <c r="D45" s="34"/>
+      <c r="E45" s="8">
         <v>154.5</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="35">
+      <c r="F45" s="34"/>
+      <c r="G45" s="8">
         <v>157.9</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="35">
+      <c r="H45" s="34"/>
+      <c r="I45" s="8">
         <v>158.69999999999999</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="34">
         <f t="shared" si="52"/>
         <v>186.7</v>
       </c>
-      <c r="K45" s="35">
+      <c r="K45" s="8">
         <v>22</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="34">
         <f t="shared" si="51"/>
         <v>242.7</v>
       </c>
-      <c r="M45" s="35">
+      <c r="M45" s="8">
         <v>26.5</v>
       </c>
-      <c r="V45" s="35">
+      <c r="V45" s="8">
         <v>186.7</v>
       </c>
-      <c r="W45" s="35">
+      <c r="W45" s="8">
         <v>242.7</v>
       </c>
     </row>
@@ -4977,39 +5104,39 @@
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="8">
         <v>4.7</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="35">
+      <c r="D46" s="34"/>
+      <c r="E46" s="8">
         <v>18.2</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="35">
+      <c r="F46" s="34"/>
+      <c r="G46" s="8">
         <v>20.5</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="35">
+      <c r="H46" s="34"/>
+      <c r="I46" s="8">
         <v>30.5</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="34">
         <f t="shared" si="52"/>
         <v>35.4</v>
       </c>
-      <c r="K46" s="35">
+      <c r="K46" s="8">
         <v>13.8</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="34">
         <f t="shared" si="51"/>
         <v>20.7</v>
       </c>
-      <c r="M46" s="35">
+      <c r="M46" s="8">
         <v>15.8</v>
       </c>
-      <c r="V46" s="35">
+      <c r="V46" s="8">
         <v>35.4</v>
       </c>
-      <c r="W46" s="35">
+      <c r="W46" s="8">
         <v>20.7</v>
       </c>
     </row>
@@ -5017,39 +5144,39 @@
       <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="8">
         <v>14.9</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="35">
+      <c r="D47" s="34"/>
+      <c r="E47" s="8">
         <v>13.3</v>
       </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="35">
+      <c r="F47" s="34"/>
+      <c r="G47" s="8">
         <v>13.4</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="35">
+      <c r="H47" s="34"/>
+      <c r="I47" s="8">
         <v>11.3</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="34">
         <f t="shared" si="52"/>
         <v>8.9</v>
       </c>
-      <c r="K47" s="35">
+      <c r="K47" s="8">
         <v>0.2</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="34">
         <f t="shared" si="51"/>
         <v>11.6</v>
       </c>
-      <c r="M47" s="35">
+      <c r="M47" s="8">
         <v>3.4</v>
       </c>
-      <c r="V47" s="35">
+      <c r="V47" s="8">
         <v>8.9</v>
       </c>
-      <c r="W47" s="35">
+      <c r="W47" s="8">
         <v>11.6</v>
       </c>
     </row>
@@ -5057,89 +5184,89 @@
       <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="32">
         <v>0.4</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="33">
+      <c r="D48" s="33"/>
+      <c r="E48" s="32">
         <v>0.5</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="33">
+      <c r="F48" s="33"/>
+      <c r="G48" s="32">
         <v>0.7</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="33">
+      <c r="H48" s="33"/>
+      <c r="I48" s="32">
         <v>0.9</v>
       </c>
-      <c r="J48" s="34">
+      <c r="J48" s="33">
         <f>V48</f>
         <v>0.7</v>
       </c>
-      <c r="K48" s="33">
-        <v>0</v>
-      </c>
-      <c r="L48" s="34">
+      <c r="K48" s="32">
+        <v>0</v>
+      </c>
+      <c r="L48" s="33">
         <f>W48</f>
         <v>0.9</v>
       </c>
-      <c r="M48" s="33">
-        <v>0</v>
-      </c>
-      <c r="N48" s="56"/>
-      <c r="P48" s="28"/>
-      <c r="V48" s="33">
+      <c r="M48" s="32">
+        <v>0</v>
+      </c>
+      <c r="N48" s="54"/>
+      <c r="P48" s="27"/>
+      <c r="V48" s="32">
         <v>0.7</v>
       </c>
-      <c r="W48" s="33">
+      <c r="W48" s="32">
         <v>0.9</v>
       </c>
-      <c r="X48" s="56"/>
+      <c r="X48" s="54"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="8">
         <f>SUM(C42:C48)</f>
         <v>145.9</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="35">
+      <c r="D49" s="34"/>
+      <c r="E49" s="8">
         <f>SUM(E42:E48)</f>
         <v>189.5</v>
       </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="35">
+      <c r="F49" s="34"/>
+      <c r="G49" s="8">
         <f>SUM(G42:G48)</f>
         <v>206.5</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="35">
+      <c r="H49" s="34"/>
+      <c r="I49" s="8">
         <f>SUM(I42:I48)</f>
         <v>290.49999999999994</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="34">
         <f>SUM(J42:J48)</f>
         <v>248</v>
       </c>
-      <c r="K49" s="35">
+      <c r="K49" s="8">
         <f>SUM(K42:K48)</f>
         <v>259.29999999999995</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="34">
         <f>SUM(L42:L48)</f>
         <v>363.9</v>
       </c>
-      <c r="M49" s="35">
+      <c r="M49" s="8">
         <f>SUM(M42:M48)</f>
         <v>400.29999999999995</v>
       </c>
-      <c r="V49" s="35">
+      <c r="V49" s="8">
         <f t="shared" ref="V49:W49" si="53">SUM(V42:V48)</f>
         <v>248</v>
       </c>
-      <c r="W49" s="35">
+      <c r="W49" s="8">
         <f t="shared" si="53"/>
         <v>363.9</v>
       </c>
@@ -5148,82 +5275,82 @@
       <c r="B50" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="32">
         <v>252.5</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="33">
+      <c r="D50" s="33"/>
+      <c r="E50" s="32">
         <v>258</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="33">
+      <c r="F50" s="33"/>
+      <c r="G50" s="32">
         <v>334.9</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="33">
+      <c r="H50" s="33"/>
+      <c r="I50" s="32">
         <v>300</v>
       </c>
-      <c r="J50" s="34">
+      <c r="J50" s="33">
         <f>V50</f>
         <v>322.3</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="32">
         <v>340.7</v>
       </c>
-      <c r="L50" s="34">
+      <c r="L50" s="33">
         <f>W50</f>
         <v>287.60000000000002</v>
       </c>
-      <c r="M50" s="33">
+      <c r="M50" s="32">
         <v>545.6</v>
       </c>
-      <c r="N50" s="56"/>
-      <c r="P50" s="28"/>
-      <c r="V50" s="33">
+      <c r="N50" s="54"/>
+      <c r="P50" s="27"/>
+      <c r="V50" s="32">
         <v>322.3</v>
       </c>
-      <c r="W50" s="33">
+      <c r="W50" s="32">
         <v>287.60000000000002</v>
       </c>
-      <c r="X50" s="56"/>
+      <c r="X50" s="54"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="35">
-        <v>0</v>
-      </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="35">
-        <v>0</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="35">
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="8">
         <v>44.7</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="35">
+      <c r="H51" s="34"/>
+      <c r="I51" s="8">
         <v>51.4</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="34">
         <f t="shared" ref="J51:J55" si="54">V51</f>
         <v>51.7</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="8">
         <v>53.4</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="34">
         <f t="shared" ref="L51:L55" si="55">W51</f>
         <v>56.6</v>
       </c>
-      <c r="M51" s="35">
+      <c r="M51" s="8">
         <v>69.2</v>
       </c>
-      <c r="V51" s="35">
+      <c r="V51" s="8">
         <v>51.7</v>
       </c>
-      <c r="W51" s="35">
+      <c r="W51" s="8">
         <v>56.6</v>
       </c>
     </row>
@@ -5231,39 +5358,39 @@
       <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="8">
         <v>66.8</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="35">
+      <c r="D52" s="34"/>
+      <c r="E52" s="8">
         <v>20.7</v>
       </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="35">
+      <c r="F52" s="34"/>
+      <c r="G52" s="8">
         <v>27.6</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="35">
+      <c r="H52" s="34"/>
+      <c r="I52" s="8">
         <v>45</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="34">
         <f t="shared" si="54"/>
         <v>22.5</v>
       </c>
-      <c r="K52" s="35">
+      <c r="K52" s="8">
         <v>10.1</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="34">
         <f t="shared" si="55"/>
         <v>0.6</v>
       </c>
-      <c r="M52" s="35">
+      <c r="M52" s="8">
         <v>0.7</v>
       </c>
-      <c r="V52" s="35">
+      <c r="V52" s="8">
         <v>22.5</v>
       </c>
-      <c r="W52" s="35">
+      <c r="W52" s="8">
         <v>0.6</v>
       </c>
     </row>
@@ -5271,39 +5398,39 @@
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="8">
         <v>11.4</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="35">
+      <c r="D53" s="34"/>
+      <c r="E53" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="35">
+      <c r="F53" s="34"/>
+      <c r="G53" s="8">
         <v>13.3</v>
       </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="35">
+      <c r="H53" s="34"/>
+      <c r="I53" s="8">
         <v>16.3</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="34">
         <f t="shared" si="54"/>
         <v>16.8</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K53" s="8">
         <v>15.2</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="34">
         <f t="shared" si="55"/>
         <v>19</v>
       </c>
-      <c r="M53" s="35">
+      <c r="M53" s="8">
         <v>21.4</v>
       </c>
-      <c r="V53" s="35">
+      <c r="V53" s="8">
         <v>16.8</v>
       </c>
-      <c r="W53" s="35">
+      <c r="W53" s="8">
         <v>19</v>
       </c>
     </row>
@@ -5311,39 +5438,39 @@
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="35">
+      <c r="D54" s="34"/>
+      <c r="E54" s="8">
         <v>4.7</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="35">
+      <c r="F54" s="34"/>
+      <c r="G54" s="8">
         <v>7.9</v>
       </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="35">
+      <c r="H54" s="34"/>
+      <c r="I54" s="8">
         <v>14.3</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="34">
         <f t="shared" si="54"/>
         <v>8.4</v>
       </c>
-      <c r="K54" s="35">
+      <c r="K54" s="8">
         <v>6.3</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="34">
         <f t="shared" si="55"/>
         <v>7.7</v>
       </c>
-      <c r="M54" s="35">
+      <c r="M54" s="8">
         <v>7.9</v>
       </c>
-      <c r="V54" s="35">
+      <c r="V54" s="8">
         <v>8.4</v>
       </c>
-      <c r="W54" s="35">
+      <c r="W54" s="8">
         <v>7.7</v>
       </c>
     </row>
@@ -5351,39 +5478,39 @@
       <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="8">
         <v>96</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="35">
+      <c r="D55" s="34"/>
+      <c r="E55" s="8">
         <v>70.400000000000006</v>
       </c>
-      <c r="F55" s="36"/>
-      <c r="G55" s="35">
+      <c r="F55" s="34"/>
+      <c r="G55" s="8">
         <v>41.1</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="35">
+      <c r="H55" s="34"/>
+      <c r="I55" s="8">
         <v>41.7</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="34">
         <f t="shared" si="54"/>
         <v>40.6</v>
       </c>
-      <c r="K55" s="35">
+      <c r="K55" s="8">
         <v>51.1</v>
       </c>
-      <c r="L55" s="36">
+      <c r="L55" s="34">
         <f t="shared" si="55"/>
         <v>58.5</v>
       </c>
-      <c r="M55" s="35">
+      <c r="M55" s="8">
         <v>69.2</v>
       </c>
-      <c r="V55" s="35">
+      <c r="V55" s="8">
         <v>40.6</v>
       </c>
-      <c r="W55" s="35">
+      <c r="W55" s="8">
         <v>58.5</v>
       </c>
     </row>
@@ -5391,137 +5518,137 @@
       <c r="B56" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="8">
         <f>C49+SUM(C50:C55)</f>
         <v>589.5</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="35">
+      <c r="D56" s="34"/>
+      <c r="E56" s="8">
         <f>E49+SUM(E50:E55)</f>
         <v>553</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="35">
+      <c r="F56" s="34"/>
+      <c r="G56" s="8">
         <f>G49+SUM(G50:G55)</f>
         <v>676</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="35">
+      <c r="H56" s="34"/>
+      <c r="I56" s="8">
         <f>I49+SUM(I50:I55)</f>
         <v>759.19999999999993</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="34">
         <f>J49+SUM(J50:J55)</f>
         <v>710.3</v>
       </c>
-      <c r="K56" s="35">
+      <c r="K56" s="8">
         <f>K49+SUM(K50:K55)</f>
         <v>736.09999999999991</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L56" s="34">
         <f>L49+SUM(L50:L55)</f>
         <v>793.90000000000009</v>
       </c>
-      <c r="M56" s="35">
+      <c r="M56" s="8">
         <f>M49+SUM(M50:M55)</f>
         <v>1114.3000000000002</v>
       </c>
-      <c r="V56" s="35">
+      <c r="V56" s="8">
         <f>V49+SUM(V50:V55)</f>
         <v>710.3</v>
       </c>
-      <c r="W56" s="35">
+      <c r="W56" s="8">
         <f>W49+SUM(W50:W55)</f>
         <v>793.90000000000009</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="M57" s="35"/>
-    </row>
-    <row r="58" spans="2:24" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="35" t="s">
+      <c r="M57" s="8"/>
+    </row>
+    <row r="58" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="8">
         <v>775.3</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="35">
+      <c r="D58" s="34"/>
+      <c r="E58" s="8">
         <v>927.3</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="35">
+      <c r="F58" s="34"/>
+      <c r="G58" s="8">
         <v>1067.5</v>
       </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="35">
+      <c r="H58" s="34"/>
+      <c r="I58" s="8">
         <v>1123</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="34">
         <f>V58</f>
         <v>1167.5999999999999</v>
       </c>
-      <c r="K58" s="35">
+      <c r="K58" s="8">
         <v>1277.0999999999999</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="34">
         <f>W58</f>
         <v>1403.1</v>
       </c>
-      <c r="M58" s="35">
+      <c r="M58" s="8">
         <v>1627</v>
       </c>
-      <c r="N58" s="51"/>
-      <c r="P58" s="36"/>
-      <c r="V58" s="35">
+      <c r="N58" s="49"/>
+      <c r="P58" s="34"/>
+      <c r="V58" s="8">
         <v>1167.5999999999999</v>
       </c>
-      <c r="W58" s="35">
+      <c r="W58" s="8">
         <v>1403.1</v>
       </c>
-      <c r="X58" s="51"/>
+      <c r="X58" s="49"/>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="8">
         <f>C58+C56</f>
         <v>1364.8</v>
       </c>
-      <c r="E59" s="35">
+      <c r="E59" s="8">
         <f>E58+E56</f>
         <v>1480.3</v>
       </c>
-      <c r="G59" s="35">
+      <c r="G59" s="8">
         <f>G58+G56</f>
         <v>1743.5</v>
       </c>
-      <c r="I59" s="35">
+      <c r="I59" s="8">
         <f>I58+I56</f>
         <v>1882.1999999999998</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="34">
         <f>J58+J56</f>
         <v>1877.8999999999999</v>
       </c>
-      <c r="K59" s="35">
+      <c r="K59" s="8">
         <f>K58+K56</f>
         <v>2013.1999999999998</v>
       </c>
-      <c r="L59" s="36">
+      <c r="L59" s="34">
         <f>L58+L56</f>
         <v>2197</v>
       </c>
-      <c r="M59" s="35">
+      <c r="M59" s="8">
         <f>M58+M56</f>
         <v>2741.3</v>
       </c>
-      <c r="V59" s="35">
+      <c r="V59" s="8">
         <f>V58+V56</f>
         <v>1877.8999999999999</v>
       </c>
-      <c r="W59" s="35">
+      <c r="W59" s="8">
         <f>W58+W56</f>
         <v>2197</v>
       </c>
@@ -5530,43 +5657,43 @@
       <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="8">
         <f>C40-C56</f>
         <v>775.3</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="8">
         <f>E40-E56</f>
         <v>927.30000000000018</v>
       </c>
-      <c r="G61" s="35">
+      <c r="G61" s="8">
         <f>G40-G56</f>
         <v>1067.5000000000002</v>
       </c>
-      <c r="I61" s="35">
+      <c r="I61" s="8">
         <f>I40-I56</f>
         <v>1123</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="34">
         <f>J40-J56</f>
         <v>1167.6000000000001</v>
       </c>
-      <c r="K61" s="35">
+      <c r="K61" s="8">
         <f>K40-K56</f>
         <v>1277.1000000000004</v>
       </c>
-      <c r="L61" s="36">
+      <c r="L61" s="34">
         <f>L40-L56</f>
         <v>1403.1000000000004</v>
       </c>
-      <c r="M61" s="35">
+      <c r="M61" s="8">
         <f>M40-M56</f>
         <v>1627</v>
       </c>
-      <c r="V61" s="35">
+      <c r="V61" s="8">
         <f t="shared" ref="V61:W61" si="56">V40-V56</f>
         <v>1167.6000000000001</v>
       </c>
-      <c r="W61" s="35">
+      <c r="W61" s="8">
         <f t="shared" si="56"/>
         <v>1403.1000000000004</v>
       </c>
@@ -5591,7 +5718,7 @@
         <f>I61/I16</f>
         <v>2.9623377739884473</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="34">
         <f>J61/J16</f>
         <v>3.0831792975970429</v>
       </c>
@@ -5599,7 +5726,7 @@
         <f>K61/K16</f>
         <v>3.368768135056714</v>
       </c>
-      <c r="L62" s="36">
+      <c r="L62" s="34">
         <f>L61/L16</f>
         <v>3.7050435701082662</v>
       </c>
@@ -5620,472 +5747,610 @@
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="8">
         <f>C38+C39+C30</f>
         <v>75.7</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="8">
         <f>E38+E39+E30</f>
         <v>70.600000000000009</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="8">
         <f>G38+G39+G30</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="8">
         <f>I38+I39+I30</f>
         <v>130.70000000000002</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="34">
         <f>J38+J39+J30</f>
         <v>145.1</v>
       </c>
-      <c r="K64" s="35">
+      <c r="K64" s="8">
         <f>K38+K39+K30</f>
         <v>141.6</v>
       </c>
-      <c r="L64" s="36">
+      <c r="L64" s="34">
         <f>L38+L39+L30</f>
         <v>166.29999999999998</v>
       </c>
-      <c r="M64" s="35">
+      <c r="M64" s="8">
         <f>M38+M39+M30</f>
         <v>234.4</v>
       </c>
-      <c r="V64" s="35">
+      <c r="V64" s="8">
         <f>V38+V39+V30</f>
         <v>145.1</v>
       </c>
-      <c r="W64" s="35">
+      <c r="W64" s="8">
         <f>W38+W39+W30</f>
         <v>166.29999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="8">
         <f>C50+C42+C48</f>
         <v>253.1</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="8">
         <f>E50+E42+E48</f>
         <v>261.5</v>
       </c>
-      <c r="G65" s="35">
+      <c r="G65" s="8">
         <f>G50+G42+G48</f>
         <v>337.29999999999995</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="8">
         <f>I50+I42+I48</f>
         <v>377</v>
       </c>
-      <c r="J65" s="36">
+      <c r="J65" s="34">
         <f>J50+J42+J48</f>
         <v>326</v>
       </c>
-      <c r="K65" s="35">
+      <c r="K65" s="8">
         <f>K50+K42+K48</f>
         <v>546.79999999999995</v>
       </c>
-      <c r="L65" s="36">
+      <c r="L65" s="34">
         <f>L50+L42+L48</f>
         <v>361</v>
       </c>
-      <c r="M65" s="35">
+      <c r="M65" s="8">
         <f>M50+M42+M48</f>
         <v>802</v>
       </c>
-      <c r="V65" s="35">
+      <c r="V65" s="8">
         <f>V50+V42+V48</f>
         <v>326</v>
       </c>
-      <c r="W65" s="35">
+      <c r="W65" s="8">
         <f>W50+W42+W48</f>
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="8">
         <f>C64-C65</f>
         <v>-177.39999999999998</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="8">
         <f>E64-E65</f>
         <v>-190.89999999999998</v>
       </c>
-      <c r="G66" s="35">
+      <c r="G66" s="8">
         <f>G64-G65</f>
         <v>-247.69999999999993</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="8">
         <f>I64-I65</f>
         <v>-246.29999999999998</v>
       </c>
-      <c r="J66" s="36">
+      <c r="J66" s="34">
         <f>J64-J65</f>
         <v>-180.9</v>
       </c>
-      <c r="K66" s="35">
+      <c r="K66" s="8">
         <f>K64-K65</f>
         <v>-405.19999999999993</v>
       </c>
-      <c r="L66" s="36">
+      <c r="L66" s="34">
         <f>L64-L65</f>
         <v>-194.70000000000002</v>
       </c>
-      <c r="M66" s="35">
+      <c r="M66" s="8">
         <f>M64-M65</f>
         <v>-567.6</v>
       </c>
-      <c r="V66" s="35">
+      <c r="V66" s="8">
         <f>V64-V65</f>
         <v>-180.9</v>
       </c>
-      <c r="W66" s="35">
+      <c r="W66" s="8">
         <f>W64-W65</f>
         <v>-194.70000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="37" t="s">
+    <row r="68" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="35">
         <v>10.8497</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="37">
+      <c r="D68" s="36"/>
+      <c r="E68" s="35">
         <v>14.0044</v>
       </c>
-      <c r="F68" s="38"/>
-      <c r="G68" s="37">
+      <c r="F68" s="36"/>
+      <c r="G68" s="35">
         <v>19.282</v>
       </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="37">
+      <c r="H68" s="36"/>
+      <c r="I68" s="35">
         <v>23.1129</v>
       </c>
-      <c r="J68" s="38">
+      <c r="J68" s="36">
         <f>V68</f>
         <v>23.4651</v>
       </c>
-      <c r="K68" s="37">
+      <c r="K68" s="35">
         <v>28.1996</v>
       </c>
-      <c r="L68" s="38">
+      <c r="L68" s="36">
         <f>W68</f>
         <v>24.9636</v>
       </c>
-      <c r="M68" s="37">
+      <c r="M68" s="35">
         <v>20.45</v>
       </c>
-      <c r="N68" s="52"/>
-      <c r="P68" s="38"/>
-      <c r="T68" s="37">
+      <c r="N68" s="50"/>
+      <c r="P68" s="36"/>
+      <c r="T68" s="35">
         <v>16.279199999999999</v>
       </c>
-      <c r="U68" s="37">
+      <c r="U68" s="35">
         <v>18.8504</v>
       </c>
-      <c r="V68" s="37">
+      <c r="V68" s="35">
         <v>23.4651</v>
       </c>
-      <c r="W68" s="37">
+      <c r="W68" s="35">
         <v>24.9636</v>
       </c>
-      <c r="X68" s="52"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X68" s="50">
+        <f>X15*X75</f>
+        <v>24.650957703880664</v>
+      </c>
+      <c r="Y68" s="86">
+        <f>Y15*Y75</f>
+        <v>21.787658677332278</v>
+      </c>
+      <c r="Z68" s="86">
+        <f t="shared" ref="Z68:AH68" si="58">Z15*Z75</f>
+        <v>25.812505739535535</v>
+      </c>
+      <c r="AA68" s="86">
+        <f t="shared" si="58"/>
+        <v>30.532254568675903</v>
+      </c>
+      <c r="AB68" s="86">
+        <f t="shared" si="58"/>
+        <v>36.147767519188683</v>
+      </c>
+      <c r="AC68" s="86">
+        <f t="shared" si="58"/>
+        <v>42.753123480795495</v>
+      </c>
+      <c r="AD68" s="86">
+        <f t="shared" si="58"/>
+        <v>50.546006618114653</v>
+      </c>
+      <c r="AE68" s="86">
+        <f t="shared" si="58"/>
+        <v>59.74954975840194</v>
+      </c>
+      <c r="AF68" s="86">
+        <f t="shared" si="58"/>
+        <v>70.604915604232787</v>
+      </c>
+      <c r="AG68" s="86">
+        <f t="shared" si="58"/>
+        <v>83.414810329368407</v>
+      </c>
+      <c r="AH68" s="86">
+        <f t="shared" si="58"/>
+        <v>98.53171577356099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="8">
         <f>C68*C16</f>
         <v>4114.4161925447006</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="8">
         <f>E68*E16</f>
         <v>5308.2794942492001</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="8">
         <f>G68*G16</f>
         <v>7310.4731065340002</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I69" s="8">
         <f>I68*I16</f>
         <v>8761.9267890080991</v>
       </c>
-      <c r="J69" s="36">
-        <f t="shared" ref="J69:L69" si="58">J68*J16</f>
+      <c r="J69" s="34">
+        <f t="shared" ref="J69:L69" si="59">J68*J16</f>
         <v>8886.2333699999999</v>
       </c>
-      <c r="K69" s="35">
+      <c r="K69" s="8">
         <f>K68*K16</f>
         <v>10690.468360000001</v>
       </c>
-      <c r="L69" s="36">
-        <f t="shared" si="58"/>
+      <c r="L69" s="34">
+        <f t="shared" si="59"/>
         <v>9453.7153199999993</v>
       </c>
-      <c r="M69" s="35">
+      <c r="M69" s="8">
         <f>M68*M16</f>
         <v>7734.19</v>
       </c>
-      <c r="T69" s="35">
-        <f t="shared" ref="T69:W69" si="59">T68*T16</f>
+      <c r="T69" s="8">
+        <f t="shared" ref="T69:W69" si="60">T68*T16</f>
         <v>6172.4174835960002</v>
       </c>
-      <c r="U69" s="35">
-        <f t="shared" si="59"/>
+      <c r="U69" s="8">
+        <f t="shared" si="60"/>
         <v>7145.9384367832008</v>
       </c>
-      <c r="V69" s="35">
-        <f t="shared" si="59"/>
+      <c r="V69" s="8">
+        <f t="shared" si="60"/>
         <v>8897.9659199999987</v>
       </c>
-      <c r="W69" s="35">
-        <f t="shared" si="59"/>
+      <c r="W69" s="8">
+        <f t="shared" si="60"/>
         <v>9453.7153199999993</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y69" s="87"/>
+      <c r="Z69" s="87"/>
+      <c r="AA69" s="87"/>
+      <c r="AB69" s="87"/>
+      <c r="AC69" s="87"/>
+      <c r="AD69" s="87"/>
+      <c r="AE69" s="87"/>
+      <c r="AF69" s="87"/>
+      <c r="AG69" s="87"/>
+      <c r="AH69" s="87"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="8">
         <f>C69-C66</f>
         <v>4291.8161925447002</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="8">
         <f>E69-E66</f>
         <v>5499.1794942491997</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="8">
         <f>G69-G66</f>
         <v>7558.173106534</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="8">
         <f>I69-I66</f>
         <v>9008.2267890080984</v>
       </c>
-      <c r="J70" s="36">
-        <f t="shared" ref="J70:L70" si="60">J69-J66</f>
+      <c r="J70" s="34">
+        <f t="shared" ref="J70:L70" si="61">J69-J66</f>
         <v>9067.1333699999996</v>
       </c>
-      <c r="K70" s="35">
+      <c r="K70" s="8">
         <f>K69-K66</f>
         <v>11095.668360000001</v>
       </c>
-      <c r="L70" s="36">
-        <f t="shared" si="60"/>
+      <c r="L70" s="34">
+        <f t="shared" si="61"/>
         <v>9648.4153200000001</v>
       </c>
-      <c r="M70" s="35">
+      <c r="M70" s="8">
         <f>M69-M66</f>
         <v>8301.7899999999991</v>
       </c>
-      <c r="T70" s="35">
-        <f t="shared" ref="T70:W70" si="61">T69-T66</f>
+      <c r="T70" s="8">
+        <f t="shared" ref="T70:W70" si="62">T69-T66</f>
         <v>6172.4174835960002</v>
       </c>
-      <c r="U70" s="35">
-        <f t="shared" si="61"/>
+      <c r="U70" s="8">
+        <f t="shared" si="62"/>
         <v>7145.9384367832008</v>
       </c>
-      <c r="V70" s="35">
-        <f t="shared" si="61"/>
+      <c r="V70" s="8">
+        <f t="shared" si="62"/>
         <v>9078.8659199999984</v>
       </c>
-      <c r="W70" s="35">
-        <f t="shared" si="61"/>
+      <c r="W70" s="8">
+        <f t="shared" si="62"/>
         <v>9648.4153200000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A72" s="47">
+      <c r="Y70" s="87"/>
+      <c r="Z70" s="87"/>
+      <c r="AA70" s="87"/>
+      <c r="AB70" s="87"/>
+      <c r="AC70" s="87"/>
+      <c r="AD70" s="87"/>
+      <c r="AE70" s="87"/>
+      <c r="AF70" s="87"/>
+      <c r="AG70" s="87"/>
+      <c r="AH70" s="87"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="Y71" s="87"/>
+      <c r="Z71" s="87"/>
+      <c r="AA71" s="87"/>
+      <c r="AB71" s="87"/>
+      <c r="AC71" s="87"/>
+      <c r="AD71" s="87"/>
+      <c r="AE71" s="87"/>
+      <c r="AF71" s="87"/>
+      <c r="AG71" s="87"/>
+      <c r="AH71" s="87"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A72" s="45">
         <f>AVERAGE(C72:AX72)</f>
         <v>6.6455994380078121</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="44">
+      <c r="C72" s="42">
         <f>C68/C62</f>
         <v>5.306869847213596</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="42">
         <f>E68/E62</f>
         <v>5.7244467747753687</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="42">
         <f>G68/G62</f>
         <v>6.8482183667765799</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="42">
         <f>I68/I62</f>
         <v>7.8022500347356187</v>
       </c>
-      <c r="K72" s="44">
+      <c r="K72" s="42">
         <f>K68/K62</f>
         <v>8.3708937123169669</v>
       </c>
-      <c r="M72" s="44">
+      <c r="M72" s="42">
         <f>M68/M62</f>
         <v>4.7536508912108166</v>
       </c>
-      <c r="V72" s="44">
-        <f t="shared" ref="V72" si="62">V68/V62</f>
+      <c r="V72" s="42">
+        <f t="shared" ref="V72" si="63">V68/V62</f>
         <v>7.620731346351489</v>
       </c>
-      <c r="W72" s="44">
+      <c r="W72" s="42">
         <f>W68/W62</f>
         <v>6.7377345306820589</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A73" s="47">
+      <c r="Y72" s="87"/>
+      <c r="Z72" s="87"/>
+      <c r="AA72" s="87"/>
+      <c r="AB72" s="87"/>
+      <c r="AC72" s="87"/>
+      <c r="AD72" s="87"/>
+      <c r="AE72" s="87"/>
+      <c r="AF72" s="87"/>
+      <c r="AG72" s="87"/>
+      <c r="AH72" s="87"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A73" s="45">
         <f>AVERAGE(C73:AX73)</f>
         <v>6.1262344816301137</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I73" s="44">
+      <c r="I73" s="42">
         <f>I69/SUM(H4:I4)</f>
         <v>6.7239097452291459</v>
       </c>
-      <c r="J73" s="60">
+      <c r="J73" s="58">
         <f>J69/SUM(I4:J4)</f>
         <v>6.7411875056895765</v>
       </c>
-      <c r="K73" s="44">
+      <c r="K73" s="42">
         <f>K69/SUM(J4:K4)</f>
         <v>7.4394351844119697</v>
       </c>
-      <c r="L73" s="60">
+      <c r="L73" s="58">
         <f>L69/SUM(K4:L4)</f>
         <v>6.1979383203304268</v>
       </c>
-      <c r="M73" s="44">
+      <c r="M73" s="42">
         <f>M69/SUM(L4:M4)</f>
         <v>4.6490682856455878</v>
       </c>
-      <c r="T73" s="44">
-        <f t="shared" ref="T73:V73" si="63">T69/T4</f>
+      <c r="T73" s="42">
+        <f t="shared" ref="T73:V73" si="64">T69/T4</f>
         <v>5.0973800343513087</v>
       </c>
-      <c r="U73" s="44">
-        <f t="shared" si="63"/>
+      <c r="U73" s="42">
+        <f t="shared" si="64"/>
         <v>5.3391650005851767</v>
       </c>
-      <c r="V73" s="44">
-        <f t="shared" si="63"/>
+      <c r="V73" s="42">
+        <f t="shared" si="64"/>
         <v>6.7500879380974039</v>
       </c>
-      <c r="W73" s="44">
+      <c r="W73" s="42">
         <f>W69/W4</f>
         <v>6.1979383203304268</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y73" s="87"/>
+      <c r="Z73" s="87"/>
+      <c r="AA73" s="87"/>
+      <c r="AB73" s="87"/>
+      <c r="AC73" s="87"/>
+      <c r="AD73" s="87"/>
+      <c r="AE73" s="87"/>
+      <c r="AF73" s="87"/>
+      <c r="AG73" s="87"/>
+      <c r="AH73" s="87"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A75" s="47">
+      <c r="Y74" s="87"/>
+      <c r="Z74" s="87"/>
+      <c r="AA74" s="87"/>
+      <c r="AB74" s="87"/>
+      <c r="AC74" s="87"/>
+      <c r="AD74" s="87"/>
+      <c r="AE74" s="87"/>
+      <c r="AF74" s="87"/>
+      <c r="AG74" s="87"/>
+      <c r="AH74" s="87"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A75" s="45">
         <f>AVERAGE(C75:AX75)</f>
-        <v>40.569058563096945</v>
+        <v>33.937646934808072</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="G75" s="44">
+      <c r="C75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="G75" s="42">
         <f>G68/(G15+F15)</f>
         <v>40.570085892338092</v>
       </c>
-      <c r="I75" s="44">
+      <c r="I75" s="42">
         <f>I68/(I15+H15)</f>
         <v>49.58603989933718</v>
       </c>
-      <c r="J75" s="60">
+      <c r="J75" s="58">
         <f>J68/(J15+I15)</f>
         <v>43.727166392237116</v>
       </c>
-      <c r="K75" s="44">
+      <c r="K75" s="42">
         <f>K68/(K15+J15)</f>
         <v>40.829325611764631</v>
       </c>
-      <c r="L75" s="60">
+      <c r="L75" s="58">
         <f>L68/(L15+K15)</f>
         <v>38.73571477005347</v>
       </c>
-      <c r="M75" s="44">
+      <c r="M75" s="42">
         <f>M68/(M15+L15)</f>
         <v>34.65810517544427</v>
       </c>
-      <c r="T75" s="44">
-        <f t="shared" ref="T75:V75" si="64">T68/T15</f>
+      <c r="T75" s="42">
+        <f t="shared" ref="T75:V75" si="65">T68/T15</f>
         <v>36.35110414367491</v>
       </c>
-      <c r="U75" s="44">
-        <f t="shared" si="64"/>
+      <c r="U75" s="42">
+        <f t="shared" si="65"/>
         <v>38.752377639822122</v>
       </c>
-      <c r="V75" s="44">
-        <f t="shared" si="64"/>
+      <c r="V75" s="42">
+        <f t="shared" si="65"/>
         <v>43.767663157894724</v>
       </c>
-      <c r="W75" s="44">
+      <c r="W75" s="42">
         <f>W68/W15</f>
         <v>38.713002948402945</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X75" s="89">
+        <v>37</v>
+      </c>
+      <c r="Y75" s="88">
+        <v>27</v>
+      </c>
+      <c r="Z75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AA75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AB75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AC75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AD75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AE75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AF75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AG75" s="88">
+        <v>27</v>
+      </c>
+      <c r="AH75" s="88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M76" s="39"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="M76" s="37"/>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="I77" s="39">
+      <c r="C77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="I77" s="37">
         <f>(I5+H5)/(I40-I49)</f>
         <v>0.14066721115788153</v>
       </c>
-      <c r="J77" s="40">
+      <c r="J77" s="38">
         <f>(J5+I5)/(J40-J49)</f>
         <v>0.14773912509969936</v>
       </c>
-      <c r="K77" s="39">
+      <c r="K77" s="37">
         <f>(K5+J5)/(K40-K49)</f>
         <v>0.15753463709447516</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="38">
         <f>(L5+K5)/(L40-L49)</f>
         <v>0.15214663684468929</v>
       </c>
-      <c r="M77" s="39">
+      <c r="M77" s="37">
         <f>(M5+L5)/(M40-M49)</f>
         <v>0.12516018795386588</v>
       </c>
-      <c r="V77" s="39">
-        <f t="shared" ref="V77" si="65">V5/(V40-V49)</f>
+      <c r="V77" s="37">
+        <f t="shared" ref="V77" si="66">V5/(V40-V49)</f>
         <v>0.14773912509969936</v>
       </c>
-      <c r="W77" s="39">
+      <c r="W77" s="37">
         <f>W5/(W40-W49)</f>
         <v>0.15214663684468929</v>
       </c>
@@ -6102,7 +6367,7 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
     <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 X10" formula="1"/>
-    <ignoredError sqref="D11:F15 E10" evalError="1"/>
+    <ignoredError sqref="D11:F14 E10 E15:F15" evalError="1"/>
     <ignoredError sqref="F10 D10" evalError="1" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId7"/>

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63521639-F323-C44E-8602-0893A97F5EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581A8D4C-B10A-4898-9C17-D4CEC39D8FE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -767,6 +757,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,16 +770,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -800,10 +794,6 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -999,7 +989,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1287,7 +1277,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1297,16 +1287,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B37DFEF-2721-42A7-BBC6-F0639EC003A0}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1321,46 +1311,46 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B5" s="75" t="s">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="G5" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="V5" s="75" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
+      <c r="V5" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="77"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="81"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>22.55</v>
+        <v>21.85</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1382,7 +1372,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1413,13 +1403,13 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>8528.41</v>
+        <v>8263.67</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1443,7 +1433,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1466,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="2:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1499,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1542,13 +1532,13 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>9096.01</v>
+        <v>8831.27</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1570,7 +1560,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G13" s="18"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1590,7 +1580,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G14" s="18"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1612,12 +1602,12 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B15" s="75" t="s">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="G15" s="18"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1637,14 +1627,14 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="85"/>
       <c r="G16" s="18"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1664,14 +1654,14 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="85"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1691,12 +1681,12 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
       <c r="G18" s="18"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1716,12 +1706,12 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
       <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1741,7 +1731,7 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="15"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G20" s="18"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -1756,7 +1746,7 @@
       <c r="R20" s="11"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G21" s="18"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -1771,12 +1761,12 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="75" t="s">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
       <c r="G22" s="18"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1791,14 +1781,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="85"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1813,14 +1803,14 @@
       <c r="R23" s="11"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="84">
         <v>1894</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="85"/>
       <c r="G24" s="18"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1835,10 +1825,10 @@
       <c r="R24" s="11"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
       <c r="G25" s="18"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1853,10 +1843,10 @@
       <c r="R25" s="11"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
       <c r="G26" s="18"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1871,10 +1861,10 @@
       <c r="R26" s="11"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="G27" s="18"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1889,7 +1879,7 @@
       <c r="R27" s="11"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
@@ -1913,14 +1903,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="83"/>
+      <c r="D29" s="87"/>
       <c r="G29" s="18"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1935,7 +1925,7 @@
       <c r="R29" s="11"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G30" s="18"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1950,7 +1940,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G31" s="18"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -1965,12 +1955,12 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="75" t="s">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B32" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
       <c r="G32" s="18"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1985,15 +1975,15 @@
       <c r="R32" s="11"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="88">
         <f>C6/'Financial Model'!M62</f>
-        <v>5.24180086047941</v>
-      </c>
-      <c r="D33" s="85"/>
+        <v>5.0790842040565458</v>
+      </c>
+      <c r="D33" s="89"/>
       <c r="G33" s="18"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -2008,15 +1998,15 @@
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="88">
         <f>C8/SUM('Financial Model'!L4:M4)</f>
-        <v>5.1264787208463574</v>
-      </c>
-      <c r="D34" s="85"/>
+        <v>4.9673419091127675</v>
+      </c>
+      <c r="D34" s="89"/>
       <c r="G34" s="18"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -2031,15 +2021,15 @@
       <c r="R34" s="11"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="88">
         <f>C12/SUM('Financial Model'!L4:M4)</f>
-        <v>5.4676665063717245</v>
-      </c>
-      <c r="D35" s="85"/>
+        <v>5.3085296946381346</v>
+      </c>
+      <c r="D35" s="89"/>
       <c r="G35" s="18"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -2054,15 +2044,15 @@
       <c r="R35" s="11"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="88">
         <f>C6/SUM('Financial Model'!L15:M15)</f>
-        <v>38.217128200795514</v>
-      </c>
-      <c r="D36" s="85"/>
+        <v>37.030787192345102</v>
+      </c>
+      <c r="D36" s="89"/>
       <c r="G36" s="18"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -2077,12 +2067,12 @@
       <c r="R36" s="11"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
       <c r="G37" s="18"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -2097,12 +2087,12 @@
       <c r="R37" s="11"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
       <c r="G38" s="20"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2119,6 +2109,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
@@ -2135,12 +2131,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -2155,40 +2145,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5332D-7B2B-4D46-8BAA-4FBC91F2AA00}">
   <dimension ref="A1:BU77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N26" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X75" sqref="X75"/>
+      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="28"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="28"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="28"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="28"/>
-    <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="28"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="53"/>
-    <col min="15" max="15" width="9.1640625" style="1"/>
-    <col min="16" max="16" width="9.1640625" style="28"/>
-    <col min="17" max="23" width="9.1640625" style="1"/>
-    <col min="24" max="24" width="9.1640625" style="53"/>
-    <col min="25" max="35" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="28"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="28"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="28"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="28"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="28"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="53"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="28"/>
+    <col min="17" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="53"/>
+    <col min="25" max="35" width="9.140625" style="1"/>
     <col min="36" max="36" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1640625" style="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:73" s="21" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:73" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>102</v>
       </c>
@@ -2283,7 +2273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="C2" s="31">
         <v>43008</v>
@@ -2341,7 +2331,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="D3" s="26"/>
       <c r="E3" s="30">
@@ -2373,7 +2363,7 @@
       </c>
       <c r="X3" s="47"/>
     </row>
-    <row r="4" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
@@ -2477,7 +2467,7 @@
         <v>9760.1350482568705</v>
       </c>
     </row>
-    <row r="5" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
         <v>61</v>
       </c>
@@ -2581,7 +2571,7 @@
         <v>1756.8243086862367</v>
       </c>
     </row>
-    <row r="6" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>62</v>
       </c>
@@ -2674,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>63</v>
       </c>
@@ -2767,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>64</v>
       </c>
@@ -2871,7 +2861,7 @@
         <v>0.99896131461441617</v>
       </c>
     </row>
-    <row r="9" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -2975,7 +2965,7 @@
         <v>10.994806573072083</v>
       </c>
     </row>
-    <row r="10" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -3089,7 +3079,7 @@
         <v>1746.8284634277791</v>
       </c>
     </row>
-    <row r="11" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
@@ -3193,7 +3183,7 @@
         <v>366.83397731983359</v>
       </c>
     </row>
-    <row r="12" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>68</v>
       </c>
@@ -3463,7 +3453,7 @@
         <v>932.50236180615627</v>
       </c>
     </row>
-    <row r="13" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>71</v>
       </c>
@@ -3577,7 +3567,7 @@
         <v>1380.1738853911395</v>
       </c>
     </row>
-    <row r="14" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>69</v>
       </c>
@@ -3684,7 +3674,7 @@
         <v>0.17939928319403289</v>
       </c>
     </row>
-    <row r="15" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>70</v>
       </c>
@@ -3798,7 +3788,7 @@
         <v>3.6493228064281849</v>
       </c>
     </row>
-    <row r="16" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +3892,7 @@
         <v>378.2</v>
       </c>
     </row>
-    <row r="18" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>72</v>
       </c>
@@ -3983,7 +3973,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
@@ -4022,7 +4012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37" t="s">
         <v>74</v>
       </c>
@@ -4130,7 +4120,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="s">
         <v>75</v>
       </c>
@@ -4238,7 +4228,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
         <v>104</v>
       </c>
@@ -4339,7 +4329,7 @@
         <v>10602.370197716416</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AJ24" s="62" t="s">
         <v>9</v>
       </c>
@@ -4348,7 +4338,7 @@
         <v>-567.6</v>
       </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AJ25" s="62" t="s">
         <v>111</v>
       </c>
@@ -4357,7 +4347,7 @@
         <v>10034.770197716416</v>
       </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
       <c r="AJ26" s="63" t="s">
         <v>112</v>
       </c>
@@ -4366,7 +4356,7 @@
         <v>26.532972495284021</v>
       </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B27" s="41" t="s">
         <v>76</v>
       </c>
@@ -4375,10 +4365,10 @@
       </c>
       <c r="AK27" s="12">
         <f>Main!C6</f>
-        <v>22.55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.15">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
@@ -4428,10 +4418,10 @@
       </c>
       <c r="AK28" s="70">
         <f>AK26/AK27-1</f>
-        <v>0.17662849203033359</v>
-      </c>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.15">
+        <v>0.21432368399469204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
@@ -4479,7 +4469,7 @@
       <c r="AG29" s="42"/>
       <c r="AH29" s="42"/>
     </row>
-    <row r="30" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>79</v>
       </c>
@@ -4522,7 +4512,7 @@
       </c>
       <c r="X30" s="54"/>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4560,7 +4550,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
@@ -4598,7 +4588,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
@@ -4636,7 +4626,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
@@ -4682,7 +4672,7 @@
         <v>1484.3000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
@@ -4720,7 +4710,7 @@
         <v>228.8</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>85</v>
       </c>
@@ -4758,7 +4748,7 @@
         <v>325.10000000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
@@ -4796,7 +4786,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
@@ -4839,7 +4829,7 @@
       </c>
       <c r="X38" s="54"/>
     </row>
-    <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>94</v>
       </c>
@@ -4882,7 +4872,7 @@
       </c>
       <c r="X39" s="54"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
@@ -4928,7 +4918,7 @@
         <v>2197.0000000000005</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="G41" s="8"/>
       <c r="H41" s="34"/>
       <c r="I41" s="8"/>
@@ -4937,7 +4927,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
     </row>
-    <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
@@ -4980,7 +4970,7 @@
       </c>
       <c r="X42" s="54"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
@@ -5020,7 +5010,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
@@ -5060,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
@@ -5100,7 +5090,7 @@
         <v>242.7</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
@@ -5140,7 +5130,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
@@ -5180,7 +5170,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
@@ -5223,7 +5213,7 @@
       </c>
       <c r="X48" s="54"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
@@ -5271,7 +5261,7 @@
         <v>363.9</v>
       </c>
     </row>
-    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>88</v>
       </c>
@@ -5314,7 +5304,7 @@
       </c>
       <c r="X50" s="54"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -5354,7 +5344,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
@@ -5394,7 +5384,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -5434,7 +5424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
@@ -5474,7 +5464,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
@@ -5514,7 +5504,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>93</v>
       </c>
@@ -5562,10 +5552,10 @@
         <v>793.90000000000009</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="M57" s="8"/>
     </row>
-    <row r="58" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>95</v>
       </c>
@@ -5608,7 +5598,7 @@
       </c>
       <c r="X58" s="49"/>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>96</v>
       </c>
@@ -5653,7 +5643,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
@@ -5698,7 +5688,7 @@
         <v>1403.1000000000004</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
@@ -5743,7 +5733,7 @@
         <v>3.7050435701082662</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5788,7 +5778,7 @@
         <v>166.29999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
@@ -5833,7 +5823,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
@@ -5878,7 +5868,7 @@
         <v>-194.70000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="35" t="s">
         <v>99</v>
       </c>
@@ -5929,48 +5919,48 @@
         <f>X15*X75</f>
         <v>24.650957703880664</v>
       </c>
-      <c r="Y68" s="86">
+      <c r="Y68" s="75">
         <f>Y15*Y75</f>
         <v>21.787658677332278</v>
       </c>
-      <c r="Z68" s="86">
+      <c r="Z68" s="75">
         <f t="shared" ref="Z68:AH68" si="58">Z15*Z75</f>
         <v>25.812505739535535</v>
       </c>
-      <c r="AA68" s="86">
+      <c r="AA68" s="75">
         <f t="shared" si="58"/>
         <v>30.532254568675903</v>
       </c>
-      <c r="AB68" s="86">
+      <c r="AB68" s="75">
         <f t="shared" si="58"/>
         <v>36.147767519188683</v>
       </c>
-      <c r="AC68" s="86">
+      <c r="AC68" s="75">
         <f t="shared" si="58"/>
         <v>42.753123480795495</v>
       </c>
-      <c r="AD68" s="86">
+      <c r="AD68" s="75">
         <f t="shared" si="58"/>
         <v>50.546006618114653</v>
       </c>
-      <c r="AE68" s="86">
+      <c r="AE68" s="75">
         <f t="shared" si="58"/>
         <v>59.74954975840194</v>
       </c>
-      <c r="AF68" s="86">
+      <c r="AF68" s="75">
         <f t="shared" si="58"/>
         <v>70.604915604232787</v>
       </c>
-      <c r="AG68" s="86">
+      <c r="AG68" s="75">
         <f t="shared" si="58"/>
         <v>83.414810329368407</v>
       </c>
-      <c r="AH68" s="86">
+      <c r="AH68" s="75">
         <f t="shared" si="58"/>
         <v>98.53171577356099</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
@@ -6022,18 +6012,18 @@
         <f t="shared" si="60"/>
         <v>9453.7153199999993</v>
       </c>
-      <c r="Y69" s="87"/>
-      <c r="Z69" s="87"/>
-      <c r="AA69" s="87"/>
-      <c r="AB69" s="87"/>
-      <c r="AC69" s="87"/>
-      <c r="AD69" s="87"/>
-      <c r="AE69" s="87"/>
-      <c r="AF69" s="87"/>
-      <c r="AG69" s="87"/>
-      <c r="AH69" s="87"/>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="Y69" s="76"/>
+      <c r="Z69" s="76"/>
+      <c r="AA69" s="76"/>
+      <c r="AB69" s="76"/>
+      <c r="AC69" s="76"/>
+      <c r="AD69" s="76"/>
+      <c r="AE69" s="76"/>
+      <c r="AF69" s="76"/>
+      <c r="AG69" s="76"/>
+      <c r="AH69" s="76"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -6085,30 +6075,30 @@
         <f t="shared" si="62"/>
         <v>9648.4153200000001</v>
       </c>
-      <c r="Y70" s="87"/>
-      <c r="Z70" s="87"/>
-      <c r="AA70" s="87"/>
-      <c r="AB70" s="87"/>
-      <c r="AC70" s="87"/>
-      <c r="AD70" s="87"/>
-      <c r="AE70" s="87"/>
-      <c r="AF70" s="87"/>
-      <c r="AG70" s="87"/>
-      <c r="AH70" s="87"/>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="Y71" s="87"/>
-      <c r="Z71" s="87"/>
-      <c r="AA71" s="87"/>
-      <c r="AB71" s="87"/>
-      <c r="AC71" s="87"/>
-      <c r="AD71" s="87"/>
-      <c r="AE71" s="87"/>
-      <c r="AF71" s="87"/>
-      <c r="AG71" s="87"/>
-      <c r="AH71" s="87"/>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="Y70" s="76"/>
+      <c r="Z70" s="76"/>
+      <c r="AA70" s="76"/>
+      <c r="AB70" s="76"/>
+      <c r="AC70" s="76"/>
+      <c r="AD70" s="76"/>
+      <c r="AE70" s="76"/>
+      <c r="AF70" s="76"/>
+      <c r="AG70" s="76"/>
+      <c r="AH70" s="76"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y71" s="76"/>
+      <c r="Z71" s="76"/>
+      <c r="AA71" s="76"/>
+      <c r="AB71" s="76"/>
+      <c r="AC71" s="76"/>
+      <c r="AD71" s="76"/>
+      <c r="AE71" s="76"/>
+      <c r="AF71" s="76"/>
+      <c r="AG71" s="76"/>
+      <c r="AH71" s="76"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <f>AVERAGE(C72:AX72)</f>
         <v>6.6455994380078121</v>
@@ -6148,18 +6138,18 @@
         <f>W68/W62</f>
         <v>6.7377345306820589</v>
       </c>
-      <c r="Y72" s="87"/>
-      <c r="Z72" s="87"/>
-      <c r="AA72" s="87"/>
-      <c r="AB72" s="87"/>
-      <c r="AC72" s="87"/>
-      <c r="AD72" s="87"/>
-      <c r="AE72" s="87"/>
-      <c r="AF72" s="87"/>
-      <c r="AG72" s="87"/>
-      <c r="AH72" s="87"/>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="Y72" s="76"/>
+      <c r="Z72" s="76"/>
+      <c r="AA72" s="76"/>
+      <c r="AB72" s="76"/>
+      <c r="AC72" s="76"/>
+      <c r="AD72" s="76"/>
+      <c r="AE72" s="76"/>
+      <c r="AF72" s="76"/>
+      <c r="AG72" s="76"/>
+      <c r="AH72" s="76"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <f>AVERAGE(C73:AX73)</f>
         <v>6.1262344816301137</v>
@@ -6203,33 +6193,33 @@
         <f>W69/W4</f>
         <v>6.1979383203304268</v>
       </c>
-      <c r="Y73" s="87"/>
-      <c r="Z73" s="87"/>
-      <c r="AA73" s="87"/>
-      <c r="AB73" s="87"/>
-      <c r="AC73" s="87"/>
-      <c r="AD73" s="87"/>
-      <c r="AE73" s="87"/>
-      <c r="AF73" s="87"/>
-      <c r="AG73" s="87"/>
-      <c r="AH73" s="87"/>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="Y73" s="76"/>
+      <c r="Z73" s="76"/>
+      <c r="AA73" s="76"/>
+      <c r="AB73" s="76"/>
+      <c r="AC73" s="76"/>
+      <c r="AD73" s="76"/>
+      <c r="AE73" s="76"/>
+      <c r="AF73" s="76"/>
+      <c r="AG73" s="76"/>
+      <c r="AH73" s="76"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y74" s="87"/>
-      <c r="Z74" s="87"/>
-      <c r="AA74" s="87"/>
-      <c r="AB74" s="87"/>
-      <c r="AC74" s="87"/>
-      <c r="AD74" s="87"/>
-      <c r="AE74" s="87"/>
-      <c r="AF74" s="87"/>
-      <c r="AG74" s="87"/>
-      <c r="AH74" s="87"/>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="Y74" s="76"/>
+      <c r="Z74" s="76"/>
+      <c r="AA74" s="76"/>
+      <c r="AB74" s="76"/>
+      <c r="AC74" s="76"/>
+      <c r="AD74" s="76"/>
+      <c r="AE74" s="76"/>
+      <c r="AF74" s="76"/>
+      <c r="AG74" s="76"/>
+      <c r="AH74" s="76"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <f>AVERAGE(C75:AX75)</f>
         <v>33.937646934808072</v>
@@ -6279,47 +6269,47 @@
         <f>W68/W15</f>
         <v>38.713002948402945</v>
       </c>
-      <c r="X75" s="89">
+      <c r="X75" s="78">
         <v>37</v>
       </c>
-      <c r="Y75" s="88">
+      <c r="Y75" s="77">
         <v>27</v>
       </c>
-      <c r="Z75" s="88">
+      <c r="Z75" s="77">
         <v>27</v>
       </c>
-      <c r="AA75" s="88">
+      <c r="AA75" s="77">
         <v>27</v>
       </c>
-      <c r="AB75" s="88">
+      <c r="AB75" s="77">
         <v>27</v>
       </c>
-      <c r="AC75" s="88">
+      <c r="AC75" s="77">
         <v>27</v>
       </c>
-      <c r="AD75" s="88">
+      <c r="AD75" s="77">
         <v>27</v>
       </c>
-      <c r="AE75" s="88">
+      <c r="AE75" s="77">
         <v>27</v>
       </c>
-      <c r="AF75" s="88">
+      <c r="AF75" s="77">
         <v>27</v>
       </c>
-      <c r="AG75" s="88">
+      <c r="AG75" s="77">
         <v>27</v>
       </c>
-      <c r="AH75" s="88">
+      <c r="AH75" s="77">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="37"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>27</v>
       </c>

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581A8D4C-B10A-4898-9C17-D4CEC39D8FE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D767B1BF-B9C9-4AF0-9015-0F184F2CD8FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,16 +770,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,6 +794,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1288,7 +1289,7 @@
   <dimension ref="B2:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1349,8 +1350,8 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>21.85</v>
+      <c r="C6" s="90">
+        <v>22.277000000000001</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1409,7 +1410,7 @@
       </c>
       <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>8263.67</v>
+        <v>8425.1614000000009</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1538,7 +1539,7 @@
       </c>
       <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>8831.27</v>
+        <v>8992.7614000000012</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1631,10 +1632,10 @@
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="83"/>
       <c r="G16" s="18"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1658,10 +1659,10 @@
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="83"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1685,8 +1686,8 @@
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="G18" s="18"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1710,8 +1711,8 @@
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
       <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1785,10 +1786,10 @@
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="83"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1807,10 +1808,10 @@
       <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="82">
         <v>1894</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="83"/>
       <c r="G24" s="18"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1827,8 +1828,8 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="G25" s="18"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1845,8 +1846,8 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="G26" s="18"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1863,8 +1864,8 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="G27" s="18"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1981,7 +1982,7 @@
       </c>
       <c r="C33" s="88">
         <f>C6/'Financial Model'!M62</f>
-        <v>5.0790842040565458</v>
+        <v>5.1783413644744929</v>
       </c>
       <c r="D33" s="89"/>
       <c r="G33" s="18"/>
@@ -2004,7 +2005,7 @@
       </c>
       <c r="C34" s="88">
         <f>C8/SUM('Financial Model'!L4:M4)</f>
-        <v>4.9673419091127675</v>
+        <v>5.0644153642702578</v>
       </c>
       <c r="D34" s="89"/>
       <c r="G34" s="18"/>
@@ -2027,7 +2028,7 @@
       </c>
       <c r="C35" s="88">
         <f>C12/SUM('Financial Model'!L4:M4)</f>
-        <v>5.3085296946381346</v>
+        <v>5.405603149795625</v>
       </c>
       <c r="D35" s="89"/>
       <c r="G35" s="18"/>
@@ -2050,7 +2051,7 @@
       </c>
       <c r="C36" s="88">
         <f>C6/SUM('Financial Model'!L15:M15)</f>
-        <v>37.030787192345102</v>
+        <v>37.754455207499859</v>
       </c>
       <c r="D36" s="89"/>
       <c r="G36" s="18"/>
@@ -2071,8 +2072,8 @@
       <c r="B37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
       <c r="G37" s="18"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -2091,8 +2092,8 @@
       <c r="B38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
       <c r="G38" s="20"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2109,12 +2110,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
@@ -2131,6 +2126,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -4365,7 +4366,7 @@
       </c>
       <c r="AK27" s="12">
         <f>Main!C6</f>
-        <v>21.85</v>
+        <v>22.277000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.2">
@@ -4418,7 +4419,7 @@
       </c>
       <c r="AK28" s="70">
         <f>AK26/AK27-1</f>
-        <v>0.21432368399469204</v>
+        <v>0.19104782938833864</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D767B1BF-B9C9-4AF0-9015-0F184F2CD8FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55024BA9-4FD8-43E8-92AE-B5FD82249ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -727,9 +727,6 @@
     <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -761,6 +758,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,16 +768,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,7 +792,10 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1288,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B37DFEF-2721-42A7-BBC6-F0639EC003A0}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1350,8 +1351,8 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="90">
-        <v>22.277000000000001</v>
+      <c r="C6" s="78">
+        <v>21.17</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1367,7 +1368,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="V6" s="71"/>
+      <c r="V6" s="70"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -1398,7 +1399,7 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -1410,7 +1411,7 @@
       </c>
       <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>8425.1614000000009</v>
+        <v>8006.4940000000006</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1426,7 +1427,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="V8" s="72" t="s">
+      <c r="V8" s="71" t="s">
         <v>115</v>
       </c>
       <c r="W8" s="11"/>
@@ -1459,7 +1460,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="V9" s="73" t="s">
+      <c r="V9" s="72" t="s">
         <v>116</v>
       </c>
       <c r="W9" s="11"/>
@@ -1492,7 +1493,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="V10" s="73" t="s">
+      <c r="V10" s="72" t="s">
         <v>117</v>
       </c>
       <c r="W10" s="11"/>
@@ -1525,7 +1526,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
-      <c r="V11" s="73" t="s">
+      <c r="V11" s="72" t="s">
         <v>118</v>
       </c>
       <c r="W11" s="11"/>
@@ -1539,7 +1540,7 @@
       </c>
       <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>8992.7614000000012</v>
+        <v>8574.094000000001</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1555,7 +1556,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
-      <c r="V12" s="71"/>
+      <c r="V12" s="70"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -1575,7 +1576,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -1595,7 +1596,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
-      <c r="V14" s="71" t="s">
+      <c r="V14" s="70" t="s">
         <v>120</v>
       </c>
       <c r="W14" s="11"/>
@@ -1622,7 +1623,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -1632,10 +1633,10 @@
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="85"/>
       <c r="G16" s="18"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1649,7 +1650,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="70"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -1659,10 +1660,10 @@
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="85"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1676,7 +1677,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
-      <c r="V17" s="71"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
@@ -1686,8 +1687,8 @@
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
       <c r="G18" s="18"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1701,7 +1702,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
-      <c r="V18" s="71"/>
+      <c r="V18" s="70"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -1711,8 +1712,8 @@
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
       <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1726,7 +1727,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
-      <c r="V19" s="74"/>
+      <c r="V19" s="73"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
@@ -1786,10 +1787,10 @@
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="85"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1808,10 +1809,10 @@
       <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="84">
         <v>1894</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="85"/>
       <c r="G24" s="18"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1828,8 +1829,8 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
       <c r="G25" s="18"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1846,8 +1847,8 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
       <c r="G26" s="18"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1864,8 +1865,8 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="G27" s="18"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1890,6 +1891,7 @@
       <c r="D28" s="43">
         <v>44882</v>
       </c>
+      <c r="E28" s="90"/>
       <c r="G28" s="18"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -1982,7 +1984,7 @@
       </c>
       <c r="C33" s="88">
         <f>C6/'Financial Model'!M62</f>
-        <v>5.1783413644744929</v>
+        <v>4.9210165949600491</v>
       </c>
       <c r="D33" s="89"/>
       <c r="G33" s="18"/>
@@ -2005,7 +2007,7 @@
       </c>
       <c r="C34" s="88">
         <f>C8/SUM('Financial Model'!L4:M4)</f>
-        <v>5.0644153642702578</v>
+        <v>4.8127518634287094</v>
       </c>
       <c r="D34" s="89"/>
       <c r="G34" s="18"/>
@@ -2028,7 +2030,7 @@
       </c>
       <c r="C35" s="88">
         <f>C12/SUM('Financial Model'!L4:M4)</f>
-        <v>5.405603149795625</v>
+        <v>5.1539396489540765</v>
       </c>
       <c r="D35" s="89"/>
       <c r="G35" s="18"/>
@@ -2051,7 +2053,7 @@
       </c>
       <c r="C36" s="88">
         <f>C6/SUM('Financial Model'!L15:M15)</f>
-        <v>37.754455207499859</v>
+        <v>35.878341641278986</v>
       </c>
       <c r="D36" s="89"/>
       <c r="G36" s="18"/>
@@ -2072,8 +2074,11 @@
       <c r="B37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
+      <c r="C37" s="88">
+        <f>C12/SUM('Financial Model'!L12:M12)</f>
+        <v>38.397196596506951</v>
+      </c>
+      <c r="D37" s="89"/>
       <c r="G37" s="18"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -2092,8 +2097,8 @@
       <c r="B38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
       <c r="G38" s="20"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2110,6 +2115,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
@@ -2126,12 +2137,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -2146,11 +2151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5332D-7B2B-4D46-8BAA-4FBC91F2AA00}">
   <dimension ref="A1:BU77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2231,7 +2236,7 @@
       <c r="T1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="58" t="s">
         <v>47</v>
       </c>
       <c r="V1" s="21" t="s">
@@ -2286,28 +2291,28 @@
       <c r="E2" s="31">
         <v>43373</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="55">
         <f>T2</f>
         <v>43555</v>
       </c>
       <c r="G2" s="31">
         <v>43738</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="55">
         <f>U2</f>
         <v>43921</v>
       </c>
       <c r="I2" s="31">
         <v>44104</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="55">
         <f>V2</f>
         <v>44286</v>
       </c>
       <c r="K2" s="31">
         <v>44469</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="55">
         <f>W2</f>
         <v>44651</v>
       </c>
@@ -2339,7 +2344,7 @@
         <v>44885</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="H3" s="57">
+      <c r="H3" s="56">
         <f>U3</f>
         <v>44756</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>44884</v>
       </c>
       <c r="J3" s="26"/>
-      <c r="L3" s="57">
+      <c r="L3" s="56">
         <f>W3</f>
         <v>44728</v>
       </c>
@@ -3907,12 +3912,18 @@
         <f>G4/E4-1</f>
         <v>0.11648163962425295</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="40">
+        <f>H4/F4-1</f>
+        <v>9.4819315637991508E-2</v>
+      </c>
       <c r="I18" s="39">
         <f>I4/G4-1</f>
         <v>-5.4000305950742011E-2</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="40">
+        <f>J4/H4-1</f>
+        <v>2.2053454067474831E-2</v>
+      </c>
       <c r="K18" s="39">
         <f>K4/I4-1</f>
         <v>0.19210866752910749</v>
@@ -3974,9 +3985,26 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="37" t="s">
         <v>73</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="F19" s="38">
+        <f>F4/E4-1</f>
+        <v>6.8146883005977932E-2</v>
+      </c>
+      <c r="G19" s="37">
+        <f>G4/F4-1</f>
+        <v>4.5251039334825549E-2</v>
+      </c>
+      <c r="H19" s="38">
+        <f>H4/G4-1</f>
+        <v>4.7422364999235134E-2</v>
+      </c>
+      <c r="I19" s="37">
+        <f>I4/H4-1</f>
+        <v>-9.6830728786329923E-2</v>
       </c>
       <c r="J19" s="38">
         <f>J4/I4-1</f>
@@ -3997,21 +4025,23 @@
       <c r="N19" s="52">
         <v>0.13</v>
       </c>
-      <c r="S19" s="55" t="s">
+      <c r="P19" s="38"/>
+      <c r="S19" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="T19" s="55" t="s">
+      <c r="T19" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="V19" s="55" t="s">
+      <c r="V19" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="W19" s="55" t="s">
+      <c r="W19" s="91" t="s">
         <v>105</v>
       </c>
+      <c r="X19" s="52"/>
     </row>
     <row r="21" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37" t="s">
@@ -4026,12 +4056,18 @@
         <f>E5/E4</f>
         <v>0.17147736976942785</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="38">
+        <f>F5/F4</f>
+        <v>0.18771985929005436</v>
+      </c>
       <c r="G21" s="37">
         <f>G5/G4</f>
         <v>0.17072051399724641</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="38">
+        <f>H5/H4</f>
+        <v>0.17788812618665109</v>
+      </c>
       <c r="I21" s="37">
         <f>I5/I4</f>
         <v>0.16510349288486417</v>
@@ -4114,10 +4150,10 @@
         <f t="shared" si="38"/>
         <v>0.18</v>
       </c>
-      <c r="AJ21" s="60" t="s">
+      <c r="AJ21" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="AK21" s="65">
+      <c r="AK21" s="64">
         <v>-0.01</v>
       </c>
     </row>
@@ -4134,12 +4170,18 @@
         <f>E12/E4</f>
         <v>0.12741246797608879</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="38">
+        <f>F12/F4</f>
+        <v>0.15222257755036778</v>
+      </c>
       <c r="G22" s="37">
         <f>G12/G4</f>
         <v>0.13002906532048342</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="38">
+        <f>H12/H4</f>
+        <v>0.14517306849715206</v>
+      </c>
       <c r="I22" s="37">
         <f>I12/I4</f>
         <v>0.125</v>
@@ -4222,10 +4264,10 @@
         <f t="shared" si="42"/>
         <v>0.14139092126132088</v>
       </c>
-      <c r="AJ22" s="61" t="s">
+      <c r="AJ22" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="AK22" s="66">
+      <c r="AK22" s="65">
         <v>0.08</v>
       </c>
     </row>
@@ -4242,12 +4284,18 @@
         <f>E11/E10</f>
         <v>0.21058201058201056</v>
       </c>
-      <c r="F23" s="38"/>
+      <c r="F23" s="38">
+        <f>F11/F10</f>
+        <v>0.15151515151515149</v>
+      </c>
       <c r="G23" s="37">
         <f>G11/G10</f>
         <v>0.19659735349716445</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="38">
+        <f>H11/H10</f>
+        <v>0.15976331360946744</v>
+      </c>
       <c r="I23" s="37">
         <f>I11/I10</f>
         <v>0.19730010384215993</v>
@@ -4322,16 +4370,16 @@
       <c r="AH23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AJ23" s="61" t="s">
+      <c r="AJ23" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="AK23" s="67">
+      <c r="AK23" s="66">
         <f>NPV(AK22,X12:BU12)</f>
         <v>10602.370197716416</v>
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ24" s="62" t="s">
+      <c r="AJ24" s="61" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="12">
@@ -4340,19 +4388,19 @@
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ25" s="62" t="s">
+      <c r="AJ25" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="AK25" s="68">
+      <c r="AK25" s="67">
         <f>AK23+AK24</f>
         <v>10034.770197716416</v>
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ26" s="63" t="s">
+      <c r="AJ26" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AK26" s="69">
+      <c r="AK26" s="68">
         <f>AK25/Main!C7</f>
         <v>26.532972495284021</v>
       </c>
@@ -4361,12 +4409,12 @@
       <c r="B27" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AJ27" s="62" t="s">
+      <c r="AJ27" s="61" t="s">
         <v>113</v>
       </c>
       <c r="AK27" s="12">
         <f>Main!C6</f>
-        <v>22.277000000000001</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.2">
@@ -4381,11 +4429,18 @@
         <f>655.6+229.9</f>
         <v>885.5</v>
       </c>
+      <c r="F28" s="34">
+        <f>T28</f>
+        <v>939.2</v>
+      </c>
       <c r="G28" s="8">
         <f>765.5+272.4</f>
         <v>1037.9000000000001</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="34">
+        <f>U28</f>
+        <v>1166.8</v>
+      </c>
       <c r="I28" s="8">
         <f>829.8+303.8</f>
         <v>1133.5999999999999</v>
@@ -4406,6 +4461,14 @@
         <f>1101.8+418.6</f>
         <v>1520.4</v>
       </c>
+      <c r="T28" s="8">
+        <f>694+245.2</f>
+        <v>939.2</v>
+      </c>
+      <c r="U28" s="8">
+        <f>838.4+328.4</f>
+        <v>1166.8</v>
+      </c>
       <c r="V28" s="8">
         <f>808.5+290</f>
         <v>1098.5</v>
@@ -4414,12 +4477,12 @@
         <f>908.7+325.2</f>
         <v>1233.9000000000001</v>
       </c>
-      <c r="AJ28" s="64" t="s">
+      <c r="AJ28" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AK28" s="70">
+      <c r="AK28" s="69">
         <f>AK26/AK27-1</f>
-        <v>0.19104782938833864</v>
+        <v>0.25332888499215955</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
@@ -4432,10 +4495,17 @@
       <c r="E29" s="1">
         <v>109.6</v>
       </c>
+      <c r="F29" s="34">
+        <f>T29</f>
+        <v>112.4</v>
+      </c>
       <c r="G29" s="8">
         <v>171.7</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="34">
+        <f>U29</f>
+        <v>184.3</v>
+      </c>
       <c r="I29" s="8">
         <v>184.7</v>
       </c>
@@ -4452,6 +4522,12 @@
       </c>
       <c r="M29" s="8">
         <v>224.5</v>
+      </c>
+      <c r="T29" s="8">
+        <v>112.4</v>
+      </c>
+      <c r="U29" s="8">
+        <v>184.3</v>
       </c>
       <c r="V29" s="8">
         <v>180.8</v>
@@ -4481,11 +4557,17 @@
       <c r="E30" s="2">
         <v>3.9</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="33">
+        <f>T30</f>
+        <v>3.9</v>
+      </c>
       <c r="G30" s="32">
         <v>5.5</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="33">
+        <f>U30</f>
+        <v>4.8</v>
+      </c>
       <c r="I30" s="32">
         <v>4.8</v>
       </c>
@@ -4505,6 +4587,12 @@
       </c>
       <c r="N30" s="54"/>
       <c r="P30" s="27"/>
+      <c r="T30" s="32">
+        <v>3.9</v>
+      </c>
+      <c r="U30" s="32">
+        <v>4.8</v>
+      </c>
       <c r="V30" s="32">
         <v>9.3000000000000007</v>
       </c>
@@ -4523,15 +4611,22 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
+      <c r="F31" s="34">
+        <f t="shared" ref="F31:F33" si="48">T31</f>
+        <v>0</v>
+      </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="34"/>
+      <c r="H31" s="34">
+        <f t="shared" ref="H31:H33" si="49">U31</f>
+        <v>5.4</v>
+      </c>
       <c r="I31" s="8">
         <v>0</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" ref="J31:J33" si="48">V31</f>
+        <f t="shared" ref="J31:J33" si="50">V31</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
@@ -4544,6 +4639,12 @@
       <c r="M31" s="8">
         <v>43.9</v>
       </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="U31" s="8">
+        <v>5.4</v>
+      </c>
       <c r="V31" s="8">
         <v>0</v>
       </c>
@@ -4561,15 +4662,22 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
+      <c r="F32" s="34">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="34"/>
+      <c r="H32" s="34">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
       <c r="I32" s="8">
         <v>0</v>
       </c>
       <c r="J32" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>13.9</v>
       </c>
       <c r="K32" s="8">
@@ -4582,6 +4690,12 @@
       <c r="M32" s="8">
         <v>14.7</v>
       </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
       <c r="V32" s="8">
         <v>13.9</v>
       </c>
@@ -4599,15 +4713,22 @@
       <c r="E33" s="1">
         <v>30.9</v>
       </c>
+      <c r="F33" s="34">
+        <f t="shared" si="48"/>
+        <v>1.4</v>
+      </c>
       <c r="G33" s="8">
         <v>1.4</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="34">
+        <f t="shared" si="49"/>
+        <v>1.3</v>
+      </c>
       <c r="I33" s="8">
         <v>5.6</v>
       </c>
       <c r="J33" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.3</v>
       </c>
       <c r="K33" s="8">
@@ -4620,6 +4741,12 @@
       <c r="M33" s="8">
         <v>2.8</v>
       </c>
+      <c r="T33" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="U33" s="8">
+        <v>1.3</v>
+      </c>
       <c r="V33" s="8">
         <v>1.3</v>
       </c>
@@ -4639,11 +4766,18 @@
         <f>SUM(E28:E33)</f>
         <v>1029.9000000000001</v>
       </c>
+      <c r="F34" s="34">
+        <f>SUM(F28:F33)</f>
+        <v>1056.9000000000003</v>
+      </c>
       <c r="G34" s="8">
         <f>SUM(G28:G33)</f>
         <v>1216.5000000000002</v>
       </c>
-      <c r="H34" s="34"/>
+      <c r="H34" s="34">
+        <f>SUM(H28:H33)</f>
+        <v>1362.6</v>
+      </c>
       <c r="I34" s="8">
         <f>SUM(I28:I33)</f>
         <v>1328.6999999999998</v>
@@ -4664,6 +4798,14 @@
         <f>SUM(M28:M33)</f>
         <v>1826.1000000000001</v>
       </c>
+      <c r="T34" s="8">
+        <f>SUM(T28:T33)</f>
+        <v>1056.9000000000003</v>
+      </c>
+      <c r="U34" s="8">
+        <f>SUM(U28:U33)</f>
+        <v>1362.6</v>
+      </c>
       <c r="V34" s="8">
         <f>SUM(V28:V33)</f>
         <v>1303.8</v>
@@ -4683,15 +4825,22 @@
       <c r="E35" s="1">
         <v>141.19999999999999</v>
       </c>
+      <c r="F35" s="34">
+        <f t="shared" ref="F35:F37" si="51">T35</f>
+        <v>144.30000000000001</v>
+      </c>
       <c r="G35" s="8">
         <v>162.9</v>
       </c>
-      <c r="H35" s="34"/>
+      <c r="H35" s="34">
+        <f t="shared" ref="H35:H37" si="52">U35</f>
+        <v>170.6</v>
+      </c>
       <c r="I35" s="8">
         <v>175.8</v>
       </c>
       <c r="J35" s="34">
-        <f t="shared" ref="J35:J37" si="49">V35</f>
+        <f t="shared" ref="J35:J37" si="53">V35</f>
         <v>167.8</v>
       </c>
       <c r="K35" s="8">
@@ -4704,6 +4853,12 @@
       <c r="M35" s="8">
         <v>308.8</v>
       </c>
+      <c r="T35" s="8">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="U35" s="8">
+        <v>170.6</v>
+      </c>
       <c r="V35" s="8">
         <v>167.8</v>
       </c>
@@ -4721,15 +4876,22 @@
       <c r="E36" s="1">
         <v>241.8</v>
       </c>
+      <c r="F36" s="34">
+        <f t="shared" si="51"/>
+        <v>259.60000000000002</v>
+      </c>
       <c r="G36" s="8">
         <v>275.2</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="34">
+        <f t="shared" si="52"/>
+        <v>286.60000000000002</v>
+      </c>
       <c r="I36" s="8">
         <v>245.3</v>
       </c>
       <c r="J36" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>268</v>
       </c>
       <c r="K36" s="8">
@@ -4742,6 +4904,12 @@
       <c r="M36" s="8">
         <v>389.9</v>
       </c>
+      <c r="T36" s="8">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="U36" s="8">
+        <v>286.60000000000002</v>
+      </c>
       <c r="V36" s="8">
         <v>268</v>
       </c>
@@ -4759,15 +4927,22 @@
       <c r="E37" s="1">
         <v>0.7</v>
       </c>
+      <c r="F37" s="34">
+        <f t="shared" si="51"/>
+        <v>0.2</v>
+      </c>
       <c r="G37" s="8">
         <v>4.8</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="34">
+        <f t="shared" si="52"/>
+        <v>10.7</v>
+      </c>
       <c r="I37" s="8">
         <v>6.5</v>
       </c>
       <c r="J37" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2.5</v>
       </c>
       <c r="K37" s="8">
@@ -4780,6 +4955,12 @@
       <c r="M37" s="8">
         <v>1.9</v>
       </c>
+      <c r="T37" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U37" s="8">
+        <v>10.7</v>
+      </c>
       <c r="V37" s="8">
         <v>2.5</v>
       </c>
@@ -4798,16 +4979,22 @@
       <c r="E38" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="8">
+      <c r="F38" s="33">
+        <f t="shared" ref="F38:F39" si="54">T38</f>
+        <v>81.2</v>
+      </c>
+      <c r="G38" s="32">
         <v>83.2</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="33">
+        <f t="shared" ref="H38:H39" si="55">U38</f>
+        <v>106.3</v>
+      </c>
       <c r="I38" s="32">
         <v>125.5</v>
       </c>
       <c r="J38" s="33">
-        <f t="shared" ref="J38:J39" si="50">V38</f>
+        <f t="shared" ref="J38:J39" si="56">V38</f>
         <v>134.1</v>
       </c>
       <c r="K38" s="32">
@@ -4822,6 +5009,12 @@
       </c>
       <c r="N38" s="54"/>
       <c r="P38" s="27"/>
+      <c r="T38" s="32">
+        <v>81.2</v>
+      </c>
+      <c r="U38" s="32">
+        <v>106.3</v>
+      </c>
       <c r="V38" s="32">
         <v>134.1</v>
       </c>
@@ -4841,16 +5034,22 @@
       <c r="E39" s="2">
         <v>0.3</v>
       </c>
-      <c r="F39" s="27"/>
+      <c r="F39" s="33">
+        <f t="shared" si="54"/>
+        <v>0.9</v>
+      </c>
       <c r="G39" s="32">
         <v>0.9</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="33">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
       <c r="I39" s="32">
         <v>0.4</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1.7</v>
       </c>
       <c r="K39" s="32">
@@ -4865,6 +5064,12 @@
       </c>
       <c r="N39" s="54"/>
       <c r="P39" s="27"/>
+      <c r="T39" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="U39" s="32">
+        <v>1</v>
+      </c>
       <c r="V39" s="32">
         <v>1.7</v>
       </c>
@@ -4885,11 +5090,18 @@
         <f>SUM(E35:E39)+E34</f>
         <v>1480.3000000000002</v>
       </c>
+      <c r="F40" s="34">
+        <f>SUM(F35:F39)+F34</f>
+        <v>1543.1000000000004</v>
+      </c>
       <c r="G40" s="8">
         <f>SUM(G35:G39)+G34</f>
         <v>1743.5000000000002</v>
       </c>
-      <c r="H40" s="34"/>
+      <c r="H40" s="34">
+        <f>SUM(H35:H39)+H34</f>
+        <v>1937.8</v>
+      </c>
       <c r="I40" s="8">
         <f>SUM(I35:I39)+I34</f>
         <v>1882.1999999999998</v>
@@ -4909,6 +5121,14 @@
       <c r="M40" s="8">
         <f>SUM(M35:M39)+M34</f>
         <v>2741.3</v>
+      </c>
+      <c r="T40" s="8">
+        <f>SUM(T35:T39)+T34</f>
+        <v>1543.1000000000004</v>
+      </c>
+      <c r="U40" s="8">
+        <f>SUM(U35:U39)+U34</f>
+        <v>1937.8</v>
       </c>
       <c r="V40" s="8">
         <f>SUM(V35:V39)+V34</f>
@@ -4925,6 +5145,8 @@
       <c r="I41" s="8"/>
       <c r="L41" s="34"/>
       <c r="M41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
     </row>
@@ -4939,11 +5161,17 @@
       <c r="E42" s="32">
         <v>3</v>
       </c>
-      <c r="F42" s="33"/>
+      <c r="F42" s="33">
+        <f t="shared" ref="F42" si="57">T42</f>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="G42" s="32">
         <v>1.7</v>
       </c>
-      <c r="H42" s="33"/>
+      <c r="H42" s="33">
+        <f>U42</f>
+        <v>75.099999999999994</v>
+      </c>
       <c r="I42" s="32">
         <v>76.099999999999994</v>
       </c>
@@ -4963,6 +5191,12 @@
       </c>
       <c r="N42" s="54"/>
       <c r="P42" s="27"/>
+      <c r="T42" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U42" s="32">
+        <v>75.099999999999994</v>
+      </c>
       <c r="V42" s="32">
         <v>3</v>
       </c>
@@ -4982,11 +5216,17 @@
       <c r="E43" s="8">
         <v>0</v>
       </c>
-      <c r="F43" s="34"/>
+      <c r="F43" s="34">
+        <f>T43</f>
+        <v>0</v>
+      </c>
       <c r="G43" s="8">
         <v>12.3</v>
       </c>
-      <c r="H43" s="34"/>
+      <c r="H43" s="34">
+        <f>U43</f>
+        <v>13</v>
+      </c>
       <c r="I43" s="8">
         <v>13</v>
       </c>
@@ -4998,11 +5238,17 @@
         <v>3</v>
       </c>
       <c r="L43" s="34">
-        <f t="shared" ref="L43:L47" si="51">W43</f>
+        <f t="shared" ref="L43:L47" si="58">W43</f>
         <v>15.5</v>
       </c>
       <c r="M43" s="8">
         <v>78.8</v>
+      </c>
+      <c r="T43" s="8">
+        <v>0</v>
+      </c>
+      <c r="U43" s="8">
+        <v>13</v>
       </c>
       <c r="V43" s="8">
         <v>13.3</v>
@@ -5022,27 +5268,39 @@
       <c r="E44" s="8">
         <v>0</v>
       </c>
-      <c r="F44" s="34"/>
+      <c r="F44" s="34">
+        <f t="shared" ref="F44:F47" si="59">T44</f>
+        <v>0</v>
+      </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
-      <c r="H44" s="34"/>
+      <c r="H44" s="34">
+        <f t="shared" ref="H44:H47" si="60">U44</f>
+        <v>0</v>
+      </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="34">
-        <f t="shared" ref="J44:J47" si="52">V44</f>
+        <f t="shared" ref="J44:J47" si="61">V44</f>
         <v>0</v>
       </c>
       <c r="K44" s="8">
         <v>14.2</v>
       </c>
       <c r="L44" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
         <v>19.399999999999999</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
       </c>
       <c r="V44" s="8">
         <v>0</v>
@@ -5062,27 +5320,39 @@
       <c r="E45" s="8">
         <v>154.5</v>
       </c>
-      <c r="F45" s="34"/>
+      <c r="F45" s="34">
+        <f t="shared" si="59"/>
+        <v>164.8</v>
+      </c>
       <c r="G45" s="8">
         <v>157.9</v>
       </c>
-      <c r="H45" s="34"/>
+      <c r="H45" s="34">
+        <f t="shared" si="60"/>
+        <v>186.7</v>
+      </c>
       <c r="I45" s="8">
         <v>158.69999999999999</v>
       </c>
       <c r="J45" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>186.7</v>
       </c>
       <c r="K45" s="8">
         <v>22</v>
       </c>
       <c r="L45" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>242.7</v>
       </c>
       <c r="M45" s="8">
         <v>26.5</v>
+      </c>
+      <c r="T45" s="8">
+        <v>164.8</v>
+      </c>
+      <c r="U45" s="8">
+        <v>186.7</v>
       </c>
       <c r="V45" s="8">
         <v>186.7</v>
@@ -5102,27 +5372,39 @@
       <c r="E46" s="8">
         <v>18.2</v>
       </c>
-      <c r="F46" s="34"/>
+      <c r="F46" s="34">
+        <f t="shared" si="59"/>
+        <v>25.4</v>
+      </c>
       <c r="G46" s="8">
         <v>20.5</v>
       </c>
-      <c r="H46" s="34"/>
+      <c r="H46" s="34">
+        <f t="shared" si="60"/>
+        <v>28</v>
+      </c>
       <c r="I46" s="8">
         <v>30.5</v>
       </c>
       <c r="J46" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>35.4</v>
       </c>
       <c r="K46" s="8">
         <v>13.8</v>
       </c>
       <c r="L46" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>20.7</v>
       </c>
       <c r="M46" s="8">
         <v>15.8</v>
+      </c>
+      <c r="T46" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="U46" s="8">
+        <v>28</v>
       </c>
       <c r="V46" s="8">
         <v>35.4</v>
@@ -5142,27 +5424,39 @@
       <c r="E47" s="8">
         <v>13.3</v>
       </c>
-      <c r="F47" s="34"/>
+      <c r="F47" s="34">
+        <f t="shared" si="59"/>
+        <v>13.4</v>
+      </c>
       <c r="G47" s="8">
         <v>13.4</v>
       </c>
-      <c r="H47" s="34"/>
+      <c r="H47" s="34">
+        <f t="shared" si="60"/>
+        <v>9.4</v>
+      </c>
       <c r="I47" s="8">
         <v>11.3</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>8.9</v>
       </c>
       <c r="K47" s="8">
         <v>0.2</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>11.6</v>
       </c>
       <c r="M47" s="8">
         <v>3.4</v>
+      </c>
+      <c r="T47" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="U47" s="8">
+        <v>9.4</v>
       </c>
       <c r="V47" s="8">
         <v>8.9</v>
@@ -5182,11 +5476,17 @@
       <c r="E48" s="32">
         <v>0.5</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="33">
+        <f t="shared" ref="F48" si="62">T48</f>
+        <v>0.3</v>
+      </c>
       <c r="G48" s="32">
         <v>0.7</v>
       </c>
-      <c r="H48" s="33"/>
+      <c r="H48" s="33">
+        <f>U48</f>
+        <v>1</v>
+      </c>
       <c r="I48" s="32">
         <v>0.9</v>
       </c>
@@ -5206,6 +5506,12 @@
       </c>
       <c r="N48" s="54"/>
       <c r="P48" s="27"/>
+      <c r="T48" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="U48" s="32">
+        <v>1</v>
+      </c>
       <c r="V48" s="32">
         <v>0.7</v>
       </c>
@@ -5227,12 +5533,18 @@
         <f>SUM(E42:E48)</f>
         <v>189.5</v>
       </c>
-      <c r="F49" s="34"/>
+      <c r="F49" s="34">
+        <f>SUM(F42:F48)</f>
+        <v>213.10000000000002</v>
+      </c>
       <c r="G49" s="8">
         <f>SUM(G42:G48)</f>
         <v>206.5</v>
       </c>
-      <c r="H49" s="34"/>
+      <c r="H49" s="34">
+        <f>SUM(H42:H48)</f>
+        <v>313.19999999999993</v>
+      </c>
       <c r="I49" s="8">
         <f>SUM(I42:I48)</f>
         <v>290.49999999999994</v>
@@ -5253,12 +5565,20 @@
         <f>SUM(M42:M48)</f>
         <v>400.29999999999995</v>
       </c>
+      <c r="T49" s="8">
+        <f t="shared" ref="T49:W49" si="63">SUM(T42:T48)</f>
+        <v>213.10000000000002</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="63"/>
+        <v>313.19999999999993</v>
+      </c>
       <c r="V49" s="8">
-        <f t="shared" ref="V49:W49" si="53">SUM(V42:V48)</f>
+        <f t="shared" si="63"/>
         <v>248</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" si="53"/>
+        <f t="shared" si="63"/>
         <v>363.9</v>
       </c>
     </row>
@@ -5273,11 +5593,17 @@
       <c r="E50" s="32">
         <v>258</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="33">
+        <f t="shared" ref="F50:F55" si="64">T50</f>
+        <v>253.7</v>
+      </c>
       <c r="G50" s="32">
         <v>334.9</v>
       </c>
-      <c r="H50" s="33"/>
+      <c r="H50" s="33">
+        <f>U50</f>
+        <v>345</v>
+      </c>
       <c r="I50" s="32">
         <v>300</v>
       </c>
@@ -5297,6 +5623,12 @@
       </c>
       <c r="N50" s="54"/>
       <c r="P50" s="27"/>
+      <c r="T50" s="32">
+        <v>253.7</v>
+      </c>
+      <c r="U50" s="32">
+        <v>345</v>
+      </c>
       <c r="V50" s="32">
         <v>322.3</v>
       </c>
@@ -5316,27 +5648,39 @@
       <c r="E51" s="8">
         <v>0</v>
       </c>
-      <c r="F51" s="34"/>
+      <c r="F51" s="34">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
       <c r="G51" s="8">
         <v>44.7</v>
       </c>
-      <c r="H51" s="34"/>
+      <c r="H51" s="34">
+        <f t="shared" ref="H51:H55" si="65">U51</f>
+        <v>48.5</v>
+      </c>
       <c r="I51" s="8">
         <v>51.4</v>
       </c>
       <c r="J51" s="34">
-        <f t="shared" ref="J51:J55" si="54">V51</f>
+        <f t="shared" ref="J51:J55" si="66">V51</f>
         <v>51.7</v>
       </c>
       <c r="K51" s="8">
         <v>53.4</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" ref="L51:L55" si="55">W51</f>
+        <f t="shared" ref="L51:L55" si="67">W51</f>
         <v>56.6</v>
       </c>
       <c r="M51" s="8">
         <v>69.2</v>
+      </c>
+      <c r="T51" s="8">
+        <v>0</v>
+      </c>
+      <c r="U51" s="8">
+        <v>48.5</v>
       </c>
       <c r="V51" s="8">
         <v>51.7</v>
@@ -5356,27 +5700,39 @@
       <c r="E52" s="8">
         <v>20.7</v>
       </c>
-      <c r="F52" s="34"/>
+      <c r="F52" s="34">
+        <f t="shared" si="64"/>
+        <v>39.200000000000003</v>
+      </c>
       <c r="G52" s="8">
         <v>27.6</v>
       </c>
-      <c r="H52" s="34"/>
+      <c r="H52" s="34">
+        <f t="shared" si="65"/>
+        <v>10.6</v>
+      </c>
       <c r="I52" s="8">
         <v>45</v>
       </c>
       <c r="J52" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>22.5</v>
       </c>
       <c r="K52" s="8">
         <v>10.1</v>
       </c>
       <c r="L52" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.6</v>
       </c>
       <c r="M52" s="8">
         <v>0.7</v>
+      </c>
+      <c r="T52" s="8">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="U52" s="8">
+        <v>10.6</v>
       </c>
       <c r="V52" s="8">
         <v>22.5</v>
@@ -5396,27 +5752,39 @@
       <c r="E53" s="8">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F53" s="34"/>
+      <c r="F53" s="34">
+        <f t="shared" si="64"/>
+        <v>11.6</v>
+      </c>
       <c r="G53" s="8">
         <v>13.3</v>
       </c>
-      <c r="H53" s="34"/>
+      <c r="H53" s="34">
+        <f t="shared" si="65"/>
+        <v>13.3</v>
+      </c>
       <c r="I53" s="8">
         <v>16.3</v>
       </c>
       <c r="J53" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>16.8</v>
       </c>
       <c r="K53" s="8">
         <v>15.2</v>
       </c>
       <c r="L53" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>19</v>
       </c>
       <c r="M53" s="8">
         <v>21.4</v>
+      </c>
+      <c r="T53" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="U53" s="8">
+        <v>13.3</v>
       </c>
       <c r="V53" s="8">
         <v>16.8</v>
@@ -5436,27 +5804,39 @@
       <c r="E54" s="8">
         <v>4.7</v>
       </c>
-      <c r="F54" s="34"/>
+      <c r="F54" s="34">
+        <f t="shared" si="64"/>
+        <v>10.9</v>
+      </c>
       <c r="G54" s="8">
         <v>7.9</v>
       </c>
-      <c r="H54" s="34"/>
+      <c r="H54" s="34">
+        <f t="shared" si="65"/>
+        <v>21.6</v>
+      </c>
       <c r="I54" s="8">
         <v>14.3</v>
       </c>
       <c r="J54" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>8.4</v>
       </c>
       <c r="K54" s="8">
         <v>6.3</v>
       </c>
       <c r="L54" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>7.7</v>
       </c>
       <c r="M54" s="8">
         <v>7.9</v>
+      </c>
+      <c r="T54" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="U54" s="8">
+        <v>21.6</v>
       </c>
       <c r="V54" s="8">
         <v>8.4</v>
@@ -5476,27 +5856,39 @@
       <c r="E55" s="8">
         <v>70.400000000000006</v>
       </c>
-      <c r="F55" s="34"/>
+      <c r="F55" s="34">
+        <f t="shared" si="64"/>
+        <v>33.200000000000003</v>
+      </c>
       <c r="G55" s="8">
         <v>41.1</v>
       </c>
-      <c r="H55" s="34"/>
+      <c r="H55" s="34">
+        <f t="shared" si="65"/>
+        <v>48.7</v>
+      </c>
       <c r="I55" s="8">
         <v>41.7</v>
       </c>
       <c r="J55" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>40.6</v>
       </c>
       <c r="K55" s="8">
         <v>51.1</v>
       </c>
       <c r="L55" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>58.5</v>
       </c>
       <c r="M55" s="8">
         <v>69.2</v>
+      </c>
+      <c r="T55" s="8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="U55" s="8">
+        <v>48.7</v>
       </c>
       <c r="V55" s="8">
         <v>40.6</v>
@@ -5518,12 +5910,18 @@
         <f>E49+SUM(E50:E55)</f>
         <v>553</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="34">
+        <f>F49+SUM(F50:F55)</f>
+        <v>561.70000000000005</v>
+      </c>
       <c r="G56" s="8">
         <f>G49+SUM(G50:G55)</f>
         <v>676</v>
       </c>
-      <c r="H56" s="34"/>
+      <c r="H56" s="34">
+        <f>H49+SUM(H50:H55)</f>
+        <v>800.9</v>
+      </c>
       <c r="I56" s="8">
         <f>I49+SUM(I50:I55)</f>
         <v>759.19999999999993</v>
@@ -5544,6 +5942,14 @@
         <f>M49+SUM(M50:M55)</f>
         <v>1114.3000000000002</v>
       </c>
+      <c r="T56" s="8">
+        <f>T49+SUM(T50:T55)</f>
+        <v>561.70000000000005</v>
+      </c>
+      <c r="U56" s="8">
+        <f>U49+SUM(U50:U55)</f>
+        <v>800.9</v>
+      </c>
       <c r="V56" s="8">
         <f>V49+SUM(V50:V55)</f>
         <v>710.3</v>
@@ -5555,6 +5961,8 @@
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="M57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
     </row>
     <row r="58" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
@@ -5567,11 +5975,17 @@
       <c r="E58" s="8">
         <v>927.3</v>
       </c>
-      <c r="F58" s="34"/>
+      <c r="F58" s="34">
+        <f>T58</f>
+        <v>981.4</v>
+      </c>
       <c r="G58" s="8">
         <v>1067.5</v>
       </c>
-      <c r="H58" s="34"/>
+      <c r="H58" s="34">
+        <f>U58</f>
+        <v>1136.9000000000001</v>
+      </c>
       <c r="I58" s="8">
         <v>1123</v>
       </c>
@@ -5591,6 +6005,12 @@
       </c>
       <c r="N58" s="49"/>
       <c r="P58" s="34"/>
+      <c r="T58" s="8">
+        <v>981.4</v>
+      </c>
+      <c r="U58" s="8">
+        <v>1136.9000000000001</v>
+      </c>
       <c r="V58" s="8">
         <v>1167.5999999999999</v>
       </c>
@@ -5611,10 +6031,18 @@
         <f>E58+E56</f>
         <v>1480.3</v>
       </c>
+      <c r="F59" s="34">
+        <f>F58+F56</f>
+        <v>1543.1</v>
+      </c>
       <c r="G59" s="8">
         <f>G58+G56</f>
         <v>1743.5</v>
       </c>
+      <c r="H59" s="34">
+        <f>H58+H56</f>
+        <v>1937.8000000000002</v>
+      </c>
       <c r="I59" s="8">
         <f>I58+I56</f>
         <v>1882.1999999999998</v>
@@ -5635,6 +6063,14 @@
         <f>M58+M56</f>
         <v>2741.3</v>
       </c>
+      <c r="T59" s="8">
+        <f>T58+T56</f>
+        <v>1543.1</v>
+      </c>
+      <c r="U59" s="8">
+        <f>U58+U56</f>
+        <v>1937.8000000000002</v>
+      </c>
       <c r="V59" s="8">
         <f>V58+V56</f>
         <v>1877.8999999999999</v>
@@ -5644,6 +6080,10 @@
         <v>2197</v>
       </c>
     </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+    </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>97</v>
@@ -5656,10 +6096,18 @@
         <f>E40-E56</f>
         <v>927.30000000000018</v>
       </c>
+      <c r="F61" s="34">
+        <f>F40-F56</f>
+        <v>981.40000000000032</v>
+      </c>
       <c r="G61" s="8">
         <f>G40-G56</f>
         <v>1067.5000000000002</v>
       </c>
+      <c r="H61" s="34">
+        <f>H40-H56</f>
+        <v>1136.9000000000001</v>
+      </c>
       <c r="I61" s="8">
         <f>I40-I56</f>
         <v>1123</v>
@@ -5680,12 +6128,20 @@
         <f>M40-M56</f>
         <v>1627</v>
       </c>
+      <c r="T61" s="8">
+        <f t="shared" ref="T61:U61" si="68">T40-T56</f>
+        <v>981.40000000000032</v>
+      </c>
+      <c r="U61" s="8">
+        <f t="shared" ref="U61:V61" si="69">U40-U56</f>
+        <v>1136.9000000000001</v>
+      </c>
       <c r="V61" s="8">
-        <f t="shared" ref="V61:W61" si="56">V40-V56</f>
+        <f t="shared" ref="V61:W61" si="70">V40-V56</f>
         <v>1167.6000000000001</v>
       </c>
       <c r="W61" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>1403.1000000000004</v>
       </c>
     </row>
@@ -5701,10 +6157,18 @@
         <f>E61/E16</f>
         <v>2.4464198115545486</v>
       </c>
+      <c r="F62" s="34">
+        <f>F61/F16</f>
+        <v>2.588354874319402</v>
+      </c>
       <c r="G62" s="1">
         <f>G61/G16</f>
         <v>2.815622833165575</v>
       </c>
+      <c r="H62" s="34">
+        <f>H61/H16</f>
+        <v>2.9990490331802162</v>
+      </c>
       <c r="I62" s="1">
         <f>I61/I16</f>
         <v>2.9623377739884473</v>
@@ -5725,12 +6189,20 @@
         <f>M61/M16</f>
         <v>4.3019566367001589</v>
       </c>
+      <c r="T62" s="1">
+        <f t="shared" ref="T62:U62" si="71">T61/T16</f>
+        <v>2.588354874319402</v>
+      </c>
+      <c r="U62" s="1">
+        <f t="shared" ref="U62:V62" si="72">U61/U16</f>
+        <v>2.9990490331802162</v>
+      </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:W62" si="57">V61/V16</f>
+        <f t="shared" ref="V62:W62" si="73">V61/V16</f>
         <v>3.0791139240506333</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>3.7050435701082662</v>
       </c>
     </row>
@@ -5746,10 +6218,18 @@
         <f>E38+E39+E30</f>
         <v>70.600000000000009</v>
       </c>
+      <c r="F64" s="34">
+        <f>F38+F39+F30</f>
+        <v>86.000000000000014</v>
+      </c>
       <c r="G64" s="8">
         <f>G38+G39+G30</f>
         <v>89.600000000000009</v>
       </c>
+      <c r="H64" s="34">
+        <f>H38+H39+H30</f>
+        <v>112.1</v>
+      </c>
       <c r="I64" s="8">
         <f>I38+I39+I30</f>
         <v>130.70000000000002</v>
@@ -5770,6 +6250,14 @@
         <f>M38+M39+M30</f>
         <v>234.4</v>
       </c>
+      <c r="T64" s="8">
+        <f t="shared" ref="T64:U64" si="74">T38+T39+T30</f>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="U64" s="8">
+        <f t="shared" ref="U64:V64" si="75">U38+U39+U30</f>
+        <v>112.1</v>
+      </c>
       <c r="V64" s="8">
         <f>V38+V39+V30</f>
         <v>145.1</v>
@@ -5791,10 +6279,18 @@
         <f>E50+E42+E48</f>
         <v>261.5</v>
       </c>
+      <c r="F65" s="34">
+        <f>F50+F42+F48</f>
+        <v>263.2</v>
+      </c>
       <c r="G65" s="8">
         <f>G50+G42+G48</f>
         <v>337.29999999999995</v>
       </c>
+      <c r="H65" s="34">
+        <f>H50+H42+H48</f>
+        <v>421.1</v>
+      </c>
       <c r="I65" s="8">
         <f>I50+I42+I48</f>
         <v>377</v>
@@ -5815,6 +6311,14 @@
         <f>M50+M42+M48</f>
         <v>802</v>
       </c>
+      <c r="T65" s="8">
+        <f t="shared" ref="T65:U65" si="76">T50+T42+T48</f>
+        <v>263.2</v>
+      </c>
+      <c r="U65" s="8">
+        <f t="shared" ref="U65:V65" si="77">U50+U42+U48</f>
+        <v>421.1</v>
+      </c>
       <c r="V65" s="8">
         <f>V50+V42+V48</f>
         <v>326</v>
@@ -5836,10 +6340,18 @@
         <f>E64-E65</f>
         <v>-190.89999999999998</v>
       </c>
+      <c r="F66" s="34">
+        <f>F64-F65</f>
+        <v>-177.2</v>
+      </c>
       <c r="G66" s="8">
         <f>G64-G65</f>
         <v>-247.69999999999993</v>
       </c>
+      <c r="H66" s="34">
+        <f>H64-H65</f>
+        <v>-309</v>
+      </c>
       <c r="I66" s="8">
         <f>I64-I65</f>
         <v>-246.29999999999998</v>
@@ -5860,6 +6372,14 @@
         <f>M64-M65</f>
         <v>-567.6</v>
       </c>
+      <c r="T66" s="8">
+        <f t="shared" ref="T66" si="78">T64-T65</f>
+        <v>-177.2</v>
+      </c>
+      <c r="U66" s="8">
+        <f t="shared" ref="U66" si="79">U64-U65</f>
+        <v>-309</v>
+      </c>
       <c r="V66" s="8">
         <f>V64-V65</f>
         <v>-180.9</v>
@@ -5880,11 +6400,17 @@
       <c r="E68" s="35">
         <v>14.0044</v>
       </c>
-      <c r="F68" s="36"/>
+      <c r="F68" s="36">
+        <f>T68</f>
+        <v>16.279199999999999</v>
+      </c>
       <c r="G68" s="35">
         <v>19.282</v>
       </c>
-      <c r="H68" s="36"/>
+      <c r="H68" s="36">
+        <f>U68</f>
+        <v>18.8504</v>
+      </c>
       <c r="I68" s="35">
         <v>23.1129</v>
       </c>
@@ -5920,44 +6446,44 @@
         <f>X15*X75</f>
         <v>24.650957703880664</v>
       </c>
-      <c r="Y68" s="75">
+      <c r="Y68" s="74">
         <f>Y15*Y75</f>
         <v>21.787658677332278</v>
       </c>
-      <c r="Z68" s="75">
-        <f t="shared" ref="Z68:AH68" si="58">Z15*Z75</f>
+      <c r="Z68" s="74">
+        <f t="shared" ref="Z68:AH68" si="80">Z15*Z75</f>
         <v>25.812505739535535</v>
       </c>
-      <c r="AA68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AA68" s="74">
+        <f t="shared" si="80"/>
         <v>30.532254568675903</v>
       </c>
-      <c r="AB68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AB68" s="74">
+        <f t="shared" si="80"/>
         <v>36.147767519188683</v>
       </c>
-      <c r="AC68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AC68" s="74">
+        <f t="shared" si="80"/>
         <v>42.753123480795495</v>
       </c>
-      <c r="AD68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AD68" s="74">
+        <f t="shared" si="80"/>
         <v>50.546006618114653</v>
       </c>
-      <c r="AE68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AE68" s="74">
+        <f t="shared" si="80"/>
         <v>59.74954975840194</v>
       </c>
-      <c r="AF68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AF68" s="74">
+        <f t="shared" si="80"/>
         <v>70.604915604232787</v>
       </c>
-      <c r="AG68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AG68" s="74">
+        <f t="shared" si="80"/>
         <v>83.414810329368407</v>
       </c>
-      <c r="AH68" s="75">
-        <f t="shared" si="58"/>
+      <c r="AH68" s="74">
+        <f t="shared" si="80"/>
         <v>98.53171577356099</v>
       </c>
     </row>
@@ -5973,16 +6499,24 @@
         <f>E68*E16</f>
         <v>5308.2794942492001</v>
       </c>
+      <c r="F69" s="34">
+        <f t="shared" ref="F69:H69" si="81">F68*F16</f>
+        <v>6172.4174835960002</v>
+      </c>
       <c r="G69" s="8">
         <f>G68*G16</f>
         <v>7310.4731065340002</v>
       </c>
+      <c r="H69" s="34">
+        <f t="shared" si="81"/>
+        <v>7145.9384367832008</v>
+      </c>
       <c r="I69" s="8">
         <f>I68*I16</f>
         <v>8761.9267890080991</v>
       </c>
       <c r="J69" s="34">
-        <f t="shared" ref="J69:L69" si="59">J68*J16</f>
+        <f t="shared" ref="J69:L69" si="82">J68*J16</f>
         <v>8886.2333699999999</v>
       </c>
       <c r="K69" s="8">
@@ -5990,7 +6524,7 @@
         <v>10690.468360000001</v>
       </c>
       <c r="L69" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="82"/>
         <v>9453.7153199999993</v>
       </c>
       <c r="M69" s="8">
@@ -5998,31 +6532,31 @@
         <v>7734.19</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" ref="T69:W69" si="60">T68*T16</f>
+        <f t="shared" ref="T69:W69" si="83">T68*T16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="83"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="V69" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="83"/>
         <v>8897.9659199999987</v>
       </c>
       <c r="W69" s="8">
-        <f t="shared" si="60"/>
+        <f t="shared" si="83"/>
         <v>9453.7153199999993</v>
       </c>
-      <c r="Y69" s="76"/>
-      <c r="Z69" s="76"/>
-      <c r="AA69" s="76"/>
-      <c r="AB69" s="76"/>
-      <c r="AC69" s="76"/>
-      <c r="AD69" s="76"/>
-      <c r="AE69" s="76"/>
-      <c r="AF69" s="76"/>
-      <c r="AG69" s="76"/>
-      <c r="AH69" s="76"/>
+      <c r="Y69" s="75"/>
+      <c r="Z69" s="75"/>
+      <c r="AA69" s="75"/>
+      <c r="AB69" s="75"/>
+      <c r="AC69" s="75"/>
+      <c r="AD69" s="75"/>
+      <c r="AE69" s="75"/>
+      <c r="AF69" s="75"/>
+      <c r="AG69" s="75"/>
+      <c r="AH69" s="75"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
@@ -6036,16 +6570,24 @@
         <f>E69-E66</f>
         <v>5499.1794942491997</v>
       </c>
+      <c r="F70" s="34">
+        <f t="shared" ref="F70:H70" si="84">F69-F66</f>
+        <v>6349.6174835960001</v>
+      </c>
       <c r="G70" s="8">
         <f>G69-G66</f>
         <v>7558.173106534</v>
       </c>
+      <c r="H70" s="34">
+        <f t="shared" si="84"/>
+        <v>7454.9384367832008</v>
+      </c>
       <c r="I70" s="8">
         <f>I69-I66</f>
         <v>9008.2267890080984</v>
       </c>
       <c r="J70" s="34">
-        <f t="shared" ref="J70:L70" si="61">J69-J66</f>
+        <f t="shared" ref="J70:L70" si="85">J69-J66</f>
         <v>9067.1333699999996</v>
       </c>
       <c r="K70" s="8">
@@ -6053,7 +6595,7 @@
         <v>11095.668360000001</v>
       </c>
       <c r="L70" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="85"/>
         <v>9648.4153200000001</v>
       </c>
       <c r="M70" s="8">
@@ -6061,84 +6603,112 @@
         <v>8301.7899999999991</v>
       </c>
       <c r="T70" s="8">
-        <f t="shared" ref="T70:W70" si="62">T69-T66</f>
-        <v>6172.4174835960002</v>
+        <f t="shared" ref="T70:W70" si="86">T69-T66</f>
+        <v>6349.6174835960001</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="62"/>
-        <v>7145.9384367832008</v>
+        <f t="shared" si="86"/>
+        <v>7454.9384367832008</v>
       </c>
       <c r="V70" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="86"/>
         <v>9078.8659199999984</v>
       </c>
       <c r="W70" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="86"/>
         <v>9648.4153200000001</v>
       </c>
-      <c r="Y70" s="76"/>
-      <c r="Z70" s="76"/>
-      <c r="AA70" s="76"/>
-      <c r="AB70" s="76"/>
-      <c r="AC70" s="76"/>
-      <c r="AD70" s="76"/>
-      <c r="AE70" s="76"/>
-      <c r="AF70" s="76"/>
-      <c r="AG70" s="76"/>
-      <c r="AH70" s="76"/>
+      <c r="Y70" s="75"/>
+      <c r="Z70" s="75"/>
+      <c r="AA70" s="75"/>
+      <c r="AB70" s="75"/>
+      <c r="AC70" s="75"/>
+      <c r="AD70" s="75"/>
+      <c r="AE70" s="75"/>
+      <c r="AF70" s="75"/>
+      <c r="AG70" s="75"/>
+      <c r="AH70" s="75"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="Y71" s="76"/>
-      <c r="Z71" s="76"/>
-      <c r="AA71" s="76"/>
-      <c r="AB71" s="76"/>
-      <c r="AC71" s="76"/>
-      <c r="AD71" s="76"/>
-      <c r="AE71" s="76"/>
-      <c r="AF71" s="76"/>
-      <c r="AG71" s="76"/>
-      <c r="AH71" s="76"/>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="Y71" s="75"/>
+      <c r="Z71" s="75"/>
+      <c r="AA71" s="75"/>
+      <c r="AB71" s="75"/>
+      <c r="AC71" s="75"/>
+      <c r="AD71" s="75"/>
+      <c r="AE71" s="75"/>
+      <c r="AF71" s="75"/>
+      <c r="AG71" s="75"/>
+      <c r="AH71" s="75"/>
+    </row>
+    <row r="72" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <f>AVERAGE(C72:AX72)</f>
-        <v>6.6455994380078121</v>
-      </c>
-      <c r="B72" s="1" t="s">
+        <v>6.6187808416593716</v>
+      </c>
+      <c r="B72" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="42">
         <f>C68/C62</f>
         <v>5.306869847213596</v>
       </c>
+      <c r="D72" s="57"/>
       <c r="E72" s="42">
         <f>E68/E62</f>
         <v>5.7244467747753687</v>
       </c>
+      <c r="F72" s="57">
+        <f>F68/F62</f>
+        <v>6.2894003297289567</v>
+      </c>
       <c r="G72" s="42">
         <f>G68/G62</f>
         <v>6.8482183667765799</v>
       </c>
+      <c r="H72" s="57">
+        <f>H68/H62</f>
+        <v>6.2854590876798309</v>
+      </c>
       <c r="I72" s="42">
         <f>I68/I62</f>
         <v>7.8022500347356187</v>
       </c>
+      <c r="J72" s="57">
+        <f>J68/J62</f>
+        <v>7.6106829136690637</v>
+      </c>
       <c r="K72" s="42">
         <f>K68/K62</f>
         <v>8.3708937123169669</v>
       </c>
+      <c r="L72" s="57">
+        <f>L68/L62</f>
+        <v>6.7377345306820589</v>
+      </c>
       <c r="M72" s="42">
         <f>M68/M62</f>
         <v>4.7536508912108166</v>
       </c>
+      <c r="N72" s="77"/>
+      <c r="P72" s="57"/>
+      <c r="T72" s="42">
+        <f t="shared" ref="T72:U72" si="87">T68/T62</f>
+        <v>6.2894003297289567</v>
+      </c>
+      <c r="U72" s="42">
+        <f t="shared" ref="U72:V72" si="88">U68/U62</f>
+        <v>6.2854590876798309</v>
+      </c>
       <c r="V72" s="42">
-        <f t="shared" ref="V72" si="63">V68/V62</f>
+        <f t="shared" si="88"/>
         <v>7.620731346351489</v>
       </c>
       <c r="W72" s="42">
         <f>W68/W62</f>
         <v>6.7377345306820589</v>
       </c>
+      <c r="X72" s="77"/>
       <c r="Y72" s="76"/>
       <c r="Z72" s="76"/>
       <c r="AA72" s="76"/>
@@ -6150,19 +6720,32 @@
       <c r="AG72" s="76"/>
       <c r="AH72" s="76"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <f>AVERAGE(C73:AX73)</f>
-        <v>6.1262344816301137</v>
-      </c>
-      <c r="B73" s="1" t="s">
+        <v>5.9406650893726685</v>
+      </c>
+      <c r="B73" s="42" t="s">
         <v>23</v>
+      </c>
+      <c r="D73" s="57"/>
+      <c r="F73" s="57">
+        <f>F69/SUM(E4:F4)</f>
+        <v>5.0973800343513087</v>
+      </c>
+      <c r="G73" s="42">
+        <f>G69/SUM(F4:G4)</f>
+        <v>5.7153257028645132</v>
+      </c>
+      <c r="H73" s="57">
+        <f>H69/SUM(G4:H4)</f>
+        <v>5.3391650005851767</v>
       </c>
       <c r="I73" s="42">
         <f>I69/SUM(H4:I4)</f>
         <v>6.7239097452291459</v>
       </c>
-      <c r="J73" s="58">
+      <c r="J73" s="57">
         <f>J69/SUM(I4:J4)</f>
         <v>6.7411875056895765</v>
       </c>
@@ -6170,7 +6753,7 @@
         <f>K69/SUM(J4:K4)</f>
         <v>7.4394351844119697</v>
       </c>
-      <c r="L73" s="58">
+      <c r="L73" s="57">
         <f>L69/SUM(K4:L4)</f>
         <v>6.1979383203304268</v>
       </c>
@@ -6178,22 +6761,25 @@
         <f>M69/SUM(L4:M4)</f>
         <v>4.6490682856455878</v>
       </c>
+      <c r="N73" s="77"/>
+      <c r="P73" s="57"/>
       <c r="T73" s="42">
-        <f t="shared" ref="T73:V73" si="64">T69/T4</f>
+        <f t="shared" ref="T73:U73" si="89">T69/T4</f>
         <v>5.0973800343513087</v>
       </c>
       <c r="U73" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="T73:V73" si="90">U69/U4</f>
         <v>5.3391650005851767</v>
       </c>
       <c r="V73" s="42">
-        <f t="shared" si="64"/>
+        <f t="shared" si="90"/>
         <v>6.7500879380974039</v>
       </c>
       <c r="W73" s="42">
         <f>W69/W4</f>
         <v>6.1979383203304268</v>
       </c>
+      <c r="X73" s="77"/>
       <c r="Y73" s="76"/>
       <c r="Z73" s="76"/>
       <c r="AA73" s="76"/>
@@ -6206,39 +6792,98 @@
       <c r="AH73" s="76"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A74" s="45">
+        <f>AVERAGE(C74:AX74)</f>
+        <v>6.1314989385166134</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y74" s="76"/>
-      <c r="Z74" s="76"/>
-      <c r="AA74" s="76"/>
-      <c r="AB74" s="76"/>
-      <c r="AC74" s="76"/>
-      <c r="AD74" s="76"/>
-      <c r="AE74" s="76"/>
-      <c r="AF74" s="76"/>
-      <c r="AG74" s="76"/>
-      <c r="AH74" s="76"/>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="F74" s="57">
+        <f t="shared" ref="F74:M74" si="91">F70/SUM(E4:F4)</f>
+        <v>5.243717469317037</v>
+      </c>
+      <c r="G74" s="42">
+        <f t="shared" si="91"/>
+        <v>5.9089774892768343</v>
+      </c>
+      <c r="H74" s="57">
+        <f t="shared" si="91"/>
+        <v>5.5700376843867305</v>
+      </c>
+      <c r="I74" s="42">
+        <f t="shared" si="91"/>
+        <v>6.912920565580615</v>
+      </c>
+      <c r="J74" s="57">
+        <f t="shared" si="91"/>
+        <v>6.8784200955848878</v>
+      </c>
+      <c r="K74" s="42">
+        <f t="shared" si="91"/>
+        <v>7.7214115240083521</v>
+      </c>
+      <c r="L74" s="57">
+        <f t="shared" si="91"/>
+        <v>6.325585340588737</v>
+      </c>
+      <c r="M74" s="42">
+        <f>M70/SUM(L4:M4)</f>
+        <v>4.990256071170954</v>
+      </c>
+      <c r="T74" s="42">
+        <f t="shared" ref="T74:U74" si="92">T70/T4</f>
+        <v>5.243717469317037</v>
+      </c>
+      <c r="U74" s="42">
+        <f t="shared" ref="U74:W74" si="93">U70/U4</f>
+        <v>5.5700376843867305</v>
+      </c>
+      <c r="V74" s="42">
+        <f t="shared" si="93"/>
+        <v>6.8873205279927161</v>
+      </c>
+      <c r="W74" s="42">
+        <f>W70/W4</f>
+        <v>6.325585340588737</v>
+      </c>
+      <c r="Y74" s="75"/>
+      <c r="Z74" s="75"/>
+      <c r="AA74" s="75"/>
+      <c r="AB74" s="75"/>
+      <c r="AC74" s="75"/>
+      <c r="AD74" s="75"/>
+      <c r="AE74" s="75"/>
+      <c r="AF74" s="75"/>
+      <c r="AG74" s="75"/>
+      <c r="AH74" s="75"/>
+    </row>
+    <row r="75" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <f>AVERAGE(C75:AX75)</f>
-        <v>33.937646934808072</v>
-      </c>
-      <c r="B75" s="1" t="s">
+        <v>34.251801218781559</v>
+      </c>
+      <c r="B75" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="E75" s="42"/>
+      <c r="D75" s="57"/>
+      <c r="F75" s="57">
+        <f>F68/SUM(E15:F15)</f>
+        <v>36.346214681345977</v>
+      </c>
       <c r="G75" s="42">
         <f>G68/(G15+F15)</f>
         <v>40.570085892338092</v>
       </c>
+      <c r="H75" s="57">
+        <f>H68/SUM(G15:H15)</f>
+        <v>38.754627719660355</v>
+      </c>
       <c r="I75" s="42">
         <f>I68/(I15+H15)</f>
         <v>49.58603989933718</v>
       </c>
-      <c r="J75" s="58">
+      <c r="J75" s="57">
         <f>J68/(J15+I15)</f>
         <v>43.727166392237116</v>
       </c>
@@ -6246,7 +6891,7 @@
         <f>K68/(K15+J15)</f>
         <v>40.829325611764631</v>
       </c>
-      <c r="L75" s="58">
+      <c r="L75" s="57">
         <f>L68/(L15+K15)</f>
         <v>38.73571477005347</v>
       </c>
@@ -6254,61 +6899,83 @@
         <f>M68/(M15+L15)</f>
         <v>34.65810517544427</v>
       </c>
+      <c r="N75" s="77"/>
+      <c r="P75" s="57"/>
       <c r="T75" s="42">
-        <f t="shared" ref="T75:V75" si="65">T68/T15</f>
+        <f t="shared" ref="T75:U75" si="94">T68/T15</f>
         <v>36.35110414367491</v>
       </c>
       <c r="U75" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="T75:V75" si="95">U68/U15</f>
         <v>38.752377639822122</v>
       </c>
       <c r="V75" s="42">
-        <f t="shared" si="65"/>
+        <f t="shared" si="95"/>
         <v>43.767663157894724</v>
       </c>
       <c r="W75" s="42">
         <f>W68/W15</f>
         <v>38.713002948402945</v>
       </c>
-      <c r="X75" s="78">
+      <c r="X75" s="77">
         <v>37</v>
       </c>
-      <c r="Y75" s="77">
+      <c r="Y75" s="76">
         <v>27</v>
       </c>
-      <c r="Z75" s="77">
+      <c r="Z75" s="76">
         <v>27</v>
       </c>
-      <c r="AA75" s="77">
+      <c r="AA75" s="76">
         <v>27</v>
       </c>
-      <c r="AB75" s="77">
+      <c r="AB75" s="76">
         <v>27</v>
       </c>
-      <c r="AC75" s="77">
+      <c r="AC75" s="76">
         <v>27</v>
       </c>
-      <c r="AD75" s="77">
+      <c r="AD75" s="76">
         <v>27</v>
       </c>
-      <c r="AE75" s="77">
+      <c r="AE75" s="76">
         <v>27</v>
       </c>
-      <c r="AF75" s="77">
+      <c r="AF75" s="76">
         <v>27</v>
       </c>
-      <c r="AG75" s="77">
+      <c r="AG75" s="76">
         <v>27</v>
       </c>
-      <c r="AH75" s="77">
+      <c r="AH75" s="76">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A76" s="45">
+        <f>AVERAGE(C76:AX76)</f>
+        <v>40.497637215588497</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="37"/>
+      <c r="T76" s="42">
+        <f t="shared" ref="T76:U76" si="96">T70/T12</f>
+        <v>37.394684826831565</v>
+      </c>
+      <c r="U76" s="42">
+        <f t="shared" ref="U76:W76" si="97">U70/U12</f>
+        <v>40.428082628976135</v>
+      </c>
+      <c r="V76" s="42">
+        <f t="shared" si="97"/>
+        <v>44.657481160846025</v>
+      </c>
+      <c r="W76" s="42">
+        <f>W70/W12</f>
+        <v>39.51030024570025</v>
+      </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
@@ -6337,8 +7004,16 @@
         <f>(M5+L5)/(M40-M49)</f>
         <v>0.12516018795386588</v>
       </c>
+      <c r="T77" s="37">
+        <f t="shared" ref="T77:U77" si="98">T5/(T40-T49)</f>
+        <v>0.16375939849624055</v>
+      </c>
+      <c r="U77" s="37">
+        <f t="shared" ref="U77:V77" si="99">U5/(U40-U49)</f>
+        <v>0.14366613320201896</v>
+      </c>
       <c r="V77" s="37">
-        <f t="shared" ref="V77" si="66">V5/(V40-V49)</f>
+        <f t="shared" si="99"/>
         <v>0.14773912509969936</v>
       </c>
       <c r="W77" s="37">
@@ -6357,7 +7032,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 X10" formula="1"/>
+    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 X10 H34 H49 F34 F49 G75:H75" formula="1"/>
     <ignoredError sqref="D11:F14 E10 E15:F15" evalError="1"/>
     <ignoredError sqref="F10 D10" evalError="1" formula="1"/>
   </ignoredErrors>

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55024BA9-4FD8-43E8-92AE-B5FD82249ECA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E9924-2165-4DD6-BFB7-310076F235A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>£HLMA</t>
   </si>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -794,6 +794,12 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1296,7 @@
   <dimension ref="B2:Z38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2152,10 +2158,10 @@
   <dimension ref="A1:BU77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2230,7 +2236,7 @@
       <c r="R1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="29" t="s">
         <v>103</v>
       </c>
       <c r="T1" s="21" t="s">
@@ -2284,9 +2290,9 @@
       <c r="C2" s="31">
         <v>43008</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="55">
         <f>S2</f>
-        <v>0</v>
+        <v>43190</v>
       </c>
       <c r="E2" s="31">
         <v>43373</v>
@@ -2321,6 +2327,12 @@
       </c>
       <c r="N2" s="47"/>
       <c r="P2" s="26"/>
+      <c r="R2" s="31">
+        <v>42826</v>
+      </c>
+      <c r="S2" s="31">
+        <v>43190</v>
+      </c>
       <c r="T2" s="31">
         <v>43555</v>
       </c>
@@ -2361,6 +2373,9 @@
       </c>
       <c r="N3" s="47"/>
       <c r="P3" s="26"/>
+      <c r="S3" s="30">
+        <v>45089</v>
+      </c>
       <c r="U3" s="30">
         <v>44756</v>
       </c>
@@ -2378,7 +2393,7 @@
       </c>
       <c r="D4" s="33">
         <f>S4-C4</f>
-        <v>-506.3</v>
+        <v>569.91100000000006</v>
       </c>
       <c r="E4" s="32">
         <v>585.5</v>
@@ -2416,6 +2431,12 @@
         <v>989.31499999999994</v>
       </c>
       <c r="P4" s="33"/>
+      <c r="R4" s="32">
+        <v>961.66200000000003</v>
+      </c>
+      <c r="S4" s="32">
+        <v>1076.211</v>
+      </c>
       <c r="T4" s="32">
         <v>1210.9000000000001</v>
       </c>
@@ -2438,39 +2459,39 @@
       </c>
       <c r="Z4" s="32">
         <f t="shared" ref="Z4:AH4" si="1">Y4*(1+Z18)</f>
-        <v>2596.5684059999999</v>
+        <v>2530.5539549999994</v>
       </c>
       <c r="AA4" s="32">
         <f t="shared" si="1"/>
-        <v>3063.9507190799995</v>
+        <v>2859.5259691499991</v>
       </c>
       <c r="AB4" s="32">
         <f t="shared" si="1"/>
-        <v>3615.4618485143992</v>
+        <v>3174.0738257564994</v>
       </c>
       <c r="AC4" s="32">
         <f t="shared" si="1"/>
-        <v>4266.2449812469904</v>
+        <v>3523.2219465897147</v>
       </c>
       <c r="AD4" s="32">
         <f t="shared" si="1"/>
-        <v>5034.1690778714483</v>
+        <v>3875.5441412486866</v>
       </c>
       <c r="AE4" s="32">
         <f t="shared" si="1"/>
-        <v>5940.3195118883086</v>
+        <v>4263.0985553735554</v>
       </c>
       <c r="AF4" s="32">
         <f t="shared" si="1"/>
-        <v>7009.5770240282036</v>
+        <v>4689.4084109109117</v>
       </c>
       <c r="AG4" s="32">
         <f t="shared" si="1"/>
-        <v>8271.3008883532802</v>
+        <v>5158.3492520020036</v>
       </c>
       <c r="AH4" s="32">
         <f t="shared" si="1"/>
-        <v>9760.1350482568705</v>
+        <v>5674.1841772022044</v>
       </c>
     </row>
     <row r="5" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -2482,7 +2503,7 @@
       </c>
       <c r="D5" s="33">
         <f>S5-C5</f>
-        <v>-81.8</v>
+        <v>99.458000000000013</v>
       </c>
       <c r="E5" s="32">
         <v>100.4</v>
@@ -2520,6 +2541,12 @@
         <v>178.07669999999999</v>
       </c>
       <c r="P5" s="33"/>
+      <c r="R5" s="32">
+        <v>167.07</v>
+      </c>
+      <c r="S5" s="32">
+        <v>181.25800000000001</v>
+      </c>
       <c r="T5" s="32">
         <v>217.8</v>
       </c>
@@ -2542,39 +2569,39 @@
       </c>
       <c r="Z5" s="32">
         <f t="shared" ref="Z5:AH5" si="2">Z4*0.18</f>
-        <v>467.38231307999996</v>
+        <v>455.49971189999985</v>
       </c>
       <c r="AA5" s="32">
         <f t="shared" si="2"/>
-        <v>551.51112943439989</v>
+        <v>514.71467444699988</v>
       </c>
       <c r="AB5" s="32">
         <f t="shared" si="2"/>
-        <v>650.78313273259187</v>
+        <v>571.33328863616987</v>
       </c>
       <c r="AC5" s="32">
         <f t="shared" si="2"/>
-        <v>767.92409662445823</v>
+        <v>634.17995038614856</v>
       </c>
       <c r="AD5" s="32">
         <f t="shared" si="2"/>
-        <v>906.15043401686069</v>
+        <v>697.59794542476357</v>
       </c>
       <c r="AE5" s="32">
         <f t="shared" si="2"/>
-        <v>1069.2575121398954</v>
+        <v>767.35773996723992</v>
       </c>
       <c r="AF5" s="32">
         <f t="shared" si="2"/>
-        <v>1261.7238643250766</v>
+        <v>844.09351396396403</v>
       </c>
       <c r="AG5" s="32">
         <f t="shared" si="2"/>
-        <v>1488.8341599035905</v>
+        <v>928.5028653603606</v>
       </c>
       <c r="AH5" s="32">
         <f t="shared" si="2"/>
-        <v>1756.8243086862367</v>
+        <v>1021.3531518963968</v>
       </c>
     </row>
     <row r="6" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2586,7 +2613,7 @@
       </c>
       <c r="D6" s="34">
         <f>S6-C6</f>
-        <v>0.1</v>
+        <v>-0.21</v>
       </c>
       <c r="E6" s="8">
         <v>-0.1</v>
@@ -2623,6 +2650,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="34"/>
+      <c r="R6" s="8">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>-0.31</v>
+      </c>
       <c r="T6" s="8">
         <v>-0.1</v>
       </c>
@@ -2679,7 +2712,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" ref="D7:D11" si="3">S7-C7</f>
-        <v>0</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E7" s="8">
         <v>-0.9</v>
@@ -2716,6 +2749,12 @@
         <v>0</v>
       </c>
       <c r="P7" s="34"/>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.71899999999999997</v>
+      </c>
       <c r="T7" s="8">
         <v>-1</v>
       </c>
@@ -2772,7 +2811,7 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="3"/>
-        <v>-0.1</v>
+        <v>0.19499999999999998</v>
       </c>
       <c r="E8" s="8">
         <v>0.1</v>
@@ -2810,6 +2849,12 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="P8" s="34"/>
+      <c r="R8" s="8">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.29499999999999998</v>
+      </c>
       <c r="T8" s="8">
         <v>0.5</v>
       </c>
@@ -2876,7 +2921,7 @@
       </c>
       <c r="D9" s="34">
         <f t="shared" si="3"/>
-        <v>-5</v>
+        <v>5.0129999999999999</v>
       </c>
       <c r="E9" s="8">
         <v>5</v>
@@ -2914,6 +2959,12 @@
         <v>5.333333333333333</v>
       </c>
       <c r="P9" s="34"/>
+      <c r="R9" s="8">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="S9" s="8">
+        <v>10.013</v>
+      </c>
       <c r="T9" s="8">
         <v>10.5</v>
       </c>
@@ -2981,7 +3032,7 @@
       </c>
       <c r="D10" s="34">
         <f t="shared" si="19"/>
-        <v>-76.8</v>
+        <v>95.149000000000001</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="19"/>
@@ -3024,6 +3075,14 @@
         <v>173.21003333333331</v>
       </c>
       <c r="P10" s="34"/>
+      <c r="R10" s="8">
+        <f>R5+R6+R7+R8-R9</f>
+        <v>157.703</v>
+      </c>
+      <c r="S10" s="8">
+        <f>S5+S6+S7+S8-S9</f>
+        <v>171.94899999999998</v>
+      </c>
       <c r="T10" s="8">
         <f>T5+T6+T7+T8-T9</f>
         <v>206.70000000000002</v>
@@ -3050,39 +3109,39 @@
       </c>
       <c r="Z10" s="8">
         <f t="shared" si="20"/>
-        <v>457.61935011703702</v>
+        <v>445.73674893703691</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" si="20"/>
-        <v>541.29384548378266</v>
+        <v>504.49739049638265</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="20"/>
-        <v>640.84897635399102</v>
+        <v>561.39913225756902</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" si="20"/>
-        <v>757.95262886039791</v>
+        <v>624.20848262208824</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="20"/>
-        <v>896.10946465243455</v>
+        <v>687.55697606033743</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" si="20"/>
-        <v>1059.2753143041996</v>
+        <v>757.37554213154419</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="20"/>
-        <v>1251.7256526703491</v>
+        <v>834.09530230923667</v>
       </c>
       <c r="AG10" s="8">
         <f t="shared" si="20"/>
-        <v>1478.8270336186406</v>
+        <v>918.49573907541082</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="20"/>
-        <v>1746.8284634277791</v>
+        <v>1011.3573066379391</v>
       </c>
     </row>
     <row r="11" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3094,7 +3153,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="3"/>
-        <v>-15.1</v>
+        <v>2.6210000000000004</v>
       </c>
       <c r="E11" s="8">
         <v>19.899999999999999</v>
@@ -3132,6 +3191,12 @@
         <v>36.374106999999995</v>
       </c>
       <c r="P11" s="34"/>
+      <c r="R11" s="8">
+        <v>28.013999999999999</v>
+      </c>
+      <c r="S11" s="8">
+        <v>17.721</v>
+      </c>
       <c r="T11" s="8">
         <v>36.9</v>
       </c>
@@ -3154,39 +3219,39 @@
       </c>
       <c r="Z11" s="8">
         <f t="shared" ref="Z11:AH11" si="21">Z10*Z23</f>
-        <v>96.100063524577763</v>
+        <v>93.604717276777748</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" si="21"/>
-        <v>113.67170755159435</v>
+        <v>105.94445200424035</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="21"/>
-        <v>134.57828503433811</v>
+        <v>117.89381777408948</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="21"/>
-        <v>159.17005206068356</v>
+        <v>131.08378135063853</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="21"/>
-        <v>188.18298757701126</v>
+        <v>144.38696497267085</v>
       </c>
       <c r="AE11" s="8">
         <f t="shared" si="21"/>
-        <v>222.44781600388191</v>
+        <v>159.04886384762426</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="21"/>
-        <v>262.8623870607733</v>
+        <v>175.1600134849397</v>
       </c>
       <c r="AG11" s="8">
         <f t="shared" si="21"/>
-        <v>310.55367705991449</v>
+        <v>192.88410520583628</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="21"/>
-        <v>366.83397731983359</v>
+        <v>212.3850343939672</v>
       </c>
     </row>
     <row r="12" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3199,7 +3264,7 @@
       </c>
       <c r="D12" s="33">
         <f t="shared" si="22"/>
-        <v>-61.699999999999996</v>
+        <v>92.528000000000006</v>
       </c>
       <c r="E12" s="32">
         <f t="shared" si="22"/>
@@ -3242,6 +3307,14 @@
         <v>136.8359263333333</v>
       </c>
       <c r="P12" s="33"/>
+      <c r="R12" s="32">
+        <f>R10-R11</f>
+        <v>129.68899999999999</v>
+      </c>
+      <c r="S12" s="32">
+        <f>S10-S11</f>
+        <v>154.22799999999998</v>
+      </c>
       <c r="T12" s="32">
         <f>T10-T11</f>
         <v>169.8</v>
@@ -3268,195 +3341,195 @@
       </c>
       <c r="Z12" s="32">
         <f t="shared" si="23"/>
-        <v>361.51928659245925</v>
+        <v>352.13203166025914</v>
       </c>
       <c r="AA12" s="32">
         <f t="shared" si="23"/>
-        <v>427.62213793218831</v>
+        <v>398.55293849214229</v>
       </c>
       <c r="AB12" s="32">
         <f t="shared" si="23"/>
-        <v>506.27069131965288</v>
+        <v>443.50531448347954</v>
       </c>
       <c r="AC12" s="32">
         <f t="shared" si="23"/>
-        <v>598.78257679971432</v>
+        <v>493.12470127144968</v>
       </c>
       <c r="AD12" s="32">
         <f t="shared" si="23"/>
-        <v>707.92647707542324</v>
+        <v>543.17001108766658</v>
       </c>
       <c r="AE12" s="32">
         <f t="shared" si="23"/>
-        <v>836.82749830031764</v>
+        <v>598.32667828391993</v>
       </c>
       <c r="AF12" s="32">
         <f t="shared" si="23"/>
-        <v>988.86326560957582</v>
+        <v>658.935288824297</v>
       </c>
       <c r="AG12" s="32">
         <f t="shared" si="23"/>
-        <v>1168.2733565587262</v>
+        <v>725.61163386957458</v>
       </c>
       <c r="AH12" s="32">
         <f t="shared" si="23"/>
-        <v>1379.9944861079455</v>
+        <v>798.97227224397193</v>
       </c>
       <c r="AI12" s="32">
         <f>AH12*(1+$AK$21)</f>
-        <v>1366.194541246866</v>
+        <v>790.98254952153218</v>
       </c>
       <c r="AJ12" s="32">
         <f t="shared" ref="AJ12:BU12" si="24">AI12*(1+$AK$21)</f>
-        <v>1352.5325958343974</v>
+        <v>783.07272402631691</v>
       </c>
       <c r="AK12" s="32">
         <f t="shared" si="24"/>
-        <v>1339.0072698760534</v>
+        <v>775.24199678605373</v>
       </c>
       <c r="AL12" s="32">
         <f t="shared" si="24"/>
-        <v>1325.6171971772928</v>
+        <v>767.4895768181932</v>
       </c>
       <c r="AM12" s="32">
         <f t="shared" si="24"/>
-        <v>1312.3610252055198</v>
+        <v>759.81468105001125</v>
       </c>
       <c r="AN12" s="32">
         <f t="shared" si="24"/>
-        <v>1299.2374149534646</v>
+        <v>752.21653423951113</v>
       </c>
       <c r="AO12" s="32">
         <f t="shared" si="24"/>
-        <v>1286.2450408039299</v>
+        <v>744.69436889711596</v>
       </c>
       <c r="AP12" s="32">
         <f t="shared" si="24"/>
-        <v>1273.3825903958905</v>
+        <v>737.24742520814482</v>
       </c>
       <c r="AQ12" s="32">
         <f t="shared" si="24"/>
-        <v>1260.6487644919316</v>
+        <v>729.87495095606334</v>
       </c>
       <c r="AR12" s="32">
         <f t="shared" si="24"/>
-        <v>1248.0422768470123</v>
+        <v>722.57620144650275</v>
       </c>
       <c r="AS12" s="32">
         <f t="shared" si="24"/>
-        <v>1235.5618540785422</v>
+        <v>715.35043943203766</v>
       </c>
       <c r="AT12" s="32">
         <f t="shared" si="24"/>
-        <v>1223.2062355377568</v>
+        <v>708.19693503771725</v>
       </c>
       <c r="AU12" s="32">
         <f t="shared" si="24"/>
-        <v>1210.9741731823792</v>
+        <v>701.11496568734003</v>
       </c>
       <c r="AV12" s="32">
         <f t="shared" si="24"/>
-        <v>1198.8644314505555</v>
+        <v>694.10381603046665</v>
       </c>
       <c r="AW12" s="32">
         <f t="shared" si="24"/>
-        <v>1186.8757871360499</v>
+        <v>687.16277787016202</v>
       </c>
       <c r="AX12" s="32">
         <f t="shared" si="24"/>
-        <v>1175.0070292646894</v>
+        <v>680.29115009146039</v>
       </c>
       <c r="AY12" s="32">
         <f t="shared" si="24"/>
-        <v>1163.2569589720426</v>
+        <v>673.48823859054573</v>
       </c>
       <c r="AZ12" s="32">
         <f t="shared" si="24"/>
-        <v>1151.6243893823223</v>
+        <v>666.75335620464023</v>
       </c>
       <c r="BA12" s="32">
         <f t="shared" si="24"/>
-        <v>1140.1081454884991</v>
+        <v>660.08582264259383</v>
       </c>
       <c r="BB12" s="32">
         <f t="shared" si="24"/>
-        <v>1128.7070640336142</v>
+        <v>653.48496441616783</v>
       </c>
       <c r="BC12" s="32">
         <f t="shared" si="24"/>
-        <v>1117.419993393278</v>
+        <v>646.95011477200615</v>
       </c>
       <c r="BD12" s="32">
         <f t="shared" si="24"/>
-        <v>1106.2457934593451</v>
+        <v>640.48061362428609</v>
       </c>
       <c r="BE12" s="32">
         <f t="shared" si="24"/>
-        <v>1095.1833355247516</v>
+        <v>634.07580748804321</v>
       </c>
       <c r="BF12" s="32">
         <f t="shared" si="24"/>
-        <v>1084.231502169504</v>
+        <v>627.73504941316276</v>
       </c>
       <c r="BG12" s="32">
         <f t="shared" si="24"/>
-        <v>1073.389187147809</v>
+        <v>621.45769891903115</v>
       </c>
       <c r="BH12" s="32">
         <f t="shared" si="24"/>
-        <v>1062.6552952763309</v>
+        <v>615.24312192984087</v>
       </c>
       <c r="BI12" s="32">
         <f t="shared" si="24"/>
-        <v>1052.0287423235675</v>
+        <v>609.0906907105425</v>
       </c>
       <c r="BJ12" s="32">
         <f t="shared" si="24"/>
-        <v>1041.5084549003318</v>
+        <v>602.99978380343703</v>
       </c>
       <c r="BK12" s="32">
         <f t="shared" si="24"/>
-        <v>1031.0933703513285</v>
+        <v>596.96978596540271</v>
       </c>
       <c r="BL12" s="32">
         <f t="shared" si="24"/>
-        <v>1020.7824366478152</v>
+        <v>591.00008810574866</v>
       </c>
       <c r="BM12" s="32">
         <f t="shared" si="24"/>
-        <v>1010.5746122813371</v>
+        <v>585.09008722469116</v>
       </c>
       <c r="BN12" s="32">
         <f t="shared" si="24"/>
-        <v>1000.4688661585237</v>
+        <v>579.23918635244422</v>
       </c>
       <c r="BO12" s="32">
         <f t="shared" si="24"/>
-        <v>990.46417749693853</v>
+        <v>573.44679448891975</v>
       </c>
       <c r="BP12" s="32">
         <f t="shared" si="24"/>
-        <v>980.55953572196916</v>
+        <v>567.71232654403059</v>
       </c>
       <c r="BQ12" s="32">
         <f t="shared" si="24"/>
-        <v>970.7539403647495</v>
+        <v>562.0352032785903</v>
       </c>
       <c r="BR12" s="32">
         <f t="shared" si="24"/>
-        <v>961.04640096110199</v>
+        <v>556.41485124580436</v>
       </c>
       <c r="BS12" s="32">
         <f t="shared" si="24"/>
-        <v>951.43593695149093</v>
+        <v>550.85070273334634</v>
       </c>
       <c r="BT12" s="32">
         <f t="shared" si="24"/>
-        <v>941.92157758197607</v>
+        <v>545.34219570601283</v>
       </c>
       <c r="BU12" s="32">
         <f t="shared" si="24"/>
-        <v>932.50236180615627</v>
+        <v>539.88877374895264</v>
       </c>
     </row>
     <row r="13" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3469,7 +3542,7 @@
       </c>
       <c r="D13" s="33">
         <f t="shared" si="25"/>
-        <v>-61.699999999999996</v>
+        <v>92.528000000000006</v>
       </c>
       <c r="E13" s="32">
         <f t="shared" si="25"/>
@@ -3512,6 +3585,14 @@
         <v>136.97276225966664</v>
       </c>
       <c r="P13" s="33"/>
+      <c r="R13" s="32">
+        <f t="shared" ref="R13:S13" si="26">R12+R14</f>
+        <v>129.68899999999999</v>
+      </c>
+      <c r="S13" s="32">
+        <f t="shared" si="26"/>
+        <v>154.22799999999998</v>
+      </c>
       <c r="T13" s="32">
         <f>T12+T14</f>
         <v>169.8</v>
@@ -3529,7 +3610,7 @@
         <v>244</v>
       </c>
       <c r="X13" s="48">
-        <f t="shared" ref="X13" si="26">X12+X14</f>
+        <f t="shared" ref="X13" si="27">X12+X14</f>
         <v>251.97276225966667</v>
       </c>
       <c r="Y13" s="32">
@@ -3537,40 +3618,40 @@
         <v>305.18861154692843</v>
       </c>
       <c r="Z13" s="32">
-        <f t="shared" ref="Z13:AH13" si="27">Z12+Z14</f>
-        <v>361.56628409971626</v>
+        <f t="shared" ref="Z13:AH13" si="28">Z12+Z14</f>
+        <v>352.17780882437501</v>
       </c>
       <c r="AA13" s="32">
-        <f t="shared" si="27"/>
-        <v>427.6777288101195</v>
+        <f t="shared" si="28"/>
+        <v>398.60475037414625</v>
       </c>
       <c r="AB13" s="32">
-        <f t="shared" si="27"/>
-        <v>506.33650650952444</v>
+        <f t="shared" si="28"/>
+        <v>443.56297017436236</v>
       </c>
       <c r="AC13" s="32">
-        <f t="shared" si="27"/>
-        <v>598.86041853469828</v>
+        <f t="shared" si="28"/>
+        <v>493.18880748261495</v>
       </c>
       <c r="AD13" s="32">
-        <f t="shared" si="27"/>
-        <v>708.01850751744303</v>
+        <f t="shared" si="28"/>
+        <v>543.24062318910796</v>
       </c>
       <c r="AE13" s="32">
-        <f t="shared" si="27"/>
-        <v>836.9362858750967</v>
+        <f t="shared" si="28"/>
+        <v>598.40446075209684</v>
       </c>
       <c r="AF13" s="32">
-        <f t="shared" si="27"/>
-        <v>988.99181783410506</v>
+        <f t="shared" si="28"/>
+        <v>659.02095041184418</v>
       </c>
       <c r="AG13" s="32">
-        <f t="shared" si="27"/>
-        <v>1168.4252320950789</v>
+        <f t="shared" si="28"/>
+        <v>725.70596338197765</v>
       </c>
       <c r="AH13" s="32">
-        <f t="shared" si="27"/>
-        <v>1380.1738853911395</v>
+        <f t="shared" si="28"/>
+        <v>799.07613863936365</v>
       </c>
     </row>
     <row r="14" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3595,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="34">
-        <f t="shared" ref="H14" si="28">U14-G14</f>
+        <f t="shared" ref="H14" si="29">U14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="44">
@@ -3620,6 +3701,9 @@
         <v>0.1368359263333333</v>
       </c>
       <c r="P14" s="34"/>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
       <c r="S14" s="8">
         <v>0</v>
       </c>
@@ -3644,40 +3728,40 @@
         <v>3.9669362483977774E-2</v>
       </c>
       <c r="Z14" s="8">
-        <f t="shared" ref="Z14:AH14" si="29">Z12*0.00013</f>
-        <v>4.6997507257019698E-2</v>
+        <f t="shared" ref="Z14:AH14" si="30">Z12*0.00013</f>
+        <v>4.5777164115833685E-2</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="29"/>
-        <v>5.5590877931184474E-2</v>
+        <f t="shared" si="30"/>
+        <v>5.1811882003978495E-2</v>
       </c>
       <c r="AB14" s="8">
-        <f t="shared" si="29"/>
-        <v>6.5815189871554866E-2</v>
+        <f t="shared" si="30"/>
+        <v>5.7655690882852335E-2</v>
       </c>
       <c r="AC14" s="8">
-        <f t="shared" si="29"/>
-        <v>7.7841734983962851E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.410621116528846E-2</v>
       </c>
       <c r="AD14" s="8">
-        <f t="shared" si="29"/>
-        <v>9.2030442019805009E-2</v>
+        <f t="shared" si="30"/>
+        <v>7.0612101441396652E-2</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" si="29"/>
-        <v>0.10878757477904129</v>
+        <f t="shared" si="30"/>
+        <v>7.7782468176909578E-2</v>
       </c>
       <c r="AF14" s="8">
-        <f t="shared" si="29"/>
-        <v>0.12855222452924484</v>
+        <f t="shared" si="30"/>
+        <v>8.5661587547158607E-2</v>
       </c>
       <c r="AG14" s="8">
-        <f t="shared" si="29"/>
-        <v>0.1518755363526344</v>
+        <f t="shared" si="30"/>
+        <v>9.4329512403044685E-2</v>
       </c>
       <c r="AH14" s="8">
-        <f t="shared" si="29"/>
-        <v>0.17939928319403289</v>
+        <f t="shared" si="30"/>
+        <v>0.10386639539171634</v>
       </c>
     </row>
     <row r="15" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -3685,60 +3769,68 @@
         <v>70</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" ref="C15:N15" si="30">C12/C16</f>
+        <f t="shared" ref="C15:N15" si="31">C12/C16</f>
         <v>0.16270266756508422</v>
       </c>
-      <c r="D15" s="36" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+      <c r="D15" s="36">
+        <f t="shared" si="31"/>
+        <v>0.24414534950419484</v>
       </c>
       <c r="E15" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.19681108372907286</v>
       </c>
       <c r="F15" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.25108149993397905</v>
       </c>
       <c r="G15" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.22419479233636896</v>
       </c>
       <c r="H15" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.26220905435668357</v>
       </c>
       <c r="I15" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.20390802308932054</v>
       </c>
       <c r="J15" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.33271719038817016</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.35795304668952777</v>
       </c>
       <c r="L15" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.28650646950092412</v>
       </c>
       <c r="M15" s="35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.30354309888947645</v>
       </c>
       <c r="N15" s="50">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.36180837211352013</v>
       </c>
       <c r="P15" s="36"/>
+      <c r="R15" s="35">
+        <f t="shared" ref="R15:U15" si="32">R12/R16</f>
+        <v>0.34247131519848928</v>
+      </c>
+      <c r="S15" s="35">
+        <f t="shared" si="32"/>
+        <v>0.40694761546054115</v>
+      </c>
       <c r="T15" s="35">
-        <f t="shared" ref="T15:U15" si="31">T12/T16</f>
+        <f t="shared" si="32"/>
         <v>0.44783233916795839</v>
       </c>
       <c r="U15" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.48643208876632238</v>
       </c>
       <c r="V15" s="35">
@@ -3758,40 +3850,40 @@
         <v>0.80695032138267697</v>
       </c>
       <c r="Z15" s="35">
-        <f t="shared" ref="Z15:AH15" si="32">Z13/Z16</f>
-        <v>0.95601873109390867</v>
+        <f t="shared" ref="Z15:AH15" si="33">Z13/Z16</f>
+        <v>0.93119462936111852</v>
       </c>
       <c r="AA15" s="35">
-        <f t="shared" si="32"/>
-        <v>1.1308242432842928</v>
+        <f t="shared" si="33"/>
+        <v>1.0539522749184196</v>
       </c>
       <c r="AB15" s="35">
-        <f t="shared" si="32"/>
-        <v>1.3388062044143958</v>
+        <f t="shared" si="33"/>
+        <v>1.1728264679385574</v>
       </c>
       <c r="AC15" s="35">
-        <f t="shared" si="32"/>
-        <v>1.5834490178072405</v>
+        <f t="shared" si="33"/>
+        <v>1.3040423254431914</v>
       </c>
       <c r="AD15" s="35">
-        <f t="shared" si="32"/>
-        <v>1.8720743191894316</v>
+        <f t="shared" si="33"/>
+        <v>1.4363845139849498</v>
       </c>
       <c r="AE15" s="35">
-        <f t="shared" si="32"/>
-        <v>2.21294628734822</v>
+        <f t="shared" si="33"/>
+        <v>1.5822434181705363</v>
       </c>
       <c r="AF15" s="35">
-        <f t="shared" si="32"/>
-        <v>2.6149968742308438</v>
+        <f t="shared" si="33"/>
+        <v>1.7425196996611427</v>
       </c>
       <c r="AG15" s="35">
-        <f t="shared" si="32"/>
-        <v>3.0894374196062371</v>
+        <f t="shared" si="33"/>
+        <v>1.9188417857799516</v>
       </c>
       <c r="AH15" s="35">
-        <f t="shared" si="32"/>
-        <v>3.6493228064281849</v>
+        <f t="shared" si="33"/>
+        <v>2.1128401338957263</v>
       </c>
     </row>
     <row r="16" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3803,7 +3895,7 @@
       </c>
       <c r="D16" s="34">
         <f>S16</f>
-        <v>0</v>
+        <v>378.98735399999998</v>
       </c>
       <c r="E16" s="8">
         <v>379.04369300000002</v>
@@ -3841,6 +3933,12 @@
         <v>378.2</v>
       </c>
       <c r="P16" s="34"/>
+      <c r="R16" s="8">
+        <v>378.68572999999998</v>
+      </c>
+      <c r="S16" s="8">
+        <v>378.98735399999998</v>
+      </c>
       <c r="T16" s="8">
         <v>379.15975500000002</v>
       </c>
@@ -3862,39 +3960,39 @@
         <v>378.2</v>
       </c>
       <c r="Z16" s="8">
-        <f t="shared" ref="Z16:AH16" si="33">Y16</f>
+        <f t="shared" ref="Z16:AH16" si="34">Y16</f>
         <v>378.2</v>
       </c>
       <c r="AA16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
       <c r="AB16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
       <c r="AC16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
       <c r="AD16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
       <c r="AF16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>378.2</v>
       </c>
     </row>
@@ -3902,12 +4000,20 @@
       <c r="B18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="C18" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>105</v>
+      </c>
       <c r="E18" s="39">
         <f>E4/C4-1</f>
         <v>0.15642899466719329</v>
       </c>
-      <c r="F18" s="40"/>
+      <c r="F18" s="40">
+        <f>F4/D4-1</f>
+        <v>9.7364325306933841E-2</v>
+      </c>
       <c r="G18" s="39">
         <f>G4/E4-1</f>
         <v>0.11648163962425295</v>
@@ -3936,14 +4042,28 @@
         <f>M4/K4-1</f>
         <v>0.18760173629951149</v>
       </c>
-      <c r="N18" s="51"/>
+      <c r="N18" s="51">
+        <f>N4/L4-1</f>
+        <v>0.25531658418982373</v>
+      </c>
       <c r="P18" s="40"/>
+      <c r="R18" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="S18" s="39">
+        <f t="shared" ref="S18:V18" si="35">S4/R4-1</f>
+        <v>0.11911565602051444</v>
+      </c>
+      <c r="T18" s="39">
+        <f t="shared" si="35"/>
+        <v>0.12515110884389768</v>
+      </c>
       <c r="U18" s="39">
-        <f t="shared" ref="U18:V18" si="34">U4/T4-1</f>
+        <f t="shared" si="35"/>
         <v>0.10529358328515981</v>
       </c>
       <c r="V18" s="39">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-1.5092647937836268E-2</v>
       </c>
       <c r="W18" s="39">
@@ -3958,38 +4078,48 @@
         <v>0.18</v>
       </c>
       <c r="Z18" s="39">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AA18" s="39">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="AB18" s="39">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="AC18" s="39">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="AD18" s="39">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="AE18" s="39">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="AF18" s="39">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="AG18" s="39">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="AH18" s="39">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="C19" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="38">
+        <f>D4/C4-1</f>
+        <v>0.1256389492395813</v>
+      </c>
+      <c r="E19" s="37">
+        <f>E4/D4-1</f>
+        <v>2.7353393775519264E-2</v>
+      </c>
       <c r="F19" s="38">
         <f>F4/E4-1</f>
         <v>6.8146883005977932E-2</v>
@@ -4026,6 +4156,9 @@
         <v>0.13</v>
       </c>
       <c r="P19" s="38"/>
+      <c r="R19" s="91" t="s">
+        <v>105</v>
+      </c>
       <c r="S19" s="91" t="s">
         <v>105</v>
       </c>
@@ -4051,7 +4184,10 @@
         <f>C5/C4</f>
         <v>0.16156428994667194</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="38">
+        <f>D5/D4</f>
+        <v>0.17451496812660222</v>
+      </c>
       <c r="E21" s="37">
         <f>E5/E4</f>
         <v>0.17147736976942785</v>
@@ -4088,66 +4224,77 @@
         <f>M5/M4</f>
         <v>0.17327241576242147</v>
       </c>
-      <c r="N21" s="52"/>
+      <c r="N21" s="52">
+        <f>N5/N4</f>
+        <v>0.18</v>
+      </c>
       <c r="P21" s="38"/>
+      <c r="R21" s="37">
+        <f t="shared" ref="R21:T21" si="36">R5/R4</f>
+        <v>0.17373047910804418</v>
+      </c>
+      <c r="S21" s="37">
+        <f t="shared" si="36"/>
+        <v>0.16842236327262963</v>
+      </c>
       <c r="T21" s="37">
-        <f t="shared" ref="T21" si="35">T5/T4</f>
+        <f t="shared" si="36"/>
         <v>0.17986621521182591</v>
       </c>
       <c r="U21" s="37">
-        <f t="shared" ref="U21" si="36">U5/U4</f>
+        <f t="shared" ref="U21" si="37">U5/U4</f>
         <v>0.17438732815301852</v>
       </c>
       <c r="V21" s="37">
-        <f t="shared" ref="V21:W21" si="37">V5/V4</f>
+        <f t="shared" ref="V21:W21" si="38">V5/V4</f>
         <v>0.18267334243665606</v>
       </c>
       <c r="W21" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18284927555235034</v>
       </c>
       <c r="X21" s="52">
-        <f t="shared" ref="X21:AH21" si="38">X5/X4</f>
+        <f t="shared" ref="X21:AH21" si="39">X5/X4</f>
         <v>0.1768415097476157</v>
       </c>
       <c r="Y21" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
       <c r="Z21" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
       <c r="AA21" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AB21" s="37">
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
-      <c r="AB21" s="37">
-        <f t="shared" si="38"/>
+      <c r="AC21" s="37">
+        <f t="shared" si="39"/>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="AD21" s="37">
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
-      <c r="AC21" s="37">
-        <f t="shared" si="38"/>
+      <c r="AE21" s="37">
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
-      <c r="AD21" s="37">
-        <f t="shared" si="38"/>
+      <c r="AF21" s="37">
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
-      <c r="AE21" s="37">
-        <f t="shared" si="38"/>
-        <v>0.17999999999999997</v>
-      </c>
-      <c r="AF21" s="37">
-        <f t="shared" si="38"/>
+      <c r="AG21" s="37">
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
-      <c r="AG21" s="37">
-        <f t="shared" si="38"/>
-        <v>0.18</v>
-      </c>
       <c r="AH21" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.18</v>
       </c>
       <c r="AJ21" s="59" t="s">
@@ -4165,7 +4312,10 @@
         <f>C12/C4</f>
         <v>0.12186450720916452</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="38">
+        <f>D12/D4</f>
+        <v>0.16235517475535652</v>
+      </c>
       <c r="E22" s="37">
         <f>E12/E4</f>
         <v>0.12741246797608879</v>
@@ -4202,73 +4352,84 @@
         <f>M12/M4</f>
         <v>0.1311250713877784</v>
       </c>
-      <c r="N22" s="52"/>
+      <c r="N22" s="52">
+        <f>N12/N4</f>
+        <v>0.13831380938662946</v>
+      </c>
       <c r="P22" s="38"/>
+      <c r="R22" s="37">
+        <f t="shared" ref="R22:T22" si="40">R12/R4</f>
+        <v>0.13485923328570745</v>
+      </c>
+      <c r="S22" s="37">
+        <f t="shared" si="40"/>
+        <v>0.14330647057129131</v>
+      </c>
       <c r="T22" s="37">
-        <f t="shared" ref="T22" si="39">T12/T4</f>
+        <f t="shared" si="40"/>
         <v>0.14022627797505988</v>
       </c>
       <c r="U22" s="37">
-        <f t="shared" ref="U22" si="40">U12/U4</f>
+        <f t="shared" ref="U22" si="41">U12/U4</f>
         <v>0.13777644949193069</v>
       </c>
       <c r="V22" s="37">
-        <f t="shared" ref="V22:W22" si="41">V12/V4</f>
+        <f t="shared" ref="V22:W22" si="42">V12/V4</f>
         <v>0.1542254589591868</v>
       </c>
       <c r="W22" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.16009965252737166</v>
       </c>
       <c r="X22" s="52">
-        <f t="shared" ref="X22:AH22" si="42">X12/X4</f>
+        <f t="shared" ref="X22:AH22" si="43">X12/X4</f>
         <v>0.13493881502097169</v>
       </c>
       <c r="Y22" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.13867370139203813</v>
       </c>
       <c r="Z22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.13922964084330744</v>
+        <f t="shared" si="43"/>
+        <v>0.13915215321313282</v>
       </c>
       <c r="AA22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.13956560569635687</v>
+        <f t="shared" si="43"/>
+        <v>0.13937727539177169</v>
       </c>
       <c r="AB22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.14002932751943725</v>
+        <f t="shared" si="43"/>
+        <v>0.13972747290393467</v>
       </c>
       <c r="AC22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.14035353793131092</v>
+        <f t="shared" si="43"/>
+        <v>0.13996413190737736</v>
       </c>
       <c r="AD22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.14062429491834813</v>
+        <f t="shared" si="43"/>
+        <v>0.14015322527397639</v>
       </c>
       <c r="AE22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.14087247270548028</v>
+        <f t="shared" si="43"/>
+        <v>0.14035018672738411</v>
       </c>
       <c r="AF22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.14107317206442571</v>
+        <f t="shared" si="43"/>
+        <v>0.14051565380638273</v>
       </c>
       <c r="AG22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.14124420962653625</v>
+        <f t="shared" si="43"/>
+        <v>0.1406674109140551</v>
       </c>
       <c r="AH22" s="37">
-        <f t="shared" si="42"/>
-        <v>0.14139092126132088</v>
+        <f t="shared" si="43"/>
+        <v>0.14080830781878581</v>
       </c>
       <c r="AJ22" s="60" t="s">
         <v>109</v>
       </c>
       <c r="AK22" s="65">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -4279,7 +4440,10 @@
         <f>C11/C10</f>
         <v>0.19661458333333334</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="38">
+        <f>D11/D10</f>
+        <v>2.7546269535150138E-2</v>
+      </c>
       <c r="E23" s="37">
         <f>E11/E10</f>
         <v>0.21058201058201056</v>
@@ -4320,24 +4484,32 @@
         <v>0.21</v>
       </c>
       <c r="P23" s="38"/>
+      <c r="R23" s="37">
+        <f t="shared" ref="R23:T23" si="44">R11/R10</f>
+        <v>0.17763771139420301</v>
+      </c>
+      <c r="S23" s="37">
+        <f t="shared" si="44"/>
+        <v>0.10305962814555479</v>
+      </c>
       <c r="T23" s="37">
-        <f t="shared" ref="T23" si="43">T11/T10</f>
+        <f t="shared" si="44"/>
         <v>0.17851959361393321</v>
       </c>
       <c r="U23" s="37">
-        <f t="shared" ref="U23" si="44">U11/U10</f>
+        <f t="shared" ref="U23" si="45">U11/U10</f>
         <v>0.17715305667112896</v>
       </c>
       <c r="V23" s="37">
-        <f t="shared" ref="V23:W23" si="45">V11/V10</f>
+        <f t="shared" ref="V23:W23" si="46">V11/V10</f>
         <v>0.19612495057334914</v>
       </c>
       <c r="W23" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.19776609724047309</v>
       </c>
       <c r="X23" s="52">
-        <f t="shared" ref="X23" si="46">X11/X10</f>
+        <f t="shared" ref="X23" si="47">X11/X10</f>
         <v>0.21045495900610178</v>
       </c>
       <c r="Y23" s="37">
@@ -4375,7 +4547,7 @@
       </c>
       <c r="AK23" s="66">
         <f>NPV(AK22,X12:BU12)</f>
-        <v>10602.370197716416</v>
+        <v>9290.1393175870689</v>
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
@@ -4393,7 +4565,7 @@
       </c>
       <c r="AK25" s="67">
         <f>AK23+AK24</f>
-        <v>10034.770197716416</v>
+        <v>8722.5393175870686</v>
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
@@ -4402,7 +4574,7 @@
       </c>
       <c r="AK26" s="68">
         <f>AK25/Main!C7</f>
-        <v>26.532972495284021</v>
+        <v>23.063298036983259</v>
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
@@ -4425,6 +4597,10 @@
         <f>216.4+586.8</f>
         <v>803.19999999999993</v>
       </c>
+      <c r="D28" s="34">
+        <f>S28</f>
+        <v>866.72400000000005</v>
+      </c>
       <c r="E28" s="1">
         <f>655.6+229.9</f>
         <v>885.5</v>
@@ -4461,6 +4637,14 @@
         <f>1101.8+418.6</f>
         <v>1520.4</v>
       </c>
+      <c r="R28" s="8">
+        <f>603.553+234.43</f>
+        <v>837.98299999999995</v>
+      </c>
+      <c r="S28" s="8">
+        <f>632.162+234.562</f>
+        <v>866.72400000000005</v>
+      </c>
       <c r="T28" s="8">
         <f>694+245.2</f>
         <v>939.2</v>
@@ -4482,7 +4666,7 @@
       </c>
       <c r="AK28" s="69">
         <f>AK26/AK27-1</f>
-        <v>0.25332888499215955</v>
+        <v>8.9433067405916722E-2</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
@@ -4492,6 +4676,10 @@
       <c r="C29" s="1">
         <v>102.6</v>
       </c>
+      <c r="D29" s="34">
+        <f>S29</f>
+        <v>103.727</v>
+      </c>
       <c r="E29" s="1">
         <v>109.6</v>
       </c>
@@ -4522,6 +4710,12 @@
       </c>
       <c r="M29" s="8">
         <v>224.5</v>
+      </c>
+      <c r="R29" s="8">
+        <v>106.01600000000001</v>
+      </c>
+      <c r="S29" s="8">
+        <v>103.727</v>
       </c>
       <c r="T29" s="8">
         <v>112.4</v>
@@ -4553,7 +4747,10 @@
       <c r="C30" s="2">
         <v>3.4</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="33">
+        <f>S30</f>
+        <v>3.9929999999999999</v>
+      </c>
       <c r="E30" s="2">
         <v>3.9</v>
       </c>
@@ -4579,7 +4776,7 @@
         <v>9.9</v>
       </c>
       <c r="L30" s="34">
-        <f t="shared" ref="L30:L37" si="47">W30</f>
+        <f t="shared" ref="L30:L37" si="48">W30</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="M30" s="32">
@@ -4587,6 +4784,12 @@
       </c>
       <c r="N30" s="54"/>
       <c r="P30" s="27"/>
+      <c r="R30" s="32">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="S30" s="32">
+        <v>3.9929999999999999</v>
+      </c>
       <c r="T30" s="32">
         <v>3.9</v>
       </c>
@@ -4608,36 +4811,46 @@
       <c r="C31" s="1">
         <v>0</v>
       </c>
+      <c r="D31" s="34">
+        <f t="shared" ref="D31:D33" si="49">S31</f>
+        <v>0</v>
+      </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="34">
-        <f t="shared" ref="F31:F33" si="48">T31</f>
+        <f t="shared" ref="F31:F33" si="50">T31</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
       <c r="H31" s="34">
-        <f t="shared" ref="H31:H33" si="49">U31</f>
+        <f t="shared" ref="H31:H33" si="51">U31</f>
         <v>5.4</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" ref="J31:J33" si="50">V31</f>
+        <f t="shared" ref="J31:J33" si="52">V31</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
         <v>4.8</v>
       </c>
       <c r="L31" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>31.1</v>
       </c>
       <c r="M31" s="8">
         <v>43.9</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0</v>
       </c>
       <c r="T31" s="8">
         <v>0</v>
@@ -4659,36 +4872,46 @@
       <c r="C32" s="1">
         <v>0</v>
       </c>
+      <c r="D32" s="34">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
       </c>
       <c r="H32" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
       </c>
       <c r="J32" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>13.9</v>
       </c>
       <c r="K32" s="8">
         <v>14.7</v>
       </c>
       <c r="L32" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>14.7</v>
       </c>
       <c r="M32" s="8">
         <v>14.7</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0</v>
       </c>
       <c r="T32" s="8">
         <v>0</v>
@@ -4710,36 +4933,46 @@
       <c r="C33" s="1">
         <v>55.3</v>
       </c>
+      <c r="D33" s="34">
+        <f t="shared" si="49"/>
+        <v>36.976999999999997</v>
+      </c>
       <c r="E33" s="1">
         <v>30.9</v>
       </c>
       <c r="F33" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.4</v>
       </c>
       <c r="G33" s="8">
         <v>1.4</v>
       </c>
       <c r="H33" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.3</v>
       </c>
       <c r="I33" s="8">
         <v>5.6</v>
       </c>
       <c r="J33" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.3</v>
       </c>
       <c r="K33" s="8">
         <v>1.9</v>
       </c>
       <c r="L33" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.4</v>
       </c>
       <c r="M33" s="8">
         <v>2.8</v>
+      </c>
+      <c r="R33" s="8">
+        <v>56.866</v>
+      </c>
+      <c r="S33" s="8">
+        <v>36.976999999999997</v>
       </c>
       <c r="T33" s="8">
         <v>1.4</v>
@@ -4762,6 +4995,10 @@
         <f>SUM(C28:C33)</f>
         <v>964.49999999999989</v>
       </c>
+      <c r="D34" s="34">
+        <f>SUM(D28:D33)</f>
+        <v>1011.421</v>
+      </c>
       <c r="E34" s="8">
         <f>SUM(E28:E33)</f>
         <v>1029.9000000000001</v>
@@ -4798,6 +5035,14 @@
         <f>SUM(M28:M33)</f>
         <v>1826.1000000000001</v>
       </c>
+      <c r="R34" s="8">
+        <f>SUM(R28:R33)</f>
+        <v>1004.4179999999999</v>
+      </c>
+      <c r="S34" s="8">
+        <f>SUM(S28:S33)</f>
+        <v>1011.421</v>
+      </c>
       <c r="T34" s="8">
         <f>SUM(T28:T33)</f>
         <v>1056.9000000000003</v>
@@ -4822,36 +5067,46 @@
       <c r="C35" s="1">
         <v>124.2</v>
       </c>
+      <c r="D35" s="34">
+        <f t="shared" ref="D35:D39" si="53">S35</f>
+        <v>127.96599999999999</v>
+      </c>
       <c r="E35" s="1">
         <v>141.19999999999999</v>
       </c>
       <c r="F35" s="34">
-        <f t="shared" ref="F35:F37" si="51">T35</f>
+        <f t="shared" ref="F35:F37" si="54">T35</f>
         <v>144.30000000000001</v>
       </c>
       <c r="G35" s="8">
         <v>162.9</v>
       </c>
       <c r="H35" s="34">
-        <f t="shared" ref="H35:H37" si="52">U35</f>
+        <f t="shared" ref="H35:H37" si="55">U35</f>
         <v>170.6</v>
       </c>
       <c r="I35" s="8">
         <v>175.8</v>
       </c>
       <c r="J35" s="34">
-        <f t="shared" ref="J35:J37" si="53">V35</f>
+        <f t="shared" ref="J35:J37" si="56">V35</f>
         <v>167.8</v>
       </c>
       <c r="K35" s="8">
         <v>193.2</v>
       </c>
       <c r="L35" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>228.8</v>
       </c>
       <c r="M35" s="8">
         <v>308.8</v>
+      </c>
+      <c r="R35" s="8">
+        <v>118.78</v>
+      </c>
+      <c r="S35" s="8">
+        <v>127.96599999999999</v>
       </c>
       <c r="T35" s="8">
         <v>144.30000000000001</v>
@@ -4873,36 +5128,46 @@
       <c r="C36" s="1">
         <v>203.4</v>
       </c>
+      <c r="D36" s="34">
+        <f t="shared" si="53"/>
+        <v>235.184</v>
+      </c>
       <c r="E36" s="1">
         <v>241.8</v>
       </c>
       <c r="F36" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>259.60000000000002</v>
       </c>
       <c r="G36" s="8">
         <v>275.2</v>
       </c>
       <c r="H36" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>286.60000000000002</v>
       </c>
       <c r="I36" s="8">
         <v>245.3</v>
       </c>
       <c r="J36" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>268</v>
       </c>
       <c r="K36" s="8">
         <v>279.2</v>
       </c>
       <c r="L36" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>325.10000000000002</v>
       </c>
       <c r="M36" s="8">
         <v>389.9</v>
+      </c>
+      <c r="R36" s="8">
+        <v>212.23599999999999</v>
+      </c>
+      <c r="S36" s="8">
+        <v>235.184</v>
       </c>
       <c r="T36" s="8">
         <v>259.60000000000002</v>
@@ -4924,36 +5189,46 @@
       <c r="C37" s="1">
         <v>0.4</v>
       </c>
+      <c r="D37" s="34">
+        <f t="shared" si="53"/>
+        <v>0.85899999999999999</v>
+      </c>
       <c r="E37" s="1">
         <v>0.7</v>
       </c>
       <c r="F37" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.2</v>
       </c>
       <c r="G37" s="8">
         <v>4.8</v>
       </c>
       <c r="H37" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>10.7</v>
       </c>
       <c r="I37" s="8">
         <v>6.5</v>
       </c>
       <c r="J37" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>2.5</v>
       </c>
       <c r="K37" s="8">
         <v>4.4000000000000004</v>
       </c>
       <c r="L37" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.7</v>
       </c>
       <c r="M37" s="8">
         <v>1.9</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0.85899999999999999</v>
       </c>
       <c r="T37" s="8">
         <v>0.2</v>
@@ -4975,26 +5250,29 @@
       <c r="C38" s="2">
         <v>71.7</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="33">
+        <f t="shared" si="53"/>
+        <v>70.721000000000004</v>
+      </c>
       <c r="E38" s="2">
         <v>66.400000000000006</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" ref="F38:F39" si="54">T38</f>
+        <f t="shared" ref="F38:F39" si="57">T38</f>
         <v>81.2</v>
       </c>
       <c r="G38" s="32">
         <v>83.2</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" ref="H38:H39" si="55">U38</f>
+        <f t="shared" ref="H38:H39" si="58">U38</f>
         <v>106.3</v>
       </c>
       <c r="I38" s="32">
         <v>125.5</v>
       </c>
       <c r="J38" s="33">
-        <f t="shared" ref="J38:J39" si="56">V38</f>
+        <f t="shared" ref="J38:J39" si="59">V38</f>
         <v>134.1</v>
       </c>
       <c r="K38" s="32">
@@ -5009,6 +5287,12 @@
       </c>
       <c r="N38" s="54"/>
       <c r="P38" s="27"/>
+      <c r="R38" s="32">
+        <v>66.826999999999998</v>
+      </c>
+      <c r="S38" s="32">
+        <v>70.721000000000004</v>
+      </c>
       <c r="T38" s="32">
         <v>81.2</v>
       </c>
@@ -5030,26 +5314,29 @@
       <c r="C39" s="2">
         <v>0.6</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="33">
+        <f t="shared" si="53"/>
+        <v>0.70499999999999996</v>
+      </c>
       <c r="E39" s="2">
         <v>0.3</v>
       </c>
       <c r="F39" s="33">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.9</v>
       </c>
       <c r="G39" s="32">
         <v>0.9</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="I39" s="32">
         <v>0.4</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.7</v>
       </c>
       <c r="K39" s="32">
@@ -5064,6 +5351,12 @@
       </c>
       <c r="N39" s="54"/>
       <c r="P39" s="27"/>
+      <c r="R39" s="32">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="S39" s="32">
+        <v>0.70499999999999996</v>
+      </c>
       <c r="T39" s="32">
         <v>0.9</v>
       </c>
@@ -5086,6 +5379,10 @@
         <f>SUM(C35:C39)+C34</f>
         <v>1364.8</v>
       </c>
+      <c r="D40" s="34">
+        <f>SUM(D35:D39)+D34</f>
+        <v>1446.856</v>
+      </c>
       <c r="E40" s="8">
         <f>SUM(E35:E39)+E34</f>
         <v>1480.3000000000002</v>
@@ -5121,6 +5418,14 @@
       <c r="M40" s="8">
         <f>SUM(M35:M39)+M34</f>
         <v>2741.3</v>
+      </c>
+      <c r="R40" s="8">
+        <f>SUM(R35:R39)+R34</f>
+        <v>1402.9829999999999</v>
+      </c>
+      <c r="S40" s="8">
+        <f>SUM(S35:S39)+S34</f>
+        <v>1446.856</v>
       </c>
       <c r="T40" s="8">
         <f>SUM(T35:T39)+T34</f>
@@ -5157,12 +5462,15 @@
       <c r="C42" s="32">
         <v>0.2</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="33">
+        <f>S42</f>
+        <v>1.1419999999999999</v>
+      </c>
       <c r="E42" s="32">
         <v>3</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" ref="F42" si="57">T42</f>
+        <f t="shared" ref="F42" si="60">T42</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="32">
@@ -5191,6 +5499,12 @@
       </c>
       <c r="N42" s="54"/>
       <c r="P42" s="27"/>
+      <c r="R42" s="32">
+        <v>1.351</v>
+      </c>
+      <c r="S42" s="32">
+        <v>1.1419999999999999</v>
+      </c>
       <c r="T42" s="32">
         <v>9.1999999999999993</v>
       </c>
@@ -5212,7 +5526,10 @@
       <c r="C43" s="8">
         <v>0</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="34">
+        <f>S43</f>
+        <v>0</v>
+      </c>
       <c r="E43" s="8">
         <v>0</v>
       </c>
@@ -5238,11 +5555,17 @@
         <v>3</v>
       </c>
       <c r="L43" s="34">
-        <f t="shared" ref="L43:L47" si="58">W43</f>
+        <f t="shared" ref="L43:L47" si="61">W43</f>
         <v>15.5</v>
       </c>
       <c r="M43" s="8">
         <v>78.8</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
       </c>
       <c r="T43" s="8">
         <v>0</v>
@@ -5264,37 +5587,46 @@
       <c r="C44" s="8">
         <v>0</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="34">
+        <f t="shared" ref="D44:D47" si="62">S44</f>
+        <v>0</v>
+      </c>
       <c r="E44" s="8">
         <v>0</v>
       </c>
       <c r="F44" s="34">
-        <f t="shared" ref="F44:F47" si="59">T44</f>
+        <f t="shared" ref="F44:F47" si="63">T44</f>
         <v>0</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
       <c r="H44" s="34">
-        <f t="shared" ref="H44:H47" si="60">U44</f>
+        <f t="shared" ref="H44:H47" si="64">U44</f>
         <v>0</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="34">
-        <f t="shared" ref="J44:J47" si="61">V44</f>
+        <f t="shared" ref="J44:J47" si="65">V44</f>
         <v>0</v>
       </c>
       <c r="K44" s="8">
         <v>14.2</v>
       </c>
       <c r="L44" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
         <v>19.399999999999999</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
       </c>
       <c r="T44" s="8">
         <v>0</v>
@@ -5316,37 +5648,46 @@
       <c r="C45" s="8">
         <v>125.7</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="34">
+        <f t="shared" si="62"/>
+        <v>149.6</v>
+      </c>
       <c r="E45" s="8">
         <v>154.5</v>
       </c>
       <c r="F45" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>164.8</v>
       </c>
       <c r="G45" s="8">
         <v>157.9</v>
       </c>
       <c r="H45" s="34">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>186.7</v>
       </c>
       <c r="I45" s="8">
         <v>158.69999999999999</v>
       </c>
       <c r="J45" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>186.7</v>
       </c>
       <c r="K45" s="8">
         <v>22</v>
       </c>
       <c r="L45" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>242.7</v>
       </c>
       <c r="M45" s="8">
         <v>26.5</v>
+      </c>
+      <c r="R45" s="8">
+        <v>134.816</v>
+      </c>
+      <c r="S45" s="8">
+        <v>149.6</v>
       </c>
       <c r="T45" s="8">
         <v>164.8</v>
@@ -5368,37 +5709,46 @@
       <c r="C46" s="8">
         <v>4.7</v>
       </c>
-      <c r="D46" s="34"/>
+      <c r="D46" s="34">
+        <f t="shared" si="62"/>
+        <v>8.8339999999999996</v>
+      </c>
       <c r="E46" s="8">
         <v>18.2</v>
       </c>
       <c r="F46" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>25.4</v>
       </c>
       <c r="G46" s="8">
         <v>20.5</v>
       </c>
       <c r="H46" s="34">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>28</v>
       </c>
       <c r="I46" s="8">
         <v>30.5</v>
       </c>
       <c r="J46" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>35.4</v>
       </c>
       <c r="K46" s="8">
         <v>13.8</v>
       </c>
       <c r="L46" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>20.7</v>
       </c>
       <c r="M46" s="8">
         <v>15.8</v>
+      </c>
+      <c r="R46" s="8">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="S46" s="8">
+        <v>8.8339999999999996</v>
       </c>
       <c r="T46" s="8">
         <v>25.4</v>
@@ -5420,37 +5770,46 @@
       <c r="C47" s="8">
         <v>14.9</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="34">
+        <f t="shared" si="62"/>
+        <v>12.175000000000001</v>
+      </c>
       <c r="E47" s="8">
         <v>13.3</v>
       </c>
       <c r="F47" s="34">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>13.4</v>
       </c>
       <c r="G47" s="8">
         <v>13.4</v>
       </c>
       <c r="H47" s="34">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>9.4</v>
       </c>
       <c r="I47" s="8">
         <v>11.3</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>8.9</v>
       </c>
       <c r="K47" s="8">
         <v>0.2</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>11.6</v>
       </c>
       <c r="M47" s="8">
         <v>3.4</v>
+      </c>
+      <c r="R47" s="8">
+        <v>16.055</v>
+      </c>
+      <c r="S47" s="8">
+        <v>12.175000000000001</v>
       </c>
       <c r="T47" s="8">
         <v>13.4</v>
@@ -5472,12 +5831,15 @@
       <c r="C48" s="32">
         <v>0.4</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="33">
+        <f>S48</f>
+        <v>0.223</v>
+      </c>
       <c r="E48" s="32">
         <v>0.5</v>
       </c>
       <c r="F48" s="33">
-        <f t="shared" ref="F48" si="62">T48</f>
+        <f t="shared" ref="F48" si="66">T48</f>
         <v>0.3</v>
       </c>
       <c r="G48" s="32">
@@ -5506,6 +5868,12 @@
       </c>
       <c r="N48" s="54"/>
       <c r="P48" s="27"/>
+      <c r="R48" s="32">
+        <v>0.315</v>
+      </c>
+      <c r="S48" s="32">
+        <v>0.223</v>
+      </c>
       <c r="T48" s="32">
         <v>0.3</v>
       </c>
@@ -5528,7 +5896,10 @@
         <f>SUM(C42:C48)</f>
         <v>145.9</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="34">
+        <f>SUM(D42:D48)</f>
+        <v>171.97400000000002</v>
+      </c>
       <c r="E49" s="8">
         <f>SUM(E42:E48)</f>
         <v>189.5</v>
@@ -5565,20 +5936,28 @@
         <f>SUM(M42:M48)</f>
         <v>400.29999999999995</v>
       </c>
+      <c r="R49" s="8">
+        <f t="shared" ref="R49:W49" si="67">SUM(R42:R48)</f>
+        <v>159.31300000000002</v>
+      </c>
+      <c r="S49" s="8">
+        <f t="shared" si="67"/>
+        <v>171.97400000000002</v>
+      </c>
       <c r="T49" s="8">
-        <f t="shared" ref="T49:W49" si="63">SUM(T42:T48)</f>
+        <f t="shared" si="67"/>
         <v>213.10000000000002</v>
       </c>
       <c r="U49" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>313.19999999999993</v>
       </c>
       <c r="V49" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>248</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>363.9</v>
       </c>
     </row>
@@ -5589,12 +5968,15 @@
       <c r="C50" s="32">
         <v>252.5</v>
       </c>
-      <c r="D50" s="33"/>
+      <c r="D50" s="33">
+        <f>S50</f>
+        <v>289.91300000000001</v>
+      </c>
       <c r="E50" s="32">
         <v>258</v>
       </c>
       <c r="F50" s="33">
-        <f t="shared" ref="F50:F55" si="64">T50</f>
+        <f t="shared" ref="F50:F55" si="68">T50</f>
         <v>253.7</v>
       </c>
       <c r="G50" s="32">
@@ -5623,6 +6005,12 @@
       </c>
       <c r="N50" s="54"/>
       <c r="P50" s="27"/>
+      <c r="R50" s="32">
+        <v>261.91800000000001</v>
+      </c>
+      <c r="S50" s="32">
+        <v>289.91300000000001</v>
+      </c>
       <c r="T50" s="32">
         <v>253.7</v>
       </c>
@@ -5644,37 +6032,46 @@
       <c r="C51" s="8">
         <v>0</v>
       </c>
-      <c r="D51" s="34"/>
+      <c r="D51" s="34">
+        <f t="shared" ref="D51:D55" si="69">S51</f>
+        <v>0</v>
+      </c>
       <c r="E51" s="8">
         <v>0</v>
       </c>
       <c r="F51" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>44.7</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" ref="H51:H55" si="65">U51</f>
+        <f t="shared" ref="H51:H55" si="70">U51</f>
         <v>48.5</v>
       </c>
       <c r="I51" s="8">
         <v>51.4</v>
       </c>
       <c r="J51" s="34">
-        <f t="shared" ref="J51:J55" si="66">V51</f>
+        <f t="shared" ref="J51:J55" si="71">V51</f>
         <v>51.7</v>
       </c>
       <c r="K51" s="8">
         <v>53.4</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" ref="L51:L55" si="67">W51</f>
+        <f t="shared" ref="L51:L55" si="72">W51</f>
         <v>56.6</v>
       </c>
       <c r="M51" s="8">
         <v>69.2</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0</v>
       </c>
       <c r="T51" s="8">
         <v>0</v>
@@ -5696,37 +6093,46 @@
       <c r="C52" s="8">
         <v>66.8</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="34">
+        <f t="shared" si="69"/>
+        <v>53.896000000000001</v>
+      </c>
       <c r="E52" s="8">
         <v>20.7</v>
       </c>
       <c r="F52" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>39.200000000000003</v>
       </c>
       <c r="G52" s="8">
         <v>27.6</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>10.6</v>
       </c>
       <c r="I52" s="8">
         <v>45</v>
       </c>
       <c r="J52" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>22.5</v>
       </c>
       <c r="K52" s="8">
         <v>10.1</v>
       </c>
       <c r="L52" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.6</v>
       </c>
       <c r="M52" s="8">
         <v>0.7</v>
+      </c>
+      <c r="R52" s="8">
+        <v>74.855999999999995</v>
+      </c>
+      <c r="S52" s="8">
+        <v>53.896000000000001</v>
       </c>
       <c r="T52" s="8">
         <v>39.200000000000003</v>
@@ -5748,37 +6154,46 @@
       <c r="C53" s="8">
         <v>11.4</v>
       </c>
-      <c r="D53" s="34"/>
+      <c r="D53" s="34">
+        <f t="shared" si="69"/>
+        <v>12.621</v>
+      </c>
       <c r="E53" s="8">
         <v>9.6999999999999993</v>
       </c>
       <c r="F53" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>11.6</v>
       </c>
       <c r="G53" s="8">
         <v>13.3</v>
       </c>
       <c r="H53" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>13.3</v>
       </c>
       <c r="I53" s="8">
         <v>16.3</v>
       </c>
       <c r="J53" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>16.8</v>
       </c>
       <c r="K53" s="8">
         <v>15.2</v>
       </c>
       <c r="L53" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>19</v>
       </c>
       <c r="M53" s="8">
         <v>21.4</v>
+      </c>
+      <c r="R53" s="8">
+        <v>11.221</v>
+      </c>
+      <c r="S53" s="8">
+        <v>12.621</v>
       </c>
       <c r="T53" s="8">
         <v>11.6</v>
@@ -5800,37 +6215,46 @@
       <c r="C54" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="D54" s="34"/>
+      <c r="D54" s="34">
+        <f t="shared" si="69"/>
+        <v>23.071999999999999</v>
+      </c>
       <c r="E54" s="8">
         <v>4.7</v>
       </c>
       <c r="F54" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>10.9</v>
       </c>
       <c r="G54" s="8">
         <v>7.9</v>
       </c>
       <c r="H54" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>21.6</v>
       </c>
       <c r="I54" s="8">
         <v>14.3</v>
       </c>
       <c r="J54" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>8.4</v>
       </c>
       <c r="K54" s="8">
         <v>6.3</v>
       </c>
       <c r="L54" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>7.7</v>
       </c>
       <c r="M54" s="8">
         <v>7.9</v>
+      </c>
+      <c r="R54" s="8">
+        <v>16.917000000000002</v>
+      </c>
+      <c r="S54" s="8">
+        <v>23.071999999999999</v>
       </c>
       <c r="T54" s="8">
         <v>10.9</v>
@@ -5852,37 +6276,46 @@
       <c r="C55" s="8">
         <v>96</v>
       </c>
-      <c r="D55" s="34"/>
+      <c r="D55" s="34">
+        <f t="shared" si="69"/>
+        <v>66.983000000000004</v>
+      </c>
       <c r="E55" s="8">
         <v>70.400000000000006</v>
       </c>
       <c r="F55" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>33.200000000000003</v>
       </c>
       <c r="G55" s="8">
         <v>41.1</v>
       </c>
       <c r="H55" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>48.7</v>
       </c>
       <c r="I55" s="8">
         <v>41.7</v>
       </c>
       <c r="J55" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>40.6</v>
       </c>
       <c r="K55" s="8">
         <v>51.1</v>
       </c>
       <c r="L55" s="34">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>58.5</v>
       </c>
       <c r="M55" s="8">
         <v>69.2</v>
+      </c>
+      <c r="R55" s="8">
+        <v>100.121</v>
+      </c>
+      <c r="S55" s="8">
+        <v>66.983000000000004</v>
       </c>
       <c r="T55" s="8">
         <v>33.200000000000003</v>
@@ -5905,7 +6338,10 @@
         <f>C49+SUM(C50:C55)</f>
         <v>589.5</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="34">
+        <f>D49+SUM(D50:D55)</f>
+        <v>618.45900000000006</v>
+      </c>
       <c r="E56" s="8">
         <f>E49+SUM(E50:E55)</f>
         <v>553</v>
@@ -5941,6 +6377,14 @@
       <c r="M56" s="8">
         <f>M49+SUM(M50:M55)</f>
         <v>1114.3000000000002</v>
+      </c>
+      <c r="R56" s="8">
+        <f t="shared" ref="R56:S56" si="73">R49+SUM(R50:R55)</f>
+        <v>624.346</v>
+      </c>
+      <c r="S56" s="8">
+        <f t="shared" si="73"/>
+        <v>618.45900000000006</v>
       </c>
       <c r="T56" s="8">
         <f>T49+SUM(T50:T55)</f>
@@ -5971,7 +6415,10 @@
       <c r="C58" s="8">
         <v>775.3</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="34">
+        <f>S58</f>
+        <v>828.39700000000005</v>
+      </c>
       <c r="E58" s="8">
         <v>927.3</v>
       </c>
@@ -6005,6 +6452,12 @@
       </c>
       <c r="N58" s="49"/>
       <c r="P58" s="34"/>
+      <c r="R58" s="8">
+        <v>778.63699999999994</v>
+      </c>
+      <c r="S58" s="8">
+        <v>828.39700000000005</v>
+      </c>
       <c r="T58" s="8">
         <v>981.4</v>
       </c>
@@ -6027,6 +6480,10 @@
         <f>C58+C56</f>
         <v>1364.8</v>
       </c>
+      <c r="D59" s="34">
+        <f>D58+D56</f>
+        <v>1446.8560000000002</v>
+      </c>
       <c r="E59" s="8">
         <f>E58+E56</f>
         <v>1480.3</v>
@@ -6063,6 +6520,14 @@
         <f>M58+M56</f>
         <v>2741.3</v>
       </c>
+      <c r="R59" s="8">
+        <f t="shared" ref="R59:S59" si="74">R58+R56</f>
+        <v>1402.9829999999999</v>
+      </c>
+      <c r="S59" s="8">
+        <f t="shared" si="74"/>
+        <v>1446.8560000000002</v>
+      </c>
       <c r="T59" s="8">
         <f>T58+T56</f>
         <v>1543.1</v>
@@ -6092,6 +6557,10 @@
         <f>C40-C56</f>
         <v>775.3</v>
       </c>
+      <c r="D61" s="34">
+        <f>D40-D56</f>
+        <v>828.39699999999993</v>
+      </c>
       <c r="E61" s="8">
         <f>E40-E56</f>
         <v>927.30000000000018</v>
@@ -6128,20 +6597,28 @@
         <f>M40-M56</f>
         <v>1627</v>
       </c>
+      <c r="R61" s="8">
+        <f t="shared" ref="R61:T61" si="75">R40-R56</f>
+        <v>778.63699999999994</v>
+      </c>
+      <c r="S61" s="8">
+        <f t="shared" si="75"/>
+        <v>828.39699999999993</v>
+      </c>
       <c r="T61" s="8">
-        <f t="shared" ref="T61:U61" si="68">T40-T56</f>
+        <f t="shared" ref="T61:U61" si="76">T40-T56</f>
         <v>981.40000000000032</v>
       </c>
       <c r="U61" s="8">
-        <f t="shared" ref="U61:V61" si="69">U40-U56</f>
+        <f t="shared" ref="U61:V61" si="77">U40-U56</f>
         <v>1136.9000000000001</v>
       </c>
       <c r="V61" s="8">
-        <f t="shared" ref="V61:W61" si="70">V40-V56</f>
+        <f t="shared" ref="V61:W61" si="78">V40-V56</f>
         <v>1167.6000000000001</v>
       </c>
       <c r="W61" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>1403.1000000000004</v>
       </c>
     </row>
@@ -6153,6 +6630,10 @@
         <f>C61/C16</f>
         <v>2.0444631793064798</v>
       </c>
+      <c r="D62" s="34">
+        <f>D61/D16</f>
+        <v>2.1858169969439136</v>
+      </c>
       <c r="E62" s="1">
         <f>E61/E16</f>
         <v>2.4464198115545486</v>
@@ -6189,20 +6670,28 @@
         <f>M61/M16</f>
         <v>4.3019566367001589</v>
       </c>
+      <c r="R62" s="1">
+        <f t="shared" ref="R62:T62" si="79">R61/R16</f>
+        <v>2.056156169391437</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="79"/>
+        <v>2.1858169969439136</v>
+      </c>
       <c r="T62" s="1">
-        <f t="shared" ref="T62:U62" si="71">T61/T16</f>
+        <f t="shared" ref="T62:U62" si="80">T61/T16</f>
         <v>2.588354874319402</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" ref="U62:V62" si="72">U61/U16</f>
+        <f t="shared" ref="U62:V62" si="81">U61/U16</f>
         <v>2.9990490331802162</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:W62" si="73">V61/V16</f>
+        <f t="shared" ref="V62:W62" si="82">V61/V16</f>
         <v>3.0791139240506333</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>3.7050435701082662</v>
       </c>
     </row>
@@ -6214,6 +6703,10 @@
         <f>C38+C39+C30</f>
         <v>75.7</v>
       </c>
+      <c r="D64" s="34">
+        <f>D38+D39+D30</f>
+        <v>75.418999999999997</v>
+      </c>
       <c r="E64" s="8">
         <f>E38+E39+E30</f>
         <v>70.600000000000009</v>
@@ -6250,12 +6743,20 @@
         <f>M38+M39+M30</f>
         <v>234.4</v>
       </c>
+      <c r="R64" s="8">
+        <f t="shared" ref="R64:T64" si="83">R38+R39+R30</f>
+        <v>70.977999999999994</v>
+      </c>
+      <c r="S64" s="8">
+        <f t="shared" si="83"/>
+        <v>75.418999999999997</v>
+      </c>
       <c r="T64" s="8">
-        <f t="shared" ref="T64:U64" si="74">T38+T39+T30</f>
+        <f t="shared" ref="T64:U64" si="84">T38+T39+T30</f>
         <v>86.000000000000014</v>
       </c>
       <c r="U64" s="8">
-        <f t="shared" ref="U64:V64" si="75">U38+U39+U30</f>
+        <f t="shared" ref="U64:V64" si="85">U38+U39+U30</f>
         <v>112.1</v>
       </c>
       <c r="V64" s="8">
@@ -6275,6 +6776,10 @@
         <f>C50+C42+C48</f>
         <v>253.1</v>
       </c>
+      <c r="D65" s="34">
+        <f>D50+D42+D48</f>
+        <v>291.27800000000002</v>
+      </c>
       <c r="E65" s="8">
         <f>E50+E42+E48</f>
         <v>261.5</v>
@@ -6311,12 +6816,20 @@
         <f>M50+M42+M48</f>
         <v>802</v>
       </c>
+      <c r="R65" s="8">
+        <f t="shared" ref="R65:T65" si="86">R50+R42+R48</f>
+        <v>263.584</v>
+      </c>
+      <c r="S65" s="8">
+        <f t="shared" si="86"/>
+        <v>291.27800000000002</v>
+      </c>
       <c r="T65" s="8">
-        <f t="shared" ref="T65:U65" si="76">T50+T42+T48</f>
+        <f t="shared" ref="T65:U65" si="87">T50+T42+T48</f>
         <v>263.2</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" ref="U65:V65" si="77">U50+U42+U48</f>
+        <f t="shared" ref="U65:V65" si="88">U50+U42+U48</f>
         <v>421.1</v>
       </c>
       <c r="V65" s="8">
@@ -6336,6 +6849,10 @@
         <f>C64-C65</f>
         <v>-177.39999999999998</v>
       </c>
+      <c r="D66" s="34">
+        <f>D64-D65</f>
+        <v>-215.85900000000004</v>
+      </c>
       <c r="E66" s="8">
         <f>E64-E65</f>
         <v>-190.89999999999998</v>
@@ -6372,12 +6889,20 @@
         <f>M64-M65</f>
         <v>-567.6</v>
       </c>
+      <c r="R66" s="8">
+        <f t="shared" ref="R66" si="89">R64-R65</f>
+        <v>-192.60599999999999</v>
+      </c>
+      <c r="S66" s="8">
+        <f t="shared" ref="S66" si="90">S64-S65</f>
+        <v>-215.85900000000004</v>
+      </c>
       <c r="T66" s="8">
-        <f t="shared" ref="T66" si="78">T64-T65</f>
+        <f t="shared" ref="T66" si="91">T64-T65</f>
         <v>-177.2</v>
       </c>
       <c r="U66" s="8">
-        <f t="shared" ref="U66" si="79">U64-U65</f>
+        <f t="shared" ref="U66" si="92">U64-U65</f>
         <v>-309</v>
       </c>
       <c r="V66" s="8">
@@ -6396,7 +6921,10 @@
       <c r="C68" s="35">
         <v>10.8497</v>
       </c>
-      <c r="D68" s="36"/>
+      <c r="D68" s="36">
+        <f>R68</f>
+        <v>9.7027000000000001</v>
+      </c>
       <c r="E68" s="35">
         <v>14.0044</v>
       </c>
@@ -6430,6 +6958,12 @@
       </c>
       <c r="N68" s="50"/>
       <c r="P68" s="36"/>
+      <c r="R68" s="35">
+        <v>9.7027000000000001</v>
+      </c>
+      <c r="S68" s="35">
+        <v>13.076000000000001</v>
+      </c>
       <c r="T68" s="35">
         <v>16.279199999999999</v>
       </c>
@@ -6451,40 +6985,40 @@
         <v>21.787658677332278</v>
       </c>
       <c r="Z68" s="74">
-        <f t="shared" ref="Z68:AH68" si="80">Z15*Z75</f>
-        <v>25.812505739535535</v>
+        <f t="shared" ref="Z68:AH68" si="93">Z15*Z75</f>
+        <v>25.1422549927502</v>
       </c>
       <c r="AA68" s="74">
-        <f t="shared" si="80"/>
-        <v>30.532254568675903</v>
+        <f t="shared" si="93"/>
+        <v>28.45671142279733</v>
       </c>
       <c r="AB68" s="74">
-        <f t="shared" si="80"/>
-        <v>36.147767519188683</v>
+        <f t="shared" si="93"/>
+        <v>31.666314634341049</v>
       </c>
       <c r="AC68" s="74">
-        <f t="shared" si="80"/>
-        <v>42.753123480795495</v>
+        <f t="shared" si="93"/>
+        <v>35.209142786966169</v>
       </c>
       <c r="AD68" s="74">
-        <f t="shared" si="80"/>
-        <v>50.546006618114653</v>
+        <f t="shared" si="93"/>
+        <v>38.782381877593643</v>
       </c>
       <c r="AE68" s="74">
-        <f t="shared" si="80"/>
-        <v>59.74954975840194</v>
+        <f t="shared" si="93"/>
+        <v>42.72057229060448</v>
       </c>
       <c r="AF68" s="74">
-        <f t="shared" si="80"/>
-        <v>70.604915604232787</v>
+        <f t="shared" si="93"/>
+        <v>47.048031890850851</v>
       </c>
       <c r="AG68" s="74">
-        <f t="shared" si="80"/>
-        <v>83.414810329368407</v>
+        <f t="shared" si="93"/>
+        <v>51.808728216058689</v>
       </c>
       <c r="AH68" s="74">
-        <f t="shared" si="80"/>
-        <v>98.53171577356099</v>
+        <f t="shared" si="93"/>
+        <v>57.046683615184612</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
@@ -6495,12 +7029,16 @@
         <f>C68*C16</f>
         <v>4114.4161925447006</v>
       </c>
+      <c r="D69" s="34">
+        <f t="shared" ref="D69" si="94">D68*D16</f>
+        <v>3677.2005996558</v>
+      </c>
       <c r="E69" s="8">
         <f>E68*E16</f>
         <v>5308.2794942492001</v>
       </c>
       <c r="F69" s="34">
-        <f t="shared" ref="F69:H69" si="81">F68*F16</f>
+        <f t="shared" ref="F69:H69" si="95">F68*F16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="G69" s="8">
@@ -6508,7 +7046,7 @@
         <v>7310.4731065340002</v>
       </c>
       <c r="H69" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="95"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="I69" s="8">
@@ -6516,7 +7054,7 @@
         <v>8761.9267890080991</v>
       </c>
       <c r="J69" s="34">
-        <f t="shared" ref="J69:L69" si="82">J68*J16</f>
+        <f t="shared" ref="J69:L69" si="96">J68*J16</f>
         <v>8886.2333699999999</v>
       </c>
       <c r="K69" s="8">
@@ -6524,27 +7062,35 @@
         <v>10690.468360000001</v>
       </c>
       <c r="L69" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="96"/>
         <v>9453.7153199999993</v>
       </c>
       <c r="M69" s="8">
         <f>M68*M16</f>
         <v>7734.19</v>
       </c>
+      <c r="R69" s="8">
+        <f t="shared" ref="R69:T69" si="97">R68*R16</f>
+        <v>3674.2740324709998</v>
+      </c>
+      <c r="S69" s="8">
+        <f t="shared" si="97"/>
+        <v>4955.6386409039997</v>
+      </c>
       <c r="T69" s="8">
-        <f t="shared" ref="T69:W69" si="83">T68*T16</f>
+        <f t="shared" ref="T69:W69" si="98">T68*T16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="V69" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>8897.9659199999987</v>
       </c>
       <c r="W69" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>9453.7153199999993</v>
       </c>
       <c r="Y69" s="75"/>
@@ -6566,12 +7112,16 @@
         <f>C69-C66</f>
         <v>4291.8161925447002</v>
       </c>
+      <c r="D70" s="34">
+        <f t="shared" ref="D70" si="99">D69-D66</f>
+        <v>3893.0595996558</v>
+      </c>
       <c r="E70" s="8">
         <f>E69-E66</f>
         <v>5499.1794942491997</v>
       </c>
       <c r="F70" s="34">
-        <f t="shared" ref="F70:H70" si="84">F69-F66</f>
+        <f t="shared" ref="F70:H70" si="100">F69-F66</f>
         <v>6349.6174835960001</v>
       </c>
       <c r="G70" s="8">
@@ -6579,7 +7129,7 @@
         <v>7558.173106534</v>
       </c>
       <c r="H70" s="34">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>7454.9384367832008</v>
       </c>
       <c r="I70" s="8">
@@ -6587,7 +7137,7 @@
         <v>9008.2267890080984</v>
       </c>
       <c r="J70" s="34">
-        <f t="shared" ref="J70:L70" si="85">J69-J66</f>
+        <f t="shared" ref="J70:L70" si="101">J69-J66</f>
         <v>9067.1333699999996</v>
       </c>
       <c r="K70" s="8">
@@ -6595,27 +7145,35 @@
         <v>11095.668360000001</v>
       </c>
       <c r="L70" s="34">
-        <f t="shared" si="85"/>
+        <f t="shared" si="101"/>
         <v>9648.4153200000001</v>
       </c>
       <c r="M70" s="8">
         <f>M69-M66</f>
         <v>8301.7899999999991</v>
       </c>
+      <c r="R70" s="8">
+        <f t="shared" ref="R70:T70" si="102">R69-R66</f>
+        <v>3866.880032471</v>
+      </c>
+      <c r="S70" s="8">
+        <f t="shared" si="102"/>
+        <v>5171.497640904</v>
+      </c>
       <c r="T70" s="8">
-        <f t="shared" ref="T70:W70" si="86">T69-T66</f>
+        <f t="shared" ref="T70:W70" si="103">T69-T66</f>
         <v>6349.6174835960001</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>7454.9384367832008</v>
       </c>
       <c r="V70" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>9078.8659199999984</v>
       </c>
       <c r="W70" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="103"/>
         <v>9648.4153200000001</v>
       </c>
       <c r="Y70" s="75"/>
@@ -6644,7 +7202,7 @@
     <row r="72" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <f>AVERAGE(C72:AX72)</f>
-        <v>6.6187808416593716</v>
+        <v>6.3413484206813253</v>
       </c>
       <c r="B72" s="42" t="s">
         <v>22</v>
@@ -6653,7 +7211,10 @@
         <f>C68/C62</f>
         <v>5.306869847213596</v>
       </c>
-      <c r="D72" s="57"/>
+      <c r="D72" s="57">
+        <f>D68/D62</f>
+        <v>4.4389351961146657</v>
+      </c>
       <c r="E72" s="42">
         <f>E68/E62</f>
         <v>5.7244467747753687</v>
@@ -6692,16 +7253,24 @@
       </c>
       <c r="N72" s="77"/>
       <c r="P72" s="57"/>
+      <c r="R72" s="42">
+        <f t="shared" ref="R72:T72" si="104">R68/R62</f>
+        <v>4.7188536281617752</v>
+      </c>
+      <c r="S72" s="42">
+        <f t="shared" si="104"/>
+        <v>5.9822025440748829</v>
+      </c>
       <c r="T72" s="42">
-        <f t="shared" ref="T72:U72" si="87">T68/T62</f>
+        <f t="shared" ref="T72:U72" si="105">T68/T62</f>
         <v>6.2894003297289567</v>
       </c>
       <c r="U72" s="42">
-        <f t="shared" ref="U72:V72" si="88">U68/U62</f>
+        <f t="shared" ref="U72:V72" si="106">U68/U62</f>
         <v>6.2854590876798309</v>
       </c>
       <c r="V72" s="42">
-        <f t="shared" si="88"/>
+        <f t="shared" si="106"/>
         <v>7.620731346351489</v>
       </c>
       <c r="W72" s="42">
@@ -6723,12 +7292,19 @@
     <row r="73" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <f>AVERAGE(C73:AX73)</f>
-        <v>5.9406650893726685</v>
+        <v>5.4827828196997608</v>
       </c>
       <c r="B73" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="57"/>
+      <c r="D73" s="57">
+        <f>D69/SUM(C4:D4)</f>
+        <v>3.4168026526915263</v>
+      </c>
+      <c r="E73" s="42">
+        <f>E69/SUM(D4:E4)</f>
+        <v>4.5942781350092732</v>
+      </c>
       <c r="F73" s="57">
         <f>F69/SUM(E4:F4)</f>
         <v>5.0973800343513087</v>
@@ -6763,16 +7339,24 @@
       </c>
       <c r="N73" s="77"/>
       <c r="P73" s="57"/>
+      <c r="R73" s="42">
+        <f t="shared" ref="R73:T73" si="107">R69/R4</f>
+        <v>3.82075410328265</v>
+      </c>
+      <c r="S73" s="42">
+        <f t="shared" si="107"/>
+        <v>4.60470915174069</v>
+      </c>
       <c r="T73" s="42">
-        <f t="shared" ref="T73:U73" si="89">T69/T4</f>
+        <f t="shared" ref="T73:U73" si="108">T69/T4</f>
         <v>5.0973800343513087</v>
       </c>
       <c r="U73" s="42">
-        <f t="shared" ref="T73:V73" si="90">U69/U4</f>
+        <f t="shared" ref="T73:V73" si="109">U69/U4</f>
         <v>5.3391650005851767</v>
       </c>
       <c r="V73" s="42">
-        <f t="shared" si="90"/>
+        <f t="shared" si="109"/>
         <v>6.7500879380974039</v>
       </c>
       <c r="W73" s="42">
@@ -6794,53 +7378,69 @@
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <f>AVERAGE(C74:AX74)</f>
-        <v>6.1314989385166134</v>
+        <v>5.6738240404865383</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D74" s="57">
+        <f t="shared" ref="D74:E74" si="110">D70/SUM(C4:D4)</f>
+        <v>3.6173757745049993</v>
+      </c>
+      <c r="E74" s="42">
+        <f t="shared" si="110"/>
+        <v>4.7595007267969578</v>
+      </c>
       <c r="F74" s="57">
-        <f t="shared" ref="F74:M74" si="91">F70/SUM(E4:F4)</f>
+        <f t="shared" ref="F74:M74" si="111">F70/SUM(E4:F4)</f>
         <v>5.243717469317037</v>
       </c>
       <c r="G74" s="42">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>5.9089774892768343</v>
       </c>
       <c r="H74" s="57">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>5.5700376843867305</v>
       </c>
       <c r="I74" s="42">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>6.912920565580615</v>
       </c>
       <c r="J74" s="57">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>6.8784200955848878</v>
       </c>
       <c r="K74" s="42">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>7.7214115240083521</v>
       </c>
       <c r="L74" s="57">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>6.325585340588737</v>
       </c>
       <c r="M74" s="42">
         <f>M70/SUM(L4:M4)</f>
         <v>4.990256071170954</v>
       </c>
+      <c r="R74" s="42">
+        <f t="shared" ref="R74:T74" si="112">R70/R4</f>
+        <v>4.0210386107291338</v>
+      </c>
+      <c r="S74" s="42">
+        <f t="shared" si="112"/>
+        <v>4.8052822735541634</v>
+      </c>
       <c r="T74" s="42">
-        <f t="shared" ref="T74:U74" si="92">T70/T4</f>
+        <f t="shared" ref="T74:U74" si="113">T70/T4</f>
         <v>5.243717469317037</v>
       </c>
       <c r="U74" s="42">
-        <f t="shared" ref="U74:W74" si="93">U70/U4</f>
+        <f t="shared" ref="U74:W74" si="114">U70/U4</f>
         <v>5.5700376843867305</v>
       </c>
       <c r="V74" s="42">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>6.8873205279927161</v>
       </c>
       <c r="W74" s="42">
@@ -6861,12 +7461,19 @@
     <row r="75" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <f>AVERAGE(C75:AX75)</f>
-        <v>34.251801218781559</v>
+        <v>33.476383762362289</v>
       </c>
       <c r="B75" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="57"/>
+      <c r="D75" s="57">
+        <f>D68/SUM(C15:D15)</f>
+        <v>23.848463290771797</v>
+      </c>
+      <c r="E75" s="42">
+        <f>E68/(E15+D15)</f>
+        <v>31.7591465835166</v>
+      </c>
       <c r="F75" s="57">
         <f>F68/SUM(E15:F15)</f>
         <v>36.346214681345977</v>
@@ -6901,16 +7508,24 @@
       </c>
       <c r="N75" s="77"/>
       <c r="P75" s="57"/>
+      <c r="R75" s="42">
+        <f t="shared" ref="R75:T75" si="115">R68/R15</f>
+        <v>28.33142388692179</v>
+      </c>
+      <c r="S75" s="42">
+        <f t="shared" si="115"/>
+        <v>32.131899790595746</v>
+      </c>
       <c r="T75" s="42">
-        <f t="shared" ref="T75:U75" si="94">T68/T15</f>
+        <f t="shared" ref="T75:U75" si="116">T68/T15</f>
         <v>36.35110414367491</v>
       </c>
       <c r="U75" s="42">
-        <f t="shared" ref="T75:V75" si="95">U68/U15</f>
+        <f t="shared" ref="T75:V75" si="117">U68/U15</f>
         <v>38.752377639822122</v>
       </c>
       <c r="V75" s="42">
-        <f t="shared" si="95"/>
+        <f t="shared" si="117"/>
         <v>43.767663157894724</v>
       </c>
       <c r="W75" s="42">
@@ -6954,22 +7569,30 @@
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <f>AVERAGE(C76:AX76)</f>
-        <v>40.497637215588497</v>
+        <v>37.556436621662421</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="37"/>
+      <c r="R76" s="42">
+        <f t="shared" ref="R76:T76" si="118">R70/R12</f>
+        <v>29.81656140822275</v>
+      </c>
+      <c r="S76" s="42">
+        <f t="shared" si="118"/>
+        <v>33.531509459397782</v>
+      </c>
       <c r="T76" s="42">
-        <f t="shared" ref="T76:U76" si="96">T70/T12</f>
+        <f t="shared" ref="T76:U76" si="119">T70/T12</f>
         <v>37.394684826831565</v>
       </c>
       <c r="U76" s="42">
-        <f t="shared" ref="U76:W76" si="97">U70/U12</f>
+        <f t="shared" ref="U76:W76" si="120">U70/U12</f>
         <v>40.428082628976135</v>
       </c>
       <c r="V76" s="42">
-        <f t="shared" si="97"/>
+        <f t="shared" si="120"/>
         <v>44.657481160846025</v>
       </c>
       <c r="W76" s="42">
@@ -7004,16 +7627,24 @@
         <f>(M5+L5)/(M40-M49)</f>
         <v>0.12516018795386588</v>
       </c>
+      <c r="R77" s="37">
+        <f t="shared" ref="R77:T77" si="121">R5/(R40-R49)</f>
+        <v>0.13433627891643282</v>
+      </c>
+      <c r="S77" s="37">
+        <f t="shared" si="121"/>
+        <v>0.14217629553166489</v>
+      </c>
       <c r="T77" s="37">
-        <f t="shared" ref="T77:U77" si="98">T5/(T40-T49)</f>
+        <f t="shared" ref="T77:U77" si="122">T5/(T40-T49)</f>
         <v>0.16375939849624055</v>
       </c>
       <c r="U77" s="37">
-        <f t="shared" ref="U77:V77" si="99">U5/(U40-U49)</f>
+        <f t="shared" ref="U77:V77" si="123">U5/(U40-U49)</f>
         <v>0.14366613320201896</v>
       </c>
       <c r="V77" s="37">
-        <f t="shared" si="99"/>
+        <f t="shared" si="123"/>
         <v>0.14773912509969936</v>
       </c>
       <c r="W77" s="37">
@@ -7028,14 +7659,15 @@
     <hyperlink ref="E1" r:id="rId3" xr:uid="{D2F2E719-2F49-4057-B46A-7E29B8F345FA}"/>
     <hyperlink ref="W1" r:id="rId4" xr:uid="{312EC780-3433-42F0-97FF-0788993E5A29}"/>
     <hyperlink ref="U1" r:id="rId5" xr:uid="{313C0DA0-3F4A-45BC-BA9D-854CC763EEA6}"/>
+    <hyperlink ref="S1" r:id="rId6" xr:uid="{B420B23F-BF59-41C1-AE19-1013F6B154AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 X10 H34 H49 F34 F49 G75:H75" formula="1"/>
+    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 X10 H34 H49 F34 F49 G75:H75 D34 D49 E75" formula="1"/>
     <ignoredError sqref="D11:F14 E10 E15:F15" evalError="1"/>
     <ignoredError sqref="F10 D10" evalError="1" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E9924-2165-4DD6-BFB7-310076F235A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD58D62-8DAD-4B2C-8F76-2C1CE54931AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Projections" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>£HLMA</t>
   </si>
@@ -496,7 +497,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +537,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -726,7 +739,6 @@
     <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -757,8 +769,17 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,16 +789,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,16 +813,44 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,16 +944,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -919,8 +968,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9096375" y="19050"/>
-          <a:ext cx="0" cy="17259300"/>
+          <a:off x="9772650" y="0"/>
+          <a:ext cx="0" cy="17278350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -945,14 +994,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -969,8 +1018,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14573250" y="0"/>
-          <a:ext cx="0" cy="17878425"/>
+          <a:off x="15878175" y="0"/>
+          <a:ext cx="0" cy="17897475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1295,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B37DFEF-2721-42A7-BBC6-F0639EC003A0}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1325,40 +1374,40 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="G5" s="79" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="G5" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
-      <c r="V5" s="79" t="s">
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
+      <c r="V5" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="81"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="83"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="78">
-        <v>21.17</v>
+      <c r="C6" s="76">
+        <v>23.32</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1374,7 +1423,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="12"/>
-      <c r="V6" s="70"/>
+      <c r="V6" s="69"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -1385,12 +1434,12 @@
         <v>5</v>
       </c>
       <c r="C7" s="8">
-        <f>'Financial Model'!M16</f>
-        <v>378.2</v>
+        <f>'Financial Model'!X16</f>
+        <v>378</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>$C$28</f>
-        <v>H122</v>
+        <v>FY22</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="11"/>
@@ -1405,7 +1454,7 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
-      <c r="V7" s="70"/>
+      <c r="V7" s="69"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -1417,7 +1466,7 @@
       </c>
       <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>8006.4940000000006</v>
+        <v>8814.9600000000009</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1433,7 +1482,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
-      <c r="V8" s="71" t="s">
+      <c r="V8" s="70" t="s">
         <v>115</v>
       </c>
       <c r="W8" s="11"/>
@@ -1446,12 +1495,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="8">
-        <f>'Financial Model'!M64</f>
-        <v>234.4</v>
+        <f>'Financial Model'!X64</f>
+        <v>192</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>H122</v>
+        <v>FY22</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="11"/>
@@ -1466,7 +1515,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="12"/>
-      <c r="V9" s="72" t="s">
+      <c r="V9" s="71" t="s">
         <v>116</v>
       </c>
       <c r="W9" s="11"/>
@@ -1479,12 +1528,12 @@
         <v>8</v>
       </c>
       <c r="C10" s="8">
-        <f>'Financial Model'!M65</f>
-        <v>802</v>
+        <f>'Financial Model'!X65</f>
+        <v>679.19999999999993</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>H122</v>
+        <v>FY22</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="11"/>
@@ -1499,7 +1548,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="12"/>
-      <c r="V10" s="72" t="s">
+      <c r="V10" s="71" t="s">
         <v>117</v>
       </c>
       <c r="W10" s="11"/>
@@ -1513,11 +1562,11 @@
       </c>
       <c r="C11" s="8">
         <f>C9-C10</f>
-        <v>-567.6</v>
+        <v>-487.19999999999993</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>H122</v>
+        <v>FY22</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="11"/>
@@ -1532,7 +1581,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="12"/>
-      <c r="V11" s="72" t="s">
+      <c r="V11" s="71" t="s">
         <v>118</v>
       </c>
       <c r="W11" s="11"/>
@@ -1546,7 +1595,7 @@
       </c>
       <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>8574.094000000001</v>
+        <v>9302.1600000000017</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1562,7 +1611,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="12"/>
-      <c r="V12" s="70"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -1582,7 +1631,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="12"/>
-      <c r="V13" s="70"/>
+      <c r="V13" s="69"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -1602,7 +1651,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="12"/>
-      <c r="V14" s="70" t="s">
+      <c r="V14" s="69" t="s">
         <v>120</v>
       </c>
       <c r="W14" s="11"/>
@@ -1611,11 +1660,11 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
       <c r="G15" s="18"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1629,7 +1678,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="12"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="69"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -1656,7 +1705,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="12"/>
-      <c r="V16" s="70"/>
+      <c r="V16" s="69"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -1683,7 +1732,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="12"/>
-      <c r="V17" s="70"/>
+      <c r="V17" s="69"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
@@ -1708,7 +1757,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="12"/>
-      <c r="V18" s="70"/>
+      <c r="V18" s="69"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -1718,8 +1767,8 @@
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1733,7 +1782,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
-      <c r="V19" s="73"/>
+      <c r="V19" s="72"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
@@ -1770,11 +1819,11 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
       <c r="G22" s="18"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1892,12 +1941,12 @@
         <v>19</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D28" s="43">
-        <v>44882</v>
-      </c>
-      <c r="E28" s="90"/>
+        <v>45092</v>
+      </c>
+      <c r="E28" s="77"/>
       <c r="G28" s="18"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -1916,10 +1965,10 @@
       <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="87"/>
+      <c r="D29" s="89"/>
       <c r="G29" s="18"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1965,11 +2014,11 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="G32" s="18"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1988,11 +2037,11 @@
       <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="88">
-        <f>C6/'Financial Model'!M62</f>
-        <v>4.9210165949600491</v>
-      </c>
-      <c r="D33" s="89"/>
+      <c r="C33" s="90">
+        <f>C6/'Financial Model'!X62</f>
+        <v>5.5131402839452122</v>
+      </c>
+      <c r="D33" s="91"/>
       <c r="G33" s="18"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -2011,11 +2060,11 @@
       <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="88">
-        <f>C8/SUM('Financial Model'!L4:M4)</f>
-        <v>4.8127518634287094</v>
-      </c>
-      <c r="D34" s="89"/>
+      <c r="C34" s="90">
+        <f>C8/'Financial Model'!X4</f>
+        <v>4.757642487046633</v>
+      </c>
+      <c r="D34" s="91"/>
       <c r="G34" s="18"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -2034,11 +2083,11 @@
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="88">
-        <f>C12/SUM('Financial Model'!L4:M4)</f>
-        <v>5.1539396489540765</v>
-      </c>
-      <c r="D35" s="89"/>
+      <c r="C35" s="90">
+        <f>C12/'Financial Model'!X4</f>
+        <v>5.0205958549222807</v>
+      </c>
+      <c r="D35" s="91"/>
       <c r="G35" s="18"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -2057,11 +2106,11 @@
       <c r="B36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="88">
-        <f>C6/SUM('Financial Model'!L15:M15)</f>
-        <v>35.878341641278986</v>
-      </c>
-      <c r="D36" s="89"/>
+      <c r="C36" s="90">
+        <f>C6/'Financial Model'!X15</f>
+        <v>32.455670103092785</v>
+      </c>
+      <c r="D36" s="91"/>
       <c r="G36" s="18"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -2080,11 +2129,11 @@
       <c r="B37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="88">
-        <f>C12/SUM('Financial Model'!L12:M12)</f>
-        <v>38.397196596506951</v>
-      </c>
-      <c r="D37" s="89"/>
+      <c r="C37" s="90">
+        <f>C12/'Financial Model'!X12</f>
+        <v>34.249484536082484</v>
+      </c>
+      <c r="D37" s="91"/>
       <c r="G37" s="18"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -2103,8 +2152,8 @@
       <c r="B38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
       <c r="G38" s="20"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2121,12 +2170,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
@@ -2143,6 +2186,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -2157,11 +2206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5332D-7B2B-4D46-8BAA-4FBC91F2AA00}">
   <dimension ref="A1:BU77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2179,11 +2228,11 @@
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="28"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="53"/>
+    <col min="14" max="14" width="9.140625" style="28"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="9.140625" style="28"/>
     <col min="17" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="9.140625" style="53"/>
+    <col min="24" max="24" width="9.140625" style="95"/>
     <col min="25" max="35" width="9.140625" style="1"/>
     <col min="36" max="36" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -2224,7 +2273,7 @@
       <c r="M1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="25" t="s">
         <v>43</v>
       </c>
       <c r="O1" s="21" t="s">
@@ -2242,7 +2291,7 @@
       <c r="T1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="57" t="s">
         <v>47</v>
       </c>
       <c r="V1" s="21" t="s">
@@ -2251,7 +2300,7 @@
       <c r="W1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="X1" s="97" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="21" t="s">
@@ -2290,42 +2339,45 @@
       <c r="C2" s="31">
         <v>43008</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="54">
         <f>S2</f>
         <v>43190</v>
       </c>
       <c r="E2" s="31">
         <v>43373</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="54">
         <f>T2</f>
         <v>43555</v>
       </c>
       <c r="G2" s="31">
         <v>43738</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="54">
         <f>U2</f>
         <v>43921</v>
       </c>
       <c r="I2" s="31">
         <v>44104</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2" s="54">
         <f>V2</f>
         <v>44286</v>
       </c>
       <c r="K2" s="31">
         <v>44469</v>
       </c>
-      <c r="L2" s="55">
+      <c r="L2" s="54">
         <f>W2</f>
         <v>44651</v>
       </c>
       <c r="M2" s="31">
         <v>44834</v>
       </c>
-      <c r="N2" s="47"/>
+      <c r="N2" s="54">
+        <f>X2</f>
+        <v>45016</v>
+      </c>
       <c r="P2" s="26"/>
       <c r="R2" s="31">
         <v>42826</v>
@@ -2345,8 +2397,8 @@
       <c r="W2" s="31">
         <v>44651</v>
       </c>
-      <c r="X2" s="47" t="s">
-        <v>107</v>
+      <c r="X2" s="31">
+        <v>45016</v>
       </c>
     </row>
     <row r="3" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -2356,7 +2408,7 @@
         <v>44885</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="H3" s="56">
+      <c r="H3" s="55">
         <f>U3</f>
         <v>44756</v>
       </c>
@@ -2364,14 +2416,17 @@
         <v>44884</v>
       </c>
       <c r="J3" s="26"/>
-      <c r="L3" s="56">
+      <c r="L3" s="55">
         <f>W3</f>
         <v>44728</v>
       </c>
       <c r="M3" s="30">
         <v>44882</v>
       </c>
-      <c r="N3" s="47"/>
+      <c r="N3" s="55">
+        <f>X3</f>
+        <v>45092</v>
+      </c>
       <c r="P3" s="26"/>
       <c r="S3" s="30">
         <v>45089</v>
@@ -2382,7 +2437,9 @@
       <c r="W3" s="30">
         <v>44728</v>
       </c>
-      <c r="X3" s="47"/>
+      <c r="X3" s="98">
+        <v>45092</v>
+      </c>
     </row>
     <row r="4" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
@@ -2426,9 +2483,9 @@
       <c r="M4" s="32">
         <v>875.5</v>
       </c>
-      <c r="N4" s="48">
-        <f>M4*(1+N19)</f>
-        <v>989.31499999999994</v>
+      <c r="N4" s="33">
+        <f>X4-M4</f>
+        <v>977.3</v>
       </c>
       <c r="P4" s="33"/>
       <c r="R4" s="32">
@@ -2449,49 +2506,48 @@
       <c r="W4" s="32">
         <v>1525.3</v>
       </c>
-      <c r="X4" s="48">
-        <f>N4+M4</f>
-        <v>1864.8150000000001</v>
+      <c r="X4" s="92">
+        <v>1852.8</v>
       </c>
       <c r="Y4" s="32">
         <f>X4*(1+Y18)</f>
-        <v>2200.4816999999998</v>
+        <v>2186.3039999999996</v>
       </c>
       <c r="Z4" s="32">
         <f t="shared" ref="Z4:AH4" si="1">Y4*(1+Z18)</f>
-        <v>2530.5539549999994</v>
+        <v>2514.2495999999992</v>
       </c>
       <c r="AA4" s="32">
         <f t="shared" si="1"/>
-        <v>2859.5259691499991</v>
+        <v>2841.1020479999988</v>
       </c>
       <c r="AB4" s="32">
         <f t="shared" si="1"/>
-        <v>3174.0738257564994</v>
+        <v>3153.623273279999</v>
       </c>
       <c r="AC4" s="32">
         <f t="shared" si="1"/>
-        <v>3523.2219465897147</v>
+        <v>3500.5218333407993</v>
       </c>
       <c r="AD4" s="32">
         <f t="shared" si="1"/>
-        <v>3875.5441412486866</v>
+        <v>3850.5740166748797</v>
       </c>
       <c r="AE4" s="32">
         <f t="shared" si="1"/>
-        <v>4263.0985553735554</v>
+        <v>4235.6314183423683</v>
       </c>
       <c r="AF4" s="32">
         <f t="shared" si="1"/>
-        <v>4689.4084109109117</v>
+        <v>4659.1945601766056</v>
       </c>
       <c r="AG4" s="32">
         <f t="shared" si="1"/>
-        <v>5158.3492520020036</v>
+        <v>5125.1140161942667</v>
       </c>
       <c r="AH4" s="32">
         <f t="shared" si="1"/>
-        <v>5674.1841772022044</v>
+        <v>5637.6254178136942</v>
       </c>
     </row>
     <row r="5" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -2536,9 +2592,9 @@
       <c r="M5" s="32">
         <v>151.69999999999999</v>
       </c>
-      <c r="N5" s="48">
-        <f>N4*0.18</f>
-        <v>178.07669999999999</v>
+      <c r="N5" s="33">
+        <f>X5-M5</f>
+        <v>156.69999999999999</v>
       </c>
       <c r="P5" s="33"/>
       <c r="R5" s="32">
@@ -2559,49 +2615,48 @@
       <c r="W5" s="32">
         <v>278.89999999999998</v>
       </c>
-      <c r="X5" s="48">
-        <f>N5+M5</f>
-        <v>329.77670000000001</v>
+      <c r="X5" s="92">
+        <v>308.39999999999998</v>
       </c>
       <c r="Y5" s="32">
         <f>Y4*0.18</f>
-        <v>396.08670599999994</v>
+        <v>393.53471999999994</v>
       </c>
       <c r="Z5" s="32">
         <f t="shared" ref="Z5:AH5" si="2">Z4*0.18</f>
-        <v>455.49971189999985</v>
+        <v>452.56492799999984</v>
       </c>
       <c r="AA5" s="32">
         <f t="shared" si="2"/>
-        <v>514.71467444699988</v>
+        <v>511.39836863999977</v>
       </c>
       <c r="AB5" s="32">
         <f t="shared" si="2"/>
-        <v>571.33328863616987</v>
+        <v>567.65218919039978</v>
       </c>
       <c r="AC5" s="32">
         <f t="shared" si="2"/>
-        <v>634.17995038614856</v>
+        <v>630.09393000134389</v>
       </c>
       <c r="AD5" s="32">
         <f t="shared" si="2"/>
-        <v>697.59794542476357</v>
+        <v>693.10332300147832</v>
       </c>
       <c r="AE5" s="32">
         <f t="shared" si="2"/>
-        <v>767.35773996723992</v>
+        <v>762.41365530162625</v>
       </c>
       <c r="AF5" s="32">
         <f t="shared" si="2"/>
-        <v>844.09351396396403</v>
+        <v>838.65502083178899</v>
       </c>
       <c r="AG5" s="32">
         <f t="shared" si="2"/>
-        <v>928.5028653603606</v>
+        <v>922.52052291496796</v>
       </c>
       <c r="AH5" s="32">
         <f t="shared" si="2"/>
-        <v>1021.3531518963968</v>
+        <v>1014.7725752064649</v>
       </c>
     </row>
     <row r="6" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2646,8 +2701,9 @@
       <c r="M6" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="49">
-        <v>0</v>
+      <c r="N6" s="34">
+        <f>X6-M6</f>
+        <v>-0.1</v>
       </c>
       <c r="P6" s="34"/>
       <c r="R6" s="8">
@@ -2668,9 +2724,8 @@
       <c r="W6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="X6" s="49">
-        <f>N6+M6</f>
-        <v>0</v>
+      <c r="X6" s="93">
+        <v>-0.1</v>
       </c>
       <c r="Y6" s="8">
         <v>0</v>
@@ -2745,7 +2800,8 @@
       <c r="M7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="34">
+        <f t="shared" ref="N7:N11" si="7">X7-M7</f>
         <v>0</v>
       </c>
       <c r="P7" s="34"/>
@@ -2767,8 +2823,7 @@
       <c r="W7" s="8">
         <v>34</v>
       </c>
-      <c r="X7" s="49">
-        <f t="shared" ref="X7:X9" si="7">N7+M7</f>
+      <c r="X7" s="93">
         <v>0</v>
       </c>
       <c r="Y7" s="8">
@@ -2844,9 +2899,9 @@
       <c r="M8" s="8">
         <v>0.8</v>
       </c>
-      <c r="N8" s="49">
-        <f>AVERAGE(K8:M8)</f>
-        <v>0.46666666666666662</v>
+      <c r="N8" s="34">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="P8" s="34"/>
       <c r="R8" s="8">
@@ -2867,49 +2922,48 @@
       <c r="W8" s="8">
         <v>0.6</v>
       </c>
-      <c r="X8" s="49">
-        <f t="shared" si="7"/>
-        <v>1.2666666666666666</v>
+      <c r="X8" s="93">
+        <v>1.8</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" ref="Y8" si="8">AVERAGE(V8:X8)</f>
-        <v>0.9555555555555556</v>
+        <v>1.1333333333333335</v>
       </c>
       <c r="Z8" s="8">
         <f t="shared" ref="Z8" si="9">AVERAGE(W8:Y8)</f>
-        <v>0.94074074074074077</v>
+        <v>1.1777777777777778</v>
       </c>
       <c r="AA8" s="8">
         <f t="shared" ref="AA8" si="10">AVERAGE(X8:Z8)</f>
-        <v>1.0543209876543209</v>
+        <v>1.3703703703703705</v>
       </c>
       <c r="AB8" s="8">
         <f t="shared" ref="AB8" si="11">AVERAGE(Y8:AA8)</f>
-        <v>0.98353909465020573</v>
+        <v>1.2271604938271607</v>
       </c>
       <c r="AC8" s="8">
         <f t="shared" ref="AC8" si="12">AVERAGE(Z8:AB8)</f>
-        <v>0.99286694101508921</v>
+        <v>1.2584362139917697</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" ref="AD8" si="13">AVERAGE(AA8:AC8)</f>
-        <v>1.0102423411065387</v>
+        <v>1.2853223593964336</v>
       </c>
       <c r="AE8" s="8">
         <f t="shared" ref="AE8" si="14">AVERAGE(AB8:AD8)</f>
-        <v>0.99554945892394464</v>
+        <v>1.2569730224051214</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" ref="AF8" si="15">AVERAGE(AC8:AE8)</f>
-        <v>0.99955291368185739</v>
+        <v>1.2669105319311083</v>
       </c>
       <c r="AG8" s="8">
         <f t="shared" ref="AG8" si="16">AVERAGE(AD8:AF8)</f>
-        <v>1.0017815712374467</v>
+        <v>1.2697353045775543</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" ref="AH8" si="17">AVERAGE(AE8:AG8)</f>
-        <v>0.99896131461441617</v>
+        <v>1.2645396196379279</v>
       </c>
     </row>
     <row r="9" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2954,9 +3008,9 @@
       <c r="M9" s="8">
         <v>7</v>
       </c>
-      <c r="N9" s="49">
-        <f>AVERAGE(K9:M9)</f>
-        <v>5.333333333333333</v>
+      <c r="N9" s="34">
+        <f t="shared" si="7"/>
+        <v>-25.7</v>
       </c>
       <c r="P9" s="34"/>
       <c r="R9" s="8">
@@ -2977,49 +3031,48 @@
       <c r="W9" s="8">
         <v>9</v>
       </c>
-      <c r="X9" s="49">
-        <f t="shared" si="7"/>
-        <v>12.333333333333332</v>
+      <c r="X9" s="93">
+        <v>-18.7</v>
       </c>
       <c r="Y9" s="8">
         <f>AVERAGE(V9:X9)</f>
-        <v>10.777777777777777</v>
+        <v>0.43333333333333357</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ref="Z9:AH9" si="18">AVERAGE(W9:Y9)</f>
-        <v>10.703703703703702</v>
+        <v>-3.0888888888888886</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" si="18"/>
-        <v>11.271604938271603</v>
+        <v>-7.1185185185185178</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="18"/>
-        <v>10.917695473251028</v>
+        <v>-3.258024691358024</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" si="18"/>
-        <v>10.964334705075444</v>
+        <v>-4.4884773662551432</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="18"/>
-        <v>11.051211705532692</v>
+        <v>-4.9550068587105613</v>
       </c>
       <c r="AE9" s="8">
         <f t="shared" si="18"/>
-        <v>10.977747294619723</v>
+        <v>-4.2338363054412431</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="18"/>
-        <v>10.997764568409288</v>
+        <v>-4.5591068434689825</v>
       </c>
       <c r="AG9" s="8">
         <f t="shared" si="18"/>
-        <v>11.008907856187236</v>
+        <v>-4.5826500025402623</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="18"/>
-        <v>10.994806573072083</v>
+        <v>-4.4585310504834963</v>
       </c>
     </row>
     <row r="10" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3070,78 +3123,78 @@
         <f t="shared" si="19"/>
         <v>145.5</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="34">
         <f t="shared" si="19"/>
-        <v>173.21003333333331</v>
+        <v>183.29999999999998</v>
       </c>
       <c r="P10" s="34"/>
       <c r="R10" s="8">
-        <f>R5+R6+R7+R8-R9</f>
+        <f t="shared" ref="R10:X10" si="20">R5+R6+R7+R8-R9</f>
         <v>157.703</v>
       </c>
       <c r="S10" s="8">
-        <f>S5+S6+S7+S8-S9</f>
+        <f t="shared" si="20"/>
         <v>171.94899999999998</v>
       </c>
       <c r="T10" s="8">
-        <f>T5+T6+T7+T8-T9</f>
+        <f t="shared" si="20"/>
         <v>206.70000000000002</v>
       </c>
       <c r="U10" s="8">
-        <f>U5+U6+U7+U8-U9</f>
+        <f t="shared" si="20"/>
         <v>224.10000000000002</v>
       </c>
       <c r="V10" s="8">
-        <f>V5+V6+V7+V8-V9</f>
+        <f t="shared" si="20"/>
         <v>252.90000000000003</v>
       </c>
       <c r="W10" s="8">
-        <f>W5+W6+W7+W8-W9</f>
+        <f t="shared" si="20"/>
         <v>304.39999999999998</v>
       </c>
-      <c r="X10" s="49">
-        <f>X5+X6+X7+X8-X9</f>
-        <v>318.71003333333334</v>
+      <c r="X10" s="8">
+        <f t="shared" si="20"/>
+        <v>328.79999999999995</v>
       </c>
       <c r="Y10" s="8">
-        <f t="shared" ref="Y10:AH10" si="20">Y5+Y6+Y7+Y8-Y9</f>
-        <v>386.26448377777774</v>
+        <f t="shared" ref="Y10:AH10" si="21">Y5+Y6+Y7+Y8-Y9</f>
+        <v>394.23471999999992</v>
       </c>
       <c r="Z10" s="8">
-        <f t="shared" si="20"/>
-        <v>445.73674893703691</v>
+        <f t="shared" si="21"/>
+        <v>456.83159466666655</v>
       </c>
       <c r="AA10" s="8">
-        <f t="shared" si="20"/>
-        <v>504.49739049638265</v>
+        <f t="shared" si="21"/>
+        <v>519.88725752888865</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" si="20"/>
-        <v>561.39913225756902</v>
+        <f t="shared" si="21"/>
+        <v>572.13737437558495</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" si="20"/>
-        <v>624.20848262208824</v>
+        <f t="shared" si="21"/>
+        <v>635.84084358159078</v>
       </c>
       <c r="AD10" s="8">
-        <f t="shared" si="20"/>
-        <v>687.55697606033743</v>
+        <f t="shared" si="21"/>
+        <v>699.34365221958535</v>
       </c>
       <c r="AE10" s="8">
-        <f t="shared" si="20"/>
-        <v>757.37554213154419</v>
+        <f t="shared" si="21"/>
+        <v>767.90446462947261</v>
       </c>
       <c r="AF10" s="8">
-        <f t="shared" si="20"/>
-        <v>834.09530230923667</v>
+        <f t="shared" si="21"/>
+        <v>844.48103820718904</v>
       </c>
       <c r="AG10" s="8">
-        <f t="shared" si="20"/>
-        <v>918.49573907541082</v>
+        <f t="shared" si="21"/>
+        <v>928.37290822208581</v>
       </c>
       <c r="AH10" s="8">
-        <f t="shared" si="20"/>
-        <v>1011.3573066379391</v>
+        <f t="shared" si="21"/>
+        <v>1020.4956458765864</v>
       </c>
     </row>
     <row r="11" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3186,9 +3239,9 @@
       <c r="M11" s="8">
         <v>30.7</v>
       </c>
-      <c r="N11" s="49">
-        <f>N10*N23</f>
-        <v>36.374106999999995</v>
+      <c r="N11" s="34">
+        <f t="shared" si="7"/>
+        <v>26.500000000000004</v>
       </c>
       <c r="P11" s="34"/>
       <c r="R11" s="8">
@@ -3209,49 +3262,48 @@
       <c r="W11" s="8">
         <v>60.2</v>
       </c>
-      <c r="X11" s="49">
-        <f>N11+M11</f>
-        <v>67.074106999999998</v>
+      <c r="X11" s="93">
+        <v>57.2</v>
       </c>
       <c r="Y11" s="8">
         <f>Y10*Y23</f>
-        <v>81.115541593333319</v>
+        <v>82.78929119999998</v>
       </c>
       <c r="Z11" s="8">
-        <f t="shared" ref="Z11:AH11" si="21">Z10*Z23</f>
-        <v>93.604717276777748</v>
+        <f t="shared" ref="Z11:AH11" si="22">Z10*Z23</f>
+        <v>95.934634879999976</v>
       </c>
       <c r="AA11" s="8">
-        <f t="shared" si="21"/>
-        <v>105.94445200424035</v>
+        <f t="shared" si="22"/>
+        <v>109.17632408106661</v>
       </c>
       <c r="AB11" s="8">
-        <f t="shared" si="21"/>
-        <v>117.89381777408948</v>
+        <f t="shared" si="22"/>
+        <v>120.14884861887283</v>
       </c>
       <c r="AC11" s="8">
-        <f t="shared" si="21"/>
-        <v>131.08378135063853</v>
+        <f t="shared" si="22"/>
+        <v>133.52657715213405</v>
       </c>
       <c r="AD11" s="8">
-        <f t="shared" si="21"/>
-        <v>144.38696497267085</v>
+        <f t="shared" si="22"/>
+        <v>146.86216696611291</v>
       </c>
       <c r="AE11" s="8">
-        <f t="shared" si="21"/>
-        <v>159.04886384762426</v>
+        <f t="shared" si="22"/>
+        <v>161.25993757218924</v>
       </c>
       <c r="AF11" s="8">
-        <f t="shared" si="21"/>
-        <v>175.1600134849397</v>
+        <f t="shared" si="22"/>
+        <v>177.34101802350969</v>
       </c>
       <c r="AG11" s="8">
-        <f t="shared" si="21"/>
-        <v>192.88410520583628</v>
+        <f t="shared" si="22"/>
+        <v>194.95831072663802</v>
       </c>
       <c r="AH11" s="8">
-        <f t="shared" si="21"/>
-        <v>212.3850343939672</v>
+        <f t="shared" si="22"/>
+        <v>214.30408563408315</v>
       </c>
     </row>
     <row r="12" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3259,277 +3311,277 @@
         <v>68</v>
       </c>
       <c r="C12" s="32">
-        <f t="shared" ref="C12:M12" si="22">C10-C11</f>
+        <f t="shared" ref="C12:M12" si="23">C10-C11</f>
         <v>61.699999999999996</v>
       </c>
       <c r="D12" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>92.528000000000006</v>
       </c>
       <c r="E12" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>74.599999999999994</v>
       </c>
       <c r="F12" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>95.200000000000017</v>
       </c>
       <c r="G12" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>85.000000000000014</v>
       </c>
       <c r="H12" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>99.40000000000002</v>
       </c>
       <c r="I12" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>77.3</v>
       </c>
       <c r="J12" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>126.00000000000003</v>
       </c>
       <c r="K12" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>135.69999999999999</v>
       </c>
       <c r="L12" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>108.49999999999997</v>
       </c>
       <c r="M12" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>114.8</v>
       </c>
-      <c r="N12" s="48">
+      <c r="N12" s="33">
         <f>N10-N11</f>
-        <v>136.8359263333333</v>
+        <v>156.79999999999998</v>
       </c>
       <c r="P12" s="33"/>
       <c r="R12" s="32">
-        <f>R10-R11</f>
+        <f t="shared" ref="R12:X12" si="24">R10-R11</f>
         <v>129.68899999999999</v>
       </c>
       <c r="S12" s="32">
-        <f>S10-S11</f>
+        <f t="shared" si="24"/>
         <v>154.22799999999998</v>
       </c>
       <c r="T12" s="32">
-        <f>T10-T11</f>
+        <f t="shared" si="24"/>
         <v>169.8</v>
       </c>
       <c r="U12" s="32">
-        <f>U10-U11</f>
+        <f t="shared" si="24"/>
         <v>184.40000000000003</v>
       </c>
       <c r="V12" s="32">
-        <f>V10-V11</f>
+        <f t="shared" si="24"/>
         <v>203.30000000000004</v>
       </c>
       <c r="W12" s="32">
-        <f>W10-W11</f>
+        <f t="shared" si="24"/>
         <v>244.2</v>
       </c>
-      <c r="X12" s="48">
-        <f t="shared" ref="X12:AH12" si="23">X10-X11</f>
-        <v>251.63592633333334</v>
+      <c r="X12" s="32">
+        <f t="shared" si="24"/>
+        <v>271.59999999999997</v>
       </c>
       <c r="Y12" s="32">
-        <f t="shared" si="23"/>
-        <v>305.14894218444442</v>
+        <f t="shared" ref="X12:AH12" si="25">Y10-Y11</f>
+        <v>311.44542879999995</v>
       </c>
       <c r="Z12" s="32">
-        <f t="shared" si="23"/>
-        <v>352.13203166025914</v>
+        <f t="shared" si="25"/>
+        <v>360.89695978666657</v>
       </c>
       <c r="AA12" s="32">
-        <f t="shared" si="23"/>
-        <v>398.55293849214229</v>
+        <f t="shared" si="25"/>
+        <v>410.71093344782207</v>
       </c>
       <c r="AB12" s="32">
-        <f t="shared" si="23"/>
-        <v>443.50531448347954</v>
+        <f t="shared" si="25"/>
+        <v>451.98852575671214</v>
       </c>
       <c r="AC12" s="32">
-        <f t="shared" si="23"/>
-        <v>493.12470127144968</v>
+        <f t="shared" si="25"/>
+        <v>502.31426642945672</v>
       </c>
       <c r="AD12" s="32">
-        <f t="shared" si="23"/>
-        <v>543.17001108766658</v>
+        <f t="shared" si="25"/>
+        <v>552.48148525347244</v>
       </c>
       <c r="AE12" s="32">
-        <f t="shared" si="23"/>
-        <v>598.32667828391993</v>
+        <f t="shared" si="25"/>
+        <v>606.64452705728331</v>
       </c>
       <c r="AF12" s="32">
-        <f t="shared" si="23"/>
-        <v>658.935288824297</v>
+        <f t="shared" si="25"/>
+        <v>667.14002018367933</v>
       </c>
       <c r="AG12" s="32">
-        <f t="shared" si="23"/>
-        <v>725.61163386957458</v>
+        <f t="shared" si="25"/>
+        <v>733.41459749544777</v>
       </c>
       <c r="AH12" s="32">
-        <f t="shared" si="23"/>
-        <v>798.97227224397193</v>
+        <f t="shared" si="25"/>
+        <v>806.19156024250333</v>
       </c>
       <c r="AI12" s="32">
         <f>AH12*(1+$AK$21)</f>
-        <v>790.98254952153218</v>
+        <v>798.12964464007825</v>
       </c>
       <c r="AJ12" s="32">
-        <f t="shared" ref="AJ12:BU12" si="24">AI12*(1+$AK$21)</f>
-        <v>783.07272402631691</v>
+        <f t="shared" ref="AJ12:BU12" si="26">AI12*(1+$AK$21)</f>
+        <v>790.14834819367752</v>
       </c>
       <c r="AK12" s="32">
-        <f t="shared" si="24"/>
-        <v>775.24199678605373</v>
+        <f t="shared" si="26"/>
+        <v>782.24686471174073</v>
       </c>
       <c r="AL12" s="32">
-        <f t="shared" si="24"/>
-        <v>767.4895768181932</v>
+        <f t="shared" si="26"/>
+        <v>774.42439606462335</v>
       </c>
       <c r="AM12" s="32">
-        <f t="shared" si="24"/>
-        <v>759.81468105001125</v>
+        <f t="shared" si="26"/>
+        <v>766.68015210397709</v>
       </c>
       <c r="AN12" s="32">
-        <f t="shared" si="24"/>
-        <v>752.21653423951113</v>
+        <f t="shared" si="26"/>
+        <v>759.01335058293728</v>
       </c>
       <c r="AO12" s="32">
-        <f t="shared" si="24"/>
-        <v>744.69436889711596</v>
+        <f t="shared" si="26"/>
+        <v>751.42321707710789</v>
       </c>
       <c r="AP12" s="32">
-        <f t="shared" si="24"/>
-        <v>737.24742520814482</v>
+        <f t="shared" si="26"/>
+        <v>743.90898490633685</v>
       </c>
       <c r="AQ12" s="32">
-        <f t="shared" si="24"/>
-        <v>729.87495095606334</v>
+        <f t="shared" si="26"/>
+        <v>736.46989505727345</v>
       </c>
       <c r="AR12" s="32">
-        <f t="shared" si="24"/>
-        <v>722.57620144650275</v>
+        <f t="shared" si="26"/>
+        <v>729.10519610670076</v>
       </c>
       <c r="AS12" s="32">
-        <f t="shared" si="24"/>
-        <v>715.35043943203766</v>
+        <f t="shared" si="26"/>
+        <v>721.81414414563369</v>
       </c>
       <c r="AT12" s="32">
-        <f t="shared" si="24"/>
-        <v>708.19693503771725</v>
+        <f t="shared" si="26"/>
+        <v>714.59600270417729</v>
       </c>
       <c r="AU12" s="32">
-        <f t="shared" si="24"/>
-        <v>701.11496568734003</v>
+        <f t="shared" si="26"/>
+        <v>707.45004267713557</v>
       </c>
       <c r="AV12" s="32">
-        <f t="shared" si="24"/>
-        <v>694.10381603046665</v>
+        <f t="shared" si="26"/>
+        <v>700.37554225036422</v>
       </c>
       <c r="AW12" s="32">
-        <f t="shared" si="24"/>
-        <v>687.16277787016202</v>
+        <f t="shared" si="26"/>
+        <v>693.37178682786055</v>
       </c>
       <c r="AX12" s="32">
-        <f t="shared" si="24"/>
-        <v>680.29115009146039</v>
+        <f t="shared" si="26"/>
+        <v>686.43806895958198</v>
       </c>
       <c r="AY12" s="32">
-        <f t="shared" si="24"/>
-        <v>673.48823859054573</v>
+        <f t="shared" si="26"/>
+        <v>679.57368826998618</v>
       </c>
       <c r="AZ12" s="32">
-        <f t="shared" si="24"/>
-        <v>666.75335620464023</v>
+        <f t="shared" si="26"/>
+        <v>672.77795138728629</v>
       </c>
       <c r="BA12" s="32">
-        <f t="shared" si="24"/>
-        <v>660.08582264259383</v>
+        <f t="shared" si="26"/>
+        <v>666.05017187341343</v>
       </c>
       <c r="BB12" s="32">
-        <f t="shared" si="24"/>
-        <v>653.48496441616783</v>
+        <f t="shared" si="26"/>
+        <v>659.38967015467927</v>
       </c>
       <c r="BC12" s="32">
-        <f t="shared" si="24"/>
-        <v>646.95011477200615</v>
+        <f t="shared" si="26"/>
+        <v>652.79577345313248</v>
       </c>
       <c r="BD12" s="32">
-        <f t="shared" si="24"/>
-        <v>640.48061362428609</v>
+        <f t="shared" si="26"/>
+        <v>646.26781571860113</v>
       </c>
       <c r="BE12" s="32">
-        <f t="shared" si="24"/>
-        <v>634.07580748804321</v>
+        <f t="shared" si="26"/>
+        <v>639.80513756141511</v>
       </c>
       <c r="BF12" s="32">
-        <f t="shared" si="24"/>
-        <v>627.73504941316276</v>
+        <f t="shared" si="26"/>
+        <v>633.40708618580095</v>
       </c>
       <c r="BG12" s="32">
-        <f t="shared" si="24"/>
-        <v>621.45769891903115</v>
+        <f t="shared" si="26"/>
+        <v>627.07301532394297</v>
       </c>
       <c r="BH12" s="32">
-        <f t="shared" si="24"/>
-        <v>615.24312192984087</v>
+        <f t="shared" si="26"/>
+        <v>620.8022851707035</v>
       </c>
       <c r="BI12" s="32">
-        <f t="shared" si="24"/>
-        <v>609.0906907105425</v>
+        <f t="shared" si="26"/>
+        <v>614.59426231899647</v>
       </c>
       <c r="BJ12" s="32">
-        <f t="shared" si="24"/>
-        <v>602.99978380343703</v>
+        <f t="shared" si="26"/>
+        <v>608.4483196958065</v>
       </c>
       <c r="BK12" s="32">
-        <f t="shared" si="24"/>
-        <v>596.96978596540271</v>
+        <f t="shared" si="26"/>
+        <v>602.3638364988484</v>
       </c>
       <c r="BL12" s="32">
-        <f t="shared" si="24"/>
-        <v>591.00008810574866</v>
+        <f t="shared" si="26"/>
+        <v>596.34019813385987</v>
       </c>
       <c r="BM12" s="32">
-        <f t="shared" si="24"/>
-        <v>585.09008722469116</v>
+        <f t="shared" si="26"/>
+        <v>590.37679615252125</v>
       </c>
       <c r="BN12" s="32">
-        <f t="shared" si="24"/>
-        <v>579.23918635244422</v>
+        <f t="shared" si="26"/>
+        <v>584.47302819099605</v>
       </c>
       <c r="BO12" s="32">
-        <f t="shared" si="24"/>
-        <v>573.44679448891975</v>
+        <f t="shared" si="26"/>
+        <v>578.62829790908609</v>
       </c>
       <c r="BP12" s="32">
-        <f t="shared" si="24"/>
-        <v>567.71232654403059</v>
+        <f t="shared" si="26"/>
+        <v>572.84201492999523</v>
       </c>
       <c r="BQ12" s="32">
-        <f t="shared" si="24"/>
-        <v>562.0352032785903</v>
+        <f t="shared" si="26"/>
+        <v>567.11359478069528</v>
       </c>
       <c r="BR12" s="32">
-        <f t="shared" si="24"/>
-        <v>556.41485124580436</v>
+        <f t="shared" si="26"/>
+        <v>561.44245883288829</v>
       </c>
       <c r="BS12" s="32">
-        <f t="shared" si="24"/>
-        <v>550.85070273334634</v>
+        <f t="shared" si="26"/>
+        <v>555.82803424455938</v>
       </c>
       <c r="BT12" s="32">
-        <f t="shared" si="24"/>
-        <v>545.34219570601283</v>
+        <f t="shared" si="26"/>
+        <v>550.26975390211373</v>
       </c>
       <c r="BU12" s="32">
-        <f t="shared" si="24"/>
-        <v>539.88877374895264</v>
+        <f t="shared" si="26"/>
+        <v>544.76705636309259</v>
       </c>
     </row>
     <row r="13" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3537,60 +3589,60 @@
         <v>71</v>
       </c>
       <c r="C13" s="32">
-        <f t="shared" ref="C13:N13" si="25">C12+C14</f>
+        <f t="shared" ref="C13:N13" si="27">C12+C14</f>
         <v>61.699999999999996</v>
       </c>
       <c r="D13" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>92.528000000000006</v>
       </c>
       <c r="E13" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>74.599999999999994</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>95.200000000000017</v>
       </c>
       <c r="G13" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>85.000000000000014</v>
       </c>
       <c r="H13" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>99.40000000000002</v>
       </c>
       <c r="I13" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>77.3</v>
       </c>
       <c r="J13" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>125.90000000000003</v>
       </c>
       <c r="K13" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>135.79999999999998</v>
       </c>
       <c r="L13" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>108.19999999999997</v>
       </c>
       <c r="M13" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>115</v>
       </c>
-      <c r="N13" s="48">
-        <f t="shared" si="25"/>
-        <v>136.97276225966664</v>
+      <c r="N13" s="33">
+        <f t="shared" si="27"/>
+        <v>156.39999999999998</v>
       </c>
       <c r="P13" s="33"/>
       <c r="R13" s="32">
-        <f t="shared" ref="R13:S13" si="26">R12+R14</f>
+        <f t="shared" ref="R13:S13" si="28">R12+R14</f>
         <v>129.68899999999999</v>
       </c>
       <c r="S13" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>154.22799999999998</v>
       </c>
       <c r="T13" s="32">
@@ -3609,49 +3661,49 @@
         <f>W12+W14</f>
         <v>244</v>
       </c>
-      <c r="X13" s="48">
-        <f t="shared" ref="X13" si="27">X12+X14</f>
-        <v>251.97276225966667</v>
+      <c r="X13" s="32">
+        <f>X12+X14</f>
+        <v>271.39999999999998</v>
       </c>
       <c r="Y13" s="32">
         <f>Y12+Y14</f>
-        <v>305.18861154692843</v>
+        <v>311.48591670574393</v>
       </c>
       <c r="Z13" s="32">
-        <f t="shared" ref="Z13:AH13" si="28">Z12+Z14</f>
-        <v>352.17780882437501</v>
+        <f t="shared" ref="Z13:AH13" si="29">Z12+Z14</f>
+        <v>360.94387639143883</v>
       </c>
       <c r="AA13" s="32">
-        <f t="shared" si="28"/>
-        <v>398.60475037414625</v>
+        <f t="shared" si="29"/>
+        <v>410.76432586917031</v>
       </c>
       <c r="AB13" s="32">
-        <f t="shared" si="28"/>
-        <v>443.56297017436236</v>
+        <f t="shared" si="29"/>
+        <v>452.04728426506051</v>
       </c>
       <c r="AC13" s="32">
-        <f t="shared" si="28"/>
-        <v>493.18880748261495</v>
+        <f t="shared" si="29"/>
+        <v>502.37956728409256</v>
       </c>
       <c r="AD13" s="32">
-        <f t="shared" si="28"/>
-        <v>543.24062318910796</v>
+        <f t="shared" si="29"/>
+        <v>552.55330784655541</v>
       </c>
       <c r="AE13" s="32">
-        <f t="shared" si="28"/>
-        <v>598.40446075209684</v>
+        <f t="shared" si="29"/>
+        <v>606.72339084580074</v>
       </c>
       <c r="AF13" s="32">
-        <f t="shared" si="28"/>
-        <v>659.02095041184418</v>
+        <f t="shared" si="29"/>
+        <v>667.22674838630326</v>
       </c>
       <c r="AG13" s="32">
-        <f t="shared" si="28"/>
-        <v>725.70596338197765</v>
+        <f t="shared" si="29"/>
+        <v>733.50994139312218</v>
       </c>
       <c r="AH13" s="32">
-        <f t="shared" si="28"/>
-        <v>799.07613863936365</v>
+        <f t="shared" si="29"/>
+        <v>806.2963651453349</v>
       </c>
     </row>
     <row r="14" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3676,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="34">
-        <f t="shared" ref="H14" si="29">U14-G14</f>
+        <f t="shared" ref="H14" si="30">U14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="44">
@@ -3696,9 +3748,9 @@
       <c r="M14" s="8">
         <v>0.2</v>
       </c>
-      <c r="N14" s="49">
-        <f>N12*0.001</f>
-        <v>0.1368359263333333</v>
+      <c r="N14" s="34">
+        <f>X14-M14</f>
+        <v>-0.4</v>
       </c>
       <c r="P14" s="34"/>
       <c r="R14" s="8">
@@ -3719,49 +3771,48 @@
       <c r="W14" s="8">
         <v>-0.2</v>
       </c>
-      <c r="X14" s="49">
-        <f>N14+M14</f>
-        <v>0.33683592633333331</v>
+      <c r="X14" s="93">
+        <v>-0.2</v>
       </c>
       <c r="Y14" s="8">
         <f>Y12*0.00013</f>
-        <v>3.9669362483977774E-2</v>
+        <v>4.0487905743999991E-2</v>
       </c>
       <c r="Z14" s="8">
-        <f t="shared" ref="Z14:AH14" si="30">Z12*0.00013</f>
-        <v>4.5777164115833685E-2</v>
+        <f t="shared" ref="Z14:AH14" si="31">Z12*0.00013</f>
+        <v>4.6916604772266647E-2</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="30"/>
-        <v>5.1811882003978495E-2</v>
+        <f t="shared" si="31"/>
+        <v>5.3392421348216867E-2</v>
       </c>
       <c r="AB14" s="8">
-        <f t="shared" si="30"/>
-        <v>5.7655690882852335E-2</v>
+        <f t="shared" si="31"/>
+        <v>5.8758508348372575E-2</v>
       </c>
       <c r="AC14" s="8">
-        <f t="shared" si="30"/>
-        <v>6.410621116528846E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.5300854635829367E-2</v>
       </c>
       <c r="AD14" s="8">
-        <f t="shared" si="30"/>
-        <v>7.0612101441396652E-2</v>
+        <f t="shared" si="31"/>
+        <v>7.1822593082951414E-2</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" si="30"/>
-        <v>7.7782468176909578E-2</v>
+        <f t="shared" si="31"/>
+        <v>7.8863788517446826E-2</v>
       </c>
       <c r="AF14" s="8">
-        <f t="shared" si="30"/>
-        <v>8.5661587547158607E-2</v>
+        <f t="shared" si="31"/>
+        <v>8.67282026238783E-2</v>
       </c>
       <c r="AG14" s="8">
-        <f t="shared" si="30"/>
-        <v>9.4329512403044685E-2</v>
+        <f t="shared" si="31"/>
+        <v>9.5343897674408207E-2</v>
       </c>
       <c r="AH14" s="8">
-        <f t="shared" si="30"/>
-        <v>0.10386639539171634</v>
+        <f t="shared" si="31"/>
+        <v>0.10480490283152542</v>
       </c>
     </row>
     <row r="15" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
@@ -3769,68 +3820,68 @@
         <v>70</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" ref="C15:N15" si="31">C12/C16</f>
+        <f t="shared" ref="C15:N15" si="32">C12/C16</f>
         <v>0.16270266756508422</v>
       </c>
       <c r="D15" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.24414534950419484</v>
       </c>
       <c r="E15" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.19681108372907286</v>
       </c>
       <c r="F15" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.25108149993397905</v>
       </c>
       <c r="G15" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.22419479233636896</v>
       </c>
       <c r="H15" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.26220905435668357</v>
       </c>
       <c r="I15" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.20390802308932054</v>
       </c>
       <c r="J15" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.33271719038817016</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.35795304668952777</v>
       </c>
       <c r="L15" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.28650646950092412</v>
       </c>
       <c r="M15" s="35">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.30354309888947645</v>
       </c>
-      <c r="N15" s="50">
-        <f t="shared" si="31"/>
-        <v>0.36180837211352013</v>
+      <c r="N15" s="36">
+        <f t="shared" si="32"/>
+        <v>0.41481481481481475</v>
       </c>
       <c r="P15" s="36"/>
       <c r="R15" s="35">
-        <f t="shared" ref="R15:U15" si="32">R12/R16</f>
+        <f t="shared" ref="R15:U15" si="33">R12/R16</f>
         <v>0.34247131519848928</v>
       </c>
       <c r="S15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.40694761546054115</v>
       </c>
       <c r="T15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.44783233916795839</v>
       </c>
       <c r="U15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.48643208876632238</v>
       </c>
       <c r="V15" s="35">
@@ -3841,49 +3892,49 @@
         <f>W12/W16</f>
         <v>0.6448376023237391</v>
       </c>
-      <c r="X15" s="50">
-        <f>X13/X16</f>
-        <v>0.66624210010488283</v>
+      <c r="X15" s="35">
+        <f>X12/X16</f>
+        <v>0.71851851851851845</v>
       </c>
       <c r="Y15" s="35">
         <f>Y13/Y16</f>
-        <v>0.80695032138267697</v>
+        <v>0.82403681668186224</v>
       </c>
       <c r="Z15" s="35">
-        <f t="shared" ref="Z15:AH15" si="33">Z13/Z16</f>
-        <v>0.93119462936111852</v>
+        <f t="shared" ref="Z15:AH15" si="34">Z13/Z16</f>
+        <v>0.95487797987153133</v>
       </c>
       <c r="AA15" s="35">
-        <f t="shared" si="33"/>
-        <v>1.0539522749184196</v>
+        <f t="shared" si="34"/>
+        <v>1.0866781107650008</v>
       </c>
       <c r="AB15" s="35">
-        <f t="shared" si="33"/>
-        <v>1.1728264679385574</v>
+        <f t="shared" si="34"/>
+        <v>1.1958922864155039</v>
       </c>
       <c r="AC15" s="35">
-        <f t="shared" si="33"/>
-        <v>1.3040423254431914</v>
+        <f t="shared" si="34"/>
+        <v>1.3290464742965411</v>
       </c>
       <c r="AD15" s="35">
-        <f t="shared" si="33"/>
-        <v>1.4363845139849498</v>
+        <f t="shared" si="34"/>
+        <v>1.4617812376893</v>
       </c>
       <c r="AE15" s="35">
-        <f t="shared" si="33"/>
-        <v>1.5822434181705363</v>
+        <f t="shared" si="34"/>
+        <v>1.6050883355709014</v>
       </c>
       <c r="AF15" s="35">
-        <f t="shared" si="33"/>
-        <v>1.7425196996611427</v>
+        <f t="shared" si="34"/>
+        <v>1.7651501280060933</v>
       </c>
       <c r="AG15" s="35">
-        <f t="shared" si="33"/>
-        <v>1.9188417857799516</v>
+        <f t="shared" si="34"/>
+        <v>1.9405024904579953</v>
       </c>
       <c r="AH15" s="35">
-        <f t="shared" si="33"/>
-        <v>2.1128401338957263</v>
+        <f t="shared" si="34"/>
+        <v>2.1330591670511505</v>
       </c>
     </row>
     <row r="16" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3928,9 +3979,9 @@
       <c r="M16" s="8">
         <v>378.2</v>
       </c>
-      <c r="N16" s="49">
-        <f>M16</f>
-        <v>378.2</v>
+      <c r="N16" s="34">
+        <f>X16</f>
+        <v>378</v>
       </c>
       <c r="P16" s="34"/>
       <c r="R16" s="8">
@@ -3951,128 +4002,127 @@
       <c r="W16" s="8">
         <v>378.7</v>
       </c>
-      <c r="X16" s="49">
-        <f>N16</f>
-        <v>378.2</v>
+      <c r="X16" s="93">
+        <v>378</v>
       </c>
       <c r="Y16" s="8">
         <f>X16</f>
-        <v>378.2</v>
+        <v>378</v>
       </c>
       <c r="Z16" s="8">
-        <f t="shared" ref="Z16:AH16" si="34">Y16</f>
-        <v>378.2</v>
+        <f t="shared" ref="Z16:AH16" si="35">Y16</f>
+        <v>378</v>
       </c>
       <c r="AA16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
       <c r="AB16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
       <c r="AC16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
       <c r="AD16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
       <c r="AF16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="34"/>
-        <v>378.2</v>
+        <f t="shared" si="35"/>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="80" t="s">
         <v>105</v>
       </c>
       <c r="E18" s="39">
-        <f>E4/C4-1</f>
+        <f t="shared" ref="E18:N18" si="36">E4/C4-1</f>
         <v>0.15642899466719329</v>
       </c>
       <c r="F18" s="40">
-        <f>F4/D4-1</f>
+        <f t="shared" si="36"/>
         <v>9.7364325306933841E-2</v>
       </c>
       <c r="G18" s="39">
-        <f>G4/E4-1</f>
+        <f t="shared" si="36"/>
         <v>0.11648163962425295</v>
       </c>
       <c r="H18" s="40">
-        <f>H4/F4-1</f>
+        <f t="shared" si="36"/>
         <v>9.4819315637991508E-2</v>
       </c>
       <c r="I18" s="39">
-        <f>I4/G4-1</f>
+        <f t="shared" si="36"/>
         <v>-5.4000305950742011E-2</v>
       </c>
       <c r="J18" s="40">
-        <f>J4/H4-1</f>
+        <f t="shared" si="36"/>
         <v>2.2053454067474831E-2</v>
       </c>
       <c r="K18" s="39">
-        <f>K4/I4-1</f>
+        <f t="shared" si="36"/>
         <v>0.19210866752910749</v>
       </c>
       <c r="L18" s="40">
-        <f>L4/J4-1</f>
+        <f t="shared" si="36"/>
         <v>0.1261789082595024</v>
       </c>
       <c r="M18" s="39">
-        <f>M4/K4-1</f>
+        <f t="shared" si="36"/>
         <v>0.18760173629951149</v>
       </c>
-      <c r="N18" s="51">
-        <f>N4/L4-1</f>
-        <v>0.25531658418982373</v>
+      <c r="N18" s="40">
+        <f t="shared" si="36"/>
+        <v>0.24007105697246556</v>
       </c>
       <c r="P18" s="40"/>
-      <c r="R18" s="91" t="s">
+      <c r="R18" s="78" t="s">
         <v>105</v>
       </c>
       <c r="S18" s="39">
-        <f t="shared" ref="S18:V18" si="35">S4/R4-1</f>
+        <f t="shared" ref="S18:V18" si="37">S4/R4-1</f>
         <v>0.11911565602051444</v>
       </c>
       <c r="T18" s="39">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.12515110884389768</v>
       </c>
       <c r="U18" s="39">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.10529358328515981</v>
       </c>
       <c r="V18" s="39">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1.5092647937836268E-2</v>
       </c>
       <c r="W18" s="39">
         <f>W4/V4-1</f>
         <v>0.15710817781823683</v>
       </c>
-      <c r="X18" s="51">
-        <f>X4/W4-1</f>
-        <v>0.22258899888546524</v>
+      <c r="X18" s="39">
+        <f t="shared" ref="X18" si="38">X4/W4-1</f>
+        <v>0.21471185996197462</v>
       </c>
       <c r="Y18" s="39">
         <v>0.18</v>
@@ -4109,198 +4159,204 @@
       <c r="B19" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="78" t="s">
         <v>105</v>
       </c>
       <c r="D19" s="38">
-        <f>D4/C4-1</f>
+        <f t="shared" ref="D19:M19" si="39">D4/C4-1</f>
         <v>0.1256389492395813</v>
       </c>
       <c r="E19" s="37">
-        <f>E4/D4-1</f>
+        <f t="shared" si="39"/>
         <v>2.7353393775519264E-2</v>
       </c>
       <c r="F19" s="38">
-        <f>F4/E4-1</f>
+        <f t="shared" si="39"/>
         <v>6.8146883005977932E-2</v>
       </c>
       <c r="G19" s="37">
-        <f>G4/F4-1</f>
+        <f t="shared" si="39"/>
         <v>4.5251039334825549E-2</v>
       </c>
       <c r="H19" s="38">
-        <f>H4/G4-1</f>
+        <f t="shared" si="39"/>
         <v>4.7422364999235134E-2</v>
       </c>
       <c r="I19" s="37">
-        <f>I4/H4-1</f>
+        <f t="shared" si="39"/>
         <v>-9.6830728786329923E-2</v>
       </c>
       <c r="J19" s="38">
-        <f>J4/I4-1</f>
+        <f t="shared" si="39"/>
         <v>0.13163001293661081</v>
       </c>
       <c r="K19" s="37">
-        <f>K4/J4-1</f>
+        <f t="shared" si="39"/>
         <v>5.3443841097456479E-2</v>
       </c>
       <c r="L19" s="38">
-        <f>L4/K4-1</f>
+        <f t="shared" si="39"/>
         <v>6.9045035268583632E-2</v>
       </c>
       <c r="M19" s="37">
-        <f>M4/L4-1</f>
+        <f t="shared" si="39"/>
         <v>0.11089963202639264</v>
       </c>
-      <c r="N19" s="52">
-        <v>0.13</v>
+      <c r="N19" s="38">
+        <f t="shared" ref="N19" si="40">N4/M4-1</f>
+        <v>0.11627641347801254</v>
       </c>
       <c r="P19" s="38"/>
-      <c r="R19" s="91" t="s">
+      <c r="R19" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="S19" s="91" t="s">
+      <c r="S19" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="T19" s="91" t="s">
+      <c r="T19" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="U19" s="91" t="s">
+      <c r="U19" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="V19" s="91" t="s">
+      <c r="V19" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="W19" s="91" t="s">
+      <c r="W19" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="X19" s="52"/>
+      <c r="X19" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="X20" s="1"/>
     </row>
     <row r="21" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="37">
-        <f>C5/C4</f>
+        <f t="shared" ref="C21:N21" si="41">C5/C4</f>
         <v>0.16156428994667194</v>
       </c>
       <c r="D21" s="38">
-        <f>D5/D4</f>
+        <f t="shared" si="41"/>
         <v>0.17451496812660222</v>
       </c>
       <c r="E21" s="37">
-        <f>E5/E4</f>
+        <f t="shared" si="41"/>
         <v>0.17147736976942785</v>
       </c>
       <c r="F21" s="38">
-        <f>F5/F4</f>
+        <f t="shared" si="41"/>
         <v>0.18771985929005436</v>
       </c>
       <c r="G21" s="37">
-        <f>G5/G4</f>
+        <f t="shared" si="41"/>
         <v>0.17072051399724641</v>
       </c>
       <c r="H21" s="38">
-        <f>H5/H4</f>
+        <f t="shared" si="41"/>
         <v>0.17788812618665109</v>
       </c>
       <c r="I21" s="37">
-        <f>I5/I4</f>
+        <f t="shared" si="41"/>
         <v>0.16510349288486417</v>
       </c>
       <c r="J21" s="38">
-        <f>J5/J4</f>
+        <f t="shared" si="41"/>
         <v>0.19819948556730496</v>
       </c>
       <c r="K21" s="37">
-        <f>K5/K4</f>
+        <f t="shared" si="41"/>
         <v>0.18665219750406944</v>
       </c>
       <c r="L21" s="38">
-        <f>L5/L4</f>
+        <f t="shared" si="41"/>
         <v>0.1792919680243624</v>
       </c>
       <c r="M21" s="37">
-        <f>M5/M4</f>
+        <f t="shared" si="41"/>
         <v>0.17327241576242147</v>
       </c>
-      <c r="N21" s="52">
-        <f>N5/N4</f>
-        <v>0.18</v>
+      <c r="N21" s="38">
+        <f t="shared" ref="N21" si="42">N5/N4</f>
+        <v>0.16033971144991302</v>
       </c>
       <c r="P21" s="38"/>
       <c r="R21" s="37">
-        <f t="shared" ref="R21:T21" si="36">R5/R4</f>
+        <f t="shared" ref="R21:T21" si="43">R5/R4</f>
         <v>0.17373047910804418</v>
       </c>
       <c r="S21" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.16842236327262963</v>
       </c>
       <c r="T21" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>0.17986621521182591</v>
       </c>
       <c r="U21" s="37">
-        <f t="shared" ref="U21" si="37">U5/U4</f>
+        <f t="shared" ref="U21" si="44">U5/U4</f>
         <v>0.17438732815301852</v>
       </c>
       <c r="V21" s="37">
-        <f t="shared" ref="V21:W21" si="38">V5/V4</f>
+        <f t="shared" ref="V21:W21" si="45">V5/V4</f>
         <v>0.18267334243665606</v>
       </c>
       <c r="W21" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.18284927555235034</v>
       </c>
-      <c r="X21" s="52">
-        <f t="shared" ref="X21:AH21" si="39">X5/X4</f>
-        <v>0.1768415097476157</v>
+      <c r="X21" s="37">
+        <f t="shared" ref="X21" si="46">X5/X4</f>
+        <v>0.16645077720207252</v>
       </c>
       <c r="Y21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="X21:AH21" si="47">Y5/Y4</f>
         <v>0.18</v>
       </c>
       <c r="Z21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.18</v>
       </c>
       <c r="AA21" s="37">
-        <f t="shared" si="39"/>
-        <v>0.18000000000000002</v>
+        <f t="shared" si="47"/>
+        <v>0.18</v>
       </c>
       <c r="AB21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.18</v>
       </c>
       <c r="AC21" s="37">
-        <f t="shared" si="39"/>
-        <v>0.17999999999999997</v>
+        <f t="shared" si="47"/>
+        <v>0.18</v>
       </c>
       <c r="AD21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.18</v>
       </c>
       <c r="AE21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.18</v>
       </c>
       <c r="AF21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.18</v>
       </c>
       <c r="AG21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.18</v>
       </c>
       <c r="AH21" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.18</v>
       </c>
-      <c r="AJ21" s="59" t="s">
+      <c r="AJ21" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="AK21" s="64">
+      <c r="AK21" s="63">
         <v>-0.01</v>
       </c>
     </row>
@@ -4309,126 +4365,126 @@
         <v>75</v>
       </c>
       <c r="C22" s="37">
-        <f>C12/C4</f>
+        <f t="shared" ref="C22:N22" si="48">C12/C4</f>
         <v>0.12186450720916452</v>
       </c>
       <c r="D22" s="38">
-        <f>D12/D4</f>
+        <f t="shared" si="48"/>
         <v>0.16235517475535652</v>
       </c>
       <c r="E22" s="37">
-        <f>E12/E4</f>
+        <f t="shared" si="48"/>
         <v>0.12741246797608879</v>
       </c>
       <c r="F22" s="38">
-        <f>F12/F4</f>
+        <f t="shared" si="48"/>
         <v>0.15222257755036778</v>
       </c>
       <c r="G22" s="37">
-        <f>G12/G4</f>
+        <f t="shared" si="48"/>
         <v>0.13002906532048342</v>
       </c>
       <c r="H22" s="38">
-        <f>H12/H4</f>
+        <f t="shared" si="48"/>
         <v>0.14517306849715206</v>
       </c>
       <c r="I22" s="37">
-        <f>I12/I4</f>
+        <f t="shared" si="48"/>
         <v>0.125</v>
       </c>
       <c r="J22" s="38">
-        <f>J12/J4</f>
+        <f t="shared" si="48"/>
         <v>0.18005144326950559</v>
       </c>
       <c r="K22" s="37">
-        <f>K12/K4</f>
+        <f t="shared" si="48"/>
         <v>0.18407487791644056</v>
       </c>
       <c r="L22" s="38">
-        <f>L12/L4</f>
+        <f t="shared" si="48"/>
         <v>0.13767288415175738</v>
       </c>
       <c r="M22" s="37">
-        <f>M12/M4</f>
+        <f t="shared" si="48"/>
         <v>0.1311250713877784</v>
       </c>
-      <c r="N22" s="52">
-        <f>N12/N4</f>
-        <v>0.13831380938662946</v>
+      <c r="N22" s="38">
+        <f t="shared" ref="N22" si="49">N12/N4</f>
+        <v>0.16044203417579042</v>
       </c>
       <c r="P22" s="38"/>
       <c r="R22" s="37">
-        <f t="shared" ref="R22:T22" si="40">R12/R4</f>
+        <f t="shared" ref="R22:T22" si="50">R12/R4</f>
         <v>0.13485923328570745</v>
       </c>
       <c r="S22" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0.14330647057129131</v>
       </c>
       <c r="T22" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0.14022627797505988</v>
       </c>
       <c r="U22" s="37">
-        <f t="shared" ref="U22" si="41">U12/U4</f>
+        <f t="shared" ref="U22" si="51">U12/U4</f>
         <v>0.13777644949193069</v>
       </c>
       <c r="V22" s="37">
-        <f t="shared" ref="V22:W22" si="42">V12/V4</f>
+        <f t="shared" ref="V22:W22" si="52">V12/V4</f>
         <v>0.1542254589591868</v>
       </c>
       <c r="W22" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0.16009965252737166</v>
       </c>
-      <c r="X22" s="52">
-        <f t="shared" ref="X22:AH22" si="43">X12/X4</f>
-        <v>0.13493881502097169</v>
+      <c r="X22" s="37">
+        <f t="shared" ref="X22" si="53">X12/X4</f>
+        <v>0.14658894645941276</v>
       </c>
       <c r="Y22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.13867370139203813</v>
+        <f t="shared" ref="X22:AH22" si="54">Y12/Y4</f>
+        <v>0.14245293829220457</v>
       </c>
       <c r="Z22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.13915215321313282</v>
+        <f t="shared" si="54"/>
+        <v>0.14354062531686063</v>
       </c>
       <c r="AA22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.13937727539177169</v>
+        <f t="shared" si="54"/>
+        <v>0.14456042989970849</v>
       </c>
       <c r="AB22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.13972747290393467</v>
+        <f t="shared" si="54"/>
+        <v>0.14332356359312728</v>
       </c>
       <c r="AC22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.13996413190737736</v>
+        <f t="shared" si="54"/>
+        <v>0.1434969671222025</v>
       </c>
       <c r="AD22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.14015322527397639</v>
+        <f t="shared" si="54"/>
+        <v>0.14348029225277995</v>
       </c>
       <c r="AE22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.14035018672738411</v>
+        <f t="shared" si="54"/>
+        <v>0.1432241069017984</v>
       </c>
       <c r="AF22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.14051565380638273</v>
+        <f t="shared" si="54"/>
+        <v>0.14318784321348271</v>
       </c>
       <c r="AG22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.1406674109140551</v>
+        <f t="shared" si="54"/>
+        <v>0.14310210371476892</v>
       </c>
       <c r="AH22" s="37">
-        <f t="shared" si="43"/>
-        <v>0.14080830781878581</v>
-      </c>
-      <c r="AJ22" s="60" t="s">
+        <f t="shared" si="54"/>
+        <v>0.14300197343638865</v>
+      </c>
+      <c r="AJ22" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="AK22" s="65">
+      <c r="AK22" s="64">
         <v>0.06</v>
       </c>
     </row>
@@ -4437,80 +4493,81 @@
         <v>104</v>
       </c>
       <c r="C23" s="37">
-        <f>C11/C10</f>
+        <f t="shared" ref="C23:M23" si="55">C11/C10</f>
         <v>0.19661458333333334</v>
       </c>
       <c r="D23" s="38">
-        <f>D11/D10</f>
+        <f t="shared" si="55"/>
         <v>2.7546269535150138E-2</v>
       </c>
       <c r="E23" s="37">
-        <f>E11/E10</f>
+        <f t="shared" si="55"/>
         <v>0.21058201058201056</v>
       </c>
       <c r="F23" s="38">
-        <f>F11/F10</f>
+        <f t="shared" si="55"/>
         <v>0.15151515151515149</v>
       </c>
       <c r="G23" s="37">
-        <f>G11/G10</f>
+        <f t="shared" si="55"/>
         <v>0.19659735349716445</v>
       </c>
       <c r="H23" s="38">
-        <f>H11/H10</f>
+        <f t="shared" si="55"/>
         <v>0.15976331360946744</v>
       </c>
       <c r="I23" s="37">
-        <f>I11/I10</f>
+        <f t="shared" si="55"/>
         <v>0.19730010384215993</v>
       </c>
       <c r="J23" s="38">
-        <f>J11/J10</f>
+        <f t="shared" si="55"/>
         <v>0.1954022988505747</v>
       </c>
       <c r="K23" s="37">
-        <f>K11/K10</f>
+        <f t="shared" si="55"/>
         <v>0.18985074626865672</v>
       </c>
       <c r="L23" s="38">
-        <f>L11/L10</f>
+        <f t="shared" si="55"/>
         <v>0.20745069393718046</v>
       </c>
       <c r="M23" s="37">
-        <f>M11/M10</f>
+        <f t="shared" si="55"/>
         <v>0.21099656357388316</v>
       </c>
-      <c r="N23" s="52">
-        <v>0.21</v>
+      <c r="N23" s="38">
+        <f t="shared" ref="N23" si="56">N11/N10</f>
+        <v>0.1445717403164212</v>
       </c>
       <c r="P23" s="38"/>
       <c r="R23" s="37">
-        <f t="shared" ref="R23:T23" si="44">R11/R10</f>
+        <f t="shared" ref="R23:T23" si="57">R11/R10</f>
         <v>0.17763771139420301</v>
       </c>
       <c r="S23" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0.10305962814555479</v>
       </c>
       <c r="T23" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" si="57"/>
         <v>0.17851959361393321</v>
       </c>
       <c r="U23" s="37">
-        <f t="shared" ref="U23" si="45">U11/U10</f>
+        <f t="shared" ref="U23" si="58">U11/U10</f>
         <v>0.17715305667112896</v>
       </c>
       <c r="V23" s="37">
-        <f t="shared" ref="V23:W23" si="46">V11/V10</f>
+        <f t="shared" ref="V23:W23" si="59">V11/V10</f>
         <v>0.19612495057334914</v>
       </c>
       <c r="W23" s="37">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>0.19776609724047309</v>
       </c>
-      <c r="X23" s="52">
-        <f t="shared" ref="X23" si="47">X11/X10</f>
-        <v>0.21045495900610178</v>
+      <c r="X23" s="37">
+        <f t="shared" ref="X23" si="60">X11/X10</f>
+        <v>0.1739659367396594</v>
       </c>
       <c r="Y23" s="37">
         <v>0.21</v>
@@ -4542,51 +4599,51 @@
       <c r="AH23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AJ23" s="60" t="s">
+      <c r="AJ23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="AK23" s="66">
+      <c r="AK23" s="65">
         <f>NPV(AK22,X12:BU12)</f>
-        <v>9290.1393175870689</v>
+        <v>9418.8522325957074</v>
       </c>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ24" s="61" t="s">
+      <c r="AJ24" s="60" t="s">
         <v>9</v>
       </c>
       <c r="AK24" s="12">
         <f>Main!C11</f>
-        <v>-567.6</v>
+        <v>-487.19999999999993</v>
       </c>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ25" s="61" t="s">
+      <c r="AJ25" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="AK25" s="67">
+      <c r="AK25" s="66">
         <f>AK23+AK24</f>
-        <v>8722.5393175870686</v>
+        <v>8931.6522325957067</v>
       </c>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ26" s="62" t="s">
+      <c r="AJ26" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AK26" s="68">
+      <c r="AK26" s="67">
         <f>AK25/Main!C7</f>
-        <v>23.063298036983259</v>
+        <v>23.62870961004155</v>
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B27" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AJ27" s="61" t="s">
+      <c r="AJ27" s="60" t="s">
         <v>113</v>
       </c>
       <c r="AK27" s="12">
         <f>Main!C6</f>
-        <v>21.17</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.2">
@@ -4637,6 +4694,10 @@
         <f>1101.8+418.6</f>
         <v>1520.4</v>
       </c>
+      <c r="N28" s="34">
+        <f>X28</f>
+        <v>1592.8</v>
+      </c>
       <c r="R28" s="8">
         <f>603.553+234.43</f>
         <v>837.98299999999995</v>
@@ -4661,12 +4722,16 @@
         <f>908.7+325.2</f>
         <v>1233.9000000000001</v>
       </c>
-      <c r="AJ28" s="63" t="s">
+      <c r="X28" s="93">
+        <f>1120.5+472.3</f>
+        <v>1592.8</v>
+      </c>
+      <c r="AJ28" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK28" s="69">
+      <c r="AK28" s="68">
         <f>AK26/AK27-1</f>
-        <v>8.9433067405916722E-2</v>
+        <v>1.3237976416876185E-2</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
@@ -4711,6 +4776,10 @@
       <c r="M29" s="8">
         <v>224.5</v>
       </c>
+      <c r="N29" s="34">
+        <f t="shared" ref="N29:N37" si="61">X29</f>
+        <v>222.9</v>
+      </c>
       <c r="R29" s="8">
         <v>106.01600000000001</v>
       </c>
@@ -4728,6 +4797,9 @@
       </c>
       <c r="W29" s="8">
         <v>194</v>
+      </c>
+      <c r="X29" s="93">
+        <v>222.9</v>
       </c>
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
@@ -4776,13 +4848,16 @@
         <v>9.9</v>
       </c>
       <c r="L30" s="34">
-        <f t="shared" ref="L30:L37" si="48">W30</f>
+        <f t="shared" ref="L30:L37" si="62">W30</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="M30" s="32">
         <v>19.8</v>
       </c>
-      <c r="N30" s="54"/>
+      <c r="N30" s="33">
+        <f>X30</f>
+        <v>21</v>
+      </c>
       <c r="P30" s="27"/>
       <c r="R30" s="32">
         <v>3.5529999999999999</v>
@@ -4802,7 +4877,9 @@
       <c r="W30" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X30" s="54"/>
+      <c r="X30" s="92">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -4812,40 +4889,44 @@
         <v>0</v>
       </c>
       <c r="D31" s="34">
-        <f t="shared" ref="D31:D33" si="49">S31</f>
+        <f t="shared" ref="D31:D33" si="63">S31</f>
         <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="34">
-        <f t="shared" ref="F31:F33" si="50">T31</f>
+        <f t="shared" ref="F31:F33" si="64">T31</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
       <c r="H31" s="34">
-        <f t="shared" ref="H31:H33" si="51">U31</f>
+        <f t="shared" ref="H31:H33" si="65">U31</f>
         <v>5.4</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" ref="J31:J33" si="52">V31</f>
+        <f t="shared" ref="J31:J33" si="66">V31</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
         <v>4.8</v>
       </c>
       <c r="L31" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>31.1</v>
       </c>
       <c r="M31" s="8">
         <v>43.9</v>
       </c>
+      <c r="N31" s="34">
+        <f t="shared" si="61"/>
+        <v>38.4</v>
+      </c>
       <c r="R31" s="8">
         <v>0</v>
       </c>
@@ -4863,6 +4944,9 @@
       </c>
       <c r="W31" s="8">
         <v>31.1</v>
+      </c>
+      <c r="X31" s="93">
+        <v>38.4</v>
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
@@ -4873,40 +4957,44 @@
         <v>0</v>
       </c>
       <c r="D32" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
       </c>
       <c r="H32" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
       </c>
       <c r="J32" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>13.9</v>
       </c>
       <c r="K32" s="8">
         <v>14.7</v>
       </c>
       <c r="L32" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>14.7</v>
       </c>
       <c r="M32" s="8">
         <v>14.7</v>
       </c>
+      <c r="N32" s="34">
+        <f t="shared" si="61"/>
+        <v>14.7</v>
+      </c>
       <c r="R32" s="8">
         <v>0</v>
       </c>
@@ -4923,6 +5011,9 @@
         <v>13.9</v>
       </c>
       <c r="W32" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="X32" s="93">
         <v>14.7</v>
       </c>
     </row>
@@ -4934,40 +5025,44 @@
         <v>55.3</v>
       </c>
       <c r="D33" s="34">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>36.976999999999997</v>
       </c>
       <c r="E33" s="1">
         <v>30.9</v>
       </c>
       <c r="F33" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>1.4</v>
       </c>
       <c r="G33" s="8">
         <v>1.4</v>
       </c>
       <c r="H33" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>1.3</v>
       </c>
       <c r="I33" s="8">
         <v>5.6</v>
       </c>
       <c r="J33" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="66"/>
         <v>1.3</v>
       </c>
       <c r="K33" s="8">
         <v>1.9</v>
       </c>
       <c r="L33" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>2.4</v>
       </c>
       <c r="M33" s="8">
         <v>2.8</v>
       </c>
+      <c r="N33" s="34">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
       <c r="R33" s="8">
         <v>56.866</v>
       </c>
@@ -4985,6 +5080,9 @@
       </c>
       <c r="W33" s="8">
         <v>2.4</v>
+      </c>
+      <c r="X33" s="93">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
@@ -4992,72 +5090,80 @@
         <v>83</v>
       </c>
       <c r="C34" s="8">
-        <f>SUM(C28:C33)</f>
+        <f t="shared" ref="C34:M34" si="67">SUM(C28:C33)</f>
         <v>964.49999999999989</v>
       </c>
       <c r="D34" s="34">
-        <f>SUM(D28:D33)</f>
+        <f t="shared" si="67"/>
         <v>1011.421</v>
       </c>
       <c r="E34" s="8">
-        <f>SUM(E28:E33)</f>
+        <f t="shared" si="67"/>
         <v>1029.9000000000001</v>
       </c>
       <c r="F34" s="34">
-        <f>SUM(F28:F33)</f>
+        <f t="shared" si="67"/>
         <v>1056.9000000000003</v>
       </c>
       <c r="G34" s="8">
-        <f>SUM(G28:G33)</f>
+        <f t="shared" si="67"/>
         <v>1216.5000000000002</v>
       </c>
       <c r="H34" s="34">
-        <f>SUM(H28:H33)</f>
+        <f t="shared" si="67"/>
         <v>1362.6</v>
       </c>
       <c r="I34" s="8">
-        <f>SUM(I28:I33)</f>
+        <f t="shared" si="67"/>
         <v>1328.6999999999998</v>
       </c>
       <c r="J34" s="34">
-        <f>SUM(J28:J33)</f>
+        <f t="shared" si="67"/>
         <v>1303.8</v>
       </c>
       <c r="K34" s="8">
-        <f>SUM(K28:K33)</f>
+        <f t="shared" si="67"/>
         <v>1404.7000000000003</v>
       </c>
       <c r="L34" s="34">
-        <f>SUM(L28:L33)</f>
+        <f t="shared" si="67"/>
         <v>1484.3000000000002</v>
       </c>
       <c r="M34" s="8">
-        <f>SUM(M28:M33)</f>
+        <f t="shared" si="67"/>
         <v>1826.1000000000001</v>
       </c>
+      <c r="N34" s="34">
+        <f t="shared" si="61"/>
+        <v>1892.8000000000002</v>
+      </c>
       <c r="R34" s="8">
-        <f>SUM(R28:R33)</f>
+        <f t="shared" ref="R34:X34" si="68">SUM(R28:R33)</f>
         <v>1004.4179999999999</v>
       </c>
       <c r="S34" s="8">
-        <f>SUM(S28:S33)</f>
+        <f t="shared" si="68"/>
         <v>1011.421</v>
       </c>
       <c r="T34" s="8">
-        <f>SUM(T28:T33)</f>
+        <f t="shared" si="68"/>
         <v>1056.9000000000003</v>
       </c>
       <c r="U34" s="8">
-        <f>SUM(U28:U33)</f>
+        <f t="shared" si="68"/>
         <v>1362.6</v>
       </c>
       <c r="V34" s="8">
-        <f>SUM(V28:V33)</f>
+        <f t="shared" si="68"/>
         <v>1303.8</v>
       </c>
       <c r="W34" s="8">
-        <f>SUM(W28:W33)</f>
+        <f t="shared" si="68"/>
         <v>1484.3000000000002</v>
+      </c>
+      <c r="X34" s="8">
+        <f t="shared" si="68"/>
+        <v>1892.8000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
@@ -5068,40 +5174,44 @@
         <v>124.2</v>
       </c>
       <c r="D35" s="34">
-        <f t="shared" ref="D35:D39" si="53">S35</f>
+        <f t="shared" ref="D35:D39" si="69">S35</f>
         <v>127.96599999999999</v>
       </c>
       <c r="E35" s="1">
         <v>141.19999999999999</v>
       </c>
       <c r="F35" s="34">
-        <f t="shared" ref="F35:F37" si="54">T35</f>
+        <f t="shared" ref="F35:F37" si="70">T35</f>
         <v>144.30000000000001</v>
       </c>
       <c r="G35" s="8">
         <v>162.9</v>
       </c>
       <c r="H35" s="34">
-        <f t="shared" ref="H35:H37" si="55">U35</f>
+        <f t="shared" ref="H35:H37" si="71">U35</f>
         <v>170.6</v>
       </c>
       <c r="I35" s="8">
         <v>175.8</v>
       </c>
       <c r="J35" s="34">
-        <f t="shared" ref="J35:J37" si="56">V35</f>
+        <f t="shared" ref="J35:J37" si="72">V35</f>
         <v>167.8</v>
       </c>
       <c r="K35" s="8">
         <v>193.2</v>
       </c>
       <c r="L35" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>228.8</v>
       </c>
       <c r="M35" s="8">
         <v>308.8</v>
       </c>
+      <c r="N35" s="34">
+        <f t="shared" si="61"/>
+        <v>312.39999999999998</v>
+      </c>
       <c r="R35" s="8">
         <v>118.78</v>
       </c>
@@ -5119,6 +5229,9 @@
       </c>
       <c r="W35" s="8">
         <v>228.8</v>
+      </c>
+      <c r="X35" s="93">
+        <v>312.39999999999998</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
@@ -5129,40 +5242,44 @@
         <v>203.4</v>
       </c>
       <c r="D36" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>235.184</v>
       </c>
       <c r="E36" s="1">
         <v>241.8</v>
       </c>
       <c r="F36" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>259.60000000000002</v>
       </c>
       <c r="G36" s="8">
         <v>275.2</v>
       </c>
       <c r="H36" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>286.60000000000002</v>
       </c>
       <c r="I36" s="8">
         <v>245.3</v>
       </c>
       <c r="J36" s="34">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>268</v>
       </c>
       <c r="K36" s="8">
         <v>279.2</v>
       </c>
       <c r="L36" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>325.10000000000002</v>
       </c>
       <c r="M36" s="8">
         <v>389.9</v>
       </c>
+      <c r="N36" s="34">
+        <f t="shared" si="61"/>
+        <v>410.7</v>
+      </c>
       <c r="R36" s="8">
         <v>212.23599999999999</v>
       </c>
@@ -5180,6 +5297,9 @@
       </c>
       <c r="W36" s="8">
         <v>325.10000000000002</v>
+      </c>
+      <c r="X36" s="93">
+        <v>410.7</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
@@ -5190,40 +5310,44 @@
         <v>0.4</v>
       </c>
       <c r="D37" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="E37" s="1">
         <v>0.7</v>
       </c>
       <c r="F37" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="70"/>
         <v>0.2</v>
       </c>
       <c r="G37" s="8">
         <v>4.8</v>
       </c>
       <c r="H37" s="34">
-        <f t="shared" si="55"/>
+        <f t="shared" si="71"/>
         <v>10.7</v>
       </c>
       <c r="I37" s="8">
         <v>6.5</v>
       </c>
       <c r="J37" s="34">
-        <f t="shared" si="56"/>
+        <f t="shared" si="72"/>
         <v>2.5</v>
       </c>
       <c r="K37" s="8">
         <v>4.4000000000000004</v>
       </c>
       <c r="L37" s="34">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0.7</v>
       </c>
       <c r="M37" s="8">
         <v>1.9</v>
       </c>
+      <c r="N37" s="34">
+        <f t="shared" si="61"/>
+        <v>1.5</v>
+      </c>
       <c r="R37" s="8">
         <v>0.124</v>
       </c>
@@ -5241,6 +5365,9 @@
       </c>
       <c r="W37" s="8">
         <v>0.7</v>
+      </c>
+      <c r="X37" s="93">
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5251,28 +5378,28 @@
         <v>71.7</v>
       </c>
       <c r="D38" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>70.721000000000004</v>
       </c>
       <c r="E38" s="2">
         <v>66.400000000000006</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" ref="F38:F39" si="57">T38</f>
+        <f t="shared" ref="F38:F39" si="73">T38</f>
         <v>81.2</v>
       </c>
       <c r="G38" s="32">
         <v>83.2</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" ref="H38:H39" si="58">U38</f>
+        <f t="shared" ref="H38:H39" si="74">U38</f>
         <v>106.3</v>
       </c>
       <c r="I38" s="32">
         <v>125.5</v>
       </c>
       <c r="J38" s="33">
-        <f t="shared" ref="J38:J39" si="59">V38</f>
+        <f t="shared" ref="J38:J39" si="75">V38</f>
         <v>134.1</v>
       </c>
       <c r="K38" s="32">
@@ -5285,7 +5412,10 @@
       <c r="M38" s="32">
         <v>213.4</v>
       </c>
-      <c r="N38" s="54"/>
+      <c r="N38" s="33">
+        <f t="shared" ref="N38:N39" si="76">X38</f>
+        <v>169.5</v>
+      </c>
       <c r="P38" s="27"/>
       <c r="R38" s="32">
         <v>66.826999999999998</v>
@@ -5305,7 +5435,9 @@
       <c r="W38" s="32">
         <v>157.4</v>
       </c>
-      <c r="X38" s="54"/>
+      <c r="X38" s="92">
+        <v>169.5</v>
+      </c>
     </row>
     <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
@@ -5315,28 +5447,28 @@
         <v>0.6</v>
       </c>
       <c r="D39" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="69"/>
         <v>0.70499999999999996</v>
       </c>
       <c r="E39" s="2">
         <v>0.3</v>
       </c>
       <c r="F39" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="73"/>
         <v>0.9</v>
       </c>
       <c r="G39" s="32">
         <v>0.9</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="58"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="I39" s="32">
         <v>0.4</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="75"/>
         <v>1.7</v>
       </c>
       <c r="K39" s="32">
@@ -5349,7 +5481,10 @@
       <c r="M39" s="32">
         <v>1.2</v>
       </c>
-      <c r="N39" s="54"/>
+      <c r="N39" s="33">
+        <f t="shared" si="76"/>
+        <v>1.5</v>
+      </c>
       <c r="P39" s="27"/>
       <c r="R39" s="32">
         <v>0.59799999999999998</v>
@@ -5369,79 +5504,89 @@
       <c r="W39" s="32">
         <v>0.7</v>
       </c>
-      <c r="X39" s="54"/>
+      <c r="X39" s="92">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C40" s="8">
-        <f>SUM(C35:C39)+C34</f>
+        <f t="shared" ref="C40:N40" si="77">SUM(C35:C39)+C34</f>
         <v>1364.8</v>
       </c>
       <c r="D40" s="34">
-        <f>SUM(D35:D39)+D34</f>
+        <f t="shared" si="77"/>
         <v>1446.856</v>
       </c>
       <c r="E40" s="8">
-        <f>SUM(E35:E39)+E34</f>
+        <f t="shared" si="77"/>
         <v>1480.3000000000002</v>
       </c>
       <c r="F40" s="34">
-        <f>SUM(F35:F39)+F34</f>
+        <f t="shared" si="77"/>
         <v>1543.1000000000004</v>
       </c>
       <c r="G40" s="8">
-        <f>SUM(G35:G39)+G34</f>
+        <f t="shared" si="77"/>
         <v>1743.5000000000002</v>
       </c>
       <c r="H40" s="34">
-        <f>SUM(H35:H39)+H34</f>
+        <f t="shared" si="77"/>
         <v>1937.8</v>
       </c>
       <c r="I40" s="8">
-        <f>SUM(I35:I39)+I34</f>
+        <f t="shared" si="77"/>
         <v>1882.1999999999998</v>
       </c>
       <c r="J40" s="34">
-        <f>SUM(J35:J39)+J34</f>
+        <f t="shared" si="77"/>
         <v>1877.9</v>
       </c>
       <c r="K40" s="8">
-        <f>SUM(K35:K39)+K34</f>
+        <f t="shared" si="77"/>
         <v>2013.2000000000003</v>
       </c>
       <c r="L40" s="34">
-        <f>SUM(L35:L39)+L34</f>
+        <f t="shared" si="77"/>
         <v>2197.0000000000005</v>
       </c>
       <c r="M40" s="8">
-        <f>SUM(M35:M39)+M34</f>
+        <f t="shared" si="77"/>
         <v>2741.3</v>
       </c>
+      <c r="N40" s="34">
+        <f t="shared" si="77"/>
+        <v>2788.4</v>
+      </c>
       <c r="R40" s="8">
-        <f>SUM(R35:R39)+R34</f>
+        <f t="shared" ref="R40:X40" si="78">SUM(R35:R39)+R34</f>
         <v>1402.9829999999999</v>
       </c>
       <c r="S40" s="8">
-        <f>SUM(S35:S39)+S34</f>
+        <f t="shared" si="78"/>
         <v>1446.856</v>
       </c>
       <c r="T40" s="8">
-        <f>SUM(T35:T39)+T34</f>
+        <f t="shared" si="78"/>
         <v>1543.1000000000004</v>
       </c>
       <c r="U40" s="8">
-        <f>SUM(U35:U39)+U34</f>
+        <f t="shared" si="78"/>
         <v>1937.8</v>
       </c>
       <c r="V40" s="8">
-        <f>SUM(V35:V39)+V34</f>
+        <f t="shared" si="78"/>
         <v>1877.9</v>
       </c>
       <c r="W40" s="8">
-        <f>SUM(W35:W39)+W34</f>
+        <f t="shared" si="78"/>
         <v>2197.0000000000005</v>
+      </c>
+      <c r="X40" s="8">
+        <f t="shared" si="78"/>
+        <v>2788.4</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
@@ -5470,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" ref="F42" si="60">T42</f>
+        <f t="shared" ref="F42" si="79">T42</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="32">
@@ -5497,7 +5642,10 @@
       <c r="M42" s="32">
         <v>256.39999999999998</v>
       </c>
-      <c r="N42" s="54"/>
+      <c r="N42" s="33">
+        <f t="shared" ref="N42" si="80">X42</f>
+        <v>1</v>
+      </c>
       <c r="P42" s="27"/>
       <c r="R42" s="32">
         <v>1.351</v>
@@ -5517,7 +5665,9 @@
       <c r="W42" s="32">
         <v>72.5</v>
       </c>
-      <c r="X42" s="54"/>
+      <c r="X42" s="96">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
@@ -5555,12 +5705,16 @@
         <v>3</v>
       </c>
       <c r="L43" s="34">
-        <f t="shared" ref="L43:L47" si="61">W43</f>
+        <f t="shared" ref="L43:L47" si="81">W43</f>
         <v>15.5</v>
       </c>
       <c r="M43" s="8">
         <v>78.8</v>
       </c>
+      <c r="N43" s="34">
+        <f t="shared" ref="N43:N48" si="82">X43</f>
+        <v>19.2</v>
+      </c>
       <c r="R43" s="8">
         <v>0</v>
       </c>
@@ -5578,6 +5732,9 @@
       </c>
       <c r="W43" s="8">
         <v>15.5</v>
+      </c>
+      <c r="X43" s="95">
+        <v>19.2</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.2">
@@ -5588,40 +5745,44 @@
         <v>0</v>
       </c>
       <c r="D44" s="34">
-        <f t="shared" ref="D44:D47" si="62">S44</f>
+        <f t="shared" ref="D44:D47" si="83">S44</f>
         <v>0</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
       </c>
       <c r="F44" s="34">
-        <f t="shared" ref="F44:F47" si="63">T44</f>
+        <f t="shared" ref="F44:F47" si="84">T44</f>
         <v>0</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
       <c r="H44" s="34">
-        <f t="shared" ref="H44:H47" si="64">U44</f>
+        <f t="shared" ref="H44:H47" si="85">U44</f>
         <v>0</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="34">
-        <f t="shared" ref="J44:J47" si="65">V44</f>
+        <f t="shared" ref="J44:J47" si="86">V44</f>
         <v>0</v>
       </c>
       <c r="K44" s="8">
         <v>14.2</v>
       </c>
       <c r="L44" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
         <v>19.399999999999999</v>
       </c>
+      <c r="N44" s="34">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
       <c r="R44" s="8">
         <v>0</v>
       </c>
@@ -5638,6 +5799,9 @@
         <v>0</v>
       </c>
       <c r="W44" s="8">
+        <v>0</v>
+      </c>
+      <c r="X44" s="95">
         <v>0</v>
       </c>
     </row>
@@ -5649,40 +5813,44 @@
         <v>125.7</v>
       </c>
       <c r="D45" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="83"/>
         <v>149.6</v>
       </c>
       <c r="E45" s="8">
         <v>154.5</v>
       </c>
       <c r="F45" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="84"/>
         <v>164.8</v>
       </c>
       <c r="G45" s="8">
         <v>157.9</v>
       </c>
       <c r="H45" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>186.7</v>
       </c>
       <c r="I45" s="8">
         <v>158.69999999999999</v>
       </c>
       <c r="J45" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="86"/>
         <v>186.7</v>
       </c>
       <c r="K45" s="8">
         <v>22</v>
       </c>
       <c r="L45" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>242.7</v>
       </c>
       <c r="M45" s="8">
         <v>26.5</v>
       </c>
+      <c r="N45" s="34">
+        <f t="shared" si="82"/>
+        <v>280.7</v>
+      </c>
       <c r="R45" s="8">
         <v>134.816</v>
       </c>
@@ -5700,6 +5868,9 @@
       </c>
       <c r="W45" s="8">
         <v>242.7</v>
+      </c>
+      <c r="X45" s="95">
+        <v>280.7</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
@@ -5710,40 +5881,44 @@
         <v>4.7</v>
       </c>
       <c r="D46" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="83"/>
         <v>8.8339999999999996</v>
       </c>
       <c r="E46" s="8">
         <v>18.2</v>
       </c>
       <c r="F46" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="84"/>
         <v>25.4</v>
       </c>
       <c r="G46" s="8">
         <v>20.5</v>
       </c>
       <c r="H46" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>28</v>
       </c>
       <c r="I46" s="8">
         <v>30.5</v>
       </c>
       <c r="J46" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="86"/>
         <v>35.4</v>
       </c>
       <c r="K46" s="8">
         <v>13.8</v>
       </c>
       <c r="L46" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>20.7</v>
       </c>
       <c r="M46" s="8">
         <v>15.8</v>
       </c>
+      <c r="N46" s="34">
+        <f t="shared" si="82"/>
+        <v>21</v>
+      </c>
       <c r="R46" s="8">
         <v>6.7759999999999998</v>
       </c>
@@ -5761,6 +5936,9 @@
       </c>
       <c r="W46" s="8">
         <v>20.7</v>
+      </c>
+      <c r="X46" s="95">
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
@@ -5771,40 +5949,44 @@
         <v>14.9</v>
       </c>
       <c r="D47" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="83"/>
         <v>12.175000000000001</v>
       </c>
       <c r="E47" s="8">
         <v>13.3</v>
       </c>
       <c r="F47" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="84"/>
         <v>13.4</v>
       </c>
       <c r="G47" s="8">
         <v>13.4</v>
       </c>
       <c r="H47" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="85"/>
         <v>9.4</v>
       </c>
       <c r="I47" s="8">
         <v>11.3</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="86"/>
         <v>8.9</v>
       </c>
       <c r="K47" s="8">
         <v>0.2</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="81"/>
         <v>11.6</v>
       </c>
       <c r="M47" s="8">
         <v>3.4</v>
       </c>
+      <c r="N47" s="34">
+        <f t="shared" si="82"/>
+        <v>18.399999999999999</v>
+      </c>
       <c r="R47" s="8">
         <v>16.055</v>
       </c>
@@ -5822,6 +6004,9 @@
       </c>
       <c r="W47" s="8">
         <v>11.6</v>
+      </c>
+      <c r="X47" s="95">
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5839,7 +6024,7 @@
         <v>0.5</v>
       </c>
       <c r="F48" s="33">
-        <f t="shared" ref="F48" si="66">T48</f>
+        <f t="shared" ref="F48" si="87">T48</f>
         <v>0.3</v>
       </c>
       <c r="G48" s="32">
@@ -5866,7 +6051,10 @@
       <c r="M48" s="32">
         <v>0</v>
       </c>
-      <c r="N48" s="54"/>
+      <c r="N48" s="33">
+        <f t="shared" si="82"/>
+        <v>0.9</v>
+      </c>
       <c r="P48" s="27"/>
       <c r="R48" s="32">
         <v>0.315</v>
@@ -5886,79 +6074,89 @@
       <c r="W48" s="32">
         <v>0.9</v>
       </c>
-      <c r="X48" s="54"/>
+      <c r="X48" s="96">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="8">
-        <f>SUM(C42:C48)</f>
+        <f t="shared" ref="C49:N49" si="88">SUM(C42:C48)</f>
         <v>145.9</v>
       </c>
       <c r="D49" s="34">
-        <f>SUM(D42:D48)</f>
+        <f t="shared" si="88"/>
         <v>171.97400000000002</v>
       </c>
       <c r="E49" s="8">
-        <f>SUM(E42:E48)</f>
+        <f t="shared" si="88"/>
         <v>189.5</v>
       </c>
       <c r="F49" s="34">
-        <f>SUM(F42:F48)</f>
+        <f t="shared" si="88"/>
         <v>213.10000000000002</v>
       </c>
       <c r="G49" s="8">
-        <f>SUM(G42:G48)</f>
+        <f t="shared" si="88"/>
         <v>206.5</v>
       </c>
       <c r="H49" s="34">
-        <f>SUM(H42:H48)</f>
+        <f t="shared" si="88"/>
         <v>313.19999999999993</v>
       </c>
       <c r="I49" s="8">
-        <f>SUM(I42:I48)</f>
+        <f t="shared" si="88"/>
         <v>290.49999999999994</v>
       </c>
       <c r="J49" s="34">
-        <f>SUM(J42:J48)</f>
+        <f t="shared" si="88"/>
         <v>248</v>
       </c>
       <c r="K49" s="8">
-        <f>SUM(K42:K48)</f>
+        <f t="shared" si="88"/>
         <v>259.29999999999995</v>
       </c>
       <c r="L49" s="34">
-        <f>SUM(L42:L48)</f>
+        <f t="shared" si="88"/>
         <v>363.9</v>
       </c>
       <c r="M49" s="8">
-        <f>SUM(M42:M48)</f>
+        <f t="shared" si="88"/>
         <v>400.29999999999995</v>
       </c>
+      <c r="N49" s="34">
+        <f t="shared" si="88"/>
+        <v>341.19999999999993</v>
+      </c>
       <c r="R49" s="8">
-        <f t="shared" ref="R49:W49" si="67">SUM(R42:R48)</f>
+        <f t="shared" ref="R49:X49" si="89">SUM(R42:R48)</f>
         <v>159.31300000000002</v>
       </c>
       <c r="S49" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>171.97400000000002</v>
       </c>
       <c r="T49" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>213.10000000000002</v>
       </c>
       <c r="U49" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>313.19999999999993</v>
       </c>
       <c r="V49" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>248</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>363.9</v>
+      </c>
+      <c r="X49" s="8">
+        <f t="shared" si="89"/>
+        <v>341.19999999999993</v>
       </c>
     </row>
     <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5976,7 +6174,7 @@
         <v>258</v>
       </c>
       <c r="F50" s="33">
-        <f t="shared" ref="F50:F55" si="68">T50</f>
+        <f t="shared" ref="F50:F55" si="90">T50</f>
         <v>253.7</v>
       </c>
       <c r="G50" s="32">
@@ -6003,7 +6201,10 @@
       <c r="M50" s="32">
         <v>545.6</v>
       </c>
-      <c r="N50" s="54"/>
+      <c r="N50" s="27">
+        <f>X50</f>
+        <v>677.3</v>
+      </c>
       <c r="P50" s="27"/>
       <c r="R50" s="32">
         <v>261.91800000000001</v>
@@ -6023,7 +6224,9 @@
       <c r="W50" s="32">
         <v>287.60000000000002</v>
       </c>
-      <c r="X50" s="54"/>
+      <c r="X50" s="96">
+        <v>677.3</v>
+      </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
@@ -6033,40 +6236,44 @@
         <v>0</v>
       </c>
       <c r="D51" s="34">
-        <f t="shared" ref="D51:D55" si="69">S51</f>
+        <f t="shared" ref="D51:D55" si="91">S51</f>
         <v>0</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
       </c>
       <c r="F51" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>44.7</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" ref="H51:H55" si="70">U51</f>
+        <f t="shared" ref="H51:H55" si="92">U51</f>
         <v>48.5</v>
       </c>
       <c r="I51" s="8">
         <v>51.4</v>
       </c>
       <c r="J51" s="34">
-        <f t="shared" ref="J51:J55" si="71">V51</f>
+        <f t="shared" ref="J51:J55" si="93">V51</f>
         <v>51.7</v>
       </c>
       <c r="K51" s="8">
         <v>53.4</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" ref="L51:L55" si="72">W51</f>
+        <f t="shared" ref="L51:L55" si="94">W51</f>
         <v>56.6</v>
       </c>
       <c r="M51" s="8">
         <v>69.2</v>
       </c>
+      <c r="N51" s="34">
+        <f t="shared" ref="N51:N55" si="95">X51</f>
+        <v>68.7</v>
+      </c>
       <c r="R51" s="8">
         <v>0</v>
       </c>
@@ -6084,6 +6291,9 @@
       </c>
       <c r="W51" s="8">
         <v>56.6</v>
+      </c>
+      <c r="X51" s="95">
+        <v>68.7</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
@@ -6094,40 +6304,44 @@
         <v>66.8</v>
       </c>
       <c r="D52" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>53.896000000000001</v>
       </c>
       <c r="E52" s="8">
         <v>20.7</v>
       </c>
       <c r="F52" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="90"/>
         <v>39.200000000000003</v>
       </c>
       <c r="G52" s="8">
         <v>27.6</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>10.6</v>
       </c>
       <c r="I52" s="8">
         <v>45</v>
       </c>
       <c r="J52" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="93"/>
         <v>22.5</v>
       </c>
       <c r="K52" s="8">
         <v>10.1</v>
       </c>
       <c r="L52" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="94"/>
         <v>0.6</v>
       </c>
       <c r="M52" s="8">
         <v>0.7</v>
       </c>
+      <c r="N52" s="34">
+        <f t="shared" si="95"/>
+        <v>0.5</v>
+      </c>
       <c r="R52" s="8">
         <v>74.855999999999995</v>
       </c>
@@ -6145,6 +6359,9 @@
       </c>
       <c r="W52" s="8">
         <v>0.6</v>
+      </c>
+      <c r="X52" s="95">
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -6155,40 +6372,44 @@
         <v>11.4</v>
       </c>
       <c r="D53" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>12.621</v>
       </c>
       <c r="E53" s="8">
         <v>9.6999999999999993</v>
       </c>
       <c r="F53" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="90"/>
         <v>11.6</v>
       </c>
       <c r="G53" s="8">
         <v>13.3</v>
       </c>
       <c r="H53" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>13.3</v>
       </c>
       <c r="I53" s="8">
         <v>16.3</v>
       </c>
       <c r="J53" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="93"/>
         <v>16.8</v>
       </c>
       <c r="K53" s="8">
         <v>15.2</v>
       </c>
       <c r="L53" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="94"/>
         <v>19</v>
       </c>
       <c r="M53" s="8">
         <v>21.4</v>
       </c>
+      <c r="N53" s="34">
+        <f t="shared" si="95"/>
+        <v>21.9</v>
+      </c>
       <c r="R53" s="8">
         <v>11.221</v>
       </c>
@@ -6206,6 +6427,9 @@
       </c>
       <c r="W53" s="8">
         <v>19</v>
+      </c>
+      <c r="X53" s="95">
+        <v>21.9</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -6216,40 +6440,44 @@
         <v>16.899999999999999</v>
       </c>
       <c r="D54" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>23.071999999999999</v>
       </c>
       <c r="E54" s="8">
         <v>4.7</v>
       </c>
       <c r="F54" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="90"/>
         <v>10.9</v>
       </c>
       <c r="G54" s="8">
         <v>7.9</v>
       </c>
       <c r="H54" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>21.6</v>
       </c>
       <c r="I54" s="8">
         <v>14.3</v>
       </c>
       <c r="J54" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="93"/>
         <v>8.4</v>
       </c>
       <c r="K54" s="8">
         <v>6.3</v>
       </c>
       <c r="L54" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="94"/>
         <v>7.7</v>
       </c>
       <c r="M54" s="8">
         <v>7.9</v>
       </c>
+      <c r="N54" s="34">
+        <f t="shared" si="95"/>
+        <v>9.6999999999999993</v>
+      </c>
       <c r="R54" s="8">
         <v>16.917000000000002</v>
       </c>
@@ -6267,6 +6495,9 @@
       </c>
       <c r="W54" s="8">
         <v>7.7</v>
+      </c>
+      <c r="X54" s="95">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -6277,40 +6508,44 @@
         <v>96</v>
       </c>
       <c r="D55" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="91"/>
         <v>66.983000000000004</v>
       </c>
       <c r="E55" s="8">
         <v>70.400000000000006</v>
       </c>
       <c r="F55" s="34">
-        <f t="shared" si="68"/>
+        <f t="shared" si="90"/>
         <v>33.200000000000003</v>
       </c>
       <c r="G55" s="8">
         <v>41.1</v>
       </c>
       <c r="H55" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="92"/>
         <v>48.7</v>
       </c>
       <c r="I55" s="8">
         <v>41.7</v>
       </c>
       <c r="J55" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="93"/>
         <v>40.6</v>
       </c>
       <c r="K55" s="8">
         <v>51.1</v>
       </c>
       <c r="L55" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="94"/>
         <v>58.5</v>
       </c>
       <c r="M55" s="8">
         <v>69.2</v>
       </c>
+      <c r="N55" s="34">
+        <f t="shared" si="95"/>
+        <v>70.2</v>
+      </c>
       <c r="R55" s="8">
         <v>100.121</v>
       </c>
@@ -6328,6 +6563,9 @@
       </c>
       <c r="W55" s="8">
         <v>58.5</v>
+      </c>
+      <c r="X55" s="95">
+        <v>70.2</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.2">
@@ -6335,55 +6573,59 @@
         <v>93</v>
       </c>
       <c r="C56" s="8">
-        <f>C49+SUM(C50:C55)</f>
+        <f t="shared" ref="C56:N56" si="96">C49+SUM(C50:C55)</f>
         <v>589.5</v>
       </c>
       <c r="D56" s="34">
-        <f>D49+SUM(D50:D55)</f>
+        <f t="shared" si="96"/>
         <v>618.45900000000006</v>
       </c>
       <c r="E56" s="8">
-        <f>E49+SUM(E50:E55)</f>
+        <f t="shared" si="96"/>
         <v>553</v>
       </c>
       <c r="F56" s="34">
-        <f>F49+SUM(F50:F55)</f>
+        <f t="shared" si="96"/>
         <v>561.70000000000005</v>
       </c>
       <c r="G56" s="8">
-        <f>G49+SUM(G50:G55)</f>
+        <f t="shared" si="96"/>
         <v>676</v>
       </c>
       <c r="H56" s="34">
-        <f>H49+SUM(H50:H55)</f>
+        <f t="shared" si="96"/>
         <v>800.9</v>
       </c>
       <c r="I56" s="8">
-        <f>I49+SUM(I50:I55)</f>
+        <f t="shared" si="96"/>
         <v>759.19999999999993</v>
       </c>
       <c r="J56" s="34">
-        <f>J49+SUM(J50:J55)</f>
+        <f t="shared" si="96"/>
         <v>710.3</v>
       </c>
       <c r="K56" s="8">
-        <f>K49+SUM(K50:K55)</f>
+        <f t="shared" si="96"/>
         <v>736.09999999999991</v>
       </c>
       <c r="L56" s="34">
-        <f>L49+SUM(L50:L55)</f>
+        <f t="shared" si="96"/>
         <v>793.90000000000009</v>
       </c>
       <c r="M56" s="8">
-        <f>M49+SUM(M50:M55)</f>
+        <f t="shared" si="96"/>
         <v>1114.3000000000002</v>
       </c>
+      <c r="N56" s="34">
+        <f t="shared" si="96"/>
+        <v>1189.5</v>
+      </c>
       <c r="R56" s="8">
-        <f t="shared" ref="R56:S56" si="73">R49+SUM(R50:R55)</f>
+        <f t="shared" ref="R56:S56" si="97">R49+SUM(R50:R55)</f>
         <v>624.346</v>
       </c>
       <c r="S56" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="97"/>
         <v>618.45900000000006</v>
       </c>
       <c r="T56" s="8">
@@ -6401,6 +6643,10 @@
       <c r="W56" s="8">
         <f>W49+SUM(W50:W55)</f>
         <v>793.90000000000009</v>
+      </c>
+      <c r="X56" s="8">
+        <f>X49+SUM(X50:X55)</f>
+        <v>1189.5</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -6450,7 +6696,10 @@
       <c r="M58" s="8">
         <v>1627</v>
       </c>
-      <c r="N58" s="49"/>
+      <c r="N58" s="34">
+        <f>X58</f>
+        <v>1598.9</v>
+      </c>
       <c r="P58" s="34"/>
       <c r="R58" s="8">
         <v>778.63699999999994</v>
@@ -6470,62 +6719,68 @@
       <c r="W58" s="8">
         <v>1403.1</v>
       </c>
-      <c r="X58" s="49"/>
+      <c r="X58" s="8">
+        <v>1598.9</v>
+      </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="8">
-        <f>C58+C56</f>
+        <f t="shared" ref="C59:N59" si="98">C58+C56</f>
         <v>1364.8</v>
       </c>
       <c r="D59" s="34">
-        <f>D58+D56</f>
+        <f t="shared" si="98"/>
         <v>1446.8560000000002</v>
       </c>
       <c r="E59" s="8">
-        <f>E58+E56</f>
+        <f t="shared" si="98"/>
         <v>1480.3</v>
       </c>
       <c r="F59" s="34">
-        <f>F58+F56</f>
+        <f t="shared" si="98"/>
         <v>1543.1</v>
       </c>
       <c r="G59" s="8">
-        <f>G58+G56</f>
+        <f t="shared" si="98"/>
         <v>1743.5</v>
       </c>
       <c r="H59" s="34">
-        <f>H58+H56</f>
+        <f t="shared" si="98"/>
         <v>1937.8000000000002</v>
       </c>
       <c r="I59" s="8">
-        <f>I58+I56</f>
+        <f t="shared" si="98"/>
         <v>1882.1999999999998</v>
       </c>
       <c r="J59" s="34">
-        <f>J58+J56</f>
+        <f t="shared" si="98"/>
         <v>1877.8999999999999</v>
       </c>
       <c r="K59" s="8">
-        <f>K58+K56</f>
+        <f t="shared" si="98"/>
         <v>2013.1999999999998</v>
       </c>
       <c r="L59" s="34">
-        <f>L58+L56</f>
+        <f t="shared" si="98"/>
         <v>2197</v>
       </c>
       <c r="M59" s="8">
-        <f>M58+M56</f>
+        <f t="shared" si="98"/>
         <v>2741.3</v>
       </c>
+      <c r="N59" s="34">
+        <f t="shared" si="98"/>
+        <v>2788.4</v>
+      </c>
       <c r="R59" s="8">
-        <f t="shared" ref="R59:S59" si="74">R58+R56</f>
+        <f t="shared" ref="R59:S59" si="99">R58+R56</f>
         <v>1402.9829999999999</v>
       </c>
       <c r="S59" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="99"/>
         <v>1446.8560000000002</v>
       </c>
       <c r="T59" s="8">
@@ -6544,6 +6799,10 @@
         <f>W58+W56</f>
         <v>2197</v>
       </c>
+      <c r="X59" s="8">
+        <f t="shared" ref="X59" si="100">X58+X56</f>
+        <v>2788.4</v>
+      </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="T60" s="8"/>
@@ -6554,72 +6813,80 @@
         <v>97</v>
       </c>
       <c r="C61" s="8">
-        <f>C40-C56</f>
+        <f t="shared" ref="C61:M61" si="101">C40-C56</f>
         <v>775.3</v>
       </c>
       <c r="D61" s="34">
-        <f>D40-D56</f>
+        <f t="shared" si="101"/>
         <v>828.39699999999993</v>
       </c>
       <c r="E61" s="8">
-        <f>E40-E56</f>
+        <f t="shared" si="101"/>
         <v>927.30000000000018</v>
       </c>
       <c r="F61" s="34">
-        <f>F40-F56</f>
+        <f t="shared" si="101"/>
         <v>981.40000000000032</v>
       </c>
       <c r="G61" s="8">
-        <f>G40-G56</f>
+        <f t="shared" si="101"/>
         <v>1067.5000000000002</v>
       </c>
       <c r="H61" s="34">
-        <f>H40-H56</f>
+        <f t="shared" si="101"/>
         <v>1136.9000000000001</v>
       </c>
       <c r="I61" s="8">
-        <f>I40-I56</f>
+        <f t="shared" si="101"/>
         <v>1123</v>
       </c>
       <c r="J61" s="34">
-        <f>J40-J56</f>
+        <f t="shared" si="101"/>
         <v>1167.6000000000001</v>
       </c>
       <c r="K61" s="8">
-        <f>K40-K56</f>
+        <f t="shared" si="101"/>
         <v>1277.1000000000004</v>
       </c>
       <c r="L61" s="34">
-        <f>L40-L56</f>
+        <f t="shared" si="101"/>
         <v>1403.1000000000004</v>
       </c>
       <c r="M61" s="8">
-        <f>M40-M56</f>
+        <f t="shared" si="101"/>
         <v>1627</v>
       </c>
+      <c r="N61" s="34">
+        <f t="shared" ref="N61" si="102">N40-N56</f>
+        <v>1598.9</v>
+      </c>
       <c r="R61" s="8">
-        <f t="shared" ref="R61:T61" si="75">R40-R56</f>
+        <f t="shared" ref="R61:S61" si="103">R40-R56</f>
         <v>778.63699999999994</v>
       </c>
       <c r="S61" s="8">
-        <f t="shared" si="75"/>
+        <f t="shared" si="103"/>
         <v>828.39699999999993</v>
       </c>
       <c r="T61" s="8">
-        <f t="shared" ref="T61:U61" si="76">T40-T56</f>
+        <f t="shared" ref="T61" si="104">T40-T56</f>
         <v>981.40000000000032</v>
       </c>
       <c r="U61" s="8">
-        <f t="shared" ref="U61:V61" si="77">U40-U56</f>
+        <f t="shared" ref="U61" si="105">U40-U56</f>
         <v>1136.9000000000001</v>
       </c>
       <c r="V61" s="8">
-        <f t="shared" ref="V61:W61" si="78">V40-V56</f>
+        <f t="shared" ref="V61:W61" si="106">V40-V56</f>
         <v>1167.6000000000001</v>
       </c>
       <c r="W61" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>1403.1000000000004</v>
+      </c>
+      <c r="X61" s="8">
+        <f t="shared" ref="X61" si="107">X40-X56</f>
+        <v>1598.9</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -6627,72 +6894,80 @@
         <v>98</v>
       </c>
       <c r="C62" s="1">
-        <f>C61/C16</f>
+        <f t="shared" ref="C62:N62" si="108">C61/C16</f>
         <v>2.0444631793064798</v>
       </c>
       <c r="D62" s="34">
-        <f>D61/D16</f>
+        <f t="shared" si="108"/>
         <v>2.1858169969439136</v>
       </c>
       <c r="E62" s="1">
-        <f>E61/E16</f>
+        <f t="shared" si="108"/>
         <v>2.4464198115545486</v>
       </c>
       <c r="F62" s="34">
-        <f>F61/F16</f>
+        <f t="shared" si="108"/>
         <v>2.588354874319402</v>
       </c>
       <c r="G62" s="1">
-        <f>G61/G16</f>
+        <f t="shared" si="108"/>
         <v>2.815622833165575</v>
       </c>
       <c r="H62" s="34">
-        <f>H61/H16</f>
+        <f t="shared" si="108"/>
         <v>2.9990490331802162</v>
       </c>
       <c r="I62" s="1">
-        <f>I61/I16</f>
+        <f t="shared" si="108"/>
         <v>2.9623377739884473</v>
       </c>
       <c r="J62" s="34">
-        <f>J61/J16</f>
+        <f t="shared" si="108"/>
         <v>3.0831792975970429</v>
       </c>
       <c r="K62" s="1">
-        <f>K61/K16</f>
+        <f t="shared" si="108"/>
         <v>3.368768135056714</v>
       </c>
       <c r="L62" s="34">
-        <f>L61/L16</f>
+        <f t="shared" si="108"/>
         <v>3.7050435701082662</v>
       </c>
       <c r="M62" s="1">
-        <f>M61/M16</f>
+        <f t="shared" si="108"/>
         <v>4.3019566367001589</v>
       </c>
+      <c r="N62" s="34">
+        <f t="shared" si="108"/>
+        <v>4.2298941798941803</v>
+      </c>
       <c r="R62" s="1">
-        <f t="shared" ref="R62:T62" si="79">R61/R16</f>
+        <f t="shared" ref="R62:S62" si="109">R61/R16</f>
         <v>2.056156169391437</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="109"/>
         <v>2.1858169969439136</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" ref="T62:U62" si="80">T61/T16</f>
+        <f t="shared" ref="T62" si="110">T61/T16</f>
         <v>2.588354874319402</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" ref="U62:V62" si="81">U61/U16</f>
+        <f t="shared" ref="U62" si="111">U61/U16</f>
         <v>2.9990490331802162</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:W62" si="82">V61/V16</f>
+        <f t="shared" ref="V62:W62" si="112">V61/V16</f>
         <v>3.0791139240506333</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="112"/>
         <v>3.7050435701082662</v>
+      </c>
+      <c r="X62" s="1">
+        <f t="shared" ref="X62" si="113">X61/X16</f>
+        <v>4.2298941798941803</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
@@ -6700,63 +6975,67 @@
         <v>7</v>
       </c>
       <c r="C64" s="8">
-        <f>C38+C39+C30</f>
+        <f t="shared" ref="C64:M64" si="114">C38+C39+C30</f>
         <v>75.7</v>
       </c>
       <c r="D64" s="34">
-        <f>D38+D39+D30</f>
+        <f t="shared" si="114"/>
         <v>75.418999999999997</v>
       </c>
       <c r="E64" s="8">
-        <f>E38+E39+E30</f>
+        <f t="shared" si="114"/>
         <v>70.600000000000009</v>
       </c>
       <c r="F64" s="34">
-        <f>F38+F39+F30</f>
+        <f t="shared" si="114"/>
         <v>86.000000000000014</v>
       </c>
       <c r="G64" s="8">
-        <f>G38+G39+G30</f>
+        <f t="shared" si="114"/>
         <v>89.600000000000009</v>
       </c>
       <c r="H64" s="34">
-        <f>H38+H39+H30</f>
+        <f t="shared" si="114"/>
         <v>112.1</v>
       </c>
       <c r="I64" s="8">
-        <f>I38+I39+I30</f>
+        <f t="shared" si="114"/>
         <v>130.70000000000002</v>
       </c>
       <c r="J64" s="34">
-        <f>J38+J39+J30</f>
+        <f t="shared" si="114"/>
         <v>145.1</v>
       </c>
       <c r="K64" s="8">
-        <f>K38+K39+K30</f>
+        <f t="shared" si="114"/>
         <v>141.6</v>
       </c>
       <c r="L64" s="34">
-        <f>L38+L39+L30</f>
+        <f t="shared" si="114"/>
         <v>166.29999999999998</v>
       </c>
       <c r="M64" s="8">
-        <f>M38+M39+M30</f>
+        <f t="shared" si="114"/>
         <v>234.4</v>
       </c>
+      <c r="N64" s="34">
+        <f t="shared" ref="N64" si="115">N38+N39+N30</f>
+        <v>192</v>
+      </c>
       <c r="R64" s="8">
-        <f t="shared" ref="R64:T64" si="83">R38+R39+R30</f>
+        <f t="shared" ref="R64:S64" si="116">R38+R39+R30</f>
         <v>70.977999999999994</v>
       </c>
       <c r="S64" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="116"/>
         <v>75.418999999999997</v>
       </c>
       <c r="T64" s="8">
-        <f t="shared" ref="T64:U64" si="84">T38+T39+T30</f>
+        <f t="shared" ref="T64" si="117">T38+T39+T30</f>
         <v>86.000000000000014</v>
       </c>
       <c r="U64" s="8">
-        <f t="shared" ref="U64:V64" si="85">U38+U39+U30</f>
+        <f t="shared" ref="U64" si="118">U38+U39+U30</f>
         <v>112.1</v>
       </c>
       <c r="V64" s="8">
@@ -6767,69 +7046,77 @@
         <f>W38+W39+W30</f>
         <v>166.29999999999998</v>
       </c>
+      <c r="X64" s="8">
+        <f t="shared" ref="X64" si="119">X38+X39+X30</f>
+        <v>192</v>
+      </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="8">
-        <f>C50+C42+C48</f>
+        <f t="shared" ref="C65:M65" si="120">C50+C42+C48</f>
         <v>253.1</v>
       </c>
       <c r="D65" s="34">
-        <f>D50+D42+D48</f>
+        <f t="shared" si="120"/>
         <v>291.27800000000002</v>
       </c>
       <c r="E65" s="8">
-        <f>E50+E42+E48</f>
+        <f t="shared" si="120"/>
         <v>261.5</v>
       </c>
       <c r="F65" s="34">
-        <f>F50+F42+F48</f>
+        <f t="shared" si="120"/>
         <v>263.2</v>
       </c>
       <c r="G65" s="8">
-        <f>G50+G42+G48</f>
+        <f t="shared" si="120"/>
         <v>337.29999999999995</v>
       </c>
       <c r="H65" s="34">
-        <f>H50+H42+H48</f>
+        <f t="shared" si="120"/>
         <v>421.1</v>
       </c>
       <c r="I65" s="8">
-        <f>I50+I42+I48</f>
+        <f t="shared" si="120"/>
         <v>377</v>
       </c>
       <c r="J65" s="34">
-        <f>J50+J42+J48</f>
+        <f t="shared" si="120"/>
         <v>326</v>
       </c>
       <c r="K65" s="8">
-        <f>K50+K42+K48</f>
+        <f t="shared" si="120"/>
         <v>546.79999999999995</v>
       </c>
       <c r="L65" s="34">
-        <f>L50+L42+L48</f>
+        <f t="shared" si="120"/>
         <v>361</v>
       </c>
       <c r="M65" s="8">
-        <f>M50+M42+M48</f>
+        <f t="shared" si="120"/>
         <v>802</v>
       </c>
+      <c r="N65" s="34">
+        <f t="shared" ref="N65" si="121">N50+N42+N48</f>
+        <v>679.19999999999993</v>
+      </c>
       <c r="R65" s="8">
-        <f t="shared" ref="R65:T65" si="86">R50+R42+R48</f>
+        <f t="shared" ref="R65:S65" si="122">R50+R42+R48</f>
         <v>263.584</v>
       </c>
       <c r="S65" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="122"/>
         <v>291.27800000000002</v>
       </c>
       <c r="T65" s="8">
-        <f t="shared" ref="T65:U65" si="87">T50+T42+T48</f>
+        <f t="shared" ref="T65" si="123">T50+T42+T48</f>
         <v>263.2</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" ref="U65:V65" si="88">U50+U42+U48</f>
+        <f t="shared" ref="U65" si="124">U50+U42+U48</f>
         <v>421.1</v>
       </c>
       <c r="V65" s="8">
@@ -6840,69 +7127,77 @@
         <f>W50+W42+W48</f>
         <v>361</v>
       </c>
+      <c r="X65" s="8">
+        <f t="shared" ref="X65" si="125">X50+X42+X48</f>
+        <v>679.19999999999993</v>
+      </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="8">
-        <f>C64-C65</f>
+        <f t="shared" ref="C66:N66" si="126">C64-C65</f>
         <v>-177.39999999999998</v>
       </c>
       <c r="D66" s="34">
-        <f>D64-D65</f>
+        <f t="shared" si="126"/>
         <v>-215.85900000000004</v>
       </c>
       <c r="E66" s="8">
-        <f>E64-E65</f>
+        <f t="shared" si="126"/>
         <v>-190.89999999999998</v>
       </c>
       <c r="F66" s="34">
-        <f>F64-F65</f>
+        <f t="shared" si="126"/>
         <v>-177.2</v>
       </c>
       <c r="G66" s="8">
-        <f>G64-G65</f>
+        <f t="shared" si="126"/>
         <v>-247.69999999999993</v>
       </c>
       <c r="H66" s="34">
-        <f>H64-H65</f>
+        <f t="shared" si="126"/>
         <v>-309</v>
       </c>
       <c r="I66" s="8">
-        <f>I64-I65</f>
+        <f t="shared" si="126"/>
         <v>-246.29999999999998</v>
       </c>
       <c r="J66" s="34">
-        <f>J64-J65</f>
+        <f t="shared" si="126"/>
         <v>-180.9</v>
       </c>
       <c r="K66" s="8">
-        <f>K64-K65</f>
+        <f t="shared" si="126"/>
         <v>-405.19999999999993</v>
       </c>
       <c r="L66" s="34">
-        <f>L64-L65</f>
+        <f t="shared" si="126"/>
         <v>-194.70000000000002</v>
       </c>
       <c r="M66" s="8">
-        <f>M64-M65</f>
+        <f t="shared" si="126"/>
         <v>-567.6</v>
       </c>
+      <c r="N66" s="34">
+        <f t="shared" si="126"/>
+        <v>-487.19999999999993</v>
+      </c>
       <c r="R66" s="8">
-        <f t="shared" ref="R66" si="89">R64-R65</f>
+        <f t="shared" ref="R66" si="127">R64-R65</f>
         <v>-192.60599999999999</v>
       </c>
       <c r="S66" s="8">
-        <f t="shared" ref="S66" si="90">S64-S65</f>
+        <f t="shared" ref="S66" si="128">S64-S65</f>
         <v>-215.85900000000004</v>
       </c>
       <c r="T66" s="8">
-        <f t="shared" ref="T66" si="91">T64-T65</f>
+        <f t="shared" ref="T66" si="129">T64-T65</f>
         <v>-177.2</v>
       </c>
       <c r="U66" s="8">
-        <f t="shared" ref="U66" si="92">U64-U65</f>
+        <f t="shared" ref="U66" si="130">U64-U65</f>
         <v>-309</v>
       </c>
       <c r="V66" s="8">
@@ -6913,6 +7208,10 @@
         <f>W64-W65</f>
         <v>-194.70000000000002</v>
       </c>
+      <c r="X66" s="8">
+        <f t="shared" ref="X66" si="131">X64-X65</f>
+        <v>-487.19999999999993</v>
+      </c>
     </row>
     <row r="68" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="35" t="s">
@@ -6956,7 +7255,10 @@
       <c r="M68" s="35">
         <v>20.45</v>
       </c>
-      <c r="N68" s="50"/>
+      <c r="N68" s="36">
+        <f>X68</f>
+        <v>22.29</v>
+      </c>
       <c r="P68" s="36"/>
       <c r="R68" s="35">
         <v>9.7027000000000001</v>
@@ -6976,49 +7278,48 @@
       <c r="W68" s="35">
         <v>24.9636</v>
       </c>
-      <c r="X68" s="50">
-        <f>X15*X75</f>
-        <v>24.650957703880664</v>
-      </c>
-      <c r="Y68" s="74">
+      <c r="X68" s="94">
+        <v>22.29</v>
+      </c>
+      <c r="Y68" s="73">
         <f>Y15*Y75</f>
-        <v>21.787658677332278</v>
-      </c>
-      <c r="Z68" s="74">
-        <f t="shared" ref="Z68:AH68" si="93">Z15*Z75</f>
-        <v>25.1422549927502</v>
-      </c>
-      <c r="AA68" s="74">
-        <f t="shared" si="93"/>
-        <v>28.45671142279733</v>
-      </c>
-      <c r="AB68" s="74">
-        <f t="shared" si="93"/>
-        <v>31.666314634341049</v>
-      </c>
-      <c r="AC68" s="74">
-        <f t="shared" si="93"/>
-        <v>35.209142786966169</v>
-      </c>
-      <c r="AD68" s="74">
-        <f t="shared" si="93"/>
-        <v>38.782381877593643</v>
-      </c>
-      <c r="AE68" s="74">
-        <f t="shared" si="93"/>
-        <v>42.72057229060448</v>
-      </c>
-      <c r="AF68" s="74">
-        <f t="shared" si="93"/>
-        <v>47.048031890850851</v>
-      </c>
-      <c r="AG68" s="74">
-        <f t="shared" si="93"/>
-        <v>51.808728216058689</v>
-      </c>
-      <c r="AH68" s="74">
-        <f t="shared" si="93"/>
-        <v>57.046683615184612</v>
+        <v>22.248994050410282</v>
+      </c>
+      <c r="Z68" s="73">
+        <f t="shared" ref="Z68:AH68" si="132">Z15*Z75</f>
+        <v>25.781705456531345</v>
+      </c>
+      <c r="AA68" s="73">
+        <f t="shared" si="132"/>
+        <v>29.340308990655021</v>
+      </c>
+      <c r="AB68" s="73">
+        <f t="shared" si="132"/>
+        <v>32.289091733218605</v>
+      </c>
+      <c r="AC68" s="73">
+        <f t="shared" si="132"/>
+        <v>35.884254806006609</v>
+      </c>
+      <c r="AD68" s="73">
+        <f t="shared" si="132"/>
+        <v>39.468093417611101</v>
+      </c>
+      <c r="AE68" s="73">
+        <f t="shared" si="132"/>
+        <v>43.337385060414334</v>
+      </c>
+      <c r="AF68" s="73">
+        <f t="shared" si="132"/>
+        <v>47.659053456164521</v>
+      </c>
+      <c r="AG68" s="73">
+        <f t="shared" si="132"/>
+        <v>52.393567242365876</v>
+      </c>
+      <c r="AH68" s="73">
+        <f t="shared" si="132"/>
+        <v>57.592597510381061</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.2">
@@ -7030,7 +7331,7 @@
         <v>4114.4161925447006</v>
       </c>
       <c r="D69" s="34">
-        <f t="shared" ref="D69" si="94">D68*D16</f>
+        <f t="shared" ref="D69" si="133">D68*D16</f>
         <v>3677.2005996558</v>
       </c>
       <c r="E69" s="8">
@@ -7038,7 +7339,7 @@
         <v>5308.2794942492001</v>
       </c>
       <c r="F69" s="34">
-        <f t="shared" ref="F69:H69" si="95">F68*F16</f>
+        <f t="shared" ref="F69:H69" si="134">F68*F16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="G69" s="8">
@@ -7046,7 +7347,7 @@
         <v>7310.4731065340002</v>
       </c>
       <c r="H69" s="34">
-        <f t="shared" si="95"/>
+        <f t="shared" si="134"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="I69" s="8">
@@ -7054,7 +7355,7 @@
         <v>8761.9267890080991</v>
       </c>
       <c r="J69" s="34">
-        <f t="shared" ref="J69:L69" si="96">J68*J16</f>
+        <f t="shared" ref="J69:L69" si="135">J68*J16</f>
         <v>8886.2333699999999</v>
       </c>
       <c r="K69" s="8">
@@ -7062,47 +7363,55 @@
         <v>10690.468360000001</v>
       </c>
       <c r="L69" s="34">
-        <f t="shared" si="96"/>
+        <f t="shared" si="135"/>
         <v>9453.7153199999993</v>
       </c>
       <c r="M69" s="8">
         <f>M68*M16</f>
         <v>7734.19</v>
       </c>
+      <c r="N69" s="34">
+        <f t="shared" ref="N69" si="136">N68*N16</f>
+        <v>8425.619999999999</v>
+      </c>
       <c r="R69" s="8">
-        <f t="shared" ref="R69:T69" si="97">R68*R16</f>
+        <f t="shared" ref="R69:S69" si="137">R68*R16</f>
         <v>3674.2740324709998</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="137"/>
         <v>4955.6386409039997</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" ref="T69:W69" si="98">T68*T16</f>
+        <f t="shared" ref="T69:W69" si="138">T68*T16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="138"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="V69" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="138"/>
         <v>8897.9659199999987</v>
       </c>
       <c r="W69" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="138"/>
         <v>9453.7153199999993</v>
       </c>
-      <c r="Y69" s="75"/>
-      <c r="Z69" s="75"/>
-      <c r="AA69" s="75"/>
-      <c r="AB69" s="75"/>
-      <c r="AC69" s="75"/>
-      <c r="AD69" s="75"/>
-      <c r="AE69" s="75"/>
-      <c r="AF69" s="75"/>
-      <c r="AG69" s="75"/>
-      <c r="AH69" s="75"/>
+      <c r="X69" s="8">
+        <f t="shared" ref="X69" si="139">X68*X16</f>
+        <v>8425.619999999999</v>
+      </c>
+      <c r="Y69" s="74"/>
+      <c r="Z69" s="74"/>
+      <c r="AA69" s="74"/>
+      <c r="AB69" s="74"/>
+      <c r="AC69" s="74"/>
+      <c r="AD69" s="74"/>
+      <c r="AE69" s="74"/>
+      <c r="AF69" s="74"/>
+      <c r="AG69" s="74"/>
+      <c r="AH69" s="74"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
@@ -7113,7 +7422,7 @@
         <v>4291.8161925447002</v>
       </c>
       <c r="D70" s="34">
-        <f t="shared" ref="D70" si="99">D69-D66</f>
+        <f t="shared" ref="D70" si="140">D69-D66</f>
         <v>3893.0595996558</v>
       </c>
       <c r="E70" s="8">
@@ -7121,7 +7430,7 @@
         <v>5499.1794942491997</v>
       </c>
       <c r="F70" s="34">
-        <f t="shared" ref="F70:H70" si="100">F69-F66</f>
+        <f t="shared" ref="F70:H70" si="141">F69-F66</f>
         <v>6349.6174835960001</v>
       </c>
       <c r="G70" s="8">
@@ -7129,7 +7438,7 @@
         <v>7558.173106534</v>
       </c>
       <c r="H70" s="34">
-        <f t="shared" si="100"/>
+        <f t="shared" si="141"/>
         <v>7454.9384367832008</v>
       </c>
       <c r="I70" s="8">
@@ -7137,7 +7446,7 @@
         <v>9008.2267890080984</v>
       </c>
       <c r="J70" s="34">
-        <f t="shared" ref="J70:L70" si="101">J69-J66</f>
+        <f t="shared" ref="J70:L70" si="142">J69-J66</f>
         <v>9067.1333699999996</v>
       </c>
       <c r="K70" s="8">
@@ -7145,328 +7454,356 @@
         <v>11095.668360000001</v>
       </c>
       <c r="L70" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="142"/>
         <v>9648.4153200000001</v>
       </c>
       <c r="M70" s="8">
         <f>M69-M66</f>
         <v>8301.7899999999991</v>
       </c>
+      <c r="N70" s="34">
+        <f t="shared" ref="N70" si="143">N69-N66</f>
+        <v>8912.82</v>
+      </c>
       <c r="R70" s="8">
-        <f t="shared" ref="R70:T70" si="102">R69-R66</f>
+        <f t="shared" ref="R70:S70" si="144">R69-R66</f>
         <v>3866.880032471</v>
       </c>
       <c r="S70" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="144"/>
         <v>5171.497640904</v>
       </c>
       <c r="T70" s="8">
-        <f t="shared" ref="T70:W70" si="103">T69-T66</f>
+        <f t="shared" ref="T70:W70" si="145">T69-T66</f>
         <v>6349.6174835960001</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="145"/>
         <v>7454.9384367832008</v>
       </c>
       <c r="V70" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="145"/>
         <v>9078.8659199999984</v>
       </c>
       <c r="W70" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="145"/>
         <v>9648.4153200000001</v>
       </c>
-      <c r="Y70" s="75"/>
-      <c r="Z70" s="75"/>
-      <c r="AA70" s="75"/>
-      <c r="AB70" s="75"/>
-      <c r="AC70" s="75"/>
-      <c r="AD70" s="75"/>
-      <c r="AE70" s="75"/>
-      <c r="AF70" s="75"/>
-      <c r="AG70" s="75"/>
-      <c r="AH70" s="75"/>
+      <c r="X70" s="8">
+        <f t="shared" ref="X70" si="146">X69-X66</f>
+        <v>8912.82</v>
+      </c>
+      <c r="Y70" s="74"/>
+      <c r="Z70" s="74"/>
+      <c r="AA70" s="74"/>
+      <c r="AB70" s="74"/>
+      <c r="AC70" s="74"/>
+      <c r="AD70" s="74"/>
+      <c r="AE70" s="74"/>
+      <c r="AF70" s="74"/>
+      <c r="AG70" s="74"/>
+      <c r="AH70" s="74"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="Y71" s="75"/>
-      <c r="Z71" s="75"/>
-      <c r="AA71" s="75"/>
-      <c r="AB71" s="75"/>
-      <c r="AC71" s="75"/>
-      <c r="AD71" s="75"/>
-      <c r="AE71" s="75"/>
-      <c r="AF71" s="75"/>
-      <c r="AG71" s="75"/>
-      <c r="AH71" s="75"/>
+      <c r="Y71" s="74"/>
+      <c r="Z71" s="74"/>
+      <c r="AA71" s="74"/>
+      <c r="AB71" s="74"/>
+      <c r="AC71" s="74"/>
+      <c r="AD71" s="74"/>
+      <c r="AE71" s="74"/>
+      <c r="AF71" s="74"/>
+      <c r="AG71" s="74"/>
+      <c r="AH71" s="74"/>
     </row>
     <row r="72" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
         <f>AVERAGE(C72:AX72)</f>
-        <v>6.3413484206813253</v>
+        <v>6.2285365210643278</v>
       </c>
       <c r="B72" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="42">
-        <f>C68/C62</f>
+        <f t="shared" ref="C72:M72" si="147">C68/C62</f>
         <v>5.306869847213596</v>
       </c>
-      <c r="D72" s="57">
-        <f>D68/D62</f>
+      <c r="D72" s="56">
+        <f t="shared" si="147"/>
         <v>4.4389351961146657</v>
       </c>
       <c r="E72" s="42">
-        <f>E68/E62</f>
+        <f t="shared" si="147"/>
         <v>5.7244467747753687</v>
       </c>
-      <c r="F72" s="57">
-        <f>F68/F62</f>
+      <c r="F72" s="56">
+        <f t="shared" si="147"/>
         <v>6.2894003297289567</v>
       </c>
       <c r="G72" s="42">
-        <f>G68/G62</f>
+        <f t="shared" si="147"/>
         <v>6.8482183667765799</v>
       </c>
-      <c r="H72" s="57">
-        <f>H68/H62</f>
+      <c r="H72" s="56">
+        <f t="shared" si="147"/>
         <v>6.2854590876798309</v>
       </c>
       <c r="I72" s="42">
-        <f>I68/I62</f>
+        <f t="shared" si="147"/>
         <v>7.8022500347356187</v>
       </c>
-      <c r="J72" s="57">
-        <f>J68/J62</f>
+      <c r="J72" s="56">
+        <f t="shared" si="147"/>
         <v>7.6106829136690637</v>
       </c>
       <c r="K72" s="42">
-        <f>K68/K62</f>
+        <f t="shared" si="147"/>
         <v>8.3708937123169669</v>
       </c>
-      <c r="L72" s="57">
-        <f>L68/L62</f>
+      <c r="L72" s="56">
+        <f t="shared" si="147"/>
         <v>6.7377345306820589</v>
       </c>
       <c r="M72" s="42">
-        <f>M68/M62</f>
+        <f t="shared" si="147"/>
         <v>4.7536508912108166</v>
       </c>
-      <c r="N72" s="77"/>
-      <c r="P72" s="57"/>
+      <c r="N72" s="56">
+        <f t="shared" ref="N72" si="148">N68/N62</f>
+        <v>5.2696353743198445</v>
+      </c>
+      <c r="P72" s="56"/>
       <c r="R72" s="42">
-        <f t="shared" ref="R72:T72" si="104">R68/R62</f>
+        <f t="shared" ref="R72:S72" si="149">R68/R62</f>
         <v>4.7188536281617752</v>
       </c>
       <c r="S72" s="42">
-        <f t="shared" si="104"/>
+        <f t="shared" si="149"/>
         <v>5.9822025440748829</v>
       </c>
       <c r="T72" s="42">
-        <f t="shared" ref="T72:U72" si="105">T68/T62</f>
+        <f t="shared" ref="T72" si="150">T68/T62</f>
         <v>6.2894003297289567</v>
       </c>
       <c r="U72" s="42">
-        <f t="shared" ref="U72:V72" si="106">U68/U62</f>
+        <f t="shared" ref="U72:V72" si="151">U68/U62</f>
         <v>6.2854590876798309</v>
       </c>
       <c r="V72" s="42">
-        <f t="shared" si="106"/>
+        <f t="shared" si="151"/>
         <v>7.620731346351489</v>
       </c>
       <c r="W72" s="42">
         <f>W68/W62</f>
         <v>6.7377345306820589</v>
       </c>
-      <c r="X72" s="77"/>
-      <c r="Y72" s="76"/>
-      <c r="Z72" s="76"/>
-      <c r="AA72" s="76"/>
-      <c r="AB72" s="76"/>
-      <c r="AC72" s="76"/>
-      <c r="AD72" s="76"/>
-      <c r="AE72" s="76"/>
-      <c r="AF72" s="76"/>
-      <c r="AG72" s="76"/>
-      <c r="AH72" s="76"/>
+      <c r="X72" s="42">
+        <f t="shared" ref="X72" si="152">X68/X62</f>
+        <v>5.2696353743198445</v>
+      </c>
+      <c r="Y72" s="75"/>
+      <c r="Z72" s="75"/>
+      <c r="AA72" s="75"/>
+      <c r="AB72" s="75"/>
+      <c r="AC72" s="75"/>
+      <c r="AD72" s="75"/>
+      <c r="AE72" s="75"/>
+      <c r="AF72" s="75"/>
+      <c r="AG72" s="75"/>
+      <c r="AH72" s="75"/>
     </row>
     <row r="73" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
         <f>AVERAGE(C73:AX73)</f>
-        <v>5.4827828196997608</v>
+        <v>5.3788632260313358</v>
       </c>
       <c r="B73" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="57">
-        <f>D69/SUM(C4:D4)</f>
+      <c r="D73" s="56">
+        <f t="shared" ref="D73:M73" si="153">D69/SUM(C4:D4)</f>
         <v>3.4168026526915263</v>
       </c>
       <c r="E73" s="42">
-        <f>E69/SUM(D4:E4)</f>
+        <f t="shared" si="153"/>
         <v>4.5942781350092732</v>
       </c>
-      <c r="F73" s="57">
-        <f>F69/SUM(E4:F4)</f>
+      <c r="F73" s="56">
+        <f t="shared" si="153"/>
         <v>5.0973800343513087</v>
       </c>
       <c r="G73" s="42">
-        <f>G69/SUM(F4:G4)</f>
+        <f t="shared" si="153"/>
         <v>5.7153257028645132</v>
       </c>
-      <c r="H73" s="57">
-        <f>H69/SUM(G4:H4)</f>
+      <c r="H73" s="56">
+        <f t="shared" si="153"/>
         <v>5.3391650005851767</v>
       </c>
       <c r="I73" s="42">
-        <f>I69/SUM(H4:I4)</f>
+        <f t="shared" si="153"/>
         <v>6.7239097452291459</v>
       </c>
-      <c r="J73" s="57">
-        <f>J69/SUM(I4:J4)</f>
+      <c r="J73" s="56">
+        <f t="shared" si="153"/>
         <v>6.7411875056895765</v>
       </c>
       <c r="K73" s="42">
-        <f>K69/SUM(J4:K4)</f>
+        <f t="shared" si="153"/>
         <v>7.4394351844119697</v>
       </c>
-      <c r="L73" s="57">
-        <f>L69/SUM(K4:L4)</f>
+      <c r="L73" s="56">
+        <f t="shared" si="153"/>
         <v>6.1979383203304268</v>
       </c>
       <c r="M73" s="42">
-        <f>M69/SUM(L4:M4)</f>
+        <f t="shared" si="153"/>
         <v>4.6490682856455878</v>
       </c>
-      <c r="N73" s="77"/>
-      <c r="P73" s="57"/>
+      <c r="N73" s="56">
+        <f t="shared" ref="N73" si="154">N69/SUM(M4:N4)</f>
+        <v>4.547506476683937</v>
+      </c>
+      <c r="P73" s="56"/>
       <c r="R73" s="42">
-        <f t="shared" ref="R73:T73" si="107">R69/R4</f>
+        <f t="shared" ref="R73:S73" si="155">R69/R4</f>
         <v>3.82075410328265</v>
       </c>
       <c r="S73" s="42">
-        <f t="shared" si="107"/>
+        <f t="shared" si="155"/>
         <v>4.60470915174069</v>
       </c>
       <c r="T73" s="42">
-        <f t="shared" ref="T73:U73" si="108">T69/T4</f>
+        <f t="shared" ref="T73" si="156">T69/T4</f>
         <v>5.0973800343513087</v>
       </c>
       <c r="U73" s="42">
-        <f t="shared" ref="T73:V73" si="109">U69/U4</f>
+        <f t="shared" ref="U73:V73" si="157">U69/U4</f>
         <v>5.3391650005851767</v>
       </c>
       <c r="V73" s="42">
-        <f t="shared" si="109"/>
+        <f t="shared" si="157"/>
         <v>6.7500879380974039</v>
       </c>
       <c r="W73" s="42">
         <f>W69/W4</f>
         <v>6.1979383203304268</v>
       </c>
-      <c r="X73" s="77"/>
-      <c r="Y73" s="76"/>
-      <c r="Z73" s="76"/>
-      <c r="AA73" s="76"/>
-      <c r="AB73" s="76"/>
-      <c r="AC73" s="76"/>
-      <c r="AD73" s="76"/>
-      <c r="AE73" s="76"/>
-      <c r="AF73" s="76"/>
-      <c r="AG73" s="76"/>
-      <c r="AH73" s="76"/>
+      <c r="X73" s="42">
+        <f t="shared" ref="X73" si="158">X69/X4</f>
+        <v>4.547506476683937</v>
+      </c>
+      <c r="Y73" s="75"/>
+      <c r="Z73" s="75"/>
+      <c r="AA73" s="75"/>
+      <c r="AB73" s="75"/>
+      <c r="AC73" s="75"/>
+      <c r="AD73" s="75"/>
+      <c r="AE73" s="75"/>
+      <c r="AF73" s="75"/>
+      <c r="AG73" s="75"/>
+      <c r="AH73" s="75"/>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
         <f>AVERAGE(C74:AX74)</f>
-        <v>5.6738240404865383</v>
+        <v>5.5778946853835443</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="57">
-        <f t="shared" ref="D74:E74" si="110">D70/SUM(C4:D4)</f>
+      <c r="D74" s="56">
+        <f t="shared" ref="D74:E74" si="159">D70/SUM(C4:D4)</f>
         <v>3.6173757745049993</v>
       </c>
       <c r="E74" s="42">
-        <f t="shared" si="110"/>
+        <f t="shared" si="159"/>
         <v>4.7595007267969578</v>
       </c>
-      <c r="F74" s="57">
-        <f t="shared" ref="F74:M74" si="111">F70/SUM(E4:F4)</f>
+      <c r="F74" s="56">
+        <f t="shared" ref="F74:N74" si="160">F70/SUM(E4:F4)</f>
         <v>5.243717469317037</v>
       </c>
       <c r="G74" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="160"/>
         <v>5.9089774892768343</v>
       </c>
-      <c r="H74" s="57">
-        <f t="shared" si="111"/>
+      <c r="H74" s="56">
+        <f t="shared" si="160"/>
         <v>5.5700376843867305</v>
       </c>
       <c r="I74" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="160"/>
         <v>6.912920565580615</v>
       </c>
-      <c r="J74" s="57">
-        <f t="shared" si="111"/>
+      <c r="J74" s="56">
+        <f t="shared" si="160"/>
         <v>6.8784200955848878</v>
       </c>
       <c r="K74" s="42">
-        <f t="shared" si="111"/>
+        <f t="shared" si="160"/>
         <v>7.7214115240083521</v>
       </c>
-      <c r="L74" s="57">
-        <f t="shared" si="111"/>
+      <c r="L74" s="56">
+        <f t="shared" si="160"/>
         <v>6.325585340588737</v>
       </c>
       <c r="M74" s="42">
         <f>M70/SUM(L4:M4)</f>
         <v>4.990256071170954</v>
       </c>
+      <c r="N74" s="56">
+        <f t="shared" si="160"/>
+        <v>4.8104598445595856</v>
+      </c>
       <c r="R74" s="42">
-        <f t="shared" ref="R74:T74" si="112">R70/R4</f>
+        <f t="shared" ref="R74:S74" si="161">R70/R4</f>
         <v>4.0210386107291338</v>
       </c>
       <c r="S74" s="42">
-        <f t="shared" si="112"/>
+        <f t="shared" si="161"/>
         <v>4.8052822735541634</v>
       </c>
       <c r="T74" s="42">
-        <f t="shared" ref="T74:U74" si="113">T70/T4</f>
+        <f t="shared" ref="T74" si="162">T70/T4</f>
         <v>5.243717469317037</v>
       </c>
       <c r="U74" s="42">
-        <f t="shared" ref="U74:W74" si="114">U70/U4</f>
+        <f t="shared" ref="U74:V74" si="163">U70/U4</f>
         <v>5.5700376843867305</v>
       </c>
       <c r="V74" s="42">
-        <f t="shared" si="114"/>
+        <f t="shared" si="163"/>
         <v>6.8873205279927161</v>
       </c>
       <c r="W74" s="42">
         <f>W70/W4</f>
         <v>6.325585340588737</v>
       </c>
-      <c r="Y74" s="75"/>
-      <c r="Z74" s="75"/>
-      <c r="AA74" s="75"/>
-      <c r="AB74" s="75"/>
-      <c r="AC74" s="75"/>
-      <c r="AD74" s="75"/>
-      <c r="AE74" s="75"/>
-      <c r="AF74" s="75"/>
-      <c r="AG74" s="75"/>
-      <c r="AH74" s="75"/>
+      <c r="X74" s="42">
+        <f t="shared" ref="X74" si="164">X70/X4</f>
+        <v>4.8104598445595856</v>
+      </c>
+      <c r="Y74" s="74"/>
+      <c r="Z74" s="74"/>
+      <c r="AA74" s="74"/>
+      <c r="AB74" s="74"/>
+      <c r="AC74" s="74"/>
+      <c r="AD74" s="74"/>
+      <c r="AE74" s="74"/>
+      <c r="AF74" s="74"/>
+      <c r="AG74" s="74"/>
+      <c r="AH74" s="74"/>
     </row>
     <row r="75" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
         <f>AVERAGE(C75:AX75)</f>
-        <v>33.476383762362289</v>
+        <v>33.175486684729108</v>
       </c>
       <c r="B75" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="57">
+      <c r="D75" s="56">
         <f>D68/SUM(C15:D15)</f>
         <v>23.848463290771797</v>
       </c>
@@ -7474,7 +7811,7 @@
         <f>E68/(E15+D15)</f>
         <v>31.7591465835166</v>
       </c>
-      <c r="F75" s="57">
+      <c r="F75" s="56">
         <f>F68/SUM(E15:F15)</f>
         <v>36.346214681345977</v>
       </c>
@@ -7482,7 +7819,7 @@
         <f>G68/(G15+F15)</f>
         <v>40.570085892338092</v>
       </c>
-      <c r="H75" s="57">
+      <c r="H75" s="56">
         <f>H68/SUM(G15:H15)</f>
         <v>38.754627719660355</v>
       </c>
@@ -7490,7 +7827,7 @@
         <f>I68/(I15+H15)</f>
         <v>49.58603989933718</v>
       </c>
-      <c r="J75" s="57">
+      <c r="J75" s="56">
         <f>J68/(J15+I15)</f>
         <v>43.727166392237116</v>
       </c>
@@ -7498,7 +7835,7 @@
         <f>K68/(K15+J15)</f>
         <v>40.829325611764631</v>
       </c>
-      <c r="L75" s="57">
+      <c r="L75" s="56">
         <f>L68/(L15+K15)</f>
         <v>38.73571477005347</v>
       </c>
@@ -7506,98 +7843,106 @@
         <f>M68/(M15+L15)</f>
         <v>34.65810517544427</v>
       </c>
-      <c r="N75" s="77"/>
-      <c r="P75" s="57"/>
+      <c r="N75" s="56">
+        <f>N68/(N15+M15)</f>
+        <v>31.029100640179731</v>
+      </c>
+      <c r="P75" s="56"/>
       <c r="R75" s="42">
-        <f t="shared" ref="R75:T75" si="115">R68/R15</f>
+        <f t="shared" ref="R75:S75" si="165">R68/R15</f>
         <v>28.33142388692179</v>
       </c>
       <c r="S75" s="42">
-        <f t="shared" si="115"/>
+        <f t="shared" si="165"/>
         <v>32.131899790595746</v>
       </c>
       <c r="T75" s="42">
-        <f t="shared" ref="T75:U75" si="116">T68/T15</f>
+        <f t="shared" ref="T75" si="166">T68/T15</f>
         <v>36.35110414367491</v>
       </c>
       <c r="U75" s="42">
-        <f t="shared" ref="T75:V75" si="117">U68/U15</f>
+        <f t="shared" ref="U75:V75" si="167">U68/U15</f>
         <v>38.752377639822122</v>
       </c>
       <c r="V75" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="167"/>
         <v>43.767663157894724</v>
       </c>
       <c r="W75" s="42">
         <f>W68/W15</f>
         <v>38.713002948402945</v>
       </c>
-      <c r="X75" s="77">
-        <v>37</v>
-      </c>
-      <c r="Y75" s="76">
+      <c r="X75" s="42">
+        <f t="shared" ref="X75" si="168">X68/X15</f>
+        <v>31.022164948453611</v>
+      </c>
+      <c r="Y75" s="75">
         <v>27</v>
       </c>
-      <c r="Z75" s="76">
+      <c r="Z75" s="75">
         <v>27</v>
       </c>
-      <c r="AA75" s="76">
+      <c r="AA75" s="75">
         <v>27</v>
       </c>
-      <c r="AB75" s="76">
+      <c r="AB75" s="75">
         <v>27</v>
       </c>
-      <c r="AC75" s="76">
+      <c r="AC75" s="75">
         <v>27</v>
       </c>
-      <c r="AD75" s="76">
+      <c r="AD75" s="75">
         <v>27</v>
       </c>
-      <c r="AE75" s="76">
+      <c r="AE75" s="75">
         <v>27</v>
       </c>
-      <c r="AF75" s="76">
+      <c r="AF75" s="75">
         <v>27</v>
       </c>
-      <c r="AG75" s="76">
+      <c r="AG75" s="75">
         <v>27</v>
       </c>
-      <c r="AH75" s="76">
+      <c r="AH75" s="75">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
         <f>AVERAGE(C76:AX76)</f>
-        <v>37.556436621662421</v>
+        <v>36.879228444488263</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="37"/>
       <c r="R76" s="42">
-        <f t="shared" ref="R76:T76" si="118">R70/R12</f>
+        <f t="shared" ref="R76:S76" si="169">R70/R12</f>
         <v>29.81656140822275</v>
       </c>
       <c r="S76" s="42">
-        <f t="shared" si="118"/>
+        <f t="shared" si="169"/>
         <v>33.531509459397782</v>
       </c>
       <c r="T76" s="42">
-        <f t="shared" ref="T76:U76" si="119">T70/T12</f>
+        <f t="shared" ref="T76" si="170">T70/T12</f>
         <v>37.394684826831565</v>
       </c>
       <c r="U76" s="42">
-        <f t="shared" ref="U76:W76" si="120">U70/U12</f>
+        <f t="shared" ref="U76:V76" si="171">U70/U12</f>
         <v>40.428082628976135</v>
       </c>
       <c r="V76" s="42">
-        <f t="shared" si="120"/>
+        <f t="shared" si="171"/>
         <v>44.657481160846025</v>
       </c>
       <c r="W76" s="42">
         <f>W70/W12</f>
         <v>39.51030024570025</v>
+      </c>
+      <c r="X76" s="42">
+        <f t="shared" ref="X76" si="172">X70/X12</f>
+        <v>32.815979381443299</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
@@ -7627,29 +7972,37 @@
         <f>(M5+L5)/(M40-M49)</f>
         <v>0.12516018795386588</v>
       </c>
+      <c r="N77" s="38">
+        <f>(N5+M5)/(N40-N49)</f>
+        <v>0.12602157567832623</v>
+      </c>
       <c r="R77" s="37">
-        <f t="shared" ref="R77:T77" si="121">R5/(R40-R49)</f>
+        <f t="shared" ref="R77:S77" si="173">R5/(R40-R49)</f>
         <v>0.13433627891643282</v>
       </c>
       <c r="S77" s="37">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0.14217629553166489</v>
       </c>
       <c r="T77" s="37">
-        <f t="shared" ref="T77:U77" si="122">T5/(T40-T49)</f>
+        <f t="shared" ref="T77" si="174">T5/(T40-T49)</f>
         <v>0.16375939849624055</v>
       </c>
       <c r="U77" s="37">
-        <f t="shared" ref="U77:V77" si="123">U5/(U40-U49)</f>
+        <f t="shared" ref="U77:V77" si="175">U5/(U40-U49)</f>
         <v>0.14366613320201896</v>
       </c>
       <c r="V77" s="37">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0.14773912509969936</v>
       </c>
       <c r="W77" s="37">
         <f>W5/(W40-W49)</f>
         <v>0.15214663684468929</v>
+      </c>
+      <c r="X77" s="37">
+        <f t="shared" ref="X77" si="176">X5/(X40-X49)</f>
+        <v>0.12602157567832623</v>
       </c>
     </row>
   </sheetData>
@@ -7660,14 +8013,376 @@
     <hyperlink ref="W1" r:id="rId4" xr:uid="{312EC780-3433-42F0-97FF-0788993E5A29}"/>
     <hyperlink ref="U1" r:id="rId5" xr:uid="{313C0DA0-3F4A-45BC-BA9D-854CC763EEA6}"/>
     <hyperlink ref="S1" r:id="rId6" xr:uid="{B420B23F-BF59-41C1-AE19-1013F6B154AB}"/>
+    <hyperlink ref="X1" r:id="rId7" xr:uid="{1EC7322D-B974-46E2-8739-C1251328BC54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
   <ignoredErrors>
-    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 X10 H34 H49 F34 F49 G75:H75 D34 D49 E75" formula="1"/>
+    <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 H34 H49 F34 F49 G75:H75 D34 D49 E75 N10 N49" formula="1"/>
     <ignoredError sqref="D11:F14 E10 E15:F15" evalError="1"/>
     <ignoredError sqref="F10 D10" evalError="1" formula="1"/>
+    <ignoredError sqref="Y8:Y10" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907E4929-967C-4D68-B040-5BECDCEBE561}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D2" s="46"/>
+      <c r="E2" s="109"/>
+      <c r="O2" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="100">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="48">
+        <v>989.31499999999994</v>
+      </c>
+      <c r="E3" s="110">
+        <v>977.3</v>
+      </c>
+      <c r="O3" s="48">
+        <v>1864.8150000000001</v>
+      </c>
+      <c r="P3" s="101">
+        <v>1852.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="48">
+        <v>178.07669999999999</v>
+      </c>
+      <c r="E4" s="110">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="O4" s="48">
+        <v>329.77670000000001</v>
+      </c>
+      <c r="P4" s="101">
+        <v>308.39999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0</v>
+      </c>
+      <c r="E5" s="111">
+        <v>-0.1</v>
+      </c>
+      <c r="O5" s="49">
+        <v>0</v>
+      </c>
+      <c r="P5" s="102">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0</v>
+      </c>
+      <c r="E6" s="111">
+        <v>0</v>
+      </c>
+      <c r="O6" s="49">
+        <v>0</v>
+      </c>
+      <c r="P6" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E7" s="111">
+        <v>1</v>
+      </c>
+      <c r="O7" s="49">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="P7" s="102">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="49">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E8" s="111">
+        <v>-25.7</v>
+      </c>
+      <c r="O8" s="49">
+        <v>12.333333333333332</v>
+      </c>
+      <c r="P8" s="102">
+        <v>-18.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="49">
+        <v>173.21003333333331</v>
+      </c>
+      <c r="E9" s="111">
+        <v>183.29999999999998</v>
+      </c>
+      <c r="O9" s="49">
+        <v>318.71003333333334</v>
+      </c>
+      <c r="P9" s="102">
+        <v>328.79999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="49">
+        <v>36.374106999999995</v>
+      </c>
+      <c r="E10" s="111">
+        <v>26.500000000000004</v>
+      </c>
+      <c r="O10" s="49">
+        <v>67.074106999999998</v>
+      </c>
+      <c r="P10" s="102">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="48">
+        <v>136.8359263333333</v>
+      </c>
+      <c r="E11" s="110">
+        <v>156.79999999999998</v>
+      </c>
+      <c r="O11" s="48">
+        <v>251.63592633333334</v>
+      </c>
+      <c r="P11" s="101">
+        <v>271.59999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="48">
+        <v>136.97276225966664</v>
+      </c>
+      <c r="E12" s="110">
+        <v>156.39999999999998</v>
+      </c>
+      <c r="O12" s="48">
+        <v>251.97276225966667</v>
+      </c>
+      <c r="P12" s="101">
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="49">
+        <v>0.1368359263333333</v>
+      </c>
+      <c r="E13" s="111">
+        <v>-0.4</v>
+      </c>
+      <c r="O13" s="49">
+        <v>0.33683592633333331</v>
+      </c>
+      <c r="P13" s="102">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="50">
+        <v>0.36180837211352013</v>
+      </c>
+      <c r="E14" s="112">
+        <v>0.41481481481481475</v>
+      </c>
+      <c r="O14" s="50">
+        <v>0.66624210010488283</v>
+      </c>
+      <c r="P14" s="103">
+        <v>0.71851851851851845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="49">
+        <v>378.2</v>
+      </c>
+      <c r="E15" s="111">
+        <v>378</v>
+      </c>
+      <c r="O15" s="49">
+        <v>378.2</v>
+      </c>
+      <c r="P15" s="102">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D16" s="53"/>
+      <c r="E16" s="113"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="104"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="51">
+        <v>0.25531658418982373</v>
+      </c>
+      <c r="E17" s="114">
+        <v>0.24007105697246556</v>
+      </c>
+      <c r="O17" s="51">
+        <v>0.22258899888546524</v>
+      </c>
+      <c r="P17" s="105">
+        <v>0.21471185996197462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.13</v>
+      </c>
+      <c r="E18" s="115">
+        <v>0.11627641347801254</v>
+      </c>
+      <c r="O18" s="52"/>
+      <c r="P18" s="106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D19" s="53"/>
+      <c r="E19" s="113"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="104"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0.18</v>
+      </c>
+      <c r="E20" s="115">
+        <v>0.16033971144991302</v>
+      </c>
+      <c r="O20" s="52">
+        <v>0.1768415097476157</v>
+      </c>
+      <c r="P20" s="107">
+        <v>0.16645077720207252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0.13831380938662946</v>
+      </c>
+      <c r="E21" s="115">
+        <v>0.16044203417579042</v>
+      </c>
+      <c r="O21" s="52">
+        <v>0.13493881502097169</v>
+      </c>
+      <c r="P21" s="107">
+        <v>0.14658894645941276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="52">
+        <v>0.21</v>
+      </c>
+      <c r="E22" s="115">
+        <v>0.1445717403164212</v>
+      </c>
+      <c r="O22" s="52">
+        <v>0.21045495900610178</v>
+      </c>
+      <c r="P22" s="107">
+        <v>0.1739659367396594</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD58D62-8DAD-4B2C-8F76-2C1CE54931AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F302BD-176C-4355-94B8-A1A177000D46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -780,39 +780,6 @@
     <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -851,6 +818,39 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1345,7 +1345,7 @@
   <dimension ref="B2:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,40 +1374,40 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="G5" s="81" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
+      <c r="G5" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
-      <c r="V5" s="81" t="s">
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="107"/>
+      <c r="V5" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="83"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="107"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="76">
-        <v>23.32</v>
+        <v>21.73</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="18"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C8" s="8">
         <f>C6*C7</f>
-        <v>8814.9600000000009</v>
+        <v>8213.94</v>
       </c>
       <c r="D8" s="6"/>
       <c r="G8" s="18"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C12" s="9">
         <f>C8-C11</f>
-        <v>9302.1600000000017</v>
+        <v>8701.1400000000012</v>
       </c>
       <c r="D12" s="7"/>
       <c r="G12" s="18"/>
@@ -1660,11 +1660,11 @@
       <c r="Z14" s="12"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
       <c r="G15" s="18"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1688,10 +1688,10 @@
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="111"/>
       <c r="G16" s="18"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1715,10 +1715,10 @@
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="111"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1742,8 +1742,8 @@
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
       <c r="G18" s="18"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1767,8 +1767,8 @@
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
       <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1819,11 +1819,11 @@
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
       <c r="G22" s="18"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -1842,10 +1842,10 @@
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="111"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1864,10 +1864,10 @@
       <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="110">
         <v>1894</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="111"/>
       <c r="G24" s="18"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1884,8 +1884,8 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
       <c r="G25" s="18"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1902,8 +1902,8 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
       <c r="G26" s="18"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1920,8 +1920,8 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
       <c r="G27" s="18"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -1965,10 +1965,10 @@
       <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="89"/>
+      <c r="D29" s="113"/>
       <c r="G29" s="18"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -2014,11 +2014,11 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
       <c r="G32" s="18"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -2037,11 +2037,11 @@
       <c r="B33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="114">
         <f>C6/'Financial Model'!X62</f>
-        <v>5.5131402839452122</v>
-      </c>
-      <c r="D33" s="91"/>
+        <v>5.1372443554944018</v>
+      </c>
+      <c r="D33" s="115"/>
       <c r="G33" s="18"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -2060,11 +2060,11 @@
       <c r="B34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="90">
+      <c r="C34" s="114">
         <f>C8/'Financial Model'!X4</f>
-        <v>4.757642487046633</v>
-      </c>
-      <c r="D34" s="91"/>
+        <v>4.4332577720207258</v>
+      </c>
+      <c r="D34" s="115"/>
       <c r="G34" s="18"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -2083,11 +2083,11 @@
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="90">
+      <c r="C35" s="114">
         <f>C12/'Financial Model'!X4</f>
-        <v>5.0205958549222807</v>
-      </c>
-      <c r="D35" s="91"/>
+        <v>4.6962111398963735</v>
+      </c>
+      <c r="D35" s="115"/>
       <c r="G35" s="18"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -2106,11 +2106,11 @@
       <c r="B36" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="90">
+      <c r="C36" s="114">
         <f>C6/'Financial Model'!X15</f>
-        <v>32.455670103092785</v>
-      </c>
-      <c r="D36" s="91"/>
+        <v>30.242783505154645</v>
+      </c>
+      <c r="D36" s="115"/>
       <c r="G36" s="18"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -2129,11 +2129,11 @@
       <c r="B37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="90">
+      <c r="C37" s="114">
         <f>C12/'Financial Model'!X12</f>
-        <v>34.249484536082484</v>
-      </c>
-      <c r="D37" s="91"/>
+        <v>32.03659793814434</v>
+      </c>
+      <c r="D37" s="115"/>
       <c r="G37" s="18"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -2152,8 +2152,8 @@
       <c r="B38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
       <c r="G38" s="20"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2170,6 +2170,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
@@ -2186,12 +2192,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -2207,7 +2207,7 @@
   <dimension ref="A1:BU77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
@@ -2232,7 +2232,7 @@
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="9.140625" style="28"/>
     <col min="17" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="9.140625" style="95"/>
+    <col min="24" max="24" width="9.140625" style="84"/>
     <col min="25" max="35" width="9.140625" style="1"/>
     <col min="36" max="36" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -2300,7 +2300,7 @@
       <c r="W1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="97" t="s">
+      <c r="X1" s="86" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="21" t="s">
@@ -2437,7 +2437,7 @@
       <c r="W3" s="30">
         <v>44728</v>
       </c>
-      <c r="X3" s="98">
+      <c r="X3" s="87">
         <v>45092</v>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       <c r="W4" s="32">
         <v>1525.3</v>
       </c>
-      <c r="X4" s="92">
+      <c r="X4" s="81">
         <v>1852.8</v>
       </c>
       <c r="Y4" s="32">
@@ -2615,7 +2615,7 @@
       <c r="W5" s="32">
         <v>278.89999999999998</v>
       </c>
-      <c r="X5" s="92">
+      <c r="X5" s="81">
         <v>308.39999999999998</v>
       </c>
       <c r="Y5" s="32">
@@ -2724,7 +2724,7 @@
       <c r="W6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="X6" s="93">
+      <c r="X6" s="82">
         <v>-0.1</v>
       </c>
       <c r="Y6" s="8">
@@ -2823,7 +2823,7 @@
       <c r="W7" s="8">
         <v>34</v>
       </c>
-      <c r="X7" s="93">
+      <c r="X7" s="82">
         <v>0</v>
       </c>
       <c r="Y7" s="8">
@@ -2922,7 +2922,7 @@
       <c r="W8" s="8">
         <v>0.6</v>
       </c>
-      <c r="X8" s="93">
+      <c r="X8" s="82">
         <v>1.8</v>
       </c>
       <c r="Y8" s="8">
@@ -3031,7 +3031,7 @@
       <c r="W9" s="8">
         <v>9</v>
       </c>
-      <c r="X9" s="93">
+      <c r="X9" s="82">
         <v>-18.7</v>
       </c>
       <c r="Y9" s="8">
@@ -3262,7 +3262,7 @@
       <c r="W11" s="8">
         <v>60.2</v>
       </c>
-      <c r="X11" s="93">
+      <c r="X11" s="82">
         <v>57.2</v>
       </c>
       <c r="Y11" s="8">
@@ -3388,7 +3388,7 @@
         <v>271.59999999999997</v>
       </c>
       <c r="Y12" s="32">
-        <f t="shared" ref="X12:AH12" si="25">Y10-Y11</f>
+        <f t="shared" ref="Y12:AH12" si="25">Y10-Y11</f>
         <v>311.44542879999995</v>
       </c>
       <c r="Z12" s="32">
@@ -3646,63 +3646,63 @@
         <v>154.22799999999998</v>
       </c>
       <c r="T13" s="32">
-        <f>T12+T14</f>
+        <f t="shared" ref="T13:Y13" si="29">T12+T14</f>
         <v>169.8</v>
       </c>
       <c r="U13" s="32">
-        <f>U12+U14</f>
+        <f t="shared" si="29"/>
         <v>184.40000000000003</v>
       </c>
       <c r="V13" s="32">
-        <f>V12+V14</f>
+        <f t="shared" si="29"/>
         <v>203.20000000000005</v>
       </c>
       <c r="W13" s="32">
-        <f>W12+W14</f>
+        <f t="shared" si="29"/>
         <v>244</v>
       </c>
       <c r="X13" s="32">
-        <f>X12+X14</f>
+        <f t="shared" si="29"/>
         <v>271.39999999999998</v>
       </c>
       <c r="Y13" s="32">
-        <f>Y12+Y14</f>
+        <f t="shared" si="29"/>
         <v>311.48591670574393</v>
       </c>
       <c r="Z13" s="32">
-        <f t="shared" ref="Z13:AH13" si="29">Z12+Z14</f>
+        <f t="shared" ref="Z13:AH13" si="30">Z12+Z14</f>
         <v>360.94387639143883</v>
       </c>
       <c r="AA13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>410.76432586917031</v>
       </c>
       <c r="AB13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>452.04728426506051</v>
       </c>
       <c r="AC13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>502.37956728409256</v>
       </c>
       <c r="AD13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>552.55330784655541</v>
       </c>
       <c r="AE13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>606.72339084580074</v>
       </c>
       <c r="AF13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>667.22674838630326</v>
       </c>
       <c r="AG13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>733.50994139312218</v>
       </c>
       <c r="AH13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>806.2963651453349</v>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="34">
-        <f t="shared" ref="H14" si="30">U14-G14</f>
+        <f t="shared" ref="H14" si="31">U14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="44">
@@ -3771,7 +3771,7 @@
       <c r="W14" s="8">
         <v>-0.2</v>
       </c>
-      <c r="X14" s="93">
+      <c r="X14" s="82">
         <v>-0.2</v>
       </c>
       <c r="Y14" s="8">
@@ -3779,39 +3779,39 @@
         <v>4.0487905743999991E-2</v>
       </c>
       <c r="Z14" s="8">
-        <f t="shared" ref="Z14:AH14" si="31">Z12*0.00013</f>
+        <f t="shared" ref="Z14:AH14" si="32">Z12*0.00013</f>
         <v>4.6916604772266647E-2</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5.3392421348216867E-2</v>
       </c>
       <c r="AB14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>5.8758508348372575E-2</v>
       </c>
       <c r="AC14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6.5300854635829367E-2</v>
       </c>
       <c r="AD14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.1822593082951414E-2</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.8863788517446826E-2</v>
       </c>
       <c r="AF14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>8.67282026238783E-2</v>
       </c>
       <c r="AG14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>9.5343897674408207E-2</v>
       </c>
       <c r="AH14" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.10480490283152542</v>
       </c>
     </row>
@@ -3820,68 +3820,68 @@
         <v>70</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" ref="C15:N15" si="32">C12/C16</f>
+        <f t="shared" ref="C15:N15" si="33">C12/C16</f>
         <v>0.16270266756508422</v>
       </c>
       <c r="D15" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.24414534950419484</v>
       </c>
       <c r="E15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.19681108372907286</v>
       </c>
       <c r="F15" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.25108149993397905</v>
       </c>
       <c r="G15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.22419479233636896</v>
       </c>
       <c r="H15" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.26220905435668357</v>
       </c>
       <c r="I15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.20390802308932054</v>
       </c>
       <c r="J15" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.33271719038817016</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.35795304668952777</v>
       </c>
       <c r="L15" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.28650646950092412</v>
       </c>
       <c r="M15" s="35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.30354309888947645</v>
       </c>
       <c r="N15" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.41481481481481475</v>
       </c>
       <c r="P15" s="36"/>
       <c r="R15" s="35">
-        <f t="shared" ref="R15:U15" si="33">R12/R16</f>
+        <f t="shared" ref="R15:U15" si="34">R12/R16</f>
         <v>0.34247131519848928</v>
       </c>
       <c r="S15" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.40694761546054115</v>
       </c>
       <c r="T15" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.44783233916795839</v>
       </c>
       <c r="U15" s="35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.48643208876632238</v>
       </c>
       <c r="V15" s="35">
@@ -3901,39 +3901,39 @@
         <v>0.82403681668186224</v>
       </c>
       <c r="Z15" s="35">
-        <f t="shared" ref="Z15:AH15" si="34">Z13/Z16</f>
+        <f t="shared" ref="Z15:AH15" si="35">Z13/Z16</f>
         <v>0.95487797987153133</v>
       </c>
       <c r="AA15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0866781107650008</v>
       </c>
       <c r="AB15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.1958922864155039</v>
       </c>
       <c r="AC15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3290464742965411</v>
       </c>
       <c r="AD15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.4617812376893</v>
       </c>
       <c r="AE15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.6050883355709014</v>
       </c>
       <c r="AF15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.7651501280060933</v>
       </c>
       <c r="AG15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.9405024904579953</v>
       </c>
       <c r="AH15" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.1330591670511505</v>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       <c r="W16" s="8">
         <v>378.7</v>
       </c>
-      <c r="X16" s="93">
+      <c r="X16" s="82">
         <v>378</v>
       </c>
       <c r="Y16" s="8">
@@ -4010,39 +4010,39 @@
         <v>378</v>
       </c>
       <c r="Z16" s="8">
-        <f t="shared" ref="Z16:AH16" si="35">Y16</f>
+        <f t="shared" ref="Z16:AH16" si="36">Y16</f>
         <v>378</v>
       </c>
       <c r="AA16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
       <c r="AB16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
       <c r="AC16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
       <c r="AD16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
       <c r="AF16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>378</v>
       </c>
     </row>
@@ -4057,43 +4057,43 @@
         <v>105</v>
       </c>
       <c r="E18" s="39">
-        <f t="shared" ref="E18:N18" si="36">E4/C4-1</f>
+        <f t="shared" ref="E18:N18" si="37">E4/C4-1</f>
         <v>0.15642899466719329</v>
       </c>
       <c r="F18" s="40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9.7364325306933841E-2</v>
       </c>
       <c r="G18" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.11648163962425295</v>
       </c>
       <c r="H18" s="40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>9.4819315637991508E-2</v>
       </c>
       <c r="I18" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-5.4000305950742011E-2</v>
       </c>
       <c r="J18" s="40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.2053454067474831E-2</v>
       </c>
       <c r="K18" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.19210866752910749</v>
       </c>
       <c r="L18" s="40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.1261789082595024</v>
       </c>
       <c r="M18" s="39">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.18760173629951149</v>
       </c>
       <c r="N18" s="40">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.24007105697246556</v>
       </c>
       <c r="P18" s="40"/>
@@ -4101,19 +4101,19 @@
         <v>105</v>
       </c>
       <c r="S18" s="39">
-        <f t="shared" ref="S18:V18" si="37">S4/R4-1</f>
+        <f t="shared" ref="S18:V18" si="38">S4/R4-1</f>
         <v>0.11911565602051444</v>
       </c>
       <c r="T18" s="39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12515110884389768</v>
       </c>
       <c r="U18" s="39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.10529358328515981</v>
       </c>
       <c r="V18" s="39">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1.5092647937836268E-2</v>
       </c>
       <c r="W18" s="39">
@@ -4121,7 +4121,7 @@
         <v>0.15710817781823683</v>
       </c>
       <c r="X18" s="39">
-        <f t="shared" ref="X18" si="38">X4/W4-1</f>
+        <f t="shared" ref="X18" si="39">X4/W4-1</f>
         <v>0.21471185996197462</v>
       </c>
       <c r="Y18" s="39">
@@ -4163,47 +4163,47 @@
         <v>105</v>
       </c>
       <c r="D19" s="38">
-        <f t="shared" ref="D19:M19" si="39">D4/C4-1</f>
+        <f t="shared" ref="D19:M19" si="40">D4/C4-1</f>
         <v>0.1256389492395813</v>
       </c>
       <c r="E19" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2.7353393775519264E-2</v>
       </c>
       <c r="F19" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6.8146883005977932E-2</v>
       </c>
       <c r="G19" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.5251039334825549E-2</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>4.7422364999235134E-2</v>
       </c>
       <c r="I19" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-9.6830728786329923E-2</v>
       </c>
       <c r="J19" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.13163001293661081</v>
       </c>
       <c r="K19" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.3443841097456479E-2</v>
       </c>
       <c r="L19" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6.9045035268583632E-2</v>
       </c>
       <c r="M19" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11089963202639264</v>
       </c>
       <c r="N19" s="38">
-        <f t="shared" ref="N19" si="40">N4/M4-1</f>
+        <f t="shared" ref="N19" si="41">N4/M4-1</f>
         <v>0.11627641347801254</v>
       </c>
       <c r="P19" s="38"/>
@@ -4237,120 +4237,120 @@
         <v>74</v>
       </c>
       <c r="C21" s="37">
-        <f t="shared" ref="C21:N21" si="41">C5/C4</f>
+        <f t="shared" ref="C21:M21" si="42">C5/C4</f>
         <v>0.16156428994667194</v>
       </c>
       <c r="D21" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.17451496812660222</v>
       </c>
       <c r="E21" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.17147736976942785</v>
       </c>
       <c r="F21" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.18771985929005436</v>
       </c>
       <c r="G21" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.17072051399724641</v>
       </c>
       <c r="H21" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.17788812618665109</v>
       </c>
       <c r="I21" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.16510349288486417</v>
       </c>
       <c r="J21" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.19819948556730496</v>
       </c>
       <c r="K21" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.18665219750406944</v>
       </c>
       <c r="L21" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.1792919680243624</v>
       </c>
       <c r="M21" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.17327241576242147</v>
       </c>
       <c r="N21" s="38">
-        <f t="shared" ref="N21" si="42">N5/N4</f>
+        <f t="shared" ref="N21" si="43">N5/N4</f>
         <v>0.16033971144991302</v>
       </c>
       <c r="P21" s="38"/>
       <c r="R21" s="37">
-        <f t="shared" ref="R21:T21" si="43">R5/R4</f>
+        <f t="shared" ref="R21:T21" si="44">R5/R4</f>
         <v>0.17373047910804418</v>
       </c>
       <c r="S21" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.16842236327262963</v>
       </c>
       <c r="T21" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.17986621521182591</v>
       </c>
       <c r="U21" s="37">
-        <f t="shared" ref="U21" si="44">U5/U4</f>
+        <f t="shared" ref="U21" si="45">U5/U4</f>
         <v>0.17438732815301852</v>
       </c>
       <c r="V21" s="37">
-        <f t="shared" ref="V21:W21" si="45">V5/V4</f>
+        <f t="shared" ref="V21:W21" si="46">V5/V4</f>
         <v>0.18267334243665606</v>
       </c>
       <c r="W21" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.18284927555235034</v>
       </c>
       <c r="X21" s="37">
-        <f t="shared" ref="X21" si="46">X5/X4</f>
+        <f t="shared" ref="X21" si="47">X5/X4</f>
         <v>0.16645077720207252</v>
       </c>
       <c r="Y21" s="37">
-        <f t="shared" ref="X21:AH21" si="47">Y5/Y4</f>
+        <f t="shared" ref="Y21:AH21" si="48">Y5/Y4</f>
         <v>0.18</v>
       </c>
       <c r="Z21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AA21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AB21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AC21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AD21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AE21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AF21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AG21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AH21" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
       <c r="AJ21" s="58" t="s">
@@ -4365,120 +4365,120 @@
         <v>75</v>
       </c>
       <c r="C22" s="37">
-        <f t="shared" ref="C22:N22" si="48">C12/C4</f>
+        <f t="shared" ref="C22:M22" si="49">C12/C4</f>
         <v>0.12186450720916452</v>
       </c>
       <c r="D22" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.16235517475535652</v>
       </c>
       <c r="E22" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.12741246797608879</v>
       </c>
       <c r="F22" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.15222257755036778</v>
       </c>
       <c r="G22" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.13002906532048342</v>
       </c>
       <c r="H22" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.14517306849715206</v>
       </c>
       <c r="I22" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.125</v>
       </c>
       <c r="J22" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.18005144326950559</v>
       </c>
       <c r="K22" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.18407487791644056</v>
       </c>
       <c r="L22" s="38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.13767288415175738</v>
       </c>
       <c r="M22" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.1311250713877784</v>
       </c>
       <c r="N22" s="38">
-        <f t="shared" ref="N22" si="49">N12/N4</f>
+        <f t="shared" ref="N22" si="50">N12/N4</f>
         <v>0.16044203417579042</v>
       </c>
       <c r="P22" s="38"/>
       <c r="R22" s="37">
-        <f t="shared" ref="R22:T22" si="50">R12/R4</f>
+        <f t="shared" ref="R22:T22" si="51">R12/R4</f>
         <v>0.13485923328570745</v>
       </c>
       <c r="S22" s="37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.14330647057129131</v>
       </c>
       <c r="T22" s="37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.14022627797505988</v>
       </c>
       <c r="U22" s="37">
-        <f t="shared" ref="U22" si="51">U12/U4</f>
+        <f t="shared" ref="U22" si="52">U12/U4</f>
         <v>0.13777644949193069</v>
       </c>
       <c r="V22" s="37">
-        <f t="shared" ref="V22:W22" si="52">V12/V4</f>
+        <f t="shared" ref="V22:W22" si="53">V12/V4</f>
         <v>0.1542254589591868</v>
       </c>
       <c r="W22" s="37">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.16009965252737166</v>
       </c>
       <c r="X22" s="37">
-        <f t="shared" ref="X22" si="53">X12/X4</f>
+        <f t="shared" ref="X22" si="54">X12/X4</f>
         <v>0.14658894645941276</v>
       </c>
       <c r="Y22" s="37">
-        <f t="shared" ref="X22:AH22" si="54">Y12/Y4</f>
+        <f t="shared" ref="Y22:AH22" si="55">Y12/Y4</f>
         <v>0.14245293829220457</v>
       </c>
       <c r="Z22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.14354062531686063</v>
       </c>
       <c r="AA22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.14456042989970849</v>
       </c>
       <c r="AB22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.14332356359312728</v>
       </c>
       <c r="AC22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.1434969671222025</v>
       </c>
       <c r="AD22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.14348029225277995</v>
       </c>
       <c r="AE22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.1432241069017984</v>
       </c>
       <c r="AF22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.14318784321348271</v>
       </c>
       <c r="AG22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.14310210371476892</v>
       </c>
       <c r="AH22" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.14300197343638865</v>
       </c>
       <c r="AJ22" s="59" t="s">
@@ -4493,80 +4493,80 @@
         <v>104</v>
       </c>
       <c r="C23" s="37">
-        <f t="shared" ref="C23:M23" si="55">C11/C10</f>
+        <f t="shared" ref="C23:M23" si="56">C11/C10</f>
         <v>0.19661458333333334</v>
       </c>
       <c r="D23" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2.7546269535150138E-2</v>
       </c>
       <c r="E23" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.21058201058201056</v>
       </c>
       <c r="F23" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15151515151515149</v>
       </c>
       <c r="G23" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.19659735349716445</v>
       </c>
       <c r="H23" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15976331360946744</v>
       </c>
       <c r="I23" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.19730010384215993</v>
       </c>
       <c r="J23" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.1954022988505747</v>
       </c>
       <c r="K23" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.18985074626865672</v>
       </c>
       <c r="L23" s="38">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.20745069393718046</v>
       </c>
       <c r="M23" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.21099656357388316</v>
       </c>
       <c r="N23" s="38">
-        <f t="shared" ref="N23" si="56">N11/N10</f>
+        <f t="shared" ref="N23" si="57">N11/N10</f>
         <v>0.1445717403164212</v>
       </c>
       <c r="P23" s="38"/>
       <c r="R23" s="37">
-        <f t="shared" ref="R23:T23" si="57">R11/R10</f>
+        <f t="shared" ref="R23:T23" si="58">R11/R10</f>
         <v>0.17763771139420301</v>
       </c>
       <c r="S23" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.10305962814555479</v>
       </c>
       <c r="T23" s="37">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.17851959361393321</v>
       </c>
       <c r="U23" s="37">
-        <f t="shared" ref="U23" si="58">U11/U10</f>
+        <f t="shared" ref="U23" si="59">U11/U10</f>
         <v>0.17715305667112896</v>
       </c>
       <c r="V23" s="37">
-        <f t="shared" ref="V23:W23" si="59">V11/V10</f>
+        <f t="shared" ref="V23:W23" si="60">V11/V10</f>
         <v>0.19612495057334914</v>
       </c>
       <c r="W23" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.19776609724047309</v>
       </c>
       <c r="X23" s="37">
-        <f t="shared" ref="X23" si="60">X11/X10</f>
+        <f t="shared" ref="X23" si="61">X11/X10</f>
         <v>0.1739659367396594</v>
       </c>
       <c r="Y23" s="37">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="AK27" s="12">
         <f>Main!C6</f>
-        <v>23.32</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.2">
@@ -4722,7 +4722,7 @@
         <f>908.7+325.2</f>
         <v>1233.9000000000001</v>
       </c>
-      <c r="X28" s="93">
+      <c r="X28" s="82">
         <f>1120.5+472.3</f>
         <v>1592.8</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="AK28" s="68">
         <f>AK26/AK27-1</f>
-        <v>1.3237976416876185E-2</v>
+        <v>8.7377340544940063E-2</v>
       </c>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>224.5</v>
       </c>
       <c r="N29" s="34">
-        <f t="shared" ref="N29:N37" si="61">X29</f>
+        <f t="shared" ref="N29:N37" si="62">X29</f>
         <v>222.9</v>
       </c>
       <c r="R29" s="8">
@@ -4798,7 +4798,7 @@
       <c r="W29" s="8">
         <v>194</v>
       </c>
-      <c r="X29" s="93">
+      <c r="X29" s="82">
         <v>222.9</v>
       </c>
       <c r="Y29" s="42"/>
@@ -4848,7 +4848,7 @@
         <v>9.9</v>
       </c>
       <c r="L30" s="34">
-        <f t="shared" ref="L30:L37" si="62">W30</f>
+        <f t="shared" ref="L30:L37" si="63">W30</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="M30" s="32">
@@ -4877,7 +4877,7 @@
       <c r="W30" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X30" s="92">
+      <c r="X30" s="81">
         <v>21</v>
       </c>
     </row>
@@ -4889,42 +4889,42 @@
         <v>0</v>
       </c>
       <c r="D31" s="34">
-        <f t="shared" ref="D31:D33" si="63">S31</f>
+        <f t="shared" ref="D31:D33" si="64">S31</f>
         <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="34">
-        <f t="shared" ref="F31:F33" si="64">T31</f>
+        <f t="shared" ref="F31:F33" si="65">T31</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
       <c r="H31" s="34">
-        <f t="shared" ref="H31:H33" si="65">U31</f>
+        <f t="shared" ref="H31:H33" si="66">U31</f>
         <v>5.4</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" ref="J31:J33" si="66">V31</f>
+        <f t="shared" ref="J31:J33" si="67">V31</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
         <v>4.8</v>
       </c>
       <c r="L31" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>31.1</v>
       </c>
       <c r="M31" s="8">
         <v>43.9</v>
       </c>
       <c r="N31" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>38.4</v>
       </c>
       <c r="R31" s="8">
@@ -4945,7 +4945,7 @@
       <c r="W31" s="8">
         <v>31.1</v>
       </c>
-      <c r="X31" s="93">
+      <c r="X31" s="82">
         <v>38.4</v>
       </c>
     </row>
@@ -4957,44 +4957,44 @@
         <v>0</v>
       </c>
       <c r="D32" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
       </c>
       <c r="H32" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I32" s="8">
         <v>0</v>
       </c>
       <c r="J32" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>13.9</v>
       </c>
       <c r="K32" s="8">
         <v>14.7</v>
       </c>
       <c r="L32" s="34">
+        <f t="shared" si="63"/>
+        <v>14.7</v>
+      </c>
+      <c r="M32" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="N32" s="34">
         <f t="shared" si="62"/>
         <v>14.7</v>
       </c>
-      <c r="M32" s="8">
-        <v>14.7</v>
-      </c>
-      <c r="N32" s="34">
-        <f t="shared" si="61"/>
-        <v>14.7</v>
-      </c>
       <c r="R32" s="8">
         <v>0</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="W32" s="8">
         <v>14.7</v>
       </c>
-      <c r="X32" s="93">
+      <c r="X32" s="82">
         <v>14.7</v>
       </c>
     </row>
@@ -5025,42 +5025,42 @@
         <v>55.3</v>
       </c>
       <c r="D33" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>36.976999999999997</v>
       </c>
       <c r="E33" s="1">
         <v>30.9</v>
       </c>
       <c r="F33" s="34">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.4</v>
       </c>
       <c r="G33" s="8">
         <v>1.4</v>
       </c>
       <c r="H33" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.3</v>
       </c>
       <c r="I33" s="8">
         <v>5.6</v>
       </c>
       <c r="J33" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.3</v>
       </c>
       <c r="K33" s="8">
         <v>1.9</v>
       </c>
       <c r="L33" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2.4</v>
       </c>
       <c r="M33" s="8">
         <v>2.8</v>
       </c>
       <c r="N33" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="R33" s="8">
@@ -5081,7 +5081,7 @@
       <c r="W33" s="8">
         <v>2.4</v>
       </c>
-      <c r="X33" s="93">
+      <c r="X33" s="82">
         <v>3</v>
       </c>
     </row>
@@ -5090,79 +5090,79 @@
         <v>83</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" ref="C34:M34" si="67">SUM(C28:C33)</f>
+        <f t="shared" ref="C34:M34" si="68">SUM(C28:C33)</f>
         <v>964.49999999999989</v>
       </c>
       <c r="D34" s="34">
-        <f t="shared" si="67"/>
-        <v>1011.421</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="67"/>
-        <v>1029.9000000000001</v>
-      </c>
-      <c r="F34" s="34">
-        <f t="shared" si="67"/>
-        <v>1056.9000000000003</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="67"/>
-        <v>1216.5000000000002</v>
-      </c>
-      <c r="H34" s="34">
-        <f t="shared" si="67"/>
-        <v>1362.6</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="67"/>
-        <v>1328.6999999999998</v>
-      </c>
-      <c r="J34" s="34">
-        <f t="shared" si="67"/>
-        <v>1303.8</v>
-      </c>
-      <c r="K34" s="8">
-        <f t="shared" si="67"/>
-        <v>1404.7000000000003</v>
-      </c>
-      <c r="L34" s="34">
-        <f t="shared" si="67"/>
-        <v>1484.3000000000002</v>
-      </c>
-      <c r="M34" s="8">
-        <f t="shared" si="67"/>
-        <v>1826.1000000000001</v>
-      </c>
-      <c r="N34" s="34">
-        <f t="shared" si="61"/>
-        <v>1892.8000000000002</v>
-      </c>
-      <c r="R34" s="8">
-        <f t="shared" ref="R34:X34" si="68">SUM(R28:R33)</f>
-        <v>1004.4179999999999</v>
-      </c>
-      <c r="S34" s="8">
         <f t="shared" si="68"/>
         <v>1011.421</v>
       </c>
-      <c r="T34" s="8">
+      <c r="E34" s="8">
+        <f t="shared" si="68"/>
+        <v>1029.9000000000001</v>
+      </c>
+      <c r="F34" s="34">
         <f t="shared" si="68"/>
         <v>1056.9000000000003</v>
       </c>
-      <c r="U34" s="8">
+      <c r="G34" s="8">
+        <f t="shared" si="68"/>
+        <v>1216.5000000000002</v>
+      </c>
+      <c r="H34" s="34">
         <f t="shared" si="68"/>
         <v>1362.6</v>
       </c>
-      <c r="V34" s="8">
+      <c r="I34" s="8">
+        <f t="shared" si="68"/>
+        <v>1328.6999999999998</v>
+      </c>
+      <c r="J34" s="34">
         <f t="shared" si="68"/>
         <v>1303.8</v>
       </c>
-      <c r="W34" s="8">
+      <c r="K34" s="8">
+        <f t="shared" si="68"/>
+        <v>1404.7000000000003</v>
+      </c>
+      <c r="L34" s="34">
         <f t="shared" si="68"/>
         <v>1484.3000000000002</v>
       </c>
+      <c r="M34" s="8">
+        <f t="shared" si="68"/>
+        <v>1826.1000000000001</v>
+      </c>
+      <c r="N34" s="34">
+        <f t="shared" si="62"/>
+        <v>1892.8000000000002</v>
+      </c>
+      <c r="R34" s="8">
+        <f t="shared" ref="R34:X34" si="69">SUM(R28:R33)</f>
+        <v>1004.4179999999999</v>
+      </c>
+      <c r="S34" s="8">
+        <f t="shared" si="69"/>
+        <v>1011.421</v>
+      </c>
+      <c r="T34" s="8">
+        <f t="shared" si="69"/>
+        <v>1056.9000000000003</v>
+      </c>
+      <c r="U34" s="8">
+        <f t="shared" si="69"/>
+        <v>1362.6</v>
+      </c>
+      <c r="V34" s="8">
+        <f t="shared" si="69"/>
+        <v>1303.8</v>
+      </c>
+      <c r="W34" s="8">
+        <f t="shared" si="69"/>
+        <v>1484.3000000000002</v>
+      </c>
       <c r="X34" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1892.8000000000002</v>
       </c>
     </row>
@@ -5174,42 +5174,42 @@
         <v>124.2</v>
       </c>
       <c r="D35" s="34">
-        <f t="shared" ref="D35:D39" si="69">S35</f>
+        <f t="shared" ref="D35:D39" si="70">S35</f>
         <v>127.96599999999999</v>
       </c>
       <c r="E35" s="1">
         <v>141.19999999999999</v>
       </c>
       <c r="F35" s="34">
-        <f t="shared" ref="F35:F37" si="70">T35</f>
+        <f t="shared" ref="F35:F37" si="71">T35</f>
         <v>144.30000000000001</v>
       </c>
       <c r="G35" s="8">
         <v>162.9</v>
       </c>
       <c r="H35" s="34">
-        <f t="shared" ref="H35:H37" si="71">U35</f>
+        <f t="shared" ref="H35:H37" si="72">U35</f>
         <v>170.6</v>
       </c>
       <c r="I35" s="8">
         <v>175.8</v>
       </c>
       <c r="J35" s="34">
-        <f t="shared" ref="J35:J37" si="72">V35</f>
+        <f t="shared" ref="J35:J37" si="73">V35</f>
         <v>167.8</v>
       </c>
       <c r="K35" s="8">
         <v>193.2</v>
       </c>
       <c r="L35" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>228.8</v>
       </c>
       <c r="M35" s="8">
         <v>308.8</v>
       </c>
       <c r="N35" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>312.39999999999998</v>
       </c>
       <c r="R35" s="8">
@@ -5230,7 +5230,7 @@
       <c r="W35" s="8">
         <v>228.8</v>
       </c>
-      <c r="X35" s="93">
+      <c r="X35" s="82">
         <v>312.39999999999998</v>
       </c>
     </row>
@@ -5242,42 +5242,42 @@
         <v>203.4</v>
       </c>
       <c r="D36" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>235.184</v>
       </c>
       <c r="E36" s="1">
         <v>241.8</v>
       </c>
       <c r="F36" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>259.60000000000002</v>
       </c>
       <c r="G36" s="8">
         <v>275.2</v>
       </c>
       <c r="H36" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>286.60000000000002</v>
       </c>
       <c r="I36" s="8">
         <v>245.3</v>
       </c>
       <c r="J36" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>268</v>
       </c>
       <c r="K36" s="8">
         <v>279.2</v>
       </c>
       <c r="L36" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>325.10000000000002</v>
       </c>
       <c r="M36" s="8">
         <v>389.9</v>
       </c>
       <c r="N36" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>410.7</v>
       </c>
       <c r="R36" s="8">
@@ -5298,7 +5298,7 @@
       <c r="W36" s="8">
         <v>325.10000000000002</v>
       </c>
-      <c r="X36" s="93">
+      <c r="X36" s="82">
         <v>410.7</v>
       </c>
     </row>
@@ -5310,42 +5310,42 @@
         <v>0.4</v>
       </c>
       <c r="D37" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="E37" s="1">
         <v>0.7</v>
       </c>
       <c r="F37" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.2</v>
       </c>
       <c r="G37" s="8">
         <v>4.8</v>
       </c>
       <c r="H37" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>10.7</v>
       </c>
       <c r="I37" s="8">
         <v>6.5</v>
       </c>
       <c r="J37" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>2.5</v>
       </c>
       <c r="K37" s="8">
         <v>4.4000000000000004</v>
       </c>
       <c r="L37" s="34">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.7</v>
       </c>
       <c r="M37" s="8">
         <v>1.9</v>
       </c>
       <c r="N37" s="34">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.5</v>
       </c>
       <c r="R37" s="8">
@@ -5366,7 +5366,7 @@
       <c r="W37" s="8">
         <v>0.7</v>
       </c>
-      <c r="X37" s="93">
+      <c r="X37" s="82">
         <v>1.5</v>
       </c>
     </row>
@@ -5378,28 +5378,28 @@
         <v>71.7</v>
       </c>
       <c r="D38" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>70.721000000000004</v>
       </c>
       <c r="E38" s="2">
         <v>66.400000000000006</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" ref="F38:F39" si="73">T38</f>
+        <f t="shared" ref="F38:F39" si="74">T38</f>
         <v>81.2</v>
       </c>
       <c r="G38" s="32">
         <v>83.2</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" ref="H38:H39" si="74">U38</f>
+        <f t="shared" ref="H38:H39" si="75">U38</f>
         <v>106.3</v>
       </c>
       <c r="I38" s="32">
         <v>125.5</v>
       </c>
       <c r="J38" s="33">
-        <f t="shared" ref="J38:J39" si="75">V38</f>
+        <f t="shared" ref="J38:J39" si="76">V38</f>
         <v>134.1</v>
       </c>
       <c r="K38" s="32">
@@ -5413,7 +5413,7 @@
         <v>213.4</v>
       </c>
       <c r="N38" s="33">
-        <f t="shared" ref="N38:N39" si="76">X38</f>
+        <f t="shared" ref="N38:N39" si="77">X38</f>
         <v>169.5</v>
       </c>
       <c r="P38" s="27"/>
@@ -5435,7 +5435,7 @@
       <c r="W38" s="32">
         <v>157.4</v>
       </c>
-      <c r="X38" s="92">
+      <c r="X38" s="81">
         <v>169.5</v>
       </c>
     </row>
@@ -5447,28 +5447,28 @@
         <v>0.6</v>
       </c>
       <c r="D39" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.70499999999999996</v>
       </c>
       <c r="E39" s="2">
         <v>0.3</v>
       </c>
       <c r="F39" s="33">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.9</v>
       </c>
       <c r="G39" s="32">
         <v>0.9</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="I39" s="32">
         <v>0.4</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1.7</v>
       </c>
       <c r="K39" s="32">
@@ -5482,7 +5482,7 @@
         <v>1.2</v>
       </c>
       <c r="N39" s="33">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.5</v>
       </c>
       <c r="P39" s="27"/>
@@ -5504,7 +5504,7 @@
       <c r="W39" s="32">
         <v>0.7</v>
       </c>
-      <c r="X39" s="92">
+      <c r="X39" s="81">
         <v>1.5</v>
       </c>
     </row>
@@ -5513,79 +5513,79 @@
         <v>87</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" ref="C40:N40" si="77">SUM(C35:C39)+C34</f>
+        <f t="shared" ref="C40:N40" si="78">SUM(C35:C39)+C34</f>
         <v>1364.8</v>
       </c>
       <c r="D40" s="34">
-        <f t="shared" si="77"/>
-        <v>1446.856</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="77"/>
-        <v>1480.3000000000002</v>
-      </c>
-      <c r="F40" s="34">
-        <f t="shared" si="77"/>
-        <v>1543.1000000000004</v>
-      </c>
-      <c r="G40" s="8">
-        <f t="shared" si="77"/>
-        <v>1743.5000000000002</v>
-      </c>
-      <c r="H40" s="34">
-        <f t="shared" si="77"/>
-        <v>1937.8</v>
-      </c>
-      <c r="I40" s="8">
-        <f t="shared" si="77"/>
-        <v>1882.1999999999998</v>
-      </c>
-      <c r="J40" s="34">
-        <f t="shared" si="77"/>
-        <v>1877.9</v>
-      </c>
-      <c r="K40" s="8">
-        <f t="shared" si="77"/>
-        <v>2013.2000000000003</v>
-      </c>
-      <c r="L40" s="34">
-        <f t="shared" si="77"/>
-        <v>2197.0000000000005</v>
-      </c>
-      <c r="M40" s="8">
-        <f t="shared" si="77"/>
-        <v>2741.3</v>
-      </c>
-      <c r="N40" s="34">
-        <f t="shared" si="77"/>
-        <v>2788.4</v>
-      </c>
-      <c r="R40" s="8">
-        <f t="shared" ref="R40:X40" si="78">SUM(R35:R39)+R34</f>
-        <v>1402.9829999999999</v>
-      </c>
-      <c r="S40" s="8">
         <f t="shared" si="78"/>
         <v>1446.856</v>
       </c>
-      <c r="T40" s="8">
+      <c r="E40" s="8">
+        <f t="shared" si="78"/>
+        <v>1480.3000000000002</v>
+      </c>
+      <c r="F40" s="34">
         <f t="shared" si="78"/>
         <v>1543.1000000000004</v>
       </c>
-      <c r="U40" s="8">
+      <c r="G40" s="8">
+        <f t="shared" si="78"/>
+        <v>1743.5000000000002</v>
+      </c>
+      <c r="H40" s="34">
         <f t="shared" si="78"/>
         <v>1937.8</v>
       </c>
-      <c r="V40" s="8">
+      <c r="I40" s="8">
+        <f t="shared" si="78"/>
+        <v>1882.1999999999998</v>
+      </c>
+      <c r="J40" s="34">
         <f t="shared" si="78"/>
         <v>1877.9</v>
       </c>
-      <c r="W40" s="8">
+      <c r="K40" s="8">
+        <f t="shared" si="78"/>
+        <v>2013.2000000000003</v>
+      </c>
+      <c r="L40" s="34">
         <f t="shared" si="78"/>
         <v>2197.0000000000005</v>
       </c>
+      <c r="M40" s="8">
+        <f t="shared" si="78"/>
+        <v>2741.3</v>
+      </c>
+      <c r="N40" s="34">
+        <f t="shared" si="78"/>
+        <v>2788.4</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" ref="R40:X40" si="79">SUM(R35:R39)+R34</f>
+        <v>1402.9829999999999</v>
+      </c>
+      <c r="S40" s="8">
+        <f t="shared" si="79"/>
+        <v>1446.856</v>
+      </c>
+      <c r="T40" s="8">
+        <f t="shared" si="79"/>
+        <v>1543.1000000000004</v>
+      </c>
+      <c r="U40" s="8">
+        <f t="shared" si="79"/>
+        <v>1937.8</v>
+      </c>
+      <c r="V40" s="8">
+        <f t="shared" si="79"/>
+        <v>1877.9</v>
+      </c>
+      <c r="W40" s="8">
+        <f t="shared" si="79"/>
+        <v>2197.0000000000005</v>
+      </c>
       <c r="X40" s="8">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2788.4</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" ref="F42" si="79">T42</f>
+        <f t="shared" ref="F42" si="80">T42</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="32">
@@ -5643,7 +5643,7 @@
         <v>256.39999999999998</v>
       </c>
       <c r="N42" s="33">
-        <f t="shared" ref="N42" si="80">X42</f>
+        <f t="shared" ref="N42" si="81">X42</f>
         <v>1</v>
       </c>
       <c r="P42" s="27"/>
@@ -5665,7 +5665,7 @@
       <c r="W42" s="32">
         <v>72.5</v>
       </c>
-      <c r="X42" s="96">
+      <c r="X42" s="85">
         <v>1</v>
       </c>
     </row>
@@ -5705,14 +5705,14 @@
         <v>3</v>
       </c>
       <c r="L43" s="34">
-        <f t="shared" ref="L43:L47" si="81">W43</f>
+        <f t="shared" ref="L43:L47" si="82">W43</f>
         <v>15.5</v>
       </c>
       <c r="M43" s="8">
         <v>78.8</v>
       </c>
       <c r="N43" s="34">
-        <f t="shared" ref="N43:N48" si="82">X43</f>
+        <f t="shared" ref="N43:N48" si="83">X43</f>
         <v>19.2</v>
       </c>
       <c r="R43" s="8">
@@ -5733,7 +5733,7 @@
       <c r="W43" s="8">
         <v>15.5</v>
       </c>
-      <c r="X43" s="95">
+      <c r="X43" s="84">
         <v>19.2</v>
       </c>
     </row>
@@ -5745,42 +5745,42 @@
         <v>0</v>
       </c>
       <c r="D44" s="34">
-        <f t="shared" ref="D44:D47" si="83">S44</f>
+        <f t="shared" ref="D44:D47" si="84">S44</f>
         <v>0</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
       </c>
       <c r="F44" s="34">
-        <f t="shared" ref="F44:F47" si="84">T44</f>
+        <f t="shared" ref="F44:F47" si="85">T44</f>
         <v>0</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
       <c r="H44" s="34">
-        <f t="shared" ref="H44:H47" si="85">U44</f>
+        <f t="shared" ref="H44:H47" si="86">U44</f>
         <v>0</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="34">
-        <f t="shared" ref="J44:J47" si="86">V44</f>
+        <f t="shared" ref="J44:J47" si="87">V44</f>
         <v>0</v>
       </c>
       <c r="K44" s="8">
         <v>14.2</v>
       </c>
       <c r="L44" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
         <v>19.399999999999999</v>
       </c>
       <c r="N44" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R44" s="8">
@@ -5801,7 +5801,7 @@
       <c r="W44" s="8">
         <v>0</v>
       </c>
-      <c r="X44" s="95">
+      <c r="X44" s="84">
         <v>0</v>
       </c>
     </row>
@@ -5813,42 +5813,42 @@
         <v>125.7</v>
       </c>
       <c r="D45" s="34">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>149.6</v>
       </c>
       <c r="E45" s="8">
         <v>154.5</v>
       </c>
       <c r="F45" s="34">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>164.8</v>
       </c>
       <c r="G45" s="8">
         <v>157.9</v>
       </c>
       <c r="H45" s="34">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>186.7</v>
       </c>
       <c r="I45" s="8">
         <v>158.69999999999999</v>
       </c>
       <c r="J45" s="34">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>186.7</v>
       </c>
       <c r="K45" s="8">
         <v>22</v>
       </c>
       <c r="L45" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>242.7</v>
       </c>
       <c r="M45" s="8">
         <v>26.5</v>
       </c>
       <c r="N45" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>280.7</v>
       </c>
       <c r="R45" s="8">
@@ -5869,7 +5869,7 @@
       <c r="W45" s="8">
         <v>242.7</v>
       </c>
-      <c r="X45" s="95">
+      <c r="X45" s="84">
         <v>280.7</v>
       </c>
     </row>
@@ -5881,42 +5881,42 @@
         <v>4.7</v>
       </c>
       <c r="D46" s="34">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>8.8339999999999996</v>
       </c>
       <c r="E46" s="8">
         <v>18.2</v>
       </c>
       <c r="F46" s="34">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>25.4</v>
       </c>
       <c r="G46" s="8">
         <v>20.5</v>
       </c>
       <c r="H46" s="34">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>28</v>
       </c>
       <c r="I46" s="8">
         <v>30.5</v>
       </c>
       <c r="J46" s="34">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>35.4</v>
       </c>
       <c r="K46" s="8">
         <v>13.8</v>
       </c>
       <c r="L46" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>20.7</v>
       </c>
       <c r="M46" s="8">
         <v>15.8</v>
       </c>
       <c r="N46" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>21</v>
       </c>
       <c r="R46" s="8">
@@ -5937,7 +5937,7 @@
       <c r="W46" s="8">
         <v>20.7</v>
       </c>
-      <c r="X46" s="95">
+      <c r="X46" s="84">
         <v>21</v>
       </c>
     </row>
@@ -5949,42 +5949,42 @@
         <v>14.9</v>
       </c>
       <c r="D47" s="34">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>12.175000000000001</v>
       </c>
       <c r="E47" s="8">
         <v>13.3</v>
       </c>
       <c r="F47" s="34">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>13.4</v>
       </c>
       <c r="G47" s="8">
         <v>13.4</v>
       </c>
       <c r="H47" s="34">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>9.4</v>
       </c>
       <c r="I47" s="8">
         <v>11.3</v>
       </c>
       <c r="J47" s="34">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>8.9</v>
       </c>
       <c r="K47" s="8">
         <v>0.2</v>
       </c>
       <c r="L47" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>11.6</v>
       </c>
       <c r="M47" s="8">
         <v>3.4</v>
       </c>
       <c r="N47" s="34">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>18.399999999999999</v>
       </c>
       <c r="R47" s="8">
@@ -6005,7 +6005,7 @@
       <c r="W47" s="8">
         <v>11.6</v>
       </c>
-      <c r="X47" s="95">
+      <c r="X47" s="84">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -6024,7 +6024,7 @@
         <v>0.5</v>
       </c>
       <c r="F48" s="33">
-        <f t="shared" ref="F48" si="87">T48</f>
+        <f t="shared" ref="F48" si="88">T48</f>
         <v>0.3</v>
       </c>
       <c r="G48" s="32">
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="33">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>0.9</v>
       </c>
       <c r="P48" s="27"/>
@@ -6074,7 +6074,7 @@
       <c r="W48" s="32">
         <v>0.9</v>
       </c>
-      <c r="X48" s="96">
+      <c r="X48" s="85">
         <v>0.9</v>
       </c>
     </row>
@@ -6083,79 +6083,79 @@
         <v>100</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" ref="C49:N49" si="88">SUM(C42:C48)</f>
+        <f t="shared" ref="C49:N49" si="89">SUM(C42:C48)</f>
         <v>145.9</v>
       </c>
       <c r="D49" s="34">
-        <f t="shared" si="88"/>
-        <v>171.97400000000002</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="88"/>
-        <v>189.5</v>
-      </c>
-      <c r="F49" s="34">
-        <f t="shared" si="88"/>
-        <v>213.10000000000002</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="88"/>
-        <v>206.5</v>
-      </c>
-      <c r="H49" s="34">
-        <f t="shared" si="88"/>
-        <v>313.19999999999993</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="88"/>
-        <v>290.49999999999994</v>
-      </c>
-      <c r="J49" s="34">
-        <f t="shared" si="88"/>
-        <v>248</v>
-      </c>
-      <c r="K49" s="8">
-        <f t="shared" si="88"/>
-        <v>259.29999999999995</v>
-      </c>
-      <c r="L49" s="34">
-        <f t="shared" si="88"/>
-        <v>363.9</v>
-      </c>
-      <c r="M49" s="8">
-        <f t="shared" si="88"/>
-        <v>400.29999999999995</v>
-      </c>
-      <c r="N49" s="34">
-        <f t="shared" si="88"/>
-        <v>341.19999999999993</v>
-      </c>
-      <c r="R49" s="8">
-        <f t="shared" ref="R49:X49" si="89">SUM(R42:R48)</f>
-        <v>159.31300000000002</v>
-      </c>
-      <c r="S49" s="8">
         <f t="shared" si="89"/>
         <v>171.97400000000002</v>
       </c>
-      <c r="T49" s="8">
+      <c r="E49" s="8">
+        <f t="shared" si="89"/>
+        <v>189.5</v>
+      </c>
+      <c r="F49" s="34">
         <f t="shared" si="89"/>
         <v>213.10000000000002</v>
       </c>
-      <c r="U49" s="8">
+      <c r="G49" s="8">
+        <f t="shared" si="89"/>
+        <v>206.5</v>
+      </c>
+      <c r="H49" s="34">
         <f t="shared" si="89"/>
         <v>313.19999999999993</v>
       </c>
-      <c r="V49" s="8">
+      <c r="I49" s="8">
+        <f t="shared" si="89"/>
+        <v>290.49999999999994</v>
+      </c>
+      <c r="J49" s="34">
         <f t="shared" si="89"/>
         <v>248</v>
       </c>
-      <c r="W49" s="8">
+      <c r="K49" s="8">
+        <f t="shared" si="89"/>
+        <v>259.29999999999995</v>
+      </c>
+      <c r="L49" s="34">
         <f t="shared" si="89"/>
         <v>363.9</v>
       </c>
+      <c r="M49" s="8">
+        <f t="shared" si="89"/>
+        <v>400.29999999999995</v>
+      </c>
+      <c r="N49" s="34">
+        <f t="shared" si="89"/>
+        <v>341.19999999999993</v>
+      </c>
+      <c r="R49" s="8">
+        <f t="shared" ref="R49:X49" si="90">SUM(R42:R48)</f>
+        <v>159.31300000000002</v>
+      </c>
+      <c r="S49" s="8">
+        <f t="shared" si="90"/>
+        <v>171.97400000000002</v>
+      </c>
+      <c r="T49" s="8">
+        <f t="shared" si="90"/>
+        <v>213.10000000000002</v>
+      </c>
+      <c r="U49" s="8">
+        <f t="shared" si="90"/>
+        <v>313.19999999999993</v>
+      </c>
+      <c r="V49" s="8">
+        <f t="shared" si="90"/>
+        <v>248</v>
+      </c>
+      <c r="W49" s="8">
+        <f t="shared" si="90"/>
+        <v>363.9</v>
+      </c>
       <c r="X49" s="8">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>341.19999999999993</v>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
         <v>258</v>
       </c>
       <c r="F50" s="33">
-        <f t="shared" ref="F50:F55" si="90">T50</f>
+        <f t="shared" ref="F50:F55" si="91">T50</f>
         <v>253.7</v>
       </c>
       <c r="G50" s="32">
@@ -6224,7 +6224,7 @@
       <c r="W50" s="32">
         <v>287.60000000000002</v>
       </c>
-      <c r="X50" s="96">
+      <c r="X50" s="85">
         <v>677.3</v>
       </c>
     </row>
@@ -6236,42 +6236,42 @@
         <v>0</v>
       </c>
       <c r="D51" s="34">
-        <f t="shared" ref="D51:D55" si="91">S51</f>
+        <f t="shared" ref="D51:D55" si="92">S51</f>
         <v>0</v>
       </c>
       <c r="E51" s="8">
         <v>0</v>
       </c>
       <c r="F51" s="34">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>44.7</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" ref="H51:H55" si="92">U51</f>
+        <f t="shared" ref="H51:H55" si="93">U51</f>
         <v>48.5</v>
       </c>
       <c r="I51" s="8">
         <v>51.4</v>
       </c>
       <c r="J51" s="34">
-        <f t="shared" ref="J51:J55" si="93">V51</f>
+        <f t="shared" ref="J51:J55" si="94">V51</f>
         <v>51.7</v>
       </c>
       <c r="K51" s="8">
         <v>53.4</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" ref="L51:L55" si="94">W51</f>
+        <f t="shared" ref="L51:L55" si="95">W51</f>
         <v>56.6</v>
       </c>
       <c r="M51" s="8">
         <v>69.2</v>
       </c>
       <c r="N51" s="34">
-        <f t="shared" ref="N51:N55" si="95">X51</f>
+        <f t="shared" ref="N51:N55" si="96">X51</f>
         <v>68.7</v>
       </c>
       <c r="R51" s="8">
@@ -6292,7 +6292,7 @@
       <c r="W51" s="8">
         <v>56.6</v>
       </c>
-      <c r="X51" s="95">
+      <c r="X51" s="84">
         <v>68.7</v>
       </c>
     </row>
@@ -6304,42 +6304,42 @@
         <v>66.8</v>
       </c>
       <c r="D52" s="34">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>53.896000000000001</v>
       </c>
       <c r="E52" s="8">
         <v>20.7</v>
       </c>
       <c r="F52" s="34">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>39.200000000000003</v>
       </c>
       <c r="G52" s="8">
         <v>27.6</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>10.6</v>
       </c>
       <c r="I52" s="8">
         <v>45</v>
       </c>
       <c r="J52" s="34">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>22.5</v>
       </c>
       <c r="K52" s="8">
         <v>10.1</v>
       </c>
       <c r="L52" s="34">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.6</v>
       </c>
       <c r="M52" s="8">
         <v>0.7</v>
       </c>
       <c r="N52" s="34">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.5</v>
       </c>
       <c r="R52" s="8">
@@ -6360,7 +6360,7 @@
       <c r="W52" s="8">
         <v>0.6</v>
       </c>
-      <c r="X52" s="95">
+      <c r="X52" s="84">
         <v>0.5</v>
       </c>
     </row>
@@ -6372,42 +6372,42 @@
         <v>11.4</v>
       </c>
       <c r="D53" s="34">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>12.621</v>
       </c>
       <c r="E53" s="8">
         <v>9.6999999999999993</v>
       </c>
       <c r="F53" s="34">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>11.6</v>
       </c>
       <c r="G53" s="8">
         <v>13.3</v>
       </c>
       <c r="H53" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>13.3</v>
       </c>
       <c r="I53" s="8">
         <v>16.3</v>
       </c>
       <c r="J53" s="34">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>16.8</v>
       </c>
       <c r="K53" s="8">
         <v>15.2</v>
       </c>
       <c r="L53" s="34">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>19</v>
       </c>
       <c r="M53" s="8">
         <v>21.4</v>
       </c>
       <c r="N53" s="34">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>21.9</v>
       </c>
       <c r="R53" s="8">
@@ -6428,7 +6428,7 @@
       <c r="W53" s="8">
         <v>19</v>
       </c>
-      <c r="X53" s="95">
+      <c r="X53" s="84">
         <v>21.9</v>
       </c>
     </row>
@@ -6440,42 +6440,42 @@
         <v>16.899999999999999</v>
       </c>
       <c r="D54" s="34">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>23.071999999999999</v>
       </c>
       <c r="E54" s="8">
         <v>4.7</v>
       </c>
       <c r="F54" s="34">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>10.9</v>
       </c>
       <c r="G54" s="8">
         <v>7.9</v>
       </c>
       <c r="H54" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>21.6</v>
       </c>
       <c r="I54" s="8">
         <v>14.3</v>
       </c>
       <c r="J54" s="34">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8.4</v>
       </c>
       <c r="K54" s="8">
         <v>6.3</v>
       </c>
       <c r="L54" s="34">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>7.7</v>
       </c>
       <c r="M54" s="8">
         <v>7.9</v>
       </c>
       <c r="N54" s="34">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="R54" s="8">
@@ -6496,7 +6496,7 @@
       <c r="W54" s="8">
         <v>7.7</v>
       </c>
-      <c r="X54" s="95">
+      <c r="X54" s="84">
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -6508,42 +6508,42 @@
         <v>96</v>
       </c>
       <c r="D55" s="34">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>66.983000000000004</v>
       </c>
       <c r="E55" s="8">
         <v>70.400000000000006</v>
       </c>
       <c r="F55" s="34">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>33.200000000000003</v>
       </c>
       <c r="G55" s="8">
         <v>41.1</v>
       </c>
       <c r="H55" s="34">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>48.7</v>
       </c>
       <c r="I55" s="8">
         <v>41.7</v>
       </c>
       <c r="J55" s="34">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>40.6</v>
       </c>
       <c r="K55" s="8">
         <v>51.1</v>
       </c>
       <c r="L55" s="34">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>58.5</v>
       </c>
       <c r="M55" s="8">
         <v>69.2</v>
       </c>
       <c r="N55" s="34">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>70.2</v>
       </c>
       <c r="R55" s="8">
@@ -6564,7 +6564,7 @@
       <c r="W55" s="8">
         <v>58.5</v>
       </c>
-      <c r="X55" s="95">
+      <c r="X55" s="84">
         <v>70.2</v>
       </c>
     </row>
@@ -6573,59 +6573,59 @@
         <v>93</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" ref="C56:N56" si="96">C49+SUM(C50:C55)</f>
+        <f t="shared" ref="C56:N56" si="97">C49+SUM(C50:C55)</f>
         <v>589.5</v>
       </c>
       <c r="D56" s="34">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>618.45900000000006</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>553</v>
       </c>
       <c r="F56" s="34">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>561.70000000000005</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>676</v>
       </c>
       <c r="H56" s="34">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>800.9</v>
       </c>
       <c r="I56" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>759.19999999999993</v>
       </c>
       <c r="J56" s="34">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>710.3</v>
       </c>
       <c r="K56" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>736.09999999999991</v>
       </c>
       <c r="L56" s="34">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>793.90000000000009</v>
       </c>
       <c r="M56" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1114.3000000000002</v>
       </c>
       <c r="N56" s="34">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>1189.5</v>
       </c>
       <c r="R56" s="8">
-        <f t="shared" ref="R56:S56" si="97">R49+SUM(R50:R55)</f>
+        <f t="shared" ref="R56:S56" si="98">R49+SUM(R50:R55)</f>
         <v>624.346</v>
       </c>
       <c r="S56" s="8">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>618.45900000000006</v>
       </c>
       <c r="T56" s="8">
@@ -6728,59 +6728,59 @@
         <v>96</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" ref="C59:N59" si="98">C58+C56</f>
+        <f t="shared" ref="C59:N59" si="99">C58+C56</f>
         <v>1364.8</v>
       </c>
       <c r="D59" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1446.8560000000002</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1480.3</v>
       </c>
       <c r="F59" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1543.1</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1743.5</v>
       </c>
       <c r="H59" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1937.8000000000002</v>
       </c>
       <c r="I59" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1882.1999999999998</v>
       </c>
       <c r="J59" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1877.8999999999999</v>
       </c>
       <c r="K59" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2013.1999999999998</v>
       </c>
       <c r="L59" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2197</v>
       </c>
       <c r="M59" s="8">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2741.3</v>
       </c>
       <c r="N59" s="34">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>2788.4</v>
       </c>
       <c r="R59" s="8">
-        <f t="shared" ref="R59:S59" si="99">R58+R56</f>
+        <f t="shared" ref="R59:S59" si="100">R58+R56</f>
         <v>1402.9829999999999</v>
       </c>
       <c r="S59" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1446.8560000000002</v>
       </c>
       <c r="T59" s="8">
@@ -6800,7 +6800,7 @@
         <v>2197</v>
       </c>
       <c r="X59" s="8">
-        <f t="shared" ref="X59" si="100">X58+X56</f>
+        <f t="shared" ref="X59" si="101">X58+X56</f>
         <v>2788.4</v>
       </c>
     </row>
@@ -6813,79 +6813,79 @@
         <v>97</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" ref="C61:M61" si="101">C40-C56</f>
+        <f t="shared" ref="C61:M61" si="102">C40-C56</f>
         <v>775.3</v>
       </c>
       <c r="D61" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>828.39699999999993</v>
       </c>
       <c r="E61" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>927.30000000000018</v>
       </c>
       <c r="F61" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>981.40000000000032</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1067.5000000000002</v>
       </c>
       <c r="H61" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1136.9000000000001</v>
       </c>
       <c r="I61" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1123</v>
       </c>
       <c r="J61" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1167.6000000000001</v>
       </c>
       <c r="K61" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1277.1000000000004</v>
       </c>
       <c r="L61" s="34">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1403.1000000000004</v>
       </c>
       <c r="M61" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>1627</v>
       </c>
       <c r="N61" s="34">
-        <f t="shared" ref="N61" si="102">N40-N56</f>
+        <f t="shared" ref="N61" si="103">N40-N56</f>
         <v>1598.9</v>
       </c>
       <c r="R61" s="8">
-        <f t="shared" ref="R61:S61" si="103">R40-R56</f>
+        <f t="shared" ref="R61:S61" si="104">R40-R56</f>
         <v>778.63699999999994</v>
       </c>
       <c r="S61" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>828.39699999999993</v>
       </c>
       <c r="T61" s="8">
-        <f t="shared" ref="T61" si="104">T40-T56</f>
+        <f t="shared" ref="T61" si="105">T40-T56</f>
         <v>981.40000000000032</v>
       </c>
       <c r="U61" s="8">
-        <f t="shared" ref="U61" si="105">U40-U56</f>
+        <f t="shared" ref="U61" si="106">U40-U56</f>
         <v>1136.9000000000001</v>
       </c>
       <c r="V61" s="8">
-        <f t="shared" ref="V61:W61" si="106">V40-V56</f>
+        <f t="shared" ref="V61:W61" si="107">V40-V56</f>
         <v>1167.6000000000001</v>
       </c>
       <c r="W61" s="8">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1403.1000000000004</v>
       </c>
       <c r="X61" s="8">
-        <f t="shared" ref="X61" si="107">X40-X56</f>
+        <f t="shared" ref="X61" si="108">X40-X56</f>
         <v>1598.9</v>
       </c>
     </row>
@@ -6894,79 +6894,79 @@
         <v>98</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62:N62" si="108">C61/C16</f>
+        <f t="shared" ref="C62:N62" si="109">C61/C16</f>
         <v>2.0444631793064798</v>
       </c>
       <c r="D62" s="34">
-        <f t="shared" si="108"/>
-        <v>2.1858169969439136</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="108"/>
-        <v>2.4464198115545486</v>
-      </c>
-      <c r="F62" s="34">
-        <f t="shared" si="108"/>
-        <v>2.588354874319402</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="108"/>
-        <v>2.815622833165575</v>
-      </c>
-      <c r="H62" s="34">
-        <f t="shared" si="108"/>
-        <v>2.9990490331802162</v>
-      </c>
-      <c r="I62" s="1">
-        <f t="shared" si="108"/>
-        <v>2.9623377739884473</v>
-      </c>
-      <c r="J62" s="34">
-        <f t="shared" si="108"/>
-        <v>3.0831792975970429</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="108"/>
-        <v>3.368768135056714</v>
-      </c>
-      <c r="L62" s="34">
-        <f t="shared" si="108"/>
-        <v>3.7050435701082662</v>
-      </c>
-      <c r="M62" s="1">
-        <f t="shared" si="108"/>
-        <v>4.3019566367001589</v>
-      </c>
-      <c r="N62" s="34">
-        <f t="shared" si="108"/>
-        <v>4.2298941798941803</v>
-      </c>
-      <c r="R62" s="1">
-        <f t="shared" ref="R62:S62" si="109">R61/R16</f>
-        <v>2.056156169391437</v>
-      </c>
-      <c r="S62" s="1">
         <f t="shared" si="109"/>
         <v>2.1858169969439136</v>
       </c>
+      <c r="E62" s="1">
+        <f t="shared" si="109"/>
+        <v>2.4464198115545486</v>
+      </c>
+      <c r="F62" s="34">
+        <f t="shared" si="109"/>
+        <v>2.588354874319402</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="109"/>
+        <v>2.815622833165575</v>
+      </c>
+      <c r="H62" s="34">
+        <f t="shared" si="109"/>
+        <v>2.9990490331802162</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="109"/>
+        <v>2.9623377739884473</v>
+      </c>
+      <c r="J62" s="34">
+        <f t="shared" si="109"/>
+        <v>3.0831792975970429</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="109"/>
+        <v>3.368768135056714</v>
+      </c>
+      <c r="L62" s="34">
+        <f t="shared" si="109"/>
+        <v>3.7050435701082662</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="109"/>
+        <v>4.3019566367001589</v>
+      </c>
+      <c r="N62" s="34">
+        <f t="shared" si="109"/>
+        <v>4.2298941798941803</v>
+      </c>
+      <c r="R62" s="1">
+        <f t="shared" ref="R62:S62" si="110">R61/R16</f>
+        <v>2.056156169391437</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="110"/>
+        <v>2.1858169969439136</v>
+      </c>
       <c r="T62" s="1">
-        <f t="shared" ref="T62" si="110">T61/T16</f>
+        <f t="shared" ref="T62" si="111">T61/T16</f>
         <v>2.588354874319402</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" ref="U62" si="111">U61/U16</f>
+        <f t="shared" ref="U62" si="112">U61/U16</f>
         <v>2.9990490331802162</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" ref="V62:W62" si="112">V61/V16</f>
+        <f t="shared" ref="V62:W62" si="113">V61/V16</f>
         <v>3.0791139240506333</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>3.7050435701082662</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" ref="X62" si="113">X61/X16</f>
+        <f t="shared" ref="X62" si="114">X61/X16</f>
         <v>4.2298941798941803</v>
       </c>
     </row>
@@ -6975,67 +6975,67 @@
         <v>7</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" ref="C64:M64" si="114">C38+C39+C30</f>
+        <f t="shared" ref="C64:M64" si="115">C38+C39+C30</f>
         <v>75.7</v>
       </c>
       <c r="D64" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>75.418999999999997</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>70.600000000000009</v>
       </c>
       <c r="F64" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>86.000000000000014</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>89.600000000000009</v>
       </c>
       <c r="H64" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>112.1</v>
       </c>
       <c r="I64" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>130.70000000000002</v>
       </c>
       <c r="J64" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>145.1</v>
       </c>
       <c r="K64" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>141.6</v>
       </c>
       <c r="L64" s="34">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>166.29999999999998</v>
       </c>
       <c r="M64" s="8">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>234.4</v>
       </c>
       <c r="N64" s="34">
-        <f t="shared" ref="N64" si="115">N38+N39+N30</f>
+        <f t="shared" ref="N64" si="116">N38+N39+N30</f>
         <v>192</v>
       </c>
       <c r="R64" s="8">
-        <f t="shared" ref="R64:S64" si="116">R38+R39+R30</f>
+        <f t="shared" ref="R64:S64" si="117">R38+R39+R30</f>
         <v>70.977999999999994</v>
       </c>
       <c r="S64" s="8">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>75.418999999999997</v>
       </c>
       <c r="T64" s="8">
-        <f t="shared" ref="T64" si="117">T38+T39+T30</f>
+        <f t="shared" ref="T64" si="118">T38+T39+T30</f>
         <v>86.000000000000014</v>
       </c>
       <c r="U64" s="8">
-        <f t="shared" ref="U64" si="118">U38+U39+U30</f>
+        <f t="shared" ref="U64" si="119">U38+U39+U30</f>
         <v>112.1</v>
       </c>
       <c r="V64" s="8">
@@ -7047,7 +7047,7 @@
         <v>166.29999999999998</v>
       </c>
       <c r="X64" s="8">
-        <f t="shared" ref="X64" si="119">X38+X39+X30</f>
+        <f t="shared" ref="X64" si="120">X38+X39+X30</f>
         <v>192</v>
       </c>
     </row>
@@ -7056,67 +7056,67 @@
         <v>8</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" ref="C65:M65" si="120">C50+C42+C48</f>
+        <f t="shared" ref="C65:M65" si="121">C50+C42+C48</f>
         <v>253.1</v>
       </c>
       <c r="D65" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>291.27800000000002</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>261.5</v>
       </c>
       <c r="F65" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>263.2</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>337.29999999999995</v>
       </c>
       <c r="H65" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>421.1</v>
       </c>
       <c r="I65" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>377</v>
       </c>
       <c r="J65" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>326</v>
       </c>
       <c r="K65" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>546.79999999999995</v>
       </c>
       <c r="L65" s="34">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>361</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>802</v>
       </c>
       <c r="N65" s="34">
-        <f t="shared" ref="N65" si="121">N50+N42+N48</f>
+        <f t="shared" ref="N65" si="122">N50+N42+N48</f>
         <v>679.19999999999993</v>
       </c>
       <c r="R65" s="8">
-        <f t="shared" ref="R65:S65" si="122">R50+R42+R48</f>
+        <f t="shared" ref="R65:S65" si="123">R50+R42+R48</f>
         <v>263.584</v>
       </c>
       <c r="S65" s="8">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>291.27800000000002</v>
       </c>
       <c r="T65" s="8">
-        <f t="shared" ref="T65" si="123">T50+T42+T48</f>
+        <f t="shared" ref="T65" si="124">T50+T42+T48</f>
         <v>263.2</v>
       </c>
       <c r="U65" s="8">
-        <f t="shared" ref="U65" si="124">U50+U42+U48</f>
+        <f t="shared" ref="U65" si="125">U50+U42+U48</f>
         <v>421.1</v>
       </c>
       <c r="V65" s="8">
@@ -7128,7 +7128,7 @@
         <v>361</v>
       </c>
       <c r="X65" s="8">
-        <f t="shared" ref="X65" si="125">X50+X42+X48</f>
+        <f t="shared" ref="X65" si="126">X50+X42+X48</f>
         <v>679.19999999999993</v>
       </c>
     </row>
@@ -7137,67 +7137,67 @@
         <v>9</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" ref="C66:N66" si="126">C64-C65</f>
+        <f t="shared" ref="C66:N66" si="127">C64-C65</f>
         <v>-177.39999999999998</v>
       </c>
       <c r="D66" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-215.85900000000004</v>
       </c>
       <c r="E66" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-190.89999999999998</v>
       </c>
       <c r="F66" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-177.2</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-247.69999999999993</v>
       </c>
       <c r="H66" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-309</v>
       </c>
       <c r="I66" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-246.29999999999998</v>
       </c>
       <c r="J66" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-180.9</v>
       </c>
       <c r="K66" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-405.19999999999993</v>
       </c>
       <c r="L66" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-194.70000000000002</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-567.6</v>
       </c>
       <c r="N66" s="34">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-487.19999999999993</v>
       </c>
       <c r="R66" s="8">
-        <f t="shared" ref="R66" si="127">R64-R65</f>
+        <f t="shared" ref="R66" si="128">R64-R65</f>
         <v>-192.60599999999999</v>
       </c>
       <c r="S66" s="8">
-        <f t="shared" ref="S66" si="128">S64-S65</f>
+        <f t="shared" ref="S66" si="129">S64-S65</f>
         <v>-215.85900000000004</v>
       </c>
       <c r="T66" s="8">
-        <f t="shared" ref="T66" si="129">T64-T65</f>
+        <f t="shared" ref="T66" si="130">T64-T65</f>
         <v>-177.2</v>
       </c>
       <c r="U66" s="8">
-        <f t="shared" ref="U66" si="130">U64-U65</f>
+        <f t="shared" ref="U66" si="131">U64-U65</f>
         <v>-309</v>
       </c>
       <c r="V66" s="8">
@@ -7209,7 +7209,7 @@
         <v>-194.70000000000002</v>
       </c>
       <c r="X66" s="8">
-        <f t="shared" ref="X66" si="131">X64-X65</f>
+        <f t="shared" ref="X66" si="132">X64-X65</f>
         <v>-487.19999999999993</v>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
       <c r="W68" s="35">
         <v>24.9636</v>
       </c>
-      <c r="X68" s="94">
+      <c r="X68" s="83">
         <v>22.29</v>
       </c>
       <c r="Y68" s="73">
@@ -7286,39 +7286,39 @@
         <v>22.248994050410282</v>
       </c>
       <c r="Z68" s="73">
-        <f t="shared" ref="Z68:AH68" si="132">Z15*Z75</f>
+        <f t="shared" ref="Z68:AH68" si="133">Z15*Z75</f>
         <v>25.781705456531345</v>
       </c>
       <c r="AA68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>29.340308990655021</v>
       </c>
       <c r="AB68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>32.289091733218605</v>
       </c>
       <c r="AC68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>35.884254806006609</v>
       </c>
       <c r="AD68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>39.468093417611101</v>
       </c>
       <c r="AE68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>43.337385060414334</v>
       </c>
       <c r="AF68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>47.659053456164521</v>
       </c>
       <c r="AG68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>52.393567242365876</v>
       </c>
       <c r="AH68" s="73">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>57.592597510381061</v>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
         <v>4114.4161925447006</v>
       </c>
       <c r="D69" s="34">
-        <f t="shared" ref="D69" si="133">D68*D16</f>
+        <f t="shared" ref="D69" si="134">D68*D16</f>
         <v>3677.2005996558</v>
       </c>
       <c r="E69" s="8">
@@ -7339,7 +7339,7 @@
         <v>5308.2794942492001</v>
       </c>
       <c r="F69" s="34">
-        <f t="shared" ref="F69:H69" si="134">F68*F16</f>
+        <f t="shared" ref="F69:H69" si="135">F68*F16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="G69" s="8">
@@ -7347,7 +7347,7 @@
         <v>7310.4731065340002</v>
       </c>
       <c r="H69" s="34">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="I69" s="8">
@@ -7355,7 +7355,7 @@
         <v>8761.9267890080991</v>
       </c>
       <c r="J69" s="34">
-        <f t="shared" ref="J69:L69" si="135">J68*J16</f>
+        <f t="shared" ref="J69:L69" si="136">J68*J16</f>
         <v>8886.2333699999999</v>
       </c>
       <c r="K69" s="8">
@@ -7363,7 +7363,7 @@
         <v>10690.468360000001</v>
       </c>
       <c r="L69" s="34">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>9453.7153199999993</v>
       </c>
       <c r="M69" s="8">
@@ -7371,35 +7371,35 @@
         <v>7734.19</v>
       </c>
       <c r="N69" s="34">
-        <f t="shared" ref="N69" si="136">N68*N16</f>
+        <f t="shared" ref="N69" si="137">N68*N16</f>
         <v>8425.619999999999</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" ref="R69:S69" si="137">R68*R16</f>
+        <f t="shared" ref="R69:S69" si="138">R68*R16</f>
         <v>3674.2740324709998</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>4955.6386409039997</v>
       </c>
       <c r="T69" s="8">
-        <f t="shared" ref="T69:W69" si="138">T68*T16</f>
+        <f t="shared" ref="T69:W69" si="139">T68*T16</f>
         <v>6172.4174835960002</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>7145.9384367832008</v>
       </c>
       <c r="V69" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>8897.9659199999987</v>
       </c>
       <c r="W69" s="8">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>9453.7153199999993</v>
       </c>
       <c r="X69" s="8">
-        <f t="shared" ref="X69" si="139">X68*X16</f>
+        <f t="shared" ref="X69" si="140">X68*X16</f>
         <v>8425.619999999999</v>
       </c>
       <c r="Y69" s="74"/>
@@ -7422,7 +7422,7 @@
         <v>4291.8161925447002</v>
       </c>
       <c r="D70" s="34">
-        <f t="shared" ref="D70" si="140">D69-D66</f>
+        <f t="shared" ref="D70" si="141">D69-D66</f>
         <v>3893.0595996558</v>
       </c>
       <c r="E70" s="8">
@@ -7430,7 +7430,7 @@
         <v>5499.1794942491997</v>
       </c>
       <c r="F70" s="34">
-        <f t="shared" ref="F70:H70" si="141">F69-F66</f>
+        <f t="shared" ref="F70:H70" si="142">F69-F66</f>
         <v>6349.6174835960001</v>
       </c>
       <c r="G70" s="8">
@@ -7438,7 +7438,7 @@
         <v>7558.173106534</v>
       </c>
       <c r="H70" s="34">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7454.9384367832008</v>
       </c>
       <c r="I70" s="8">
@@ -7446,7 +7446,7 @@
         <v>9008.2267890080984</v>
       </c>
       <c r="J70" s="34">
-        <f t="shared" ref="J70:L70" si="142">J69-J66</f>
+        <f t="shared" ref="J70:L70" si="143">J69-J66</f>
         <v>9067.1333699999996</v>
       </c>
       <c r="K70" s="8">
@@ -7454,7 +7454,7 @@
         <v>11095.668360000001</v>
       </c>
       <c r="L70" s="34">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>9648.4153200000001</v>
       </c>
       <c r="M70" s="8">
@@ -7462,35 +7462,35 @@
         <v>8301.7899999999991</v>
       </c>
       <c r="N70" s="34">
-        <f t="shared" ref="N70" si="143">N69-N66</f>
+        <f t="shared" ref="N70" si="144">N69-N66</f>
         <v>8912.82</v>
       </c>
       <c r="R70" s="8">
-        <f t="shared" ref="R70:S70" si="144">R69-R66</f>
+        <f t="shared" ref="R70:S70" si="145">R69-R66</f>
         <v>3866.880032471</v>
       </c>
       <c r="S70" s="8">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>5171.497640904</v>
       </c>
       <c r="T70" s="8">
-        <f t="shared" ref="T70:W70" si="145">T69-T66</f>
+        <f t="shared" ref="T70:W70" si="146">T69-T66</f>
         <v>6349.6174835960001</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>7454.9384367832008</v>
       </c>
       <c r="V70" s="8">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>9078.8659199999984</v>
       </c>
       <c r="W70" s="8">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>9648.4153200000001</v>
       </c>
       <c r="X70" s="8">
-        <f t="shared" ref="X70" si="146">X69-X66</f>
+        <f t="shared" ref="X70" si="147">X69-X66</f>
         <v>8912.82</v>
       </c>
       <c r="Y70" s="74"/>
@@ -7525,72 +7525,72 @@
         <v>22</v>
       </c>
       <c r="C72" s="42">
-        <f t="shared" ref="C72:M72" si="147">C68/C62</f>
+        <f t="shared" ref="C72:M72" si="148">C68/C62</f>
         <v>5.306869847213596</v>
       </c>
       <c r="D72" s="56">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4.4389351961146657</v>
       </c>
       <c r="E72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>5.7244467747753687</v>
       </c>
       <c r="F72" s="56">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>6.2894003297289567</v>
       </c>
       <c r="G72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>6.8482183667765799</v>
       </c>
       <c r="H72" s="56">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>6.2854590876798309</v>
       </c>
       <c r="I72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>7.8022500347356187</v>
       </c>
       <c r="J72" s="56">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>7.6106829136690637</v>
       </c>
       <c r="K72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>8.3708937123169669</v>
       </c>
       <c r="L72" s="56">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>6.7377345306820589</v>
       </c>
       <c r="M72" s="42">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>4.7536508912108166</v>
       </c>
       <c r="N72" s="56">
-        <f t="shared" ref="N72" si="148">N68/N62</f>
+        <f t="shared" ref="N72" si="149">N68/N62</f>
         <v>5.2696353743198445</v>
       </c>
       <c r="P72" s="56"/>
       <c r="R72" s="42">
-        <f t="shared" ref="R72:S72" si="149">R68/R62</f>
+        <f t="shared" ref="R72:S72" si="150">R68/R62</f>
         <v>4.7188536281617752</v>
       </c>
       <c r="S72" s="42">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>5.9822025440748829</v>
       </c>
       <c r="T72" s="42">
-        <f t="shared" ref="T72" si="150">T68/T62</f>
+        <f t="shared" ref="T72" si="151">T68/T62</f>
         <v>6.2894003297289567</v>
       </c>
       <c r="U72" s="42">
-        <f t="shared" ref="U72:V72" si="151">U68/U62</f>
+        <f t="shared" ref="U72:V72" si="152">U68/U62</f>
         <v>6.2854590876798309</v>
       </c>
       <c r="V72" s="42">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>7.620731346351489</v>
       </c>
       <c r="W72" s="42">
@@ -7598,7 +7598,7 @@
         <v>6.7377345306820589</v>
       </c>
       <c r="X72" s="42">
-        <f t="shared" ref="X72" si="152">X68/X62</f>
+        <f t="shared" ref="X72" si="153">X68/X62</f>
         <v>5.2696353743198445</v>
       </c>
       <c r="Y72" s="75"/>
@@ -7621,68 +7621,68 @@
         <v>23</v>
       </c>
       <c r="D73" s="56">
-        <f t="shared" ref="D73:M73" si="153">D69/SUM(C4:D4)</f>
+        <f t="shared" ref="D73:M73" si="154">D69/SUM(C4:D4)</f>
         <v>3.4168026526915263</v>
       </c>
       <c r="E73" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>4.5942781350092732</v>
       </c>
       <c r="F73" s="56">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>5.0973800343513087</v>
       </c>
       <c r="G73" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>5.7153257028645132</v>
       </c>
       <c r="H73" s="56">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>5.3391650005851767</v>
       </c>
       <c r="I73" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>6.7239097452291459</v>
       </c>
       <c r="J73" s="56">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>6.7411875056895765</v>
       </c>
       <c r="K73" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>7.4394351844119697</v>
       </c>
       <c r="L73" s="56">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>6.1979383203304268</v>
       </c>
       <c r="M73" s="42">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>4.6490682856455878</v>
       </c>
       <c r="N73" s="56">
-        <f t="shared" ref="N73" si="154">N69/SUM(M4:N4)</f>
+        <f t="shared" ref="N73" si="155">N69/SUM(M4:N4)</f>
         <v>4.547506476683937</v>
       </c>
       <c r="P73" s="56"/>
       <c r="R73" s="42">
-        <f t="shared" ref="R73:S73" si="155">R69/R4</f>
+        <f t="shared" ref="R73:S73" si="156">R69/R4</f>
         <v>3.82075410328265</v>
       </c>
       <c r="S73" s="42">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>4.60470915174069</v>
       </c>
       <c r="T73" s="42">
-        <f t="shared" ref="T73" si="156">T69/T4</f>
+        <f t="shared" ref="T73" si="157">T69/T4</f>
         <v>5.0973800343513087</v>
       </c>
       <c r="U73" s="42">
-        <f t="shared" ref="U73:V73" si="157">U69/U4</f>
+        <f t="shared" ref="U73:V73" si="158">U69/U4</f>
         <v>5.3391650005851767</v>
       </c>
       <c r="V73" s="42">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.7500879380974039</v>
       </c>
       <c r="W73" s="42">
@@ -7690,7 +7690,7 @@
         <v>6.1979383203304268</v>
       </c>
       <c r="X73" s="42">
-        <f t="shared" ref="X73" si="158">X69/X4</f>
+        <f t="shared" ref="X73" si="159">X69/X4</f>
         <v>4.547506476683937</v>
       </c>
       <c r="Y73" s="75"/>
@@ -7713,39 +7713,39 @@
         <v>24</v>
       </c>
       <c r="D74" s="56">
-        <f t="shared" ref="D74:E74" si="159">D70/SUM(C4:D4)</f>
+        <f t="shared" ref="D74:E74" si="160">D70/SUM(C4:D4)</f>
         <v>3.6173757745049993</v>
       </c>
       <c r="E74" s="42">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>4.7595007267969578</v>
       </c>
       <c r="F74" s="56">
-        <f t="shared" ref="F74:N74" si="160">F70/SUM(E4:F4)</f>
+        <f t="shared" ref="F74:N74" si="161">F70/SUM(E4:F4)</f>
         <v>5.243717469317037</v>
       </c>
       <c r="G74" s="42">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>5.9089774892768343</v>
       </c>
       <c r="H74" s="56">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>5.5700376843867305</v>
       </c>
       <c r="I74" s="42">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>6.912920565580615</v>
       </c>
       <c r="J74" s="56">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>6.8784200955848878</v>
       </c>
       <c r="K74" s="42">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>7.7214115240083521</v>
       </c>
       <c r="L74" s="56">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>6.325585340588737</v>
       </c>
       <c r="M74" s="42">
@@ -7753,27 +7753,27 @@
         <v>4.990256071170954</v>
       </c>
       <c r="N74" s="56">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>4.8104598445595856</v>
       </c>
       <c r="R74" s="42">
-        <f t="shared" ref="R74:S74" si="161">R70/R4</f>
+        <f t="shared" ref="R74:S74" si="162">R70/R4</f>
         <v>4.0210386107291338</v>
       </c>
       <c r="S74" s="42">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>4.8052822735541634</v>
       </c>
       <c r="T74" s="42">
-        <f t="shared" ref="T74" si="162">T70/T4</f>
+        <f t="shared" ref="T74" si="163">T70/T4</f>
         <v>5.243717469317037</v>
       </c>
       <c r="U74" s="42">
-        <f t="shared" ref="U74:V74" si="163">U70/U4</f>
+        <f t="shared" ref="U74:V74" si="164">U70/U4</f>
         <v>5.5700376843867305</v>
       </c>
       <c r="V74" s="42">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>6.8873205279927161</v>
       </c>
       <c r="W74" s="42">
@@ -7781,7 +7781,7 @@
         <v>6.325585340588737</v>
       </c>
       <c r="X74" s="42">
-        <f t="shared" ref="X74" si="164">X70/X4</f>
+        <f t="shared" ref="X74" si="165">X70/X4</f>
         <v>4.8104598445595856</v>
       </c>
       <c r="Y74" s="74"/>
@@ -7824,48 +7824,48 @@
         <v>38.754627719660355</v>
       </c>
       <c r="I75" s="42">
-        <f>I68/(I15+H15)</f>
+        <f t="shared" ref="I75:N75" si="166">I68/(I15+H15)</f>
         <v>49.58603989933718</v>
       </c>
       <c r="J75" s="56">
-        <f>J68/(J15+I15)</f>
+        <f t="shared" si="166"/>
         <v>43.727166392237116</v>
       </c>
       <c r="K75" s="42">
-        <f>K68/(K15+J15)</f>
+        <f t="shared" si="166"/>
         <v>40.829325611764631</v>
       </c>
       <c r="L75" s="56">
-        <f>L68/(L15+K15)</f>
+        <f t="shared" si="166"/>
         <v>38.73571477005347</v>
       </c>
       <c r="M75" s="42">
-        <f>M68/(M15+L15)</f>
+        <f t="shared" si="166"/>
         <v>34.65810517544427</v>
       </c>
       <c r="N75" s="56">
-        <f>N68/(N15+M15)</f>
+        <f t="shared" si="166"/>
         <v>31.029100640179731</v>
       </c>
       <c r="P75" s="56"/>
       <c r="R75" s="42">
-        <f t="shared" ref="R75:S75" si="165">R68/R15</f>
+        <f t="shared" ref="R75:S75" si="167">R68/R15</f>
         <v>28.33142388692179</v>
       </c>
       <c r="S75" s="42">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>32.131899790595746</v>
       </c>
       <c r="T75" s="42">
-        <f t="shared" ref="T75" si="166">T68/T15</f>
+        <f t="shared" ref="T75" si="168">T68/T15</f>
         <v>36.35110414367491</v>
       </c>
       <c r="U75" s="42">
-        <f t="shared" ref="U75:V75" si="167">U68/U15</f>
+        <f t="shared" ref="U75:V75" si="169">U68/U15</f>
         <v>38.752377639822122</v>
       </c>
       <c r="V75" s="42">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>43.767663157894724</v>
       </c>
       <c r="W75" s="42">
@@ -7873,7 +7873,7 @@
         <v>38.713002948402945</v>
       </c>
       <c r="X75" s="42">
-        <f t="shared" ref="X75" si="168">X68/X15</f>
+        <f t="shared" ref="X75" si="170">X68/X15</f>
         <v>31.022164948453611</v>
       </c>
       <c r="Y75" s="75">
@@ -7917,23 +7917,23 @@
       </c>
       <c r="M76" s="37"/>
       <c r="R76" s="42">
-        <f t="shared" ref="R76:S76" si="169">R70/R12</f>
+        <f t="shared" ref="R76:S76" si="171">R70/R12</f>
         <v>29.81656140822275</v>
       </c>
       <c r="S76" s="42">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>33.531509459397782</v>
       </c>
       <c r="T76" s="42">
-        <f t="shared" ref="T76" si="170">T70/T12</f>
+        <f t="shared" ref="T76" si="172">T70/T12</f>
         <v>37.394684826831565</v>
       </c>
       <c r="U76" s="42">
-        <f t="shared" ref="U76:V76" si="171">U70/U12</f>
+        <f t="shared" ref="U76:V76" si="173">U70/U12</f>
         <v>40.428082628976135</v>
       </c>
       <c r="V76" s="42">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>44.657481160846025</v>
       </c>
       <c r="W76" s="42">
@@ -7941,7 +7941,7 @@
         <v>39.51030024570025</v>
       </c>
       <c r="X76" s="42">
-        <f t="shared" ref="X76" si="172">X70/X12</f>
+        <f t="shared" ref="X76" si="174">X70/X12</f>
         <v>32.815979381443299</v>
       </c>
     </row>
@@ -7953,47 +7953,47 @@
       <c r="E77" s="37"/>
       <c r="G77" s="37"/>
       <c r="I77" s="37">
-        <f>(I5+H5)/(I40-I49)</f>
+        <f t="shared" ref="I77:N77" si="175">(I5+H5)/(I40-I49)</f>
         <v>0.14066721115788153</v>
       </c>
       <c r="J77" s="38">
-        <f>(J5+I5)/(J40-J49)</f>
+        <f t="shared" si="175"/>
         <v>0.14773912509969936</v>
       </c>
       <c r="K77" s="37">
-        <f>(K5+J5)/(K40-K49)</f>
+        <f t="shared" si="175"/>
         <v>0.15753463709447516</v>
       </c>
       <c r="L77" s="38">
-        <f>(L5+K5)/(L40-L49)</f>
+        <f t="shared" si="175"/>
         <v>0.15214663684468929</v>
       </c>
       <c r="M77" s="37">
-        <f>(M5+L5)/(M40-M49)</f>
+        <f t="shared" si="175"/>
         <v>0.12516018795386588</v>
       </c>
       <c r="N77" s="38">
-        <f>(N5+M5)/(N40-N49)</f>
+        <f t="shared" si="175"/>
         <v>0.12602157567832623</v>
       </c>
       <c r="R77" s="37">
-        <f t="shared" ref="R77:S77" si="173">R5/(R40-R49)</f>
+        <f t="shared" ref="R77:S77" si="176">R5/(R40-R49)</f>
         <v>0.13433627891643282</v>
       </c>
       <c r="S77" s="37">
-        <f t="shared" si="173"/>
+        <f t="shared" si="176"/>
         <v>0.14217629553166489</v>
       </c>
       <c r="T77" s="37">
-        <f t="shared" ref="T77" si="174">T5/(T40-T49)</f>
+        <f t="shared" ref="T77" si="177">T5/(T40-T49)</f>
         <v>0.16375939849624055</v>
       </c>
       <c r="U77" s="37">
-        <f t="shared" ref="U77:V77" si="175">U5/(U40-U49)</f>
+        <f t="shared" ref="U77:V77" si="178">U5/(U40-U49)</f>
         <v>0.14366613320201896</v>
       </c>
       <c r="V77" s="37">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>0.14773912509969936</v>
       </c>
       <c r="W77" s="37">
@@ -8001,7 +8001,7 @@
         <v>0.15214663684468929</v>
       </c>
       <c r="X77" s="37">
-        <f t="shared" ref="X77" si="176">X5/(X40-X49)</f>
+        <f t="shared" ref="X77" si="179">X5/(X40-X49)</f>
         <v>0.12602157567832623</v>
       </c>
     </row>
@@ -8045,23 +8045,23 @@
       <c r="D1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="97" t="s">
         <v>43</v>
       </c>
       <c r="O1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="99" t="s">
+      <c r="P1" s="88" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D2" s="46"/>
-      <c r="E2" s="109"/>
+      <c r="E2" s="98"/>
       <c r="O2" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="P2" s="100">
+      <c r="P2" s="89">
         <v>45016</v>
       </c>
     </row>
@@ -8072,13 +8072,13 @@
       <c r="D3" s="48">
         <v>989.31499999999994</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="99">
         <v>977.3</v>
       </c>
       <c r="O3" s="48">
         <v>1864.8150000000001</v>
       </c>
-      <c r="P3" s="101">
+      <c r="P3" s="90">
         <v>1852.8</v>
       </c>
     </row>
@@ -8089,13 +8089,13 @@
       <c r="D4" s="48">
         <v>178.07669999999999</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="99">
         <v>156.69999999999999</v>
       </c>
       <c r="O4" s="48">
         <v>329.77670000000001</v>
       </c>
-      <c r="P4" s="101">
+      <c r="P4" s="90">
         <v>308.39999999999998</v>
       </c>
     </row>
@@ -8106,13 +8106,13 @@
       <c r="D5" s="49">
         <v>0</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="100">
         <v>-0.1</v>
       </c>
       <c r="O5" s="49">
         <v>0</v>
       </c>
-      <c r="P5" s="102">
+      <c r="P5" s="91">
         <v>-0.1</v>
       </c>
     </row>
@@ -8123,13 +8123,13 @@
       <c r="D6" s="49">
         <v>0</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="100">
         <v>0</v>
       </c>
       <c r="O6" s="49">
         <v>0</v>
       </c>
-      <c r="P6" s="102">
+      <c r="P6" s="91">
         <v>0</v>
       </c>
     </row>
@@ -8140,13 +8140,13 @@
       <c r="D7" s="49">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="100">
         <v>1</v>
       </c>
       <c r="O7" s="49">
         <v>1.2666666666666666</v>
       </c>
-      <c r="P7" s="102">
+      <c r="P7" s="91">
         <v>1.8</v>
       </c>
     </row>
@@ -8157,13 +8157,13 @@
       <c r="D8" s="49">
         <v>5.333333333333333</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="100">
         <v>-25.7</v>
       </c>
       <c r="O8" s="49">
         <v>12.333333333333332</v>
       </c>
-      <c r="P8" s="102">
+      <c r="P8" s="91">
         <v>-18.7</v>
       </c>
     </row>
@@ -8174,13 +8174,13 @@
       <c r="D9" s="49">
         <v>173.21003333333331</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="100">
         <v>183.29999999999998</v>
       </c>
       <c r="O9" s="49">
         <v>318.71003333333334</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P9" s="91">
         <v>328.79999999999995</v>
       </c>
     </row>
@@ -8191,13 +8191,13 @@
       <c r="D10" s="49">
         <v>36.374106999999995</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="100">
         <v>26.500000000000004</v>
       </c>
       <c r="O10" s="49">
         <v>67.074106999999998</v>
       </c>
-      <c r="P10" s="102">
+      <c r="P10" s="91">
         <v>57.2</v>
       </c>
     </row>
@@ -8208,13 +8208,13 @@
       <c r="D11" s="48">
         <v>136.8359263333333</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="99">
         <v>156.79999999999998</v>
       </c>
       <c r="O11" s="48">
         <v>251.63592633333334</v>
       </c>
-      <c r="P11" s="101">
+      <c r="P11" s="90">
         <v>271.59999999999997</v>
       </c>
     </row>
@@ -8225,13 +8225,13 @@
       <c r="D12" s="48">
         <v>136.97276225966664</v>
       </c>
-      <c r="E12" s="110">
+      <c r="E12" s="99">
         <v>156.39999999999998</v>
       </c>
       <c r="O12" s="48">
         <v>251.97276225966667</v>
       </c>
-      <c r="P12" s="101">
+      <c r="P12" s="90">
         <v>271.39999999999998</v>
       </c>
     </row>
@@ -8242,13 +8242,13 @@
       <c r="D13" s="49">
         <v>0.1368359263333333</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="100">
         <v>-0.4</v>
       </c>
       <c r="O13" s="49">
         <v>0.33683592633333331</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P13" s="91">
         <v>-0.2</v>
       </c>
     </row>
@@ -8259,13 +8259,13 @@
       <c r="D14" s="50">
         <v>0.36180837211352013</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="101">
         <v>0.41481481481481475</v>
       </c>
       <c r="O14" s="50">
         <v>0.66624210010488283</v>
       </c>
-      <c r="P14" s="103">
+      <c r="P14" s="92">
         <v>0.71851851851851845</v>
       </c>
     </row>
@@ -8276,21 +8276,21 @@
       <c r="D15" s="49">
         <v>378.2</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E15" s="100">
         <v>378</v>
       </c>
       <c r="O15" s="49">
         <v>378.2</v>
       </c>
-      <c r="P15" s="102">
+      <c r="P15" s="91">
         <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="53"/>
-      <c r="E16" s="113"/>
+      <c r="E16" s="102"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="104"/>
+      <c r="P16" s="93"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
@@ -8299,13 +8299,13 @@
       <c r="D17" s="51">
         <v>0.25531658418982373</v>
       </c>
-      <c r="E17" s="114">
+      <c r="E17" s="103">
         <v>0.24007105697246556</v>
       </c>
       <c r="O17" s="51">
         <v>0.22258899888546524</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="94">
         <v>0.21471185996197462</v>
       </c>
     </row>
@@ -8316,19 +8316,19 @@
       <c r="D18" s="52">
         <v>0.13</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="104">
         <v>0.11627641347801254</v>
       </c>
       <c r="O18" s="52"/>
-      <c r="P18" s="106" t="s">
+      <c r="P18" s="95" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D19" s="53"/>
-      <c r="E19" s="113"/>
+      <c r="E19" s="102"/>
       <c r="O19" s="53"/>
-      <c r="P19" s="104"/>
+      <c r="P19" s="93"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
@@ -8337,13 +8337,13 @@
       <c r="D20" s="52">
         <v>0.18</v>
       </c>
-      <c r="E20" s="115">
+      <c r="E20" s="104">
         <v>0.16033971144991302</v>
       </c>
       <c r="O20" s="52">
         <v>0.1768415097476157</v>
       </c>
-      <c r="P20" s="107">
+      <c r="P20" s="96">
         <v>0.16645077720207252</v>
       </c>
     </row>
@@ -8354,13 +8354,13 @@
       <c r="D21" s="52">
         <v>0.13831380938662946</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="104">
         <v>0.16044203417579042</v>
       </c>
       <c r="O21" s="52">
         <v>0.13493881502097169</v>
       </c>
-      <c r="P21" s="107">
+      <c r="P21" s="96">
         <v>0.14658894645941276</v>
       </c>
     </row>
@@ -8371,13 +8371,13 @@
       <c r="D22" s="52">
         <v>0.21</v>
       </c>
-      <c r="E22" s="115">
+      <c r="E22" s="104">
         <v>0.1445717403164212</v>
       </c>
       <c r="O22" s="52">
         <v>0.21045495900610178</v>
       </c>
-      <c r="P22" s="107">
+      <c r="P22" s="96">
         <v>0.1739659367396594</v>
       </c>
     </row>

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F302BD-176C-4355-94B8-A1A177000D46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923E2069-BC64-4BA8-B780-06DDC6A566E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>£HLMA</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>FTSE 100 Component</t>
+  </si>
+  <si>
+    <t>H124</t>
+  </si>
+  <si>
+    <t>H224</t>
   </si>
 </sst>
 </file>
@@ -827,16 +833,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,13 +1000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1344,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B37DFEF-2721-42A7-BBC6-F0639EC003A0}">
   <dimension ref="B2:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1434,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="8">
-        <f>'Financial Model'!X16</f>
+        <f>'Financial Model'!Z16</f>
         <v>378</v>
       </c>
       <c r="D7" s="6" t="str">
@@ -1495,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="8">
-        <f>'Financial Model'!X64</f>
+        <f>'Financial Model'!Z64</f>
         <v>192</v>
       </c>
       <c r="D9" s="6" t="str">
@@ -1528,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8">
-        <f>'Financial Model'!X65</f>
+        <f>'Financial Model'!Z65</f>
         <v>679.19999999999993</v>
       </c>
       <c r="D10" s="6" t="str">
@@ -1688,10 +1694,10 @@
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="111"/>
+      <c r="D16" s="109"/>
       <c r="G16" s="18"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1715,10 +1721,10 @@
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="111"/>
+      <c r="D17" s="109"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1742,8 +1748,8 @@
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
       <c r="G18" s="18"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1767,8 +1773,8 @@
       <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
       <c r="G19" s="18"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1842,10 +1848,10 @@
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="111"/>
+      <c r="D23" s="109"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -1864,10 +1870,10 @@
       <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="110">
+      <c r="C24" s="108">
         <v>1894</v>
       </c>
-      <c r="D24" s="111"/>
+      <c r="D24" s="109"/>
       <c r="G24" s="18"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1884,8 +1890,8 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
       <c r="G25" s="18"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -1902,8 +1908,8 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
       <c r="G26" s="18"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -1920,8 +1926,8 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
       <c r="G27" s="18"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -2038,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="114">
-        <f>C6/'Financial Model'!X62</f>
+        <f>C6/'Financial Model'!Z62</f>
         <v>5.1372443554944018</v>
       </c>
       <c r="D33" s="115"/>
@@ -2061,7 +2067,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="114">
-        <f>C8/'Financial Model'!X4</f>
+        <f>C8/'Financial Model'!Z4</f>
         <v>4.4332577720207258</v>
       </c>
       <c r="D34" s="115"/>
@@ -2084,7 +2090,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="114">
-        <f>C12/'Financial Model'!X4</f>
+        <f>C12/'Financial Model'!Z4</f>
         <v>4.6962111398963735</v>
       </c>
       <c r="D35" s="115"/>
@@ -2107,7 +2113,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="114">
-        <f>C6/'Financial Model'!X15</f>
+        <f>C6/'Financial Model'!Z15</f>
         <v>30.242783505154645</v>
       </c>
       <c r="D36" s="115"/>
@@ -2130,7 +2136,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="114">
-        <f>C12/'Financial Model'!X12</f>
+        <f>C12/'Financial Model'!Z12</f>
         <v>32.03659793814434</v>
       </c>
       <c r="D37" s="115"/>
@@ -2152,8 +2158,8 @@
       <c r="B38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="111"/>
       <c r="G38" s="20"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -2170,12 +2176,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="V5:Z5"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:S5"/>
@@ -2192,6 +2192,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{14EC5317-C73B-4350-A09D-C7641F7FCA8D}"/>
@@ -2204,13 +2210,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F5332D-7B2B-4D46-8BAA-4FBC91F2AA00}">
-  <dimension ref="A1:BU77"/>
+  <dimension ref="A1:BW77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2231,15 +2237,17 @@
     <col min="14" max="14" width="9.140625" style="28"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="9.140625" style="28"/>
-    <col min="17" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="9.140625" style="84"/>
-    <col min="25" max="35" width="9.140625" style="1"/>
-    <col min="36" max="36" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="28"/>
+    <col min="19" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="9.140625" style="84"/>
+    <col min="27" max="37" width="9.140625" style="1"/>
+    <col min="38" max="38" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:73" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:75" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>102</v>
       </c>
@@ -2282,126 +2290,133 @@
       <c r="P1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="U1" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="W1" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="Y1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="86" t="s">
+      <c r="Z1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AI1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:75" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="C2" s="31">
         <v>43008</v>
       </c>
       <c r="D2" s="54">
-        <f>S2</f>
+        <f>U2</f>
         <v>43190</v>
       </c>
       <c r="E2" s="31">
         <v>43373</v>
       </c>
       <c r="F2" s="54">
-        <f>T2</f>
+        <f>V2</f>
         <v>43555</v>
       </c>
       <c r="G2" s="31">
         <v>43738</v>
       </c>
       <c r="H2" s="54">
-        <f>U2</f>
+        <f>W2</f>
         <v>43921</v>
       </c>
       <c r="I2" s="31">
         <v>44104</v>
       </c>
       <c r="J2" s="54">
-        <f>V2</f>
+        <f>X2</f>
         <v>44286</v>
       </c>
       <c r="K2" s="31">
         <v>44469</v>
       </c>
       <c r="L2" s="54">
-        <f>W2</f>
+        <f>Y2</f>
         <v>44651</v>
       </c>
       <c r="M2" s="31">
         <v>44834</v>
       </c>
       <c r="N2" s="54">
-        <f>X2</f>
+        <f>Z2</f>
         <v>45016</v>
       </c>
       <c r="P2" s="26"/>
-      <c r="R2" s="31">
+      <c r="R2" s="26"/>
+      <c r="T2" s="31">
         <v>42826</v>
       </c>
-      <c r="S2" s="31">
+      <c r="U2" s="31">
         <v>43190</v>
       </c>
-      <c r="T2" s="31">
+      <c r="V2" s="31">
         <v>43555</v>
       </c>
-      <c r="U2" s="31">
+      <c r="W2" s="31">
         <v>43921</v>
       </c>
-      <c r="V2" s="31">
+      <c r="X2" s="31">
         <v>44286</v>
       </c>
-      <c r="W2" s="31">
+      <c r="Y2" s="31">
         <v>44651</v>
       </c>
-      <c r="X2" s="31">
+      <c r="Z2" s="31">
         <v>45016</v>
       </c>
     </row>
-    <row r="3" spans="2:73" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:75" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="D3" s="26"/>
       <c r="E3" s="30">
@@ -2409,7 +2424,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="H3" s="55">
-        <f>U3</f>
+        <f>W3</f>
         <v>44756</v>
       </c>
       <c r="I3" s="30">
@@ -2417,31 +2432,32 @@
       </c>
       <c r="J3" s="26"/>
       <c r="L3" s="55">
-        <f>W3</f>
+        <f>Y3</f>
         <v>44728</v>
       </c>
       <c r="M3" s="30">
         <v>44882</v>
       </c>
       <c r="N3" s="55">
-        <f>X3</f>
+        <f>Z3</f>
         <v>45092</v>
       </c>
       <c r="P3" s="26"/>
-      <c r="S3" s="30">
+      <c r="R3" s="26"/>
+      <c r="U3" s="30">
         <v>45089</v>
       </c>
-      <c r="U3" s="30">
+      <c r="W3" s="30">
         <v>44756</v>
       </c>
-      <c r="W3" s="30">
+      <c r="Y3" s="30">
         <v>44728</v>
       </c>
-      <c r="X3" s="87">
+      <c r="Z3" s="87">
         <v>45092</v>
       </c>
     </row>
-    <row r="4" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:75" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
@@ -2449,108 +2465,109 @@
         <v>506.3</v>
       </c>
       <c r="D4" s="33">
-        <f>S4-C4</f>
+        <f>U4-C4</f>
         <v>569.91100000000006</v>
       </c>
       <c r="E4" s="32">
         <v>585.5</v>
       </c>
       <c r="F4" s="33">
-        <f>T4-E4</f>
+        <f>V4-E4</f>
         <v>625.40000000000009</v>
       </c>
       <c r="G4" s="32">
         <v>653.70000000000005</v>
       </c>
       <c r="H4" s="33">
-        <f>U4-G4</f>
+        <f>W4-G4</f>
         <v>684.7</v>
       </c>
       <c r="I4" s="32">
         <v>618.4</v>
       </c>
       <c r="J4" s="33">
-        <f>V4-I4</f>
+        <f>X4-I4</f>
         <v>699.80000000000007</v>
       </c>
       <c r="K4" s="32">
         <v>737.2</v>
       </c>
       <c r="L4" s="33">
-        <f t="shared" ref="L4:L9" si="0">W4-K4</f>
+        <f t="shared" ref="L4:L9" si="0">Y4-K4</f>
         <v>788.09999999999991</v>
       </c>
       <c r="M4" s="32">
         <v>875.5</v>
       </c>
       <c r="N4" s="33">
-        <f>X4-M4</f>
+        <f>Z4-M4</f>
         <v>977.3</v>
       </c>
       <c r="P4" s="33"/>
-      <c r="R4" s="32">
+      <c r="R4" s="33"/>
+      <c r="T4" s="32">
         <v>961.66200000000003</v>
       </c>
-      <c r="S4" s="32">
+      <c r="U4" s="32">
         <v>1076.211</v>
       </c>
-      <c r="T4" s="32">
+      <c r="V4" s="32">
         <v>1210.9000000000001</v>
       </c>
-      <c r="U4" s="32">
+      <c r="W4" s="32">
         <v>1338.4</v>
       </c>
-      <c r="V4" s="32">
+      <c r="X4" s="32">
         <v>1318.2</v>
       </c>
-      <c r="W4" s="32">
+      <c r="Y4" s="32">
         <v>1525.3</v>
       </c>
-      <c r="X4" s="81">
+      <c r="Z4" s="81">
         <v>1852.8</v>
       </c>
-      <c r="Y4" s="32">
-        <f>X4*(1+Y18)</f>
+      <c r="AA4" s="32">
+        <f>Z4*(1+AA18)</f>
         <v>2186.3039999999996</v>
       </c>
-      <c r="Z4" s="32">
-        <f t="shared" ref="Z4:AH4" si="1">Y4*(1+Z18)</f>
+      <c r="AB4" s="32">
+        <f t="shared" ref="AB4:AJ4" si="1">AA4*(1+AB18)</f>
         <v>2514.2495999999992</v>
       </c>
-      <c r="AA4" s="32">
+      <c r="AC4" s="32">
         <f t="shared" si="1"/>
         <v>2841.1020479999988</v>
       </c>
-      <c r="AB4" s="32">
+      <c r="AD4" s="32">
         <f t="shared" si="1"/>
         <v>3153.623273279999</v>
       </c>
-      <c r="AC4" s="32">
+      <c r="AE4" s="32">
         <f t="shared" si="1"/>
         <v>3500.5218333407993</v>
       </c>
-      <c r="AD4" s="32">
+      <c r="AF4" s="32">
         <f t="shared" si="1"/>
         <v>3850.5740166748797</v>
       </c>
-      <c r="AE4" s="32">
+      <c r="AG4" s="32">
         <f t="shared" si="1"/>
         <v>4235.6314183423683</v>
       </c>
-      <c r="AF4" s="32">
+      <c r="AH4" s="32">
         <f t="shared" si="1"/>
         <v>4659.1945601766056</v>
       </c>
-      <c r="AG4" s="32">
+      <c r="AI4" s="32">
         <f t="shared" si="1"/>
         <v>5125.1140161942667</v>
       </c>
-      <c r="AH4" s="32">
+      <c r="AJ4" s="32">
         <f t="shared" si="1"/>
         <v>5637.6254178136942</v>
       </c>
     </row>
-    <row r="5" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:75" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="32" t="s">
         <v>61</v>
       </c>
@@ -2558,28 +2575,28 @@
         <v>81.8</v>
       </c>
       <c r="D5" s="33">
-        <f>S5-C5</f>
+        <f>U5-C5</f>
         <v>99.458000000000013</v>
       </c>
       <c r="E5" s="32">
         <v>100.4</v>
       </c>
       <c r="F5" s="33">
-        <f>T5-E5</f>
+        <f>V5-E5</f>
         <v>117.4</v>
       </c>
       <c r="G5" s="32">
         <v>111.6</v>
       </c>
       <c r="H5" s="33">
-        <f>U5-G5</f>
+        <f>W5-G5</f>
         <v>121.80000000000001</v>
       </c>
       <c r="I5" s="32">
         <v>102.1</v>
       </c>
       <c r="J5" s="33">
-        <f>V5-I5</f>
+        <f>X5-I5</f>
         <v>138.70000000000002</v>
       </c>
       <c r="K5" s="32">
@@ -2593,73 +2610,74 @@
         <v>151.69999999999999</v>
       </c>
       <c r="N5" s="33">
-        <f>X5-M5</f>
+        <f>Z5-M5</f>
         <v>156.69999999999999</v>
       </c>
       <c r="P5" s="33"/>
-      <c r="R5" s="32">
+      <c r="R5" s="33"/>
+      <c r="T5" s="32">
         <v>167.07</v>
       </c>
-      <c r="S5" s="32">
+      <c r="U5" s="32">
         <v>181.25800000000001</v>
       </c>
-      <c r="T5" s="32">
+      <c r="V5" s="32">
         <v>217.8</v>
       </c>
-      <c r="U5" s="32">
+      <c r="W5" s="32">
         <v>233.4</v>
       </c>
-      <c r="V5" s="32">
+      <c r="X5" s="32">
         <v>240.8</v>
       </c>
-      <c r="W5" s="32">
+      <c r="Y5" s="32">
         <v>278.89999999999998</v>
       </c>
-      <c r="X5" s="81">
+      <c r="Z5" s="81">
         <v>308.39999999999998</v>
       </c>
-      <c r="Y5" s="32">
-        <f>Y4*0.18</f>
+      <c r="AA5" s="32">
+        <f>AA4*0.18</f>
         <v>393.53471999999994</v>
       </c>
-      <c r="Z5" s="32">
-        <f t="shared" ref="Z5:AH5" si="2">Z4*0.18</f>
+      <c r="AB5" s="32">
+        <f t="shared" ref="AB5:AJ5" si="2">AB4*0.18</f>
         <v>452.56492799999984</v>
       </c>
-      <c r="AA5" s="32">
+      <c r="AC5" s="32">
         <f t="shared" si="2"/>
         <v>511.39836863999977</v>
       </c>
-      <c r="AB5" s="32">
+      <c r="AD5" s="32">
         <f t="shared" si="2"/>
         <v>567.65218919039978</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AE5" s="32">
         <f t="shared" si="2"/>
         <v>630.09393000134389</v>
       </c>
-      <c r="AD5" s="32">
+      <c r="AF5" s="32">
         <f t="shared" si="2"/>
         <v>693.10332300147832</v>
       </c>
-      <c r="AE5" s="32">
+      <c r="AG5" s="32">
         <f t="shared" si="2"/>
         <v>762.41365530162625</v>
       </c>
-      <c r="AF5" s="32">
+      <c r="AH5" s="32">
         <f t="shared" si="2"/>
         <v>838.65502083178899</v>
       </c>
-      <c r="AG5" s="32">
+      <c r="AI5" s="32">
         <f t="shared" si="2"/>
         <v>922.52052291496796</v>
       </c>
-      <c r="AH5" s="32">
+      <c r="AJ5" s="32">
         <f t="shared" si="2"/>
         <v>1014.7725752064649</v>
       </c>
     </row>
-    <row r="6" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>62</v>
       </c>
@@ -2667,28 +2685,28 @@
         <v>-0.1</v>
       </c>
       <c r="D6" s="34">
-        <f>S6-C6</f>
+        <f>U6-C6</f>
         <v>-0.21</v>
       </c>
       <c r="E6" s="8">
         <v>-0.1</v>
       </c>
       <c r="F6" s="34">
-        <f>T6-E6</f>
+        <f>V6-E6</f>
         <v>0</v>
       </c>
       <c r="G6" s="8">
         <v>-0.1</v>
       </c>
       <c r="H6" s="34">
-        <f>U6-G6</f>
+        <f>W6-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="8">
         <v>0</v>
       </c>
       <c r="J6" s="34">
-        <f>V6-I6</f>
+        <f>X6-I6</f>
         <v>0</v>
       </c>
       <c r="K6" s="8">
@@ -2702,36 +2720,31 @@
         <v>0</v>
       </c>
       <c r="N6" s="34">
-        <f>X6-M6</f>
+        <f>Z6-M6</f>
         <v>-0.1</v>
       </c>
       <c r="P6" s="34"/>
-      <c r="R6" s="8">
+      <c r="R6" s="34"/>
+      <c r="T6" s="8">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="S6" s="8">
+      <c r="U6" s="8">
         <v>-0.31</v>
       </c>
-      <c r="T6" s="8">
+      <c r="V6" s="8">
         <v>-0.1</v>
-      </c>
-      <c r="U6" s="8">
-        <v>-0.1</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
       </c>
       <c r="W6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="X6" s="82">
+      <c r="X6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="8">
         <v>-0.1</v>
       </c>
-      <c r="Y6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>0</v>
+      <c r="Z6" s="82">
+        <v>-0.1</v>
       </c>
       <c r="AA6" s="8">
         <v>0</v>
@@ -2757,8 +2770,14 @@
       <c r="AH6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>63</v>
       </c>
@@ -2766,28 +2785,28 @@
         <v>0</v>
       </c>
       <c r="D7" s="34">
-        <f t="shared" ref="D7:D11" si="3">S7-C7</f>
+        <f t="shared" ref="D7:D11" si="3">U7-C7</f>
         <v>0.71899999999999997</v>
       </c>
       <c r="E7" s="8">
         <v>-0.9</v>
       </c>
       <c r="F7" s="34">
-        <f t="shared" ref="F7:F11" si="4">T7-E7</f>
+        <f t="shared" ref="F7:F11" si="4">V7-E7</f>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" s="34">
-        <f t="shared" ref="H7:H11" si="5">U7-G7</f>
+        <f t="shared" ref="H7:H11" si="5">W7-G7</f>
         <v>2.9</v>
       </c>
       <c r="I7" s="8">
         <v>0</v>
       </c>
       <c r="J7" s="34">
-        <f t="shared" ref="J7:J11" si="6">V7-I7</f>
+        <f t="shared" ref="J7:J11" si="6">X7-I7</f>
         <v>22.1</v>
       </c>
       <c r="K7" s="8">
@@ -2801,35 +2820,30 @@
         <v>0</v>
       </c>
       <c r="N7" s="34">
-        <f t="shared" ref="N7:N11" si="7">X7-M7</f>
+        <f t="shared" ref="N7:N11" si="7">Z7-M7</f>
         <v>0</v>
       </c>
       <c r="P7" s="34"/>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
+      <c r="R7" s="34"/>
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
         <v>0.71899999999999997</v>
       </c>
-      <c r="T7" s="8">
+      <c r="V7" s="8">
         <v>-1</v>
       </c>
-      <c r="U7" s="8">
+      <c r="W7" s="8">
         <v>2.9</v>
       </c>
-      <c r="V7" s="8">
+      <c r="X7" s="8">
         <v>22.1</v>
       </c>
-      <c r="W7" s="8">
+      <c r="Y7" s="8">
         <v>34</v>
       </c>
-      <c r="X7" s="82">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="82">
         <v>0</v>
       </c>
       <c r="AA7" s="8">
@@ -2856,8 +2870,14 @@
       <c r="AH7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>64</v>
       </c>
@@ -2904,69 +2924,70 @@
         <v>1</v>
       </c>
       <c r="P8" s="34"/>
-      <c r="R8" s="8">
+      <c r="R8" s="34"/>
+      <c r="T8" s="8">
         <v>0.49399999999999999</v>
       </c>
-      <c r="S8" s="8">
+      <c r="U8" s="8">
         <v>0.29499999999999998</v>
       </c>
-      <c r="T8" s="8">
+      <c r="V8" s="8">
         <v>0.5</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="V8" s="8">
-        <v>1</v>
       </c>
       <c r="W8" s="8">
         <v>0.6</v>
       </c>
-      <c r="X8" s="82">
+      <c r="X8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="Z8" s="82">
         <v>1.8</v>
       </c>
-      <c r="Y8" s="8">
-        <f t="shared" ref="Y8" si="8">AVERAGE(V8:X8)</f>
+      <c r="AA8" s="8">
+        <f t="shared" ref="AA8" si="8">AVERAGE(X8:Z8)</f>
         <v>1.1333333333333335</v>
       </c>
-      <c r="Z8" s="8">
-        <f t="shared" ref="Z8" si="9">AVERAGE(W8:Y8)</f>
+      <c r="AB8" s="8">
+        <f t="shared" ref="AB8" si="9">AVERAGE(Y8:AA8)</f>
         <v>1.1777777777777778</v>
       </c>
-      <c r="AA8" s="8">
-        <f t="shared" ref="AA8" si="10">AVERAGE(X8:Z8)</f>
+      <c r="AC8" s="8">
+        <f t="shared" ref="AC8" si="10">AVERAGE(Z8:AB8)</f>
         <v>1.3703703703703705</v>
       </c>
-      <c r="AB8" s="8">
-        <f t="shared" ref="AB8" si="11">AVERAGE(Y8:AA8)</f>
+      <c r="AD8" s="8">
+        <f t="shared" ref="AD8" si="11">AVERAGE(AA8:AC8)</f>
         <v>1.2271604938271607</v>
       </c>
-      <c r="AC8" s="8">
-        <f t="shared" ref="AC8" si="12">AVERAGE(Z8:AB8)</f>
+      <c r="AE8" s="8">
+        <f t="shared" ref="AE8" si="12">AVERAGE(AB8:AD8)</f>
         <v>1.2584362139917697</v>
       </c>
-      <c r="AD8" s="8">
-        <f t="shared" ref="AD8" si="13">AVERAGE(AA8:AC8)</f>
+      <c r="AF8" s="8">
+        <f t="shared" ref="AF8" si="13">AVERAGE(AC8:AE8)</f>
         <v>1.2853223593964336</v>
       </c>
-      <c r="AE8" s="8">
-        <f t="shared" ref="AE8" si="14">AVERAGE(AB8:AD8)</f>
+      <c r="AG8" s="8">
+        <f t="shared" ref="AG8" si="14">AVERAGE(AD8:AF8)</f>
         <v>1.2569730224051214</v>
       </c>
-      <c r="AF8" s="8">
-        <f t="shared" ref="AF8" si="15">AVERAGE(AC8:AE8)</f>
+      <c r="AH8" s="8">
+        <f t="shared" ref="AH8" si="15">AVERAGE(AE8:AG8)</f>
         <v>1.2669105319311083</v>
       </c>
-      <c r="AG8" s="8">
-        <f t="shared" ref="AG8" si="16">AVERAGE(AD8:AF8)</f>
+      <c r="AI8" s="8">
+        <f t="shared" ref="AI8" si="16">AVERAGE(AF8:AH8)</f>
         <v>1.2697353045775543</v>
       </c>
-      <c r="AH8" s="8">
-        <f t="shared" ref="AH8" si="17">AVERAGE(AE8:AG8)</f>
+      <c r="AJ8" s="8">
+        <f t="shared" ref="AJ8" si="17">AVERAGE(AG8:AI8)</f>
         <v>1.2645396196379279</v>
       </c>
     </row>
-    <row r="9" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
@@ -3013,69 +3034,70 @@
         <v>-25.7</v>
       </c>
       <c r="P9" s="34"/>
-      <c r="R9" s="8">
+      <c r="R9" s="34"/>
+      <c r="T9" s="8">
         <v>9.7799999999999994</v>
       </c>
-      <c r="S9" s="8">
+      <c r="U9" s="8">
         <v>10.013</v>
       </c>
-      <c r="T9" s="8">
+      <c r="V9" s="8">
         <v>10.5</v>
       </c>
-      <c r="U9" s="8">
+      <c r="W9" s="8">
         <v>12.7</v>
       </c>
-      <c r="V9" s="8">
+      <c r="X9" s="8">
         <v>11</v>
       </c>
-      <c r="W9" s="8">
+      <c r="Y9" s="8">
         <v>9</v>
       </c>
-      <c r="X9" s="82">
+      <c r="Z9" s="82">
         <v>-18.7</v>
       </c>
-      <c r="Y9" s="8">
-        <f>AVERAGE(V9:X9)</f>
+      <c r="AA9" s="8">
+        <f>AVERAGE(X9:Z9)</f>
         <v>0.43333333333333357</v>
       </c>
-      <c r="Z9" s="8">
-        <f t="shared" ref="Z9:AH9" si="18">AVERAGE(W9:Y9)</f>
+      <c r="AB9" s="8">
+        <f t="shared" ref="AB9:AJ9" si="18">AVERAGE(Y9:AA9)</f>
         <v>-3.0888888888888886</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AC9" s="8">
         <f t="shared" si="18"/>
         <v>-7.1185185185185178</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AD9" s="8">
         <f t="shared" si="18"/>
         <v>-3.258024691358024</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AE9" s="8">
         <f t="shared" si="18"/>
         <v>-4.4884773662551432</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AF9" s="8">
         <f t="shared" si="18"/>
         <v>-4.9550068587105613</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AG9" s="8">
         <f t="shared" si="18"/>
         <v>-4.2338363054412431</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AH9" s="8">
         <f t="shared" si="18"/>
         <v>-4.5591068434689825</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AI9" s="8">
         <f t="shared" si="18"/>
         <v>-4.5826500025402623</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AJ9" s="8">
         <f t="shared" si="18"/>
         <v>-4.4585310504834963</v>
       </c>
     </row>
-    <row r="10" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>66</v>
       </c>
@@ -3128,76 +3150,77 @@
         <v>183.29999999999998</v>
       </c>
       <c r="P10" s="34"/>
-      <c r="R10" s="8">
-        <f t="shared" ref="R10:X10" si="20">R5+R6+R7+R8-R9</f>
+      <c r="R10" s="34"/>
+      <c r="T10" s="8">
+        <f t="shared" ref="T10:Z10" si="20">T5+T6+T7+T8-T9</f>
         <v>157.703</v>
       </c>
-      <c r="S10" s="8">
+      <c r="U10" s="8">
         <f t="shared" si="20"/>
         <v>171.94899999999998</v>
       </c>
-      <c r="T10" s="8">
+      <c r="V10" s="8">
         <f t="shared" si="20"/>
         <v>206.70000000000002</v>
       </c>
-      <c r="U10" s="8">
+      <c r="W10" s="8">
         <f t="shared" si="20"/>
         <v>224.10000000000002</v>
       </c>
-      <c r="V10" s="8">
+      <c r="X10" s="8">
         <f t="shared" si="20"/>
         <v>252.90000000000003</v>
       </c>
-      <c r="W10" s="8">
+      <c r="Y10" s="8">
         <f t="shared" si="20"/>
         <v>304.39999999999998</v>
       </c>
-      <c r="X10" s="8">
+      <c r="Z10" s="8">
         <f t="shared" si="20"/>
         <v>328.79999999999995</v>
       </c>
-      <c r="Y10" s="8">
-        <f t="shared" ref="Y10:AH10" si="21">Y5+Y6+Y7+Y8-Y9</f>
+      <c r="AA10" s="8">
+        <f t="shared" ref="AA10:AJ10" si="21">AA5+AA6+AA7+AA8-AA9</f>
         <v>394.23471999999992</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="AB10" s="8">
         <f t="shared" si="21"/>
         <v>456.83159466666655</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AC10" s="8">
         <f t="shared" si="21"/>
         <v>519.88725752888865</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AD10" s="8">
         <f t="shared" si="21"/>
         <v>572.13737437558495</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AE10" s="8">
         <f t="shared" si="21"/>
         <v>635.84084358159078</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AF10" s="8">
         <f t="shared" si="21"/>
         <v>699.34365221958535</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AG10" s="8">
         <f t="shared" si="21"/>
         <v>767.90446462947261</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AH10" s="8">
         <f t="shared" si="21"/>
         <v>844.48103820718904</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AI10" s="8">
         <f t="shared" si="21"/>
         <v>928.37290822208581</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AJ10" s="8">
         <f t="shared" si="21"/>
         <v>1020.4956458765864</v>
       </c>
     </row>
-    <row r="11" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
@@ -3233,7 +3256,7 @@
         <v>31.8</v>
       </c>
       <c r="L11" s="34">
-        <f>W11-K11</f>
+        <f>Y11-K11</f>
         <v>28.400000000000002</v>
       </c>
       <c r="M11" s="8">
@@ -3244,69 +3267,70 @@
         <v>26.500000000000004</v>
       </c>
       <c r="P11" s="34"/>
-      <c r="R11" s="8">
+      <c r="R11" s="34"/>
+      <c r="T11" s="8">
         <v>28.013999999999999</v>
       </c>
-      <c r="S11" s="8">
+      <c r="U11" s="8">
         <v>17.721</v>
       </c>
-      <c r="T11" s="8">
+      <c r="V11" s="8">
         <v>36.9</v>
       </c>
-      <c r="U11" s="8">
+      <c r="W11" s="8">
         <v>39.700000000000003</v>
       </c>
-      <c r="V11" s="8">
+      <c r="X11" s="8">
         <v>49.6</v>
       </c>
-      <c r="W11" s="8">
+      <c r="Y11" s="8">
         <v>60.2</v>
       </c>
-      <c r="X11" s="82">
+      <c r="Z11" s="82">
         <v>57.2</v>
       </c>
-      <c r="Y11" s="8">
-        <f>Y10*Y23</f>
+      <c r="AA11" s="8">
+        <f>AA10*AA23</f>
         <v>82.78929119999998</v>
       </c>
-      <c r="Z11" s="8">
-        <f t="shared" ref="Z11:AH11" si="22">Z10*Z23</f>
+      <c r="AB11" s="8">
+        <f t="shared" ref="AB11:AJ11" si="22">AB10*AB23</f>
         <v>95.934634879999976</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AC11" s="8">
         <f t="shared" si="22"/>
         <v>109.17632408106661</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AD11" s="8">
         <f t="shared" si="22"/>
         <v>120.14884861887283</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AE11" s="8">
         <f t="shared" si="22"/>
         <v>133.52657715213405</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AF11" s="8">
         <f t="shared" si="22"/>
         <v>146.86216696611291</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AG11" s="8">
         <f t="shared" si="22"/>
         <v>161.25993757218924</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AH11" s="8">
         <f t="shared" si="22"/>
         <v>177.34101802350969</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AI11" s="8">
         <f t="shared" si="22"/>
         <v>194.95831072663802</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AJ11" s="8">
         <f t="shared" si="22"/>
         <v>214.30408563408315</v>
       </c>
     </row>
-    <row r="12" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:75" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>68</v>
       </c>
@@ -3359,232 +3383,233 @@
         <v>156.79999999999998</v>
       </c>
       <c r="P12" s="33"/>
-      <c r="R12" s="32">
-        <f t="shared" ref="R12:X12" si="24">R10-R11</f>
+      <c r="R12" s="33"/>
+      <c r="T12" s="32">
+        <f t="shared" ref="T12:Z12" si="24">T10-T11</f>
         <v>129.68899999999999</v>
       </c>
-      <c r="S12" s="32">
+      <c r="U12" s="32">
         <f t="shared" si="24"/>
         <v>154.22799999999998</v>
       </c>
-      <c r="T12" s="32">
+      <c r="V12" s="32">
         <f t="shared" si="24"/>
         <v>169.8</v>
       </c>
-      <c r="U12" s="32">
+      <c r="W12" s="32">
         <f t="shared" si="24"/>
         <v>184.40000000000003</v>
       </c>
-      <c r="V12" s="32">
+      <c r="X12" s="32">
         <f t="shared" si="24"/>
         <v>203.30000000000004</v>
       </c>
-      <c r="W12" s="32">
+      <c r="Y12" s="32">
         <f t="shared" si="24"/>
         <v>244.2</v>
       </c>
-      <c r="X12" s="32">
+      <c r="Z12" s="32">
         <f t="shared" si="24"/>
         <v>271.59999999999997</v>
       </c>
-      <c r="Y12" s="32">
-        <f t="shared" ref="Y12:AH12" si="25">Y10-Y11</f>
+      <c r="AA12" s="32">
+        <f t="shared" ref="AA12:AJ12" si="25">AA10-AA11</f>
         <v>311.44542879999995</v>
       </c>
-      <c r="Z12" s="32">
+      <c r="AB12" s="32">
         <f t="shared" si="25"/>
         <v>360.89695978666657</v>
       </c>
-      <c r="AA12" s="32">
+      <c r="AC12" s="32">
         <f t="shared" si="25"/>
         <v>410.71093344782207</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AD12" s="32">
         <f t="shared" si="25"/>
         <v>451.98852575671214</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AE12" s="32">
         <f t="shared" si="25"/>
         <v>502.31426642945672</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AF12" s="32">
         <f t="shared" si="25"/>
         <v>552.48148525347244</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AG12" s="32">
         <f t="shared" si="25"/>
         <v>606.64452705728331</v>
       </c>
-      <c r="AF12" s="32">
+      <c r="AH12" s="32">
         <f t="shared" si="25"/>
         <v>667.14002018367933</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AI12" s="32">
         <f t="shared" si="25"/>
         <v>733.41459749544777</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AJ12" s="32">
         <f t="shared" si="25"/>
         <v>806.19156024250333</v>
       </c>
-      <c r="AI12" s="32">
-        <f>AH12*(1+$AK$21)</f>
+      <c r="AK12" s="32">
+        <f>AJ12*(1+$AM$21)</f>
         <v>798.12964464007825</v>
       </c>
-      <c r="AJ12" s="32">
-        <f t="shared" ref="AJ12:BU12" si="26">AI12*(1+$AK$21)</f>
+      <c r="AL12" s="32">
+        <f t="shared" ref="AL12:BW12" si="26">AK12*(1+$AM$21)</f>
         <v>790.14834819367752</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AM12" s="32">
         <f t="shared" si="26"/>
         <v>782.24686471174073</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AN12" s="32">
         <f t="shared" si="26"/>
         <v>774.42439606462335</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AO12" s="32">
         <f t="shared" si="26"/>
         <v>766.68015210397709</v>
       </c>
-      <c r="AN12" s="32">
+      <c r="AP12" s="32">
         <f t="shared" si="26"/>
         <v>759.01335058293728</v>
       </c>
-      <c r="AO12" s="32">
+      <c r="AQ12" s="32">
         <f t="shared" si="26"/>
         <v>751.42321707710789</v>
       </c>
-      <c r="AP12" s="32">
+      <c r="AR12" s="32">
         <f t="shared" si="26"/>
         <v>743.90898490633685</v>
       </c>
-      <c r="AQ12" s="32">
+      <c r="AS12" s="32">
         <f t="shared" si="26"/>
         <v>736.46989505727345</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AT12" s="32">
         <f t="shared" si="26"/>
         <v>729.10519610670076</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AU12" s="32">
         <f t="shared" si="26"/>
         <v>721.81414414563369</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AV12" s="32">
         <f t="shared" si="26"/>
         <v>714.59600270417729</v>
       </c>
-      <c r="AU12" s="32">
+      <c r="AW12" s="32">
         <f t="shared" si="26"/>
         <v>707.45004267713557</v>
       </c>
-      <c r="AV12" s="32">
+      <c r="AX12" s="32">
         <f t="shared" si="26"/>
         <v>700.37554225036422</v>
       </c>
-      <c r="AW12" s="32">
+      <c r="AY12" s="32">
         <f t="shared" si="26"/>
         <v>693.37178682786055</v>
       </c>
-      <c r="AX12" s="32">
+      <c r="AZ12" s="32">
         <f t="shared" si="26"/>
         <v>686.43806895958198</v>
       </c>
-      <c r="AY12" s="32">
+      <c r="BA12" s="32">
         <f t="shared" si="26"/>
         <v>679.57368826998618</v>
       </c>
-      <c r="AZ12" s="32">
+      <c r="BB12" s="32">
         <f t="shared" si="26"/>
         <v>672.77795138728629</v>
       </c>
-      <c r="BA12" s="32">
+      <c r="BC12" s="32">
         <f t="shared" si="26"/>
         <v>666.05017187341343</v>
       </c>
-      <c r="BB12" s="32">
+      <c r="BD12" s="32">
         <f t="shared" si="26"/>
         <v>659.38967015467927</v>
       </c>
-      <c r="BC12" s="32">
+      <c r="BE12" s="32">
         <f t="shared" si="26"/>
         <v>652.79577345313248</v>
       </c>
-      <c r="BD12" s="32">
+      <c r="BF12" s="32">
         <f t="shared" si="26"/>
         <v>646.26781571860113</v>
       </c>
-      <c r="BE12" s="32">
+      <c r="BG12" s="32">
         <f t="shared" si="26"/>
         <v>639.80513756141511</v>
       </c>
-      <c r="BF12" s="32">
+      <c r="BH12" s="32">
         <f t="shared" si="26"/>
         <v>633.40708618580095</v>
       </c>
-      <c r="BG12" s="32">
+      <c r="BI12" s="32">
         <f t="shared" si="26"/>
         <v>627.07301532394297</v>
       </c>
-      <c r="BH12" s="32">
+      <c r="BJ12" s="32">
         <f t="shared" si="26"/>
         <v>620.8022851707035</v>
       </c>
-      <c r="BI12" s="32">
+      <c r="BK12" s="32">
         <f t="shared" si="26"/>
         <v>614.59426231899647</v>
       </c>
-      <c r="BJ12" s="32">
+      <c r="BL12" s="32">
         <f t="shared" si="26"/>
         <v>608.4483196958065</v>
       </c>
-      <c r="BK12" s="32">
+      <c r="BM12" s="32">
         <f t="shared" si="26"/>
         <v>602.3638364988484</v>
       </c>
-      <c r="BL12" s="32">
+      <c r="BN12" s="32">
         <f t="shared" si="26"/>
         <v>596.34019813385987</v>
       </c>
-      <c r="BM12" s="32">
+      <c r="BO12" s="32">
         <f t="shared" si="26"/>
         <v>590.37679615252125</v>
       </c>
-      <c r="BN12" s="32">
+      <c r="BP12" s="32">
         <f t="shared" si="26"/>
         <v>584.47302819099605</v>
       </c>
-      <c r="BO12" s="32">
+      <c r="BQ12" s="32">
         <f t="shared" si="26"/>
         <v>578.62829790908609</v>
       </c>
-      <c r="BP12" s="32">
+      <c r="BR12" s="32">
         <f t="shared" si="26"/>
         <v>572.84201492999523</v>
       </c>
-      <c r="BQ12" s="32">
+      <c r="BS12" s="32">
         <f t="shared" si="26"/>
         <v>567.11359478069528</v>
       </c>
-      <c r="BR12" s="32">
+      <c r="BT12" s="32">
         <f t="shared" si="26"/>
         <v>561.44245883288829</v>
       </c>
-      <c r="BS12" s="32">
+      <c r="BU12" s="32">
         <f t="shared" si="26"/>
         <v>555.82803424455938</v>
       </c>
-      <c r="BT12" s="32">
+      <c r="BV12" s="32">
         <f t="shared" si="26"/>
         <v>550.26975390211373</v>
       </c>
-      <c r="BU12" s="32">
+      <c r="BW12" s="32">
         <f t="shared" si="26"/>
         <v>544.76705636309259</v>
       </c>
     </row>
-    <row r="13" spans="2:73" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:75" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>71</v>
       </c>
@@ -3637,76 +3662,77 @@
         <v>156.39999999999998</v>
       </c>
       <c r="P13" s="33"/>
-      <c r="R13" s="32">
-        <f t="shared" ref="R13:S13" si="28">R12+R14</f>
+      <c r="R13" s="33"/>
+      <c r="T13" s="32">
+        <f t="shared" ref="T13:U13" si="28">T12+T14</f>
         <v>129.68899999999999</v>
       </c>
-      <c r="S13" s="32">
+      <c r="U13" s="32">
         <f t="shared" si="28"/>
         <v>154.22799999999998</v>
       </c>
-      <c r="T13" s="32">
-        <f t="shared" ref="T13:Y13" si="29">T12+T14</f>
+      <c r="V13" s="32">
+        <f t="shared" ref="V13:AA13" si="29">V12+V14</f>
         <v>169.8</v>
       </c>
-      <c r="U13" s="32">
+      <c r="W13" s="32">
         <f t="shared" si="29"/>
         <v>184.40000000000003</v>
       </c>
-      <c r="V13" s="32">
+      <c r="X13" s="32">
         <f t="shared" si="29"/>
         <v>203.20000000000005</v>
       </c>
-      <c r="W13" s="32">
+      <c r="Y13" s="32">
         <f t="shared" si="29"/>
         <v>244</v>
       </c>
-      <c r="X13" s="32">
+      <c r="Z13" s="32">
         <f t="shared" si="29"/>
         <v>271.39999999999998</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="AA13" s="32">
         <f t="shared" si="29"/>
         <v>311.48591670574393</v>
       </c>
-      <c r="Z13" s="32">
-        <f t="shared" ref="Z13:AH13" si="30">Z12+Z14</f>
+      <c r="AB13" s="32">
+        <f t="shared" ref="AB13:AJ13" si="30">AB12+AB14</f>
         <v>360.94387639143883</v>
       </c>
-      <c r="AA13" s="32">
+      <c r="AC13" s="32">
         <f t="shared" si="30"/>
         <v>410.76432586917031</v>
       </c>
-      <c r="AB13" s="32">
+      <c r="AD13" s="32">
         <f t="shared" si="30"/>
         <v>452.04728426506051</v>
       </c>
-      <c r="AC13" s="32">
+      <c r="AE13" s="32">
         <f t="shared" si="30"/>
         <v>502.37956728409256</v>
       </c>
-      <c r="AD13" s="32">
+      <c r="AF13" s="32">
         <f t="shared" si="30"/>
         <v>552.55330784655541</v>
       </c>
-      <c r="AE13" s="32">
+      <c r="AG13" s="32">
         <f t="shared" si="30"/>
         <v>606.72339084580074</v>
       </c>
-      <c r="AF13" s="32">
+      <c r="AH13" s="32">
         <f t="shared" si="30"/>
         <v>667.22674838630326</v>
       </c>
-      <c r="AG13" s="32">
+      <c r="AI13" s="32">
         <f t="shared" si="30"/>
         <v>733.50994139312218</v>
       </c>
-      <c r="AH13" s="32">
+      <c r="AJ13" s="32">
         <f t="shared" si="30"/>
         <v>806.2963651453349</v>
       </c>
     </row>
-    <row r="14" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>69</v>
       </c>
@@ -3714,51 +3740,46 @@
         <v>0</v>
       </c>
       <c r="D14" s="34">
-        <f>S14-C14</f>
+        <f>U14-C14</f>
         <v>0</v>
       </c>
       <c r="E14" s="44">
         <v>0</v>
       </c>
       <c r="F14" s="34">
-        <f>T14-E14</f>
+        <f>V14-E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="44">
         <v>0</v>
       </c>
       <c r="H14" s="34">
-        <f t="shared" ref="H14" si="31">U14-G14</f>
+        <f t="shared" ref="H14" si="31">W14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="44">
         <v>0</v>
       </c>
       <c r="J14" s="34">
-        <f>V14-I14</f>
+        <f>X14-I14</f>
         <v>-0.1</v>
       </c>
       <c r="K14" s="8">
         <v>0.1</v>
       </c>
       <c r="L14" s="34">
-        <f>W14-K14</f>
+        <f>Y14-K14</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="M14" s="8">
         <v>0.2</v>
       </c>
       <c r="N14" s="34">
-        <f>X14-M14</f>
+        <f>Z14-M14</f>
         <v>-0.4</v>
       </c>
       <c r="P14" s="34"/>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
-        <v>0</v>
-      </c>
+      <c r="R14" s="34"/>
       <c r="T14" s="8">
         <v>0</v>
       </c>
@@ -3766,56 +3787,62 @@
         <v>0</v>
       </c>
       <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
         <v>-0.1</v>
       </c>
-      <c r="W14" s="8">
+      <c r="Y14" s="8">
         <v>-0.2</v>
       </c>
-      <c r="X14" s="82">
+      <c r="Z14" s="82">
         <v>-0.2</v>
       </c>
-      <c r="Y14" s="8">
-        <f>Y12*0.00013</f>
+      <c r="AA14" s="8">
+        <f>AA12*0.00013</f>
         <v>4.0487905743999991E-2</v>
       </c>
-      <c r="Z14" s="8">
-        <f t="shared" ref="Z14:AH14" si="32">Z12*0.00013</f>
+      <c r="AB14" s="8">
+        <f t="shared" ref="AB14:AJ14" si="32">AB12*0.00013</f>
         <v>4.6916604772266647E-2</v>
       </c>
-      <c r="AA14" s="8">
+      <c r="AC14" s="8">
         <f t="shared" si="32"/>
         <v>5.3392421348216867E-2</v>
       </c>
-      <c r="AB14" s="8">
+      <c r="AD14" s="8">
         <f t="shared" si="32"/>
         <v>5.8758508348372575E-2</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AE14" s="8">
         <f t="shared" si="32"/>
         <v>6.5300854635829367E-2</v>
       </c>
-      <c r="AD14" s="8">
+      <c r="AF14" s="8">
         <f t="shared" si="32"/>
         <v>7.1822593082951414E-2</v>
       </c>
-      <c r="AE14" s="8">
+      <c r="AG14" s="8">
         <f t="shared" si="32"/>
         <v>7.8863788517446826E-2</v>
       </c>
-      <c r="AF14" s="8">
+      <c r="AH14" s="8">
         <f t="shared" si="32"/>
         <v>8.67282026238783E-2</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AI14" s="8">
         <f t="shared" si="32"/>
         <v>9.5343897674408207E-2</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AJ14" s="8">
         <f t="shared" si="32"/>
         <v>0.10480490283152542</v>
       </c>
     </row>
-    <row r="15" spans="2:73" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:75" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>70</v>
       </c>
@@ -3868,76 +3895,77 @@
         <v>0.41481481481481475</v>
       </c>
       <c r="P15" s="36"/>
-      <c r="R15" s="35">
-        <f t="shared" ref="R15:U15" si="34">R12/R16</f>
+      <c r="R15" s="36"/>
+      <c r="T15" s="35">
+        <f t="shared" ref="T15:W15" si="34">T12/T16</f>
         <v>0.34247131519848928</v>
       </c>
-      <c r="S15" s="35">
+      <c r="U15" s="35">
         <f t="shared" si="34"/>
         <v>0.40694761546054115</v>
       </c>
-      <c r="T15" s="35">
+      <c r="V15" s="35">
         <f t="shared" si="34"/>
         <v>0.44783233916795839</v>
       </c>
-      <c r="U15" s="35">
+      <c r="W15" s="35">
         <f t="shared" si="34"/>
         <v>0.48643208876632238</v>
       </c>
-      <c r="V15" s="35">
-        <f>V12/V16</f>
-        <v>0.53612869198312252</v>
-      </c>
-      <c r="W15" s="35">
-        <f>W12/W16</f>
-        <v>0.6448376023237391</v>
-      </c>
       <c r="X15" s="35">
         <f>X12/X16</f>
+        <v>0.53612869198312252</v>
+      </c>
+      <c r="Y15" s="35">
+        <f>Y12/Y16</f>
+        <v>0.6448376023237391</v>
+      </c>
+      <c r="Z15" s="35">
+        <f>Z12/Z16</f>
         <v>0.71851851851851845</v>
       </c>
-      <c r="Y15" s="35">
-        <f>Y13/Y16</f>
+      <c r="AA15" s="35">
+        <f>AA13/AA16</f>
         <v>0.82403681668186224</v>
       </c>
-      <c r="Z15" s="35">
-        <f t="shared" ref="Z15:AH15" si="35">Z13/Z16</f>
+      <c r="AB15" s="35">
+        <f t="shared" ref="AB15:AJ15" si="35">AB13/AB16</f>
         <v>0.95487797987153133</v>
       </c>
-      <c r="AA15" s="35">
+      <c r="AC15" s="35">
         <f t="shared" si="35"/>
         <v>1.0866781107650008</v>
       </c>
-      <c r="AB15" s="35">
+      <c r="AD15" s="35">
         <f t="shared" si="35"/>
         <v>1.1958922864155039</v>
       </c>
-      <c r="AC15" s="35">
+      <c r="AE15" s="35">
         <f t="shared" si="35"/>
         <v>1.3290464742965411</v>
       </c>
-      <c r="AD15" s="35">
+      <c r="AF15" s="35">
         <f t="shared" si="35"/>
         <v>1.4617812376893</v>
       </c>
-      <c r="AE15" s="35">
+      <c r="AG15" s="35">
         <f t="shared" si="35"/>
         <v>1.6050883355709014</v>
       </c>
-      <c r="AF15" s="35">
+      <c r="AH15" s="35">
         <f t="shared" si="35"/>
         <v>1.7651501280060933</v>
       </c>
-      <c r="AG15" s="35">
+      <c r="AI15" s="35">
         <f t="shared" si="35"/>
         <v>1.9405024904579953</v>
       </c>
-      <c r="AH15" s="35">
+      <c r="AJ15" s="35">
         <f t="shared" si="35"/>
         <v>2.1330591670511505</v>
       </c>
     </row>
-    <row r="16" spans="2:73" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:75" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -3945,80 +3973,73 @@
         <v>379.21935100000002</v>
       </c>
       <c r="D16" s="34">
-        <f>S16</f>
+        <f>U16</f>
         <v>378.98735399999998</v>
       </c>
       <c r="E16" s="8">
         <v>379.04369300000002</v>
       </c>
       <c r="F16" s="34">
-        <f>T16</f>
+        <f>V16</f>
         <v>379.15975500000002</v>
       </c>
       <c r="G16" s="8">
         <v>379.13458700000001</v>
       </c>
       <c r="H16" s="34">
-        <f>U16</f>
+        <f>W16</f>
         <v>379.08683300000001</v>
       </c>
       <c r="I16" s="8">
         <v>379.092489</v>
       </c>
       <c r="J16" s="34">
-        <f>W16</f>
+        <f>Y16</f>
         <v>378.7</v>
       </c>
       <c r="K16" s="8">
         <v>379.1</v>
       </c>
       <c r="L16" s="34">
-        <f>W16</f>
+        <f>Y16</f>
         <v>378.7</v>
       </c>
       <c r="M16" s="8">
         <v>378.2</v>
       </c>
       <c r="N16" s="34">
-        <f>X16</f>
+        <f>Z16</f>
         <v>378</v>
       </c>
       <c r="P16" s="34"/>
-      <c r="R16" s="8">
+      <c r="R16" s="34"/>
+      <c r="T16" s="8">
         <v>378.68572999999998</v>
       </c>
-      <c r="S16" s="8">
+      <c r="U16" s="8">
         <v>378.98735399999998</v>
       </c>
-      <c r="T16" s="8">
+      <c r="V16" s="8">
         <v>379.15975500000002</v>
       </c>
-      <c r="U16" s="8">
+      <c r="W16" s="8">
         <v>379.08683300000001</v>
       </c>
-      <c r="V16" s="8">
+      <c r="X16" s="8">
         <v>379.2</v>
       </c>
-      <c r="W16" s="8">
+      <c r="Y16" s="8">
         <v>378.7</v>
       </c>
-      <c r="X16" s="82">
+      <c r="Z16" s="82">
         <v>378</v>
       </c>
-      <c r="Y16" s="8">
-        <f>X16</f>
+      <c r="AA16" s="8">
+        <f>Z16</f>
         <v>378</v>
       </c>
-      <c r="Z16" s="8">
-        <f t="shared" ref="Z16:AH16" si="36">Y16</f>
-        <v>378</v>
-      </c>
-      <c r="AA16" s="8">
-        <f t="shared" si="36"/>
-        <v>378</v>
-      </c>
       <c r="AB16" s="8">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AB16:AJ16" si="36">AA16</f>
         <v>378</v>
       </c>
       <c r="AC16" s="8">
@@ -4045,8 +4066,16 @@
         <f t="shared" si="36"/>
         <v>378</v>
       </c>
-    </row>
-    <row r="18" spans="2:37" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI16" s="8">
+        <f t="shared" si="36"/>
+        <v>378</v>
+      </c>
+      <c r="AJ16" s="8">
+        <f t="shared" si="36"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>72</v>
       </c>
@@ -4097,53 +4126,48 @@
         <v>0.24007105697246556</v>
       </c>
       <c r="P18" s="40"/>
-      <c r="R18" s="78" t="s">
+      <c r="R18" s="40"/>
+      <c r="T18" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="S18" s="39">
-        <f t="shared" ref="S18:V18" si="38">S4/R4-1</f>
+      <c r="U18" s="39">
+        <f t="shared" ref="U18:X18" si="38">U4/T4-1</f>
         <v>0.11911565602051444</v>
       </c>
-      <c r="T18" s="39">
+      <c r="V18" s="39">
         <f t="shared" si="38"/>
         <v>0.12515110884389768</v>
       </c>
-      <c r="U18" s="39">
+      <c r="W18" s="39">
         <f t="shared" si="38"/>
         <v>0.10529358328515981</v>
       </c>
-      <c r="V18" s="39">
+      <c r="X18" s="39">
         <f t="shared" si="38"/>
         <v>-1.5092647937836268E-2</v>
       </c>
-      <c r="W18" s="39">
-        <f>W4/V4-1</f>
+      <c r="Y18" s="39">
+        <f>Y4/X4-1</f>
         <v>0.15710817781823683</v>
       </c>
-      <c r="X18" s="39">
-        <f t="shared" ref="X18" si="39">X4/W4-1</f>
+      <c r="Z18" s="39">
+        <f t="shared" ref="Z18" si="39">Z4/Y4-1</f>
         <v>0.21471185996197462</v>
       </c>
-      <c r="Y18" s="39">
+      <c r="AA18" s="39">
         <v>0.18</v>
       </c>
-      <c r="Z18" s="39">
+      <c r="AB18" s="39">
         <v>0.15</v>
       </c>
-      <c r="AA18" s="39">
+      <c r="AC18" s="39">
         <v>0.13</v>
       </c>
-      <c r="AB18" s="39">
+      <c r="AD18" s="39">
         <v>0.11</v>
       </c>
-      <c r="AC18" s="39">
+      <c r="AE18" s="39">
         <v>0.11</v>
-      </c>
-      <c r="AD18" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="AE18" s="39">
-        <v>0.1</v>
       </c>
       <c r="AF18" s="39">
         <v>0.1</v>
@@ -4154,8 +4178,14 @@
       <c r="AH18" s="39">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI18" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="AJ18" s="39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37" t="s">
         <v>73</v>
       </c>
@@ -4207,12 +4237,7 @@
         <v>0.11627641347801254</v>
       </c>
       <c r="P19" s="38"/>
-      <c r="R19" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="S19" s="78" t="s">
-        <v>105</v>
-      </c>
+      <c r="R19" s="38"/>
       <c r="T19" s="78" t="s">
         <v>105</v>
       </c>
@@ -4228,11 +4253,17 @@
       <c r="X19" s="78" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z19" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="2:39" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37" t="s">
         <v>74</v>
       </c>
@@ -4285,44 +4316,37 @@
         <v>0.16033971144991302</v>
       </c>
       <c r="P21" s="38"/>
-      <c r="R21" s="37">
-        <f t="shared" ref="R21:T21" si="44">R5/R4</f>
+      <c r="R21" s="38"/>
+      <c r="T21" s="37">
+        <f t="shared" ref="T21:V21" si="44">T5/T4</f>
         <v>0.17373047910804418</v>
       </c>
-      <c r="S21" s="37">
+      <c r="U21" s="37">
         <f t="shared" si="44"/>
         <v>0.16842236327262963</v>
       </c>
-      <c r="T21" s="37">
+      <c r="V21" s="37">
         <f t="shared" si="44"/>
         <v>0.17986621521182591</v>
       </c>
-      <c r="U21" s="37">
-        <f t="shared" ref="U21" si="45">U5/U4</f>
+      <c r="W21" s="37">
+        <f t="shared" ref="W21" si="45">W5/W4</f>
         <v>0.17438732815301852</v>
       </c>
-      <c r="V21" s="37">
-        <f t="shared" ref="V21:W21" si="46">V5/V4</f>
+      <c r="X21" s="37">
+        <f t="shared" ref="X21:Y21" si="46">X5/X4</f>
         <v>0.18267334243665606</v>
       </c>
-      <c r="W21" s="37">
+      <c r="Y21" s="37">
         <f t="shared" si="46"/>
         <v>0.18284927555235034</v>
       </c>
-      <c r="X21" s="37">
-        <f t="shared" ref="X21" si="47">X5/X4</f>
+      <c r="Z21" s="37">
+        <f t="shared" ref="Z21" si="47">Z5/Z4</f>
         <v>0.16645077720207252</v>
       </c>
-      <c r="Y21" s="37">
-        <f t="shared" ref="Y21:AH21" si="48">Y5/Y4</f>
-        <v>0.18</v>
-      </c>
-      <c r="Z21" s="37">
-        <f t="shared" si="48"/>
-        <v>0.18</v>
-      </c>
       <c r="AA21" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="AA21:AJ21" si="48">AA5/AA4</f>
         <v>0.18</v>
       </c>
       <c r="AB21" s="37">
@@ -4353,14 +4377,22 @@
         <f t="shared" si="48"/>
         <v>0.18</v>
       </c>
-      <c r="AJ21" s="58" t="s">
+      <c r="AI21" s="37">
+        <f t="shared" si="48"/>
+        <v>0.18</v>
+      </c>
+      <c r="AJ21" s="37">
+        <f t="shared" si="48"/>
+        <v>0.18</v>
+      </c>
+      <c r="AL21" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="AK21" s="63">
+      <c r="AM21" s="63">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="s">
         <v>75</v>
       </c>
@@ -4413,82 +4445,83 @@
         <v>0.16044203417579042</v>
       </c>
       <c r="P22" s="38"/>
-      <c r="R22" s="37">
-        <f t="shared" ref="R22:T22" si="51">R12/R4</f>
+      <c r="R22" s="38"/>
+      <c r="T22" s="37">
+        <f t="shared" ref="T22:V22" si="51">T12/T4</f>
         <v>0.13485923328570745</v>
       </c>
-      <c r="S22" s="37">
+      <c r="U22" s="37">
         <f t="shared" si="51"/>
         <v>0.14330647057129131</v>
       </c>
-      <c r="T22" s="37">
+      <c r="V22" s="37">
         <f t="shared" si="51"/>
         <v>0.14022627797505988</v>
       </c>
-      <c r="U22" s="37">
-        <f t="shared" ref="U22" si="52">U12/U4</f>
+      <c r="W22" s="37">
+        <f t="shared" ref="W22" si="52">W12/W4</f>
         <v>0.13777644949193069</v>
       </c>
-      <c r="V22" s="37">
-        <f t="shared" ref="V22:W22" si="53">V12/V4</f>
+      <c r="X22" s="37">
+        <f t="shared" ref="X22:Y22" si="53">X12/X4</f>
         <v>0.1542254589591868</v>
       </c>
-      <c r="W22" s="37">
+      <c r="Y22" s="37">
         <f t="shared" si="53"/>
         <v>0.16009965252737166</v>
       </c>
-      <c r="X22" s="37">
-        <f t="shared" ref="X22" si="54">X12/X4</f>
+      <c r="Z22" s="37">
+        <f t="shared" ref="Z22" si="54">Z12/Z4</f>
         <v>0.14658894645941276</v>
       </c>
-      <c r="Y22" s="37">
-        <f t="shared" ref="Y22:AH22" si="55">Y12/Y4</f>
+      <c r="AA22" s="37">
+        <f t="shared" ref="AA22:AJ22" si="55">AA12/AA4</f>
         <v>0.14245293829220457</v>
       </c>
-      <c r="Z22" s="37">
+      <c r="AB22" s="37">
         <f t="shared" si="55"/>
         <v>0.14354062531686063</v>
       </c>
-      <c r="AA22" s="37">
+      <c r="AC22" s="37">
         <f t="shared" si="55"/>
         <v>0.14456042989970849</v>
       </c>
-      <c r="AB22" s="37">
+      <c r="AD22" s="37">
         <f t="shared" si="55"/>
         <v>0.14332356359312728</v>
       </c>
-      <c r="AC22" s="37">
+      <c r="AE22" s="37">
         <f t="shared" si="55"/>
         <v>0.1434969671222025</v>
       </c>
-      <c r="AD22" s="37">
+      <c r="AF22" s="37">
         <f t="shared" si="55"/>
         <v>0.14348029225277995</v>
       </c>
-      <c r="AE22" s="37">
+      <c r="AG22" s="37">
         <f t="shared" si="55"/>
         <v>0.1432241069017984</v>
       </c>
-      <c r="AF22" s="37">
+      <c r="AH22" s="37">
         <f t="shared" si="55"/>
         <v>0.14318784321348271</v>
       </c>
-      <c r="AG22" s="37">
+      <c r="AI22" s="37">
         <f t="shared" si="55"/>
         <v>0.14310210371476892</v>
       </c>
-      <c r="AH22" s="37">
+      <c r="AJ22" s="37">
         <f t="shared" si="55"/>
         <v>0.14300197343638865</v>
       </c>
-      <c r="AJ22" s="59" t="s">
+      <c r="AL22" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="AK22" s="64">
+      <c r="AM22" s="64">
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:39" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
         <v>104</v>
       </c>
@@ -4541,39 +4574,34 @@
         <v>0.1445717403164212</v>
       </c>
       <c r="P23" s="38"/>
-      <c r="R23" s="37">
-        <f t="shared" ref="R23:T23" si="58">R11/R10</f>
+      <c r="R23" s="38"/>
+      <c r="T23" s="37">
+        <f t="shared" ref="T23:V23" si="58">T11/T10</f>
         <v>0.17763771139420301</v>
       </c>
-      <c r="S23" s="37">
+      <c r="U23" s="37">
         <f t="shared" si="58"/>
         <v>0.10305962814555479</v>
       </c>
-      <c r="T23" s="37">
+      <c r="V23" s="37">
         <f t="shared" si="58"/>
         <v>0.17851959361393321</v>
       </c>
-      <c r="U23" s="37">
-        <f t="shared" ref="U23" si="59">U11/U10</f>
+      <c r="W23" s="37">
+        <f t="shared" ref="W23" si="59">W11/W10</f>
         <v>0.17715305667112896</v>
       </c>
-      <c r="V23" s="37">
-        <f t="shared" ref="V23:W23" si="60">V11/V10</f>
+      <c r="X23" s="37">
+        <f t="shared" ref="X23:Y23" si="60">X11/X10</f>
         <v>0.19612495057334914</v>
       </c>
-      <c r="W23" s="37">
+      <c r="Y23" s="37">
         <f t="shared" si="60"/>
         <v>0.19776609724047309</v>
       </c>
-      <c r="X23" s="37">
-        <f t="shared" ref="X23" si="61">X11/X10</f>
+      <c r="Z23" s="37">
+        <f t="shared" ref="Z23" si="61">Z11/Z10</f>
         <v>0.1739659367396594</v>
-      </c>
-      <c r="Y23" s="37">
-        <v>0.21</v>
-      </c>
-      <c r="Z23" s="37">
-        <v>0.21</v>
       </c>
       <c r="AA23" s="37">
         <v>0.21</v>
@@ -4599,54 +4627,60 @@
       <c r="AH23" s="37">
         <v>0.21</v>
       </c>
-      <c r="AJ23" s="59" t="s">
+      <c r="AI23" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="AJ23" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="AL23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="AK23" s="65">
-        <f>NPV(AK22,X12:BU12)</f>
+      <c r="AM23" s="65">
+        <f>NPV(AM22,Z12:BW12)</f>
         <v>9418.8522325957074</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ24" s="60" t="s">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AL24" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AK24" s="12">
+      <c r="AM24" s="12">
         <f>Main!C11</f>
         <v>-487.19999999999993</v>
       </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ25" s="60" t="s">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AL25" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="AK25" s="66">
-        <f>AK23+AK24</f>
+      <c r="AM25" s="66">
+        <f>AM23+AM24</f>
         <v>8931.6522325957067</v>
       </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="AJ26" s="61" t="s">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AL26" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AK26" s="67">
-        <f>AK25/Main!C7</f>
+      <c r="AM26" s="67">
+        <f>AM25/Main!C7</f>
         <v>23.62870961004155</v>
       </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="AJ27" s="60" t="s">
+      <c r="AL27" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="AK27" s="12">
+      <c r="AM27" s="12">
         <f>Main!C6</f>
         <v>21.73</v>
       </c>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
@@ -4655,7 +4689,7 @@
         <v>803.19999999999993</v>
       </c>
       <c r="D28" s="34">
-        <f>S28</f>
+        <f>U28</f>
         <v>866.72400000000005</v>
       </c>
       <c r="E28" s="1">
@@ -4663,7 +4697,7 @@
         <v>885.5</v>
       </c>
       <c r="F28" s="34">
-        <f>T28</f>
+        <f>V28</f>
         <v>939.2</v>
       </c>
       <c r="G28" s="8">
@@ -4671,7 +4705,7 @@
         <v>1037.9000000000001</v>
       </c>
       <c r="H28" s="34">
-        <f>U28</f>
+        <f>W28</f>
         <v>1166.8</v>
       </c>
       <c r="I28" s="8">
@@ -4679,7 +4713,7 @@
         <v>1133.5999999999999</v>
       </c>
       <c r="J28" s="34">
-        <f>V28</f>
+        <f>X28</f>
         <v>1098.5</v>
       </c>
       <c r="K28" s="8">
@@ -4687,7 +4721,7 @@
         <v>1186.7</v>
       </c>
       <c r="L28" s="34">
-        <f>W28</f>
+        <f>Y28</f>
         <v>1233.9000000000001</v>
       </c>
       <c r="M28" s="8">
@@ -4695,46 +4729,46 @@
         <v>1520.4</v>
       </c>
       <c r="N28" s="34">
-        <f>X28</f>
+        <f>Z28</f>
         <v>1592.8</v>
       </c>
-      <c r="R28" s="8">
+      <c r="T28" s="8">
         <f>603.553+234.43</f>
         <v>837.98299999999995</v>
       </c>
-      <c r="S28" s="8">
+      <c r="U28" s="8">
         <f>632.162+234.562</f>
         <v>866.72400000000005</v>
       </c>
-      <c r="T28" s="8">
+      <c r="V28" s="8">
         <f>694+245.2</f>
         <v>939.2</v>
       </c>
-      <c r="U28" s="8">
+      <c r="W28" s="8">
         <f>838.4+328.4</f>
         <v>1166.8</v>
       </c>
-      <c r="V28" s="8">
+      <c r="X28" s="8">
         <f>808.5+290</f>
         <v>1098.5</v>
       </c>
-      <c r="W28" s="8">
+      <c r="Y28" s="8">
         <f>908.7+325.2</f>
         <v>1233.9000000000001</v>
       </c>
-      <c r="X28" s="82">
+      <c r="Z28" s="82">
         <f>1120.5+472.3</f>
         <v>1592.8</v>
       </c>
-      <c r="AJ28" s="62" t="s">
+      <c r="AL28" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AK28" s="68">
-        <f>AK26/AK27-1</f>
+      <c r="AM28" s="68">
+        <f>AM26/AM27-1</f>
         <v>8.7377340544940063E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
@@ -4742,67 +4776,65 @@
         <v>102.6</v>
       </c>
       <c r="D29" s="34">
-        <f>S29</f>
+        <f>U29</f>
         <v>103.727</v>
       </c>
       <c r="E29" s="1">
         <v>109.6</v>
       </c>
       <c r="F29" s="34">
-        <f>T29</f>
+        <f>V29</f>
         <v>112.4</v>
       </c>
       <c r="G29" s="8">
         <v>171.7</v>
       </c>
       <c r="H29" s="34">
-        <f>U29</f>
+        <f>W29</f>
         <v>184.3</v>
       </c>
       <c r="I29" s="8">
         <v>184.7</v>
       </c>
       <c r="J29" s="34">
-        <f>V29</f>
+        <f>X29</f>
         <v>180.8</v>
       </c>
       <c r="K29" s="8">
         <v>186.7</v>
       </c>
       <c r="L29" s="34">
-        <f>W29</f>
+        <f>Y29</f>
         <v>194</v>
       </c>
       <c r="M29" s="8">
         <v>224.5</v>
       </c>
       <c r="N29" s="34">
-        <f t="shared" ref="N29:N37" si="62">X29</f>
+        <f t="shared" ref="N29:N37" si="62">Z29</f>
         <v>222.9</v>
       </c>
-      <c r="R29" s="8">
+      <c r="T29" s="8">
         <v>106.01600000000001</v>
       </c>
-      <c r="S29" s="8">
+      <c r="U29" s="8">
         <v>103.727</v>
       </c>
-      <c r="T29" s="8">
+      <c r="V29" s="8">
         <v>112.4</v>
       </c>
-      <c r="U29" s="8">
+      <c r="W29" s="8">
         <v>184.3</v>
       </c>
-      <c r="V29" s="8">
+      <c r="X29" s="8">
         <v>180.8</v>
       </c>
-      <c r="W29" s="8">
+      <c r="Y29" s="8">
         <v>194</v>
       </c>
-      <c r="X29" s="82">
+      <c r="Z29" s="82">
         <v>222.9</v>
       </c>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
       <c r="AA29" s="42"/>
       <c r="AB29" s="42"/>
       <c r="AC29" s="42"/>
@@ -4811,8 +4843,10 @@
       <c r="AF29" s="42"/>
       <c r="AG29" s="42"/>
       <c r="AH29" s="42"/>
-    </row>
-    <row r="30" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+    </row>
+    <row r="30" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>79</v>
       </c>
@@ -4820,68 +4854,69 @@
         <v>3.4</v>
       </c>
       <c r="D30" s="33">
-        <f>S30</f>
+        <f>U30</f>
         <v>3.9929999999999999</v>
       </c>
       <c r="E30" s="2">
         <v>3.9</v>
       </c>
       <c r="F30" s="33">
-        <f>T30</f>
+        <f>V30</f>
         <v>3.9</v>
       </c>
       <c r="G30" s="32">
         <v>5.5</v>
       </c>
       <c r="H30" s="33">
-        <f>U30</f>
+        <f>W30</f>
         <v>4.8</v>
       </c>
       <c r="I30" s="32">
         <v>4.8</v>
       </c>
       <c r="J30" s="33">
-        <f>V30</f>
+        <f>X30</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="K30" s="32">
         <v>9.9</v>
       </c>
       <c r="L30" s="34">
-        <f t="shared" ref="L30:L37" si="63">W30</f>
+        <f t="shared" ref="L30:L37" si="63">Y30</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="M30" s="32">
         <v>19.8</v>
       </c>
       <c r="N30" s="33">
-        <f>X30</f>
+        <f>Z30</f>
         <v>21</v>
       </c>
       <c r="P30" s="27"/>
-      <c r="R30" s="32">
+      <c r="R30" s="27"/>
+      <c r="T30" s="32">
         <v>3.5529999999999999</v>
       </c>
-      <c r="S30" s="32">
+      <c r="U30" s="32">
         <v>3.9929999999999999</v>
       </c>
-      <c r="T30" s="32">
+      <c r="V30" s="32">
         <v>3.9</v>
       </c>
-      <c r="U30" s="32">
+      <c r="W30" s="32">
         <v>4.8</v>
       </c>
-      <c r="V30" s="32">
+      <c r="X30" s="32">
         <v>9.3000000000000007</v>
       </c>
-      <c r="W30" s="32">
+      <c r="Y30" s="32">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X30" s="81">
+      <c r="Z30" s="81">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
@@ -4889,28 +4924,28 @@
         <v>0</v>
       </c>
       <c r="D31" s="34">
-        <f t="shared" ref="D31:D33" si="64">S31</f>
+        <f t="shared" ref="D31:D33" si="64">U31</f>
         <v>0</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" s="34">
-        <f t="shared" ref="F31:F33" si="65">T31</f>
+        <f t="shared" ref="F31:F33" si="65">V31</f>
         <v>0</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
       <c r="H31" s="34">
-        <f t="shared" ref="H31:H33" si="66">U31</f>
+        <f t="shared" ref="H31:H33" si="66">W31</f>
         <v>5.4</v>
       </c>
       <c r="I31" s="8">
         <v>0</v>
       </c>
       <c r="J31" s="34">
-        <f t="shared" ref="J31:J33" si="67">V31</f>
+        <f t="shared" ref="J31:J33" si="67">X31</f>
         <v>0</v>
       </c>
       <c r="K31" s="8">
@@ -4927,29 +4962,29 @@
         <f t="shared" si="62"/>
         <v>38.4</v>
       </c>
-      <c r="R31" s="8">
-        <v>0</v>
-      </c>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
       <c r="T31" s="8">
         <v>0</v>
       </c>
       <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
         <v>5.4</v>
       </c>
-      <c r="V31" s="8">
-        <v>0</v>
-      </c>
-      <c r="W31" s="8">
+      <c r="X31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="8">
         <v>31.1</v>
       </c>
-      <c r="X31" s="82">
+      <c r="Z31" s="82">
         <v>38.4</v>
       </c>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
@@ -4995,12 +5030,6 @@
         <f t="shared" si="62"/>
         <v>14.7</v>
       </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
       <c r="T32" s="8">
         <v>0</v>
       </c>
@@ -5008,16 +5037,22 @@
         <v>0</v>
       </c>
       <c r="V32" s="8">
+        <v>0</v>
+      </c>
+      <c r="W32" s="8">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
         <v>13.9</v>
       </c>
-      <c r="W32" s="8">
+      <c r="Y32" s="8">
         <v>14.7</v>
       </c>
-      <c r="X32" s="82">
+      <c r="Z32" s="82">
         <v>14.7</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
@@ -5063,29 +5098,29 @@
         <f t="shared" si="62"/>
         <v>3</v>
       </c>
-      <c r="R33" s="8">
+      <c r="T33" s="8">
         <v>56.866</v>
       </c>
-      <c r="S33" s="8">
+      <c r="U33" s="8">
         <v>36.976999999999997</v>
       </c>
-      <c r="T33" s="8">
+      <c r="V33" s="8">
         <v>1.4</v>
       </c>
-      <c r="U33" s="8">
+      <c r="W33" s="8">
         <v>1.3</v>
       </c>
-      <c r="V33" s="8">
+      <c r="X33" s="8">
         <v>1.3</v>
       </c>
-      <c r="W33" s="8">
+      <c r="Y33" s="8">
         <v>2.4</v>
       </c>
-      <c r="X33" s="82">
+      <c r="Z33" s="82">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
@@ -5137,36 +5172,36 @@
         <f t="shared" si="62"/>
         <v>1892.8000000000002</v>
       </c>
-      <c r="R34" s="8">
-        <f t="shared" ref="R34:X34" si="69">SUM(R28:R33)</f>
+      <c r="T34" s="8">
+        <f t="shared" ref="T34:Z34" si="69">SUM(T28:T33)</f>
         <v>1004.4179999999999</v>
       </c>
-      <c r="S34" s="8">
+      <c r="U34" s="8">
         <f t="shared" si="69"/>
         <v>1011.421</v>
       </c>
-      <c r="T34" s="8">
+      <c r="V34" s="8">
         <f t="shared" si="69"/>
         <v>1056.9000000000003</v>
       </c>
-      <c r="U34" s="8">
+      <c r="W34" s="8">
         <f t="shared" si="69"/>
         <v>1362.6</v>
       </c>
-      <c r="V34" s="8">
+      <c r="X34" s="8">
         <f t="shared" si="69"/>
         <v>1303.8</v>
       </c>
-      <c r="W34" s="8">
+      <c r="Y34" s="8">
         <f t="shared" si="69"/>
         <v>1484.3000000000002</v>
       </c>
-      <c r="X34" s="8">
+      <c r="Z34" s="8">
         <f t="shared" si="69"/>
         <v>1892.8000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
@@ -5174,28 +5209,28 @@
         <v>124.2</v>
       </c>
       <c r="D35" s="34">
-        <f t="shared" ref="D35:D39" si="70">S35</f>
+        <f t="shared" ref="D35:D39" si="70">U35</f>
         <v>127.96599999999999</v>
       </c>
       <c r="E35" s="1">
         <v>141.19999999999999</v>
       </c>
       <c r="F35" s="34">
-        <f t="shared" ref="F35:F37" si="71">T35</f>
+        <f t="shared" ref="F35:F37" si="71">V35</f>
         <v>144.30000000000001</v>
       </c>
       <c r="G35" s="8">
         <v>162.9</v>
       </c>
       <c r="H35" s="34">
-        <f t="shared" ref="H35:H37" si="72">U35</f>
+        <f t="shared" ref="H35:H37" si="72">W35</f>
         <v>170.6</v>
       </c>
       <c r="I35" s="8">
         <v>175.8</v>
       </c>
       <c r="J35" s="34">
-        <f t="shared" ref="J35:J37" si="73">V35</f>
+        <f t="shared" ref="J35:J37" si="73">X35</f>
         <v>167.8</v>
       </c>
       <c r="K35" s="8">
@@ -5212,29 +5247,29 @@
         <f t="shared" si="62"/>
         <v>312.39999999999998</v>
       </c>
-      <c r="R35" s="8">
+      <c r="T35" s="8">
         <v>118.78</v>
       </c>
-      <c r="S35" s="8">
+      <c r="U35" s="8">
         <v>127.96599999999999</v>
       </c>
-      <c r="T35" s="8">
+      <c r="V35" s="8">
         <v>144.30000000000001</v>
       </c>
-      <c r="U35" s="8">
+      <c r="W35" s="8">
         <v>170.6</v>
       </c>
-      <c r="V35" s="8">
+      <c r="X35" s="8">
         <v>167.8</v>
       </c>
-      <c r="W35" s="8">
+      <c r="Y35" s="8">
         <v>228.8</v>
       </c>
-      <c r="X35" s="82">
+      <c r="Z35" s="82">
         <v>312.39999999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>85</v>
       </c>
@@ -5280,29 +5315,29 @@
         <f t="shared" si="62"/>
         <v>410.7</v>
       </c>
-      <c r="R36" s="8">
+      <c r="T36" s="8">
         <v>212.23599999999999</v>
       </c>
-      <c r="S36" s="8">
+      <c r="U36" s="8">
         <v>235.184</v>
       </c>
-      <c r="T36" s="8">
+      <c r="V36" s="8">
         <v>259.60000000000002</v>
       </c>
-      <c r="U36" s="8">
+      <c r="W36" s="8">
         <v>286.60000000000002</v>
       </c>
-      <c r="V36" s="8">
+      <c r="X36" s="8">
         <v>268</v>
       </c>
-      <c r="W36" s="8">
+      <c r="Y36" s="8">
         <v>325.10000000000002</v>
       </c>
-      <c r="X36" s="82">
+      <c r="Z36" s="82">
         <v>410.7</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
@@ -5348,29 +5383,29 @@
         <f t="shared" si="62"/>
         <v>1.5</v>
       </c>
-      <c r="R37" s="8">
+      <c r="T37" s="8">
         <v>0.124</v>
       </c>
-      <c r="S37" s="8">
+      <c r="U37" s="8">
         <v>0.85899999999999999</v>
       </c>
-      <c r="T37" s="8">
+      <c r="V37" s="8">
         <v>0.2</v>
       </c>
-      <c r="U37" s="8">
+      <c r="W37" s="8">
         <v>10.7</v>
       </c>
-      <c r="V37" s="8">
+      <c r="X37" s="8">
         <v>2.5</v>
       </c>
-      <c r="W37" s="8">
+      <c r="Y37" s="8">
         <v>0.7</v>
       </c>
-      <c r="X37" s="82">
+      <c r="Z37" s="82">
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
@@ -5385,61 +5420,62 @@
         <v>66.400000000000006</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" ref="F38:F39" si="74">T38</f>
+        <f t="shared" ref="F38:F39" si="74">V38</f>
         <v>81.2</v>
       </c>
       <c r="G38" s="32">
         <v>83.2</v>
       </c>
       <c r="H38" s="33">
-        <f t="shared" ref="H38:H39" si="75">U38</f>
+        <f t="shared" ref="H38:H39" si="75">W38</f>
         <v>106.3</v>
       </c>
       <c r="I38" s="32">
         <v>125.5</v>
       </c>
       <c r="J38" s="33">
-        <f t="shared" ref="J38:J39" si="76">V38</f>
+        <f t="shared" ref="J38:J39" si="76">X38</f>
         <v>134.1</v>
       </c>
       <c r="K38" s="32">
         <v>131.1</v>
       </c>
       <c r="L38" s="33">
-        <f>W38</f>
+        <f>Y38</f>
         <v>157.4</v>
       </c>
       <c r="M38" s="32">
         <v>213.4</v>
       </c>
       <c r="N38" s="33">
-        <f t="shared" ref="N38:N39" si="77">X38</f>
+        <f t="shared" ref="N38:N39" si="77">Z38</f>
         <v>169.5</v>
       </c>
       <c r="P38" s="27"/>
-      <c r="R38" s="32">
+      <c r="R38" s="27"/>
+      <c r="T38" s="32">
         <v>66.826999999999998</v>
       </c>
-      <c r="S38" s="32">
+      <c r="U38" s="32">
         <v>70.721000000000004</v>
       </c>
-      <c r="T38" s="32">
+      <c r="V38" s="32">
         <v>81.2</v>
       </c>
-      <c r="U38" s="32">
+      <c r="W38" s="32">
         <v>106.3</v>
       </c>
-      <c r="V38" s="32">
+      <c r="X38" s="32">
         <v>134.1</v>
       </c>
-      <c r="W38" s="32">
+      <c r="Y38" s="32">
         <v>157.4</v>
       </c>
-      <c r="X38" s="81">
+      <c r="Z38" s="81">
         <v>169.5</v>
       </c>
     </row>
-    <row r="39" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>94</v>
       </c>
@@ -5475,7 +5511,7 @@
         <v>0.6</v>
       </c>
       <c r="L39" s="33">
-        <f>W39</f>
+        <f>Y39</f>
         <v>0.7</v>
       </c>
       <c r="M39" s="32">
@@ -5486,29 +5522,30 @@
         <v>1.5</v>
       </c>
       <c r="P39" s="27"/>
-      <c r="R39" s="32">
+      <c r="R39" s="27"/>
+      <c r="T39" s="32">
         <v>0.59799999999999998</v>
       </c>
-      <c r="S39" s="32">
+      <c r="U39" s="32">
         <v>0.70499999999999996</v>
       </c>
-      <c r="T39" s="32">
+      <c r="V39" s="32">
         <v>0.9</v>
       </c>
-      <c r="U39" s="32">
+      <c r="W39" s="32">
         <v>1</v>
       </c>
-      <c r="V39" s="32">
+      <c r="X39" s="32">
         <v>1.7</v>
       </c>
-      <c r="W39" s="32">
+      <c r="Y39" s="32">
         <v>0.7</v>
       </c>
-      <c r="X39" s="81">
+      <c r="Z39" s="81">
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
@@ -5560,47 +5597,47 @@
         <f t="shared" si="78"/>
         <v>2788.4</v>
       </c>
-      <c r="R40" s="8">
-        <f t="shared" ref="R40:X40" si="79">SUM(R35:R39)+R34</f>
+      <c r="T40" s="8">
+        <f t="shared" ref="T40:Z40" si="79">SUM(T35:T39)+T34</f>
         <v>1402.9829999999999</v>
       </c>
-      <c r="S40" s="8">
+      <c r="U40" s="8">
         <f t="shared" si="79"/>
         <v>1446.856</v>
       </c>
-      <c r="T40" s="8">
+      <c r="V40" s="8">
         <f t="shared" si="79"/>
         <v>1543.1000000000004</v>
       </c>
-      <c r="U40" s="8">
+      <c r="W40" s="8">
         <f t="shared" si="79"/>
         <v>1937.8</v>
       </c>
-      <c r="V40" s="8">
+      <c r="X40" s="8">
         <f t="shared" si="79"/>
         <v>1877.9</v>
       </c>
-      <c r="W40" s="8">
+      <c r="Y40" s="8">
         <f t="shared" si="79"/>
         <v>2197.0000000000005</v>
       </c>
-      <c r="X40" s="8">
+      <c r="Z40" s="8">
         <f t="shared" si="79"/>
         <v>2788.4</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="G41" s="8"/>
       <c r="H41" s="34"/>
       <c r="I41" s="8"/>
       <c r="L41" s="34"/>
       <c r="M41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
       <c r="V41" s="8"/>
       <c r="W41" s="8"/>
-    </row>
-    <row r="42" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
@@ -5608,68 +5645,69 @@
         <v>0.2</v>
       </c>
       <c r="D42" s="33">
-        <f>S42</f>
+        <f>U42</f>
         <v>1.1419999999999999</v>
       </c>
       <c r="E42" s="32">
         <v>3</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" ref="F42" si="80">T42</f>
+        <f t="shared" ref="F42" si="80">V42</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="32">
         <v>1.7</v>
       </c>
       <c r="H42" s="33">
-        <f>U42</f>
+        <f>W42</f>
         <v>75.099999999999994</v>
       </c>
       <c r="I42" s="32">
         <v>76.099999999999994</v>
       </c>
       <c r="J42" s="33">
-        <f>V42</f>
+        <f>X42</f>
         <v>3</v>
       </c>
       <c r="K42" s="32">
         <v>206.1</v>
       </c>
       <c r="L42" s="33">
-        <f>W42</f>
+        <f>Y42</f>
         <v>72.5</v>
       </c>
       <c r="M42" s="32">
         <v>256.39999999999998</v>
       </c>
       <c r="N42" s="33">
-        <f t="shared" ref="N42" si="81">X42</f>
+        <f t="shared" ref="N42" si="81">Z42</f>
         <v>1</v>
       </c>
       <c r="P42" s="27"/>
-      <c r="R42" s="32">
+      <c r="R42" s="27"/>
+      <c r="T42" s="32">
         <v>1.351</v>
       </c>
-      <c r="S42" s="32">
+      <c r="U42" s="32">
         <v>1.1419999999999999</v>
       </c>
-      <c r="T42" s="32">
+      <c r="V42" s="32">
         <v>9.1999999999999993</v>
       </c>
-      <c r="U42" s="32">
+      <c r="W42" s="32">
         <v>75.099999999999994</v>
       </c>
-      <c r="V42" s="32">
+      <c r="X42" s="32">
         <v>3</v>
       </c>
-      <c r="W42" s="32">
+      <c r="Y42" s="32">
         <v>72.5</v>
       </c>
-      <c r="X42" s="85">
+      <c r="Z42" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
@@ -5677,67 +5715,67 @@
         <v>0</v>
       </c>
       <c r="D43" s="34">
-        <f>S43</f>
+        <f>U43</f>
         <v>0</v>
       </c>
       <c r="E43" s="8">
         <v>0</v>
       </c>
       <c r="F43" s="34">
-        <f>T43</f>
+        <f>V43</f>
         <v>0</v>
       </c>
       <c r="G43" s="8">
         <v>12.3</v>
       </c>
       <c r="H43" s="34">
-        <f>U43</f>
+        <f>W43</f>
         <v>13</v>
       </c>
       <c r="I43" s="8">
         <v>13</v>
       </c>
       <c r="J43" s="34">
-        <f>V43</f>
+        <f>X43</f>
         <v>13.3</v>
       </c>
       <c r="K43" s="8">
         <v>3</v>
       </c>
       <c r="L43" s="34">
-        <f t="shared" ref="L43:L47" si="82">W43</f>
+        <f t="shared" ref="L43:L47" si="82">Y43</f>
         <v>15.5</v>
       </c>
       <c r="M43" s="8">
         <v>78.8</v>
       </c>
       <c r="N43" s="34">
-        <f t="shared" ref="N43:N48" si="83">X43</f>
+        <f t="shared" ref="N43:N48" si="83">Z43</f>
         <v>19.2</v>
       </c>
-      <c r="R43" s="8">
-        <v>0</v>
-      </c>
-      <c r="S43" s="8">
-        <v>0</v>
-      </c>
       <c r="T43" s="8">
         <v>0</v>
       </c>
       <c r="U43" s="8">
+        <v>0</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
         <v>13</v>
       </c>
-      <c r="V43" s="8">
+      <c r="X43" s="8">
         <v>13.3</v>
       </c>
-      <c r="W43" s="8">
+      <c r="Y43" s="8">
         <v>15.5</v>
       </c>
-      <c r="X43" s="84">
+      <c r="Z43" s="84">
         <v>19.2</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
@@ -5745,28 +5783,28 @@
         <v>0</v>
       </c>
       <c r="D44" s="34">
-        <f t="shared" ref="D44:D47" si="84">S44</f>
+        <f t="shared" ref="D44:D47" si="84">U44</f>
         <v>0</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
       </c>
       <c r="F44" s="34">
-        <f t="shared" ref="F44:F47" si="85">T44</f>
+        <f t="shared" ref="F44:F47" si="85">V44</f>
         <v>0</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
       </c>
       <c r="H44" s="34">
-        <f t="shared" ref="H44:H47" si="86">U44</f>
+        <f t="shared" ref="H44:H47" si="86">W44</f>
         <v>0</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="34">
-        <f t="shared" ref="J44:J47" si="87">V44</f>
+        <f t="shared" ref="J44:J47" si="87">X44</f>
         <v>0</v>
       </c>
       <c r="K44" s="8">
@@ -5783,12 +5821,6 @@
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="R44" s="8">
-        <v>0</v>
-      </c>
-      <c r="S44" s="8">
-        <v>0</v>
-      </c>
       <c r="T44" s="8">
         <v>0</v>
       </c>
@@ -5801,11 +5833,17 @@
       <c r="W44" s="8">
         <v>0</v>
       </c>
-      <c r="X44" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
@@ -5851,29 +5889,29 @@
         <f t="shared" si="83"/>
         <v>280.7</v>
       </c>
-      <c r="R45" s="8">
+      <c r="T45" s="8">
         <v>134.816</v>
       </c>
-      <c r="S45" s="8">
+      <c r="U45" s="8">
         <v>149.6</v>
       </c>
-      <c r="T45" s="8">
+      <c r="V45" s="8">
         <v>164.8</v>
       </c>
-      <c r="U45" s="8">
+      <c r="W45" s="8">
         <v>186.7</v>
       </c>
-      <c r="V45" s="8">
+      <c r="X45" s="8">
         <v>186.7</v>
       </c>
-      <c r="W45" s="8">
+      <c r="Y45" s="8">
         <v>242.7</v>
       </c>
-      <c r="X45" s="84">
+      <c r="Z45" s="84">
         <v>280.7</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
@@ -5919,29 +5957,29 @@
         <f t="shared" si="83"/>
         <v>21</v>
       </c>
-      <c r="R46" s="8">
+      <c r="T46" s="8">
         <v>6.7759999999999998</v>
       </c>
-      <c r="S46" s="8">
+      <c r="U46" s="8">
         <v>8.8339999999999996</v>
       </c>
-      <c r="T46" s="8">
+      <c r="V46" s="8">
         <v>25.4</v>
       </c>
-      <c r="U46" s="8">
+      <c r="W46" s="8">
         <v>28</v>
       </c>
-      <c r="V46" s="8">
+      <c r="X46" s="8">
         <v>35.4</v>
       </c>
-      <c r="W46" s="8">
+      <c r="Y46" s="8">
         <v>20.7</v>
       </c>
-      <c r="X46" s="84">
+      <c r="Z46" s="84">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>82</v>
       </c>
@@ -5987,29 +6025,29 @@
         <f t="shared" si="83"/>
         <v>18.399999999999999</v>
       </c>
-      <c r="R47" s="8">
+      <c r="T47" s="8">
         <v>16.055</v>
       </c>
-      <c r="S47" s="8">
+      <c r="U47" s="8">
         <v>12.175000000000001</v>
       </c>
-      <c r="T47" s="8">
+      <c r="V47" s="8">
         <v>13.4</v>
       </c>
-      <c r="U47" s="8">
+      <c r="W47" s="8">
         <v>9.4</v>
       </c>
-      <c r="V47" s="8">
+      <c r="X47" s="8">
         <v>8.9</v>
       </c>
-      <c r="W47" s="8">
+      <c r="Y47" s="8">
         <v>11.6</v>
       </c>
-      <c r="X47" s="84">
+      <c r="Z47" s="84">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>94</v>
       </c>
@@ -6017,35 +6055,35 @@
         <v>0.4</v>
       </c>
       <c r="D48" s="33">
-        <f>S48</f>
+        <f>U48</f>
         <v>0.223</v>
       </c>
       <c r="E48" s="32">
         <v>0.5</v>
       </c>
       <c r="F48" s="33">
-        <f t="shared" ref="F48" si="88">T48</f>
+        <f t="shared" ref="F48" si="88">V48</f>
         <v>0.3</v>
       </c>
       <c r="G48" s="32">
         <v>0.7</v>
       </c>
       <c r="H48" s="33">
-        <f>U48</f>
+        <f>W48</f>
         <v>1</v>
       </c>
       <c r="I48" s="32">
         <v>0.9</v>
       </c>
       <c r="J48" s="33">
-        <f>V48</f>
+        <f>X48</f>
         <v>0.7</v>
       </c>
       <c r="K48" s="32">
         <v>0</v>
       </c>
       <c r="L48" s="33">
-        <f>W48</f>
+        <f>Y48</f>
         <v>0.9</v>
       </c>
       <c r="M48" s="32">
@@ -6056,29 +6094,30 @@
         <v>0.9</v>
       </c>
       <c r="P48" s="27"/>
-      <c r="R48" s="32">
+      <c r="R48" s="27"/>
+      <c r="T48" s="32">
         <v>0.315</v>
       </c>
-      <c r="S48" s="32">
+      <c r="U48" s="32">
         <v>0.223</v>
       </c>
-      <c r="T48" s="32">
+      <c r="V48" s="32">
         <v>0.3</v>
       </c>
-      <c r="U48" s="32">
+      <c r="W48" s="32">
         <v>1</v>
       </c>
-      <c r="V48" s="32">
+      <c r="X48" s="32">
         <v>0.7</v>
       </c>
-      <c r="W48" s="32">
+      <c r="Y48" s="32">
         <v>0.9</v>
       </c>
-      <c r="X48" s="85">
+      <c r="Z48" s="85">
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>100</v>
       </c>
@@ -6130,36 +6169,36 @@
         <f t="shared" si="89"/>
         <v>341.19999999999993</v>
       </c>
-      <c r="R49" s="8">
-        <f t="shared" ref="R49:X49" si="90">SUM(R42:R48)</f>
+      <c r="T49" s="8">
+        <f t="shared" ref="T49:Z49" si="90">SUM(T42:T48)</f>
         <v>159.31300000000002</v>
       </c>
-      <c r="S49" s="8">
+      <c r="U49" s="8">
         <f t="shared" si="90"/>
         <v>171.97400000000002</v>
       </c>
-      <c r="T49" s="8">
+      <c r="V49" s="8">
         <f t="shared" si="90"/>
         <v>213.10000000000002</v>
       </c>
-      <c r="U49" s="8">
+      <c r="W49" s="8">
         <f t="shared" si="90"/>
         <v>313.19999999999993</v>
       </c>
-      <c r="V49" s="8">
+      <c r="X49" s="8">
         <f t="shared" si="90"/>
         <v>248</v>
       </c>
-      <c r="W49" s="8">
+      <c r="Y49" s="8">
         <f t="shared" si="90"/>
         <v>363.9</v>
       </c>
-      <c r="X49" s="8">
+      <c r="Z49" s="8">
         <f t="shared" si="90"/>
         <v>341.19999999999993</v>
       </c>
     </row>
-    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>88</v>
       </c>
@@ -6167,68 +6206,69 @@
         <v>252.5</v>
       </c>
       <c r="D50" s="33">
-        <f>S50</f>
+        <f>U50</f>
         <v>289.91300000000001</v>
       </c>
       <c r="E50" s="32">
         <v>258</v>
       </c>
       <c r="F50" s="33">
-        <f t="shared" ref="F50:F55" si="91">T50</f>
+        <f t="shared" ref="F50:F55" si="91">V50</f>
         <v>253.7</v>
       </c>
       <c r="G50" s="32">
         <v>334.9</v>
       </c>
       <c r="H50" s="33">
-        <f>U50</f>
+        <f>W50</f>
         <v>345</v>
       </c>
       <c r="I50" s="32">
         <v>300</v>
       </c>
       <c r="J50" s="33">
-        <f>V50</f>
+        <f>X50</f>
         <v>322.3</v>
       </c>
       <c r="K50" s="32">
         <v>340.7</v>
       </c>
       <c r="L50" s="33">
-        <f>W50</f>
+        <f>Y50</f>
         <v>287.60000000000002</v>
       </c>
       <c r="M50" s="32">
         <v>545.6</v>
       </c>
       <c r="N50" s="27">
-        <f>X50</f>
+        <f>Z50</f>
         <v>677.3</v>
       </c>
       <c r="P50" s="27"/>
-      <c r="R50" s="32">
+      <c r="R50" s="27"/>
+      <c r="T50" s="32">
         <v>261.91800000000001</v>
       </c>
-      <c r="S50" s="32">
+      <c r="U50" s="32">
         <v>289.91300000000001</v>
       </c>
-      <c r="T50" s="32">
+      <c r="V50" s="32">
         <v>253.7</v>
       </c>
-      <c r="U50" s="32">
+      <c r="W50" s="32">
         <v>345</v>
       </c>
-      <c r="V50" s="32">
+      <c r="X50" s="32">
         <v>322.3</v>
       </c>
-      <c r="W50" s="32">
+      <c r="Y50" s="32">
         <v>287.60000000000002</v>
       </c>
-      <c r="X50" s="85">
+      <c r="Z50" s="85">
         <v>677.3</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -6236,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="34">
-        <f t="shared" ref="D51:D55" si="92">S51</f>
+        <f t="shared" ref="D51:D55" si="92">U51</f>
         <v>0</v>
       </c>
       <c r="E51" s="8">
@@ -6250,53 +6290,53 @@
         <v>44.7</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" ref="H51:H55" si="93">U51</f>
+        <f t="shared" ref="H51:H55" si="93">W51</f>
         <v>48.5</v>
       </c>
       <c r="I51" s="8">
         <v>51.4</v>
       </c>
       <c r="J51" s="34">
-        <f t="shared" ref="J51:J55" si="94">V51</f>
+        <f t="shared" ref="J51:J55" si="94">X51</f>
         <v>51.7</v>
       </c>
       <c r="K51" s="8">
         <v>53.4</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" ref="L51:L55" si="95">W51</f>
+        <f t="shared" ref="L51:L55" si="95">Y51</f>
         <v>56.6</v>
       </c>
       <c r="M51" s="8">
         <v>69.2</v>
       </c>
       <c r="N51" s="34">
-        <f t="shared" ref="N51:N55" si="96">X51</f>
+        <f t="shared" ref="N51:N55" si="96">Z51</f>
         <v>68.7</v>
       </c>
-      <c r="R51" s="8">
-        <v>0</v>
-      </c>
-      <c r="S51" s="8">
-        <v>0</v>
-      </c>
       <c r="T51" s="8">
         <v>0</v>
       </c>
       <c r="U51" s="8">
+        <v>0</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0</v>
+      </c>
+      <c r="W51" s="8">
         <v>48.5</v>
       </c>
-      <c r="V51" s="8">
+      <c r="X51" s="8">
         <v>51.7</v>
       </c>
-      <c r="W51" s="8">
+      <c r="Y51" s="8">
         <v>56.6</v>
       </c>
-      <c r="X51" s="84">
+      <c r="Z51" s="84">
         <v>68.7</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>90</v>
       </c>
@@ -6342,29 +6382,29 @@
         <f t="shared" si="96"/>
         <v>0.5</v>
       </c>
-      <c r="R52" s="8">
+      <c r="T52" s="8">
         <v>74.855999999999995</v>
       </c>
-      <c r="S52" s="8">
+      <c r="U52" s="8">
         <v>53.896000000000001</v>
       </c>
-      <c r="T52" s="8">
+      <c r="V52" s="8">
         <v>39.200000000000003</v>
       </c>
-      <c r="U52" s="8">
+      <c r="W52" s="8">
         <v>10.6</v>
       </c>
-      <c r="V52" s="8">
+      <c r="X52" s="8">
         <v>22.5</v>
       </c>
-      <c r="W52" s="8">
+      <c r="Y52" s="8">
         <v>0.6</v>
       </c>
-      <c r="X52" s="84">
+      <c r="Z52" s="84">
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -6410,29 +6450,29 @@
         <f t="shared" si="96"/>
         <v>21.9</v>
       </c>
-      <c r="R53" s="8">
+      <c r="T53" s="8">
         <v>11.221</v>
       </c>
-      <c r="S53" s="8">
+      <c r="U53" s="8">
         <v>12.621</v>
       </c>
-      <c r="T53" s="8">
+      <c r="V53" s="8">
         <v>11.6</v>
       </c>
-      <c r="U53" s="8">
+      <c r="W53" s="8">
         <v>13.3</v>
       </c>
-      <c r="V53" s="8">
+      <c r="X53" s="8">
         <v>16.8</v>
       </c>
-      <c r="W53" s="8">
+      <c r="Y53" s="8">
         <v>19</v>
       </c>
-      <c r="X53" s="84">
+      <c r="Z53" s="84">
         <v>21.9</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
@@ -6478,29 +6518,29 @@
         <f t="shared" si="96"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="R54" s="8">
+      <c r="T54" s="8">
         <v>16.917000000000002</v>
       </c>
-      <c r="S54" s="8">
+      <c r="U54" s="8">
         <v>23.071999999999999</v>
       </c>
-      <c r="T54" s="8">
+      <c r="V54" s="8">
         <v>10.9</v>
       </c>
-      <c r="U54" s="8">
+      <c r="W54" s="8">
         <v>21.6</v>
       </c>
-      <c r="V54" s="8">
+      <c r="X54" s="8">
         <v>8.4</v>
       </c>
-      <c r="W54" s="8">
+      <c r="Y54" s="8">
         <v>7.7</v>
       </c>
-      <c r="X54" s="84">
+      <c r="Z54" s="84">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
@@ -6546,29 +6586,29 @@
         <f t="shared" si="96"/>
         <v>70.2</v>
       </c>
-      <c r="R55" s="8">
+      <c r="T55" s="8">
         <v>100.121</v>
       </c>
-      <c r="S55" s="8">
+      <c r="U55" s="8">
         <v>66.983000000000004</v>
       </c>
-      <c r="T55" s="8">
+      <c r="V55" s="8">
         <v>33.200000000000003</v>
       </c>
-      <c r="U55" s="8">
+      <c r="W55" s="8">
         <v>48.7</v>
       </c>
-      <c r="V55" s="8">
+      <c r="X55" s="8">
         <v>40.6</v>
       </c>
-      <c r="W55" s="8">
+      <c r="Y55" s="8">
         <v>58.5</v>
       </c>
-      <c r="X55" s="84">
+      <c r="Z55" s="84">
         <v>70.2</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>93</v>
       </c>
@@ -6620,41 +6660,41 @@
         <f t="shared" si="97"/>
         <v>1189.5</v>
       </c>
-      <c r="R56" s="8">
-        <f t="shared" ref="R56:S56" si="98">R49+SUM(R50:R55)</f>
+      <c r="T56" s="8">
+        <f t="shared" ref="T56:U56" si="98">T49+SUM(T50:T55)</f>
         <v>624.346</v>
       </c>
-      <c r="S56" s="8">
+      <c r="U56" s="8">
         <f t="shared" si="98"/>
         <v>618.45900000000006</v>
       </c>
-      <c r="T56" s="8">
-        <f>T49+SUM(T50:T55)</f>
-        <v>561.70000000000005</v>
-      </c>
-      <c r="U56" s="8">
-        <f>U49+SUM(U50:U55)</f>
-        <v>800.9</v>
-      </c>
       <c r="V56" s="8">
         <f>V49+SUM(V50:V55)</f>
-        <v>710.3</v>
+        <v>561.70000000000005</v>
       </c>
       <c r="W56" s="8">
         <f>W49+SUM(W50:W55)</f>
-        <v>793.90000000000009</v>
+        <v>800.9</v>
       </c>
       <c r="X56" s="8">
         <f>X49+SUM(X50:X55)</f>
+        <v>710.3</v>
+      </c>
+      <c r="Y56" s="8">
+        <f>Y49+SUM(Y50:Y55)</f>
+        <v>793.90000000000009</v>
+      </c>
+      <c r="Z56" s="8">
+        <f>Z49+SUM(Z50:Z55)</f>
         <v>1189.5</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="M57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-    </row>
-    <row r="58" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+    </row>
+    <row r="58" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>95</v>
       </c>
@@ -6662,68 +6702,69 @@
         <v>775.3</v>
       </c>
       <c r="D58" s="34">
-        <f>S58</f>
+        <f>U58</f>
         <v>828.39700000000005</v>
       </c>
       <c r="E58" s="8">
         <v>927.3</v>
       </c>
       <c r="F58" s="34">
-        <f>T58</f>
+        <f>V58</f>
         <v>981.4</v>
       </c>
       <c r="G58" s="8">
         <v>1067.5</v>
       </c>
       <c r="H58" s="34">
-        <f>U58</f>
+        <f>W58</f>
         <v>1136.9000000000001</v>
       </c>
       <c r="I58" s="8">
         <v>1123</v>
       </c>
       <c r="J58" s="34">
-        <f>V58</f>
+        <f>X58</f>
         <v>1167.5999999999999</v>
       </c>
       <c r="K58" s="8">
         <v>1277.0999999999999</v>
       </c>
       <c r="L58" s="34">
-        <f>W58</f>
+        <f>Y58</f>
         <v>1403.1</v>
       </c>
       <c r="M58" s="8">
         <v>1627</v>
       </c>
       <c r="N58" s="34">
-        <f>X58</f>
+        <f>Z58</f>
         <v>1598.9</v>
       </c>
       <c r="P58" s="34"/>
-      <c r="R58" s="8">
+      <c r="R58" s="34"/>
+      <c r="T58" s="8">
         <v>778.63699999999994</v>
       </c>
-      <c r="S58" s="8">
+      <c r="U58" s="8">
         <v>828.39700000000005</v>
       </c>
-      <c r="T58" s="8">
+      <c r="V58" s="8">
         <v>981.4</v>
       </c>
-      <c r="U58" s="8">
+      <c r="W58" s="8">
         <v>1136.9000000000001</v>
       </c>
-      <c r="V58" s="8">
+      <c r="X58" s="8">
         <v>1167.5999999999999</v>
       </c>
-      <c r="W58" s="8">
+      <c r="Y58" s="8">
         <v>1403.1</v>
       </c>
-      <c r="X58" s="8">
+      <c r="Z58" s="8">
         <v>1598.9</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>96</v>
       </c>
@@ -6775,40 +6816,40 @@
         <f t="shared" si="99"/>
         <v>2788.4</v>
       </c>
-      <c r="R59" s="8">
-        <f t="shared" ref="R59:S59" si="100">R58+R56</f>
+      <c r="T59" s="8">
+        <f t="shared" ref="T59:U59" si="100">T58+T56</f>
         <v>1402.9829999999999</v>
       </c>
-      <c r="S59" s="8">
+      <c r="U59" s="8">
         <f t="shared" si="100"/>
         <v>1446.8560000000002</v>
       </c>
-      <c r="T59" s="8">
-        <f>T58+T56</f>
-        <v>1543.1</v>
-      </c>
-      <c r="U59" s="8">
-        <f>U58+U56</f>
-        <v>1937.8000000000002</v>
-      </c>
       <c r="V59" s="8">
         <f>V58+V56</f>
-        <v>1877.8999999999999</v>
+        <v>1543.1</v>
       </c>
       <c r="W59" s="8">
         <f>W58+W56</f>
+        <v>1937.8000000000002</v>
+      </c>
+      <c r="X59" s="8">
+        <f>X58+X56</f>
+        <v>1877.8999999999999</v>
+      </c>
+      <c r="Y59" s="8">
+        <f>Y58+Y56</f>
         <v>2197</v>
       </c>
-      <c r="X59" s="8">
-        <f t="shared" ref="X59" si="101">X58+X56</f>
+      <c r="Z59" s="8">
+        <f t="shared" ref="Z59" si="101">Z58+Z56</f>
         <v>2788.4</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
@@ -6860,36 +6901,36 @@
         <f t="shared" ref="N61" si="103">N40-N56</f>
         <v>1598.9</v>
       </c>
-      <c r="R61" s="8">
-        <f t="shared" ref="R61:S61" si="104">R40-R56</f>
+      <c r="T61" s="8">
+        <f t="shared" ref="T61:U61" si="104">T40-T56</f>
         <v>778.63699999999994</v>
       </c>
-      <c r="S61" s="8">
+      <c r="U61" s="8">
         <f t="shared" si="104"/>
         <v>828.39699999999993</v>
       </c>
-      <c r="T61" s="8">
-        <f t="shared" ref="T61" si="105">T40-T56</f>
+      <c r="V61" s="8">
+        <f t="shared" ref="V61" si="105">V40-V56</f>
         <v>981.40000000000032</v>
       </c>
-      <c r="U61" s="8">
-        <f t="shared" ref="U61" si="106">U40-U56</f>
+      <c r="W61" s="8">
+        <f t="shared" ref="W61" si="106">W40-W56</f>
         <v>1136.9000000000001</v>
       </c>
-      <c r="V61" s="8">
-        <f t="shared" ref="V61:W61" si="107">V40-V56</f>
+      <c r="X61" s="8">
+        <f t="shared" ref="X61:Y61" si="107">X40-X56</f>
         <v>1167.6000000000001</v>
       </c>
-      <c r="W61" s="8">
+      <c r="Y61" s="8">
         <f t="shared" si="107"/>
         <v>1403.1000000000004</v>
       </c>
-      <c r="X61" s="8">
-        <f t="shared" ref="X61" si="108">X40-X56</f>
+      <c r="Z61" s="8">
+        <f t="shared" ref="Z61" si="108">Z40-Z56</f>
         <v>1598.9</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>98</v>
       </c>
@@ -6941,36 +6982,36 @@
         <f t="shared" si="109"/>
         <v>4.2298941798941803</v>
       </c>
-      <c r="R62" s="1">
-        <f t="shared" ref="R62:S62" si="110">R61/R16</f>
+      <c r="T62" s="1">
+        <f t="shared" ref="T62:U62" si="110">T61/T16</f>
         <v>2.056156169391437</v>
       </c>
-      <c r="S62" s="1">
+      <c r="U62" s="1">
         <f t="shared" si="110"/>
         <v>2.1858169969439136</v>
       </c>
-      <c r="T62" s="1">
-        <f t="shared" ref="T62" si="111">T61/T16</f>
+      <c r="V62" s="1">
+        <f t="shared" ref="V62" si="111">V61/V16</f>
         <v>2.588354874319402</v>
       </c>
-      <c r="U62" s="1">
-        <f t="shared" ref="U62" si="112">U61/U16</f>
+      <c r="W62" s="1">
+        <f t="shared" ref="W62" si="112">W61/W16</f>
         <v>2.9990490331802162</v>
       </c>
-      <c r="V62" s="1">
-        <f t="shared" ref="V62:W62" si="113">V61/V16</f>
+      <c r="X62" s="1">
+        <f t="shared" ref="X62:Y62" si="113">X61/X16</f>
         <v>3.0791139240506333</v>
       </c>
-      <c r="W62" s="1">
+      <c r="Y62" s="1">
         <f t="shared" si="113"/>
         <v>3.7050435701082662</v>
       </c>
-      <c r="X62" s="1">
-        <f t="shared" ref="X62" si="114">X61/X16</f>
+      <c r="Z62" s="1">
+        <f t="shared" ref="Z62" si="114">Z61/Z16</f>
         <v>4.2298941798941803</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
@@ -7022,36 +7063,36 @@
         <f t="shared" ref="N64" si="116">N38+N39+N30</f>
         <v>192</v>
       </c>
-      <c r="R64" s="8">
-        <f t="shared" ref="R64:S64" si="117">R38+R39+R30</f>
+      <c r="T64" s="8">
+        <f t="shared" ref="T64:U64" si="117">T38+T39+T30</f>
         <v>70.977999999999994</v>
       </c>
-      <c r="S64" s="8">
+      <c r="U64" s="8">
         <f t="shared" si="117"/>
         <v>75.418999999999997</v>
       </c>
-      <c r="T64" s="8">
-        <f t="shared" ref="T64" si="118">T38+T39+T30</f>
+      <c r="V64" s="8">
+        <f t="shared" ref="V64" si="118">V38+V39+V30</f>
         <v>86.000000000000014</v>
       </c>
-      <c r="U64" s="8">
-        <f t="shared" ref="U64" si="119">U38+U39+U30</f>
+      <c r="W64" s="8">
+        <f t="shared" ref="W64" si="119">W38+W39+W30</f>
         <v>112.1</v>
       </c>
-      <c r="V64" s="8">
-        <f>V38+V39+V30</f>
+      <c r="X64" s="8">
+        <f>X38+X39+X30</f>
         <v>145.1</v>
       </c>
-      <c r="W64" s="8">
-        <f>W38+W39+W30</f>
+      <c r="Y64" s="8">
+        <f>Y38+Y39+Y30</f>
         <v>166.29999999999998</v>
       </c>
-      <c r="X64" s="8">
-        <f t="shared" ref="X64" si="120">X38+X39+X30</f>
+      <c r="Z64" s="8">
+        <f t="shared" ref="Z64" si="120">Z38+Z39+Z30</f>
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
@@ -7103,36 +7144,36 @@
         <f t="shared" ref="N65" si="122">N50+N42+N48</f>
         <v>679.19999999999993</v>
       </c>
-      <c r="R65" s="8">
-        <f t="shared" ref="R65:S65" si="123">R50+R42+R48</f>
+      <c r="T65" s="8">
+        <f t="shared" ref="T65:U65" si="123">T50+T42+T48</f>
         <v>263.584</v>
       </c>
-      <c r="S65" s="8">
+      <c r="U65" s="8">
         <f t="shared" si="123"/>
         <v>291.27800000000002</v>
       </c>
-      <c r="T65" s="8">
-        <f t="shared" ref="T65" si="124">T50+T42+T48</f>
+      <c r="V65" s="8">
+        <f t="shared" ref="V65" si="124">V50+V42+V48</f>
         <v>263.2</v>
       </c>
-      <c r="U65" s="8">
-        <f t="shared" ref="U65" si="125">U50+U42+U48</f>
+      <c r="W65" s="8">
+        <f t="shared" ref="W65" si="125">W50+W42+W48</f>
         <v>421.1</v>
       </c>
-      <c r="V65" s="8">
-        <f>V50+V42+V48</f>
+      <c r="X65" s="8">
+        <f>X50+X42+X48</f>
         <v>326</v>
       </c>
-      <c r="W65" s="8">
-        <f>W50+W42+W48</f>
+      <c r="Y65" s="8">
+        <f>Y50+Y42+Y48</f>
         <v>361</v>
       </c>
-      <c r="X65" s="8">
-        <f t="shared" ref="X65" si="126">X50+X42+X48</f>
+      <c r="Z65" s="8">
+        <f t="shared" ref="Z65" si="126">Z50+Z42+Z48</f>
         <v>679.19999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
@@ -7184,36 +7225,36 @@
         <f t="shared" si="127"/>
         <v>-487.19999999999993</v>
       </c>
-      <c r="R66" s="8">
-        <f t="shared" ref="R66" si="128">R64-R65</f>
+      <c r="T66" s="8">
+        <f t="shared" ref="T66" si="128">T64-T65</f>
         <v>-192.60599999999999</v>
       </c>
-      <c r="S66" s="8">
-        <f t="shared" ref="S66" si="129">S64-S65</f>
+      <c r="U66" s="8">
+        <f t="shared" ref="U66" si="129">U64-U65</f>
         <v>-215.85900000000004</v>
       </c>
-      <c r="T66" s="8">
-        <f t="shared" ref="T66" si="130">T64-T65</f>
+      <c r="V66" s="8">
+        <f t="shared" ref="V66" si="130">V64-V65</f>
         <v>-177.2</v>
       </c>
-      <c r="U66" s="8">
-        <f t="shared" ref="U66" si="131">U64-U65</f>
+      <c r="W66" s="8">
+        <f t="shared" ref="W66" si="131">W64-W65</f>
         <v>-309</v>
       </c>
-      <c r="V66" s="8">
-        <f>V64-V65</f>
+      <c r="X66" s="8">
+        <f>X64-X65</f>
         <v>-180.9</v>
       </c>
-      <c r="W66" s="8">
-        <f>W64-W65</f>
+      <c r="Y66" s="8">
+        <f>Y64-Y65</f>
         <v>-194.70000000000002</v>
       </c>
-      <c r="X66" s="8">
-        <f t="shared" ref="X66" si="132">X64-X65</f>
+      <c r="Z66" s="8">
+        <f t="shared" ref="Z66" si="132">Z64-Z65</f>
         <v>-487.19999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="35" t="s">
         <v>99</v>
       </c>
@@ -7221,108 +7262,109 @@
         <v>10.8497</v>
       </c>
       <c r="D68" s="36">
-        <f>R68</f>
+        <f>T68</f>
         <v>9.7027000000000001</v>
       </c>
       <c r="E68" s="35">
         <v>14.0044</v>
       </c>
       <c r="F68" s="36">
-        <f>T68</f>
+        <f>V68</f>
         <v>16.279199999999999</v>
       </c>
       <c r="G68" s="35">
         <v>19.282</v>
       </c>
       <c r="H68" s="36">
-        <f>U68</f>
+        <f>W68</f>
         <v>18.8504</v>
       </c>
       <c r="I68" s="35">
         <v>23.1129</v>
       </c>
       <c r="J68" s="36">
-        <f>V68</f>
+        <f>X68</f>
         <v>23.4651</v>
       </c>
       <c r="K68" s="35">
         <v>28.1996</v>
       </c>
       <c r="L68" s="36">
-        <f>W68</f>
+        <f>Y68</f>
         <v>24.9636</v>
       </c>
       <c r="M68" s="35">
         <v>20.45</v>
       </c>
       <c r="N68" s="36">
-        <f>X68</f>
+        <f>Z68</f>
         <v>22.29</v>
       </c>
       <c r="P68" s="36"/>
-      <c r="R68" s="35">
+      <c r="R68" s="36"/>
+      <c r="T68" s="35">
         <v>9.7027000000000001</v>
       </c>
-      <c r="S68" s="35">
+      <c r="U68" s="35">
         <v>13.076000000000001</v>
       </c>
-      <c r="T68" s="35">
+      <c r="V68" s="35">
         <v>16.279199999999999</v>
       </c>
-      <c r="U68" s="35">
+      <c r="W68" s="35">
         <v>18.8504</v>
       </c>
-      <c r="V68" s="35">
+      <c r="X68" s="35">
         <v>23.4651</v>
       </c>
-      <c r="W68" s="35">
+      <c r="Y68" s="35">
         <v>24.9636</v>
       </c>
-      <c r="X68" s="83">
+      <c r="Z68" s="83">
         <v>22.29</v>
       </c>
-      <c r="Y68" s="73">
-        <f>Y15*Y75</f>
+      <c r="AA68" s="73">
+        <f>AA15*AA75</f>
         <v>22.248994050410282</v>
       </c>
-      <c r="Z68" s="73">
-        <f t="shared" ref="Z68:AH68" si="133">Z15*Z75</f>
+      <c r="AB68" s="73">
+        <f t="shared" ref="AB68:AJ68" si="133">AB15*AB75</f>
         <v>25.781705456531345</v>
       </c>
-      <c r="AA68" s="73">
+      <c r="AC68" s="73">
         <f t="shared" si="133"/>
         <v>29.340308990655021</v>
       </c>
-      <c r="AB68" s="73">
+      <c r="AD68" s="73">
         <f t="shared" si="133"/>
         <v>32.289091733218605</v>
       </c>
-      <c r="AC68" s="73">
+      <c r="AE68" s="73">
         <f t="shared" si="133"/>
         <v>35.884254806006609</v>
       </c>
-      <c r="AD68" s="73">
+      <c r="AF68" s="73">
         <f t="shared" si="133"/>
         <v>39.468093417611101</v>
       </c>
-      <c r="AE68" s="73">
+      <c r="AG68" s="73">
         <f t="shared" si="133"/>
         <v>43.337385060414334</v>
       </c>
-      <c r="AF68" s="73">
+      <c r="AH68" s="73">
         <f t="shared" si="133"/>
         <v>47.659053456164521</v>
       </c>
-      <c r="AG68" s="73">
+      <c r="AI68" s="73">
         <f t="shared" si="133"/>
         <v>52.393567242365876</v>
       </c>
-      <c r="AH68" s="73">
+      <c r="AJ68" s="73">
         <f t="shared" si="133"/>
         <v>57.592597510381061</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
@@ -7374,36 +7416,34 @@
         <f t="shared" ref="N69" si="137">N68*N16</f>
         <v>8425.619999999999</v>
       </c>
-      <c r="R69" s="8">
-        <f t="shared" ref="R69:S69" si="138">R68*R16</f>
+      <c r="T69" s="8">
+        <f t="shared" ref="T69:U69" si="138">T68*T16</f>
         <v>3674.2740324709998</v>
       </c>
-      <c r="S69" s="8">
+      <c r="U69" s="8">
         <f t="shared" si="138"/>
         <v>4955.6386409039997</v>
       </c>
-      <c r="T69" s="8">
-        <f t="shared" ref="T69:W69" si="139">T68*T16</f>
+      <c r="V69" s="8">
+        <f t="shared" ref="V69:Y69" si="139">V68*V16</f>
         <v>6172.4174835960002</v>
       </c>
-      <c r="U69" s="8">
+      <c r="W69" s="8">
         <f t="shared" si="139"/>
         <v>7145.9384367832008</v>
       </c>
-      <c r="V69" s="8">
+      <c r="X69" s="8">
         <f t="shared" si="139"/>
         <v>8897.9659199999987</v>
       </c>
-      <c r="W69" s="8">
+      <c r="Y69" s="8">
         <f t="shared" si="139"/>
         <v>9453.7153199999993</v>
       </c>
-      <c r="X69" s="8">
-        <f t="shared" ref="X69" si="140">X68*X16</f>
+      <c r="Z69" s="8">
+        <f t="shared" ref="Z69" si="140">Z68*Z16</f>
         <v>8425.619999999999</v>
       </c>
-      <c r="Y69" s="74"/>
-      <c r="Z69" s="74"/>
       <c r="AA69" s="74"/>
       <c r="AB69" s="74"/>
       <c r="AC69" s="74"/>
@@ -7412,8 +7452,10 @@
       <c r="AF69" s="74"/>
       <c r="AG69" s="74"/>
       <c r="AH69" s="74"/>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI69" s="74"/>
+      <c r="AJ69" s="74"/>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
@@ -7465,36 +7507,34 @@
         <f t="shared" ref="N70" si="144">N69-N66</f>
         <v>8912.82</v>
       </c>
-      <c r="R70" s="8">
-        <f t="shared" ref="R70:S70" si="145">R69-R66</f>
+      <c r="T70" s="8">
+        <f t="shared" ref="T70:U70" si="145">T69-T66</f>
         <v>3866.880032471</v>
       </c>
-      <c r="S70" s="8">
+      <c r="U70" s="8">
         <f t="shared" si="145"/>
         <v>5171.497640904</v>
       </c>
-      <c r="T70" s="8">
-        <f t="shared" ref="T70:W70" si="146">T69-T66</f>
+      <c r="V70" s="8">
+        <f t="shared" ref="V70:Y70" si="146">V69-V66</f>
         <v>6349.6174835960001</v>
       </c>
-      <c r="U70" s="8">
+      <c r="W70" s="8">
         <f t="shared" si="146"/>
         <v>7454.9384367832008</v>
       </c>
-      <c r="V70" s="8">
+      <c r="X70" s="8">
         <f t="shared" si="146"/>
         <v>9078.8659199999984</v>
       </c>
-      <c r="W70" s="8">
+      <c r="Y70" s="8">
         <f t="shared" si="146"/>
         <v>9648.4153200000001</v>
       </c>
-      <c r="X70" s="8">
-        <f t="shared" ref="X70" si="147">X69-X66</f>
+      <c r="Z70" s="8">
+        <f t="shared" ref="Z70" si="147">Z69-Z66</f>
         <v>8912.82</v>
       </c>
-      <c r="Y70" s="74"/>
-      <c r="Z70" s="74"/>
       <c r="AA70" s="74"/>
       <c r="AB70" s="74"/>
       <c r="AC70" s="74"/>
@@ -7503,10 +7543,10 @@
       <c r="AF70" s="74"/>
       <c r="AG70" s="74"/>
       <c r="AH70" s="74"/>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="Y71" s="74"/>
-      <c r="Z71" s="74"/>
+      <c r="AI70" s="74"/>
+      <c r="AJ70" s="74"/>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="AA71" s="74"/>
       <c r="AB71" s="74"/>
       <c r="AC71" s="74"/>
@@ -7515,10 +7555,12 @@
       <c r="AF71" s="74"/>
       <c r="AG71" s="74"/>
       <c r="AH71" s="74"/>
-    </row>
-    <row r="72" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI71" s="74"/>
+      <c r="AJ71" s="74"/>
+    </row>
+    <row r="72" spans="1:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45">
-        <f>AVERAGE(C72:AX72)</f>
+        <f>AVERAGE(C72:AZ72)</f>
         <v>6.2285365210643278</v>
       </c>
       <c r="B72" s="42" t="s">
@@ -7573,36 +7615,35 @@
         <v>5.2696353743198445</v>
       </c>
       <c r="P72" s="56"/>
-      <c r="R72" s="42">
-        <f t="shared" ref="R72:S72" si="150">R68/R62</f>
+      <c r="R72" s="56"/>
+      <c r="T72" s="42">
+        <f t="shared" ref="T72:U72" si="150">T68/T62</f>
         <v>4.7188536281617752</v>
       </c>
-      <c r="S72" s="42">
+      <c r="U72" s="42">
         <f t="shared" si="150"/>
         <v>5.9822025440748829</v>
       </c>
-      <c r="T72" s="42">
-        <f t="shared" ref="T72" si="151">T68/T62</f>
+      <c r="V72" s="42">
+        <f t="shared" ref="V72" si="151">V68/V62</f>
         <v>6.2894003297289567</v>
       </c>
-      <c r="U72" s="42">
-        <f t="shared" ref="U72:V72" si="152">U68/U62</f>
+      <c r="W72" s="42">
+        <f t="shared" ref="W72:X72" si="152">W68/W62</f>
         <v>6.2854590876798309</v>
       </c>
-      <c r="V72" s="42">
+      <c r="X72" s="42">
         <f t="shared" si="152"/>
         <v>7.620731346351489</v>
       </c>
-      <c r="W72" s="42">
-        <f>W68/W62</f>
+      <c r="Y72" s="42">
+        <f>Y68/Y62</f>
         <v>6.7377345306820589</v>
       </c>
-      <c r="X72" s="42">
-        <f t="shared" ref="X72" si="153">X68/X62</f>
+      <c r="Z72" s="42">
+        <f t="shared" ref="Z72" si="153">Z68/Z62</f>
         <v>5.2696353743198445</v>
       </c>
-      <c r="Y72" s="75"/>
-      <c r="Z72" s="75"/>
       <c r="AA72" s="75"/>
       <c r="AB72" s="75"/>
       <c r="AC72" s="75"/>
@@ -7611,10 +7652,12 @@
       <c r="AF72" s="75"/>
       <c r="AG72" s="75"/>
       <c r="AH72" s="75"/>
-    </row>
-    <row r="73" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI72" s="75"/>
+      <c r="AJ72" s="75"/>
+    </row>
+    <row r="73" spans="1:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45">
-        <f>AVERAGE(C73:AX73)</f>
+        <f>AVERAGE(C73:AZ73)</f>
         <v>5.3788632260313358</v>
       </c>
       <c r="B73" s="42" t="s">
@@ -7665,36 +7708,35 @@
         <v>4.547506476683937</v>
       </c>
       <c r="P73" s="56"/>
-      <c r="R73" s="42">
-        <f t="shared" ref="R73:S73" si="156">R69/R4</f>
+      <c r="R73" s="56"/>
+      <c r="T73" s="42">
+        <f t="shared" ref="T73:U73" si="156">T69/T4</f>
         <v>3.82075410328265</v>
       </c>
-      <c r="S73" s="42">
+      <c r="U73" s="42">
         <f t="shared" si="156"/>
         <v>4.60470915174069</v>
       </c>
-      <c r="T73" s="42">
-        <f t="shared" ref="T73" si="157">T69/T4</f>
+      <c r="V73" s="42">
+        <f t="shared" ref="V73" si="157">V69/V4</f>
         <v>5.0973800343513087</v>
       </c>
-      <c r="U73" s="42">
-        <f t="shared" ref="U73:V73" si="158">U69/U4</f>
+      <c r="W73" s="42">
+        <f t="shared" ref="W73:X73" si="158">W69/W4</f>
         <v>5.3391650005851767</v>
       </c>
-      <c r="V73" s="42">
+      <c r="X73" s="42">
         <f t="shared" si="158"/>
         <v>6.7500879380974039</v>
       </c>
-      <c r="W73" s="42">
-        <f>W69/W4</f>
+      <c r="Y73" s="42">
+        <f>Y69/Y4</f>
         <v>6.1979383203304268</v>
       </c>
-      <c r="X73" s="42">
-        <f t="shared" ref="X73" si="159">X69/X4</f>
+      <c r="Z73" s="42">
+        <f t="shared" ref="Z73" si="159">Z69/Z4</f>
         <v>4.547506476683937</v>
       </c>
-      <c r="Y73" s="75"/>
-      <c r="Z73" s="75"/>
       <c r="AA73" s="75"/>
       <c r="AB73" s="75"/>
       <c r="AC73" s="75"/>
@@ -7703,10 +7745,12 @@
       <c r="AF73" s="75"/>
       <c r="AG73" s="75"/>
       <c r="AH73" s="75"/>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI73" s="75"/>
+      <c r="AJ73" s="75"/>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="45">
-        <f>AVERAGE(C74:AX74)</f>
+        <f>AVERAGE(C74:AZ74)</f>
         <v>5.5778946853835443</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -7756,36 +7800,34 @@
         <f t="shared" si="161"/>
         <v>4.8104598445595856</v>
       </c>
-      <c r="R74" s="42">
-        <f t="shared" ref="R74:S74" si="162">R70/R4</f>
+      <c r="T74" s="42">
+        <f t="shared" ref="T74:U74" si="162">T70/T4</f>
         <v>4.0210386107291338</v>
       </c>
-      <c r="S74" s="42">
+      <c r="U74" s="42">
         <f t="shared" si="162"/>
         <v>4.8052822735541634</v>
       </c>
-      <c r="T74" s="42">
-        <f t="shared" ref="T74" si="163">T70/T4</f>
+      <c r="V74" s="42">
+        <f t="shared" ref="V74" si="163">V70/V4</f>
         <v>5.243717469317037</v>
       </c>
-      <c r="U74" s="42">
-        <f t="shared" ref="U74:V74" si="164">U70/U4</f>
+      <c r="W74" s="42">
+        <f t="shared" ref="W74:X74" si="164">W70/W4</f>
         <v>5.5700376843867305</v>
       </c>
-      <c r="V74" s="42">
+      <c r="X74" s="42">
         <f t="shared" si="164"/>
         <v>6.8873205279927161</v>
       </c>
-      <c r="W74" s="42">
-        <f>W70/W4</f>
+      <c r="Y74" s="42">
+        <f>Y70/Y4</f>
         <v>6.325585340588737</v>
       </c>
-      <c r="X74" s="42">
-        <f t="shared" ref="X74" si="165">X70/X4</f>
+      <c r="Z74" s="42">
+        <f t="shared" ref="Z74" si="165">Z70/Z4</f>
         <v>4.8104598445595856</v>
       </c>
-      <c r="Y74" s="74"/>
-      <c r="Z74" s="74"/>
       <c r="AA74" s="74"/>
       <c r="AB74" s="74"/>
       <c r="AC74" s="74"/>
@@ -7794,10 +7836,12 @@
       <c r="AF74" s="74"/>
       <c r="AG74" s="74"/>
       <c r="AH74" s="74"/>
-    </row>
-    <row r="75" spans="1:34" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI74" s="74"/>
+      <c r="AJ74" s="74"/>
+    </row>
+    <row r="75" spans="1:36" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45">
-        <f>AVERAGE(C75:AX75)</f>
+        <f>AVERAGE(C75:AZ75)</f>
         <v>33.175486684729108</v>
       </c>
       <c r="B75" s="42" t="s">
@@ -7848,39 +7892,34 @@
         <v>31.029100640179731</v>
       </c>
       <c r="P75" s="56"/>
-      <c r="R75" s="42">
-        <f t="shared" ref="R75:S75" si="167">R68/R15</f>
+      <c r="R75" s="56"/>
+      <c r="T75" s="42">
+        <f t="shared" ref="T75:U75" si="167">T68/T15</f>
         <v>28.33142388692179</v>
       </c>
-      <c r="S75" s="42">
+      <c r="U75" s="42">
         <f t="shared" si="167"/>
         <v>32.131899790595746</v>
       </c>
-      <c r="T75" s="42">
-        <f t="shared" ref="T75" si="168">T68/T15</f>
+      <c r="V75" s="42">
+        <f t="shared" ref="V75" si="168">V68/V15</f>
         <v>36.35110414367491</v>
       </c>
-      <c r="U75" s="42">
-        <f t="shared" ref="U75:V75" si="169">U68/U15</f>
+      <c r="W75" s="42">
+        <f t="shared" ref="W75:X75" si="169">W68/W15</f>
         <v>38.752377639822122</v>
       </c>
-      <c r="V75" s="42">
+      <c r="X75" s="42">
         <f t="shared" si="169"/>
         <v>43.767663157894724</v>
       </c>
-      <c r="W75" s="42">
-        <f>W68/W15</f>
+      <c r="Y75" s="42">
+        <f>Y68/Y15</f>
         <v>38.713002948402945</v>
       </c>
-      <c r="X75" s="42">
-        <f t="shared" ref="X75" si="170">X68/X15</f>
+      <c r="Z75" s="42">
+        <f t="shared" ref="Z75" si="170">Z68/Z15</f>
         <v>31.022164948453611</v>
-      </c>
-      <c r="Y75" s="75">
-        <v>27</v>
-      </c>
-      <c r="Z75" s="75">
-        <v>27</v>
       </c>
       <c r="AA75" s="75">
         <v>27</v>
@@ -7906,46 +7945,52 @@
       <c r="AH75" s="75">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI75" s="75">
+        <v>27</v>
+      </c>
+      <c r="AJ75" s="75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="45">
-        <f>AVERAGE(C76:AX76)</f>
+        <f>AVERAGE(C76:AZ76)</f>
         <v>36.879228444488263</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M76" s="37"/>
-      <c r="R76" s="42">
-        <f t="shared" ref="R76:S76" si="171">R70/R12</f>
+      <c r="T76" s="42">
+        <f t="shared" ref="T76:U76" si="171">T70/T12</f>
         <v>29.81656140822275</v>
       </c>
-      <c r="S76" s="42">
+      <c r="U76" s="42">
         <f t="shared" si="171"/>
         <v>33.531509459397782</v>
       </c>
-      <c r="T76" s="42">
-        <f t="shared" ref="T76" si="172">T70/T12</f>
+      <c r="V76" s="42">
+        <f t="shared" ref="V76" si="172">V70/V12</f>
         <v>37.394684826831565</v>
       </c>
-      <c r="U76" s="42">
-        <f t="shared" ref="U76:V76" si="173">U70/U12</f>
+      <c r="W76" s="42">
+        <f t="shared" ref="W76:X76" si="173">W70/W12</f>
         <v>40.428082628976135</v>
       </c>
-      <c r="V76" s="42">
+      <c r="X76" s="42">
         <f t="shared" si="173"/>
         <v>44.657481160846025</v>
       </c>
-      <c r="W76" s="42">
-        <f>W70/W12</f>
+      <c r="Y76" s="42">
+        <f>Y70/Y12</f>
         <v>39.51030024570025</v>
       </c>
-      <c r="X76" s="42">
-        <f t="shared" ref="X76" si="174">X70/X12</f>
+      <c r="Z76" s="42">
+        <f t="shared" ref="Z76" si="174">Z70/Z12</f>
         <v>32.815979381443299</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>27</v>
       </c>
@@ -7976,32 +8021,32 @@
         <f t="shared" si="175"/>
         <v>0.12602157567832623</v>
       </c>
-      <c r="R77" s="37">
-        <f t="shared" ref="R77:S77" si="176">R5/(R40-R49)</f>
+      <c r="T77" s="37">
+        <f t="shared" ref="T77:U77" si="176">T5/(T40-T49)</f>
         <v>0.13433627891643282</v>
       </c>
-      <c r="S77" s="37">
+      <c r="U77" s="37">
         <f t="shared" si="176"/>
         <v>0.14217629553166489</v>
       </c>
-      <c r="T77" s="37">
-        <f t="shared" ref="T77" si="177">T5/(T40-T49)</f>
+      <c r="V77" s="37">
+        <f t="shared" ref="V77" si="177">V5/(V40-V49)</f>
         <v>0.16375939849624055</v>
       </c>
-      <c r="U77" s="37">
-        <f t="shared" ref="U77:V77" si="178">U5/(U40-U49)</f>
+      <c r="W77" s="37">
+        <f t="shared" ref="W77:X77" si="178">W5/(W40-W49)</f>
         <v>0.14366613320201896</v>
       </c>
-      <c r="V77" s="37">
+      <c r="X77" s="37">
         <f t="shared" si="178"/>
         <v>0.14773912509969936</v>
       </c>
-      <c r="W77" s="37">
-        <f>W5/(W40-W49)</f>
+      <c r="Y77" s="37">
+        <f>Y5/(Y40-Y49)</f>
         <v>0.15214663684468929</v>
       </c>
-      <c r="X77" s="37">
-        <f t="shared" ref="X77" si="179">X5/(X40-X49)</f>
+      <c r="Z77" s="37">
+        <f t="shared" ref="Z77" si="179">Z5/(Z40-Z49)</f>
         <v>0.12602157567832623</v>
       </c>
     </row>
@@ -8010,10 +8055,10 @@
     <hyperlink ref="M1" r:id="rId1" xr:uid="{64230965-EEC2-4818-9500-5E49F2C6FBF5}"/>
     <hyperlink ref="I1" r:id="rId2" xr:uid="{879E0608-9977-4013-9DB7-7908B60FAFB2}"/>
     <hyperlink ref="E1" r:id="rId3" xr:uid="{D2F2E719-2F49-4057-B46A-7E29B8F345FA}"/>
-    <hyperlink ref="W1" r:id="rId4" xr:uid="{312EC780-3433-42F0-97FF-0788993E5A29}"/>
-    <hyperlink ref="U1" r:id="rId5" xr:uid="{313C0DA0-3F4A-45BC-BA9D-854CC763EEA6}"/>
-    <hyperlink ref="S1" r:id="rId6" xr:uid="{B420B23F-BF59-41C1-AE19-1013F6B154AB}"/>
-    <hyperlink ref="X1" r:id="rId7" xr:uid="{1EC7322D-B974-46E2-8739-C1251328BC54}"/>
+    <hyperlink ref="Y1" r:id="rId4" xr:uid="{312EC780-3433-42F0-97FF-0788993E5A29}"/>
+    <hyperlink ref="W1" r:id="rId5" xr:uid="{313C0DA0-3F4A-45BC-BA9D-854CC763EEA6}"/>
+    <hyperlink ref="U1" r:id="rId6" xr:uid="{B420B23F-BF59-41C1-AE19-1013F6B154AB}"/>
+    <hyperlink ref="Z1" r:id="rId7" xr:uid="{1EC7322D-B974-46E2-8739-C1251328BC54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
@@ -8021,7 +8066,7 @@
     <ignoredError sqref="L10 L34 L49 J10 H10:H15 J34 J49 H34 H49 F34 F49 G75:H75 D34 D49 E75 N10 N49" formula="1"/>
     <ignoredError sqref="D11:F14 E10 E15:F15" evalError="1"/>
     <ignoredError sqref="F10 D10" evalError="1" formula="1"/>
-    <ignoredError sqref="Y8:Y10" formulaRange="1"/>
+    <ignoredError sqref="AA8:AA10" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId9"/>
 </worksheet>

--- a/£HLMA.xlsx
+++ b/£HLMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923E2069-BC64-4BA8-B780-06DDC6A566E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21A8F03-E3DB-434E-B978-A1DFB4BA46C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{1821E3F4-C005-474E-95BC-C5AE66A060FF}"/>
   </bookViews>
@@ -951,13 +951,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -974,7 +974,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9772650" y="0"/>
+          <a:off x="9782175" y="0"/>
           <a:ext cx="0" cy="17278350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1351,7 +1351,7 @@
   <dimension ref="B2:Z38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2216,7 +2216,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2443,6 +2443,9 @@
         <v>45092</v>
       </c>
       <c r="P3" s="26"/>
+      <c r="Q3" s="30">
+        <v>45625</v>
+      </c>
       <c r="R3" s="26"/>
       <c r="U3" s="30">
         <v>45089</v>
